--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD904A9-7254-4C86-81A1-2E4BC322999A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F643100-3FAD-4F98-BEA5-D27945E75DB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18405" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
   <si>
     <t>£BOWL</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>P/E</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -963,19 +966,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,12 +1015,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1524,27 +1527,27 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
-      <c r="H5" s="121" t="s">
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="H5" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="123"/>
-      <c r="O5" s="121" t="s">
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
+      <c r="O5" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="123"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="121"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1554,12 +1557,12 @@
         <v>1.6719999999999999</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="H6" s="126" t="s">
+      <c r="H6" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
       <c r="L6" s="72" t="s">
         <v>104</v>
       </c>
@@ -1581,12 +1584,12 @@
       <c r="D7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="128" t="s">
+      <c r="H7" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
       <c r="L7" s="73">
         <v>45</v>
       </c>
@@ -1607,12 +1610,12 @@
         <v>286.02903999999995</v>
       </c>
       <c r="D8" s="40"/>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
       <c r="L8" s="73">
         <v>11</v>
       </c>
@@ -1634,12 +1637,12 @@
       <c r="D9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="130" t="s">
+      <c r="H9" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
       <c r="L9" s="73">
         <v>6</v>
       </c>
@@ -1661,12 +1664,12 @@
       <c r="D10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
       <c r="L10" s="73">
         <v>7</v>
       </c>
@@ -1689,12 +1692,12 @@
       <c r="D11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="130" t="s">
+      <c r="H11" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
       <c r="L11" s="73">
         <v>6</v>
       </c>
@@ -1715,12 +1718,12 @@
         <v>236.42903999999996</v>
       </c>
       <c r="D12" s="41"/>
-      <c r="H12" s="131" t="s">
+      <c r="H12" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
       <c r="L12" s="74">
         <v>174</v>
       </c>
@@ -1754,41 +1757,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="120"/>
+      <c r="D16" s="123"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="H17" s="121" t="s">
+      <c r="D17" s="123"/>
+      <c r="H17" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="123"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
       <c r="H18" s="99" t="s">
         <v>121</v>
       </c>
@@ -1799,8 +1802,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
       <c r="H19" s="107" t="s">
         <v>122</v>
       </c>
@@ -1832,11 +1835,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="121"/>
       <c r="H22" s="107" t="s">
         <v>124</v>
       </c>
@@ -1849,10 +1852,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="120"/>
+      <c r="D23" s="123"/>
       <c r="H23" s="108" t="s">
         <v>130</v>
       </c>
@@ -1865,10 +1868,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="120"/>
+      <c r="D24" s="123"/>
       <c r="H24" s="99"/>
       <c r="I24" s="100"/>
       <c r="J24" s="100"/>
@@ -1879,10 +1882,10 @@
       <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="119">
+      <c r="C25" s="122">
         <v>64</v>
       </c>
-      <c r="D25" s="120"/>
+      <c r="D25" s="123"/>
       <c r="H25" s="99"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
@@ -1893,8 +1896,8 @@
       <c r="B26" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
       <c r="H26" s="105"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -1905,10 +1908,10 @@
       <c r="B27" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="119">
+      <c r="C27" s="122">
         <v>2016</v>
       </c>
-      <c r="D27" s="120"/>
+      <c r="D27" s="123"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
@@ -1919,17 +1922,17 @@
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="132" t="s">
+      <c r="C29" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="133"/>
-      <c r="H29" s="121" t="s">
+      <c r="D29" s="135"/>
+      <c r="H29" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="123"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="121"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="99" t="s">
@@ -1950,11 +1953,11 @@
       <c r="L31" s="104"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="123"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="121"/>
       <c r="H32" s="107" t="s">
         <v>126</v>
       </c>
@@ -1967,8 +1970,8 @@
       <c r="B33" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="120"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
       <c r="H33" s="107"/>
       <c r="I33" s="100"/>
       <c r="J33" s="100"/>
@@ -1979,11 +1982,11 @@
       <c r="B34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="134">
+      <c r="C34" s="124">
         <f>C8/'Financial Model'!U3</f>
         <v>3.9793683741895984</v>
       </c>
-      <c r="D34" s="135"/>
+      <c r="D34" s="125"/>
       <c r="H34" s="99" t="s">
         <v>123</v>
       </c>
@@ -1996,11 +1999,11 @@
       <c r="B35" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="134">
+      <c r="C35" s="124">
         <f>C6/('Financial Model'!U13*100)</f>
         <v>1.5927327925462913</v>
       </c>
-      <c r="D35" s="135"/>
+      <c r="D35" s="125"/>
       <c r="H35" s="107" t="s">
         <v>129</v>
       </c>
@@ -2038,11 +2041,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2057,15 +2063,12 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="H29:L29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2085,7 +2088,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4432,7 +4435,7 @@
     </row>
     <row r="19" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="24">

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F643100-3FAD-4F98-BEA5-D27945E75DB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3FECF-41FE-4404-AF74-08F0BC303D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18405" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18405" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
   <si>
     <t>£BOWL</t>
   </si>
@@ -966,6 +966,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,40 +981,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O31:O32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1527,42 +1527,42 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121"/>
-      <c r="H5" s="119" t="s">
+      <c r="C5" s="122"/>
+      <c r="D5" s="123"/>
+      <c r="H5" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-      <c r="O5" s="119" t="s">
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="123"/>
+      <c r="O5" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="121"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="123"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="58">
-        <v>1.6719999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
       <c r="L6" s="72" t="s">
         <v>104</v>
       </c>
@@ -1584,12 +1584,12 @@
       <c r="D7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="73">
         <v>45</v>
       </c>
@@ -1607,15 +1607,15 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>286.02903999999995</v>
+        <v>345.56139999999999</v>
       </c>
       <c r="D8" s="40"/>
-      <c r="H8" s="132" t="s">
+      <c r="H8" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
       <c r="L8" s="73">
         <v>11</v>
       </c>
@@ -1637,12 +1637,12 @@
       <c r="D9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="132" t="s">
+      <c r="H9" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
       <c r="L9" s="73">
         <v>6</v>
       </c>
@@ -1664,12 +1664,12 @@
       <c r="D10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
       <c r="L10" s="73">
         <v>7</v>
       </c>
@@ -1692,12 +1692,12 @@
       <c r="D11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
       <c r="L11" s="73">
         <v>6</v>
       </c>
@@ -1715,15 +1715,15 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>236.42903999999996</v>
+        <v>295.96139999999997</v>
       </c>
       <c r="D12" s="41"/>
-      <c r="H12" s="133" t="s">
+      <c r="H12" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
       <c r="L12" s="74">
         <v>174</v>
       </c>
@@ -1757,41 +1757,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="123"/>
+      <c r="D16" s="120"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="H17" s="119" t="s">
+      <c r="D17" s="120"/>
+      <c r="H17" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="123"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
       <c r="H18" s="99" t="s">
         <v>121</v>
       </c>
@@ -1802,8 +1802,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="H19" s="107" t="s">
         <v>122</v>
       </c>
@@ -1835,11 +1835,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
       <c r="H22" s="107" t="s">
         <v>124</v>
       </c>
@@ -1852,10 +1852,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="123"/>
+      <c r="D23" s="120"/>
       <c r="H23" s="108" t="s">
         <v>130</v>
       </c>
@@ -1868,10 +1868,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="123"/>
+      <c r="D24" s="120"/>
       <c r="H24" s="99"/>
       <c r="I24" s="100"/>
       <c r="J24" s="100"/>
@@ -1882,10 +1882,10 @@
       <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="122">
+      <c r="C25" s="119">
         <v>64</v>
       </c>
-      <c r="D25" s="123"/>
+      <c r="D25" s="120"/>
       <c r="H25" s="99"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
@@ -1896,8 +1896,8 @@
       <c r="B26" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="123"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="120"/>
       <c r="H26" s="105"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -1908,10 +1908,10 @@
       <c r="B27" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="122">
+      <c r="C27" s="119">
         <v>2016</v>
       </c>
-      <c r="D27" s="123"/>
+      <c r="D27" s="120"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
@@ -1926,13 +1926,13 @@
         <v>32</v>
       </c>
       <c r="D29" s="135"/>
-      <c r="H29" s="119" t="s">
+      <c r="H29" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="121"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="123"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="99" t="s">
@@ -1953,11 +1953,11 @@
       <c r="L31" s="104"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="123"/>
       <c r="H32" s="107" t="s">
         <v>126</v>
       </c>
@@ -1970,8 +1970,11 @@
       <c r="B33" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="122"/>
-      <c r="D33" s="123"/>
+      <c r="C33" s="132">
+        <f>C6/'Financial Model'!L61</f>
+        <v>2.6117247115988658</v>
+      </c>
+      <c r="D33" s="133"/>
       <c r="H33" s="107"/>
       <c r="I33" s="100"/>
       <c r="J33" s="100"/>
@@ -1982,11 +1985,11 @@
       <c r="B34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="124">
+      <c r="C34" s="132">
         <f>C8/'Financial Model'!U3</f>
-        <v>3.9793683741895984</v>
-      </c>
-      <c r="D34" s="125"/>
+        <v>4.8076101171429366</v>
+      </c>
+      <c r="D34" s="133"/>
       <c r="H34" s="99" t="s">
         <v>123</v>
       </c>
@@ -1999,11 +2002,11 @@
       <c r="B35" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="124">
+      <c r="C35" s="132">
         <f>C6/('Financial Model'!U13*100)</f>
-        <v>1.5927327925462913</v>
-      </c>
-      <c r="D35" s="125"/>
+        <v>1.9242345938657348</v>
+      </c>
+      <c r="D35" s="133"/>
       <c r="H35" s="107" t="s">
         <v>129</v>
       </c>
@@ -2041,14 +2044,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2063,12 +2064,14 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2084,11 +2087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
   <dimension ref="A1:CR72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4711,7 +4714,7 @@
       </c>
       <c r="AO21" s="82">
         <f>Main!C6</f>
-        <v>1.6719999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="AP21" s="57"/>
     </row>
@@ -4825,7 +4828,7 @@
       </c>
       <c r="AO22" s="81">
         <f>AO20/AO21-1</f>
-        <v>3.6625498764664615</v>
+        <v>2.8592987096296647</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5427,16 +5430,34 @@
       <c r="B60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L60" s="23"/>
+      <c r="H60" s="23">
+        <f>H44-H55</f>
+        <v>75.831000000000103</v>
+      </c>
+      <c r="L60" s="23">
+        <f>L44-L55</f>
+        <v>132.12499999999994</v>
+      </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="H61" s="1">
+        <f>H60/H14</f>
+        <v>0.50318915060727853</v>
+      </c>
+      <c r="L61" s="1">
+        <f>L60/L14</f>
+        <v>0.77343526713555533</v>
+      </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
+      <c r="B64" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3FECF-41FE-4404-AF74-08F0BC303D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA43D6C3-2DC4-4466-B3FA-237213953296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18405" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
   <si>
     <t>£BOWL</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>£BOWL strikes deal for 36k SQFT site in Birmingham, Merry Hill</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -766,7 +772,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -866,8 +872,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -966,6 +970,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1527,47 +1541,51 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
-      <c r="H5" s="121" t="s">
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="H5" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="123"/>
-      <c r="O5" s="121" t="s">
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="125"/>
+      <c r="O5" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="123"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="125"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="58">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="H6" s="126" t="s">
+      <c r="H6" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="72" t="s">
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="6"/>
+      <c r="O6" s="119">
+        <v>44866</v>
+      </c>
+      <c r="P6" s="120" t="s">
+        <v>140</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -1581,19 +1599,20 @@
       <c r="C7" s="14">
         <v>171.07</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="128" t="s">
+      <c r="D7" s="40" t="str">
+        <f>$C$28</f>
+        <v>H122</v>
+      </c>
+      <c r="H7" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="73">
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="71">
         <v>45</v>
       </c>
-      <c r="O7" s="59"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1607,19 +1626,19 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>345.56139999999999</v>
+        <v>371.22189999999995</v>
       </c>
       <c r="D8" s="40"/>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="73">
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="71">
         <v>11</v>
       </c>
-      <c r="O8" s="59"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -1634,19 +1653,20 @@
       <c r="C9" s="14">
         <v>49.6</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="130" t="s">
+      <c r="D9" s="40" t="str">
+        <f t="shared" ref="D9:D11" si="0">$C$28</f>
+        <v>H122</v>
+      </c>
+      <c r="H9" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="73">
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="71">
         <v>6</v>
       </c>
-      <c r="O9" s="59"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1661,19 +1681,20 @@
       <c r="C10" s="14">
         <v>0</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="130" t="s">
+      <c r="D10" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>H122</v>
+      </c>
+      <c r="H10" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="73">
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="71">
         <v>7</v>
       </c>
-      <c r="O10" s="59"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -1689,19 +1710,20 @@
         <f>C9-C10</f>
         <v>49.6</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="130" t="s">
+      <c r="D11" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>H122</v>
+      </c>
+      <c r="H11" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="73">
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="71">
         <v>6</v>
       </c>
-      <c r="O11" s="59"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -1715,19 +1737,19 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>295.96139999999997</v>
+        <v>321.62189999999993</v>
       </c>
       <c r="D12" s="41"/>
-      <c r="H12" s="131" t="s">
+      <c r="H12" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="74">
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="72">
         <v>174</v>
       </c>
-      <c r="O12" s="59"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -1736,10 +1758,10 @@
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="O13" s="59"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -1748,7 +1770,7 @@
       <c r="U13" s="7"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="O14" s="60"/>
+      <c r="O14" s="18"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
@@ -1757,290 +1779,294 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="120"/>
+      <c r="D16" s="122"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="H17" s="121" t="s">
+      <c r="D17" s="122"/>
+      <c r="H17" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="123"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="125"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="H18" s="99" t="s">
+      <c r="C18" s="121"/>
+      <c r="D18" s="122"/>
+      <c r="H18" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="104"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="61"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
-      <c r="H19" s="107" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="H19" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H20" s="107"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="104"/>
-      <c r="P20" s="116" t="s">
+      <c r="H20" s="105"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="102"/>
+      <c r="P20" s="114" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H21" s="99" t="s">
+      <c r="H21" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="104"/>
-      <c r="P21" s="116" t="s">
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
+      <c r="P21" s="114" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
-      <c r="H22" s="107" t="s">
+      <c r="C22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="H22" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="104"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="102"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="H23" s="108" t="s">
+      <c r="D23" s="122"/>
+      <c r="H23" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="102"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="120"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="104"/>
+      <c r="D24" s="122"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="102"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="119">
+      <c r="C25" s="121">
         <v>64</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="104"/>
+      <c r="D25" s="122"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="102"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="122"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="100"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="119">
+      <c r="C27" s="121">
         <v>2016</v>
       </c>
-      <c r="D27" s="120"/>
+      <c r="D27" s="122"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="118"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="H29" s="121" t="s">
+      <c r="D29" s="137"/>
+      <c r="H29" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="123"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="125"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H30" s="99" t="s">
+      <c r="H30" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="104"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="102"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H31" s="107" t="s">
+      <c r="H31" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="104"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="102"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="123"/>
-      <c r="H32" s="107" t="s">
+      <c r="C32" s="124"/>
+      <c r="D32" s="125"/>
+      <c r="H32" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="104"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="102"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="132">
+      <c r="C33" s="134">
         <f>C6/'Financial Model'!L61</f>
-        <v>2.6117247115988658</v>
-      </c>
-      <c r="D33" s="133"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="104"/>
+        <v>2.8056646654304647</v>
+      </c>
+      <c r="D33" s="135"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="102"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="132">
+      <c r="C34" s="134">
         <f>C8/'Financial Model'!U3</f>
-        <v>4.8076101171429366</v>
-      </c>
-      <c r="D34" s="133"/>
-      <c r="H34" s="99" t="s">
+        <v>5.1646108684159264</v>
+      </c>
+      <c r="D34" s="135"/>
+      <c r="H34" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="104"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="102"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="132">
+      <c r="C35" s="134">
         <f>C6/('Financial Model'!U13*100)</f>
-        <v>1.9242345938657348</v>
-      </c>
-      <c r="D35" s="133"/>
-      <c r="H35" s="107" t="s">
+        <v>2.0671233013310122</v>
+      </c>
+      <c r="D35" s="135"/>
+      <c r="H35" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="104"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="102"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="118"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="104"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="102"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="17"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="118"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="104"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="102"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="102"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2076,10 +2102,11 @@
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
     <hyperlink ref="H7:K7" r:id="rId2" display="Ten Entertainment Group" xr:uid="{3ECDA33B-F500-4B53-BFC3-C26A5E9CD34E}"/>
+    <hyperlink ref="P6" r:id="rId3" xr:uid="{D95A0780-5F95-45A9-AA92-44BF55CFDC51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2370,67 +2397,67 @@
         <f>U3*360%</f>
         <v>258.76080000000002</v>
       </c>
-      <c r="W3" s="110">
+      <c r="W3" s="108">
         <f>V3*1.04</f>
         <v>269.11123200000003</v>
       </c>
-      <c r="X3" s="110">
+      <c r="X3" s="108">
         <f t="shared" ref="X3:AL3" si="1">W3*1.04</f>
         <v>279.87568128000004</v>
       </c>
-      <c r="Y3" s="110">
+      <c r="Y3" s="108">
         <f t="shared" si="1"/>
         <v>291.07070853120007</v>
       </c>
-      <c r="Z3" s="110">
+      <c r="Z3" s="108">
         <f t="shared" si="1"/>
         <v>302.71353687244806</v>
       </c>
-      <c r="AA3" s="110">
+      <c r="AA3" s="108">
         <f t="shared" si="1"/>
         <v>314.82207834734601</v>
       </c>
-      <c r="AB3" s="110">
+      <c r="AB3" s="108">
         <f t="shared" si="1"/>
         <v>327.41496148123986</v>
       </c>
-      <c r="AC3" s="110">
+      <c r="AC3" s="108">
         <f t="shared" si="1"/>
         <v>340.51155994048946</v>
       </c>
-      <c r="AD3" s="110">
+      <c r="AD3" s="108">
         <f t="shared" si="1"/>
         <v>354.13202233810904</v>
       </c>
-      <c r="AE3" s="110">
+      <c r="AE3" s="108">
         <f t="shared" si="1"/>
         <v>368.29730323163341</v>
       </c>
-      <c r="AF3" s="110">
+      <c r="AF3" s="108">
         <f t="shared" si="1"/>
         <v>383.02919536089877</v>
       </c>
-      <c r="AG3" s="110">
+      <c r="AG3" s="108">
         <f t="shared" si="1"/>
         <v>398.35036317533473</v>
       </c>
-      <c r="AH3" s="110">
+      <c r="AH3" s="108">
         <f t="shared" si="1"/>
         <v>414.28437770234814</v>
       </c>
-      <c r="AI3" s="110">
+      <c r="AI3" s="108">
         <f t="shared" si="1"/>
         <v>430.85575281044208</v>
       </c>
-      <c r="AJ3" s="110">
+      <c r="AJ3" s="108">
         <f t="shared" si="1"/>
         <v>448.0899829228598</v>
       </c>
-      <c r="AK3" s="110">
+      <c r="AK3" s="108">
         <f t="shared" si="1"/>
         <v>466.01358223977422</v>
       </c>
-      <c r="AL3" s="110">
+      <c r="AL3" s="108">
         <f t="shared" si="1"/>
         <v>484.65412552936522</v>
       </c>
@@ -2622,7 +2649,7 @@
         <f t="shared" si="4"/>
         <v>222.534288</v>
       </c>
-      <c r="W5" s="109">
+      <c r="W5" s="107">
         <f t="shared" si="4"/>
         <v>231.43565952000003</v>
       </c>
@@ -2742,7 +2769,7 @@
       <c r="V6" s="47">
         <v>0.4</v>
       </c>
-      <c r="W6" s="111">
+      <c r="W6" s="109">
         <v>0.1</v>
       </c>
       <c r="X6" s="1">
@@ -3102,7 +3129,7 @@
       <c r="V9" s="45">
         <v>3.1</v>
       </c>
-      <c r="W9" s="111">
+      <c r="W9" s="109">
         <v>1.9</v>
       </c>
       <c r="X9" s="1">
@@ -3216,7 +3243,7 @@
         <f t="shared" si="12"/>
         <v>86.313715200000019</v>
       </c>
-      <c r="W10" s="112">
+      <c r="W10" s="110">
         <f t="shared" si="12"/>
         <v>92.777072400000037</v>
       </c>
@@ -3438,7 +3465,7 @@
         <f t="shared" si="15"/>
         <v>48.938283200000029</v>
       </c>
-      <c r="O12" s="115"/>
+      <c r="O12" s="113"/>
       <c r="P12" s="12">
         <f t="shared" ref="P12:W12" si="16">P10-P11</f>
         <v>1.1869999999999874</v>
@@ -3467,7 +3494,7 @@
         <f t="shared" si="16"/>
         <v>75.963283200000021</v>
       </c>
-      <c r="W12" s="109">
+      <c r="W12" s="107">
         <f t="shared" si="16"/>
         <v>82.012623120000029</v>
       </c>
@@ -4017,11 +4044,11 @@
       </c>
     </row>
     <row r="15" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W15" s="111"/>
+      <c r="W15" s="109"/>
       <c r="AN15" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="AO15" s="77">
+      <c r="AO15" s="75">
         <v>0.01</v>
       </c>
     </row>
@@ -4090,7 +4117,7 @@
         <f>V5/V3</f>
         <v>0.86</v>
       </c>
-      <c r="W16" s="113">
+      <c r="W16" s="111">
         <f>W5/W3</f>
         <v>0.86</v>
       </c>
@@ -4157,7 +4184,7 @@
       <c r="AN16" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="AO16" s="78">
+      <c r="AO16" s="76">
         <v>0.1</v>
       </c>
     </row>
@@ -4218,7 +4245,7 @@
         <f>T8/T3</f>
         <v>0.12407987618436456</v>
       </c>
-      <c r="U17" s="62">
+      <c r="U17" s="60">
         <f>U8/U3</f>
         <v>0.13328139347227252</v>
       </c>
@@ -4226,7 +4253,7 @@
         <f>V8/V3</f>
         <v>0.34554582919824023</v>
       </c>
-      <c r="W17" s="113">
+      <c r="W17" s="111">
         <f>W8/W3</f>
         <v>0.35181390124957712</v>
       </c>
@@ -4293,7 +4320,7 @@
       <c r="AN17" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="AO17" s="79">
+      <c r="AO17" s="77">
         <f>NPV(AO16,V12:CR12)</f>
         <v>1284.0246651178204</v>
       </c>
@@ -4364,7 +4391,7 @@
         <f>V12/V3</f>
         <v>0.29356565291187853</v>
       </c>
-      <c r="W18" s="113">
+      <c r="W18" s="111">
         <f>W12/W3</f>
         <v>0.30475362366146064</v>
       </c>
@@ -4431,7 +4458,7 @@
       <c r="AN18" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AO18" s="79">
+      <c r="AO18" s="77">
         <f>Main!C11</f>
         <v>49.6</v>
       </c>
@@ -4568,17 +4595,17 @@
       <c r="AN19" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="AO19" s="79">
+      <c r="AO19" s="77">
         <f>AO17+AO18</f>
         <v>1333.6246651178203</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W20" s="111"/>
+      <c r="W20" s="109"/>
       <c r="AN20" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="AO20" s="80">
+      <c r="AO20" s="78">
         <f>AO19/Main!C7</f>
         <v>7.7957833934519227</v>
       </c>
@@ -4645,7 +4672,7 @@
         <f>V3/U3-1</f>
         <v>2.6</v>
       </c>
-      <c r="W21" s="113">
+      <c r="W21" s="111">
         <f>W3/V3-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -4712,9 +4739,9 @@
       <c r="AN21" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="AO21" s="82">
+      <c r="AO21" s="80">
         <f>Main!C6</f>
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="AP21" s="57"/>
     </row>
@@ -4775,7 +4802,7 @@
       <c r="V22" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="W22" s="114" t="s">
+      <c r="W22" s="112" t="s">
         <v>72</v>
       </c>
       <c r="X22" s="39" t="s">
@@ -4826,9 +4853,9 @@
       <c r="AN22" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="AO22" s="81">
+      <c r="AO22" s="79">
         <f>AO20/AO21-1</f>
-        <v>2.8592987096296647</v>
+        <v>2.5925269094248491</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4900,15 +4927,15 @@
       <c r="B25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
       <c r="P25" s="3">
         <v>54</v>
       </c>
@@ -4948,7 +4975,7 @@
       <c r="AP25" s="1"/>
     </row>
     <row r="26" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="61" t="s">
         <v>99</v>
       </c>
       <c r="E26" s="35"/>
@@ -4986,7 +5013,7 @@
       <c r="AK26" s="39"/>
     </row>
     <row r="27" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="61" t="s">
         <v>100</v>
       </c>
       <c r="S27" s="1">
@@ -4997,144 +5024,144 @@
       </c>
     </row>
     <row r="28" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62">
         <v>0</v>
       </c>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64">
+      <c r="T28" s="62"/>
+      <c r="U28" s="62">
         <v>3</v>
       </c>
-      <c r="V28" s="70"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-    </row>
-    <row r="29" spans="1:42" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="89" t="s">
+      <c r="V28" s="68"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+    </row>
+    <row r="29" spans="1:42" s="86" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90" t="s">
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="P29" s="98">
+      <c r="P29" s="96">
         <f>P3/P25</f>
         <v>1.9407962962962964</v>
       </c>
-      <c r="Q29" s="98">
+      <c r="Q29" s="96">
         <f t="shared" ref="Q29:U29" si="42">Q3/Q25</f>
         <v>1.9649655172413794</v>
       </c>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98">
+      <c r="R29" s="96"/>
+      <c r="S29" s="96">
         <f t="shared" si="42"/>
         <v>2.1649000000000003</v>
       </c>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98">
+      <c r="T29" s="96"/>
+      <c r="U29" s="96">
         <f t="shared" si="42"/>
         <v>1.12309375</v>
       </c>
-      <c r="V29" s="92"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="88"/>
     </row>
     <row r="30" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
       <c r="P30" s="37">
         <v>12.1</v>
       </c>
       <c r="Q30" s="37">
         <v>13.1</v>
       </c>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-    </row>
-    <row r="31" spans="1:42" s="93" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="94" t="s">
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+    </row>
+    <row r="31" spans="1:42" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="M31" s="96"/>
-      <c r="P31" s="97">
+      <c r="E31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="M31" s="94"/>
+      <c r="P31" s="95">
         <f>P3/P30</f>
         <v>8.6614049586776858</v>
       </c>
-      <c r="Q31" s="97">
+      <c r="Q31" s="95">
         <f>Q3/Q30</f>
         <v>8.6998473282442745</v>
       </c>
-      <c r="V31" s="96"/>
+      <c r="V31" s="94"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="30" t="s">
@@ -5202,18 +5229,18 @@
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="75"/>
-      <c r="G40" s="75"/>
+      <c r="E40" s="73"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="12">
         <v>15.635999999999999</v>
       </c>
-      <c r="I40" s="75"/>
-      <c r="K40" s="75"/>
+      <c r="I40" s="73"/>
+      <c r="K40" s="73"/>
       <c r="L40" s="12">
         <v>49.576999999999998</v>
       </c>
-      <c r="M40" s="76"/>
-      <c r="V40" s="76"/>
+      <c r="M40" s="74"/>
+      <c r="V40" s="74"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
@@ -5308,18 +5335,18 @@
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="75"/>
-      <c r="G49" s="75"/>
+      <c r="E49" s="73"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="12">
         <v>5.38</v>
       </c>
-      <c r="I49" s="75"/>
-      <c r="K49" s="75"/>
+      <c r="I49" s="73"/>
+      <c r="K49" s="73"/>
       <c r="L49" s="12">
         <v>0</v>
       </c>
-      <c r="M49" s="76"/>
-      <c r="V49" s="76"/>
+      <c r="M49" s="74"/>
+      <c r="V49" s="74"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
@@ -5361,18 +5388,18 @@
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="75"/>
-      <c r="G53" s="75"/>
+      <c r="E53" s="73"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="12">
         <v>24.693000000000001</v>
       </c>
-      <c r="I53" s="75"/>
-      <c r="K53" s="75"/>
+      <c r="I53" s="73"/>
+      <c r="K53" s="73"/>
       <c r="L53" s="12">
         <v>0</v>
       </c>
-      <c r="M53" s="76"/>
-      <c r="V53" s="76"/>
+      <c r="M53" s="74"/>
+      <c r="V53" s="74"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA43D6C3-2DC4-4466-B3FA-237213953296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9290F943-E158-364F-8237-5F3DEEBD232F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18405" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18400" activeTab="2" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Historical Projections" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v5.0" hidden="1">'Financial Model'!$P$1</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">'Financial Model'!$Q$12:$W$12</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">'Financial Model'!$Q$1:$W$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,25 +47,65 @@
     <author>me</author>
   </authors>
   <commentList>
-    <comment ref="S26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
+    <comment ref="T26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>7 in pipeline
-- 1 (2020) 
-- 2 (2021)
-- 2 (2022)
-- 2 (2023)</t>
+          <t xml:space="preserve">7 in pipeline
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- 1 (2020) 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- 2 (2021)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- 2 (2022)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- 2 (2023)</t>
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
+    <comment ref="T28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
       <text>
         <r>
           <rPr>
@@ -68,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="142">
   <si>
     <t>£BOWL</t>
   </si>
@@ -500,14 +556,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="#\x"/>
     <numFmt numFmtId="168" formatCode="0.0\x"/>
+    <numFmt numFmtId="172" formatCode="0.000\x"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,8 +690,49 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +772,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,14 +882,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -793,7 +903,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,7 +926,6 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -865,17 +974,14 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -940,37 +1046,20 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,7 +1069,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,7 +1093,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,7 +1108,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,11 +1120,60 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1120,13 +1258,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1170,13 +1308,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1221,8 +1359,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1510,7 +1652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1520,70 +1662,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="123" t="s">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="H5" s="123" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="H5" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="125"/>
-      <c r="O5" s="123" t="s">
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="110"/>
+      <c r="O5" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="125"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="110"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="58">
-        <v>2.17</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="H6" s="128" t="s">
+      <c r="C6" s="26">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="H6" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="70" t="s">
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="119">
+      <c r="O6" s="104">
         <v>44866</v>
       </c>
-      <c r="P6" s="120" t="s">
+      <c r="P6" s="105" t="s">
         <v>140</v>
       </c>
       <c r="Q6" s="6"/>
@@ -1592,24 +1734,25 @@
       <c r="T6" s="6"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <v>171.07</v>
-      </c>
-      <c r="D7" s="40" t="str">
+        <f>'Financial Model'!W14</f>
+        <v>170.949286</v>
+      </c>
+      <c r="D7" s="39" t="str">
         <f>$C$28</f>
-        <v>H122</v>
-      </c>
-      <c r="H7" s="130" t="s">
+        <v>FY22</v>
+      </c>
+      <c r="H7" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="71">
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="67">
         <v>45</v>
       </c>
       <c r="O7" s="17"/>
@@ -1620,22 +1763,22 @@
       <c r="T7" s="6"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>371.22189999999995</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="H8" s="132" t="s">
+        <v>407.71404710999997</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="H8" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="71">
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="67">
         <v>11</v>
       </c>
       <c r="O8" s="17"/>
@@ -1646,24 +1789,24 @@
       <c r="T8" s="6"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="14">
         <v>49.6</v>
       </c>
-      <c r="D9" s="40" t="str">
+      <c r="D9" s="39" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>H122</v>
-      </c>
-      <c r="H9" s="132" t="s">
+        <v>FY22</v>
+      </c>
+      <c r="H9" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="71">
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="67">
         <v>6</v>
       </c>
       <c r="O9" s="17"/>
@@ -1674,24 +1817,24 @@
       <c r="T9" s="6"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="14">
         <v>0</v>
       </c>
-      <c r="D10" s="40" t="str">
+      <c r="D10" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>H122</v>
-      </c>
-      <c r="H10" s="132" t="s">
+        <v>FY22</v>
+      </c>
+      <c r="H10" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="71">
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="67">
         <v>7</v>
       </c>
       <c r="O10" s="17"/>
@@ -1702,7 +1845,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1710,17 +1853,17 @@
         <f>C9-C10</f>
         <v>49.6</v>
       </c>
-      <c r="D11" s="40" t="str">
+      <c r="D11" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>H122</v>
-      </c>
-      <c r="H11" s="132" t="s">
+        <v>FY22</v>
+      </c>
+      <c r="H11" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="71">
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="67">
         <v>6</v>
       </c>
       <c r="O11" s="17"/>
@@ -1731,22 +1874,22 @@
       <c r="T11" s="6"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>321.62189999999993</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="H12" s="133" t="s">
+        <v>358.11404710999994</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="H12" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="72">
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="68">
         <v>174</v>
       </c>
       <c r="O12" s="17"/>
@@ -1757,10 +1900,10 @@
       <c r="T12" s="6"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
       <c r="O13" s="17"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1769,7 +1912,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
       <c r="O14" s="18"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -1778,295 +1921,297 @@
       <c r="T14" s="8"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="123" t="s">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B15" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="122"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="H17" s="123" t="s">
+      <c r="D17" s="107"/>
+      <c r="H17" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="H18" s="97" t="s">
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
+      <c r="H18" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="102"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="59"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
-      <c r="H19" s="105" t="s">
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B19" s="56"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="H19" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="102"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H20" s="105"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="102"/>
-      <c r="P20" s="114" t="s">
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H20" s="97"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+      <c r="P20" s="101" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H21" s="97" t="s">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H21" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="102"/>
-      <c r="P21" s="114" t="s">
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="P21" s="101" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="123" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B22" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="125"/>
-      <c r="H22" s="105" t="s">
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="H22" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="102"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="H23" s="106" t="s">
+      <c r="D23" s="107"/>
+      <c r="H23" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="102"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="102"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D24" s="107"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="121">
+      <c r="C25" s="106">
         <v>64</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="102"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D25" s="107"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="100"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B27" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="121">
+      <c r="C27" s="106">
         <v>2016</v>
       </c>
-      <c r="D27" s="122"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D27" s="107"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="117" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="118"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C28" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="127">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="H29" s="123" t="s">
+      <c r="D29" s="122"/>
+      <c r="H29" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="125"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H30" s="97" t="s">
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="110"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H30" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="102"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H31" s="105" t="s">
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H31" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="102"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="123" t="s">
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B32" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
-      <c r="H32" s="105" t="s">
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
+      <c r="H32" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="102"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="134">
+      <c r="C33" s="119">
         <f>C6/'Financial Model'!L61</f>
-        <v>2.8056646654304647</v>
-      </c>
-      <c r="D33" s="135"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+        <v>3.0836452659224229</v>
+      </c>
+      <c r="D33" s="120"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="134">
-        <f>C8/'Financial Model'!U3</f>
-        <v>5.1646108684159264</v>
-      </c>
-      <c r="D34" s="135"/>
-      <c r="H34" s="97" t="s">
+      <c r="C34" s="119">
+        <f>C8/'Financial Model'!V3</f>
+        <v>5.6723065069979679</v>
+      </c>
+      <c r="D34" s="120"/>
+      <c r="H34" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="102"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="134">
-        <f>C6/('Financial Model'!U13*100)</f>
-        <v>2.0671233013310122</v>
-      </c>
-      <c r="D35" s="135"/>
-      <c r="H35" s="105" t="s">
+      <c r="C35" s="119">
+        <f>C6/('Financial Model'!V13*100)</f>
+        <v>2.2719304486979093</v>
+      </c>
+      <c r="D35" s="120"/>
+      <c r="H35" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="102"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="17"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="102"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="17"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="116"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="102"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H38" s="103"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="103"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H38" s="95"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2112,190 +2257,197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
-  <dimension ref="A1:CR72"/>
+  <dimension ref="A1:CT72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="26"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="26"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="26"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="26"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="47"/>
-    <col min="14" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="9.140625" style="47"/>
-    <col min="23" max="39" width="9.140625" style="1"/>
-    <col min="40" max="40" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="9.1640625" style="25"/>
+    <col min="6" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="9.1640625" style="25"/>
+    <col min="8" max="8" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="9.1640625" style="25"/>
+    <col min="10" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="9.1640625" style="25"/>
+    <col min="12" max="12" width="9.1640625" style="1"/>
+    <col min="13" max="13" width="9.1640625" style="25"/>
+    <col min="14" max="14" width="9.1640625" style="46"/>
+    <col min="15" max="23" width="9.1640625" style="1"/>
+    <col min="24" max="24" width="9.1640625" style="46"/>
+    <col min="25" max="41" width="9.1640625" style="1"/>
+    <col min="42" max="42" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>113</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="R1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="T1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="V1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="W1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="19"/>
-      <c r="E2" s="36"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="22">
         <v>43921</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="35">
         <v>43738</v>
       </c>
       <c r="H2" s="22">
         <v>43921</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="35">
         <v>44104</v>
       </c>
       <c r="J2" s="22">
         <v>44286</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="35">
         <v>44469</v>
       </c>
       <c r="L2" s="22">
         <v>44651</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="35">
+        <v>44834</v>
+      </c>
+      <c r="N2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="22">
+      <c r="Q2" s="22">
         <v>42643</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="R2" s="22">
         <v>43008</v>
       </c>
-      <c r="R2" s="22">
+      <c r="S2" s="22">
         <v>43373</v>
       </c>
-      <c r="S2" s="22">
+      <c r="T2" s="22">
         <v>43738</v>
       </c>
-      <c r="T2" s="22">
+      <c r="U2" s="22">
         <v>44104</v>
       </c>
-      <c r="U2" s="22">
+      <c r="V2" s="22">
         <v>44469</v>
       </c>
-      <c r="V2" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="21" t="s">
+      <c r="W2" s="22">
+        <v>44834</v>
+      </c>
+      <c r="X2" s="42" t="s">
         <v>68</v>
       </c>
       <c r="Y2" s="21" t="s">
@@ -2340,268 +2492,288 @@
       <c r="AL2" s="21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="12">
         <v>66.989999999999995</v>
       </c>
-      <c r="G3" s="31">
-        <f t="shared" ref="G3:G12" si="0">S3-F3</f>
+      <c r="G3" s="30">
+        <f t="shared" ref="G3:G12" si="0">T3-F3</f>
         <v>62.904000000000011</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="36">
         <v>69.23</v>
       </c>
-      <c r="I3" s="31">
-        <f>T3-H3</f>
+      <c r="I3" s="30">
+        <f>U3-H3</f>
         <v>10.242999999999995</v>
       </c>
       <c r="J3" s="12">
         <v>10.433</v>
       </c>
-      <c r="K3" s="31">
-        <f>U3-J3</f>
+      <c r="K3" s="30">
+        <f>V3-J3</f>
         <v>61.445</v>
       </c>
       <c r="L3" s="12">
         <v>100.173</v>
       </c>
-      <c r="M3" s="44">
-        <f>V3-L3</f>
+      <c r="M3" s="30">
+        <f>W3-L3</f>
+        <v>93.568000000000012</v>
+      </c>
+      <c r="N3" s="43">
+        <f>X3-L3</f>
         <v>158.58780000000002</v>
       </c>
-      <c r="P3" s="12">
+      <c r="Q3" s="12">
         <v>104.803</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="R3" s="12">
         <v>113.968</v>
       </c>
-      <c r="R3" s="12">
+      <c r="S3" s="12">
         <v>120.548</v>
       </c>
-      <c r="S3" s="12">
+      <c r="T3" s="12">
         <v>129.89400000000001</v>
       </c>
-      <c r="T3" s="12">
+      <c r="U3" s="12">
         <v>79.472999999999999</v>
       </c>
-      <c r="U3" s="12">
+      <c r="V3" s="12">
         <v>71.878</v>
       </c>
-      <c r="V3" s="44">
-        <f>U3*360%</f>
+      <c r="W3" s="12">
+        <v>193.74100000000001</v>
+      </c>
+      <c r="X3" s="43">
+        <f>V3*360%</f>
         <v>258.76080000000002</v>
       </c>
-      <c r="W3" s="108">
-        <f>V3*1.04</f>
+      <c r="Y3" s="36">
+        <f>X3*1.04</f>
         <v>269.11123200000003</v>
       </c>
-      <c r="X3" s="108">
-        <f t="shared" ref="X3:AL3" si="1">W3*1.04</f>
+      <c r="Z3" s="36">
+        <f>Y3*1.04</f>
         <v>279.87568128000004</v>
       </c>
-      <c r="Y3" s="108">
-        <f t="shared" si="1"/>
+      <c r="AA3" s="36">
+        <f t="shared" ref="AA3:AN3" si="1">Z3*1.04</f>
         <v>291.07070853120007</v>
       </c>
-      <c r="Z3" s="108">
+      <c r="AB3" s="36">
         <f t="shared" si="1"/>
         <v>302.71353687244806</v>
       </c>
-      <c r="AA3" s="108">
+      <c r="AC3" s="36">
         <f t="shared" si="1"/>
         <v>314.82207834734601</v>
       </c>
-      <c r="AB3" s="108">
+      <c r="AD3" s="36">
         <f t="shared" si="1"/>
         <v>327.41496148123986</v>
       </c>
-      <c r="AC3" s="108">
+      <c r="AE3" s="36">
         <f t="shared" si="1"/>
         <v>340.51155994048946</v>
       </c>
-      <c r="AD3" s="108">
+      <c r="AF3" s="36">
         <f t="shared" si="1"/>
         <v>354.13202233810904</v>
       </c>
-      <c r="AE3" s="108">
+      <c r="AG3" s="36">
         <f t="shared" si="1"/>
         <v>368.29730323163341</v>
       </c>
-      <c r="AF3" s="108">
+      <c r="AH3" s="36">
         <f t="shared" si="1"/>
         <v>383.02919536089877</v>
       </c>
-      <c r="AG3" s="108">
+      <c r="AI3" s="36">
         <f t="shared" si="1"/>
         <v>398.35036317533473</v>
       </c>
-      <c r="AH3" s="108">
+      <c r="AJ3" s="36">
         <f t="shared" si="1"/>
         <v>414.28437770234814</v>
       </c>
-      <c r="AI3" s="108">
+      <c r="AK3" s="36">
         <f t="shared" si="1"/>
         <v>430.85575281044208</v>
       </c>
-      <c r="AJ3" s="108">
+      <c r="AL3" s="36">
         <f t="shared" si="1"/>
         <v>448.0899829228598</v>
       </c>
-      <c r="AK3" s="108">
+      <c r="AM3" s="36">
         <f t="shared" si="1"/>
         <v>466.01358223977422</v>
       </c>
-      <c r="AL3" s="108">
+      <c r="AN3" s="36">
         <f t="shared" si="1"/>
         <v>484.65412552936522</v>
       </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="23">
+      <c r="E4" s="31"/>
+      <c r="F4" s="14">
         <v>9.4740000000000002</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <f t="shared" si="0"/>
         <v>9.0680000000000014</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>9.9760000000000009</v>
       </c>
-      <c r="I4" s="32">
-        <f>T4-H4</f>
+      <c r="I4" s="31">
+        <f>U4-H4</f>
         <v>1.5669999999999984</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="14">
         <v>1.1919999999999999</v>
       </c>
-      <c r="K4" s="32">
-        <f>U4-J4</f>
+      <c r="K4" s="31">
+        <f>V4-J4</f>
         <v>9.0649999999999995</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="14">
         <v>13.641</v>
       </c>
-      <c r="M4" s="45">
-        <f>V4-L4</f>
+      <c r="M4" s="31">
+        <f>W4-L4</f>
+        <v>15.750999999999999</v>
+      </c>
+      <c r="N4" s="44">
+        <f>X4-L4</f>
         <v>22.585512000000008</v>
       </c>
-      <c r="P4" s="23">
+      <c r="Q4" s="14">
         <v>15.375999999999999</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="R4" s="14">
         <v>15.349</v>
       </c>
-      <c r="R4" s="23">
+      <c r="S4" s="14">
         <v>16.748000000000001</v>
       </c>
-      <c r="S4" s="23">
+      <c r="T4" s="14">
         <v>18.542000000000002</v>
       </c>
-      <c r="T4" s="23">
+      <c r="U4" s="14">
         <v>11.542999999999999</v>
       </c>
-      <c r="U4" s="23">
+      <c r="V4" s="14">
         <v>10.257</v>
       </c>
-      <c r="V4" s="45">
-        <f>V3*0.14</f>
+      <c r="W4" s="14">
+        <v>29.391999999999999</v>
+      </c>
+      <c r="X4" s="44">
+        <f>X3*0.14</f>
         <v>36.226512000000007</v>
       </c>
-      <c r="W4" s="52">
-        <f>W3*0.14</f>
+      <c r="Y4" s="27">
+        <f>Y3*0.14</f>
         <v>37.675572480000007</v>
       </c>
-      <c r="X4" s="52">
-        <f t="shared" ref="X4:AL4" si="2">X3*0.14</f>
+      <c r="Z4" s="27">
+        <f t="shared" ref="Z4:AN4" si="2">Z3*0.14</f>
         <v>39.182595379200009</v>
       </c>
-      <c r="Y4" s="52">
+      <c r="AA4" s="27">
         <f t="shared" si="2"/>
         <v>40.749899194368012</v>
       </c>
-      <c r="Z4" s="52">
+      <c r="AB4" s="27">
         <f t="shared" si="2"/>
         <v>42.379895162142731</v>
       </c>
-      <c r="AA4" s="52">
+      <c r="AC4" s="27">
         <f t="shared" si="2"/>
         <v>44.075090968628444</v>
       </c>
-      <c r="AB4" s="52">
+      <c r="AD4" s="27">
         <f t="shared" si="2"/>
         <v>45.838094607373584</v>
       </c>
-      <c r="AC4" s="52">
+      <c r="AE4" s="27">
         <f t="shared" si="2"/>
         <v>47.671618391668531</v>
       </c>
-      <c r="AD4" s="52">
+      <c r="AF4" s="27">
         <f t="shared" si="2"/>
         <v>49.578483127335268</v>
       </c>
-      <c r="AE4" s="52">
+      <c r="AG4" s="27">
         <f t="shared" si="2"/>
         <v>51.561622452428679</v>
       </c>
-      <c r="AF4" s="52">
+      <c r="AH4" s="27">
         <f t="shared" si="2"/>
         <v>53.624087350525834</v>
       </c>
-      <c r="AG4" s="52">
+      <c r="AI4" s="27">
         <f t="shared" si="2"/>
         <v>55.769050844546868</v>
       </c>
-      <c r="AH4" s="52">
+      <c r="AJ4" s="27">
         <f t="shared" si="2"/>
         <v>57.999812878328747</v>
       </c>
-      <c r="AI4" s="52">
+      <c r="AK4" s="27">
         <f t="shared" si="2"/>
         <v>60.319805393461898</v>
       </c>
-      <c r="AJ4" s="52">
+      <c r="AL4" s="27">
         <f t="shared" si="2"/>
         <v>62.732597609200376</v>
       </c>
-      <c r="AK4" s="52">
+      <c r="AM4" s="27">
         <f t="shared" si="2"/>
         <v>65.241901513568394</v>
       </c>
-      <c r="AL4" s="52">
+      <c r="AN4" s="27">
         <f t="shared" si="2"/>
         <v>67.851577574111133</v>
       </c>
     </row>
-    <row r="5" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="12">
         <f>F3-F4</f>
         <v>57.515999999999991</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <f t="shared" si="0"/>
         <v>53.836000000000013</v>
       </c>
-      <c r="H5" s="37">
-        <f t="shared" ref="H5:M5" si="3">H3-H4</f>
+      <c r="H5" s="36">
+        <f t="shared" ref="H5:N5" si="3">H3-H4</f>
         <v>59.254000000000005</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <f t="shared" si="3"/>
         <v>8.6759999999999966</v>
       </c>
@@ -2609,7 +2781,7 @@
         <f t="shared" si="3"/>
         <v>9.2409999999999997</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="30">
         <f t="shared" si="3"/>
         <v>52.38</v>
       </c>
@@ -2617,345 +2789,367 @@
         <f t="shared" si="3"/>
         <v>86.531999999999996</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="30">
+        <f t="shared" si="3"/>
+        <v>77.817000000000007</v>
+      </c>
+      <c r="N5" s="45">
         <f t="shared" si="3"/>
         <v>136.00228800000002</v>
       </c>
-      <c r="P5" s="12">
-        <f t="shared" ref="P5:W5" si="4">P3-P4</f>
+      <c r="Q5" s="12">
+        <f t="shared" ref="Q5:Y5" si="4">Q3-Q4</f>
         <v>89.426999999999992</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="R5" s="12">
         <f t="shared" si="4"/>
         <v>98.619</v>
       </c>
-      <c r="R5" s="12">
+      <c r="S5" s="12">
         <f t="shared" si="4"/>
         <v>103.8</v>
       </c>
-      <c r="S5" s="12">
+      <c r="T5" s="12">
         <f t="shared" si="4"/>
         <v>111.352</v>
       </c>
-      <c r="T5" s="12">
+      <c r="U5" s="12">
         <f t="shared" si="4"/>
         <v>67.930000000000007</v>
       </c>
-      <c r="U5" s="12">
+      <c r="V5" s="12">
         <f t="shared" si="4"/>
         <v>61.621000000000002</v>
       </c>
-      <c r="V5" s="46">
+      <c r="W5" s="12">
+        <f t="shared" si="4"/>
+        <v>164.34900000000002</v>
+      </c>
+      <c r="X5" s="45">
         <f t="shared" si="4"/>
         <v>222.534288</v>
       </c>
-      <c r="W5" s="107">
+      <c r="Y5" s="12">
         <f t="shared" si="4"/>
         <v>231.43565952000003</v>
       </c>
-      <c r="X5" s="12">
-        <f t="shared" ref="X5:AL5" si="5">X3-X4</f>
+      <c r="Z5" s="12">
+        <f t="shared" ref="Z5:AN5" si="5">Z3-Z4</f>
         <v>240.69308590080004</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="AA5" s="12">
         <f t="shared" si="5"/>
         <v>250.32080933683204</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="AB5" s="12">
         <f t="shared" si="5"/>
         <v>260.3336417103053</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AC5" s="12">
         <f t="shared" si="5"/>
         <v>270.74698737871756</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AD5" s="12">
         <f t="shared" si="5"/>
         <v>281.57686687386627</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AE5" s="12">
         <f t="shared" si="5"/>
         <v>292.83994154882095</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AF5" s="12">
         <f t="shared" si="5"/>
         <v>304.55353921077375</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AG5" s="12">
         <f t="shared" si="5"/>
         <v>316.7356807792047</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AH5" s="12">
         <f t="shared" si="5"/>
         <v>329.40510801037294</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AI5" s="12">
         <f t="shared" si="5"/>
         <v>342.58131233078785</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AJ5" s="12">
         <f t="shared" si="5"/>
         <v>356.28456482401941</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AK5" s="12">
         <f t="shared" si="5"/>
         <v>370.53594741698021</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AL5" s="12">
         <f t="shared" si="5"/>
         <v>385.35738531365945</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AM5" s="12">
         <f t="shared" si="5"/>
         <v>400.77168072620583</v>
       </c>
-      <c r="AL5" s="12">
+      <c r="AN5" s="12">
         <f t="shared" si="5"/>
         <v>416.80254795525411</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="23">
+      <c r="E6" s="31"/>
+      <c r="F6" s="14">
         <v>0</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <v>0</v>
       </c>
-      <c r="I6" s="32">
-        <f>T6-H6</f>
+      <c r="I6" s="31">
+        <f>U6-H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="14">
         <v>1.5940000000000001</v>
       </c>
-      <c r="K6" s="32">
-        <f>U6-J6</f>
+      <c r="K6" s="31">
+        <f>V6-J6</f>
         <v>1.22</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="45">
-        <f t="shared" ref="M6:M11" si="6">V6-L6</f>
+      <c r="M6" s="31">
+        <f t="shared" ref="M6:M11" si="6">W6-L6</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="N6" s="44">
+        <f>X6-L6</f>
         <v>0.4</v>
       </c>
-      <c r="P6" s="23">
+      <c r="Q6" s="14">
         <v>1.395</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="R6" s="14">
         <v>0.08</v>
       </c>
-      <c r="R6" s="23">
+      <c r="S6" s="14">
         <v>0</v>
       </c>
-      <c r="S6" s="23">
+      <c r="T6" s="14">
         <v>0</v>
       </c>
-      <c r="T6" s="23">
+      <c r="U6" s="14">
         <v>0</v>
       </c>
-      <c r="U6" s="23">
+      <c r="V6" s="14">
         <v>2.8140000000000001</v>
       </c>
-      <c r="V6" s="47">
+      <c r="W6" s="14">
+        <v>3.9E-2</v>
+      </c>
+      <c r="X6" s="46">
         <v>0.4</v>
       </c>
-      <c r="W6" s="109">
+      <c r="Y6" s="1">
         <v>0.1</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Z6" s="1">
         <v>1.3</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AB6" s="1">
         <v>3.3</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AC6" s="1">
         <v>4.3</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AD6" s="1">
         <v>5.3</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AE6" s="1">
         <v>6.3</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AF6" s="1">
         <v>7.3</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AG6" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AH6" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AI6" s="1">
         <v>10.3</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AJ6" s="1">
         <v>11.3</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AK6" s="1">
         <v>12.3</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AL6" s="1">
         <v>13.3</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AM6" s="1">
         <v>14.3</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AN6" s="1">
         <v>15.3</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="23">
+      <c r="E7" s="31"/>
+      <c r="F7" s="14">
         <v>40.753</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f t="shared" si="0"/>
         <v>42.155000000000001</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>40.078000000000003</v>
       </c>
-      <c r="I7" s="32">
-        <f>T7-H7</f>
+      <c r="I7" s="31">
+        <f>U7-H7</f>
         <v>17.991</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="14">
         <v>20.856999999999999</v>
       </c>
-      <c r="K7" s="32">
-        <f>U7-J7</f>
+      <c r="K7" s="31">
+        <f>V7-J7</f>
         <v>33.997999999999998</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="14">
         <v>48.915999999999997</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="31">
         <f t="shared" si="6"/>
+        <v>60.022999999999996</v>
+      </c>
+      <c r="N7" s="44">
+        <f>X7-L7</f>
         <v>84.6045728</v>
       </c>
-      <c r="P7" s="23">
+      <c r="Q7" s="14">
         <v>76.444000000000003</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="R7" s="14">
         <v>76.498000000000005</v>
       </c>
-      <c r="R7" s="23">
+      <c r="S7" s="14">
         <v>78.908000000000001</v>
       </c>
-      <c r="S7" s="23">
+      <c r="T7" s="14">
         <v>82.908000000000001</v>
       </c>
-      <c r="T7" s="23">
+      <c r="U7" s="14">
         <v>58.069000000000003</v>
       </c>
-      <c r="U7" s="23">
+      <c r="V7" s="14">
         <v>54.854999999999997</v>
       </c>
-      <c r="V7" s="45">
-        <f>V5*0.6</f>
+      <c r="W7" s="14">
+        <v>108.93899999999999</v>
+      </c>
+      <c r="X7" s="44">
+        <f>X5*0.6</f>
         <v>133.5205728</v>
       </c>
-      <c r="W7" s="52">
-        <f>V7*1.025</f>
+      <c r="Y7" s="27">
+        <f>X7*1.025</f>
         <v>136.85858711999998</v>
       </c>
-      <c r="X7" s="52">
-        <f t="shared" ref="X7:AL7" si="7">W7*1.03</f>
+      <c r="Z7" s="27">
+        <f>Y7*1.03</f>
         <v>140.96434473359997</v>
       </c>
-      <c r="Y7" s="52">
-        <f t="shared" si="7"/>
+      <c r="AA7" s="27">
+        <f t="shared" ref="AA7:AN7" si="7">Z7*1.03</f>
         <v>145.19327507560797</v>
       </c>
-      <c r="Z7" s="52">
+      <c r="AB7" s="27">
         <f t="shared" si="7"/>
         <v>149.54907332787621</v>
       </c>
-      <c r="AA7" s="52">
+      <c r="AC7" s="27">
         <f t="shared" si="7"/>
         <v>154.03554552771251</v>
       </c>
-      <c r="AB7" s="52">
+      <c r="AD7" s="27">
         <f t="shared" si="7"/>
         <v>158.6566118935439</v>
       </c>
-      <c r="AC7" s="52">
+      <c r="AE7" s="27">
         <f t="shared" si="7"/>
         <v>163.41631025035022</v>
       </c>
-      <c r="AD7" s="52">
+      <c r="AF7" s="27">
         <f t="shared" si="7"/>
         <v>168.31879955786073</v>
       </c>
-      <c r="AE7" s="52">
+      <c r="AG7" s="27">
         <f t="shared" si="7"/>
         <v>173.36836354459655</v>
       </c>
-      <c r="AF7" s="52">
+      <c r="AH7" s="27">
         <f t="shared" si="7"/>
         <v>178.56941445093446</v>
       </c>
-      <c r="AG7" s="52">
+      <c r="AI7" s="27">
         <f t="shared" si="7"/>
         <v>183.92649688446249</v>
       </c>
-      <c r="AH7" s="52">
+      <c r="AJ7" s="27">
         <f t="shared" si="7"/>
         <v>189.44429179099637</v>
       </c>
-      <c r="AI7" s="52">
+      <c r="AK7" s="27">
         <f t="shared" si="7"/>
         <v>195.12762054472628</v>
       </c>
-      <c r="AJ7" s="52">
+      <c r="AL7" s="27">
         <f t="shared" si="7"/>
         <v>200.98144916106807</v>
       </c>
-      <c r="AK7" s="52">
+      <c r="AM7" s="27">
         <f t="shared" si="7"/>
         <v>207.01089263590012</v>
       </c>
-      <c r="AL7" s="52">
+      <c r="AN7" s="27">
         <f t="shared" si="7"/>
         <v>213.22121941497713</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="12">
         <f>F5+F6-F7</f>
         <v>16.762999999999991</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <f t="shared" si="0"/>
         <v>11.681000000000012</v>
       </c>
-      <c r="H8" s="37">
-        <f t="shared" ref="H8:M8" si="8">H5+H6-H7</f>
+      <c r="H8" s="36">
+        <f t="shared" ref="H8:N8" si="8">H5+H6-H7</f>
         <v>19.176000000000002</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <f t="shared" si="8"/>
         <v>-9.3150000000000031</v>
       </c>
@@ -2963,7 +3157,7 @@
         <f t="shared" si="8"/>
         <v>-10.022</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="30">
         <f t="shared" si="8"/>
         <v>19.602000000000004</v>
       </c>
@@ -2971,481 +3165,512 @@
         <f t="shared" si="8"/>
         <v>37.616</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="30">
+        <f t="shared" si="8"/>
+        <v>17.833000000000013</v>
+      </c>
+      <c r="N8" s="45">
         <f t="shared" si="8"/>
         <v>51.797715200000027</v>
       </c>
-      <c r="P8" s="12">
-        <f t="shared" ref="P8:U8" si="9">P5+P6-P7</f>
+      <c r="Q8" s="12">
+        <f t="shared" ref="Q8:W8" si="9">Q5+Q6-Q7</f>
         <v>14.377999999999986</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="R8" s="12">
         <f t="shared" si="9"/>
         <v>22.200999999999993</v>
       </c>
-      <c r="R8" s="12">
+      <c r="S8" s="12">
         <f t="shared" si="9"/>
         <v>24.891999999999996</v>
       </c>
-      <c r="S8" s="12">
+      <c r="T8" s="12">
         <f t="shared" si="9"/>
         <v>28.444000000000003</v>
       </c>
-      <c r="T8" s="12">
+      <c r="U8" s="12">
         <f t="shared" si="9"/>
         <v>9.8610000000000042</v>
       </c>
-      <c r="U8" s="12">
+      <c r="V8" s="12">
         <f t="shared" si="9"/>
         <v>9.5800000000000054</v>
       </c>
-      <c r="V8" s="46">
-        <f>V5+V6-V7</f>
+      <c r="W8" s="12">
+        <f t="shared" si="9"/>
+        <v>55.449000000000012</v>
+      </c>
+      <c r="X8" s="45">
+        <f>X5+X6-X7</f>
         <v>89.413715200000013</v>
       </c>
-      <c r="W8" s="12">
-        <f>W5+W6-W7</f>
+      <c r="Y8" s="12">
+        <f>Y5+Y6-Y7</f>
         <v>94.677072400000043</v>
       </c>
-      <c r="X8" s="12">
-        <f t="shared" ref="X8:AL8" si="10">X5+X6-X7</f>
+      <c r="Z8" s="12">
+        <f t="shared" ref="Z8:AN8" si="10">Z5+Z6-Z7</f>
         <v>101.02874116720008</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="AA8" s="12">
         <f t="shared" si="10"/>
         <v>107.42753426122408</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="AB8" s="12">
         <f t="shared" si="10"/>
         <v>114.0845683824291</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AC8" s="12">
         <f t="shared" si="10"/>
         <v>121.01144185100506</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AD8" s="12">
         <f t="shared" si="10"/>
         <v>128.22025498032238</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AE8" s="12">
         <f t="shared" si="10"/>
         <v>135.72363129847074</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AF8" s="12">
         <f t="shared" si="10"/>
         <v>143.53473965291303</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AG8" s="12">
         <f t="shared" si="10"/>
         <v>151.66731723460816</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AH8" s="12">
         <f t="shared" si="10"/>
         <v>160.13569355943849</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AI8" s="12">
         <f t="shared" si="10"/>
         <v>168.95481544632537</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AJ8" s="12">
         <f t="shared" si="10"/>
         <v>178.14027303302305</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AK8" s="12">
         <f t="shared" si="10"/>
         <v>187.70832687225393</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AL8" s="12">
         <f t="shared" si="10"/>
         <v>197.67593615259139</v>
       </c>
-      <c r="AK8" s="12">
+      <c r="AM8" s="12">
         <f t="shared" si="10"/>
         <v>208.06078809030572</v>
       </c>
-      <c r="AL8" s="12">
+      <c r="AN8" s="12">
         <f t="shared" si="10"/>
         <v>218.881328540277</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="23">
+      <c r="E9" s="31"/>
+      <c r="F9" s="14">
         <f>0.482-0.104</f>
         <v>0.378</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <f t="shared" si="0"/>
         <v>0.47799999999999987</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <f>4.773-0.065</f>
         <v>4.7079999999999993</v>
       </c>
-      <c r="I9" s="32">
-        <f>T9-H9</f>
+      <c r="I9" s="31">
+        <f>U9-H9</f>
         <v>3.9570000000000016</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="14">
         <v>4.4669999999999996</v>
       </c>
-      <c r="K9" s="32">
-        <f>U9-J9</f>
+      <c r="K9" s="31">
+        <f>V9-J9</f>
         <v>4.6510000000000007</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="14">
         <v>4.1790000000000003</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="31">
         <f t="shared" si="6"/>
+        <v>4.6049999999999986</v>
+      </c>
+      <c r="N9" s="44">
+        <f>X9-L9</f>
         <v>-1.0790000000000002</v>
       </c>
-      <c r="P9" s="23">
+      <c r="Q9" s="14">
         <f>-0.022+11.905-0.079</f>
         <v>11.803999999999998</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="R9" s="14">
         <f>1.158-0.012+0.055</f>
         <v>1.2009999999999998</v>
       </c>
-      <c r="R9" s="23">
+      <c r="S9" s="14">
         <f>0.976-0.018</f>
         <v>0.95799999999999996</v>
       </c>
-      <c r="S9" s="23">
+      <c r="T9" s="14">
         <f>1.023-0.167</f>
         <v>0.85599999999999987</v>
       </c>
-      <c r="T9" s="23">
+      <c r="U9" s="14">
         <f>8.743-0.078</f>
         <v>8.6650000000000009</v>
       </c>
-      <c r="U9" s="23">
+      <c r="V9" s="14">
         <v>9.1180000000000003</v>
       </c>
-      <c r="V9" s="45">
+      <c r="W9" s="14">
+        <f>-0.012+8.796</f>
+        <v>8.7839999999999989</v>
+      </c>
+      <c r="X9" s="44">
         <v>3.1</v>
       </c>
-      <c r="W9" s="109">
+      <c r="Y9" s="1">
         <v>1.9</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Z9" s="1">
         <v>2.9</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AA9" s="1">
         <v>3.9</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AB9" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AC9" s="1">
         <v>5.9</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AD9" s="1">
         <v>6.9</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AE9" s="1">
         <v>7.9</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AF9" s="1">
         <v>8.9</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AG9" s="1">
         <v>9.9</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AH9" s="1">
         <v>10.9</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AI9" s="1">
         <v>11.9</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AJ9" s="1">
         <v>12.9</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AK9" s="1">
         <v>13.9</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AL9" s="1">
         <v>14.9</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AM9" s="1">
         <v>15.9</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AN9" s="1">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="23">
+      <c r="E10" s="31"/>
+      <c r="F10" s="14">
         <f>F8-F9</f>
         <v>16.384999999999991</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <f t="shared" si="0"/>
         <v>11.20300000000001</v>
       </c>
-      <c r="H10" s="28">
-        <f t="shared" ref="H10:M10" si="11">H8-H9</f>
+      <c r="H10" s="27">
+        <f t="shared" ref="H10:N10" si="11">H8-H9</f>
         <v>14.468000000000004</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <f t="shared" si="11"/>
         <v>-13.272000000000006</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="14">
         <f t="shared" si="11"/>
         <v>-14.489000000000001</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <f t="shared" si="11"/>
         <v>14.951000000000004</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="14">
         <f t="shared" si="11"/>
         <v>33.436999999999998</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="31">
+        <f t="shared" si="11"/>
+        <v>13.228000000000014</v>
+      </c>
+      <c r="N10" s="50">
         <f t="shared" si="11"/>
         <v>52.876715200000028</v>
       </c>
-      <c r="P10" s="23">
-        <f t="shared" ref="P10:W10" si="12">P8-P9</f>
+      <c r="Q10" s="14">
+        <f t="shared" ref="Q10:Y10" si="12">Q8-Q9</f>
         <v>2.5739999999999874</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="R10" s="14">
         <f t="shared" si="12"/>
         <v>20.999999999999993</v>
       </c>
-      <c r="R10" s="23">
+      <c r="S10" s="14">
         <f t="shared" si="12"/>
         <v>23.933999999999997</v>
       </c>
-      <c r="S10" s="23">
+      <c r="T10" s="14">
         <f t="shared" si="12"/>
         <v>27.588000000000001</v>
       </c>
-      <c r="T10" s="23">
+      <c r="U10" s="14">
         <f t="shared" si="12"/>
         <v>1.1960000000000033</v>
       </c>
-      <c r="U10" s="23">
+      <c r="V10" s="14">
         <f t="shared" si="12"/>
         <v>0.46200000000000507</v>
       </c>
-      <c r="V10" s="51">
+      <c r="W10" s="14">
+        <f t="shared" si="12"/>
+        <v>46.665000000000013</v>
+      </c>
+      <c r="X10" s="50">
         <f t="shared" si="12"/>
         <v>86.313715200000019</v>
       </c>
-      <c r="W10" s="110">
+      <c r="Y10" s="14">
         <f t="shared" si="12"/>
         <v>92.777072400000037</v>
       </c>
-      <c r="X10" s="23">
-        <f t="shared" ref="X10:AL10" si="13">X8-X9</f>
+      <c r="Z10" s="14">
+        <f t="shared" ref="Z10:AN10" si="13">Z8-Z9</f>
         <v>98.128741167200076</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="AA10" s="14">
         <f t="shared" si="13"/>
         <v>103.52753426122408</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="AB10" s="14">
         <f t="shared" si="13"/>
         <v>109.18456838242909</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="AC10" s="14">
         <f t="shared" si="13"/>
         <v>115.11144185100505</v>
       </c>
-      <c r="AB10" s="23">
+      <c r="AD10" s="14">
         <f t="shared" si="13"/>
         <v>121.32025498032237</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AE10" s="14">
         <f t="shared" si="13"/>
         <v>127.82363129847073</v>
       </c>
-      <c r="AD10" s="23">
+      <c r="AF10" s="14">
         <f t="shared" si="13"/>
         <v>134.63473965291303</v>
       </c>
-      <c r="AE10" s="23">
+      <c r="AG10" s="14">
         <f t="shared" si="13"/>
         <v>141.76731723460816</v>
       </c>
-      <c r="AF10" s="23">
+      <c r="AH10" s="14">
         <f t="shared" si="13"/>
         <v>149.23569355943849</v>
       </c>
-      <c r="AG10" s="23">
+      <c r="AI10" s="14">
         <f t="shared" si="13"/>
         <v>157.05481544632536</v>
       </c>
-      <c r="AH10" s="23">
+      <c r="AJ10" s="14">
         <f t="shared" si="13"/>
         <v>165.24027303302304</v>
       </c>
-      <c r="AI10" s="23">
+      <c r="AK10" s="14">
         <f t="shared" si="13"/>
         <v>173.80832687225393</v>
       </c>
-      <c r="AJ10" s="23">
+      <c r="AL10" s="14">
         <f t="shared" si="13"/>
         <v>182.77593615259138</v>
       </c>
-      <c r="AK10" s="23">
+      <c r="AM10" s="14">
         <f t="shared" si="13"/>
         <v>192.16078809030572</v>
       </c>
-      <c r="AL10" s="23">
+      <c r="AN10" s="14">
         <f t="shared" si="13"/>
         <v>201.98132854027699</v>
       </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="23">
+      <c r="E11" s="31"/>
+      <c r="F11" s="14">
         <v>3.01</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="31">
         <f t="shared" si="0"/>
         <v>2.2930000000000001</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <v>2.948</v>
       </c>
-      <c r="I11" s="32">
-        <f>T11-H11</f>
+      <c r="I11" s="31">
+        <f>U11-H11</f>
         <v>-3.137</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="14">
         <v>-2.8559999999999999</v>
       </c>
-      <c r="K11" s="32">
-        <f>U11-J11</f>
+      <c r="K11" s="31">
+        <f>V11-J11</f>
         <v>1.5899999999999999</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="14">
         <v>6.4119999999999999</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="31">
         <f t="shared" si="6"/>
+        <v>2.8020000000000005</v>
+      </c>
+      <c r="N11" s="44">
+        <f>X11-L11</f>
         <v>3.9384320000000015</v>
       </c>
-      <c r="P11" s="23">
+      <c r="Q11" s="14">
         <v>1.387</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="R11" s="14">
         <v>2.8479999999999999</v>
       </c>
-      <c r="R11" s="23">
+      <c r="S11" s="14">
         <v>5.15</v>
       </c>
-      <c r="S11" s="23">
+      <c r="T11" s="14">
         <v>5.3029999999999999</v>
       </c>
-      <c r="T11" s="23">
+      <c r="U11" s="14">
         <v>-0.189</v>
       </c>
-      <c r="U11" s="23">
+      <c r="V11" s="14">
         <v>-1.266</v>
       </c>
-      <c r="V11" s="45">
-        <f>V3*4%</f>
+      <c r="W11" s="14">
+        <v>9.2140000000000004</v>
+      </c>
+      <c r="X11" s="44">
+        <f>X3*4%</f>
         <v>10.350432000000001</v>
       </c>
-      <c r="W11" s="52">
-        <f>W3*4%</f>
+      <c r="Y11" s="27">
+        <f>Y3*4%</f>
         <v>10.764449280000001</v>
       </c>
-      <c r="X11" s="52">
-        <f t="shared" ref="X11:AL11" si="14">X3*4%</f>
+      <c r="Z11" s="27">
+        <f t="shared" ref="Z11:AN11" si="14">Z3*4%</f>
         <v>11.195027251200001</v>
       </c>
-      <c r="Y11" s="52">
+      <c r="AA11" s="27">
         <f t="shared" si="14"/>
         <v>11.642828341248004</v>
       </c>
-      <c r="Z11" s="52">
+      <c r="AB11" s="27">
         <f t="shared" si="14"/>
         <v>12.108541474897923</v>
       </c>
-      <c r="AA11" s="52">
+      <c r="AC11" s="27">
         <f t="shared" si="14"/>
         <v>12.592883133893841</v>
       </c>
-      <c r="AB11" s="52">
+      <c r="AD11" s="27">
         <f t="shared" si="14"/>
         <v>13.096598459249595</v>
       </c>
-      <c r="AC11" s="52">
+      <c r="AE11" s="27">
         <f t="shared" si="14"/>
         <v>13.620462397619578</v>
       </c>
-      <c r="AD11" s="52">
+      <c r="AF11" s="27">
         <f t="shared" si="14"/>
         <v>14.165280893524361</v>
       </c>
-      <c r="AE11" s="52">
+      <c r="AG11" s="27">
         <f t="shared" si="14"/>
         <v>14.731892129265336</v>
       </c>
-      <c r="AF11" s="52">
+      <c r="AH11" s="27">
         <f t="shared" si="14"/>
         <v>15.321167814435951</v>
       </c>
-      <c r="AG11" s="52">
+      <c r="AI11" s="27">
         <f t="shared" si="14"/>
         <v>15.934014527013391</v>
       </c>
-      <c r="AH11" s="52">
+      <c r="AJ11" s="27">
         <f t="shared" si="14"/>
         <v>16.571375108093925</v>
       </c>
-      <c r="AI11" s="52">
+      <c r="AK11" s="27">
         <f t="shared" si="14"/>
         <v>17.234230112417684</v>
       </c>
-      <c r="AJ11" s="52">
+      <c r="AL11" s="27">
         <f t="shared" si="14"/>
         <v>17.923599316914391</v>
       </c>
-      <c r="AK11" s="52">
+      <c r="AM11" s="27">
         <f t="shared" si="14"/>
         <v>18.640543289590969</v>
       </c>
-      <c r="AL11" s="52">
+      <c r="AN11" s="27">
         <f t="shared" si="14"/>
         <v>19.386165021174609</v>
       </c>
     </row>
-    <row r="12" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="12">
         <f>F10-F11</f>
         <v>13.374999999999991</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <f t="shared" si="0"/>
         <v>8.910000000000009</v>
       </c>
-      <c r="H12" s="37">
-        <f t="shared" ref="H12:M12" si="15">H10-H11</f>
+      <c r="H12" s="36">
+        <f t="shared" ref="H12:N12" si="15">H10-H11</f>
         <v>11.520000000000003</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="30">
         <f t="shared" si="15"/>
         <v>-10.135000000000005</v>
       </c>
@@ -3453,7 +3678,7 @@
         <f t="shared" si="15"/>
         <v>-11.633000000000001</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="30">
         <f t="shared" si="15"/>
         <v>13.361000000000004</v>
       </c>
@@ -3461,506 +3686,523 @@
         <f t="shared" si="15"/>
         <v>27.024999999999999</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="30">
+        <f t="shared" si="15"/>
+        <v>10.426000000000013</v>
+      </c>
+      <c r="N12" s="45">
         <f t="shared" si="15"/>
         <v>48.938283200000029</v>
       </c>
-      <c r="O12" s="113"/>
-      <c r="P12" s="12">
-        <f t="shared" ref="P12:W12" si="16">P10-P11</f>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="12">
+        <f t="shared" ref="Q12:Y12" si="16">Q10-Q11</f>
         <v>1.1869999999999874</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="R12" s="12">
         <f t="shared" si="16"/>
         <v>18.151999999999994</v>
       </c>
-      <c r="R12" s="12">
+      <c r="S12" s="12">
         <f t="shared" si="16"/>
         <v>18.783999999999999</v>
       </c>
-      <c r="S12" s="12">
+      <c r="T12" s="12">
         <f t="shared" si="16"/>
         <v>22.285</v>
       </c>
-      <c r="T12" s="12">
+      <c r="U12" s="12">
         <f t="shared" si="16"/>
         <v>1.3850000000000033</v>
       </c>
-      <c r="U12" s="12">
+      <c r="V12" s="12">
         <f t="shared" si="16"/>
         <v>1.7280000000000051</v>
       </c>
-      <c r="V12" s="46">
+      <c r="W12" s="12">
+        <f t="shared" si="16"/>
+        <v>37.451000000000015</v>
+      </c>
+      <c r="X12" s="45">
         <f t="shared" si="16"/>
         <v>75.963283200000021</v>
       </c>
-      <c r="W12" s="107">
+      <c r="Y12" s="12">
         <f t="shared" si="16"/>
         <v>82.012623120000029</v>
       </c>
-      <c r="X12" s="12">
-        <f t="shared" ref="X12:AL12" si="17">X10-X11</f>
+      <c r="Z12" s="12">
+        <f t="shared" ref="Z12:AN12" si="17">Z10-Z11</f>
         <v>86.933713916000073</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="AA12" s="12">
         <f t="shared" si="17"/>
         <v>91.884705919976071</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="AB12" s="12">
         <f t="shared" si="17"/>
         <v>97.076026907531173</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AC12" s="12">
         <f t="shared" si="17"/>
         <v>102.51855871711122</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AD12" s="12">
         <f t="shared" si="17"/>
         <v>108.22365652107278</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AE12" s="12">
         <f t="shared" si="17"/>
         <v>114.20316890085115</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AF12" s="12">
         <f t="shared" si="17"/>
         <v>120.46945875938866</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AG12" s="12">
         <f t="shared" si="17"/>
         <v>127.03542510534282</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AH12" s="12">
         <f t="shared" si="17"/>
         <v>133.91452574500255</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AI12" s="12">
         <f t="shared" si="17"/>
         <v>141.12080091931196</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AJ12" s="12">
         <f t="shared" si="17"/>
         <v>148.66889792492913</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AK12" s="12">
         <f t="shared" si="17"/>
         <v>156.57409675983624</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AL12" s="12">
         <f t="shared" si="17"/>
         <v>164.85233683567699</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AM12" s="12">
         <f t="shared" si="17"/>
         <v>173.52024480071475</v>
       </c>
-      <c r="AL12" s="12">
+      <c r="AN12" s="12">
         <f t="shared" si="17"/>
         <v>182.59516351910239</v>
       </c>
-      <c r="AM12" s="12">
-        <f t="shared" ref="AM12:BR12" si="18">AL12*(1+$AO$15)</f>
+      <c r="AO12" s="12">
+        <f t="shared" ref="AO12:BT12" si="18">AN12*(1+$AQ$15)</f>
         <v>184.4211151542934</v>
       </c>
-      <c r="AN12" s="12">
+      <c r="AP12" s="12">
         <f t="shared" si="18"/>
         <v>186.26532630583634</v>
       </c>
-      <c r="AO12" s="12">
+      <c r="AQ12" s="12">
         <f t="shared" si="18"/>
         <v>188.12797956889472</v>
       </c>
-      <c r="AP12" s="12">
+      <c r="AR12" s="12">
         <f t="shared" si="18"/>
         <v>190.00925936458367</v>
       </c>
-      <c r="AQ12" s="12">
+      <c r="AS12" s="12">
         <f t="shared" si="18"/>
         <v>191.90935195822951</v>
       </c>
-      <c r="AR12" s="12">
+      <c r="AT12" s="12">
         <f t="shared" si="18"/>
         <v>193.82844547781181</v>
       </c>
-      <c r="AS12" s="12">
+      <c r="AU12" s="12">
         <f t="shared" si="18"/>
         <v>195.76672993258993</v>
       </c>
-      <c r="AT12" s="12">
+      <c r="AV12" s="12">
         <f t="shared" si="18"/>
         <v>197.72439723191582</v>
       </c>
-      <c r="AU12" s="12">
+      <c r="AW12" s="12">
         <f t="shared" si="18"/>
         <v>199.70164120423499</v>
       </c>
-      <c r="AV12" s="12">
+      <c r="AX12" s="12">
         <f t="shared" si="18"/>
         <v>201.69865761627733</v>
       </c>
-      <c r="AW12" s="12">
+      <c r="AY12" s="12">
         <f t="shared" si="18"/>
         <v>203.7156441924401</v>
       </c>
-      <c r="AX12" s="12">
+      <c r="AZ12" s="12">
         <f t="shared" si="18"/>
         <v>205.75280063436449</v>
       </c>
-      <c r="AY12" s="12">
+      <c r="BA12" s="12">
         <f t="shared" si="18"/>
         <v>207.81032864070815</v>
       </c>
-      <c r="AZ12" s="12">
+      <c r="BB12" s="12">
         <f t="shared" si="18"/>
         <v>209.88843192711522</v>
       </c>
-      <c r="BA12" s="12">
+      <c r="BC12" s="12">
         <f t="shared" si="18"/>
         <v>211.98731624638637</v>
       </c>
-      <c r="BB12" s="12">
+      <c r="BD12" s="12">
         <f t="shared" si="18"/>
         <v>214.10718940885025</v>
       </c>
-      <c r="BC12" s="12">
+      <c r="BE12" s="12">
         <f t="shared" si="18"/>
         <v>216.24826130293874</v>
       </c>
-      <c r="BD12" s="12">
+      <c r="BF12" s="12">
         <f t="shared" si="18"/>
         <v>218.41074391596814</v>
       </c>
-      <c r="BE12" s="12">
+      <c r="BG12" s="12">
         <f t="shared" si="18"/>
         <v>220.59485135512782</v>
       </c>
-      <c r="BF12" s="12">
+      <c r="BH12" s="12">
         <f t="shared" si="18"/>
         <v>222.80079986867909</v>
       </c>
-      <c r="BG12" s="12">
+      <c r="BI12" s="12">
         <f t="shared" si="18"/>
         <v>225.02880786736588</v>
       </c>
-      <c r="BH12" s="12">
+      <c r="BJ12" s="12">
         <f t="shared" si="18"/>
         <v>227.27909594603955</v>
       </c>
-      <c r="BI12" s="12">
+      <c r="BK12" s="12">
         <f t="shared" si="18"/>
         <v>229.55188690549994</v>
       </c>
-      <c r="BJ12" s="12">
+      <c r="BL12" s="12">
         <f t="shared" si="18"/>
         <v>231.84740577455494</v>
       </c>
-      <c r="BK12" s="12">
+      <c r="BM12" s="12">
         <f t="shared" si="18"/>
         <v>234.1658798323005</v>
       </c>
-      <c r="BL12" s="12">
+      <c r="BN12" s="12">
         <f t="shared" si="18"/>
         <v>236.50753863062351</v>
       </c>
-      <c r="BM12" s="12">
+      <c r="BO12" s="12">
         <f t="shared" si="18"/>
         <v>238.87261401692976</v>
       </c>
-      <c r="BN12" s="12">
+      <c r="BP12" s="12">
         <f t="shared" si="18"/>
         <v>241.26134015709906</v>
       </c>
-      <c r="BO12" s="12">
+      <c r="BQ12" s="12">
         <f t="shared" si="18"/>
         <v>243.67395355867004</v>
       </c>
-      <c r="BP12" s="12">
+      <c r="BR12" s="12">
         <f t="shared" si="18"/>
         <v>246.11069309425673</v>
       </c>
-      <c r="BQ12" s="12">
+      <c r="BS12" s="12">
         <f t="shared" si="18"/>
         <v>248.57180002519931</v>
       </c>
-      <c r="BR12" s="12">
+      <c r="BT12" s="12">
         <f t="shared" si="18"/>
         <v>251.05751802545132</v>
       </c>
-      <c r="BS12" s="12">
-        <f t="shared" ref="BS12:CR12" si="19">BR12*(1+$AO$15)</f>
+      <c r="BU12" s="12">
+        <f t="shared" ref="BU12:CT12" si="19">BT12*(1+$AQ$15)</f>
         <v>253.56809320570582</v>
       </c>
-      <c r="BT12" s="12">
+      <c r="BV12" s="12">
         <f t="shared" si="19"/>
         <v>256.10377413776285</v>
       </c>
-      <c r="BU12" s="12">
+      <c r="BW12" s="12">
         <f t="shared" si="19"/>
         <v>258.66481187914047</v>
       </c>
-      <c r="BV12" s="12">
+      <c r="BX12" s="12">
         <f t="shared" si="19"/>
         <v>261.25145999793187</v>
       </c>
-      <c r="BW12" s="12">
+      <c r="BY12" s="12">
         <f t="shared" si="19"/>
         <v>263.86397459791118</v>
       </c>
-      <c r="BX12" s="12">
+      <c r="BZ12" s="12">
         <f t="shared" si="19"/>
         <v>266.50261434389029</v>
       </c>
-      <c r="BY12" s="12">
+      <c r="CA12" s="12">
         <f t="shared" si="19"/>
         <v>269.16764048732921</v>
       </c>
-      <c r="BZ12" s="12">
+      <c r="CB12" s="12">
         <f t="shared" si="19"/>
         <v>271.85931689220251</v>
       </c>
-      <c r="CA12" s="12">
+      <c r="CC12" s="12">
         <f t="shared" si="19"/>
         <v>274.57791006112456</v>
       </c>
-      <c r="CB12" s="12">
+      <c r="CD12" s="12">
         <f t="shared" si="19"/>
         <v>277.32368916173579</v>
       </c>
-      <c r="CC12" s="12">
+      <c r="CE12" s="12">
         <f t="shared" si="19"/>
         <v>280.09692605335317</v>
       </c>
-      <c r="CD12" s="12">
+      <c r="CF12" s="12">
         <f t="shared" si="19"/>
         <v>282.89789531388669</v>
       </c>
-      <c r="CE12" s="12">
+      <c r="CG12" s="12">
         <f t="shared" si="19"/>
         <v>285.72687426702555</v>
       </c>
-      <c r="CF12" s="12">
+      <c r="CH12" s="12">
         <f t="shared" si="19"/>
         <v>288.58414300969582</v>
       </c>
-      <c r="CG12" s="12">
+      <c r="CI12" s="12">
         <f t="shared" si="19"/>
         <v>291.46998443979277</v>
       </c>
-      <c r="CH12" s="12">
+      <c r="CJ12" s="12">
         <f t="shared" si="19"/>
         <v>294.38468428419071</v>
       </c>
-      <c r="CI12" s="12">
+      <c r="CK12" s="12">
         <f t="shared" si="19"/>
         <v>297.32853112703265</v>
       </c>
-      <c r="CJ12" s="12">
+      <c r="CL12" s="12">
         <f t="shared" si="19"/>
         <v>300.30181643830298</v>
       </c>
-      <c r="CK12" s="12">
+      <c r="CM12" s="12">
         <f t="shared" si="19"/>
         <v>303.30483460268601</v>
       </c>
-      <c r="CL12" s="12">
+      <c r="CN12" s="12">
         <f t="shared" si="19"/>
         <v>306.33788294871289</v>
       </c>
-      <c r="CM12" s="12">
+      <c r="CO12" s="12">
         <f t="shared" si="19"/>
         <v>309.40126177820002</v>
       </c>
-      <c r="CN12" s="12">
+      <c r="CP12" s="12">
         <f t="shared" si="19"/>
         <v>312.49527439598205</v>
       </c>
-      <c r="CO12" s="12">
+      <c r="CQ12" s="12">
         <f t="shared" si="19"/>
         <v>315.62022713994185</v>
       </c>
-      <c r="CP12" s="12">
+      <c r="CR12" s="12">
         <f t="shared" si="19"/>
         <v>318.77642941134127</v>
       </c>
-      <c r="CQ12" s="12">
+      <c r="CS12" s="12">
         <f t="shared" si="19"/>
         <v>321.9641937054547</v>
       </c>
-      <c r="CR12" s="12">
+      <c r="CT12" s="12">
         <f t="shared" si="19"/>
         <v>325.18383564250928</v>
       </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="27">
-        <f t="shared" ref="F13:M13" si="20">F12/F14</f>
+      <c r="E13" s="33"/>
+      <c r="F13" s="26">
+        <f t="shared" ref="F13:N13" si="20">F12/F14</f>
         <v>8.8853291768992385E-2</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <f t="shared" si="20"/>
         <v>5.9400000000000057E-2</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <f t="shared" si="20"/>
         <v>7.6442866571663867E-2</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <f t="shared" si="20"/>
         <v>-6.6068394484364051E-2</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="26">
         <f t="shared" si="20"/>
         <v>-7.3358228129837819E-2</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <f t="shared" si="20"/>
         <v>8.116869753753031E-2</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="26">
         <f t="shared" si="20"/>
         <v>0.15819934224664817</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="33">
+        <f t="shared" si="20"/>
+        <v>6.0988847885565384E-2</v>
+      </c>
+      <c r="N13" s="49">
         <f t="shared" si="20"/>
         <v>0.29730235065240646</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27">
-        <f t="shared" ref="P13:AL13" si="21">P12/P14</f>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26">
+        <f t="shared" ref="Q13:AN13" si="21">Q12/Q14</f>
         <v>1.1214705682000902E-2</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="R13" s="26">
         <f t="shared" si="21"/>
         <v>0.12101333333333329</v>
       </c>
-      <c r="R13" s="27">
+      <c r="S13" s="26">
         <f t="shared" si="21"/>
         <v>0.12522666666666665</v>
       </c>
-      <c r="S13" s="27">
+      <c r="T13" s="26">
         <f t="shared" si="21"/>
         <v>0.14856666666666668</v>
       </c>
-      <c r="T13" s="27">
+      <c r="U13" s="26">
         <f t="shared" si="21"/>
         <v>9.0285867154261852E-3</v>
       </c>
-      <c r="U13" s="27">
+      <c r="V13" s="26">
         <f t="shared" si="21"/>
         <v>1.0497680513797826E-2</v>
       </c>
-      <c r="V13" s="50">
+      <c r="W13" s="26">
+        <f t="shared" si="21"/>
+        <v>0.21907666815291649</v>
+      </c>
+      <c r="X13" s="49">
         <f t="shared" si="21"/>
         <v>0.46148048484533777</v>
       </c>
-      <c r="W13" s="52">
+      <c r="Y13" s="27">
         <f t="shared" si="21"/>
         <v>0.49823050672006181</v>
       </c>
-      <c r="X13" s="28">
+      <c r="Z13" s="27">
         <f t="shared" si="21"/>
         <v>0.52812636259726053</v>
       </c>
-      <c r="Y13" s="28">
+      <c r="AA13" s="27">
         <f t="shared" si="21"/>
         <v>0.55820386970611902</v>
       </c>
-      <c r="Z13" s="28">
+      <c r="AB13" s="27">
         <f t="shared" si="21"/>
         <v>0.58974138658802111</v>
       </c>
-      <c r="AA13" s="28">
+      <c r="AC13" s="27">
         <f t="shared" si="21"/>
         <v>0.6228050209185495</v>
       </c>
-      <c r="AB13" s="28">
+      <c r="AD13" s="27">
         <f t="shared" si="21"/>
         <v>0.6574637558988492</v>
       </c>
-      <c r="AC13" s="28">
+      <c r="AE13" s="27">
         <f t="shared" si="21"/>
         <v>0.69378957221320803</v>
       </c>
-      <c r="AD13" s="28">
+      <c r="AF13" s="27">
         <f t="shared" si="21"/>
         <v>0.73185757507303328</v>
       </c>
-      <c r="AE13" s="28">
+      <c r="AG13" s="27">
         <f t="shared" si="21"/>
         <v>0.77174612655693087</v>
       </c>
-      <c r="AF13" s="28">
+      <c r="AH13" s="27">
         <f t="shared" si="21"/>
         <v>0.81353698346515424</v>
       </c>
-      <c r="AG13" s="28">
+      <c r="AI13" s="27">
         <f t="shared" si="21"/>
         <v>0.8573154409156245</v>
       </c>
-      <c r="AH13" s="28">
+      <c r="AJ13" s="27">
         <f t="shared" si="21"/>
         <v>0.90317048191801041</v>
       </c>
-      <c r="AI13" s="28">
+      <c r="AK13" s="27">
         <f t="shared" si="21"/>
         <v>0.95119493317200432</v>
       </c>
-      <c r="AJ13" s="28">
+      <c r="AL13" s="27">
         <f t="shared" si="21"/>
         <v>1.0014856273460166</v>
       </c>
-      <c r="AK13" s="28">
+      <c r="AM13" s="27">
         <f t="shared" si="21"/>
         <v>1.0541435721029435</v>
       </c>
-      <c r="AL13" s="28">
+      <c r="AN13" s="27">
         <f t="shared" si="21"/>
         <v>1.1092741261505805</v>
       </c>
     </row>
-    <row r="14" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="28">
+      <c r="E14" s="32"/>
+      <c r="F14" s="27">
         <v>150.529032</v>
       </c>
-      <c r="G14" s="33">
-        <f>S14</f>
+      <c r="G14" s="32">
+        <f>T14</f>
         <v>150</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <v>150.700785</v>
       </c>
-      <c r="I14" s="33">
-        <f>T14</f>
+      <c r="I14" s="32">
+        <f>U14</f>
         <v>153.40163899999999</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="27">
         <v>158.57798500000001</v>
       </c>
-      <c r="K14" s="33">
-        <f>U14</f>
-        <v>164.60779099999999</v>
-      </c>
-      <c r="L14" s="28">
-        <v>170.828776</v>
-      </c>
-      <c r="M14" s="45">
+      <c r="K14" s="32">
         <f>V14</f>
         <v>164.60779099999999</v>
       </c>
-      <c r="P14" s="28">
+      <c r="L14" s="27">
+        <v>170.828776</v>
+      </c>
+      <c r="M14" s="32">
+        <f>W14</f>
+        <v>170.949286</v>
+      </c>
+      <c r="N14" s="44">
+        <f>X14</f>
+        <v>164.60779099999999</v>
+      </c>
+      <c r="Q14" s="27">
         <v>105.84317</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>150</v>
       </c>
       <c r="R14" s="1">
         <v>150</v>
@@ -3968,993 +4210,1048 @@
       <c r="S14" s="1">
         <v>150</v>
       </c>
-      <c r="T14" s="28">
+      <c r="T14" s="1">
+        <v>150</v>
+      </c>
+      <c r="U14" s="27">
         <v>153.40163899999999</v>
       </c>
-      <c r="U14" s="28">
+      <c r="V14" s="27">
         <v>164.60779099999999</v>
       </c>
-      <c r="V14" s="45">
-        <f>U14</f>
-        <v>164.60779099999999</v>
-      </c>
-      <c r="W14" s="52">
+      <c r="W14" s="27">
+        <v>170.949286</v>
+      </c>
+      <c r="X14" s="44">
         <f>V14</f>
         <v>164.60779099999999</v>
       </c>
-      <c r="X14" s="28">
-        <f t="shared" ref="X14:AL14" si="22">W14</f>
+      <c r="Y14" s="27">
+        <f>X14</f>
         <v>164.60779099999999</v>
       </c>
-      <c r="Y14" s="28">
+      <c r="Z14" s="27">
+        <f>Y14</f>
+        <v>164.60779099999999</v>
+      </c>
+      <c r="AA14" s="27">
+        <f t="shared" ref="AA14:AN14" si="22">Z14</f>
+        <v>164.60779099999999</v>
+      </c>
+      <c r="AB14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="Z14" s="28">
+      <c r="AC14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AA14" s="28">
+      <c r="AD14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AB14" s="28">
+      <c r="AE14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AC14" s="28">
+      <c r="AF14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AD14" s="28">
+      <c r="AG14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AE14" s="28">
+      <c r="AH14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AF14" s="28">
+      <c r="AI14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AG14" s="28">
+      <c r="AJ14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AH14" s="28">
+      <c r="AK14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AI14" s="28">
+      <c r="AL14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AJ14" s="28">
+      <c r="AM14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AK14" s="28">
+      <c r="AN14" s="27">
         <f t="shared" si="22"/>
         <v>164.60779099999999</v>
       </c>
-      <c r="AL14" s="28">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W15" s="109"/>
-      <c r="AN15" s="53" t="s">
+    </row>
+    <row r="15" spans="1:98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP15" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="AO15" s="75">
+      <c r="AQ15" s="71">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="24">
-        <f t="shared" ref="F16:M16" si="23">F5/F3</f>
+      <c r="E16" s="34"/>
+      <c r="F16" s="23">
+        <f t="shared" ref="F16:N16" si="23">F5/F3</f>
         <v>0.85857590685176888</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <f t="shared" si="23"/>
         <v>0.8558438255118912</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <f t="shared" si="23"/>
         <v>0.85590062111801246</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="34">
         <f t="shared" si="23"/>
         <v>0.84701747534901894</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="23">
         <f t="shared" si="23"/>
         <v>0.88574714847119718</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <f t="shared" si="23"/>
         <v>0.85246968833916514</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="23">
         <f t="shared" si="23"/>
         <v>0.86382558174358359</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="34">
+        <f t="shared" ref="M16" si="24">M5/M3</f>
+        <v>0.83166253419972636</v>
+      </c>
+      <c r="N16" s="47">
         <f t="shared" si="23"/>
         <v>0.857583546779765</v>
       </c>
-      <c r="P16" s="24">
-        <f t="shared" ref="P16:Q16" si="24">P5/P3</f>
+      <c r="Q16" s="23">
+        <f t="shared" ref="Q16:R16" si="25">Q5/Q3</f>
         <v>0.85328664255794195</v>
       </c>
-      <c r="Q16" s="24">
-        <f t="shared" si="24"/>
+      <c r="R16" s="23">
+        <f t="shared" si="25"/>
         <v>0.86532184472834472</v>
       </c>
-      <c r="R16" s="24">
-        <f t="shared" ref="R16:S16" si="25">R5/R3</f>
+      <c r="S16" s="23">
+        <f t="shared" ref="S16:T16" si="26">S5/S3</f>
         <v>0.8610677904237316</v>
       </c>
-      <c r="S16" s="24">
-        <f t="shared" si="25"/>
+      <c r="T16" s="23">
+        <f t="shared" si="26"/>
         <v>0.85725283692857257</v>
       </c>
-      <c r="T16" s="24">
-        <f>T5/T3</f>
+      <c r="U16" s="23">
+        <f>U5/U3</f>
         <v>0.85475570319479577</v>
       </c>
-      <c r="U16" s="24">
-        <f>U5/U3</f>
+      <c r="V16" s="23">
+        <f>V5/V3</f>
         <v>0.85729986922284984</v>
       </c>
-      <c r="V16" s="48">
-        <f>V5/V3</f>
+      <c r="W16" s="23">
+        <f t="shared" ref="W16" si="27">W5/W3</f>
+        <v>0.84829230777171583</v>
+      </c>
+      <c r="X16" s="47">
+        <f>X5/X3</f>
         <v>0.86</v>
       </c>
-      <c r="W16" s="111">
-        <f>W5/W3</f>
+      <c r="Y16" s="99">
+        <f>Y5/Y3</f>
         <v>0.86</v>
       </c>
-      <c r="X16" s="24">
-        <f t="shared" ref="X16:AL16" si="26">X5/X3</f>
+      <c r="Z16" s="23">
+        <f t="shared" ref="Z16:AN16" si="28">Z5/Z3</f>
         <v>0.86</v>
       </c>
-      <c r="Y16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AA16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="Z16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AB16" s="23">
+        <f t="shared" si="28"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="AA16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AC16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AB16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AD16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AC16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AE16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AD16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AF16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AE16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AG16" s="23">
+        <f t="shared" si="28"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="AF16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AH16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AG16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AI16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AH16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AJ16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AI16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AK16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AJ16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AL16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AK16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AM16" s="23">
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AL16" s="24">
-        <f t="shared" si="26"/>
+      <c r="AN16" s="23">
+        <f t="shared" si="28"/>
         <v>0.8600000000000001</v>
       </c>
-      <c r="AN16" s="54" t="s">
+      <c r="AP16" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="AO16" s="76">
+      <c r="AQ16" s="72">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="24">
-        <f t="shared" ref="F17:M17" si="27">F8/F3</f>
+      <c r="E17" s="34"/>
+      <c r="F17" s="23">
+        <f t="shared" ref="F17:N17" si="29">F8/F3</f>
         <v>0.25023137781758459</v>
       </c>
-      <c r="G17" s="35">
-        <f t="shared" si="27"/>
+      <c r="G17" s="34">
+        <f t="shared" si="29"/>
         <v>0.18569566323286293</v>
       </c>
-      <c r="H17" s="24">
-        <f t="shared" si="27"/>
+      <c r="H17" s="23">
+        <f t="shared" si="29"/>
         <v>0.27698974433049256</v>
       </c>
-      <c r="I17" s="35">
-        <f t="shared" si="27"/>
+      <c r="I17" s="34">
+        <f t="shared" si="29"/>
         <v>-0.90940154251684147</v>
       </c>
-      <c r="J17" s="24">
-        <f t="shared" si="27"/>
+      <c r="J17" s="23">
+        <f t="shared" si="29"/>
         <v>-0.96060577015240112</v>
       </c>
-      <c r="K17" s="35">
-        <f t="shared" si="27"/>
+      <c r="K17" s="34">
+        <f t="shared" si="29"/>
         <v>0.31901700707950204</v>
       </c>
-      <c r="L17" s="24">
-        <f t="shared" si="27"/>
+      <c r="L17" s="23">
+        <f t="shared" si="29"/>
         <v>0.37551036706497759</v>
       </c>
-      <c r="M17" s="48">
-        <f t="shared" si="27"/>
+      <c r="M17" s="34">
+        <f t="shared" ref="M17" si="30">M8/M3</f>
+        <v>0.19058866279069778</v>
+      </c>
+      <c r="N17" s="47">
+        <f t="shared" si="29"/>
         <v>0.32661853686096926</v>
       </c>
-      <c r="P17" s="24">
-        <f t="shared" ref="P17:Q17" si="28">P8/P3</f>
+      <c r="Q17" s="23">
+        <f t="shared" ref="Q17:R17" si="31">Q8/Q3</f>
         <v>0.13719072927301687</v>
       </c>
-      <c r="Q17" s="24">
-        <f t="shared" si="28"/>
+      <c r="R17" s="23">
+        <f t="shared" si="31"/>
         <v>0.19480029481959843</v>
       </c>
-      <c r="R17" s="24">
-        <f t="shared" ref="R17:S17" si="29">R8/R3</f>
+      <c r="S17" s="23">
+        <f t="shared" ref="S17:T17" si="32">S8/S3</f>
         <v>0.20649036068619966</v>
       </c>
-      <c r="S17" s="24">
-        <f t="shared" si="29"/>
+      <c r="T17" s="23">
+        <f t="shared" si="32"/>
         <v>0.2189785517421898</v>
       </c>
-      <c r="T17" s="24">
-        <f>T8/T3</f>
+      <c r="U17" s="23">
+        <f>U8/U3</f>
         <v>0.12407987618436456</v>
       </c>
-      <c r="U17" s="60">
-        <f>U8/U3</f>
+      <c r="V17" s="23">
+        <f>V8/V3</f>
         <v>0.13328139347227252</v>
       </c>
-      <c r="V17" s="48">
-        <f>V8/V3</f>
+      <c r="W17" s="23">
+        <f t="shared" ref="W17" si="33">W8/W3</f>
+        <v>0.28620168162650139</v>
+      </c>
+      <c r="X17" s="47">
+        <f>X8/X3</f>
         <v>0.34554582919824023</v>
       </c>
-      <c r="W17" s="111">
-        <f>W8/W3</f>
+      <c r="Y17" s="99">
+        <f>Y8/Y3</f>
         <v>0.35181390124957712</v>
       </c>
-      <c r="X17" s="24">
-        <f t="shared" ref="X17:AL17" si="30">X8/X3</f>
+      <c r="Z17" s="23">
+        <f t="shared" ref="Z17:AN17" si="34">Z8/Z3</f>
         <v>0.36097720496882491</v>
       </c>
-      <c r="Y17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AA17" s="23">
+        <f t="shared" si="34"/>
         <v>0.36907710433428531</v>
       </c>
-      <c r="Z17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AB17" s="23">
+        <f t="shared" si="34"/>
         <v>0.37687303171545972</v>
       </c>
-      <c r="AA17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AC17" s="23">
+        <f t="shared" si="34"/>
         <v>0.38438041730190237</v>
       </c>
-      <c r="AB17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AD17" s="23">
+        <f t="shared" si="34"/>
         <v>0.39161391525985323</v>
       </c>
-      <c r="AC17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AE17" s="23">
+        <f t="shared" si="34"/>
         <v>0.39858744097319598</v>
       </c>
-      <c r="AD17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AF17" s="23">
+        <f t="shared" si="34"/>
         <v>0.40531420656410627</v>
       </c>
-      <c r="AE17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AG17" s="23">
+        <f t="shared" si="34"/>
         <v>0.41180675477066953</v>
       </c>
-      <c r="AF17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AH17" s="23">
+        <f t="shared" si="34"/>
         <v>0.41807699125534026</v>
       </c>
-      <c r="AG17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AI17" s="23">
+        <f t="shared" si="34"/>
         <v>0.42413621541486973</v>
       </c>
-      <c r="AH17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AJ17" s="23">
+        <f t="shared" si="34"/>
         <v>0.42999514975921177</v>
       </c>
-      <c r="AI17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AK17" s="23">
+        <f t="shared" si="34"/>
         <v>0.43566396792394108</v>
       </c>
-      <c r="AJ17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AL17" s="23">
+        <f t="shared" si="34"/>
         <v>0.44115232137787369</v>
       </c>
-      <c r="AK17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AM17" s="23">
+        <f t="shared" si="34"/>
         <v>0.44646936488484978</v>
       </c>
-      <c r="AL17" s="24">
-        <f t="shared" si="30"/>
+      <c r="AN17" s="23">
+        <f t="shared" si="34"/>
         <v>0.45162378077603915</v>
       </c>
-      <c r="AN17" s="54" t="s">
+      <c r="AP17" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="AO17" s="77">
-        <f>NPV(AO16,V12:CR12)</f>
+      <c r="AQ17" s="73">
+        <f>NPV(AQ16,X12:CT12)</f>
         <v>1284.0246651178204</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="24">
-        <f t="shared" ref="F18:M18" si="31">F12/F3</f>
+      <c r="E18" s="34"/>
+      <c r="F18" s="23">
+        <f t="shared" ref="F18:N18" si="35">F12/F3</f>
         <v>0.19965666517390643</v>
       </c>
-      <c r="G18" s="35">
-        <f t="shared" si="31"/>
+      <c r="G18" s="34">
+        <f t="shared" si="35"/>
         <v>0.14164441053033205</v>
       </c>
-      <c r="H18" s="24">
-        <f t="shared" si="31"/>
+      <c r="H18" s="23">
+        <f t="shared" si="35"/>
         <v>0.16640184890943235</v>
       </c>
-      <c r="I18" s="35">
-        <f t="shared" si="31"/>
+      <c r="I18" s="34">
+        <f t="shared" si="35"/>
         <v>-0.98945621399980577</v>
       </c>
-      <c r="J18" s="24">
-        <f t="shared" si="31"/>
+      <c r="J18" s="23">
+        <f t="shared" si="35"/>
         <v>-1.1150196491900701</v>
       </c>
-      <c r="K18" s="35">
-        <f t="shared" si="31"/>
+      <c r="K18" s="34">
+        <f t="shared" si="35"/>
         <v>0.21744649686711701</v>
       </c>
-      <c r="L18" s="24">
-        <f t="shared" si="31"/>
+      <c r="L18" s="23">
+        <f t="shared" si="35"/>
         <v>0.26978327493436355</v>
       </c>
-      <c r="M18" s="48">
-        <f t="shared" si="31"/>
+      <c r="M18" s="34">
+        <f t="shared" ref="M18" si="36">M12/M3</f>
+        <v>0.11142698358413144</v>
+      </c>
+      <c r="N18" s="47">
+        <f t="shared" si="35"/>
         <v>0.3085879443437643</v>
       </c>
-      <c r="P18" s="24">
-        <f t="shared" ref="P18:Q18" si="32">P12/P3</f>
+      <c r="Q18" s="23">
+        <f t="shared" ref="Q18:R18" si="37">Q12/Q3</f>
         <v>1.1326011659971446E-2</v>
       </c>
-      <c r="Q18" s="24">
-        <f t="shared" si="32"/>
+      <c r="R18" s="23">
+        <f t="shared" si="37"/>
         <v>0.15927277832373993</v>
       </c>
-      <c r="R18" s="24">
-        <f t="shared" ref="R18:S18" si="33">R12/R3</f>
+      <c r="S18" s="23">
+        <f t="shared" ref="S18:T18" si="38">S12/S3</f>
         <v>0.15582174735375118</v>
       </c>
-      <c r="S18" s="24">
-        <f t="shared" si="33"/>
+      <c r="T18" s="23">
+        <f t="shared" si="38"/>
         <v>0.17156296672671562</v>
       </c>
-      <c r="T18" s="24">
-        <f>T12/T3</f>
+      <c r="U18" s="23">
+        <f>U12/U3</f>
         <v>1.7427302354258722E-2</v>
       </c>
-      <c r="U18" s="24">
-        <f>U12/U3</f>
+      <c r="V18" s="23">
+        <f>V12/V3</f>
         <v>2.4040735691032097E-2</v>
       </c>
-      <c r="V18" s="48">
-        <f>V12/V3</f>
+      <c r="W18" s="23">
+        <f t="shared" ref="W18" si="39">W12/W3</f>
+        <v>0.19330446317506367</v>
+      </c>
+      <c r="X18" s="47">
+        <f>X12/X3</f>
         <v>0.29356565291187853</v>
       </c>
-      <c r="W18" s="111">
-        <f>W12/W3</f>
+      <c r="Y18" s="99">
+        <f>Y12/Y3</f>
         <v>0.30475362366146064</v>
       </c>
-      <c r="X18" s="24">
-        <f t="shared" ref="X18:AL18" si="34">X12/X3</f>
+      <c r="Z18" s="23">
+        <f t="shared" ref="Z18:AN18" si="40">Z12/Z3</f>
         <v>0.31061546154496977</v>
       </c>
-      <c r="Y18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AA18" s="23">
+        <f t="shared" si="40"/>
         <v>0.31567829818274856</v>
       </c>
-      <c r="Z18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AB18" s="23">
+        <f t="shared" si="40"/>
         <v>0.32068611106887934</v>
       </c>
-      <c r="AA18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AC18" s="23">
+        <f t="shared" si="40"/>
         <v>0.32563967322521004</v>
       </c>
-      <c r="AB18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AD18" s="23">
+        <f t="shared" si="40"/>
         <v>0.33053974085809684</v>
       </c>
-      <c r="AC18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AE18" s="23">
+        <f t="shared" si="40"/>
         <v>0.33538705388096141</v>
       </c>
-      <c r="AD18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AF18" s="23">
+        <f t="shared" si="40"/>
         <v>0.34018233641794171</v>
       </c>
-      <c r="AE18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AG18" s="23">
+        <f t="shared" si="40"/>
         <v>0.34492629728935692</v>
       </c>
-      <c r="AF18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AH18" s="23">
+        <f t="shared" si="40"/>
         <v>0.34961963047966943</v>
       </c>
-      <c r="AG18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AI18" s="23">
+        <f t="shared" si="40"/>
         <v>0.35426301558860973</v>
       </c>
-      <c r="AH18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AJ18" s="23">
+        <f t="shared" si="40"/>
         <v>0.35885711826609984</v>
       </c>
-      <c r="AI18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AK18" s="23">
+        <f t="shared" si="40"/>
         <v>0.36340259063158448</v>
       </c>
-      <c r="AJ18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AL18" s="23">
+        <f t="shared" si="40"/>
         <v>0.36790007167836392</v>
       </c>
-      <c r="AK18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AM18" s="23">
+        <f t="shared" si="40"/>
         <v>0.3723501876634891</v>
       </c>
-      <c r="AL18" s="24">
-        <f t="shared" si="34"/>
+      <c r="AN18" s="23">
+        <f t="shared" si="40"/>
         <v>0.37675355248376802</v>
       </c>
-      <c r="AN18" s="54" t="s">
+      <c r="AP18" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AO18" s="77">
+      <c r="AQ18" s="73">
         <f>Main!C11</f>
         <v>49.6</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="24">
-        <f t="shared" ref="F19:M19" si="35">F11/F10</f>
+      <c r="E19" s="34"/>
+      <c r="F19" s="23">
+        <f t="shared" ref="F19:N19" si="41">F11/F10</f>
         <v>0.1837046078730547</v>
       </c>
-      <c r="G19" s="35">
-        <f t="shared" si="35"/>
+      <c r="G19" s="34">
+        <f t="shared" si="41"/>
         <v>0.20467731857538143</v>
       </c>
-      <c r="H19" s="24">
-        <f t="shared" si="35"/>
+      <c r="H19" s="23">
+        <f t="shared" si="41"/>
         <v>0.20376002211777711</v>
       </c>
-      <c r="I19" s="35">
-        <f t="shared" si="35"/>
+      <c r="I19" s="34">
+        <f t="shared" si="41"/>
         <v>0.23636226642555747</v>
       </c>
-      <c r="J19" s="24">
-        <f t="shared" si="35"/>
+      <c r="J19" s="23">
+        <f t="shared" si="41"/>
         <v>0.19711505279867483</v>
       </c>
-      <c r="K19" s="35">
-        <f t="shared" si="35"/>
+      <c r="K19" s="34">
+        <f t="shared" si="41"/>
         <v>0.10634740151160453</v>
       </c>
-      <c r="L19" s="24">
-        <f t="shared" si="35"/>
+      <c r="L19" s="23">
+        <f t="shared" si="41"/>
         <v>0.19176361515686216</v>
       </c>
-      <c r="M19" s="48">
-        <f t="shared" si="35"/>
+      <c r="M19" s="34">
+        <f t="shared" ref="M19" si="42">M11/M10</f>
+        <v>0.21182340489869955</v>
+      </c>
+      <c r="N19" s="47">
+        <f t="shared" si="41"/>
         <v>7.4483295437383745E-2</v>
       </c>
-      <c r="P19" s="24">
-        <f>P11/P10</f>
+      <c r="Q19" s="23">
+        <f>Q11/Q10</f>
         <v>0.53885003885004146</v>
       </c>
-      <c r="Q19" s="24">
-        <f t="shared" ref="Q19:AL19" si="36">Q11/Q10</f>
+      <c r="R19" s="23">
+        <f t="shared" ref="R19:AN19" si="43">R11/R10</f>
         <v>0.13561904761904767</v>
       </c>
-      <c r="R19" s="24">
-        <f t="shared" si="36"/>
+      <c r="S19" s="23">
+        <f t="shared" si="43"/>
         <v>0.21517506476142731</v>
       </c>
-      <c r="S19" s="24">
-        <f t="shared" si="36"/>
+      <c r="T19" s="23">
+        <f t="shared" si="43"/>
         <v>0.1922212556183848</v>
       </c>
-      <c r="T19" s="24">
-        <f t="shared" si="36"/>
+      <c r="U19" s="23">
+        <f t="shared" si="43"/>
         <v>-0.15802675585284237</v>
       </c>
-      <c r="U19" s="24">
-        <f t="shared" si="36"/>
+      <c r="V19" s="23">
+        <f t="shared" si="43"/>
         <v>-2.7402597402597104</v>
       </c>
-      <c r="V19" s="48">
-        <f>V11/V10</f>
+      <c r="W19" s="23">
+        <f t="shared" ref="W19" si="44">W11/W10</f>
+        <v>0.19744990892531872</v>
+      </c>
+      <c r="X19" s="47">
+        <f>X11/X10</f>
         <v>0.11991642320130369</v>
       </c>
-      <c r="W19" s="24">
-        <f t="shared" si="36"/>
+      <c r="Y19" s="23">
+        <f t="shared" si="43"/>
         <v>0.11602488633818969</v>
       </c>
-      <c r="X19" s="24">
-        <f t="shared" si="36"/>
+      <c r="Z19" s="23">
+        <f t="shared" si="43"/>
         <v>0.11408510002309072</v>
       </c>
-      <c r="Y19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AA19" s="23">
+        <f t="shared" si="43"/>
         <v>0.11246117686788944</v>
       </c>
-      <c r="Z19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AB19" s="23">
+        <f t="shared" si="43"/>
         <v>0.11089975125868183</v>
       </c>
-      <c r="AA19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AC19" s="23">
+        <f t="shared" si="43"/>
         <v>0.10939731907965751</v>
       </c>
-      <c r="AB19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AD19" s="23">
+        <f t="shared" si="43"/>
         <v>0.10795063414080203</v>
       </c>
-      <c r="AC19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AE19" s="23">
+        <f t="shared" si="43"/>
         <v>0.10655668485755601</v>
       </c>
-      <c r="AD19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AF19" s="23">
+        <f t="shared" si="43"/>
         <v>0.10521267341580866</v>
       </c>
-      <c r="AE19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AG19" s="23">
+        <f t="shared" si="43"/>
         <v>0.10391599711861511</v>
       </c>
-      <c r="AF19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AH19" s="23">
+        <f t="shared" si="43"/>
         <v>0.10266423165268933</v>
       </c>
-      <c r="AG19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AI19" s="23">
+        <f t="shared" si="43"/>
         <v>0.10145511604805875</v>
       </c>
-      <c r="AH19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AJ19" s="23">
+        <f t="shared" si="43"/>
         <v>0.10028653913433172</v>
       </c>
-      <c r="AI19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AK19" s="23">
+        <f t="shared" si="43"/>
         <v>9.9156527322678517E-2</v>
       </c>
-      <c r="AJ19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AL19" s="23">
+        <f t="shared" si="43"/>
         <v>9.8063233564569391E-2</v>
       </c>
-      <c r="AK19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AM19" s="23">
+        <f t="shared" si="43"/>
         <v>9.7004927357140475E-2</v>
       </c>
-      <c r="AL19" s="24">
-        <f t="shared" si="36"/>
+      <c r="AN19" s="23">
+        <f t="shared" si="43"/>
         <v>9.5979985681244911E-2</v>
       </c>
-      <c r="AN19" s="54" t="s">
+      <c r="AP19" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="AO19" s="77">
-        <f>AO17+AO18</f>
+      <c r="AQ19" s="73">
+        <f>AQ17+AQ18</f>
         <v>1333.6246651178203</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W20" s="109"/>
-      <c r="AN20" s="55" t="s">
+    <row r="20" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP20" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="AO20" s="78">
-        <f>AO19/Main!C7</f>
-        <v>7.7957833934519227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="74">
+        <f>AQ19/Main!C7</f>
+        <v>7.8012883020629893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39" t="s">
+      <c r="E21" s="37"/>
+      <c r="F21" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="24">
-        <f t="shared" ref="H21:M21" si="37">H3/F3-1</f>
+      <c r="H21" s="23">
+        <f t="shared" ref="H21:M21" si="45">H3/F3-1</f>
         <v>3.3437826541274918E-2</v>
       </c>
-      <c r="I21" s="35">
-        <f t="shared" si="37"/>
+      <c r="I21" s="34">
+        <f t="shared" si="45"/>
         <v>-0.8371645682309552</v>
       </c>
-      <c r="J21" s="24">
-        <f t="shared" si="37"/>
+      <c r="J21" s="23">
+        <f t="shared" si="45"/>
         <v>-0.84929943666040741</v>
       </c>
-      <c r="K21" s="35">
-        <f t="shared" si="37"/>
+      <c r="K21" s="34">
+        <f t="shared" si="45"/>
         <v>4.9987308405740531</v>
       </c>
-      <c r="L21" s="24">
-        <f t="shared" si="37"/>
+      <c r="L21" s="23">
+        <f t="shared" si="45"/>
         <v>8.6015527652640671</v>
       </c>
-      <c r="M21" s="48">
-        <f t="shared" si="37"/>
+      <c r="M21" s="34">
+        <f t="shared" si="45"/>
+        <v>0.5227927414761171</v>
+      </c>
+      <c r="N21" s="47">
+        <f>N3/K3-1</f>
         <v>1.5809716006184393</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="Q21" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="Q21" s="24">
-        <f t="shared" ref="Q21:T21" si="38">Q3/P3-1</f>
+      <c r="R21" s="23">
+        <f t="shared" ref="R21:U21" si="46">R3/Q3-1</f>
         <v>8.744978674274595E-2</v>
       </c>
-      <c r="R21" s="24">
-        <f t="shared" si="38"/>
+      <c r="S21" s="23">
+        <f t="shared" si="46"/>
         <v>5.7735504703074536E-2</v>
       </c>
-      <c r="S21" s="24">
-        <f t="shared" si="38"/>
+      <c r="T21" s="23">
+        <f t="shared" si="46"/>
         <v>7.7529282941235067E-2</v>
       </c>
-      <c r="T21" s="24">
-        <f t="shared" si="38"/>
+      <c r="U21" s="23">
+        <f t="shared" si="46"/>
         <v>-0.38817035428888169</v>
       </c>
-      <c r="U21" s="24">
-        <f>U3/T3-1</f>
+      <c r="V21" s="23">
+        <f>V3/U3-1</f>
         <v>-9.5567047928227233E-2</v>
       </c>
-      <c r="V21" s="48">
-        <f>V3/U3-1</f>
+      <c r="W21" s="23">
+        <f t="shared" ref="W21" si="47">W3/V3-1</f>
+        <v>1.6954144522663404</v>
+      </c>
+      <c r="X21" s="47">
+        <f>X3/V3-1</f>
         <v>2.6</v>
       </c>
-      <c r="W21" s="111">
-        <f>W3/V3-1</f>
+      <c r="Y21" s="99">
+        <f>Y3/X3-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="X21" s="24">
-        <f t="shared" ref="X21:AL21" si="39">X3/W3-1</f>
+      <c r="Z21" s="23">
+        <f>Z3/Y3-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Y21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AA21" s="23">
+        <f t="shared" ref="AA21:AN21" si="48">AA3/Z3-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Z21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AB21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AA21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AC21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AB21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AD21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AC21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AE21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AD21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AF21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AE21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AG21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AF21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AH21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AG21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AI21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AH21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AJ21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AI21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AK21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AJ21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AL21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AK21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AM21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AL21" s="24">
-        <f t="shared" si="39"/>
+      <c r="AN21" s="23">
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AN21" s="54" t="s">
+      <c r="AP21" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="AO21" s="80">
+      <c r="AQ21" s="76">
         <f>Main!C6</f>
-        <v>2.17</v>
-      </c>
-      <c r="AP21" s="57"/>
-    </row>
-    <row r="22" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="AR21" s="55"/>
+    </row>
+    <row r="22" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="39" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="35">
-        <f t="shared" ref="G22" si="40">G3/F3-1</f>
+      <c r="G22" s="34">
+        <f t="shared" ref="G22" si="49">G3/F3-1</f>
         <v>-6.0994178235557306E-2</v>
       </c>
-      <c r="H22" s="24">
-        <f t="shared" ref="H22:M22" si="41">H3/G3-1</f>
+      <c r="H22" s="23">
+        <f t="shared" ref="H22:M22" si="50">H3/G3-1</f>
         <v>0.10056594175251155</v>
       </c>
-      <c r="I22" s="35">
-        <f t="shared" si="41"/>
+      <c r="I22" s="34">
+        <f t="shared" si="50"/>
         <v>-0.85204391159901782</v>
       </c>
-      <c r="J22" s="24">
-        <f t="shared" si="41"/>
+      <c r="J22" s="23">
+        <f t="shared" si="50"/>
         <v>1.8549253148492095E-2</v>
       </c>
-      <c r="K22" s="35">
-        <f t="shared" si="41"/>
+      <c r="K22" s="34">
+        <f t="shared" si="50"/>
         <v>4.8894852870698742</v>
       </c>
-      <c r="L22" s="24">
-        <f t="shared" si="41"/>
+      <c r="L22" s="23">
+        <f t="shared" si="50"/>
         <v>0.63028724875905273</v>
       </c>
-      <c r="M22" s="48">
-        <f t="shared" si="41"/>
+      <c r="M22" s="34">
+        <f t="shared" si="50"/>
+        <v>-6.5935930839647328E-2</v>
+      </c>
+      <c r="N22" s="47">
+        <f>N3/L3-1</f>
         <v>0.58313916923721965</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="Q22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="Q22" s="39" t="s">
+      <c r="R22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="S22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="T22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="T22" s="39" t="s">
+      <c r="U22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="U22" s="39" t="s">
+      <c r="V22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="V22" s="49" t="s">
+      <c r="W22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="W22" s="112" t="s">
+      <c r="X22" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="X22" s="39" t="s">
+      <c r="Y22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="Y22" s="39" t="s">
+      <c r="Z22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="Z22" s="39" t="s">
+      <c r="AA22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AA22" s="39" t="s">
+      <c r="AB22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AB22" s="39" t="s">
+      <c r="AC22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AC22" s="39" t="s">
+      <c r="AD22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AD22" s="39" t="s">
+      <c r="AE22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AE22" s="39" t="s">
+      <c r="AF22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AF22" s="39" t="s">
+      <c r="AG22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AG22" s="39" t="s">
+      <c r="AH22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AH22" s="39" t="s">
+      <c r="AI22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AI22" s="39" t="s">
+      <c r="AJ22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AJ22" s="39" t="s">
+      <c r="AK22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AK22" s="39" t="s">
+      <c r="AL22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AL22" s="39" t="s">
+      <c r="AM22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AN22" s="56" t="s">
+      <c r="AN22" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP22" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="AO22" s="79">
-        <f>AO20/AO21-1</f>
-        <v>2.5925269094248491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="35"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="48"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39"/>
-    </row>
-    <row r="24" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="30" t="s">
+      <c r="AQ22" s="75">
+        <f>AQ20/AQ21-1</f>
+        <v>2.2709804201521973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="34"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="47"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+    </row>
+    <row r="24" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="48"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-    </row>
-    <row r="25" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="34"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="47"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+    </row>
+    <row r="25" spans="1:44" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="63"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
-      <c r="P25" s="3">
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="61"/>
+      <c r="Q25" s="3">
         <v>54</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="3">
         <v>58</v>
       </c>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10">
-        <f>SUM(S26:S28)</f>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10">
+        <f>SUM(T26:T28)</f>
         <v>60</v>
       </c>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10">
-        <f>SUM(U26:U28)</f>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10">
+        <f>SUM(V26:V28)</f>
         <v>64</v>
       </c>
-      <c r="V25" s="42"/>
       <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
+      <c r="X25" s="41"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
@@ -4968,505 +5265,540 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
-    </row>
-    <row r="26" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="61" t="s">
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+    </row>
+    <row r="26" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="48"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39">
+      <c r="E26" s="34"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="47"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38">
         <v>54</v>
       </c>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39">
+      <c r="U26" s="38"/>
+      <c r="V26" s="38">
         <v>56</v>
       </c>
-      <c r="V26" s="49"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-    </row>
-    <row r="27" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="61" t="s">
+      <c r="W26" s="38"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+    </row>
+    <row r="27" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <v>6</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="61" t="s">
+    <row r="28" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
-      <c r="S28" s="62">
+      <c r="S28" s="58"/>
+      <c r="T28" s="58">
         <v>0</v>
       </c>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62">
+      <c r="U28" s="58"/>
+      <c r="V28" s="58">
         <v>3</v>
       </c>
-      <c r="V28" s="68"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-    </row>
-    <row r="29" spans="1:42" s="86" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="87" t="s">
+      <c r="W28" s="58"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="62"/>
+    </row>
+    <row r="29" spans="1:44" s="82" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88" t="s">
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="P29" s="96">
-        <f>P3/P25</f>
+      <c r="Q29" s="92">
+        <f>Q3/Q25</f>
         <v>1.9407962962962964</v>
       </c>
-      <c r="Q29" s="96">
-        <f t="shared" ref="Q29:U29" si="42">Q3/Q25</f>
+      <c r="R29" s="92">
+        <f t="shared" ref="R29:V29" si="51">R3/R25</f>
         <v>1.9649655172413794</v>
       </c>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96">
-        <f t="shared" si="42"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92">
+        <f t="shared" si="51"/>
         <v>2.1649000000000003</v>
       </c>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96">
-        <f t="shared" si="42"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92">
+        <f t="shared" si="51"/>
         <v>1.12309375</v>
       </c>
-      <c r="V29" s="90"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88"/>
-    </row>
-    <row r="30" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="81" t="s">
+      <c r="W29" s="92"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="84"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+    </row>
+    <row r="30" spans="1:44" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="37">
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="36">
         <v>12.1</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="R30" s="36">
         <v>13.1</v>
       </c>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
-      <c r="AC30" s="82"/>
-      <c r="AD30" s="82"/>
-    </row>
-    <row r="31" spans="1:42" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="92" t="s">
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+    </row>
+    <row r="31" spans="1:44" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="M31" s="94"/>
-      <c r="P31" s="95">
-        <f>P3/P30</f>
+      <c r="E31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="90"/>
+      <c r="Q31" s="91">
+        <f>Q3/Q30</f>
         <v>8.6614049586776858</v>
       </c>
-      <c r="Q31" s="95">
-        <f>Q3/Q30</f>
+      <c r="R31" s="91">
+        <f>R3/R30</f>
         <v>8.6998473282442745</v>
       </c>
-      <c r="V31" s="94"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
+      <c r="X31" s="90"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B34" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="14">
         <v>48.180999999999997</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="14">
         <v>55.976999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M35" s="31"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="14">
         <v>147.39099999999999</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="14">
         <v>133.077</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="14">
         <v>78.364000000000004</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="14">
         <v>77.807000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M37" s="31"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="14">
         <v>2.93</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="14">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="14">
         <f>SUM(H35:H38)</f>
         <v>276.86600000000004</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="14">
         <f>SUM(L35:L38)</f>
         <v>270.99099999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="73"/>
-      <c r="G40" s="73"/>
+      <c r="E40" s="69"/>
+      <c r="G40" s="69"/>
       <c r="H40" s="12">
         <v>15.635999999999999</v>
       </c>
-      <c r="I40" s="73"/>
-      <c r="K40" s="73"/>
+      <c r="I40" s="69"/>
+      <c r="K40" s="69"/>
       <c r="L40" s="12">
         <v>49.576999999999998</v>
       </c>
-      <c r="M40" s="74"/>
-      <c r="V40" s="74"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M40" s="30"/>
+      <c r="N40" s="70"/>
+      <c r="X40" s="70"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="14">
         <v>2.9940000000000002</v>
       </c>
-      <c r="L41" s="23">
+      <c r="L41" s="14">
         <v>10.474</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M41" s="31"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="14">
         <v>1.3120000000000001</v>
       </c>
-      <c r="L42" s="23">
+      <c r="L42" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M42" s="31"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="14">
         <v>1.4830000000000001</v>
       </c>
-      <c r="L43" s="23">
+      <c r="L43" s="14">
         <v>1.7390000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M43" s="31"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="14">
         <f>H39+H40+H41+H42+H43</f>
         <v>298.29100000000011</v>
       </c>
-      <c r="L44" s="23">
+      <c r="L44" s="14">
         <f>L39+L40+L41+L42+L43</f>
         <v>332.78099999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H45" s="23"/>
-      <c r="L45" s="23"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M44" s="31"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="H45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="31"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="14">
         <v>11.737</v>
       </c>
-      <c r="L46" s="23">
+      <c r="L46" s="14">
         <v>21.773</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M46" s="31"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="14">
         <v>11.831</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="14">
         <v>11.615</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M47" s="31"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="14">
         <v>0</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="14">
         <v>2.0670000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="31"/>
+    </row>
+    <row r="49" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="73"/>
-      <c r="G49" s="73"/>
+      <c r="E49" s="69"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="12">
         <v>5.38</v>
       </c>
-      <c r="I49" s="73"/>
-      <c r="K49" s="73"/>
+      <c r="I49" s="69"/>
+      <c r="K49" s="69"/>
       <c r="L49" s="12">
         <v>0</v>
       </c>
-      <c r="M49" s="74"/>
-      <c r="V49" s="74"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M49" s="30"/>
+      <c r="N49" s="70"/>
+      <c r="X49" s="70"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="14">
         <f>SUM(H46:H49)</f>
         <v>28.947999999999997</v>
       </c>
-      <c r="L50" s="23">
+      <c r="L50" s="14">
         <f>SUM(L46:L49)</f>
         <v>35.454999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M50" s="31"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="14">
         <v>0.68700000000000006</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="14">
         <v>0.51600000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M51" s="31"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="14">
         <v>164.32900000000001</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="14">
         <v>160.916</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M52" s="31"/>
+    </row>
+    <row r="53" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="73"/>
-      <c r="G53" s="73"/>
+      <c r="E53" s="69"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="12">
         <v>24.693000000000001</v>
       </c>
-      <c r="I53" s="73"/>
-      <c r="K53" s="73"/>
+      <c r="I53" s="69"/>
+      <c r="K53" s="69"/>
       <c r="L53" s="12">
         <v>0</v>
       </c>
-      <c r="M53" s="74"/>
-      <c r="V53" s="74"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M53" s="30"/>
+      <c r="N53" s="70"/>
+      <c r="X53" s="70"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="14">
         <v>3.8029999999999999</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="14">
         <v>3.7690000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M54" s="31"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="14">
         <f>H50+H51+H52+H53+H54</f>
         <v>222.46</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="14">
         <f>L50+L51+L52+L53+L54</f>
         <v>200.65600000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H56" s="23"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M55" s="31"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="14">
         <v>75.83</v>
       </c>
-      <c r="L57" s="23">
+      <c r="L57" s="14">
         <v>132.125</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M57" s="31"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="14">
         <f>H55+H57</f>
         <v>298.29000000000002</v>
       </c>
-      <c r="L58" s="23">
+      <c r="L58" s="14">
         <f>L55+L57</f>
         <v>332.78100000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M58" s="31"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="14">
         <f>H44-H55</f>
         <v>75.831000000000103</v>
       </c>
-      <c r="L60" s="23">
+      <c r="L60" s="14">
         <f>L44-L55</f>
         <v>132.12499999999994</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M60" s="31"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="1" t="s">
         <v>134</v>
@@ -5480,32 +5812,560 @@
         <v>0.77343526713555533</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:24" s="124" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="123"/>
+      <c r="B64" s="124" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="I64" s="125"/>
+      <c r="K64" s="125"/>
+      <c r="M64" s="125"/>
+      <c r="N64" s="126"/>
+      <c r="X64" s="126"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{B9683B42-B241-4D1D-8CE0-7A17859DA76B}"/>
-    <hyperlink ref="U1" r:id="rId2" xr:uid="{05878C96-F10F-4982-ACE4-FF132CF4E29A}"/>
-    <hyperlink ref="S1" r:id="rId3" xr:uid="{6765EA13-C896-4C06-BD01-2D2BC5D2014C}"/>
+    <hyperlink ref="V1" r:id="rId2" xr:uid="{05878C96-F10F-4982-ACE4-FF132CF4E29A}"/>
+    <hyperlink ref="T1" r:id="rId3" xr:uid="{6765EA13-C896-4C06-BD01-2D2BC5D2014C}"/>
     <hyperlink ref="H1" r:id="rId4" xr:uid="{D3D9ED60-186F-274D-93DB-4D868CA2340E}"/>
-    <hyperlink ref="Q1" r:id="rId5" xr:uid="{9260496C-E59A-0143-BDFB-5C62E2643276}"/>
+    <hyperlink ref="R1" r:id="rId5" xr:uid="{9260496C-E59A-0143-BDFB-5C62E2643276}"/>
+    <hyperlink ref="W1" r:id="rId6" xr:uid="{D7D97D6D-2030-4F4C-B5FB-6BFE0FD9DC61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
   <ignoredErrors>
-    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 V11:AB11 M5 M8 M10:M11 AC11:AL11" formula="1"/>
+    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 X11:AD11 N5 N8 N10:N11 AE11:AN11 M5:M13" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE00A87-1093-914E-B5D4-E893EE3F79A8}">
+  <dimension ref="A1:R72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="25"/>
+    <col min="2" max="2" width="9.1640625" style="144"/>
+    <col min="3" max="17" width="9.1640625" style="1"/>
+    <col min="18" max="18" width="9.1640625" style="144"/>
+    <col min="19" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="35">
+        <v>44834</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>44834</v>
+      </c>
+      <c r="R2" s="146" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="30">
+        <v>93.568000000000012</v>
+      </c>
+      <c r="B3" s="130">
+        <v>158.58780000000002</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>193.74100000000001</v>
+      </c>
+      <c r="R3" s="147">
+        <v>258.76080000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="31">
+        <v>15.750999999999999</v>
+      </c>
+      <c r="B4" s="131">
+        <v>22.585512000000008</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>29.391999999999999</v>
+      </c>
+      <c r="R4" s="148">
+        <v>36.226512000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="30">
+        <v>77.817000000000007</v>
+      </c>
+      <c r="B5" s="132">
+        <v>136.00228800000002</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>164.34900000000002</v>
+      </c>
+      <c r="R5" s="149">
+        <v>222.534288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="31">
+        <v>3.9E-2</v>
+      </c>
+      <c r="B6" s="131">
+        <v>0.4</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R6" s="144">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="31">
+        <v>60.022999999999996</v>
+      </c>
+      <c r="B7" s="131">
+        <v>84.6045728</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>108.93899999999999</v>
+      </c>
+      <c r="R7" s="148">
+        <v>133.5205728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="30">
+        <v>17.833000000000013</v>
+      </c>
+      <c r="B8" s="132">
+        <v>51.797715200000027</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>55.449000000000012</v>
+      </c>
+      <c r="R8" s="149">
+        <v>89.413715200000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="31">
+        <v>4.6049999999999986</v>
+      </c>
+      <c r="B9" s="131">
+        <v>-1.0790000000000002</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>8.7839999999999989</v>
+      </c>
+      <c r="R9" s="148">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="31">
+        <v>13.228000000000014</v>
+      </c>
+      <c r="B10" s="133">
+        <v>52.876715200000028</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>46.665000000000013</v>
+      </c>
+      <c r="R10" s="150">
+        <v>86.313715200000019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="31">
+        <v>2.8020000000000005</v>
+      </c>
+      <c r="B11" s="131">
+        <v>3.9384320000000015</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>9.2140000000000004</v>
+      </c>
+      <c r="R11" s="148">
+        <v>10.350432000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="30">
+        <v>10.426000000000013</v>
+      </c>
+      <c r="B12" s="132">
+        <v>48.938283200000029</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>37.451000000000015</v>
+      </c>
+      <c r="R12" s="149">
+        <v>75.963283200000021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="33">
+        <v>6.0988847885565384E-2</v>
+      </c>
+      <c r="B13" s="134">
+        <v>0.29730235065240646</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="26">
+        <v>0.21907666815291649</v>
+      </c>
+      <c r="R13" s="151">
+        <v>0.46148048484533777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="32">
+        <v>170.949286</v>
+      </c>
+      <c r="B14" s="131">
+        <v>164.60779099999999</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>170.949286</v>
+      </c>
+      <c r="R14" s="148">
+        <v>164.60779099999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="135"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="34">
+        <v>0.83166253419972636</v>
+      </c>
+      <c r="B16" s="136">
+        <v>0.857583546779765</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>0.84829230777171583</v>
+      </c>
+      <c r="R16" s="152">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="34">
+        <v>0.19058866279069778</v>
+      </c>
+      <c r="B17" s="136">
+        <v>0.32661853686096926</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>0.28620168162650139</v>
+      </c>
+      <c r="R17" s="152">
+        <v>0.34554582919824023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="34">
+        <v>0.11142698358413144</v>
+      </c>
+      <c r="B18" s="136">
+        <v>0.3085879443437643</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>0.19330446317506367</v>
+      </c>
+      <c r="R18" s="152">
+        <v>0.29356565291187853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="34">
+        <v>0.21182340489869955</v>
+      </c>
+      <c r="B19" s="136">
+        <v>7.4483295437383745E-2</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>0.19744990892531872</v>
+      </c>
+      <c r="R19" s="152">
+        <v>0.11991642320130369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B20" s="135"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A21" s="34">
+        <v>0.5227927414761171</v>
+      </c>
+      <c r="B21" s="136">
+        <v>1.5809716006184393</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>1.6954144522663404</v>
+      </c>
+      <c r="R21" s="152">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A22" s="34">
+        <v>-6.5935930839647328E-2</v>
+      </c>
+      <c r="B22" s="136">
+        <v>0.58313916923721965</v>
+      </c>
+      <c r="Q22" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" s="153" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="136"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="153"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="34"/>
+      <c r="B24" s="136"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="153"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A25" s="59"/>
+      <c r="B25" s="137"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="145"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A26" s="34"/>
+      <c r="B26" s="136"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="153"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="135"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28" s="63"/>
+      <c r="B28" s="138"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="154"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" s="85"/>
+      <c r="B29" s="139"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="155"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" s="79"/>
+      <c r="B30" s="140"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="156"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="89"/>
+      <c r="B31" s="141"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="157"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="135"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B33" s="135"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B34" s="135"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="31"/>
+      <c r="B35" s="135"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36" s="31"/>
+      <c r="B36" s="135"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A37" s="31"/>
+      <c r="B37" s="135"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38" s="31"/>
+      <c r="B38" s="135"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="31"/>
+      <c r="B39" s="135"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" s="30"/>
+      <c r="B40" s="142"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="158"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" s="31"/>
+      <c r="B41" s="135"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" s="31"/>
+      <c r="B42" s="135"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" s="31"/>
+      <c r="B43" s="135"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" s="31"/>
+      <c r="B44" s="135"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A45" s="31"/>
+      <c r="B45" s="135"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" s="31"/>
+      <c r="B46" s="135"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A47" s="31"/>
+      <c r="B47" s="135"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A48" s="31"/>
+      <c r="B48" s="135"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A49" s="30"/>
+      <c r="B49" s="142"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="158"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A50" s="31"/>
+      <c r="B50" s="135"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A51" s="31"/>
+      <c r="B51" s="135"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A52" s="31"/>
+      <c r="B52" s="135"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A53" s="30"/>
+      <c r="B53" s="142"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="158"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A54" s="31"/>
+      <c r="B54" s="135"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A55" s="31"/>
+      <c r="B55" s="135"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B56" s="135"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A57" s="31"/>
+      <c r="B57" s="135"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A58" s="31"/>
+      <c r="B58" s="135"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B59" s="135"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A60" s="31"/>
+      <c r="B60" s="135"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B61" s="135"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B62" s="135"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B63" s="135"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A64" s="125"/>
+      <c r="B64" s="143"/>
+      <c r="Q64" s="124"/>
+      <c r="R64" s="159"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="135"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="135"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="135"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="135"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="135"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="135"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="135"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="135"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q1" r:id="rId1" xr:uid="{3C5B4340-AAC9-3548-AD3D-C0BD764B3230}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
 </worksheet>
 </file>
--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -8,20 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9290F943-E158-364F-8237-5F3DEEBD232F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07642A34-1EF4-EA49-9B5C-4A75D2884454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18400" activeTab="2" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
     <sheet name="Historical Projections" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v5.0" hidden="1">'Financial Model'!$P$1</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">'Financial Model'!$Q$12:$W$12</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">'Financial Model'!$Q$1:$W$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +42,7 @@
     <author>me</author>
   </authors>
   <commentList>
-    <comment ref="T26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
+    <comment ref="S26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
+    <comment ref="S28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
       <text>
         <r>
           <rPr>
@@ -124,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="146">
   <si>
     <t>£BOWL</t>
   </si>
@@ -550,6 +545,18 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>EV/S</t>
+  </si>
+  <si>
+    <t>EV/E</t>
+  </si>
+  <si>
+    <t>ROCE</t>
   </si>
 </sst>
 </file>
@@ -564,7 +571,7 @@
     <numFmt numFmtId="168" formatCode="0.0\x"/>
     <numFmt numFmtId="172" formatCode="0.000\x"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +736,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -958,20 +972,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -988,10 +990,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,7 +1005,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1029,7 +1028,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1037,7 +1035,6 @@
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1056,7 +1053,6 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1120,10 +1116,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1169,6 +1166,23 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1258,16 +1272,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1282,8 +1296,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11534775" y="19050"/>
-          <a:ext cx="0" cy="9258300"/>
+          <a:off x="16681450" y="19050"/>
+          <a:ext cx="0" cy="13620750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1316,8 +1330,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1332,8 +1346,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="9525"/>
-          <a:ext cx="0" cy="10553700"/>
+          <a:off x="9690100" y="9525"/>
+          <a:ext cx="0" cy="13719175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1663,7 +1677,7 @@
   <dimension ref="B2:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1683,27 +1697,27 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="H5" s="108" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="H5" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
-      <c r="O5" s="108" t="s">
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="O5" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="110"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="98"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -1713,19 +1727,19 @@
         <v>2.3849999999999998</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="66" t="s">
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="104">
+      <c r="O6" s="92">
         <v>44866</v>
       </c>
-      <c r="P6" s="105" t="s">
+      <c r="P6" s="93" t="s">
         <v>140</v>
       </c>
       <c r="Q6" s="6"/>
@@ -1739,20 +1753,20 @@
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <f>'Financial Model'!W14</f>
+        <f>'Financial Model'!V14</f>
         <v>170.949286</v>
       </c>
       <c r="D7" s="39" t="str">
         <f>$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="67">
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="59">
         <v>45</v>
       </c>
       <c r="O7" s="17"/>
@@ -1772,13 +1786,13 @@
         <v>407.71404710999997</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="67">
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="59">
         <v>11</v>
       </c>
       <c r="O8" s="17"/>
@@ -1794,19 +1808,20 @@
         <v>6</v>
       </c>
       <c r="C9" s="14">
-        <v>49.6</v>
+        <f>'Financial Model'!V63</f>
+        <v>56.066000000000003</v>
       </c>
       <c r="D9" s="39" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H9" s="117" t="s">
+      <c r="H9" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="67">
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="59">
         <v>6</v>
       </c>
       <c r="O9" s="17"/>
@@ -1822,19 +1837,20 @@
         <v>7</v>
       </c>
       <c r="C10" s="14">
+        <f>'Financial Model'!V64</f>
         <v>0</v>
       </c>
       <c r="D10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="67">
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="59">
         <v>7</v>
       </c>
       <c r="O10" s="17"/>
@@ -1851,19 +1867,19 @@
       </c>
       <c r="C11" s="14">
         <f>C9-C10</f>
-        <v>49.6</v>
+        <v>56.066000000000003</v>
       </c>
       <c r="D11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="67">
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="59">
         <v>6</v>
       </c>
       <c r="O11" s="17"/>
@@ -1880,16 +1896,16 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>358.11404710999994</v>
+        <v>351.64804710999999</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="118" t="s">
+      <c r="H12" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="68">
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="60">
         <v>174</v>
       </c>
       <c r="O12" s="17"/>
@@ -1901,9 +1917,9 @@
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
       <c r="O13" s="17"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1922,94 +1938,94 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="H17" s="108" t="s">
+      <c r="D17" s="95"/>
+      <c r="H17" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
-      <c r="H18" s="93" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="H18" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B19" s="56"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="H19" s="97" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="H19" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H20" s="97"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
-      <c r="P20" s="101" t="s">
+      <c r="P20" s="89" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
-      <c r="P21" s="101" t="s">
+      <c r="P21" s="89" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="H22" s="97" t="s">
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="H22" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
     </row>
@@ -2017,15 +2033,15 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="106" t="s">
+      <c r="C23" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="H23" s="98" t="s">
+      <c r="D23" s="95"/>
+      <c r="H23" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
       <c r="K23" s="6"/>
       <c r="L23" s="7"/>
     </row>
@@ -2033,13 +2049,13 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
     </row>
@@ -2047,13 +2063,13 @@
       <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="106">
+      <c r="C25" s="94">
         <v>64</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
     </row>
@@ -2061,11 +2077,11 @@
       <c r="B26" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9"/>
     </row>
@@ -2073,19 +2089,19 @@
       <c r="B27" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="106">
+      <c r="C27" s="94">
         <v>2016</v>
       </c>
-      <c r="D27" s="107"/>
+      <c r="D27" s="95"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="102" t="s">
+      <c r="C28" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="127">
+      <c r="D28" s="116">
         <v>44911</v>
       </c>
     </row>
@@ -2093,47 +2109,47 @@
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="121" t="s">
+      <c r="C29" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="122"/>
-      <c r="H29" s="108" t="s">
+      <c r="D29" s="110"/>
+      <c r="H29" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="110"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="98"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
       <c r="K30" s="6"/>
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H31" s="97" t="s">
+      <c r="H31" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="H32" s="97" t="s">
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
+      <c r="H32" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
       <c r="K32" s="6"/>
       <c r="L32" s="7"/>
     </row>
@@ -2141,14 +2157,14 @@
       <c r="B33" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="119">
+      <c r="C33" s="107">
         <f>C6/'Financial Model'!L61</f>
         <v>3.0836452659224229</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
+      <c r="D33" s="108"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
     </row>
@@ -2156,16 +2172,16 @@
       <c r="B34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="119">
-        <f>C8/'Financial Model'!V3</f>
+      <c r="C34" s="107">
+        <f>C8/'Financial Model'!U3</f>
         <v>5.6723065069979679</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="H34" s="93" t="s">
+      <c r="D34" s="108"/>
+      <c r="H34" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
       <c r="K34" s="6"/>
       <c r="L34" s="7"/>
     </row>
@@ -2173,43 +2189,43 @@
       <c r="B35" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="119">
-        <f>C6/('Financial Model'!V13*100)</f>
+      <c r="C35" s="107">
+        <f>C6/('Financial Model'!U13*100)</f>
         <v>2.2719304486979093</v>
       </c>
-      <c r="D35" s="120"/>
-      <c r="H35" s="97" t="s">
+      <c r="D35" s="108"/>
+      <c r="H35" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
       <c r="K35" s="6"/>
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="17"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="103"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
       <c r="K36" s="6"/>
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="17"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="103"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="91"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
       <c r="K37" s="6"/>
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="H38" s="95"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9"/>
     </row>
@@ -2257,13 +2273,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
-  <dimension ref="A1:CT72"/>
+  <dimension ref="A1:CR80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2280,15 +2296,14 @@
     <col min="11" max="11" width="9.1640625" style="25"/>
     <col min="12" max="12" width="9.1640625" style="1"/>
     <col min="13" max="13" width="9.1640625" style="25"/>
-    <col min="14" max="14" width="9.1640625" style="46"/>
-    <col min="15" max="23" width="9.1640625" style="1"/>
-    <col min="24" max="24" width="9.1640625" style="46"/>
-    <col min="25" max="41" width="9.1640625" style="1"/>
-    <col min="42" max="42" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="22" width="9.1640625" style="1"/>
+    <col min="23" max="23" width="9.1640625" style="79"/>
+    <col min="24" max="39" width="9.1640625" style="1"/>
+    <col min="40" max="40" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D1" s="10" t="s">
         <v>115</v>
       </c>
@@ -2319,83 +2334,77 @@
       <c r="M1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="U1" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="V1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="41" t="s">
-        <v>23</v>
+      <c r="W1" s="149" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ1" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN1" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:98" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:96" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="19"/>
       <c r="E2" s="35"/>
@@ -2423,31 +2432,31 @@
       <c r="M2" s="35">
         <v>44834</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="P2" s="22">
+        <v>42643</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>43008</v>
+      </c>
+      <c r="R2" s="22">
+        <v>43373</v>
+      </c>
+      <c r="S2" s="22">
+        <v>43738</v>
+      </c>
+      <c r="T2" s="22">
+        <v>44104</v>
+      </c>
+      <c r="U2" s="22">
+        <v>44469</v>
+      </c>
+      <c r="V2" s="22">
+        <v>44834</v>
+      </c>
+      <c r="W2" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="22">
-        <v>42643</v>
-      </c>
-      <c r="R2" s="22">
-        <v>43008</v>
-      </c>
-      <c r="S2" s="22">
-        <v>43373</v>
-      </c>
-      <c r="T2" s="22">
-        <v>43738</v>
-      </c>
-      <c r="U2" s="22">
-        <v>44104</v>
-      </c>
-      <c r="V2" s="22">
-        <v>44469</v>
-      </c>
-      <c r="W2" s="22">
-        <v>44834</v>
-      </c>
-      <c r="X2" s="42" t="s">
+      <c r="X2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="Y2" s="21" t="s">
@@ -2492,14 +2501,8 @@
       <c r="AL2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN2" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2509,125 +2512,117 @@
         <v>66.989999999999995</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G12" si="0">T3-F3</f>
+        <f>S3-F3</f>
         <v>62.904000000000011</v>
       </c>
       <c r="H3" s="36">
         <v>69.23</v>
       </c>
       <c r="I3" s="30">
-        <f>U3-H3</f>
+        <f>T3-H3</f>
         <v>10.242999999999995</v>
       </c>
       <c r="J3" s="12">
         <v>10.433</v>
       </c>
       <c r="K3" s="30">
-        <f>V3-J3</f>
+        <f>U3-J3</f>
         <v>61.445</v>
       </c>
       <c r="L3" s="12">
         <v>100.173</v>
       </c>
       <c r="M3" s="30">
-        <f>W3-L3</f>
+        <f>V3-L3</f>
         <v>93.568000000000012</v>
       </c>
-      <c r="N3" s="43">
-        <f>X3-L3</f>
-        <v>158.58780000000002</v>
+      <c r="P3" s="12">
+        <v>104.803</v>
       </c>
       <c r="Q3" s="12">
-        <v>104.803</v>
+        <v>113.968</v>
       </c>
       <c r="R3" s="12">
-        <v>113.968</v>
+        <v>120.548</v>
       </c>
       <c r="S3" s="12">
-        <v>120.548</v>
+        <v>129.89400000000001</v>
       </c>
       <c r="T3" s="12">
-        <v>129.89400000000001</v>
+        <v>79.472999999999999</v>
       </c>
       <c r="U3" s="12">
-        <v>79.472999999999999</v>
+        <v>71.878</v>
       </c>
       <c r="V3" s="12">
-        <v>71.878</v>
-      </c>
-      <c r="W3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="X3" s="43">
-        <f>V3*360%</f>
-        <v>258.76080000000002</v>
+      <c r="W3" s="151">
+        <f>V3*(1+W21)</f>
+        <v>213.11510000000004</v>
+      </c>
+      <c r="X3" s="36">
+        <f>W3*(1+X21)</f>
+        <v>245.08236500000004</v>
       </c>
       <c r="Y3" s="36">
-        <f>X3*1.04</f>
-        <v>269.11123200000003</v>
+        <f t="shared" ref="Y3:AL3" si="0">X3*(1+Y21)</f>
+        <v>294.09883800000006</v>
       </c>
       <c r="Z3" s="36">
-        <f>Y3*1.04</f>
-        <v>279.87568128000004</v>
+        <f t="shared" si="0"/>
+        <v>352.91860560000003</v>
       </c>
       <c r="AA3" s="36">
-        <f t="shared" ref="AA3:AN3" si="1">Z3*1.04</f>
-        <v>291.07070853120007</v>
+        <f t="shared" si="0"/>
+        <v>405.85639644000003</v>
       </c>
       <c r="AB3" s="36">
-        <f t="shared" si="1"/>
-        <v>302.71353687244806</v>
+        <f t="shared" si="0"/>
+        <v>446.44203608400005</v>
       </c>
       <c r="AC3" s="36">
-        <f t="shared" si="1"/>
-        <v>314.82207834734601</v>
+        <f t="shared" si="0"/>
+        <v>491.08623969240011</v>
       </c>
       <c r="AD3" s="36">
-        <f t="shared" si="1"/>
-        <v>327.41496148123986</v>
+        <f t="shared" si="0"/>
+        <v>530.37313886779214</v>
       </c>
       <c r="AE3" s="36">
-        <f t="shared" si="1"/>
-        <v>340.51155994048946</v>
+        <f t="shared" si="0"/>
+        <v>556.89179581118174</v>
       </c>
       <c r="AF3" s="36">
-        <f t="shared" si="1"/>
-        <v>354.13202233810904</v>
+        <f t="shared" si="0"/>
+        <v>584.73638560174084</v>
       </c>
       <c r="AG3" s="36">
-        <f t="shared" si="1"/>
-        <v>368.29730323163341</v>
+        <f t="shared" si="0"/>
+        <v>596.43111331377565</v>
       </c>
       <c r="AH3" s="36">
-        <f t="shared" si="1"/>
-        <v>383.02919536089877</v>
+        <f t="shared" si="0"/>
+        <v>608.35973558005117</v>
       </c>
       <c r="AI3" s="36">
-        <f t="shared" si="1"/>
-        <v>398.35036317533473</v>
+        <f t="shared" si="0"/>
+        <v>620.52693029165221</v>
       </c>
       <c r="AJ3" s="36">
-        <f t="shared" si="1"/>
-        <v>414.28437770234814</v>
+        <f t="shared" si="0"/>
+        <v>632.93746889748525</v>
       </c>
       <c r="AK3" s="36">
-        <f t="shared" si="1"/>
-        <v>430.85575281044208</v>
+        <f t="shared" si="0"/>
+        <v>645.59621827543492</v>
       </c>
       <c r="AL3" s="36">
-        <f t="shared" si="1"/>
-        <v>448.0899829228598</v>
-      </c>
-      <c r="AM3" s="36">
-        <f t="shared" si="1"/>
-        <v>466.01358223977422</v>
-      </c>
-      <c r="AN3" s="36">
-        <f t="shared" si="1"/>
-        <v>484.65412552936522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>658.50814264094367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -2637,125 +2632,117 @@
         <v>9.4740000000000002</v>
       </c>
       <c r="G4" s="31">
-        <f t="shared" si="0"/>
+        <f>S4-F4</f>
         <v>9.0680000000000014</v>
       </c>
       <c r="H4" s="27">
         <v>9.9760000000000009</v>
       </c>
       <c r="I4" s="31">
-        <f>U4-H4</f>
+        <f>T4-H4</f>
         <v>1.5669999999999984</v>
       </c>
       <c r="J4" s="14">
         <v>1.1919999999999999</v>
       </c>
       <c r="K4" s="31">
-        <f>V4-J4</f>
+        <f>U4-J4</f>
         <v>9.0649999999999995</v>
       </c>
       <c r="L4" s="14">
         <v>13.641</v>
       </c>
       <c r="M4" s="31">
-        <f>W4-L4</f>
+        <f>V4-L4</f>
         <v>15.750999999999999</v>
       </c>
-      <c r="N4" s="44">
-        <f>X4-L4</f>
-        <v>22.585512000000008</v>
+      <c r="P4" s="14">
+        <v>15.375999999999999</v>
       </c>
       <c r="Q4" s="14">
-        <v>15.375999999999999</v>
+        <v>15.349</v>
       </c>
       <c r="R4" s="14">
-        <v>15.349</v>
+        <v>16.748000000000001</v>
       </c>
       <c r="S4" s="14">
-        <v>16.748000000000001</v>
+        <v>18.542000000000002</v>
       </c>
       <c r="T4" s="14">
-        <v>18.542000000000002</v>
+        <v>11.542999999999999</v>
       </c>
       <c r="U4" s="14">
-        <v>11.542999999999999</v>
+        <v>10.257</v>
       </c>
       <c r="V4" s="14">
-        <v>10.257</v>
-      </c>
-      <c r="W4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="X4" s="44">
-        <f>X3*0.14</f>
-        <v>36.226512000000007</v>
+      <c r="W4" s="152">
+        <f>W3*0.14</f>
+        <v>29.836114000000009</v>
+      </c>
+      <c r="X4" s="27">
+        <f t="shared" ref="X4:AL4" si="1">X3*0.14</f>
+        <v>34.31153110000001</v>
       </c>
       <c r="Y4" s="27">
-        <f>Y3*0.14</f>
-        <v>37.675572480000007</v>
+        <f t="shared" si="1"/>
+        <v>41.173837320000011</v>
       </c>
       <c r="Z4" s="27">
-        <f t="shared" ref="Z4:AN4" si="2">Z3*0.14</f>
-        <v>39.182595379200009</v>
+        <f t="shared" si="1"/>
+        <v>49.408604784000012</v>
       </c>
       <c r="AA4" s="27">
-        <f t="shared" si="2"/>
-        <v>40.749899194368012</v>
+        <f t="shared" si="1"/>
+        <v>56.819895501600008</v>
       </c>
       <c r="AB4" s="27">
-        <f t="shared" si="2"/>
-        <v>42.379895162142731</v>
+        <f t="shared" si="1"/>
+        <v>62.501885051760013</v>
       </c>
       <c r="AC4" s="27">
-        <f t="shared" si="2"/>
-        <v>44.075090968628444</v>
+        <f t="shared" si="1"/>
+        <v>68.752073556936026</v>
       </c>
       <c r="AD4" s="27">
-        <f t="shared" si="2"/>
-        <v>45.838094607373584</v>
+        <f t="shared" si="1"/>
+        <v>74.2522394414909</v>
       </c>
       <c r="AE4" s="27">
-        <f t="shared" si="2"/>
-        <v>47.671618391668531</v>
+        <f t="shared" si="1"/>
+        <v>77.964851413565455</v>
       </c>
       <c r="AF4" s="27">
-        <f t="shared" si="2"/>
-        <v>49.578483127335268</v>
+        <f t="shared" si="1"/>
+        <v>81.863093984243719</v>
       </c>
       <c r="AG4" s="27">
-        <f t="shared" si="2"/>
-        <v>51.561622452428679</v>
+        <f t="shared" si="1"/>
+        <v>83.500355863928604</v>
       </c>
       <c r="AH4" s="27">
-        <f t="shared" si="2"/>
-        <v>53.624087350525834</v>
+        <f t="shared" si="1"/>
+        <v>85.170362981207177</v>
       </c>
       <c r="AI4" s="27">
-        <f t="shared" si="2"/>
-        <v>55.769050844546868</v>
+        <f t="shared" si="1"/>
+        <v>86.87377024083132</v>
       </c>
       <c r="AJ4" s="27">
-        <f t="shared" si="2"/>
-        <v>57.999812878328747</v>
+        <f t="shared" si="1"/>
+        <v>88.611245645647941</v>
       </c>
       <c r="AK4" s="27">
-        <f t="shared" si="2"/>
-        <v>60.319805393461898</v>
+        <f t="shared" si="1"/>
+        <v>90.383470558560902</v>
       </c>
       <c r="AL4" s="27">
-        <f t="shared" si="2"/>
-        <v>62.732597609200376</v>
-      </c>
-      <c r="AM4" s="27">
-        <f t="shared" si="2"/>
-        <v>65.241901513568394</v>
-      </c>
-      <c r="AN4" s="27">
-        <f t="shared" si="2"/>
-        <v>67.851577574111133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>92.19113996973212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>35</v>
@@ -2766,135 +2753,127 @@
         <v>57.515999999999991</v>
       </c>
       <c r="G5" s="30">
-        <f t="shared" si="0"/>
+        <f>S5-F5</f>
         <v>53.836000000000013</v>
       </c>
       <c r="H5" s="36">
-        <f t="shared" ref="H5:N5" si="3">H3-H4</f>
+        <f t="shared" ref="H5:M5" si="2">H3-H4</f>
         <v>59.254000000000005</v>
       </c>
       <c r="I5" s="30">
+        <f t="shared" si="2"/>
+        <v>8.6759999999999966</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="2"/>
+        <v>9.2409999999999997</v>
+      </c>
+      <c r="K5" s="30">
+        <f t="shared" si="2"/>
+        <v>52.38</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="2"/>
+        <v>86.531999999999996</v>
+      </c>
+      <c r="M5" s="30">
+        <f t="shared" si="2"/>
+        <v>77.817000000000007</v>
+      </c>
+      <c r="P5" s="12">
+        <f t="shared" ref="P5:V5" si="3">P3-P4</f>
+        <v>89.426999999999992</v>
+      </c>
+      <c r="Q5" s="12">
         <f t="shared" si="3"/>
-        <v>8.6759999999999966</v>
-      </c>
-      <c r="J5" s="12">
+        <v>98.619</v>
+      </c>
+      <c r="R5" s="12">
         <f t="shared" si="3"/>
-        <v>9.2409999999999997</v>
-      </c>
-      <c r="K5" s="30">
+        <v>103.8</v>
+      </c>
+      <c r="S5" s="12">
         <f t="shared" si="3"/>
-        <v>52.38</v>
-      </c>
-      <c r="L5" s="12">
+        <v>111.352</v>
+      </c>
+      <c r="T5" s="12">
         <f t="shared" si="3"/>
-        <v>86.531999999999996</v>
-      </c>
-      <c r="M5" s="30">
+        <v>67.930000000000007</v>
+      </c>
+      <c r="U5" s="12">
         <f t="shared" si="3"/>
-        <v>77.817000000000007</v>
-      </c>
-      <c r="N5" s="45">
+        <v>61.621000000000002</v>
+      </c>
+      <c r="V5" s="12">
         <f t="shared" si="3"/>
-        <v>136.00228800000002</v>
-      </c>
-      <c r="Q5" s="12">
-        <f t="shared" ref="Q5:Y5" si="4">Q3-Q4</f>
-        <v>89.426999999999992</v>
-      </c>
-      <c r="R5" s="12">
-        <f t="shared" si="4"/>
-        <v>98.619</v>
-      </c>
-      <c r="S5" s="12">
-        <f t="shared" si="4"/>
-        <v>103.8</v>
-      </c>
-      <c r="T5" s="12">
-        <f t="shared" si="4"/>
-        <v>111.352</v>
-      </c>
-      <c r="U5" s="12">
-        <f t="shared" si="4"/>
-        <v>67.930000000000007</v>
-      </c>
-      <c r="V5" s="12">
-        <f t="shared" si="4"/>
-        <v>61.621000000000002</v>
-      </c>
-      <c r="W5" s="12">
-        <f t="shared" si="4"/>
         <v>164.34900000000002</v>
       </c>
-      <c r="X5" s="45">
-        <f t="shared" si="4"/>
-        <v>222.534288</v>
+      <c r="W5" s="151">
+        <f>W3-W4</f>
+        <v>183.27898600000003</v>
+      </c>
+      <c r="X5" s="12">
+        <f t="shared" ref="X5:AL5" si="4">X3-X4</f>
+        <v>210.77083390000001</v>
       </c>
       <c r="Y5" s="12">
         <f t="shared" si="4"/>
-        <v>231.43565952000003</v>
+        <v>252.92500068000004</v>
       </c>
       <c r="Z5" s="12">
-        <f t="shared" ref="Z5:AN5" si="5">Z3-Z4</f>
-        <v>240.69308590080004</v>
+        <f t="shared" si="4"/>
+        <v>303.510000816</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" si="5"/>
-        <v>250.32080933683204</v>
+        <f t="shared" si="4"/>
+        <v>349.03650093840002</v>
       </c>
       <c r="AB5" s="12">
-        <f t="shared" si="5"/>
-        <v>260.3336417103053</v>
+        <f t="shared" si="4"/>
+        <v>383.94015103224001</v>
       </c>
       <c r="AC5" s="12">
-        <f t="shared" si="5"/>
-        <v>270.74698737871756</v>
+        <f t="shared" si="4"/>
+        <v>422.3341661354641</v>
       </c>
       <c r="AD5" s="12">
-        <f t="shared" si="5"/>
-        <v>281.57686687386627</v>
+        <f t="shared" si="4"/>
+        <v>456.12089942630121</v>
       </c>
       <c r="AE5" s="12">
-        <f t="shared" si="5"/>
-        <v>292.83994154882095</v>
+        <f t="shared" si="4"/>
+        <v>478.9269443976163</v>
       </c>
       <c r="AF5" s="12">
-        <f t="shared" si="5"/>
-        <v>304.55353921077375</v>
+        <f t="shared" si="4"/>
+        <v>502.8732916174971</v>
       </c>
       <c r="AG5" s="12">
-        <f t="shared" si="5"/>
-        <v>316.7356807792047</v>
+        <f t="shared" si="4"/>
+        <v>512.93075744984708</v>
       </c>
       <c r="AH5" s="12">
-        <f t="shared" si="5"/>
-        <v>329.40510801037294</v>
+        <f t="shared" si="4"/>
+        <v>523.18937259884399</v>
       </c>
       <c r="AI5" s="12">
-        <f t="shared" si="5"/>
-        <v>342.58131233078785</v>
+        <f t="shared" si="4"/>
+        <v>533.65316005082093</v>
       </c>
       <c r="AJ5" s="12">
-        <f t="shared" si="5"/>
-        <v>356.28456482401941</v>
+        <f t="shared" si="4"/>
+        <v>544.32622325183729</v>
       </c>
       <c r="AK5" s="12">
-        <f t="shared" si="5"/>
-        <v>370.53594741698021</v>
+        <f t="shared" si="4"/>
+        <v>555.21274771687399</v>
       </c>
       <c r="AL5" s="12">
-        <f t="shared" si="5"/>
-        <v>385.35738531365945</v>
-      </c>
-      <c r="AM5" s="12">
-        <f t="shared" si="5"/>
-        <v>400.77168072620583</v>
-      </c>
-      <c r="AN5" s="12">
-        <f t="shared" si="5"/>
-        <v>416.80254795525411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>566.31700267121153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:96" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -2904,39 +2883,38 @@
         <v>0</v>
       </c>
       <c r="G6" s="31">
-        <f t="shared" si="0"/>
+        <f>S6-F6</f>
         <v>0</v>
       </c>
       <c r="H6" s="27">
         <v>0</v>
       </c>
       <c r="I6" s="31">
-        <f>U6-H6</f>
+        <f>T6-H6</f>
         <v>0</v>
       </c>
       <c r="J6" s="14">
         <v>1.5940000000000001</v>
       </c>
       <c r="K6" s="31">
-        <f>V6-J6</f>
+        <f>U6-J6</f>
         <v>1.22</v>
       </c>
       <c r="L6" s="14">
         <v>0</v>
       </c>
       <c r="M6" s="31">
-        <f t="shared" ref="M6:M11" si="6">W6-L6</f>
+        <f>V6-L6</f>
         <v>3.9E-2</v>
       </c>
-      <c r="N6" s="44">
-        <f>X6-L6</f>
-        <v>0.4</v>
+      <c r="P6" s="14">
+        <v>1.395</v>
       </c>
       <c r="Q6" s="14">
-        <v>1.395</v>
+        <v>0.08</v>
       </c>
       <c r="R6" s="14">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="S6" s="14">
         <v>0</v>
@@ -2945,67 +2923,77 @@
         <v>0</v>
       </c>
       <c r="U6" s="14">
-        <v>0</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="V6" s="14">
-        <v>2.8140000000000001</v>
-      </c>
-      <c r="W6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="X6" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.15">
+      <c r="W6" s="152">
+        <f>AVERAGE(T6:V6)</f>
+        <v>0.95100000000000007</v>
+      </c>
+      <c r="X6" s="14">
+        <f>AVERAGE(P6:W6)</f>
+        <v>0.65987499999999999</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" ref="Y6:AL6" si="5">AVERAGE(Q6:X6)</f>
+        <v>0.56798437499999999</v>
+      </c>
+      <c r="Z6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.62898242187499998</v>
+      </c>
+      <c r="AA6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.70760522460937492</v>
+      </c>
+      <c r="AB6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.79605587768554675</v>
+      </c>
+      <c r="AC6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.89556286239624006</v>
+      </c>
+      <c r="AD6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.65575822019577013</v>
+      </c>
+      <c r="AE6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.73285299772024137</v>
+      </c>
+      <c r="AF6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.70558462243527176</v>
+      </c>
+      <c r="AG6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.71129832523968051</v>
+      </c>
+      <c r="AH6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.7292125690196406</v>
+      </c>
+      <c r="AI6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.74174133741272075</v>
+      </c>
+      <c r="AJ6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.74600835151313905</v>
+      </c>
+      <c r="AK6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.73975241074158815</v>
+      </c>
+      <c r="AL6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.72027610428475664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
@@ -3014,125 +3002,117 @@
         <v>40.753</v>
       </c>
       <c r="G7" s="31">
-        <f t="shared" si="0"/>
+        <f>S7-F7</f>
         <v>42.155000000000001</v>
       </c>
       <c r="H7" s="27">
         <v>40.078000000000003</v>
       </c>
       <c r="I7" s="31">
-        <f>U7-H7</f>
+        <f>T7-H7</f>
         <v>17.991</v>
       </c>
       <c r="J7" s="14">
         <v>20.856999999999999</v>
       </c>
       <c r="K7" s="31">
-        <f>V7-J7</f>
+        <f>U7-J7</f>
         <v>33.997999999999998</v>
       </c>
       <c r="L7" s="14">
         <v>48.915999999999997</v>
       </c>
       <c r="M7" s="31">
+        <f>V7-L7</f>
+        <v>60.022999999999996</v>
+      </c>
+      <c r="P7" s="14">
+        <v>76.444000000000003</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>76.498000000000005</v>
+      </c>
+      <c r="R7" s="14">
+        <v>78.908000000000001</v>
+      </c>
+      <c r="S7" s="14">
+        <v>82.908000000000001</v>
+      </c>
+      <c r="T7" s="14">
+        <v>58.069000000000003</v>
+      </c>
+      <c r="U7" s="14">
+        <v>54.854999999999997</v>
+      </c>
+      <c r="V7" s="14">
+        <v>108.93899999999999</v>
+      </c>
+      <c r="W7" s="152">
+        <f>W5*0.65</f>
+        <v>119.13134090000003</v>
+      </c>
+      <c r="X7" s="27">
+        <f>X5*0.65</f>
+        <v>137.00104203500001</v>
+      </c>
+      <c r="Y7" s="27">
+        <f t="shared" ref="Y7:AL7" si="6">Y5*0.65</f>
+        <v>164.40125044200002</v>
+      </c>
+      <c r="Z7" s="27">
         <f t="shared" si="6"/>
-        <v>60.022999999999996</v>
-      </c>
-      <c r="N7" s="44">
-        <f>X7-L7</f>
-        <v>84.6045728</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>76.444000000000003</v>
-      </c>
-      <c r="R7" s="14">
-        <v>76.498000000000005</v>
-      </c>
-      <c r="S7" s="14">
-        <v>78.908000000000001</v>
-      </c>
-      <c r="T7" s="14">
-        <v>82.908000000000001</v>
-      </c>
-      <c r="U7" s="14">
-        <v>58.069000000000003</v>
-      </c>
-      <c r="V7" s="14">
-        <v>54.854999999999997</v>
-      </c>
-      <c r="W7" s="14">
-        <v>108.93899999999999</v>
-      </c>
-      <c r="X7" s="44">
-        <f>X5*0.6</f>
-        <v>133.5205728</v>
-      </c>
-      <c r="Y7" s="27">
-        <f>X7*1.025</f>
-        <v>136.85858711999998</v>
-      </c>
-      <c r="Z7" s="27">
-        <f>Y7*1.03</f>
-        <v>140.96434473359997</v>
+        <v>197.2815005304</v>
       </c>
       <c r="AA7" s="27">
-        <f t="shared" ref="AA7:AN7" si="7">Z7*1.03</f>
-        <v>145.19327507560797</v>
+        <f t="shared" si="6"/>
+        <v>226.87372560996002</v>
       </c>
       <c r="AB7" s="27">
-        <f t="shared" si="7"/>
-        <v>149.54907332787621</v>
+        <f t="shared" si="6"/>
+        <v>249.561098170956</v>
       </c>
       <c r="AC7" s="27">
-        <f t="shared" si="7"/>
-        <v>154.03554552771251</v>
+        <f t="shared" si="6"/>
+        <v>274.51720798805167</v>
       </c>
       <c r="AD7" s="27">
-        <f t="shared" si="7"/>
-        <v>158.6566118935439</v>
+        <f t="shared" si="6"/>
+        <v>296.47858462709581</v>
       </c>
       <c r="AE7" s="27">
-        <f t="shared" si="7"/>
-        <v>163.41631025035022</v>
+        <f t="shared" si="6"/>
+        <v>311.3025138584506</v>
       </c>
       <c r="AF7" s="27">
-        <f t="shared" si="7"/>
-        <v>168.31879955786073</v>
+        <f t="shared" si="6"/>
+        <v>326.86763955137314</v>
       </c>
       <c r="AG7" s="27">
-        <f t="shared" si="7"/>
-        <v>173.36836354459655</v>
+        <f t="shared" si="6"/>
+        <v>333.40499234240059</v>
       </c>
       <c r="AH7" s="27">
-        <f t="shared" si="7"/>
-        <v>178.56941445093446</v>
+        <f t="shared" si="6"/>
+        <v>340.0730921892486</v>
       </c>
       <c r="AI7" s="27">
-        <f t="shared" si="7"/>
-        <v>183.92649688446249</v>
+        <f t="shared" si="6"/>
+        <v>346.87455403303363</v>
       </c>
       <c r="AJ7" s="27">
-        <f t="shared" si="7"/>
-        <v>189.44429179099637</v>
+        <f t="shared" si="6"/>
+        <v>353.81204511369424</v>
       </c>
       <c r="AK7" s="27">
-        <f t="shared" si="7"/>
-        <v>195.12762054472628</v>
+        <f t="shared" si="6"/>
+        <v>360.88828601596811</v>
       </c>
       <c r="AL7" s="27">
-        <f t="shared" si="7"/>
-        <v>200.98144916106807</v>
-      </c>
-      <c r="AM7" s="27">
-        <f t="shared" si="7"/>
-        <v>207.01089263590012</v>
-      </c>
-      <c r="AN7" s="27">
-        <f t="shared" si="7"/>
-        <v>213.22121941497713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>368.1060517362875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
@@ -3142,135 +3122,127 @@
         <v>16.762999999999991</v>
       </c>
       <c r="G8" s="30">
-        <f t="shared" si="0"/>
+        <f>S8-F8</f>
         <v>11.681000000000012</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" ref="H8:N8" si="8">H5+H6-H7</f>
+        <f t="shared" ref="H8:M8" si="7">H5+H6-H7</f>
         <v>19.176000000000002</v>
       </c>
       <c r="I8" s="30">
+        <f t="shared" si="7"/>
+        <v>-9.3150000000000031</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="7"/>
+        <v>-10.022</v>
+      </c>
+      <c r="K8" s="30">
+        <f t="shared" si="7"/>
+        <v>19.602000000000004</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="7"/>
+        <v>37.616</v>
+      </c>
+      <c r="M8" s="30">
+        <f t="shared" si="7"/>
+        <v>17.833000000000013</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" ref="P8:W8" si="8">P5+P6-P7</f>
+        <v>14.377999999999986</v>
+      </c>
+      <c r="Q8" s="12">
         <f t="shared" si="8"/>
-        <v>-9.3150000000000031</v>
-      </c>
-      <c r="J8" s="12">
+        <v>22.200999999999993</v>
+      </c>
+      <c r="R8" s="12">
         <f t="shared" si="8"/>
-        <v>-10.022</v>
-      </c>
-      <c r="K8" s="30">
+        <v>24.891999999999996</v>
+      </c>
+      <c r="S8" s="12">
         <f t="shared" si="8"/>
-        <v>19.602000000000004</v>
-      </c>
-      <c r="L8" s="12">
+        <v>28.444000000000003</v>
+      </c>
+      <c r="T8" s="12">
         <f t="shared" si="8"/>
-        <v>37.616</v>
-      </c>
-      <c r="M8" s="30">
+        <v>9.8610000000000042</v>
+      </c>
+      <c r="U8" s="12">
         <f t="shared" si="8"/>
-        <v>17.833000000000013</v>
-      </c>
-      <c r="N8" s="45">
+        <v>9.5800000000000054</v>
+      </c>
+      <c r="V8" s="12">
         <f t="shared" si="8"/>
-        <v>51.797715200000027</v>
-      </c>
-      <c r="Q8" s="12">
-        <f t="shared" ref="Q8:W8" si="9">Q5+Q6-Q7</f>
-        <v>14.377999999999986</v>
-      </c>
-      <c r="R8" s="12">
+        <v>55.449000000000012</v>
+      </c>
+      <c r="W8" s="41">
+        <f t="shared" si="8"/>
+        <v>65.098645099999999</v>
+      </c>
+      <c r="X8" s="12">
+        <f t="shared" ref="X8:AL8" si="9">X5+X6-X7</f>
+        <v>74.429666865000002</v>
+      </c>
+      <c r="Y8" s="12">
         <f t="shared" si="9"/>
-        <v>22.200999999999993</v>
-      </c>
-      <c r="S8" s="12">
+        <v>89.091734613000028</v>
+      </c>
+      <c r="Z8" s="12">
         <f t="shared" si="9"/>
-        <v>24.891999999999996</v>
-      </c>
-      <c r="T8" s="12">
+        <v>106.85748270747499</v>
+      </c>
+      <c r="AA8" s="12">
         <f t="shared" si="9"/>
-        <v>28.444000000000003</v>
-      </c>
-      <c r="U8" s="12">
+        <v>122.87038055304939</v>
+      </c>
+      <c r="AB8" s="12">
         <f t="shared" si="9"/>
-        <v>9.8610000000000042</v>
-      </c>
-      <c r="V8" s="12">
+        <v>135.17510873896956</v>
+      </c>
+      <c r="AC8" s="12">
         <f t="shared" si="9"/>
-        <v>9.5800000000000054</v>
-      </c>
-      <c r="W8" s="12">
+        <v>148.71252100980865</v>
+      </c>
+      <c r="AD8" s="12">
         <f t="shared" si="9"/>
-        <v>55.449000000000012</v>
-      </c>
-      <c r="X8" s="45">
-        <f>X5+X6-X7</f>
-        <v>89.413715200000013</v>
-      </c>
-      <c r="Y8" s="12">
-        <f>Y5+Y6-Y7</f>
-        <v>94.677072400000043</v>
-      </c>
-      <c r="Z8" s="12">
-        <f t="shared" ref="Z8:AN8" si="10">Z5+Z6-Z7</f>
-        <v>101.02874116720008</v>
-      </c>
-      <c r="AA8" s="12">
-        <f t="shared" si="10"/>
-        <v>107.42753426122408</v>
-      </c>
-      <c r="AB8" s="12">
-        <f t="shared" si="10"/>
-        <v>114.0845683824291</v>
-      </c>
-      <c r="AC8" s="12">
-        <f t="shared" si="10"/>
-        <v>121.01144185100506</v>
-      </c>
-      <c r="AD8" s="12">
-        <f t="shared" si="10"/>
-        <v>128.22025498032238</v>
+        <v>160.29807301940116</v>
       </c>
       <c r="AE8" s="12">
-        <f t="shared" si="10"/>
-        <v>135.72363129847074</v>
+        <f t="shared" si="9"/>
+        <v>168.35728353688592</v>
       </c>
       <c r="AF8" s="12">
-        <f t="shared" si="10"/>
-        <v>143.53473965291303</v>
+        <f t="shared" si="9"/>
+        <v>176.71123668855921</v>
       </c>
       <c r="AG8" s="12">
-        <f t="shared" si="10"/>
-        <v>151.66731723460816</v>
+        <f t="shared" si="9"/>
+        <v>180.23706343268617</v>
       </c>
       <c r="AH8" s="12">
-        <f t="shared" si="10"/>
-        <v>160.13569355943849</v>
+        <f t="shared" si="9"/>
+        <v>183.84549297861503</v>
       </c>
       <c r="AI8" s="12">
-        <f t="shared" si="10"/>
-        <v>168.95481544632537</v>
+        <f t="shared" si="9"/>
+        <v>187.52034735519999</v>
       </c>
       <c r="AJ8" s="12">
-        <f t="shared" si="10"/>
-        <v>178.14027303302305</v>
+        <f t="shared" si="9"/>
+        <v>191.26018648965623</v>
       </c>
       <c r="AK8" s="12">
-        <f t="shared" si="10"/>
-        <v>187.70832687225393</v>
+        <f t="shared" si="9"/>
+        <v>195.06421411164752</v>
       </c>
       <c r="AL8" s="12">
-        <f t="shared" si="10"/>
-        <v>197.67593615259139</v>
-      </c>
-      <c r="AM8" s="12">
-        <f t="shared" si="10"/>
-        <v>208.06078809030572</v>
-      </c>
-      <c r="AN8" s="12">
-        <f t="shared" si="10"/>
-        <v>218.881328540277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>198.93122703920875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:96" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3280,7 +3252,7 @@
         <v>0.378</v>
       </c>
       <c r="G9" s="31">
-        <f t="shared" si="0"/>
+        <f>S9-F9</f>
         <v>0.47799999999999987</v>
       </c>
       <c r="H9" s="27">
@@ -3288,107 +3260,101 @@
         <v>4.7079999999999993</v>
       </c>
       <c r="I9" s="31">
-        <f>U9-H9</f>
+        <f>T9-H9</f>
         <v>3.9570000000000016</v>
       </c>
       <c r="J9" s="14">
         <v>4.4669999999999996</v>
       </c>
       <c r="K9" s="31">
-        <f>V9-J9</f>
+        <f>U9-J9</f>
         <v>4.6510000000000007</v>
       </c>
       <c r="L9" s="14">
         <v>4.1790000000000003</v>
       </c>
       <c r="M9" s="31">
-        <f t="shared" si="6"/>
+        <f>V9-L9</f>
         <v>4.6049999999999986</v>
       </c>
-      <c r="N9" s="44">
-        <f>X9-L9</f>
-        <v>-1.0790000000000002</v>
-      </c>
-      <c r="Q9" s="14">
+      <c r="P9" s="14">
         <f>-0.022+11.905-0.079</f>
         <v>11.803999999999998</v>
       </c>
-      <c r="R9" s="14">
+      <c r="Q9" s="14">
         <f>1.158-0.012+0.055</f>
         <v>1.2009999999999998</v>
       </c>
-      <c r="S9" s="14">
+      <c r="R9" s="14">
         <f>0.976-0.018</f>
         <v>0.95799999999999996</v>
       </c>
-      <c r="T9" s="14">
+      <c r="S9" s="14">
         <f>1.023-0.167</f>
         <v>0.85599999999999987</v>
       </c>
-      <c r="U9" s="14">
+      <c r="T9" s="14">
         <f>8.743-0.078</f>
         <v>8.6650000000000009</v>
       </c>
+      <c r="U9" s="14">
+        <v>9.1180000000000003</v>
+      </c>
       <c r="V9" s="14">
-        <v>9.1180000000000003</v>
-      </c>
-      <c r="W9" s="14">
         <f>-0.012+8.796</f>
         <v>8.7839999999999989</v>
       </c>
-      <c r="X9" s="44">
-        <v>3.1</v>
+      <c r="W9" s="152">
+        <f>AVERAGE(T9:V9)</f>
+        <v>8.8556666666666661</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2.9</v>
       </c>
       <c r="Y9" s="1">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="Z9" s="1">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="AB9" s="1">
-        <v>4.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="AC9" s="1">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="AD9" s="1">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="AE9" s="1">
-        <v>7.9</v>
+        <v>9.9</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.9</v>
+        <v>10.9</v>
       </c>
       <c r="AG9" s="1">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="AH9" s="1">
-        <v>10.9</v>
+        <v>12.9</v>
       </c>
       <c r="AI9" s="1">
-        <v>11.9</v>
+        <v>13.9</v>
       </c>
       <c r="AJ9" s="1">
-        <v>12.9</v>
+        <v>14.9</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.9</v>
+        <v>15.9</v>
       </c>
       <c r="AL9" s="1">
-        <v>14.9</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>15.9</v>
-      </c>
-      <c r="AN9" s="1">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3398,135 +3364,127 @@
         <v>16.384999999999991</v>
       </c>
       <c r="G10" s="31">
-        <f t="shared" si="0"/>
+        <f>S10-F10</f>
         <v>11.20300000000001</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" ref="H10:N10" si="11">H8-H9</f>
+        <f t="shared" ref="H10:M10" si="10">H8-H9</f>
         <v>14.468000000000004</v>
       </c>
       <c r="I10" s="31">
+        <f t="shared" si="10"/>
+        <v>-13.272000000000006</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="10"/>
+        <v>-14.489000000000001</v>
+      </c>
+      <c r="K10" s="31">
+        <f t="shared" si="10"/>
+        <v>14.951000000000004</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="10"/>
+        <v>33.436999999999998</v>
+      </c>
+      <c r="M10" s="31">
+        <f t="shared" si="10"/>
+        <v>13.228000000000014</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" ref="P10:W10" si="11">P8-P9</f>
+        <v>2.5739999999999874</v>
+      </c>
+      <c r="Q10" s="14">
         <f t="shared" si="11"/>
-        <v>-13.272000000000006</v>
-      </c>
-      <c r="J10" s="14">
+        <v>20.999999999999993</v>
+      </c>
+      <c r="R10" s="14">
         <f t="shared" si="11"/>
-        <v>-14.489000000000001</v>
-      </c>
-      <c r="K10" s="31">
+        <v>23.933999999999997</v>
+      </c>
+      <c r="S10" s="14">
         <f t="shared" si="11"/>
-        <v>14.951000000000004</v>
-      </c>
-      <c r="L10" s="14">
+        <v>27.588000000000001</v>
+      </c>
+      <c r="T10" s="14">
         <f t="shared" si="11"/>
-        <v>33.436999999999998</v>
-      </c>
-      <c r="M10" s="31">
+        <v>1.1960000000000033</v>
+      </c>
+      <c r="U10" s="14">
         <f t="shared" si="11"/>
-        <v>13.228000000000014</v>
-      </c>
-      <c r="N10" s="50">
+        <v>0.46200000000000507</v>
+      </c>
+      <c r="V10" s="14">
         <f t="shared" si="11"/>
-        <v>52.876715200000028</v>
-      </c>
-      <c r="Q10" s="14">
-        <f t="shared" ref="Q10:Y10" si="12">Q8-Q9</f>
-        <v>2.5739999999999874</v>
-      </c>
-      <c r="R10" s="14">
-        <f t="shared" si="12"/>
-        <v>20.999999999999993</v>
-      </c>
-      <c r="S10" s="14">
-        <f t="shared" si="12"/>
-        <v>23.933999999999997</v>
-      </c>
-      <c r="T10" s="14">
-        <f t="shared" si="12"/>
-        <v>27.588000000000001</v>
-      </c>
-      <c r="U10" s="14">
-        <f t="shared" si="12"/>
-        <v>1.1960000000000033</v>
-      </c>
-      <c r="V10" s="14">
-        <f t="shared" si="12"/>
-        <v>0.46200000000000507</v>
-      </c>
-      <c r="W10" s="14">
-        <f t="shared" si="12"/>
         <v>46.665000000000013</v>
       </c>
-      <c r="X10" s="50">
-        <f t="shared" si="12"/>
-        <v>86.313715200000019</v>
+      <c r="W10" s="44">
+        <f t="shared" si="11"/>
+        <v>56.242978433333334</v>
+      </c>
+      <c r="X10" s="14">
+        <f t="shared" ref="X10:AL10" si="12">X8-X9</f>
+        <v>71.529666864999996</v>
       </c>
       <c r="Y10" s="14">
         <f t="shared" si="12"/>
-        <v>92.777072400000037</v>
+        <v>85.191734613000023</v>
       </c>
       <c r="Z10" s="14">
-        <f t="shared" ref="Z10:AN10" si="13">Z8-Z9</f>
-        <v>98.128741167200076</v>
+        <f t="shared" si="12"/>
+        <v>101.95748270747498</v>
       </c>
       <c r="AA10" s="14">
-        <f t="shared" si="13"/>
-        <v>103.52753426122408</v>
+        <f t="shared" si="12"/>
+        <v>116.97038055304938</v>
       </c>
       <c r="AB10" s="14">
-        <f t="shared" si="13"/>
-        <v>109.18456838242909</v>
+        <f t="shared" si="12"/>
+        <v>128.27510873896955</v>
       </c>
       <c r="AC10" s="14">
-        <f t="shared" si="13"/>
-        <v>115.11144185100505</v>
+        <f t="shared" si="12"/>
+        <v>140.81252100980865</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="13"/>
-        <v>121.32025498032237</v>
+        <f t="shared" si="12"/>
+        <v>151.39807301940115</v>
       </c>
       <c r="AE10" s="14">
-        <f t="shared" si="13"/>
-        <v>127.82363129847073</v>
+        <f t="shared" si="12"/>
+        <v>158.45728353688591</v>
       </c>
       <c r="AF10" s="14">
-        <f t="shared" si="13"/>
-        <v>134.63473965291303</v>
+        <f t="shared" si="12"/>
+        <v>165.81123668855921</v>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" si="13"/>
-        <v>141.76731723460816</v>
+        <f t="shared" si="12"/>
+        <v>168.33706343268616</v>
       </c>
       <c r="AH10" s="14">
-        <f t="shared" si="13"/>
-        <v>149.23569355943849</v>
+        <f t="shared" si="12"/>
+        <v>170.94549297861502</v>
       </c>
       <c r="AI10" s="14">
-        <f t="shared" si="13"/>
-        <v>157.05481544632536</v>
+        <f t="shared" si="12"/>
+        <v>173.62034735519998</v>
       </c>
       <c r="AJ10" s="14">
-        <f t="shared" si="13"/>
-        <v>165.24027303302304</v>
+        <f t="shared" si="12"/>
+        <v>176.36018648965623</v>
       </c>
       <c r="AK10" s="14">
-        <f t="shared" si="13"/>
-        <v>173.80832687225393</v>
+        <f t="shared" si="12"/>
+        <v>179.16421411164751</v>
       </c>
       <c r="AL10" s="14">
-        <f t="shared" si="13"/>
-        <v>182.77593615259138</v>
-      </c>
-      <c r="AM10" s="14">
-        <f t="shared" si="13"/>
-        <v>192.16078809030572</v>
-      </c>
-      <c r="AN10" s="14">
-        <f t="shared" si="13"/>
-        <v>201.98132854027699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.15">
+        <f t="shared" si="12"/>
+        <v>182.03122703920874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:96" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -3535,125 +3493,117 @@
         <v>3.01</v>
       </c>
       <c r="G11" s="31">
-        <f t="shared" si="0"/>
+        <f>S11-F11</f>
         <v>2.2930000000000001</v>
       </c>
       <c r="H11" s="27">
         <v>2.948</v>
       </c>
       <c r="I11" s="31">
-        <f>U11-H11</f>
+        <f>T11-H11</f>
         <v>-3.137</v>
       </c>
       <c r="J11" s="14">
         <v>-2.8559999999999999</v>
       </c>
       <c r="K11" s="31">
-        <f>V11-J11</f>
+        <f>U11-J11</f>
         <v>1.5899999999999999</v>
       </c>
       <c r="L11" s="14">
         <v>6.4119999999999999</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" si="6"/>
+        <f>V11-L11</f>
         <v>2.8020000000000005</v>
       </c>
-      <c r="N11" s="44">
-        <f>X11-L11</f>
-        <v>3.9384320000000015</v>
+      <c r="P11" s="14">
+        <v>1.387</v>
       </c>
       <c r="Q11" s="14">
-        <v>1.387</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="R11" s="14">
-        <v>2.8479999999999999</v>
+        <v>5.15</v>
       </c>
       <c r="S11" s="14">
-        <v>5.15</v>
+        <v>5.3029999999999999</v>
       </c>
       <c r="T11" s="14">
-        <v>5.3029999999999999</v>
+        <v>-0.189</v>
       </c>
       <c r="U11" s="14">
-        <v>-0.189</v>
+        <v>-1.266</v>
       </c>
       <c r="V11" s="14">
-        <v>-1.266</v>
-      </c>
-      <c r="W11" s="14">
         <v>9.2140000000000004</v>
       </c>
-      <c r="X11" s="44">
-        <f>X3*4%</f>
-        <v>10.350432000000001</v>
+      <c r="W11" s="152">
+        <f>W10-W12</f>
+        <v>11.248595686666661</v>
+      </c>
+      <c r="X11" s="27">
+        <f>X10*(1-(1-X19))</f>
+        <v>14.305933372999997</v>
       </c>
       <c r="Y11" s="27">
-        <f>Y3*4%</f>
-        <v>10.764449280000001</v>
+        <f t="shared" ref="Y11:AL11" si="13">Y10*(1-(1-Y19))</f>
+        <v>17.038346922600002</v>
       </c>
       <c r="Z11" s="27">
-        <f t="shared" ref="Z11:AN11" si="14">Z3*4%</f>
-        <v>11.195027251200001</v>
+        <f t="shared" si="13"/>
+        <v>20.391496541494991</v>
       </c>
       <c r="AA11" s="27">
-        <f t="shared" si="14"/>
-        <v>11.642828341248004</v>
+        <f t="shared" si="13"/>
+        <v>23.39407611060987</v>
       </c>
       <c r="AB11" s="27">
-        <f t="shared" si="14"/>
-        <v>12.108541474897923</v>
+        <f t="shared" si="13"/>
+        <v>25.655021747793903</v>
       </c>
       <c r="AC11" s="27">
-        <f t="shared" si="14"/>
-        <v>12.592883133893841</v>
+        <f t="shared" si="13"/>
+        <v>28.162504201961724</v>
       </c>
       <c r="AD11" s="27">
-        <f t="shared" si="14"/>
-        <v>13.096598459249595</v>
+        <f t="shared" si="13"/>
+        <v>30.279614603880223</v>
       </c>
       <c r="AE11" s="27">
-        <f t="shared" si="14"/>
-        <v>13.620462397619578</v>
+        <f t="shared" si="13"/>
+        <v>31.691456707377174</v>
       </c>
       <c r="AF11" s="27">
-        <f t="shared" si="14"/>
-        <v>14.165280893524361</v>
+        <f t="shared" si="13"/>
+        <v>33.162247337711833</v>
       </c>
       <c r="AG11" s="27">
-        <f t="shared" si="14"/>
-        <v>14.731892129265336</v>
+        <f t="shared" si="13"/>
+        <v>33.667412686537226</v>
       </c>
       <c r="AH11" s="27">
-        <f t="shared" si="14"/>
-        <v>15.321167814435951</v>
+        <f t="shared" si="13"/>
+        <v>34.189098595722996</v>
       </c>
       <c r="AI11" s="27">
-        <f t="shared" si="14"/>
-        <v>15.934014527013391</v>
+        <f t="shared" si="13"/>
+        <v>34.724069471039989</v>
       </c>
       <c r="AJ11" s="27">
-        <f t="shared" si="14"/>
-        <v>16.571375108093925</v>
+        <f t="shared" si="13"/>
+        <v>35.272037297931234</v>
       </c>
       <c r="AK11" s="27">
-        <f t="shared" si="14"/>
-        <v>17.234230112417684</v>
+        <f t="shared" si="13"/>
+        <v>35.832842822329496</v>
       </c>
       <c r="AL11" s="27">
-        <f t="shared" si="14"/>
-        <v>17.923599316914391</v>
-      </c>
-      <c r="AM11" s="27">
-        <f t="shared" si="14"/>
-        <v>18.640543289590969</v>
-      </c>
-      <c r="AN11" s="27">
-        <f t="shared" si="14"/>
-        <v>19.386165021174609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:98" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>36.406245407841737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3663,508 +3613,492 @@
         <v>13.374999999999991</v>
       </c>
       <c r="G12" s="30">
-        <f t="shared" si="0"/>
+        <f>S12-F12</f>
         <v>8.910000000000009</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" ref="H12:N12" si="15">H10-H11</f>
+        <f t="shared" ref="H12:M12" si="14">H10-H11</f>
         <v>11.520000000000003</v>
       </c>
       <c r="I12" s="30">
+        <f t="shared" si="14"/>
+        <v>-10.135000000000005</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="14"/>
+        <v>-11.633000000000001</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" si="14"/>
+        <v>13.361000000000004</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="14"/>
+        <v>27.024999999999999</v>
+      </c>
+      <c r="M12" s="30">
+        <f t="shared" si="14"/>
+        <v>10.426000000000013</v>
+      </c>
+      <c r="O12" s="88"/>
+      <c r="P12" s="12">
+        <f t="shared" ref="P12:V12" si="15">P10-P11</f>
+        <v>1.1869999999999874</v>
+      </c>
+      <c r="Q12" s="12">
         <f t="shared" si="15"/>
-        <v>-10.135000000000005</v>
-      </c>
-      <c r="J12" s="12">
+        <v>18.151999999999994</v>
+      </c>
+      <c r="R12" s="12">
         <f t="shared" si="15"/>
-        <v>-11.633000000000001</v>
-      </c>
-      <c r="K12" s="30">
+        <v>18.783999999999999</v>
+      </c>
+      <c r="S12" s="12">
         <f t="shared" si="15"/>
-        <v>13.361000000000004</v>
-      </c>
-      <c r="L12" s="12">
+        <v>22.285</v>
+      </c>
+      <c r="T12" s="12">
         <f t="shared" si="15"/>
-        <v>27.024999999999999</v>
-      </c>
-      <c r="M12" s="30">
+        <v>1.3850000000000033</v>
+      </c>
+      <c r="U12" s="12">
         <f t="shared" si="15"/>
-        <v>10.426000000000013</v>
-      </c>
-      <c r="N12" s="45">
+        <v>1.7280000000000051</v>
+      </c>
+      <c r="V12" s="12">
         <f t="shared" si="15"/>
-        <v>48.938283200000029</v>
-      </c>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="12">
-        <f t="shared" ref="Q12:Y12" si="16">Q10-Q11</f>
-        <v>1.1869999999999874</v>
-      </c>
-      <c r="R12" s="12">
-        <f t="shared" si="16"/>
-        <v>18.151999999999994</v>
-      </c>
-      <c r="S12" s="12">
-        <f t="shared" si="16"/>
-        <v>18.783999999999999</v>
-      </c>
-      <c r="T12" s="12">
-        <f t="shared" si="16"/>
-        <v>22.285</v>
-      </c>
-      <c r="U12" s="12">
-        <f t="shared" si="16"/>
-        <v>1.3850000000000033</v>
-      </c>
-      <c r="V12" s="12">
-        <f t="shared" si="16"/>
-        <v>1.7280000000000051</v>
-      </c>
-      <c r="W12" s="12">
-        <f t="shared" si="16"/>
         <v>37.451000000000015</v>
       </c>
-      <c r="X12" s="45">
-        <f t="shared" si="16"/>
-        <v>75.963283200000021</v>
+      <c r="W12" s="151">
+        <f>W10*(1-W19)</f>
+        <v>44.994382746666673</v>
+      </c>
+      <c r="X12" s="12">
+        <f t="shared" ref="X12:AL12" si="16">X10-X11</f>
+        <v>57.223733492000001</v>
       </c>
       <c r="Y12" s="12">
         <f t="shared" si="16"/>
-        <v>82.012623120000029</v>
+        <v>68.153387690400024</v>
       </c>
       <c r="Z12" s="12">
-        <f t="shared" ref="Z12:AN12" si="17">Z10-Z11</f>
-        <v>86.933713916000073</v>
+        <f t="shared" si="16"/>
+        <v>81.565986165979993</v>
       </c>
       <c r="AA12" s="12">
-        <f t="shared" si="17"/>
-        <v>91.884705919976071</v>
+        <f t="shared" si="16"/>
+        <v>93.576304442439508</v>
       </c>
       <c r="AB12" s="12">
-        <f t="shared" si="17"/>
-        <v>97.076026907531173</v>
+        <f t="shared" si="16"/>
+        <v>102.62008699117564</v>
       </c>
       <c r="AC12" s="12">
-        <f t="shared" si="17"/>
-        <v>102.51855871711122</v>
+        <f t="shared" si="16"/>
+        <v>112.65001680784692</v>
       </c>
       <c r="AD12" s="12">
-        <f t="shared" si="17"/>
-        <v>108.22365652107278</v>
+        <f t="shared" si="16"/>
+        <v>121.11845841552093</v>
       </c>
       <c r="AE12" s="12">
-        <f t="shared" si="17"/>
-        <v>114.20316890085115</v>
+        <f t="shared" si="16"/>
+        <v>126.76582682950874</v>
       </c>
       <c r="AF12" s="12">
-        <f t="shared" si="17"/>
-        <v>120.46945875938866</v>
+        <f t="shared" si="16"/>
+        <v>132.64898935084739</v>
       </c>
       <c r="AG12" s="12">
-        <f t="shared" si="17"/>
-        <v>127.03542510534282</v>
+        <f t="shared" si="16"/>
+        <v>134.66965074614893</v>
       </c>
       <c r="AH12" s="12">
-        <f t="shared" si="17"/>
-        <v>133.91452574500255</v>
+        <f t="shared" si="16"/>
+        <v>136.75639438289204</v>
       </c>
       <c r="AI12" s="12">
-        <f t="shared" si="17"/>
-        <v>141.12080091931196</v>
+        <f t="shared" si="16"/>
+        <v>138.89627788415999</v>
       </c>
       <c r="AJ12" s="12">
-        <f t="shared" si="17"/>
-        <v>148.66889792492913</v>
+        <f t="shared" si="16"/>
+        <v>141.08814919172499</v>
       </c>
       <c r="AK12" s="12">
-        <f t="shared" si="17"/>
-        <v>156.57409675983624</v>
+        <f t="shared" si="16"/>
+        <v>143.33137128931801</v>
       </c>
       <c r="AL12" s="12">
-        <f t="shared" si="17"/>
-        <v>164.85233683567699</v>
+        <f t="shared" si="16"/>
+        <v>145.62498163136701</v>
       </c>
       <c r="AM12" s="12">
-        <f t="shared" si="17"/>
-        <v>173.52024480071475</v>
+        <f t="shared" ref="AM12:BR12" si="17">AL12*(1+$AO$15)</f>
+        <v>142.71248199873966</v>
       </c>
       <c r="AN12" s="12">
         <f t="shared" si="17"/>
-        <v>182.59516351910239</v>
+        <v>139.85823235876487</v>
       </c>
       <c r="AO12" s="12">
-        <f t="shared" ref="AO12:BT12" si="18">AN12*(1+$AQ$15)</f>
-        <v>184.4211151542934</v>
+        <f t="shared" si="17"/>
+        <v>137.06106771158957</v>
       </c>
       <c r="AP12" s="12">
-        <f t="shared" si="18"/>
-        <v>186.26532630583634</v>
+        <f t="shared" si="17"/>
+        <v>134.31984635735779</v>
       </c>
       <c r="AQ12" s="12">
-        <f t="shared" si="18"/>
-        <v>188.12797956889472</v>
+        <f t="shared" si="17"/>
+        <v>131.63344943021062</v>
       </c>
       <c r="AR12" s="12">
-        <f t="shared" si="18"/>
-        <v>190.00925936458367</v>
+        <f t="shared" si="17"/>
+        <v>129.00078044160639</v>
       </c>
       <c r="AS12" s="12">
-        <f t="shared" si="18"/>
-        <v>191.90935195822951</v>
+        <f t="shared" si="17"/>
+        <v>126.42076483277427</v>
       </c>
       <c r="AT12" s="12">
-        <f t="shared" si="18"/>
-        <v>193.82844547781181</v>
+        <f t="shared" si="17"/>
+        <v>123.89234953611879</v>
       </c>
       <c r="AU12" s="12">
-        <f t="shared" si="18"/>
-        <v>195.76672993258993</v>
+        <f t="shared" si="17"/>
+        <v>121.4145025453964</v>
       </c>
       <c r="AV12" s="12">
-        <f t="shared" si="18"/>
-        <v>197.72439723191582</v>
+        <f t="shared" si="17"/>
+        <v>118.98621249448847</v>
       </c>
       <c r="AW12" s="12">
-        <f t="shared" si="18"/>
-        <v>199.70164120423499</v>
+        <f t="shared" si="17"/>
+        <v>116.60648824459869</v>
       </c>
       <c r="AX12" s="12">
-        <f t="shared" si="18"/>
-        <v>201.69865761627733</v>
+        <f t="shared" si="17"/>
+        <v>114.27435847970672</v>
       </c>
       <c r="AY12" s="12">
-        <f t="shared" si="18"/>
-        <v>203.7156441924401</v>
+        <f t="shared" si="17"/>
+        <v>111.98887131011259</v>
       </c>
       <c r="AZ12" s="12">
-        <f t="shared" si="18"/>
-        <v>205.75280063436449</v>
+        <f t="shared" si="17"/>
+        <v>109.74909388391033</v>
       </c>
       <c r="BA12" s="12">
-        <f t="shared" si="18"/>
-        <v>207.81032864070815</v>
+        <f t="shared" si="17"/>
+        <v>107.55411200623213</v>
       </c>
       <c r="BB12" s="12">
-        <f t="shared" si="18"/>
-        <v>209.88843192711522</v>
+        <f t="shared" si="17"/>
+        <v>105.40302976610748</v>
       </c>
       <c r="BC12" s="12">
-        <f t="shared" si="18"/>
-        <v>211.98731624638637</v>
+        <f t="shared" si="17"/>
+        <v>103.29496917078532</v>
       </c>
       <c r="BD12" s="12">
-        <f t="shared" si="18"/>
-        <v>214.10718940885025</v>
+        <f t="shared" si="17"/>
+        <v>101.22906978736961</v>
       </c>
       <c r="BE12" s="12">
-        <f t="shared" si="18"/>
-        <v>216.24826130293874</v>
+        <f t="shared" si="17"/>
+        <v>99.20448839162222</v>
       </c>
       <c r="BF12" s="12">
-        <f t="shared" si="18"/>
-        <v>218.41074391596814</v>
+        <f t="shared" si="17"/>
+        <v>97.220398623789777</v>
       </c>
       <c r="BG12" s="12">
-        <f t="shared" si="18"/>
-        <v>220.59485135512782</v>
+        <f t="shared" si="17"/>
+        <v>95.275990651313975</v>
       </c>
       <c r="BH12" s="12">
-        <f t="shared" si="18"/>
-        <v>222.80079986867909</v>
+        <f t="shared" si="17"/>
+        <v>93.370470838287687</v>
       </c>
       <c r="BI12" s="12">
-        <f t="shared" si="18"/>
-        <v>225.02880786736588</v>
+        <f t="shared" si="17"/>
+        <v>91.503061421521934</v>
       </c>
       <c r="BJ12" s="12">
-        <f t="shared" si="18"/>
-        <v>227.27909594603955</v>
+        <f t="shared" si="17"/>
+        <v>89.673000193091497</v>
       </c>
       <c r="BK12" s="12">
-        <f t="shared" si="18"/>
-        <v>229.55188690549994</v>
+        <f t="shared" si="17"/>
+        <v>87.879540189229658</v>
       </c>
       <c r="BL12" s="12">
-        <f t="shared" si="18"/>
-        <v>231.84740577455494</v>
+        <f t="shared" si="17"/>
+        <v>86.121949385445063</v>
       </c>
       <c r="BM12" s="12">
-        <f t="shared" si="18"/>
-        <v>234.1658798323005</v>
+        <f t="shared" si="17"/>
+        <v>84.399510397736165</v>
       </c>
       <c r="BN12" s="12">
-        <f t="shared" si="18"/>
-        <v>236.50753863062351</v>
+        <f t="shared" si="17"/>
+        <v>82.711520189781439</v>
       </c>
       <c r="BO12" s="12">
-        <f t="shared" si="18"/>
-        <v>238.87261401692976</v>
+        <f t="shared" si="17"/>
+        <v>81.057289785985802</v>
       </c>
       <c r="BP12" s="12">
-        <f t="shared" si="18"/>
-        <v>241.26134015709906</v>
+        <f t="shared" si="17"/>
+        <v>79.436143990266089</v>
       </c>
       <c r="BQ12" s="12">
-        <f t="shared" si="18"/>
-        <v>243.67395355867004</v>
+        <f t="shared" si="17"/>
+        <v>77.847421110460772</v>
       </c>
       <c r="BR12" s="12">
-        <f t="shared" si="18"/>
-        <v>246.11069309425673</v>
+        <f t="shared" si="17"/>
+        <v>76.290472688251555</v>
       </c>
       <c r="BS12" s="12">
-        <f t="shared" si="18"/>
-        <v>248.57180002519931</v>
+        <f t="shared" ref="BS12:CR12" si="18">BR12*(1+$AO$15)</f>
+        <v>74.76466323448652</v>
       </c>
       <c r="BT12" s="12">
         <f t="shared" si="18"/>
-        <v>251.05751802545132</v>
+        <v>73.269369969796784</v>
       </c>
       <c r="BU12" s="12">
-        <f t="shared" ref="BU12:CT12" si="19">BT12*(1+$AQ$15)</f>
-        <v>253.56809320570582</v>
+        <f t="shared" si="18"/>
+        <v>71.803982570400848</v>
       </c>
       <c r="BV12" s="12">
-        <f t="shared" si="19"/>
-        <v>256.10377413776285</v>
+        <f t="shared" si="18"/>
+        <v>70.367902918992826</v>
       </c>
       <c r="BW12" s="12">
-        <f t="shared" si="19"/>
-        <v>258.66481187914047</v>
+        <f t="shared" si="18"/>
+        <v>68.96054486061297</v>
       </c>
       <c r="BX12" s="12">
-        <f t="shared" si="19"/>
-        <v>261.25145999793187</v>
+        <f t="shared" si="18"/>
+        <v>67.581333963400709</v>
       </c>
       <c r="BY12" s="12">
-        <f t="shared" si="19"/>
-        <v>263.86397459791118</v>
+        <f t="shared" si="18"/>
+        <v>66.229707284132701</v>
       </c>
       <c r="BZ12" s="12">
-        <f t="shared" si="19"/>
-        <v>266.50261434389029</v>
+        <f t="shared" si="18"/>
+        <v>64.905113138450048</v>
       </c>
       <c r="CA12" s="12">
-        <f t="shared" si="19"/>
-        <v>269.16764048732921</v>
+        <f t="shared" si="18"/>
+        <v>63.607010875681048</v>
       </c>
       <c r="CB12" s="12">
-        <f t="shared" si="19"/>
-        <v>271.85931689220251</v>
+        <f t="shared" si="18"/>
+        <v>62.334870658167425</v>
       </c>
       <c r="CC12" s="12">
-        <f t="shared" si="19"/>
-        <v>274.57791006112456</v>
+        <f t="shared" si="18"/>
+        <v>61.088173245004079</v>
       </c>
       <c r="CD12" s="12">
-        <f t="shared" si="19"/>
-        <v>277.32368916173579</v>
+        <f t="shared" si="18"/>
+        <v>59.866409780103993</v>
       </c>
       <c r="CE12" s="12">
-        <f t="shared" si="19"/>
-        <v>280.09692605335317</v>
+        <f t="shared" si="18"/>
+        <v>58.66908158450191</v>
       </c>
       <c r="CF12" s="12">
-        <f t="shared" si="19"/>
-        <v>282.89789531388669</v>
+        <f t="shared" si="18"/>
+        <v>57.495699952811869</v>
       </c>
       <c r="CG12" s="12">
-        <f t="shared" si="19"/>
-        <v>285.72687426702555</v>
+        <f t="shared" si="18"/>
+        <v>56.34578595375563</v>
       </c>
       <c r="CH12" s="12">
-        <f t="shared" si="19"/>
-        <v>288.58414300969582</v>
+        <f t="shared" si="18"/>
+        <v>55.218870234680516</v>
       </c>
       <c r="CI12" s="12">
-        <f t="shared" si="19"/>
-        <v>291.46998443979277</v>
+        <f t="shared" si="18"/>
+        <v>54.114492829986908</v>
       </c>
       <c r="CJ12" s="12">
-        <f t="shared" si="19"/>
-        <v>294.38468428419071</v>
+        <f t="shared" si="18"/>
+        <v>53.032202973387172</v>
       </c>
       <c r="CK12" s="12">
-        <f t="shared" si="19"/>
-        <v>297.32853112703265</v>
+        <f t="shared" si="18"/>
+        <v>51.971558913919431</v>
       </c>
       <c r="CL12" s="12">
-        <f t="shared" si="19"/>
-        <v>300.30181643830298</v>
+        <f t="shared" si="18"/>
+        <v>50.932127735641039</v>
       </c>
       <c r="CM12" s="12">
-        <f t="shared" si="19"/>
-        <v>303.30483460268601</v>
+        <f t="shared" si="18"/>
+        <v>49.91348518092822</v>
       </c>
       <c r="CN12" s="12">
-        <f t="shared" si="19"/>
-        <v>306.33788294871289</v>
+        <f t="shared" si="18"/>
+        <v>48.915215477309651</v>
       </c>
       <c r="CO12" s="12">
-        <f t="shared" si="19"/>
-        <v>309.40126177820002</v>
+        <f t="shared" si="18"/>
+        <v>47.936911167763455</v>
       </c>
       <c r="CP12" s="12">
-        <f t="shared" si="19"/>
-        <v>312.49527439598205</v>
+        <f t="shared" si="18"/>
+        <v>46.978172944408186</v>
       </c>
       <c r="CQ12" s="12">
-        <f t="shared" si="19"/>
-        <v>315.62022713994185</v>
+        <f t="shared" si="18"/>
+        <v>46.03860948552002</v>
       </c>
       <c r="CR12" s="12">
-        <f t="shared" si="19"/>
-        <v>318.77642941134127</v>
-      </c>
-      <c r="CS12" s="12">
-        <f t="shared" si="19"/>
-        <v>321.9641937054547</v>
-      </c>
-      <c r="CT12" s="12">
-        <f t="shared" si="19"/>
-        <v>325.18383564250928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.15">
+        <f t="shared" si="18"/>
+        <v>45.117837295809622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:96" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="26">
-        <f t="shared" ref="F13:N13" si="20">F12/F14</f>
+        <f t="shared" ref="F13:M13" si="19">F12/F14</f>
         <v>8.8853291768992385E-2</v>
       </c>
       <c r="G13" s="33">
+        <f t="shared" si="19"/>
+        <v>5.9400000000000057E-2</v>
+      </c>
+      <c r="H13" s="26">
+        <f t="shared" si="19"/>
+        <v>7.6442866571663867E-2</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="19"/>
+        <v>-6.6068394484364051E-2</v>
+      </c>
+      <c r="J13" s="26">
+        <f t="shared" si="19"/>
+        <v>-7.3358228129837819E-2</v>
+      </c>
+      <c r="K13" s="33">
+        <f t="shared" si="19"/>
+        <v>8.116869753753031E-2</v>
+      </c>
+      <c r="L13" s="26">
+        <f t="shared" si="19"/>
+        <v>0.15819934224664817</v>
+      </c>
+      <c r="M13" s="33">
+        <f t="shared" si="19"/>
+        <v>6.0988847885565384E-2</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26">
+        <f t="shared" ref="P13:AL13" si="20">P12/P14</f>
+        <v>1.1214705682000902E-2</v>
+      </c>
+      <c r="Q13" s="26">
         <f t="shared" si="20"/>
-        <v>5.9400000000000057E-2</v>
-      </c>
-      <c r="H13" s="26">
+        <v>0.12101333333333329</v>
+      </c>
+      <c r="R13" s="26">
         <f t="shared" si="20"/>
-        <v>7.6442866571663867E-2</v>
-      </c>
-      <c r="I13" s="33">
+        <v>0.12522666666666665</v>
+      </c>
+      <c r="S13" s="26">
         <f t="shared" si="20"/>
-        <v>-6.6068394484364051E-2</v>
-      </c>
-      <c r="J13" s="26">
+        <v>0.14856666666666668</v>
+      </c>
+      <c r="T13" s="26">
         <f t="shared" si="20"/>
-        <v>-7.3358228129837819E-2</v>
-      </c>
-      <c r="K13" s="33">
+        <v>9.0285867154261852E-3</v>
+      </c>
+      <c r="U13" s="26">
         <f t="shared" si="20"/>
-        <v>8.116869753753031E-2</v>
-      </c>
-      <c r="L13" s="26">
+        <v>1.0497680513797826E-2</v>
+      </c>
+      <c r="V13" s="26">
         <f t="shared" si="20"/>
-        <v>0.15819934224664817</v>
-      </c>
-      <c r="M13" s="33">
+        <v>0.21907666815291649</v>
+      </c>
+      <c r="W13" s="43">
         <f t="shared" si="20"/>
-        <v>6.0988847885565384E-2</v>
-      </c>
-      <c r="N13" s="49">
+        <v>0.26320310426255111</v>
+      </c>
+      <c r="X13" s="27">
         <f t="shared" si="20"/>
-        <v>0.29730235065240646</v>
-      </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26">
-        <f t="shared" ref="Q13:AN13" si="21">Q12/Q14</f>
-        <v>1.1214705682000902E-2</v>
-      </c>
-      <c r="R13" s="26">
-        <f t="shared" si="21"/>
-        <v>0.12101333333333329</v>
-      </c>
-      <c r="S13" s="26">
-        <f t="shared" si="21"/>
-        <v>0.12522666666666665</v>
-      </c>
-      <c r="T13" s="26">
-        <f t="shared" si="21"/>
-        <v>0.14856666666666668</v>
-      </c>
-      <c r="U13" s="26">
-        <f t="shared" si="21"/>
-        <v>9.0285867154261852E-3</v>
-      </c>
-      <c r="V13" s="26">
-        <f t="shared" si="21"/>
-        <v>1.0497680513797826E-2</v>
-      </c>
-      <c r="W13" s="26">
-        <f t="shared" si="21"/>
-        <v>0.21907666815291649</v>
-      </c>
-      <c r="X13" s="49">
-        <f t="shared" si="21"/>
-        <v>0.46148048484533777</v>
+        <v>0.33474099150083608</v>
       </c>
       <c r="Y13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.49823050672006181</v>
+        <f t="shared" si="20"/>
+        <v>0.39867605934546008</v>
       </c>
       <c r="Z13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.52812636259726053</v>
+        <f t="shared" si="20"/>
+        <v>0.47713557672291179</v>
       </c>
       <c r="AA13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.55820386970611902</v>
+        <f t="shared" si="20"/>
+        <v>0.54739219233965974</v>
       </c>
       <c r="AB13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.58974138658802111</v>
+        <f t="shared" si="20"/>
+        <v>0.60029549928143977</v>
       </c>
       <c r="AC13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.6228050209185495</v>
+        <f t="shared" si="20"/>
+        <v>0.65896746013813079</v>
       </c>
       <c r="AD13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.6574637558988492</v>
+        <f t="shared" si="20"/>
+        <v>0.70850520203705869</v>
       </c>
       <c r="AE13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.69378957221320803</v>
+        <f t="shared" si="20"/>
+        <v>0.74154054571195305</v>
       </c>
       <c r="AF13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.73185757507303328</v>
+        <f t="shared" si="20"/>
+        <v>0.77595521136512602</v>
       </c>
       <c r="AG13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.77174612655693087</v>
+        <f t="shared" si="20"/>
+        <v>0.78777545023586082</v>
       </c>
       <c r="AH13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.81353698346515424</v>
+        <f t="shared" si="20"/>
+        <v>0.79998224960642439</v>
       </c>
       <c r="AI13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.8573154409156245</v>
+        <f t="shared" si="20"/>
+        <v>0.81249990060888577</v>
       </c>
       <c r="AJ13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.90317048191801041</v>
+        <f t="shared" si="20"/>
+        <v>0.82532166406196628</v>
       </c>
       <c r="AK13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.95119493317200432</v>
+        <f t="shared" si="20"/>
+        <v>0.8384438136191924</v>
       </c>
       <c r="AL13" s="27">
-        <f t="shared" si="21"/>
-        <v>1.0014856273460166</v>
-      </c>
-      <c r="AM13" s="27">
-        <f t="shared" si="21"/>
-        <v>1.0541435721029435</v>
-      </c>
-      <c r="AN13" s="27">
-        <f t="shared" si="21"/>
-        <v>1.1092741261505805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:98" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="20"/>
+        <v>0.85186071868920821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4173,722 +4107,680 @@
         <v>150.529032</v>
       </c>
       <c r="G14" s="32">
-        <f>T14</f>
+        <f>S14</f>
         <v>150</v>
       </c>
       <c r="H14" s="27">
         <v>150.700785</v>
       </c>
       <c r="I14" s="32">
-        <f>U14</f>
+        <f>T14</f>
         <v>153.40163899999999</v>
       </c>
       <c r="J14" s="27">
         <v>158.57798500000001</v>
       </c>
       <c r="K14" s="32">
-        <f>V14</f>
+        <f>U14</f>
         <v>164.60779099999999</v>
       </c>
       <c r="L14" s="27">
         <v>170.828776</v>
       </c>
       <c r="M14" s="32">
+        <f>V14</f>
+        <v>170.949286</v>
+      </c>
+      <c r="P14" s="27">
+        <v>105.84317</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>150</v>
+      </c>
+      <c r="R14" s="1">
+        <v>150</v>
+      </c>
+      <c r="S14" s="1">
+        <v>150</v>
+      </c>
+      <c r="T14" s="27">
+        <v>153.40163899999999</v>
+      </c>
+      <c r="U14" s="27">
+        <v>164.60779099999999</v>
+      </c>
+      <c r="V14" s="27">
+        <v>170.949286</v>
+      </c>
+      <c r="W14" s="153">
+        <f>V14</f>
+        <v>170.949286</v>
+      </c>
+      <c r="X14" s="27">
         <f>W14</f>
         <v>170.949286</v>
       </c>
-      <c r="N14" s="44">
-        <f>X14</f>
-        <v>164.60779099999999</v>
-      </c>
-      <c r="Q14" s="27">
-        <v>105.84317</v>
-      </c>
-      <c r="R14" s="1">
-        <v>150</v>
-      </c>
-      <c r="S14" s="1">
-        <v>150</v>
-      </c>
-      <c r="T14" s="1">
-        <v>150</v>
-      </c>
-      <c r="U14" s="27">
-        <v>153.40163899999999</v>
-      </c>
-      <c r="V14" s="27">
-        <v>164.60779099999999</v>
-      </c>
-      <c r="W14" s="27">
+      <c r="Y14" s="27">
+        <f t="shared" ref="Y14:AL14" si="21">X14</f>
         <v>170.949286</v>
       </c>
-      <c r="X14" s="44">
-        <f>V14</f>
-        <v>164.60779099999999</v>
-      </c>
-      <c r="Y14" s="27">
-        <f>X14</f>
-        <v>164.60779099999999</v>
-      </c>
       <c r="Z14" s="27">
-        <f>Y14</f>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AA14" s="27">
-        <f t="shared" ref="AA14:AN14" si="22">Z14</f>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AB14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AC14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AD14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AE14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AF14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AG14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AH14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AI14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AJ14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AK14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
       </c>
       <c r="AL14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
-      </c>
-      <c r="AM14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
-      </c>
-      <c r="AN14" s="27">
-        <f t="shared" si="22"/>
-        <v>164.60779099999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AP15" s="51" t="s">
+        <f t="shared" si="21"/>
+        <v>170.949286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN15" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="AQ15" s="71">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO15" s="62">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="23">
-        <f t="shared" ref="F16:N16" si="23">F5/F3</f>
+        <f t="shared" ref="F16:L16" si="22">F5/F3</f>
         <v>0.85857590685176888</v>
       </c>
       <c r="G16" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.8558438255118912</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.85590062111801246</v>
       </c>
       <c r="I16" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.84701747534901894</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.88574714847119718</v>
       </c>
       <c r="K16" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.85246968833916514</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.86382558174358359</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" ref="M16" si="24">M5/M3</f>
+        <f t="shared" ref="M16" si="23">M5/M3</f>
         <v>0.83166253419972636</v>
       </c>
-      <c r="N16" s="47">
-        <f t="shared" si="23"/>
-        <v>0.857583546779765</v>
+      <c r="P16" s="23">
+        <f t="shared" ref="P16:Q16" si="24">P5/P3</f>
+        <v>0.85328664255794195</v>
       </c>
       <c r="Q16" s="23">
-        <f t="shared" ref="Q16:R16" si="25">Q5/Q3</f>
-        <v>0.85328664255794195</v>
+        <f t="shared" si="24"/>
+        <v>0.86532184472834472</v>
       </c>
       <c r="R16" s="23">
+        <f t="shared" ref="R16:S16" si="25">R5/R3</f>
+        <v>0.8610677904237316</v>
+      </c>
+      <c r="S16" s="23">
         <f t="shared" si="25"/>
-        <v>0.86532184472834472</v>
-      </c>
-      <c r="S16" s="23">
-        <f t="shared" ref="S16:T16" si="26">S5/S3</f>
-        <v>0.8610677904237316</v>
+        <v>0.85725283692857257</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="26"/>
-        <v>0.85725283692857257</v>
+        <f>T5/T3</f>
+        <v>0.85475570319479577</v>
       </c>
       <c r="U16" s="23">
         <f>U5/U3</f>
-        <v>0.85475570319479577</v>
+        <v>0.85729986922284984</v>
       </c>
       <c r="V16" s="23">
-        <f>V5/V3</f>
-        <v>0.85729986922284984</v>
-      </c>
-      <c r="W16" s="23">
-        <f t="shared" ref="W16" si="27">W5/W3</f>
+        <f t="shared" ref="V16" si="26">V5/V3</f>
         <v>0.84829230777171583</v>
       </c>
-      <c r="X16" s="47">
-        <f>X5/X3</f>
+      <c r="W16" s="154">
         <v>0.86</v>
       </c>
-      <c r="Y16" s="99">
-        <f>Y5/Y3</f>
+      <c r="X16" s="23">
+        <f t="shared" ref="X16:AL16" si="27">X5/X3</f>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="Y16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
       <c r="Z16" s="23">
-        <f t="shared" ref="Z16:AN16" si="28">Z5/Z3</f>
+        <f t="shared" si="27"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="AA16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
-      <c r="AA16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AB16" s="23">
+        <f t="shared" si="27"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="AC16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
-      <c r="AB16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.85999999999999988</v>
-      </c>
-      <c r="AC16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AD16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
-      <c r="AD16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AE16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
-      <c r="AE16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AF16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
-      <c r="AF16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AG16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
-      <c r="AG16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.85999999999999988</v>
-      </c>
       <c r="AH16" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
       <c r="AI16" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AJ16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
-      <c r="AJ16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AK16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
-      <c r="AK16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AL16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86</v>
       </c>
-      <c r="AL16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
-      </c>
-      <c r="AM16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
-      </c>
-      <c r="AN16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.8600000000000001</v>
-      </c>
-      <c r="AP16" s="52" t="s">
+      <c r="AN16" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="AQ16" s="72">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO16" s="63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="23">
-        <f t="shared" ref="F17:N17" si="29">F8/F3</f>
+        <f t="shared" ref="F17:L17" si="28">F8/F3</f>
         <v>0.25023137781758459</v>
       </c>
       <c r="G17" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.18569566323286293</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.27698974433049256</v>
       </c>
       <c r="I17" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-0.90940154251684147</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-0.96060577015240112</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.31901700707950204</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.37551036706497759</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" ref="M17" si="30">M8/M3</f>
+        <f t="shared" ref="M17" si="29">M8/M3</f>
         <v>0.19058866279069778</v>
       </c>
-      <c r="N17" s="47">
-        <f t="shared" si="29"/>
-        <v>0.32661853686096926</v>
+      <c r="P17" s="23">
+        <f t="shared" ref="P17:Q17" si="30">P8/P3</f>
+        <v>0.13719072927301687</v>
       </c>
       <c r="Q17" s="23">
-        <f t="shared" ref="Q17:R17" si="31">Q8/Q3</f>
-        <v>0.13719072927301687</v>
+        <f t="shared" si="30"/>
+        <v>0.19480029481959843</v>
       </c>
       <c r="R17" s="23">
+        <f t="shared" ref="R17:S17" si="31">R8/R3</f>
+        <v>0.20649036068619966</v>
+      </c>
+      <c r="S17" s="23">
         <f t="shared" si="31"/>
-        <v>0.19480029481959843</v>
-      </c>
-      <c r="S17" s="23">
-        <f t="shared" ref="S17:T17" si="32">S8/S3</f>
-        <v>0.20649036068619966</v>
+        <v>0.2189785517421898</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" si="32"/>
-        <v>0.2189785517421898</v>
+        <f>T8/T3</f>
+        <v>0.12407987618436456</v>
       </c>
       <c r="U17" s="23">
         <f>U8/U3</f>
-        <v>0.12407987618436456</v>
+        <v>0.13328139347227252</v>
       </c>
       <c r="V17" s="23">
-        <f>V8/V3</f>
-        <v>0.13328139347227252</v>
-      </c>
-      <c r="W17" s="23">
-        <f t="shared" ref="W17" si="33">W8/W3</f>
+        <f t="shared" ref="V17:AL17" si="32">V8/V3</f>
         <v>0.28620168162650139</v>
       </c>
-      <c r="X17" s="47">
-        <f>X8/X3</f>
-        <v>0.34554582919824023</v>
-      </c>
-      <c r="Y17" s="99">
-        <f>Y8/Y3</f>
-        <v>0.35181390124957712</v>
+      <c r="W17" s="154">
+        <f>W8/W3</f>
+        <v>0.30546237737260279</v>
+      </c>
+      <c r="X17" s="23">
+        <f t="shared" si="32"/>
+        <v>0.30369246218511065</v>
+      </c>
+      <c r="Y17" s="23">
+        <f t="shared" si="32"/>
+        <v>0.30293127038128592</v>
       </c>
       <c r="Z17" s="23">
-        <f t="shared" ref="Z17:AN17" si="34">Z8/Z3</f>
-        <v>0.36097720496882491</v>
+        <f t="shared" si="32"/>
+        <v>0.3027822308370669</v>
       </c>
       <c r="AA17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.36907710433428531</v>
+        <f t="shared" si="32"/>
+        <v>0.30274348668843509</v>
       </c>
       <c r="AB17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.37687303171545972</v>
+        <f t="shared" si="32"/>
+        <v>0.30278311138589953</v>
       </c>
       <c r="AC17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.38438041730190237</v>
+        <f t="shared" si="32"/>
+        <v>0.30282363664466994</v>
       </c>
       <c r="AD17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.39161391525985323</v>
+        <f t="shared" si="32"/>
+        <v>0.30223640918466499</v>
       </c>
       <c r="AE17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.39858744097319598</v>
+        <f t="shared" si="32"/>
+        <v>0.30231597018169881</v>
       </c>
       <c r="AF17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.40531420656410627</v>
+        <f t="shared" si="32"/>
+        <v>0.30220667131344858</v>
       </c>
       <c r="AG17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.41180675477066953</v>
+        <f t="shared" si="32"/>
+        <v>0.30219259091177808</v>
       </c>
       <c r="AH17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.41807699125534026</v>
+        <f t="shared" si="32"/>
+        <v>0.30219865357020109</v>
       </c>
       <c r="AI17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.42413621541486973</v>
+        <f t="shared" si="32"/>
+        <v>0.30219534109029572</v>
       </c>
       <c r="AJ17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.42999514975921177</v>
+        <f t="shared" si="32"/>
+        <v>0.30217864463422056</v>
       </c>
       <c r="AK17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.43566396792394108</v>
+        <f t="shared" si="32"/>
+        <v>0.30214584377944109</v>
       </c>
       <c r="AL17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.44115232137787369</v>
-      </c>
-      <c r="AM17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.44646936488484978</v>
-      </c>
-      <c r="AN17" s="23">
-        <f t="shared" si="34"/>
-        <v>0.45162378077603915</v>
-      </c>
-      <c r="AP17" s="52" t="s">
+        <f t="shared" si="32"/>
+        <v>0.30209379984489798</v>
+      </c>
+      <c r="AN17" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AQ17" s="73">
-        <f>NPV(AQ16,X12:CT12)</f>
-        <v>1284.0246651178204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO17" s="64">
+        <f>NPV(AO16,X12:CR12)</f>
+        <v>1553.7941199059314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="23">
-        <f t="shared" ref="F18:N18" si="35">F12/F3</f>
+        <f t="shared" ref="F18:L18" si="33">F12/F3</f>
         <v>0.19965666517390643</v>
       </c>
       <c r="G18" s="34">
+        <f t="shared" si="33"/>
+        <v>0.14164441053033205</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="33"/>
+        <v>0.16640184890943235</v>
+      </c>
+      <c r="I18" s="34">
+        <f t="shared" si="33"/>
+        <v>-0.98945621399980577</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="33"/>
+        <v>-1.1150196491900701</v>
+      </c>
+      <c r="K18" s="34">
+        <f t="shared" si="33"/>
+        <v>0.21744649686711701</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="33"/>
+        <v>0.26978327493436355</v>
+      </c>
+      <c r="M18" s="34">
+        <f t="shared" ref="M18" si="34">M12/M3</f>
+        <v>0.11142698358413144</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" ref="P18:Q18" si="35">P12/P3</f>
+        <v>1.1326011659971446E-2</v>
+      </c>
+      <c r="Q18" s="23">
         <f t="shared" si="35"/>
-        <v>0.14164441053033205</v>
-      </c>
-      <c r="H18" s="23">
-        <f t="shared" si="35"/>
-        <v>0.16640184890943235</v>
-      </c>
-      <c r="I18" s="34">
-        <f t="shared" si="35"/>
-        <v>-0.98945621399980577</v>
-      </c>
-      <c r="J18" s="23">
-        <f t="shared" si="35"/>
-        <v>-1.1150196491900701</v>
-      </c>
-      <c r="K18" s="34">
-        <f t="shared" si="35"/>
-        <v>0.21744649686711701</v>
-      </c>
-      <c r="L18" s="23">
-        <f t="shared" si="35"/>
-        <v>0.26978327493436355</v>
-      </c>
-      <c r="M18" s="34">
-        <f t="shared" ref="M18" si="36">M12/M3</f>
-        <v>0.11142698358413144</v>
-      </c>
-      <c r="N18" s="47">
-        <f t="shared" si="35"/>
-        <v>0.3085879443437643</v>
-      </c>
-      <c r="Q18" s="23">
-        <f t="shared" ref="Q18:R18" si="37">Q12/Q3</f>
-        <v>1.1326011659971446E-2</v>
+        <v>0.15927277832373993</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" si="37"/>
-        <v>0.15927277832373993</v>
+        <f t="shared" ref="R18:S18" si="36">R12/R3</f>
+        <v>0.15582174735375118</v>
       </c>
       <c r="S18" s="23">
-        <f t="shared" ref="S18:T18" si="38">S12/S3</f>
-        <v>0.15582174735375118</v>
+        <f t="shared" si="36"/>
+        <v>0.17156296672671562</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="38"/>
-        <v>0.17156296672671562</v>
+        <f>T12/T3</f>
+        <v>1.7427302354258722E-2</v>
       </c>
       <c r="U18" s="23">
         <f>U12/U3</f>
-        <v>1.7427302354258722E-2</v>
+        <v>2.4040735691032097E-2</v>
       </c>
       <c r="V18" s="23">
-        <f>V12/V3</f>
-        <v>2.4040735691032097E-2</v>
-      </c>
-      <c r="W18" s="23">
-        <f t="shared" ref="W18" si="39">W12/W3</f>
+        <f t="shared" ref="V18:W18" si="37">V12/V3</f>
         <v>0.19330446317506367</v>
       </c>
-      <c r="X18" s="47">
-        <f>X12/X3</f>
-        <v>0.29356565291187853</v>
-      </c>
-      <c r="Y18" s="99">
-        <f>Y12/Y3</f>
-        <v>0.30475362366146064</v>
+      <c r="W18" s="42">
+        <f t="shared" si="37"/>
+        <v>0.21112714559722265</v>
+      </c>
+      <c r="X18" s="23">
+        <f t="shared" ref="X18:AL18" si="38">X12/X3</f>
+        <v>0.23348776437668206</v>
+      </c>
+      <c r="Y18" s="23">
+        <f t="shared" si="38"/>
+        <v>0.23173633787155598</v>
       </c>
       <c r="Z18" s="23">
-        <f t="shared" ref="Z18:AN18" si="40">Z12/Z3</f>
-        <v>0.31061546154496977</v>
+        <f t="shared" si="38"/>
+        <v>0.23111840767734232</v>
       </c>
       <c r="AA18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.31567829818274856</v>
+        <f t="shared" si="38"/>
+        <v>0.23056506011301317</v>
       </c>
       <c r="AB18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.32068611106887934</v>
+        <f t="shared" si="38"/>
+        <v>0.22986206203008003</v>
       </c>
       <c r="AC18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.32563967322521004</v>
+        <f t="shared" si="38"/>
+        <v>0.2293894792865854</v>
       </c>
       <c r="AD18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.33053974085809684</v>
+        <f t="shared" si="38"/>
+        <v>0.22836461641718347</v>
       </c>
       <c r="AE18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.33538705388096141</v>
+        <f t="shared" si="38"/>
+        <v>0.22763098286420011</v>
       </c>
       <c r="AF18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.34018233641794171</v>
+        <f t="shared" si="38"/>
+        <v>0.22685263413929832</v>
       </c>
       <c r="AG18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.34492629728935692</v>
+        <f t="shared" si="38"/>
+        <v>0.22579246410859313</v>
       </c>
       <c r="AH18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.34961963047966943</v>
+        <f t="shared" si="38"/>
+        <v>0.22479527553298589</v>
       </c>
       <c r="AI18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.35426301558860973</v>
+        <f t="shared" si="38"/>
+        <v>0.22383601920206384</v>
       </c>
       <c r="AJ18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.35885711826609984</v>
+        <f t="shared" si="38"/>
+        <v>0.22291009163588729</v>
       </c>
       <c r="AK18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.36340259063158448</v>
+        <f t="shared" si="38"/>
+        <v>0.22201395738066051</v>
       </c>
       <c r="AL18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.36790007167836392</v>
-      </c>
-      <c r="AM18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.3723501876634891</v>
-      </c>
-      <c r="AN18" s="23">
-        <f t="shared" si="40"/>
-        <v>0.37675355248376802</v>
-      </c>
-      <c r="AP18" s="52" t="s">
+        <f t="shared" si="38"/>
+        <v>0.22114378274403523</v>
+      </c>
+      <c r="AN18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AQ18" s="73">
+      <c r="AO18" s="64">
         <f>Main!C11</f>
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56.066000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="23">
-        <f t="shared" ref="F19:N19" si="41">F11/F10</f>
+        <f t="shared" ref="F19:L19" si="39">F11/F10</f>
         <v>0.1837046078730547</v>
       </c>
       <c r="G19" s="34">
+        <f t="shared" si="39"/>
+        <v>0.20467731857538143</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="39"/>
+        <v>0.20376002211777711</v>
+      </c>
+      <c r="I19" s="34">
+        <f t="shared" si="39"/>
+        <v>0.23636226642555747</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="39"/>
+        <v>0.19711505279867483</v>
+      </c>
+      <c r="K19" s="34">
+        <f t="shared" si="39"/>
+        <v>0.10634740151160453</v>
+      </c>
+      <c r="L19" s="23">
+        <f t="shared" si="39"/>
+        <v>0.19176361515686216</v>
+      </c>
+      <c r="M19" s="34">
+        <f t="shared" ref="M19" si="40">M11/M10</f>
+        <v>0.21182340489869955</v>
+      </c>
+      <c r="P19" s="23">
+        <f>P11/P10</f>
+        <v>0.53885003885004146</v>
+      </c>
+      <c r="Q19" s="23">
+        <f t="shared" ref="Q19:AL19" si="41">Q11/Q10</f>
+        <v>0.13561904761904767</v>
+      </c>
+      <c r="R19" s="23">
         <f t="shared" si="41"/>
-        <v>0.20467731857538143</v>
-      </c>
-      <c r="H19" s="23">
+        <v>0.21517506476142731</v>
+      </c>
+      <c r="S19" s="23">
         <f t="shared" si="41"/>
-        <v>0.20376002211777711</v>
-      </c>
-      <c r="I19" s="34">
+        <v>0.1922212556183848</v>
+      </c>
+      <c r="T19" s="23">
         <f t="shared" si="41"/>
-        <v>0.23636226642555747</v>
-      </c>
-      <c r="J19" s="23">
+        <v>-0.15802675585284237</v>
+      </c>
+      <c r="U19" s="23">
         <f t="shared" si="41"/>
-        <v>0.19711505279867483</v>
-      </c>
-      <c r="K19" s="34">
-        <f t="shared" si="41"/>
-        <v>0.10634740151160453</v>
-      </c>
-      <c r="L19" s="23">
-        <f t="shared" si="41"/>
-        <v>0.19176361515686216</v>
-      </c>
-      <c r="M19" s="34">
-        <f t="shared" ref="M19" si="42">M11/M10</f>
-        <v>0.21182340489869955</v>
-      </c>
-      <c r="N19" s="47">
-        <f t="shared" si="41"/>
-        <v>7.4483295437383745E-2</v>
-      </c>
-      <c r="Q19" s="23">
-        <f>Q11/Q10</f>
-        <v>0.53885003885004146</v>
-      </c>
-      <c r="R19" s="23">
-        <f t="shared" ref="R19:AN19" si="43">R11/R10</f>
-        <v>0.13561904761904767</v>
-      </c>
-      <c r="S19" s="23">
-        <f t="shared" si="43"/>
-        <v>0.21517506476142731</v>
-      </c>
-      <c r="T19" s="23">
-        <f t="shared" si="43"/>
-        <v>0.1922212556183848</v>
-      </c>
-      <c r="U19" s="23">
-        <f t="shared" si="43"/>
-        <v>-0.15802675585284237</v>
+        <v>-2.7402597402597104</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" si="43"/>
-        <v>-2.7402597402597104</v>
-      </c>
-      <c r="W19" s="23">
-        <f t="shared" ref="W19" si="44">W11/W10</f>
+        <f t="shared" ref="V19" si="42">V11/V10</f>
         <v>0.19744990892531872</v>
       </c>
-      <c r="X19" s="47">
-        <f>X11/X10</f>
-        <v>0.11991642320130369</v>
+      <c r="W19" s="154">
+        <v>0.2</v>
+      </c>
+      <c r="X19" s="23">
+        <f>W19</f>
+        <v>0.2</v>
       </c>
       <c r="Y19" s="23">
-        <f t="shared" si="43"/>
-        <v>0.11602488633818969</v>
+        <f t="shared" ref="Y19:AL19" si="43">X19</f>
+        <v>0.2</v>
       </c>
       <c r="Z19" s="23">
         <f t="shared" si="43"/>
-        <v>0.11408510002309072</v>
+        <v>0.2</v>
       </c>
       <c r="AA19" s="23">
         <f t="shared" si="43"/>
-        <v>0.11246117686788944</v>
+        <v>0.2</v>
       </c>
       <c r="AB19" s="23">
         <f t="shared" si="43"/>
-        <v>0.11089975125868183</v>
+        <v>0.2</v>
       </c>
       <c r="AC19" s="23">
         <f t="shared" si="43"/>
-        <v>0.10939731907965751</v>
+        <v>0.2</v>
       </c>
       <c r="AD19" s="23">
         <f t="shared" si="43"/>
-        <v>0.10795063414080203</v>
+        <v>0.2</v>
       </c>
       <c r="AE19" s="23">
         <f t="shared" si="43"/>
-        <v>0.10655668485755601</v>
+        <v>0.2</v>
       </c>
       <c r="AF19" s="23">
         <f t="shared" si="43"/>
-        <v>0.10521267341580866</v>
+        <v>0.2</v>
       </c>
       <c r="AG19" s="23">
         <f t="shared" si="43"/>
-        <v>0.10391599711861511</v>
+        <v>0.2</v>
       </c>
       <c r="AH19" s="23">
         <f t="shared" si="43"/>
-        <v>0.10266423165268933</v>
+        <v>0.2</v>
       </c>
       <c r="AI19" s="23">
         <f t="shared" si="43"/>
-        <v>0.10145511604805875</v>
+        <v>0.2</v>
       </c>
       <c r="AJ19" s="23">
         <f t="shared" si="43"/>
-        <v>0.10028653913433172</v>
+        <v>0.2</v>
       </c>
       <c r="AK19" s="23">
         <f t="shared" si="43"/>
-        <v>9.9156527322678517E-2</v>
+        <v>0.2</v>
       </c>
       <c r="AL19" s="23">
         <f t="shared" si="43"/>
-        <v>9.8063233564569391E-2</v>
-      </c>
-      <c r="AM19" s="23">
-        <f t="shared" si="43"/>
-        <v>9.7004927357140475E-2</v>
-      </c>
-      <c r="AN19" s="23">
-        <f t="shared" si="43"/>
-        <v>9.5979985681244911E-2</v>
-      </c>
-      <c r="AP19" s="52" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="AN19" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="AQ19" s="73">
-        <f>AQ17+AQ18</f>
-        <v>1333.6246651178203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AP20" s="53" t="s">
+      <c r="AO19" s="64">
+        <f>AO17+AO18</f>
+        <v>1609.8601199059315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN20" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="AQ20" s="74">
-        <f>AQ19/Main!C7</f>
-        <v>7.8012883020629893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO20" s="65">
+        <f>AO19/Main!C7</f>
+        <v>9.417179548242931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4900,138 +4792,114 @@
         <v>72</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:M21" si="45">H3/F3-1</f>
+        <f t="shared" ref="H21:M21" si="44">H3/F3-1</f>
         <v>3.3437826541274918E-2</v>
       </c>
       <c r="I21" s="34">
+        <f t="shared" si="44"/>
+        <v>-0.8371645682309552</v>
+      </c>
+      <c r="J21" s="23">
+        <f t="shared" si="44"/>
+        <v>-0.84929943666040741</v>
+      </c>
+      <c r="K21" s="34">
+        <f t="shared" si="44"/>
+        <v>4.9987308405740531</v>
+      </c>
+      <c r="L21" s="23">
+        <f t="shared" si="44"/>
+        <v>8.6015527652640671</v>
+      </c>
+      <c r="M21" s="34">
+        <f t="shared" si="44"/>
+        <v>0.5227927414761171</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="23">
+        <f t="shared" ref="Q21:T21" si="45">Q3/P3-1</f>
+        <v>8.744978674274595E-2</v>
+      </c>
+      <c r="R21" s="23">
         <f t="shared" si="45"/>
-        <v>-0.8371645682309552</v>
-      </c>
-      <c r="J21" s="23">
+        <v>5.7735504703074536E-2</v>
+      </c>
+      <c r="S21" s="23">
         <f t="shared" si="45"/>
-        <v>-0.84929943666040741</v>
-      </c>
-      <c r="K21" s="34">
+        <v>7.7529282941235067E-2</v>
+      </c>
+      <c r="T21" s="23">
         <f t="shared" si="45"/>
-        <v>4.9987308405740531</v>
-      </c>
-      <c r="L21" s="23">
-        <f t="shared" si="45"/>
-        <v>8.6015527652640671</v>
-      </c>
-      <c r="M21" s="34">
-        <f t="shared" si="45"/>
-        <v>0.5227927414761171</v>
-      </c>
-      <c r="N21" s="47">
-        <f>N3/K3-1</f>
-        <v>1.5809716006184393</v>
-      </c>
-      <c r="Q21" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="R21" s="23">
-        <f t="shared" ref="R21:U21" si="46">R3/Q3-1</f>
-        <v>8.744978674274595E-2</v>
-      </c>
-      <c r="S21" s="23">
-        <f t="shared" si="46"/>
-        <v>5.7735504703074536E-2</v>
-      </c>
-      <c r="T21" s="23">
-        <f t="shared" si="46"/>
-        <v>7.7529282941235067E-2</v>
+        <v>-0.38817035428888169</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="46"/>
-        <v>-0.38817035428888169</v>
+        <f>U3/T3-1</f>
+        <v>-9.5567047928227233E-2</v>
       </c>
       <c r="V21" s="23">
-        <f>V3/U3-1</f>
-        <v>-9.5567047928227233E-2</v>
-      </c>
-      <c r="W21" s="23">
-        <f t="shared" ref="W21" si="47">W3/V3-1</f>
+        <f t="shared" ref="V21" si="46">V3/U3-1</f>
         <v>1.6954144522663404</v>
       </c>
-      <c r="X21" s="47">
-        <f>X3/V3-1</f>
-        <v>2.6</v>
-      </c>
-      <c r="Y21" s="99">
-        <f>Y3/X3-1</f>
-        <v>4.0000000000000036E-2</v>
+      <c r="W21" s="154">
+        <v>0.1</v>
+      </c>
+      <c r="X21" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="Y21" s="23">
+        <v>0.2</v>
       </c>
       <c r="Z21" s="23">
-        <f>Z3/Y3-1</f>
-        <v>4.0000000000000036E-2</v>
+        <v>0.2</v>
       </c>
       <c r="AA21" s="23">
-        <f t="shared" ref="AA21:AN21" si="48">AA3/Z3-1</f>
-        <v>4.0000000000000036E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AB21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AC21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AD21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AE21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AF21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AG21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AH21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AI21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AK21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AL21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AM21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AN21" s="23">
-        <f t="shared" si="48"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AP21" s="52" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="AN21" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AQ21" s="76">
+      <c r="AO21" s="67">
         <f>Main!C6</f>
         <v>2.3849999999999998</v>
       </c>
-      <c r="AR21" s="55"/>
-    </row>
-    <row r="22" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP21" s="49"/>
+    </row>
+    <row r="22" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
@@ -5040,36 +4908,35 @@
         <v>72</v>
       </c>
       <c r="G22" s="34">
-        <f t="shared" ref="G22" si="49">G3/F3-1</f>
+        <f t="shared" ref="G22" si="47">G3/F3-1</f>
         <v>-6.0994178235557306E-2</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:M22" si="50">H3/G3-1</f>
+        <f t="shared" ref="H22:M22" si="48">H3/G3-1</f>
         <v>0.10056594175251155</v>
       </c>
       <c r="I22" s="34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>-0.85204391159901782</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>1.8549253148492095E-2</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>4.8894852870698742</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0.63028724875905273</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>-6.5935930839647328E-2</v>
       </c>
-      <c r="N22" s="47">
-        <f>N3/L3-1</f>
-        <v>0.58313916923721965</v>
+      <c r="P22" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="Q22" s="38" t="s">
         <v>72</v>
@@ -5089,10 +4956,8 @@
       <c r="V22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="W22" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="X22" s="48" t="s">
+      <c r="W22" s="155"/>
+      <c r="X22" s="38" t="s">
         <v>72</v>
       </c>
       <c r="Y22" s="38" t="s">
@@ -5137,21 +5002,15 @@
       <c r="AL22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AM22" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN22" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP22" s="54" t="s">
+      <c r="AN22" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AQ22" s="75">
-        <f>AQ20/AQ21-1</f>
-        <v>2.2709804201521973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO22" s="66">
+        <f>AO20/AO21-1</f>
+        <v>2.9485029552381268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="34"/>
       <c r="F23" s="38"/>
       <c r="G23" s="34"/>
@@ -5161,13 +5020,13 @@
       <c r="K23" s="34"/>
       <c r="L23" s="23"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="47"/>
+      <c r="R23" s="38"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="48"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="38"/>
@@ -5181,10 +5040,8 @@
       <c r="AI23" s="38"/>
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-    </row>
-    <row r="24" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="29" t="s">
         <v>98</v>
       </c>
@@ -5197,13 +5054,13 @@
       <c r="K24" s="34"/>
       <c r="L24" s="23"/>
       <c r="M24" s="34"/>
-      <c r="N24" s="47"/>
+      <c r="R24" s="38"/>
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="48"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
       <c r="AA24" s="38"/>
@@ -5217,41 +5074,42 @@
       <c r="AI24" s="38"/>
       <c r="AJ24" s="38"/>
       <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-    </row>
-    <row r="25" spans="1:44" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="61"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="53"/>
+      <c r="P25" s="3">
+        <v>54</v>
+      </c>
       <c r="Q25" s="3">
-        <v>54</v>
-      </c>
-      <c r="R25" s="3">
         <v>58</v>
       </c>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10">
-        <f>SUM(T26:T28)</f>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10">
+        <f>SUM(S26:S28)</f>
         <v>60</v>
       </c>
-      <c r="U25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10">
+        <f>SUM(U26:U28)</f>
+        <v>64</v>
+      </c>
       <c r="V25" s="10">
         <f>SUM(V26:V28)</f>
-        <v>64</v>
-      </c>
-      <c r="W25" s="10"/>
-      <c r="X25" s="41"/>
+        <v>67</v>
+      </c>
+      <c r="W25" s="149"/>
+      <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
@@ -5265,16 +5123,14 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-    </row>
-    <row r="26" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="57" t="s">
+    </row>
+    <row r="26" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="51" t="s">
         <v>99</v>
       </c>
       <c r="E26" s="34"/>
@@ -5286,17 +5142,19 @@
       <c r="K26" s="34"/>
       <c r="L26" s="23"/>
       <c r="M26" s="34"/>
-      <c r="N26" s="47"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38">
+      <c r="R26" s="38"/>
+      <c r="S26" s="38">
         <v>54</v>
       </c>
-      <c r="U26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38">
+        <v>56</v>
+      </c>
       <c r="V26" s="38">
-        <v>56</v>
-      </c>
-      <c r="W26" s="38"/>
-      <c r="X26" s="48"/>
+        <v>59</v>
+      </c>
+      <c r="W26" s="155"/>
+      <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="38"/>
@@ -5310,173 +5168,172 @@
       <c r="AI26" s="38"/>
       <c r="AJ26" s="38"/>
       <c r="AK26" s="38"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="38"/>
-    </row>
-    <row r="27" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="57" t="s">
+    </row>
+    <row r="27" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="T27" s="1">
+      <c r="S27" s="1">
         <v>6</v>
       </c>
+      <c r="U27" s="1">
+        <v>5</v>
+      </c>
       <c r="V27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52">
+        <v>0</v>
+      </c>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52">
+        <v>3</v>
+      </c>
+      <c r="V28" s="52">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58">
-        <v>0</v>
-      </c>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58">
-        <v>3</v>
-      </c>
-      <c r="W28" s="58"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="62"/>
-      <c r="AB28" s="62"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="62"/>
-      <c r="AF28" s="62"/>
-    </row>
-    <row r="29" spans="1:44" s="82" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="83" t="s">
+      <c r="W28" s="156"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="55"/>
+    </row>
+    <row r="29" spans="1:42" s="72" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84" t="s">
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="Q29" s="92">
-        <f>Q3/Q25</f>
+      <c r="P29" s="81">
+        <f>P3/P25</f>
         <v>1.9407962962962964</v>
       </c>
-      <c r="R29" s="92">
-        <f t="shared" ref="R29:V29" si="51">R3/R25</f>
+      <c r="Q29" s="81">
+        <f t="shared" ref="Q29:V29" si="49">Q3/Q25</f>
         <v>1.9649655172413794</v>
       </c>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92">
-        <f t="shared" si="51"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81">
+        <f t="shared" si="49"/>
         <v>2.1649000000000003</v>
       </c>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92">
-        <f t="shared" si="51"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81">
+        <f t="shared" si="49"/>
         <v>1.12309375</v>
       </c>
-      <c r="W29" s="92"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-    </row>
-    <row r="30" spans="1:44" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="77" t="s">
+      <c r="V29" s="81">
+        <f t="shared" si="49"/>
+        <v>2.8916567164179106</v>
+      </c>
+      <c r="W29" s="157"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+    </row>
+    <row r="30" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="36">
+        <v>12.1</v>
+      </c>
       <c r="Q30" s="36">
-        <v>12.1</v>
-      </c>
-      <c r="R30" s="36">
         <v>13.1</v>
       </c>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81"/>
-      <c r="U30" s="81"/>
-      <c r="V30" s="81"/>
-      <c r="W30" s="81"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-    </row>
-    <row r="31" spans="1:44" s="87" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="88" t="s">
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="158"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="69"/>
+    </row>
+    <row r="31" spans="1:42" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="90"/>
-      <c r="Q31" s="91">
+      <c r="E31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="P31" s="80">
+        <f>P3/P30</f>
+        <v>8.6614049586776858</v>
+      </c>
+      <c r="Q31" s="80">
         <f>Q3/Q30</f>
-        <v>8.6614049586776858</v>
-      </c>
-      <c r="R31" s="91">
-        <f>R3/R30</f>
         <v>8.6998473282442745</v>
       </c>
-      <c r="X31" s="90"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W31" s="79"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B34" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
@@ -5487,8 +5344,15 @@
         <v>55.976999999999997</v>
       </c>
       <c r="M35" s="31"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U35" s="14">
+        <v>49.036000000000001</v>
+      </c>
+      <c r="V35" s="14">
+        <v>68.641000000000005</v>
+      </c>
+      <c r="W35" s="152"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
@@ -5499,8 +5363,15 @@
         <v>133.077</v>
       </c>
       <c r="M36" s="31"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U36" s="14">
+        <v>132.34200000000001</v>
+      </c>
+      <c r="V36" s="14">
+        <v>147.45500000000001</v>
+      </c>
+      <c r="W36" s="152"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -5511,8 +5382,15 @@
         <v>77.807000000000002</v>
       </c>
       <c r="M37" s="31"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U37" s="14">
+        <v>77.947999999999993</v>
+      </c>
+      <c r="V37" s="14">
+        <v>81.793999999999997</v>
+      </c>
+      <c r="W37" s="152"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
@@ -5523,8 +5401,15 @@
         <v>4.13</v>
       </c>
       <c r="M38" s="31"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U38" s="14">
+        <v>6.29</v>
+      </c>
+      <c r="V38" s="14">
+        <v>1.647</v>
+      </c>
+      <c r="W38" s="152"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
@@ -5537,26 +5422,40 @@
         <v>270.99099999999999</v>
       </c>
       <c r="M39" s="31"/>
-    </row>
-    <row r="40" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U39" s="14">
+        <f>SUM(U35:U38)</f>
+        <v>265.61600000000004</v>
+      </c>
+      <c r="V39" s="14">
+        <f>SUM(V35:V38)</f>
+        <v>299.53699999999998</v>
+      </c>
+      <c r="W39" s="152"/>
+    </row>
+    <row r="40" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="69"/>
-      <c r="G40" s="69"/>
+      <c r="E40" s="61"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="12">
         <v>15.635999999999999</v>
       </c>
-      <c r="I40" s="69"/>
-      <c r="K40" s="69"/>
+      <c r="I40" s="61"/>
+      <c r="K40" s="61"/>
       <c r="L40" s="12">
         <v>49.576999999999998</v>
       </c>
       <c r="M40" s="30"/>
-      <c r="N40" s="70"/>
-      <c r="X40" s="70"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U40" s="12">
+        <v>29.942</v>
+      </c>
+      <c r="V40" s="12">
+        <v>56.066000000000003</v>
+      </c>
+      <c r="W40" s="151"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="1" t="s">
         <v>55</v>
@@ -5568,8 +5467,15 @@
         <v>10.474</v>
       </c>
       <c r="M41" s="31"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U41" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="V41" s="14">
+        <v>5.13</v>
+      </c>
+      <c r="W41" s="152"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
         <v>56</v>
@@ -5581,8 +5487,15 @@
         <v>0</v>
       </c>
       <c r="M42" s="31"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U42" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="V42" s="14">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="W42" s="152"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="1" t="s">
         <v>57</v>
@@ -5594,8 +5507,15 @@
         <v>1.7390000000000001</v>
       </c>
       <c r="M43" s="31"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U43" s="14">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="V43" s="14">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="W43" s="152"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>58</v>
       </c>
@@ -5608,13 +5528,22 @@
         <v>332.78099999999995</v>
       </c>
       <c r="M44" s="31"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U44" s="14">
+        <f>SUM(U40:U43)+U39</f>
+        <v>300.96900000000005</v>
+      </c>
+      <c r="V44" s="14">
+        <f>SUM(V40:V43)+V39</f>
+        <v>363.15199999999999</v>
+      </c>
+      <c r="W44" s="152"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="31"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="1" t="s">
         <v>59</v>
@@ -5626,8 +5555,15 @@
         <v>21.773</v>
       </c>
       <c r="M46" s="31"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U46" s="14">
+        <v>18.141999999999999</v>
+      </c>
+      <c r="V46" s="14">
+        <v>28.681000000000001</v>
+      </c>
+      <c r="W46" s="152"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="1" t="s">
         <v>60</v>
@@ -5639,8 +5575,15 @@
         <v>11.615</v>
       </c>
       <c r="M47" s="31"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U47" s="14">
+        <v>13.811</v>
+      </c>
+      <c r="V47" s="14">
+        <v>11.557</v>
+      </c>
+      <c r="W47" s="152"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="1" t="s">
         <v>41</v>
@@ -5652,26 +5595,38 @@
         <v>2.0670000000000002</v>
       </c>
       <c r="M48" s="31"/>
-    </row>
-    <row r="49" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U48" s="14">
+        <v>0</v>
+      </c>
+      <c r="V48" s="14">
+        <v>0</v>
+      </c>
+      <c r="W48" s="152"/>
+    </row>
+    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="69"/>
-      <c r="G49" s="69"/>
+      <c r="E49" s="61"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="12">
         <v>5.38</v>
       </c>
-      <c r="I49" s="69"/>
-      <c r="K49" s="69"/>
+      <c r="I49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="L49" s="12">
         <v>0</v>
       </c>
       <c r="M49" s="30"/>
-      <c r="N49" s="70"/>
-      <c r="X49" s="70"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U49" s="12">
+        <v>0</v>
+      </c>
+      <c r="V49" s="12">
+        <v>0</v>
+      </c>
+      <c r="W49" s="151"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
         <v>62</v>
@@ -5685,8 +5640,17 @@
         <v>35.454999999999998</v>
       </c>
       <c r="M50" s="31"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U50" s="14">
+        <f>SUM(U46:U49)</f>
+        <v>31.952999999999999</v>
+      </c>
+      <c r="V50" s="14">
+        <f>SUM(V46:V49)</f>
+        <v>40.238</v>
+      </c>
+      <c r="W50" s="152"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>63</v>
       </c>
@@ -5697,8 +5661,15 @@
         <v>0.51600000000000001</v>
       </c>
       <c r="M51" s="31"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U51" s="14">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="V51" s="14">
+        <v>3</v>
+      </c>
+      <c r="W51" s="152"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
@@ -5709,26 +5680,38 @@
         <v>160.916</v>
       </c>
       <c r="M52" s="31"/>
-    </row>
-    <row r="53" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U52" s="14">
+        <v>160.12899999999999</v>
+      </c>
+      <c r="V52" s="14">
+        <v>176.81200000000001</v>
+      </c>
+      <c r="W52" s="152"/>
+    </row>
+    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="69"/>
-      <c r="G53" s="69"/>
+      <c r="E53" s="61"/>
+      <c r="G53" s="61"/>
       <c r="H53" s="12">
         <v>24.693000000000001</v>
       </c>
-      <c r="I53" s="69"/>
-      <c r="K53" s="69"/>
+      <c r="I53" s="61"/>
+      <c r="K53" s="61"/>
       <c r="L53" s="12">
         <v>0</v>
       </c>
       <c r="M53" s="30"/>
-      <c r="N53" s="70"/>
-      <c r="X53" s="70"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U53" s="12">
+        <v>0</v>
+      </c>
+      <c r="V53" s="12">
+        <v>0</v>
+      </c>
+      <c r="W53" s="151"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
         <v>64</v>
@@ -5740,8 +5723,15 @@
         <v>3.7690000000000001</v>
       </c>
       <c r="M54" s="31"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U54" s="14">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="V54" s="14">
+        <v>4.6820000000000004</v>
+      </c>
+      <c r="W54" s="152"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>65</v>
       </c>
@@ -5754,11 +5744,20 @@
         <v>200.65600000000001</v>
       </c>
       <c r="M55" s="31"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U55" s="14">
+        <f>U50+U51+U52+U53+U54</f>
+        <v>196.28199999999998</v>
+      </c>
+      <c r="V55" s="14">
+        <f>V50+V51+V52+V53+V54</f>
+        <v>224.732</v>
+      </c>
+      <c r="W55" s="152"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>66</v>
       </c>
@@ -5769,8 +5768,15 @@
         <v>132.125</v>
       </c>
       <c r="M57" s="31"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U57" s="14">
+        <v>104.687</v>
+      </c>
+      <c r="V57" s="14">
+        <v>138.41999999999999</v>
+      </c>
+      <c r="W57" s="152"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>67</v>
       </c>
@@ -5783,8 +5789,17 @@
         <v>332.78100000000001</v>
       </c>
       <c r="M58" s="31"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U58" s="14">
+        <f>U57+U55</f>
+        <v>300.96899999999999</v>
+      </c>
+      <c r="V58" s="14">
+        <f>V57+V55</f>
+        <v>363.15199999999999</v>
+      </c>
+      <c r="W58" s="152"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>133</v>
       </c>
@@ -5797,8 +5812,17 @@
         <v>132.12499999999994</v>
       </c>
       <c r="M60" s="31"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U60" s="14">
+        <f t="shared" ref="U60:V60" si="50">U44-U55</f>
+        <v>104.68700000000007</v>
+      </c>
+      <c r="V60" s="14">
+        <f t="shared" si="50"/>
+        <v>138.41999999999999</v>
+      </c>
+      <c r="W60" s="152"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="1" t="s">
         <v>134</v>
@@ -5811,39 +5835,256 @@
         <f>L60/L14</f>
         <v>0.77343526713555533</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" s="124" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="123"/>
-      <c r="B64" s="124" t="s">
+      <c r="U61" s="1">
+        <f t="shared" ref="U61:V61" si="51">U60/U14</f>
+        <v>0.63597840274765649</v>
+      </c>
+      <c r="V61" s="1">
+        <f t="shared" si="51"/>
+        <v>0.80971382354881549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="14">
+        <f t="shared" ref="H63" si="52">H40</f>
+        <v>15.635999999999999</v>
+      </c>
+      <c r="L63" s="14">
+        <f t="shared" ref="L63" si="53">L40</f>
+        <v>49.576999999999998</v>
+      </c>
+      <c r="U63" s="14">
+        <f t="shared" ref="U63" si="54">U40</f>
+        <v>29.942</v>
+      </c>
+      <c r="V63" s="14">
+        <f>V40</f>
+        <v>56.066000000000003</v>
+      </c>
+      <c r="W63" s="152"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="14">
+        <f t="shared" ref="H64" si="55">H49+H53</f>
+        <v>30.073</v>
+      </c>
+      <c r="L64" s="14">
+        <f t="shared" ref="L64" si="56">L49+L53</f>
+        <v>0</v>
+      </c>
+      <c r="U64" s="14">
+        <f t="shared" ref="U64" si="57">U49+U53</f>
+        <v>0</v>
+      </c>
+      <c r="V64" s="14">
+        <f>V49+V53</f>
+        <v>0</v>
+      </c>
+      <c r="W64" s="152"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="14">
+        <f>H63-H64</f>
+        <v>-14.437000000000001</v>
+      </c>
+      <c r="L65" s="14">
+        <f>L63-L64</f>
+        <v>49.576999999999998</v>
+      </c>
+      <c r="U65" s="14">
+        <f>U63-U64</f>
+        <v>29.942</v>
+      </c>
+      <c r="V65" s="14">
+        <f>V63-V64</f>
+        <v>56.066000000000003</v>
+      </c>
+      <c r="W65" s="152"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1.4767999999999999</v>
+      </c>
+      <c r="L67" s="1">
+        <v>2.3904999999999998</v>
+      </c>
+      <c r="U67" s="1">
+        <v>2.395</v>
+      </c>
+      <c r="V67" s="1">
+        <v>1.8740000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" s="27">
+        <f t="shared" ref="H68" si="58">H67*H14</f>
+        <v>222.55491928799998</v>
+      </c>
+      <c r="L68" s="27">
+        <f t="shared" ref="L68" si="59">L67*L14</f>
+        <v>408.36618902800001</v>
+      </c>
+      <c r="U68" s="27">
+        <f t="shared" ref="U68" si="60">U67*U14</f>
+        <v>394.23565944500001</v>
+      </c>
+      <c r="V68" s="27">
+        <f>V67*V14</f>
+        <v>320.358961964</v>
+      </c>
+      <c r="W68" s="153"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="27">
+        <f>H68-H65</f>
+        <v>236.99191928799999</v>
+      </c>
+      <c r="L69" s="27">
+        <f>L68-L65</f>
+        <v>358.78918902800001</v>
+      </c>
+      <c r="U69" s="27">
+        <f>U68-U65</f>
+        <v>364.293659445</v>
+      </c>
+      <c r="V69" s="27">
+        <f>V68-V65</f>
+        <v>264.29296196400003</v>
+      </c>
+      <c r="W69" s="153"/>
+    </row>
+    <row r="71" spans="1:23" s="111" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="I64" s="125"/>
-      <c r="K64" s="125"/>
-      <c r="M64" s="125"/>
-      <c r="N64" s="126"/>
-      <c r="X64" s="126"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3"/>
+      <c r="E71" s="112"/>
+      <c r="G71" s="112"/>
+      <c r="H71" s="111">
+        <f>H67/H61</f>
+        <v>2.9348804484709379</v>
+      </c>
+      <c r="I71" s="112"/>
+      <c r="K71" s="112"/>
+      <c r="L71" s="111">
+        <f>L67/L61</f>
+        <v>3.0907563975629149</v>
+      </c>
+      <c r="M71" s="112"/>
+      <c r="U71" s="111">
+        <f t="shared" ref="U71" si="61">U67/U61</f>
+        <v>3.7658511510025101</v>
+      </c>
+      <c r="V71" s="111">
+        <f>V67/V61</f>
+        <v>2.3143979335645142</v>
+      </c>
+      <c r="W71" s="159"/>
+    </row>
+    <row r="72" spans="1:23" s="114" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="113"/>
+      <c r="B72" s="114" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="115"/>
+      <c r="G72" s="115"/>
+      <c r="I72" s="115"/>
+      <c r="K72" s="115"/>
+      <c r="M72" s="115"/>
+      <c r="U72" s="111">
+        <f t="shared" ref="U72" si="62">U68/U3</f>
+        <v>5.4847889402181478</v>
+      </c>
+      <c r="V72" s="111">
+        <f>V68/V3</f>
+        <v>1.6535424198491799</v>
+      </c>
+      <c r="W72" s="159"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U73" s="111">
+        <f t="shared" ref="U73" si="63">U69/U3</f>
+        <v>5.0682219795347674</v>
+      </c>
+      <c r="V73" s="111">
+        <f>V69/V3</f>
+        <v>1.3641560741608643</v>
+      </c>
+      <c r="W73" s="159"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U74" s="111">
+        <f t="shared" ref="U74" si="64">U67/U13</f>
+        <v>228.14563625289284</v>
+      </c>
+      <c r="V74" s="111">
+        <f>V67/V13</f>
+        <v>8.554082987476967</v>
+      </c>
+      <c r="W74" s="159"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U75" s="111">
+        <f t="shared" ref="U75" si="65">U69/U12</f>
+        <v>210.81808995659659</v>
+      </c>
+      <c r="V75" s="111">
+        <f>V69/V12</f>
+        <v>7.0570335094924017</v>
+      </c>
+      <c r="W75" s="159"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A80" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{B9683B42-B241-4D1D-8CE0-7A17859DA76B}"/>
-    <hyperlink ref="V1" r:id="rId2" xr:uid="{05878C96-F10F-4982-ACE4-FF132CF4E29A}"/>
-    <hyperlink ref="T1" r:id="rId3" xr:uid="{6765EA13-C896-4C06-BD01-2D2BC5D2014C}"/>
+    <hyperlink ref="U1" r:id="rId2" xr:uid="{05878C96-F10F-4982-ACE4-FF132CF4E29A}"/>
+    <hyperlink ref="S1" r:id="rId3" xr:uid="{6765EA13-C896-4C06-BD01-2D2BC5D2014C}"/>
     <hyperlink ref="H1" r:id="rId4" xr:uid="{D3D9ED60-186F-274D-93DB-4D868CA2340E}"/>
-    <hyperlink ref="R1" r:id="rId5" xr:uid="{9260496C-E59A-0143-BDFB-5C62E2643276}"/>
-    <hyperlink ref="W1" r:id="rId6" xr:uid="{D7D97D6D-2030-4F4C-B5FB-6BFE0FD9DC61}"/>
+    <hyperlink ref="Q1" r:id="rId5" xr:uid="{9260496C-E59A-0143-BDFB-5C62E2643276}"/>
+    <hyperlink ref="V1" r:id="rId6" xr:uid="{D7D97D6D-2030-4F4C-B5FB-6BFE0FD9DC61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
   <ignoredErrors>
-    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 X11:AD11 N5 N8 N10:N11 AE11:AN11 M5:M13" formula="1"/>
+    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 W12 X11:AL11" formula="1"/>
+    <ignoredError sqref="W6" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId8"/>
   <legacyDrawing r:id="rId9"/>
@@ -5854,16 +6095,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE00A87-1093-914E-B5D4-E893EE3F79A8}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="25"/>
-    <col min="2" max="2" width="9.1640625" style="144"/>
+    <col min="2" max="2" width="9.1640625" style="133"/>
     <col min="3" max="17" width="9.1640625" style="1"/>
-    <col min="18" max="18" width="9.1640625" style="144"/>
+    <col min="18" max="18" width="9.1640625" style="133"/>
     <col min="19" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
@@ -5871,13 +6112,13 @@
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="117" t="s">
         <v>19</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="145" t="s">
+      <c r="R1" s="134" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5885,13 +6126,13 @@
       <c r="A2" s="35">
         <v>44834</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="118" t="s">
         <v>68</v>
       </c>
       <c r="Q2" s="22">
         <v>44834</v>
       </c>
-      <c r="R2" s="146" t="s">
+      <c r="R2" s="135" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5899,13 +6140,13 @@
       <c r="A3" s="30">
         <v>93.568000000000012</v>
       </c>
-      <c r="B3" s="130">
+      <c r="B3" s="119">
         <v>158.58780000000002</v>
       </c>
       <c r="Q3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="R3" s="147">
+      <c r="R3" s="136">
         <v>258.76080000000002</v>
       </c>
     </row>
@@ -5913,13 +6154,13 @@
       <c r="A4" s="31">
         <v>15.750999999999999</v>
       </c>
-      <c r="B4" s="131">
+      <c r="B4" s="120">
         <v>22.585512000000008</v>
       </c>
       <c r="Q4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="R4" s="148">
+      <c r="R4" s="137">
         <v>36.226512000000007</v>
       </c>
     </row>
@@ -5927,13 +6168,13 @@
       <c r="A5" s="30">
         <v>77.817000000000007</v>
       </c>
-      <c r="B5" s="132">
+      <c r="B5" s="121">
         <v>136.00228800000002</v>
       </c>
       <c r="Q5" s="12">
         <v>164.34900000000002</v>
       </c>
-      <c r="R5" s="149">
+      <c r="R5" s="138">
         <v>222.534288</v>
       </c>
     </row>
@@ -5941,13 +6182,13 @@
       <c r="A6" s="31">
         <v>3.9E-2</v>
       </c>
-      <c r="B6" s="131">
+      <c r="B6" s="120">
         <v>0.4</v>
       </c>
       <c r="Q6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="R6" s="144">
+      <c r="R6" s="133">
         <v>0.4</v>
       </c>
     </row>
@@ -5955,13 +6196,13 @@
       <c r="A7" s="31">
         <v>60.022999999999996</v>
       </c>
-      <c r="B7" s="131">
+      <c r="B7" s="120">
         <v>84.6045728</v>
       </c>
       <c r="Q7" s="14">
         <v>108.93899999999999</v>
       </c>
-      <c r="R7" s="148">
+      <c r="R7" s="137">
         <v>133.5205728</v>
       </c>
     </row>
@@ -5969,13 +6210,13 @@
       <c r="A8" s="30">
         <v>17.833000000000013</v>
       </c>
-      <c r="B8" s="132">
+      <c r="B8" s="121">
         <v>51.797715200000027</v>
       </c>
       <c r="Q8" s="12">
         <v>55.449000000000012</v>
       </c>
-      <c r="R8" s="149">
+      <c r="R8" s="138">
         <v>89.413715200000013</v>
       </c>
     </row>
@@ -5983,13 +6224,13 @@
       <c r="A9" s="31">
         <v>4.6049999999999986</v>
       </c>
-      <c r="B9" s="131">
+      <c r="B9" s="120">
         <v>-1.0790000000000002</v>
       </c>
       <c r="Q9" s="14">
         <v>8.7839999999999989</v>
       </c>
-      <c r="R9" s="148">
+      <c r="R9" s="137">
         <v>3.1</v>
       </c>
     </row>
@@ -5997,13 +6238,13 @@
       <c r="A10" s="31">
         <v>13.228000000000014</v>
       </c>
-      <c r="B10" s="133">
+      <c r="B10" s="122">
         <v>52.876715200000028</v>
       </c>
       <c r="Q10" s="14">
         <v>46.665000000000013</v>
       </c>
-      <c r="R10" s="150">
+      <c r="R10" s="139">
         <v>86.313715200000019</v>
       </c>
     </row>
@@ -6011,13 +6252,13 @@
       <c r="A11" s="31">
         <v>2.8020000000000005</v>
       </c>
-      <c r="B11" s="131">
+      <c r="B11" s="120">
         <v>3.9384320000000015</v>
       </c>
       <c r="Q11" s="14">
         <v>9.2140000000000004</v>
       </c>
-      <c r="R11" s="148">
+      <c r="R11" s="137">
         <v>10.350432000000001</v>
       </c>
     </row>
@@ -6025,13 +6266,13 @@
       <c r="A12" s="30">
         <v>10.426000000000013</v>
       </c>
-      <c r="B12" s="132">
+      <c r="B12" s="121">
         <v>48.938283200000029</v>
       </c>
       <c r="Q12" s="12">
         <v>37.451000000000015</v>
       </c>
-      <c r="R12" s="149">
+      <c r="R12" s="138">
         <v>75.963283200000021</v>
       </c>
     </row>
@@ -6039,14 +6280,14 @@
       <c r="A13" s="33">
         <v>6.0988847885565384E-2</v>
       </c>
-      <c r="B13" s="134">
+      <c r="B13" s="123">
         <v>0.29730235065240646</v>
       </c>
       <c r="P13" s="23"/>
       <c r="Q13" s="26">
         <v>0.21907666815291649</v>
       </c>
-      <c r="R13" s="151">
+      <c r="R13" s="140">
         <v>0.46148048484533777</v>
       </c>
     </row>
@@ -6054,30 +6295,30 @@
       <c r="A14" s="32">
         <v>170.949286</v>
       </c>
-      <c r="B14" s="131">
+      <c r="B14" s="120">
         <v>164.60779099999999</v>
       </c>
       <c r="Q14" s="27">
         <v>170.949286</v>
       </c>
-      <c r="R14" s="148">
+      <c r="R14" s="137">
         <v>164.60779099999999</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="135"/>
+      <c r="B15" s="124"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="34">
         <v>0.83166253419972636</v>
       </c>
-      <c r="B16" s="136">
+      <c r="B16" s="125">
         <v>0.857583546779765</v>
       </c>
       <c r="Q16" s="23">
         <v>0.84829230777171583</v>
       </c>
-      <c r="R16" s="152">
+      <c r="R16" s="141">
         <v>0.86</v>
       </c>
     </row>
@@ -6085,13 +6326,13 @@
       <c r="A17" s="34">
         <v>0.19058866279069778</v>
       </c>
-      <c r="B17" s="136">
+      <c r="B17" s="125">
         <v>0.32661853686096926</v>
       </c>
       <c r="Q17" s="23">
         <v>0.28620168162650139</v>
       </c>
-      <c r="R17" s="152">
+      <c r="R17" s="141">
         <v>0.34554582919824023</v>
       </c>
     </row>
@@ -6099,13 +6340,13 @@
       <c r="A18" s="34">
         <v>0.11142698358413144</v>
       </c>
-      <c r="B18" s="136">
+      <c r="B18" s="125">
         <v>0.3085879443437643</v>
       </c>
       <c r="Q18" s="23">
         <v>0.19330446317506367</v>
       </c>
-      <c r="R18" s="152">
+      <c r="R18" s="141">
         <v>0.29356565291187853</v>
       </c>
     </row>
@@ -6113,30 +6354,30 @@
       <c r="A19" s="34">
         <v>0.21182340489869955</v>
       </c>
-      <c r="B19" s="136">
+      <c r="B19" s="125">
         <v>7.4483295437383745E-2</v>
       </c>
       <c r="Q19" s="23">
         <v>0.19744990892531872</v>
       </c>
-      <c r="R19" s="152">
+      <c r="R19" s="141">
         <v>0.11991642320130369</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B20" s="135"/>
+      <c r="B20" s="124"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="34">
         <v>0.5227927414761171</v>
       </c>
-      <c r="B21" s="136">
+      <c r="B21" s="125">
         <v>1.5809716006184393</v>
       </c>
       <c r="Q21" s="23">
         <v>1.6954144522663404</v>
       </c>
-      <c r="R21" s="152">
+      <c r="R21" s="141">
         <v>2.6</v>
       </c>
     </row>
@@ -6144,222 +6385,222 @@
       <c r="A22" s="34">
         <v>-6.5935930839647328E-2</v>
       </c>
-      <c r="B22" s="136">
+      <c r="B22" s="125">
         <v>0.58313916923721965</v>
       </c>
       <c r="Q22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="R22" s="153" t="s">
+      <c r="R22" s="142" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="136"/>
+      <c r="B23" s="125"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="153"/>
+      <c r="R23" s="142"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="136"/>
+      <c r="B24" s="125"/>
       <c r="Q24" s="38"/>
-      <c r="R24" s="153"/>
+      <c r="R24" s="142"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A25" s="59"/>
-      <c r="B25" s="137"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="126"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="145"/>
+      <c r="R25" s="134"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="136"/>
+      <c r="B26" s="125"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="153"/>
+      <c r="R26" s="142"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="135"/>
+      <c r="B27" s="124"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" s="63"/>
-      <c r="B28" s="138"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="154"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="127"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="143"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A29" s="85"/>
-      <c r="B29" s="139"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="155"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="128"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="144"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A30" s="79"/>
-      <c r="B30" s="140"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="156"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="129"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="145"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A31" s="89"/>
-      <c r="B31" s="141"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="157"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="130"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="146"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="135"/>
+      <c r="B32" s="124"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B33" s="135"/>
+      <c r="B33" s="124"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B34" s="135"/>
+      <c r="B34" s="124"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="31"/>
-      <c r="B35" s="135"/>
+      <c r="B35" s="124"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="31"/>
-      <c r="B36" s="135"/>
+      <c r="B36" s="124"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="31"/>
-      <c r="B37" s="135"/>
+      <c r="B37" s="124"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="31"/>
-      <c r="B38" s="135"/>
+      <c r="B38" s="124"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="31"/>
-      <c r="B39" s="135"/>
+      <c r="B39" s="124"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
-      <c r="B40" s="142"/>
+      <c r="B40" s="131"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="158"/>
+      <c r="R40" s="147"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="31"/>
-      <c r="B41" s="135"/>
+      <c r="B41" s="124"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="31"/>
-      <c r="B42" s="135"/>
+      <c r="B42" s="124"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="31"/>
-      <c r="B43" s="135"/>
+      <c r="B43" s="124"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="31"/>
-      <c r="B44" s="135"/>
+      <c r="B44" s="124"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="31"/>
-      <c r="B45" s="135"/>
+      <c r="B45" s="124"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="31"/>
-      <c r="B46" s="135"/>
+      <c r="B46" s="124"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="31"/>
-      <c r="B47" s="135"/>
+      <c r="B47" s="124"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="31"/>
-      <c r="B48" s="135"/>
+      <c r="B48" s="124"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
-      <c r="B49" s="142"/>
+      <c r="B49" s="131"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="158"/>
+      <c r="R49" s="147"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="31"/>
-      <c r="B50" s="135"/>
+      <c r="B50" s="124"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="31"/>
-      <c r="B51" s="135"/>
+      <c r="B51" s="124"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="31"/>
-      <c r="B52" s="135"/>
+      <c r="B52" s="124"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="30"/>
-      <c r="B53" s="142"/>
+      <c r="B53" s="131"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="158"/>
+      <c r="R53" s="147"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="31"/>
-      <c r="B54" s="135"/>
+      <c r="B54" s="124"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="31"/>
-      <c r="B55" s="135"/>
+      <c r="B55" s="124"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B56" s="135"/>
+      <c r="B56" s="124"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="31"/>
-      <c r="B57" s="135"/>
+      <c r="B57" s="124"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="31"/>
-      <c r="B58" s="135"/>
+      <c r="B58" s="124"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B59" s="135"/>
+      <c r="B59" s="124"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="31"/>
-      <c r="B60" s="135"/>
+      <c r="B60" s="124"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B61" s="135"/>
+      <c r="B61" s="124"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B62" s="135"/>
+      <c r="B62" s="124"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B63" s="135"/>
+      <c r="B63" s="124"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A64" s="125"/>
-      <c r="B64" s="143"/>
-      <c r="Q64" s="124"/>
-      <c r="R64" s="159"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="132"/>
+      <c r="Q64" s="114"/>
+      <c r="R64" s="148"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="135"/>
+      <c r="B65" s="124"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="135"/>
+      <c r="B66" s="124"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="135"/>
+      <c r="B67" s="124"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="135"/>
+      <c r="B68" s="124"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="135"/>
+      <c r="B69" s="124"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="135"/>
+      <c r="B70" s="124"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="135"/>
+      <c r="B71" s="124"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="135"/>
+      <c r="B72" s="124"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07642A34-1EF4-EA49-9B5C-4A75D2884454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5E4BB9-6DEA-194B-A4E0-59CE08F5A15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
@@ -2276,10 +2276,10 @@
   <dimension ref="A1:CR80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X26" sqref="X26"/>
+      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5E4BB9-6DEA-194B-A4E0-59CE08F5A15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC957F9-B29E-475E-ACA1-1D1FB178345B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -569,7 +559,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="#\x"/>
     <numFmt numFmtId="168" formatCode="0.0\x"/>
-    <numFmt numFmtId="172" formatCode="0.000\x"/>
+    <numFmt numFmtId="169" formatCode="0.000\x"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1065,62 +1055,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,7 +1082,7 @@
     <xf numFmtId="1" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1165,7 +1104,7 @@
     <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1183,11 +1122,62 @@
     <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1378,7 +1368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1666,7 +1656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1676,63 +1666,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B5" s="96" t="s">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="H5" s="96" t="s">
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="H5" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98"/>
-      <c r="O5" s="96" t="s">
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="145"/>
+      <c r="O5" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="98"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="145"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>2.3849999999999998</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="101" t="s">
+      <c r="H6" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
       <c r="L6" s="58" t="s">
         <v>104</v>
       </c>
@@ -1748,7 +1738,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1760,12 +1750,12 @@
         <f>$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H7" s="103" t="s">
+      <c r="H7" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="157"/>
       <c r="L7" s="59">
         <v>45</v>
       </c>
@@ -1777,21 +1767,21 @@
       <c r="T7" s="6"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>407.71404710999997</v>
+        <v>404.29506139000006</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="105" t="s">
+      <c r="H8" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1803,7 +1793,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1815,12 +1805,12 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1832,7 +1822,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1844,12 +1834,12 @@
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -1861,7 +1851,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1873,12 +1863,12 @@
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H11" s="105" t="s">
+      <c r="H11" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -1890,21 +1880,21 @@
       <c r="T11" s="6"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>351.64804710999999</v>
+        <v>348.22906139000008</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="106" t="s">
+      <c r="H12" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -1916,7 +1906,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
@@ -1928,7 +1918,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="O14" s="18"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -1937,42 +1927,42 @@
       <c r="T14" s="8"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B15" s="96" t="s">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="95"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="D16" s="153"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="H17" s="96" t="s">
+      <c r="D17" s="153"/>
+      <c r="H17" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="145"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="153"/>
       <c r="H18" s="82" t="s">
         <v>121</v>
       </c>
@@ -1981,10 +1971,10 @@
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
       <c r="H19" s="86" t="s">
         <v>122</v>
       </c>
@@ -1993,7 +1983,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H20" s="86"/>
       <c r="I20" s="83"/>
       <c r="J20" s="83"/>
@@ -2003,7 +1993,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H21" s="82" t="s">
         <v>123</v>
       </c>
@@ -2015,12 +2005,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B22" s="96" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
       <c r="H22" s="86" t="s">
         <v>124</v>
       </c>
@@ -2029,14 +2019,14 @@
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="95"/>
+      <c r="D23" s="153"/>
       <c r="H23" s="87" t="s">
         <v>130</v>
       </c>
@@ -2045,83 +2035,83 @@
       <c r="K23" s="6"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="95"/>
+      <c r="D24" s="153"/>
       <c r="H24" s="82"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="152">
         <v>64</v>
       </c>
-      <c r="D25" s="95"/>
+      <c r="D25" s="153"/>
       <c r="H25" s="82"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="95"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="153"/>
       <c r="H26" s="84"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="94">
+      <c r="C27" s="152">
         <v>2016</v>
       </c>
-      <c r="D27" s="95"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="D27" s="153"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
         <v>141</v>
       </c>
       <c r="C28" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="116">
+      <c r="D28" s="99">
         <v>44911</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="110"/>
-      <c r="H29" s="96" t="s">
+      <c r="D29" s="149"/>
+      <c r="H29" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="98"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="145"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="82" t="s">
         <v>121</v>
       </c>
@@ -2130,7 +2120,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H31" s="86" t="s">
         <v>125</v>
       </c>
@@ -2139,12 +2129,12 @@
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B32" s="96" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="143" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
       <c r="H32" s="86" t="s">
         <v>126</v>
       </c>
@@ -2153,30 +2143,30 @@
       <c r="K32" s="6"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="107">
+      <c r="C33" s="146">
         <f>C6/'Financial Model'!L61</f>
-        <v>3.0836452659224229</v>
-      </c>
-      <c r="D33" s="108"/>
+        <v>3.0577866054115437</v>
+      </c>
+      <c r="D33" s="147"/>
       <c r="H33" s="86"/>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="107">
+      <c r="C34" s="146">
         <f>C8/'Financial Model'!U3</f>
-        <v>5.6723065069979679</v>
-      </c>
-      <c r="D34" s="108"/>
+        <v>5.6247399954088877</v>
+      </c>
+      <c r="D34" s="147"/>
       <c r="H34" s="82" t="s">
         <v>123</v>
       </c>
@@ -2185,15 +2175,15 @@
       <c r="K34" s="6"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="107">
+      <c r="C35" s="146">
         <f>C6/('Financial Model'!U13*100)</f>
-        <v>2.2719304486979093</v>
-      </c>
-      <c r="D35" s="108"/>
+        <v>2.2528786210358729</v>
+      </c>
+      <c r="D35" s="147"/>
       <c r="H35" s="86" t="s">
         <v>129</v>
       </c>
@@ -2202,7 +2192,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
       <c r="C36" s="90"/>
       <c r="D36" s="91"/>
@@ -2212,7 +2202,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="17"/>
       <c r="C37" s="90"/>
       <c r="D37" s="91"/>
@@ -2222,7 +2212,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H38" s="84"/>
       <c r="I38" s="85"/>
       <c r="J38" s="85"/>
@@ -2231,12 +2221,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2251,14 +2243,12 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2275,35 +2265,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
   <dimension ref="A1:CR80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
+      <selection pane="bottomRight" activeCell="V74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="1"/>
-    <col min="5" max="5" width="9.1640625" style="25"/>
-    <col min="6" max="6" width="9.1640625" style="1"/>
-    <col min="7" max="7" width="9.1640625" style="25"/>
-    <col min="8" max="8" width="9.1640625" style="1"/>
-    <col min="9" max="9" width="9.1640625" style="25"/>
-    <col min="10" max="10" width="9.1640625" style="1"/>
-    <col min="11" max="11" width="9.1640625" style="25"/>
-    <col min="12" max="12" width="9.1640625" style="1"/>
-    <col min="13" max="13" width="9.1640625" style="25"/>
-    <col min="14" max="22" width="9.1640625" style="1"/>
-    <col min="23" max="23" width="9.1640625" style="79"/>
-    <col min="24" max="39" width="9.1640625" style="1"/>
-    <col min="40" max="40" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="25"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="25"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="25"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="25"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="25"/>
+    <col min="14" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="79"/>
+    <col min="24" max="39" width="9.140625" style="1"/>
+    <col min="40" max="40" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="10" t="s">
         <v>115</v>
       </c>
@@ -2355,7 +2345,7 @@
       <c r="V1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="149" t="s">
+      <c r="W1" s="132" t="s">
         <v>24</v>
       </c>
       <c r="X1" s="10" t="s">
@@ -2404,7 +2394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:96" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="19"/>
       <c r="E2" s="35"/>
@@ -2453,7 +2443,7 @@
       <c r="V2" s="22">
         <v>44834</v>
       </c>
-      <c r="W2" s="150" t="s">
+      <c r="W2" s="133" t="s">
         <v>68</v>
       </c>
       <c r="X2" s="21" t="s">
@@ -2502,7 +2492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2512,7 +2502,7 @@
         <v>66.989999999999995</v>
       </c>
       <c r="G3" s="30">
-        <f>S3-F3</f>
+        <f t="shared" ref="G3:G12" si="0">S3-F3</f>
         <v>62.904000000000011</v>
       </c>
       <c r="H3" s="36">
@@ -2557,7 +2547,7 @@
       <c r="V3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="W3" s="151">
+      <c r="W3" s="134">
         <f>V3*(1+W21)</f>
         <v>213.11510000000004</v>
       </c>
@@ -2566,63 +2556,63 @@
         <v>245.08236500000004</v>
       </c>
       <c r="Y3" s="36">
-        <f t="shared" ref="Y3:AL3" si="0">X3*(1+Y21)</f>
+        <f t="shared" ref="Y3:AL3" si="1">X3*(1+Y21)</f>
         <v>294.09883800000006</v>
       </c>
       <c r="Z3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>352.91860560000003</v>
       </c>
       <c r="AA3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>405.85639644000003</v>
       </c>
       <c r="AB3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>446.44203608400005</v>
       </c>
       <c r="AC3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>491.08623969240011</v>
       </c>
       <c r="AD3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>530.37313886779214</v>
       </c>
       <c r="AE3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>556.89179581118174</v>
       </c>
       <c r="AF3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>584.73638560174084</v>
       </c>
       <c r="AG3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>596.43111331377565</v>
       </c>
       <c r="AH3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>608.35973558005117</v>
       </c>
       <c r="AI3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>620.52693029165221</v>
       </c>
       <c r="AJ3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>632.93746889748525</v>
       </c>
       <c r="AK3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>645.59621827543492</v>
       </c>
       <c r="AL3" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>658.50814264094367</v>
       </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -2632,7 +2622,7 @@
         <v>9.4740000000000002</v>
       </c>
       <c r="G4" s="31">
-        <f>S4-F4</f>
+        <f t="shared" si="0"/>
         <v>9.0680000000000014</v>
       </c>
       <c r="H4" s="27">
@@ -2677,72 +2667,72 @@
       <c r="V4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="W4" s="152">
+      <c r="W4" s="135">
         <f>W3*0.14</f>
         <v>29.836114000000009</v>
       </c>
       <c r="X4" s="27">
-        <f t="shared" ref="X4:AL4" si="1">X3*0.14</f>
+        <f t="shared" ref="X4:AL4" si="2">X3*0.14</f>
         <v>34.31153110000001</v>
       </c>
       <c r="Y4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.173837320000011</v>
       </c>
       <c r="Z4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.408604784000012</v>
       </c>
       <c r="AA4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.819895501600008</v>
       </c>
       <c r="AB4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62.501885051760013</v>
       </c>
       <c r="AC4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.752073556936026</v>
       </c>
       <c r="AD4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.2522394414909</v>
       </c>
       <c r="AE4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.964851413565455</v>
       </c>
       <c r="AF4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81.863093984243719</v>
       </c>
       <c r="AG4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.500355863928604</v>
       </c>
       <c r="AH4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85.170362981207177</v>
       </c>
       <c r="AI4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86.87377024083132</v>
       </c>
       <c r="AJ4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.611245645647941</v>
       </c>
       <c r="AK4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.383470558560902</v>
       </c>
       <c r="AL4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92.19113996973212</v>
       </c>
     </row>
-    <row r="5" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>35</v>
@@ -2753,127 +2743,127 @@
         <v>57.515999999999991</v>
       </c>
       <c r="G5" s="30">
-        <f>S5-F5</f>
+        <f t="shared" si="0"/>
         <v>53.836000000000013</v>
       </c>
       <c r="H5" s="36">
-        <f t="shared" ref="H5:M5" si="2">H3-H4</f>
+        <f t="shared" ref="H5:M5" si="3">H3-H4</f>
         <v>59.254000000000005</v>
       </c>
       <c r="I5" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6759999999999966</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.2409999999999997</v>
       </c>
       <c r="K5" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.38</v>
       </c>
       <c r="L5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86.531999999999996</v>
       </c>
       <c r="M5" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77.817000000000007</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" ref="P5:V5" si="3">P3-P4</f>
+        <f t="shared" ref="P5:V5" si="4">P3-P4</f>
         <v>89.426999999999992</v>
       </c>
       <c r="Q5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.619</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103.8</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111.352</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67.930000000000007</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61.621000000000002</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>164.34900000000002</v>
       </c>
-      <c r="W5" s="151">
+      <c r="W5" s="134">
         <f>W3-W4</f>
         <v>183.27898600000003</v>
       </c>
       <c r="X5" s="12">
-        <f t="shared" ref="X5:AL5" si="4">X3-X4</f>
+        <f t="shared" ref="X5:AL5" si="5">X3-X4</f>
         <v>210.77083390000001</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>252.92500068000004</v>
       </c>
       <c r="Z5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>303.510000816</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>349.03650093840002</v>
       </c>
       <c r="AB5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>383.94015103224001</v>
       </c>
       <c r="AC5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>422.3341661354641</v>
       </c>
       <c r="AD5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>456.12089942630121</v>
       </c>
       <c r="AE5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>478.9269443976163</v>
       </c>
       <c r="AF5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>502.8732916174971</v>
       </c>
       <c r="AG5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>512.93075744984708</v>
       </c>
       <c r="AH5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>523.18937259884399</v>
       </c>
       <c r="AI5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>533.65316005082093</v>
       </c>
       <c r="AJ5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>544.32622325183729</v>
       </c>
       <c r="AK5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>555.21274771687399</v>
       </c>
       <c r="AL5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>566.31700267121153</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -2883,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="31">
-        <f>S6-F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="27">
@@ -2928,7 +2918,7 @@
       <c r="V6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="W6" s="152">
+      <c r="W6" s="135">
         <f>AVERAGE(T6:V6)</f>
         <v>0.95100000000000007</v>
       </c>
@@ -2937,63 +2927,63 @@
         <v>0.65987499999999999</v>
       </c>
       <c r="Y6" s="14">
-        <f t="shared" ref="Y6:AL6" si="5">AVERAGE(Q6:X6)</f>
+        <f t="shared" ref="Y6:AL6" si="6">AVERAGE(Q6:X6)</f>
         <v>0.56798437499999999</v>
       </c>
       <c r="Z6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.62898242187499998</v>
       </c>
       <c r="AA6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.70760522460937492</v>
       </c>
       <c r="AB6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79605587768554675</v>
       </c>
       <c r="AC6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.89556286239624006</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65575822019577013</v>
       </c>
       <c r="AE6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.73285299772024137</v>
       </c>
       <c r="AF6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.70558462243527176</v>
       </c>
       <c r="AG6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71129832523968051</v>
       </c>
       <c r="AH6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.7292125690196406</v>
       </c>
       <c r="AI6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.74174133741272075</v>
       </c>
       <c r="AJ6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.74600835151313905</v>
       </c>
       <c r="AK6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.73975241074158815</v>
       </c>
       <c r="AL6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72027610428475664</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
@@ -3002,7 +2992,7 @@
         <v>40.753</v>
       </c>
       <c r="G7" s="31">
-        <f>S7-F7</f>
+        <f t="shared" si="0"/>
         <v>42.155000000000001</v>
       </c>
       <c r="H7" s="27">
@@ -3047,7 +3037,7 @@
       <c r="V7" s="14">
         <v>108.93899999999999</v>
       </c>
-      <c r="W7" s="152">
+      <c r="W7" s="135">
         <f>W5*0.65</f>
         <v>119.13134090000003</v>
       </c>
@@ -3056,63 +3046,63 @@
         <v>137.00104203500001</v>
       </c>
       <c r="Y7" s="27">
-        <f t="shared" ref="Y7:AL7" si="6">Y5*0.65</f>
+        <f t="shared" ref="Y7:AL7" si="7">Y5*0.65</f>
         <v>164.40125044200002</v>
       </c>
       <c r="Z7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>197.2815005304</v>
       </c>
       <c r="AA7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>226.87372560996002</v>
       </c>
       <c r="AB7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>249.561098170956</v>
       </c>
       <c r="AC7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>274.51720798805167</v>
       </c>
       <c r="AD7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>296.47858462709581</v>
       </c>
       <c r="AE7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>311.3025138584506</v>
       </c>
       <c r="AF7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>326.86763955137314</v>
       </c>
       <c r="AG7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>333.40499234240059</v>
       </c>
       <c r="AH7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>340.0730921892486</v>
       </c>
       <c r="AI7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>346.87455403303363</v>
       </c>
       <c r="AJ7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>353.81204511369424</v>
       </c>
       <c r="AK7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>360.88828601596811</v>
       </c>
       <c r="AL7" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>368.1060517362875</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
@@ -3122,127 +3112,127 @@
         <v>16.762999999999991</v>
       </c>
       <c r="G8" s="30">
-        <f>S8-F8</f>
+        <f t="shared" si="0"/>
         <v>11.681000000000012</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" ref="H8:M8" si="7">H5+H6-H7</f>
+        <f t="shared" ref="H8:M8" si="8">H5+H6-H7</f>
         <v>19.176000000000002</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-9.3150000000000031</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10.022</v>
       </c>
       <c r="K8" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.602000000000004</v>
       </c>
       <c r="L8" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.616</v>
       </c>
       <c r="M8" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.833000000000013</v>
       </c>
       <c r="P8" s="12">
-        <f t="shared" ref="P8:W8" si="8">P5+P6-P7</f>
+        <f t="shared" ref="P8:W8" si="9">P5+P6-P7</f>
         <v>14.377999999999986</v>
       </c>
       <c r="Q8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.200999999999993</v>
       </c>
       <c r="R8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.891999999999996</v>
       </c>
       <c r="S8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.444000000000003</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.8610000000000042</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.5800000000000054</v>
       </c>
       <c r="V8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55.449000000000012</v>
       </c>
       <c r="W8" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65.098645099999999</v>
       </c>
       <c r="X8" s="12">
-        <f t="shared" ref="X8:AL8" si="9">X5+X6-X7</f>
+        <f t="shared" ref="X8:AL8" si="10">X5+X6-X7</f>
         <v>74.429666865000002</v>
       </c>
       <c r="Y8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>89.091734613000028</v>
       </c>
       <c r="Z8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>106.85748270747499</v>
       </c>
       <c r="AA8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>122.87038055304939</v>
       </c>
       <c r="AB8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>135.17510873896956</v>
       </c>
       <c r="AC8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>148.71252100980865</v>
       </c>
       <c r="AD8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>160.29807301940116</v>
       </c>
       <c r="AE8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>168.35728353688592</v>
       </c>
       <c r="AF8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>176.71123668855921</v>
       </c>
       <c r="AG8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>180.23706343268617</v>
       </c>
       <c r="AH8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>183.84549297861503</v>
       </c>
       <c r="AI8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>187.52034735519999</v>
       </c>
       <c r="AJ8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>191.26018648965623</v>
       </c>
       <c r="AK8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>195.06421411164752</v>
       </c>
       <c r="AL8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>198.93122703920875</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3252,7 +3242,7 @@
         <v>0.378</v>
       </c>
       <c r="G9" s="31">
-        <f>S9-F9</f>
+        <f t="shared" si="0"/>
         <v>0.47799999999999987</v>
       </c>
       <c r="H9" s="27">
@@ -3304,7 +3294,7 @@
         <f>-0.012+8.796</f>
         <v>8.7839999999999989</v>
       </c>
-      <c r="W9" s="152">
+      <c r="W9" s="135">
         <f>AVERAGE(T9:V9)</f>
         <v>8.8556666666666661</v>
       </c>
@@ -3354,7 +3344,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3364,127 +3354,127 @@
         <v>16.384999999999991</v>
       </c>
       <c r="G10" s="31">
-        <f>S10-F10</f>
+        <f t="shared" si="0"/>
         <v>11.20300000000001</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" ref="H10:M10" si="10">H8-H9</f>
+        <f t="shared" ref="H10:M10" si="11">H8-H9</f>
         <v>14.468000000000004</v>
       </c>
       <c r="I10" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-13.272000000000006</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-14.489000000000001</v>
       </c>
       <c r="K10" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.951000000000004</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33.436999999999998</v>
       </c>
       <c r="M10" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.228000000000014</v>
       </c>
       <c r="P10" s="14">
-        <f t="shared" ref="P10:W10" si="11">P8-P9</f>
+        <f t="shared" ref="P10:W10" si="12">P8-P9</f>
         <v>2.5739999999999874</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20.999999999999993</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23.933999999999997</v>
       </c>
       <c r="S10" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27.588000000000001</v>
       </c>
       <c r="T10" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1960000000000033</v>
       </c>
       <c r="U10" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.46200000000000507</v>
       </c>
       <c r="V10" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.665000000000013</v>
       </c>
       <c r="W10" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56.242978433333334</v>
       </c>
       <c r="X10" s="14">
-        <f t="shared" ref="X10:AL10" si="12">X8-X9</f>
+        <f t="shared" ref="X10:AL10" si="13">X8-X9</f>
         <v>71.529666864999996</v>
       </c>
       <c r="Y10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>85.191734613000023</v>
       </c>
       <c r="Z10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>101.95748270747498</v>
       </c>
       <c r="AA10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>116.97038055304938</v>
       </c>
       <c r="AB10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>128.27510873896955</v>
       </c>
       <c r="AC10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>140.81252100980865</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>151.39807301940115</v>
       </c>
       <c r="AE10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>158.45728353688591</v>
       </c>
       <c r="AF10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>165.81123668855921</v>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>168.33706343268616</v>
       </c>
       <c r="AH10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>170.94549297861502</v>
       </c>
       <c r="AI10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>173.62034735519998</v>
       </c>
       <c r="AJ10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>176.36018648965623</v>
       </c>
       <c r="AK10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>179.16421411164751</v>
       </c>
       <c r="AL10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>182.03122703920874</v>
       </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -3493,7 +3483,7 @@
         <v>3.01</v>
       </c>
       <c r="G11" s="31">
-        <f>S11-F11</f>
+        <f t="shared" si="0"/>
         <v>2.2930000000000001</v>
       </c>
       <c r="H11" s="27">
@@ -3538,7 +3528,7 @@
       <c r="V11" s="14">
         <v>9.2140000000000004</v>
       </c>
-      <c r="W11" s="152">
+      <c r="W11" s="135">
         <f>W10-W12</f>
         <v>11.248595686666661</v>
       </c>
@@ -3547,63 +3537,63 @@
         <v>14.305933372999997</v>
       </c>
       <c r="Y11" s="27">
-        <f t="shared" ref="Y11:AL11" si="13">Y10*(1-(1-Y19))</f>
+        <f t="shared" ref="Y11:AL11" si="14">Y10*(1-(1-Y19))</f>
         <v>17.038346922600002</v>
       </c>
       <c r="Z11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.391496541494991</v>
       </c>
       <c r="AA11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.39407611060987</v>
       </c>
       <c r="AB11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25.655021747793903</v>
       </c>
       <c r="AC11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.162504201961724</v>
       </c>
       <c r="AD11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30.279614603880223</v>
       </c>
       <c r="AE11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31.691456707377174</v>
       </c>
       <c r="AF11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33.162247337711833</v>
       </c>
       <c r="AG11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33.667412686537226</v>
       </c>
       <c r="AH11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>34.189098595722996</v>
       </c>
       <c r="AI11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>34.724069471039989</v>
       </c>
       <c r="AJ11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>35.272037297931234</v>
       </c>
       <c r="AK11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>35.832842822329496</v>
       </c>
       <c r="AL11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>36.406245407841737</v>
       </c>
     </row>
-    <row r="12" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3613,492 +3603,492 @@
         <v>13.374999999999991</v>
       </c>
       <c r="G12" s="30">
-        <f>S12-F12</f>
+        <f t="shared" si="0"/>
         <v>8.910000000000009</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" ref="H12:M12" si="14">H10-H11</f>
+        <f t="shared" ref="H12:M12" si="15">H10-H11</f>
         <v>11.520000000000003</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-10.135000000000005</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-11.633000000000001</v>
       </c>
       <c r="K12" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.361000000000004</v>
       </c>
       <c r="L12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.024999999999999</v>
       </c>
       <c r="M12" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.426000000000013</v>
       </c>
       <c r="O12" s="88"/>
       <c r="P12" s="12">
-        <f t="shared" ref="P12:V12" si="15">P10-P11</f>
+        <f t="shared" ref="P12:V12" si="16">P10-P11</f>
         <v>1.1869999999999874</v>
       </c>
       <c r="Q12" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.151999999999994</v>
       </c>
       <c r="R12" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.783999999999999</v>
       </c>
       <c r="S12" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22.285</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3850000000000033</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7280000000000051</v>
       </c>
       <c r="V12" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.451000000000015</v>
       </c>
-      <c r="W12" s="151">
+      <c r="W12" s="134">
         <f>W10*(1-W19)</f>
         <v>44.994382746666673</v>
       </c>
       <c r="X12" s="12">
-        <f t="shared" ref="X12:AL12" si="16">X10-X11</f>
+        <f t="shared" ref="X12:AL12" si="17">X10-X11</f>
         <v>57.223733492000001</v>
       </c>
       <c r="Y12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>68.153387690400024</v>
       </c>
       <c r="Z12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>81.565986165979993</v>
       </c>
       <c r="AA12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>93.576304442439508</v>
       </c>
       <c r="AB12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>102.62008699117564</v>
       </c>
       <c r="AC12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>112.65001680784692</v>
       </c>
       <c r="AD12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>121.11845841552093</v>
       </c>
       <c r="AE12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>126.76582682950874</v>
       </c>
       <c r="AF12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>132.64898935084739</v>
       </c>
       <c r="AG12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>134.66965074614893</v>
       </c>
       <c r="AH12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>136.75639438289204</v>
       </c>
       <c r="AI12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>138.89627788415999</v>
       </c>
       <c r="AJ12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>141.08814919172499</v>
       </c>
       <c r="AK12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>143.33137128931801</v>
       </c>
       <c r="AL12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>145.62498163136701</v>
       </c>
       <c r="AM12" s="12">
-        <f t="shared" ref="AM12:BR12" si="17">AL12*(1+$AO$15)</f>
+        <f t="shared" ref="AM12:BR12" si="18">AL12*(1+$AO$15)</f>
         <v>142.71248199873966</v>
       </c>
       <c r="AN12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>139.85823235876487</v>
       </c>
       <c r="AO12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>137.06106771158957</v>
       </c>
       <c r="AP12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>134.31984635735779</v>
       </c>
       <c r="AQ12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>131.63344943021062</v>
       </c>
       <c r="AR12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>129.00078044160639</v>
       </c>
       <c r="AS12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>126.42076483277427</v>
       </c>
       <c r="AT12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>123.89234953611879</v>
       </c>
       <c r="AU12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>121.4145025453964</v>
       </c>
       <c r="AV12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>118.98621249448847</v>
       </c>
       <c r="AW12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>116.60648824459869</v>
       </c>
       <c r="AX12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>114.27435847970672</v>
       </c>
       <c r="AY12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>111.98887131011259</v>
       </c>
       <c r="AZ12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>109.74909388391033</v>
       </c>
       <c r="BA12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>107.55411200623213</v>
       </c>
       <c r="BB12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>105.40302976610748</v>
       </c>
       <c r="BC12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>103.29496917078532</v>
       </c>
       <c r="BD12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>101.22906978736961</v>
       </c>
       <c r="BE12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>99.20448839162222</v>
       </c>
       <c r="BF12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>97.220398623789777</v>
       </c>
       <c r="BG12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>95.275990651313975</v>
       </c>
       <c r="BH12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93.370470838287687</v>
       </c>
       <c r="BI12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>91.503061421521934</v>
       </c>
       <c r="BJ12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>89.673000193091497</v>
       </c>
       <c r="BK12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>87.879540189229658</v>
       </c>
       <c r="BL12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>86.121949385445063</v>
       </c>
       <c r="BM12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>84.399510397736165</v>
       </c>
       <c r="BN12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>82.711520189781439</v>
       </c>
       <c r="BO12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>81.057289785985802</v>
       </c>
       <c r="BP12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>79.436143990266089</v>
       </c>
       <c r="BQ12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>77.847421110460772</v>
       </c>
       <c r="BR12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>76.290472688251555</v>
       </c>
       <c r="BS12" s="12">
-        <f t="shared" ref="BS12:CR12" si="18">BR12*(1+$AO$15)</f>
+        <f t="shared" ref="BS12:CR12" si="19">BR12*(1+$AO$15)</f>
         <v>74.76466323448652</v>
       </c>
       <c r="BT12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>73.269369969796784</v>
       </c>
       <c r="BU12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>71.803982570400848</v>
       </c>
       <c r="BV12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>70.367902918992826</v>
       </c>
       <c r="BW12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>68.96054486061297</v>
       </c>
       <c r="BX12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>67.581333963400709</v>
       </c>
       <c r="BY12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>66.229707284132701</v>
       </c>
       <c r="BZ12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>64.905113138450048</v>
       </c>
       <c r="CA12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>63.607010875681048</v>
       </c>
       <c r="CB12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>62.334870658167425</v>
       </c>
       <c r="CC12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>61.088173245004079</v>
       </c>
       <c r="CD12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>59.866409780103993</v>
       </c>
       <c r="CE12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>58.66908158450191</v>
       </c>
       <c r="CF12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>57.495699952811869</v>
       </c>
       <c r="CG12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>56.34578595375563</v>
       </c>
       <c r="CH12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>55.218870234680516</v>
       </c>
       <c r="CI12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>54.114492829986908</v>
       </c>
       <c r="CJ12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>53.032202973387172</v>
       </c>
       <c r="CK12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>51.971558913919431</v>
       </c>
       <c r="CL12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>50.932127735641039</v>
       </c>
       <c r="CM12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>49.91348518092822</v>
       </c>
       <c r="CN12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>48.915215477309651</v>
       </c>
       <c r="CO12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>47.936911167763455</v>
       </c>
       <c r="CP12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>46.978172944408186</v>
       </c>
       <c r="CQ12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>46.03860948552002</v>
       </c>
       <c r="CR12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45.117837295809622</v>
       </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="26">
-        <f t="shared" ref="F13:M13" si="19">F12/F14</f>
+        <f t="shared" ref="F13:M13" si="20">F12/F14</f>
         <v>8.8853291768992385E-2</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.9400000000000057E-2</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.6442866571663867E-2</v>
       </c>
       <c r="I13" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-6.6068394484364051E-2</v>
       </c>
       <c r="J13" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-7.3358228129837819E-2</v>
       </c>
       <c r="K13" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.116869753753031E-2</v>
       </c>
       <c r="L13" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.15819934224664817</v>
       </c>
       <c r="M13" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.0988847885565384E-2</v>
       </c>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26">
-        <f t="shared" ref="P13:AL13" si="20">P12/P14</f>
+        <f t="shared" ref="P13:AL13" si="21">P12/P14</f>
         <v>1.1214705682000902E-2</v>
       </c>
       <c r="Q13" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.12101333333333329</v>
       </c>
       <c r="R13" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.12522666666666665</v>
       </c>
       <c r="S13" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.14856666666666668</v>
       </c>
       <c r="T13" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.0285867154261852E-3</v>
       </c>
       <c r="U13" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0497680513797826E-2</v>
       </c>
       <c r="V13" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.21907666815291649</v>
       </c>
       <c r="W13" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.26320310426255111</v>
       </c>
       <c r="X13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.33474099150083608</v>
       </c>
       <c r="Y13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.39867605934546008</v>
       </c>
       <c r="Z13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.47713557672291179</v>
       </c>
       <c r="AA13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.54739219233965974</v>
       </c>
       <c r="AB13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.60029549928143977</v>
       </c>
       <c r="AC13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.65896746013813079</v>
       </c>
       <c r="AD13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.70850520203705869</v>
       </c>
       <c r="AE13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.74154054571195305</v>
       </c>
       <c r="AF13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.77595521136512602</v>
       </c>
       <c r="AG13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.78777545023586082</v>
       </c>
       <c r="AH13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.79998224960642439</v>
       </c>
       <c r="AI13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.81249990060888577</v>
       </c>
       <c r="AJ13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.82532166406196628</v>
       </c>
       <c r="AK13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.8384438136191924</v>
       </c>
       <c r="AL13" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.85186071868920821</v>
       </c>
     </row>
-    <row r="14" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4152,7 +4142,7 @@
       <c r="V14" s="27">
         <v>170.949286</v>
       </c>
-      <c r="W14" s="153">
+      <c r="W14" s="136">
         <f>V14</f>
         <v>170.949286</v>
       </c>
@@ -4161,63 +4151,63 @@
         <v>170.949286</v>
       </c>
       <c r="Y14" s="27">
-        <f t="shared" ref="Y14:AL14" si="21">X14</f>
+        <f t="shared" ref="Y14:AL14" si="22">X14</f>
         <v>170.949286</v>
       </c>
       <c r="Z14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AA14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AB14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AC14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AD14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AE14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AF14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AG14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AH14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AI14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AJ14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AK14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
       <c r="AL14" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
     </row>
-    <row r="15" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AN15" s="45" t="s">
         <v>88</v>
       </c>
@@ -4225,57 +4215,57 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="23">
-        <f t="shared" ref="F16:L16" si="22">F5/F3</f>
+        <f t="shared" ref="F16:L16" si="23">F5/F3</f>
         <v>0.85857590685176888</v>
       </c>
       <c r="G16" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.8558438255118912</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.85590062111801246</v>
       </c>
       <c r="I16" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.84701747534901894</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.88574714847119718</v>
       </c>
       <c r="K16" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.85246968833916514</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.86382558174358359</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" ref="M16" si="23">M5/M3</f>
+        <f t="shared" ref="M16" si="24">M5/M3</f>
         <v>0.83166253419972636</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" ref="P16:Q16" si="24">P5/P3</f>
+        <f t="shared" ref="P16:Q16" si="25">P5/P3</f>
         <v>0.85328664255794195</v>
       </c>
       <c r="Q16" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.86532184472834472</v>
       </c>
       <c r="R16" s="23">
-        <f t="shared" ref="R16:S16" si="25">R5/R3</f>
+        <f t="shared" ref="R16:S16" si="26">R5/R3</f>
         <v>0.8610677904237316</v>
       </c>
       <c r="S16" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.85725283692857257</v>
       </c>
       <c r="T16" s="23">
@@ -4287,70 +4277,70 @@
         <v>0.85729986922284984</v>
       </c>
       <c r="V16" s="23">
-        <f t="shared" ref="V16" si="26">V5/V3</f>
+        <f t="shared" ref="V16" si="27">V5/V3</f>
         <v>0.84829230777171583</v>
       </c>
-      <c r="W16" s="154">
+      <c r="W16" s="137">
         <v>0.86</v>
       </c>
       <c r="X16" s="23">
-        <f t="shared" ref="X16:AL16" si="27">X5/X3</f>
+        <f t="shared" ref="X16:AL16" si="28">X5/X3</f>
         <v>0.85999999999999988</v>
       </c>
       <c r="Y16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="Z16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AA16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="AB16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AC16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="AD16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="AE16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="AF16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="AG16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="AH16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="AI16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.8600000000000001</v>
       </c>
       <c r="AJ16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="AK16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="AL16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
       <c r="AN16" s="46" t="s">
@@ -4360,57 +4350,57 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="23">
-        <f t="shared" ref="F17:L17" si="28">F8/F3</f>
+        <f t="shared" ref="F17:L17" si="29">F8/F3</f>
         <v>0.25023137781758459</v>
       </c>
       <c r="G17" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.18569566323286293</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.27698974433049256</v>
       </c>
       <c r="I17" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.90940154251684147</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.96060577015240112</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.31901700707950204</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.37551036706497759</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" ref="M17" si="29">M8/M3</f>
+        <f t="shared" ref="M17" si="30">M8/M3</f>
         <v>0.19058866279069778</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" ref="P17:Q17" si="30">P8/P3</f>
+        <f t="shared" ref="P17:Q17" si="31">P8/P3</f>
         <v>0.13719072927301687</v>
       </c>
       <c r="Q17" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.19480029481959843</v>
       </c>
       <c r="R17" s="23">
-        <f t="shared" ref="R17:S17" si="31">R8/R3</f>
+        <f t="shared" ref="R17:S17" si="32">R8/R3</f>
         <v>0.20649036068619966</v>
       </c>
       <c r="S17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.2189785517421898</v>
       </c>
       <c r="T17" s="23">
@@ -4422,71 +4412,71 @@
         <v>0.13328139347227252</v>
       </c>
       <c r="V17" s="23">
-        <f t="shared" ref="V17:AL17" si="32">V8/V3</f>
+        <f t="shared" ref="V17:AL17" si="33">V8/V3</f>
         <v>0.28620168162650139</v>
       </c>
-      <c r="W17" s="154">
+      <c r="W17" s="137">
         <f>W8/W3</f>
         <v>0.30546237737260279</v>
       </c>
       <c r="X17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30369246218511065</v>
       </c>
       <c r="Y17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30293127038128592</v>
       </c>
       <c r="Z17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.3027822308370669</v>
       </c>
       <c r="AA17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30274348668843509</v>
       </c>
       <c r="AB17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30278311138589953</v>
       </c>
       <c r="AC17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30282363664466994</v>
       </c>
       <c r="AD17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30223640918466499</v>
       </c>
       <c r="AE17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30231597018169881</v>
       </c>
       <c r="AF17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30220667131344858</v>
       </c>
       <c r="AG17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30219259091177808</v>
       </c>
       <c r="AH17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30219865357020109</v>
       </c>
       <c r="AI17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30219534109029572</v>
       </c>
       <c r="AJ17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30217864463422056</v>
       </c>
       <c r="AK17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30214584377944109</v>
       </c>
       <c r="AL17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30209379984489798</v>
       </c>
       <c r="AN17" s="46" t="s">
@@ -4497,58 +4487,58 @@
         <v>1553.7941199059314</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="23">
-        <f t="shared" ref="F18:L18" si="33">F12/F3</f>
+        <f t="shared" ref="F18:L18" si="34">F12/F3</f>
         <v>0.19965666517390643</v>
       </c>
       <c r="G18" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.14164441053033205</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.16640184890943235</v>
       </c>
       <c r="I18" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.98945621399980577</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-1.1150196491900701</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.21744649686711701</v>
       </c>
       <c r="L18" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.26978327493436355</v>
       </c>
       <c r="M18" s="34">
-        <f t="shared" ref="M18" si="34">M12/M3</f>
+        <f t="shared" ref="M18" si="35">M12/M3</f>
         <v>0.11142698358413144</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" ref="P18:Q18" si="35">P12/P3</f>
+        <f t="shared" ref="P18:Q18" si="36">P12/P3</f>
         <v>1.1326011659971446E-2</v>
       </c>
       <c r="Q18" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.15927277832373993</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" ref="R18:S18" si="36">R12/R3</f>
+        <f t="shared" ref="R18:S18" si="37">R12/R3</f>
         <v>0.15582174735375118</v>
       </c>
       <c r="S18" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.17156296672671562</v>
       </c>
       <c r="T18" s="23">
@@ -4560,71 +4550,71 @@
         <v>2.4040735691032097E-2</v>
       </c>
       <c r="V18" s="23">
-        <f t="shared" ref="V18:W18" si="37">V12/V3</f>
+        <f t="shared" ref="V18:W18" si="38">V12/V3</f>
         <v>0.19330446317506367</v>
       </c>
       <c r="W18" s="42">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.21112714559722265</v>
       </c>
       <c r="X18" s="23">
-        <f t="shared" ref="X18:AL18" si="38">X12/X3</f>
+        <f t="shared" ref="X18:AL18" si="39">X12/X3</f>
         <v>0.23348776437668206</v>
       </c>
       <c r="Y18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.23173633787155598</v>
       </c>
       <c r="Z18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.23111840767734232</v>
       </c>
       <c r="AA18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.23056506011301317</v>
       </c>
       <c r="AB18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22986206203008003</v>
       </c>
       <c r="AC18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.2293894792865854</v>
       </c>
       <c r="AD18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22836461641718347</v>
       </c>
       <c r="AE18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22763098286420011</v>
       </c>
       <c r="AF18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22685263413929832</v>
       </c>
       <c r="AG18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22579246410859313</v>
       </c>
       <c r="AH18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22479527553298589</v>
       </c>
       <c r="AI18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22383601920206384</v>
       </c>
       <c r="AJ18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22291009163588729</v>
       </c>
       <c r="AK18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22201395738066051</v>
       </c>
       <c r="AL18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22114378274403523</v>
       </c>
       <c r="AN18" s="46" t="s">
@@ -4635,41 +4625,41 @@
         <v>56.066000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="23">
-        <f t="shared" ref="F19:L19" si="39">F11/F10</f>
+        <f t="shared" ref="F19:L19" si="40">F11/F10</f>
         <v>0.1837046078730547</v>
       </c>
       <c r="G19" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.20467731857538143</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.20376002211777711</v>
       </c>
       <c r="I19" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.23636226642555747</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.19711505279867483</v>
       </c>
       <c r="K19" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.10634740151160453</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.19176361515686216</v>
       </c>
       <c r="M19" s="34">
-        <f t="shared" ref="M19" si="40">M11/M10</f>
+        <f t="shared" ref="M19" si="41">M11/M10</f>
         <v>0.21182340489869955</v>
       </c>
       <c r="P19" s="23">
@@ -4677,30 +4667,30 @@
         <v>0.53885003885004146</v>
       </c>
       <c r="Q19" s="23">
-        <f t="shared" ref="Q19:AL19" si="41">Q11/Q10</f>
+        <f t="shared" ref="Q19:U19" si="42">Q11/Q10</f>
         <v>0.13561904761904767</v>
       </c>
       <c r="R19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.21517506476142731</v>
       </c>
       <c r="S19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.1922212556183848</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-0.15802675585284237</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-2.7402597402597104</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" ref="V19" si="42">V11/V10</f>
+        <f t="shared" ref="V19" si="43">V11/V10</f>
         <v>0.19744990892531872</v>
       </c>
-      <c r="W19" s="154">
+      <c r="W19" s="137">
         <v>0.2</v>
       </c>
       <c r="X19" s="23">
@@ -4708,59 +4698,59 @@
         <v>0.2</v>
       </c>
       <c r="Y19" s="23">
-        <f t="shared" ref="Y19:AL19" si="43">X19</f>
+        <f t="shared" ref="Y19:AL19" si="44">X19</f>
         <v>0.2</v>
       </c>
       <c r="Z19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AA19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AB19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AC19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AD19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AE19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AF19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AG19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AH19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AI19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AJ19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AK19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AL19" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
       <c r="AN19" s="46" t="s">
@@ -4771,7 +4761,7 @@
         <v>1609.8601199059315</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AN20" s="47" t="s">
         <v>92</v>
       </c>
@@ -4780,7 +4770,7 @@
         <v>9.417179548242931</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4792,46 +4782,46 @@
         <v>72</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:M21" si="44">H3/F3-1</f>
+        <f t="shared" ref="H21:M21" si="45">H3/F3-1</f>
         <v>3.3437826541274918E-2</v>
       </c>
       <c r="I21" s="34">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-0.8371645682309552</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-0.84929943666040741</v>
       </c>
       <c r="K21" s="34">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.9987308405740531</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8.6015527652640671</v>
       </c>
       <c r="M21" s="34">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5227927414761171</v>
       </c>
       <c r="P21" s="38" t="s">
         <v>72</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" ref="Q21:T21" si="45">Q3/P3-1</f>
+        <f t="shared" ref="Q21:T21" si="46">Q3/P3-1</f>
         <v>8.744978674274595E-2</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>5.7735504703074536E-2</v>
       </c>
       <c r="S21" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>7.7529282941235067E-2</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.38817035428888169</v>
       </c>
       <c r="U21" s="23">
@@ -4839,10 +4829,10 @@
         <v>-9.5567047928227233E-2</v>
       </c>
       <c r="V21" s="23">
-        <f t="shared" ref="V21" si="46">V3/U3-1</f>
+        <f t="shared" ref="V21" si="47">V3/U3-1</f>
         <v>1.6954144522663404</v>
       </c>
-      <c r="W21" s="154">
+      <c r="W21" s="137">
         <v>0.1</v>
       </c>
       <c r="X21" s="23">
@@ -4895,11 +4885,11 @@
       </c>
       <c r="AO21" s="67">
         <f>Main!C6</f>
-        <v>2.3849999999999998</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="AP21" s="49"/>
     </row>
-    <row r="22" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4908,31 +4898,31 @@
         <v>72</v>
       </c>
       <c r="G22" s="34">
-        <f t="shared" ref="G22" si="47">G3/F3-1</f>
+        <f t="shared" ref="G22" si="48">G3/F3-1</f>
         <v>-6.0994178235557306E-2</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:M22" si="48">H3/G3-1</f>
+        <f t="shared" ref="H22:M22" si="49">H3/G3-1</f>
         <v>0.10056594175251155</v>
       </c>
       <c r="I22" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-0.85204391159901782</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1.8549253148492095E-2</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4.8894852870698742</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.63028724875905273</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-6.5935930839647328E-2</v>
       </c>
       <c r="P22" s="38" t="s">
@@ -4956,7 +4946,7 @@
       <c r="V22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="W22" s="155"/>
+      <c r="W22" s="138"/>
       <c r="X22" s="38" t="s">
         <v>72</v>
       </c>
@@ -5007,10 +4997,10 @@
       </c>
       <c r="AO22" s="66">
         <f>AO20/AO21-1</f>
-        <v>2.9485029552381268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.9818941007369681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="34"/>
       <c r="F23" s="38"/>
       <c r="G23" s="34"/>
@@ -5025,7 +5015,7 @@
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="155"/>
+      <c r="W23" s="138"/>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
@@ -5041,7 +5031,7 @@
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
     </row>
-    <row r="24" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
         <v>98</v>
       </c>
@@ -5059,7 +5049,7 @@
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
-      <c r="W24" s="155"/>
+      <c r="W24" s="138"/>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
@@ -5075,7 +5065,7 @@
       <c r="AJ24" s="38"/>
       <c r="AK24" s="38"/>
     </row>
-    <row r="25" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>112</v>
       </c>
@@ -5108,7 +5098,7 @@
         <f>SUM(V26:V28)</f>
         <v>67</v>
       </c>
-      <c r="W25" s="149"/>
+      <c r="W25" s="132"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
@@ -5129,7 +5119,7 @@
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
         <v>99</v>
       </c>
@@ -5153,7 +5143,7 @@
       <c r="V26" s="38">
         <v>59</v>
       </c>
-      <c r="W26" s="155"/>
+      <c r="W26" s="138"/>
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
@@ -5169,7 +5159,7 @@
       <c r="AJ26" s="38"/>
       <c r="AK26" s="38"/>
     </row>
-    <row r="27" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>100</v>
       </c>
@@ -5183,7 +5173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="51" t="s">
         <v>101</v>
       </c>
@@ -5213,7 +5203,7 @@
       <c r="V28" s="52">
         <v>5</v>
       </c>
-      <c r="W28" s="156"/>
+      <c r="W28" s="139"/>
       <c r="X28" s="55"/>
       <c r="Y28" s="55"/>
       <c r="Z28" s="55"/>
@@ -5222,7 +5212,7 @@
       <c r="AC28" s="55"/>
       <c r="AD28" s="55"/>
     </row>
-    <row r="29" spans="1:42" s="72" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:42" s="72" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="73" t="s">
         <v>119</v>
       </c>
@@ -5246,24 +5236,24 @@
         <v>1.9407962962962964</v>
       </c>
       <c r="Q29" s="81">
-        <f t="shared" ref="Q29:V29" si="49">Q3/Q25</f>
+        <f t="shared" ref="Q29:V29" si="50">Q3/Q25</f>
         <v>1.9649655172413794</v>
       </c>
       <c r="R29" s="81"/>
       <c r="S29" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2.1649000000000003</v>
       </c>
       <c r="T29" s="81"/>
       <c r="U29" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1.12309375</v>
       </c>
       <c r="V29" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2.8916567164179106</v>
       </c>
-      <c r="W29" s="157"/>
+      <c r="W29" s="140"/>
       <c r="X29" s="74"/>
       <c r="Y29" s="74"/>
       <c r="Z29" s="74"/>
@@ -5272,7 +5262,7 @@
       <c r="AC29" s="74"/>
       <c r="AD29" s="74"/>
     </row>
-    <row r="30" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="68" t="s">
         <v>117</v>
       </c>
@@ -5300,7 +5290,7 @@
       <c r="T30" s="71"/>
       <c r="U30" s="71"/>
       <c r="V30" s="71"/>
-      <c r="W30" s="158"/>
+      <c r="W30" s="141"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
       <c r="Z30" s="69"/>
@@ -5309,7 +5299,7 @@
       <c r="AC30" s="69"/>
       <c r="AD30" s="69"/>
     </row>
-    <row r="31" spans="1:42" s="76" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:42" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="77" t="s">
         <v>118</v>
       </c>
@@ -5328,12 +5318,12 @@
       </c>
       <c r="W31" s="79"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B34" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
@@ -5350,9 +5340,9 @@
       <c r="V35" s="14">
         <v>68.641000000000005</v>
       </c>
-      <c r="W35" s="152"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W35" s="135"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
@@ -5369,9 +5359,9 @@
       <c r="V36" s="14">
         <v>147.45500000000001</v>
       </c>
-      <c r="W36" s="152"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W36" s="135"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -5388,9 +5378,9 @@
       <c r="V37" s="14">
         <v>81.793999999999997</v>
       </c>
-      <c r="W37" s="152"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W37" s="135"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
@@ -5407,9 +5397,9 @@
       <c r="V38" s="14">
         <v>1.647</v>
       </c>
-      <c r="W38" s="152"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W38" s="135"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
@@ -5430,9 +5420,9 @@
         <f>SUM(V35:V38)</f>
         <v>299.53699999999998</v>
       </c>
-      <c r="W39" s="152"/>
-    </row>
-    <row r="40" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W39" s="135"/>
+    </row>
+    <row r="40" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
@@ -5453,9 +5443,9 @@
       <c r="V40" s="12">
         <v>56.066000000000003</v>
       </c>
-      <c r="W40" s="151"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W40" s="134"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="1" t="s">
         <v>55</v>
@@ -5473,9 +5463,9 @@
       <c r="V41" s="14">
         <v>5.13</v>
       </c>
-      <c r="W41" s="152"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W41" s="135"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
         <v>56</v>
@@ -5493,9 +5483,9 @@
       <c r="V42" s="14">
         <v>0.27100000000000002</v>
       </c>
-      <c r="W42" s="152"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W42" s="135"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="1" t="s">
         <v>57</v>
@@ -5513,9 +5503,9 @@
       <c r="V43" s="14">
         <v>2.1480000000000001</v>
       </c>
-      <c r="W43" s="152"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W43" s="135"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>58</v>
       </c>
@@ -5536,14 +5526,14 @@
         <f>SUM(V40:V43)+V39</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="W44" s="152"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W44" s="135"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="H45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="31"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="1" t="s">
         <v>59</v>
@@ -5561,9 +5551,9 @@
       <c r="V46" s="14">
         <v>28.681000000000001</v>
       </c>
-      <c r="W46" s="152"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W46" s="135"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="1" t="s">
         <v>60</v>
@@ -5581,9 +5571,9 @@
       <c r="V47" s="14">
         <v>11.557</v>
       </c>
-      <c r="W47" s="152"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W47" s="135"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="1" t="s">
         <v>41</v>
@@ -5601,9 +5591,9 @@
       <c r="V48" s="14">
         <v>0</v>
       </c>
-      <c r="W48" s="152"/>
-    </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W48" s="135"/>
+    </row>
+    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
@@ -5624,9 +5614,9 @@
       <c r="V49" s="12">
         <v>0</v>
       </c>
-      <c r="W49" s="151"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W49" s="134"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
         <v>62</v>
@@ -5648,9 +5638,9 @@
         <f>SUM(V46:V49)</f>
         <v>40.238</v>
       </c>
-      <c r="W50" s="152"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W50" s="135"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>63</v>
       </c>
@@ -5667,9 +5657,9 @@
       <c r="V51" s="14">
         <v>3</v>
       </c>
-      <c r="W51" s="152"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W51" s="135"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
@@ -5686,9 +5676,9 @@
       <c r="V52" s="14">
         <v>176.81200000000001</v>
       </c>
-      <c r="W52" s="152"/>
-    </row>
-    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W52" s="135"/>
+    </row>
+    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
@@ -5709,9 +5699,9 @@
       <c r="V53" s="12">
         <v>0</v>
       </c>
-      <c r="W53" s="151"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W53" s="134"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
         <v>64</v>
@@ -5729,9 +5719,9 @@
       <c r="V54" s="14">
         <v>4.6820000000000004</v>
       </c>
-      <c r="W54" s="152"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W54" s="135"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>65</v>
       </c>
@@ -5752,12 +5742,12 @@
         <f>V50+V51+V52+V53+V54</f>
         <v>224.732</v>
       </c>
-      <c r="W55" s="152"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W55" s="135"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>66</v>
       </c>
@@ -5774,9 +5764,9 @@
       <c r="V57" s="14">
         <v>138.41999999999999</v>
       </c>
-      <c r="W57" s="152"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W57" s="135"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>67</v>
       </c>
@@ -5797,9 +5787,9 @@
         <f>V57+V55</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="W58" s="152"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W58" s="135"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>133</v>
       </c>
@@ -5813,16 +5803,16 @@
       </c>
       <c r="M60" s="31"/>
       <c r="U60" s="14">
-        <f t="shared" ref="U60:V60" si="50">U44-U55</f>
+        <f t="shared" ref="U60:V60" si="51">U44-U55</f>
         <v>104.68700000000007</v>
       </c>
       <c r="V60" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>138.41999999999999</v>
       </c>
-      <c r="W60" s="152"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W60" s="135"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="1" t="s">
         <v>134</v>
@@ -5836,59 +5826,59 @@
         <v>0.77343526713555533</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" ref="U61:V61" si="51">U60/U14</f>
+        <f t="shared" ref="U61:V61" si="52">U60/U14</f>
         <v>0.63597840274765649</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.80971382354881549</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H63" s="14">
-        <f t="shared" ref="H63" si="52">H40</f>
+        <f t="shared" ref="H63" si="53">H40</f>
         <v>15.635999999999999</v>
       </c>
       <c r="L63" s="14">
-        <f t="shared" ref="L63" si="53">L40</f>
+        <f t="shared" ref="L63" si="54">L40</f>
         <v>49.576999999999998</v>
       </c>
       <c r="U63" s="14">
-        <f t="shared" ref="U63" si="54">U40</f>
+        <f t="shared" ref="U63" si="55">U40</f>
         <v>29.942</v>
       </c>
       <c r="V63" s="14">
         <f>V40</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="W63" s="152"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W63" s="135"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H64" s="14">
-        <f t="shared" ref="H64" si="55">H49+H53</f>
+        <f t="shared" ref="H64" si="56">H49+H53</f>
         <v>30.073</v>
       </c>
       <c r="L64" s="14">
-        <f t="shared" ref="L64" si="56">L49+L53</f>
+        <f t="shared" ref="L64" si="57">L49+L53</f>
         <v>0</v>
       </c>
       <c r="U64" s="14">
-        <f t="shared" ref="U64" si="57">U49+U53</f>
+        <f t="shared" ref="U64" si="58">U49+U53</f>
         <v>0</v>
       </c>
       <c r="V64" s="14">
         <f>V49+V53</f>
         <v>0</v>
       </c>
-      <c r="W64" s="152"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W64" s="135"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
@@ -5908,9 +5898,9 @@
         <f>V63-V64</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="W65" s="152"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W65" s="135"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>142</v>
       </c>
@@ -5927,29 +5917,29 @@
         <v>1.8740000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="27">
-        <f t="shared" ref="H68" si="58">H67*H14</f>
+        <f t="shared" ref="H68" si="59">H67*H14</f>
         <v>222.55491928799998</v>
       </c>
       <c r="L68" s="27">
-        <f t="shared" ref="L68" si="59">L67*L14</f>
+        <f t="shared" ref="L68" si="60">L67*L14</f>
         <v>408.36618902800001</v>
       </c>
       <c r="U68" s="27">
-        <f t="shared" ref="U68" si="60">U67*U14</f>
+        <f t="shared" ref="U68" si="61">U67*U14</f>
         <v>394.23565944500001</v>
       </c>
       <c r="V68" s="27">
         <f>V67*V14</f>
         <v>320.358961964</v>
       </c>
-      <c r="W68" s="153"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W68" s="136"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
@@ -5969,106 +5959,106 @@
         <f>V68-V65</f>
         <v>264.29296196400003</v>
       </c>
-      <c r="W69" s="153"/>
-    </row>
-    <row r="71" spans="1:23" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="111" t="s">
+      <c r="W69" s="136"/>
+    </row>
+    <row r="71" spans="1:23" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="E71" s="112"/>
-      <c r="G71" s="112"/>
-      <c r="H71" s="111">
+      <c r="E71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="94">
         <f>H67/H61</f>
         <v>2.9348804484709379</v>
       </c>
-      <c r="I71" s="112"/>
-      <c r="K71" s="112"/>
-      <c r="L71" s="111">
+      <c r="I71" s="95"/>
+      <c r="K71" s="95"/>
+      <c r="L71" s="94">
         <f>L67/L61</f>
         <v>3.0907563975629149</v>
       </c>
-      <c r="M71" s="112"/>
-      <c r="U71" s="111">
-        <f t="shared" ref="U71" si="61">U67/U61</f>
+      <c r="M71" s="95"/>
+      <c r="U71" s="94">
+        <f t="shared" ref="U71" si="62">U67/U61</f>
         <v>3.7658511510025101</v>
       </c>
-      <c r="V71" s="111">
+      <c r="V71" s="94">
         <f>V67/V61</f>
         <v>2.3143979335645142</v>
       </c>
-      <c r="W71" s="159"/>
-    </row>
-    <row r="72" spans="1:23" s="114" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="113"/>
-      <c r="B72" s="114" t="s">
+      <c r="W71" s="142"/>
+    </row>
+    <row r="72" spans="1:23" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="96"/>
+      <c r="B72" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="E72" s="115"/>
-      <c r="G72" s="115"/>
-      <c r="I72" s="115"/>
-      <c r="K72" s="115"/>
-      <c r="M72" s="115"/>
-      <c r="U72" s="111">
-        <f t="shared" ref="U72" si="62">U68/U3</f>
+      <c r="E72" s="98"/>
+      <c r="G72" s="98"/>
+      <c r="I72" s="98"/>
+      <c r="K72" s="98"/>
+      <c r="M72" s="98"/>
+      <c r="U72" s="94">
+        <f t="shared" ref="U72" si="63">U68/U3</f>
         <v>5.4847889402181478</v>
       </c>
-      <c r="V72" s="111">
+      <c r="V72" s="94">
         <f>V68/V3</f>
         <v>1.6535424198491799</v>
       </c>
-      <c r="W72" s="159"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W72" s="142"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="U73" s="111">
-        <f t="shared" ref="U73" si="63">U69/U3</f>
+      <c r="U73" s="94">
+        <f t="shared" ref="U73" si="64">U69/U3</f>
         <v>5.0682219795347674</v>
       </c>
-      <c r="V73" s="111">
+      <c r="V73" s="94">
         <f>V69/V3</f>
         <v>1.3641560741608643</v>
       </c>
-      <c r="W73" s="159"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W73" s="142"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="U74" s="111">
-        <f t="shared" ref="U74" si="64">U67/U13</f>
+      <c r="U74" s="94">
+        <f t="shared" ref="U74" si="65">U67/U13</f>
         <v>228.14563625289284</v>
       </c>
-      <c r="V74" s="111">
+      <c r="V74" s="94">
         <f>V67/V13</f>
         <v>8.554082987476967</v>
       </c>
-      <c r="W74" s="159"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W74" s="142"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="U75" s="111">
-        <f t="shared" ref="U75" si="65">U69/U12</f>
+      <c r="U75" s="94">
+        <f t="shared" ref="U75" si="66">U69/U12</f>
         <v>210.81808995659659</v>
       </c>
-      <c r="V75" s="111">
+      <c r="V75" s="94">
         <f>V69/V12</f>
         <v>7.0570335094924017</v>
       </c>
-      <c r="W75" s="159"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W75" s="142"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
     </row>
   </sheetData>
@@ -6099,508 +6089,508 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="25"/>
-    <col min="2" max="2" width="9.1640625" style="133"/>
-    <col min="3" max="17" width="9.1640625" style="1"/>
-    <col min="18" max="18" width="9.1640625" style="133"/>
-    <col min="19" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="9.140625" style="116"/>
+    <col min="3" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="116"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="100" t="s">
         <v>19</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="134" t="s">
+      <c r="R1" s="117" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="35">
         <v>44834</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="101" t="s">
         <v>68</v>
       </c>
       <c r="Q2" s="22">
         <v>44834</v>
       </c>
-      <c r="R2" s="135" t="s">
+      <c r="R2" s="118" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>93.568000000000012</v>
       </c>
-      <c r="B3" s="119">
+      <c r="B3" s="102">
         <v>158.58780000000002</v>
       </c>
       <c r="Q3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="R3" s="136">
+      <c r="R3" s="119">
         <v>258.76080000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>15.750999999999999</v>
       </c>
-      <c r="B4" s="120">
+      <c r="B4" s="103">
         <v>22.585512000000008</v>
       </c>
       <c r="Q4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="R4" s="137">
+      <c r="R4" s="120">
         <v>36.226512000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>77.817000000000007</v>
       </c>
-      <c r="B5" s="121">
+      <c r="B5" s="104">
         <v>136.00228800000002</v>
       </c>
       <c r="Q5" s="12">
         <v>164.34900000000002</v>
       </c>
-      <c r="R5" s="138">
+      <c r="R5" s="121">
         <v>222.534288</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>3.9E-2</v>
       </c>
-      <c r="B6" s="120">
+      <c r="B6" s="103">
         <v>0.4</v>
       </c>
       <c r="Q6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="R6" s="133">
+      <c r="R6" s="116">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>60.022999999999996</v>
       </c>
-      <c r="B7" s="120">
+      <c r="B7" s="103">
         <v>84.6045728</v>
       </c>
       <c r="Q7" s="14">
         <v>108.93899999999999</v>
       </c>
-      <c r="R7" s="137">
+      <c r="R7" s="120">
         <v>133.5205728</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>17.833000000000013</v>
       </c>
-      <c r="B8" s="121">
+      <c r="B8" s="104">
         <v>51.797715200000027</v>
       </c>
       <c r="Q8" s="12">
         <v>55.449000000000012</v>
       </c>
-      <c r="R8" s="138">
+      <c r="R8" s="121">
         <v>89.413715200000013</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>4.6049999999999986</v>
       </c>
-      <c r="B9" s="120">
+      <c r="B9" s="103">
         <v>-1.0790000000000002</v>
       </c>
       <c r="Q9" s="14">
         <v>8.7839999999999989</v>
       </c>
-      <c r="R9" s="137">
+      <c r="R9" s="120">
         <v>3.1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>13.228000000000014</v>
       </c>
-      <c r="B10" s="122">
+      <c r="B10" s="105">
         <v>52.876715200000028</v>
       </c>
       <c r="Q10" s="14">
         <v>46.665000000000013</v>
       </c>
-      <c r="R10" s="139">
+      <c r="R10" s="122">
         <v>86.313715200000019</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>2.8020000000000005</v>
       </c>
-      <c r="B11" s="120">
+      <c r="B11" s="103">
         <v>3.9384320000000015</v>
       </c>
       <c r="Q11" s="14">
         <v>9.2140000000000004</v>
       </c>
-      <c r="R11" s="137">
+      <c r="R11" s="120">
         <v>10.350432000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>10.426000000000013</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="104">
         <v>48.938283200000029</v>
       </c>
       <c r="Q12" s="12">
         <v>37.451000000000015</v>
       </c>
-      <c r="R12" s="138">
+      <c r="R12" s="121">
         <v>75.963283200000021</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
         <v>6.0988847885565384E-2</v>
       </c>
-      <c r="B13" s="123">
+      <c r="B13" s="106">
         <v>0.29730235065240646</v>
       </c>
       <c r="P13" s="23"/>
       <c r="Q13" s="26">
         <v>0.21907666815291649</v>
       </c>
-      <c r="R13" s="140">
+      <c r="R13" s="123">
         <v>0.46148048484533777</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
         <v>170.949286</v>
       </c>
-      <c r="B14" s="120">
+      <c r="B14" s="103">
         <v>164.60779099999999</v>
       </c>
       <c r="Q14" s="27">
         <v>170.949286</v>
       </c>
-      <c r="R14" s="137">
+      <c r="R14" s="120">
         <v>164.60779099999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="124"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="107"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>0.83166253419972636</v>
       </c>
-      <c r="B16" s="125">
+      <c r="B16" s="108">
         <v>0.857583546779765</v>
       </c>
       <c r="Q16" s="23">
         <v>0.84829230777171583</v>
       </c>
-      <c r="R16" s="141">
+      <c r="R16" s="124">
         <v>0.86</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
         <v>0.19058866279069778</v>
       </c>
-      <c r="B17" s="125">
+      <c r="B17" s="108">
         <v>0.32661853686096926</v>
       </c>
       <c r="Q17" s="23">
         <v>0.28620168162650139</v>
       </c>
-      <c r="R17" s="141">
+      <c r="R17" s="124">
         <v>0.34554582919824023</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <v>0.11142698358413144</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="108">
         <v>0.3085879443437643</v>
       </c>
       <c r="Q18" s="23">
         <v>0.19330446317506367</v>
       </c>
-      <c r="R18" s="141">
+      <c r="R18" s="124">
         <v>0.29356565291187853</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <v>0.21182340489869955</v>
       </c>
-      <c r="B19" s="125">
+      <c r="B19" s="108">
         <v>7.4483295437383745E-2</v>
       </c>
       <c r="Q19" s="23">
         <v>0.19744990892531872</v>
       </c>
-      <c r="R19" s="141">
+      <c r="R19" s="124">
         <v>0.11991642320130369</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B20" s="124"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="107"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <v>0.5227927414761171</v>
       </c>
-      <c r="B21" s="125">
+      <c r="B21" s="108">
         <v>1.5809716006184393</v>
       </c>
       <c r="Q21" s="23">
         <v>1.6954144522663404</v>
       </c>
-      <c r="R21" s="141">
+      <c r="R21" s="124">
         <v>2.6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="34">
         <v>-6.5935930839647328E-2</v>
       </c>
-      <c r="B22" s="125">
+      <c r="B22" s="108">
         <v>0.58313916923721965</v>
       </c>
       <c r="Q22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="R22" s="142" t="s">
+      <c r="R22" s="125" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
-      <c r="B23" s="125"/>
+      <c r="B23" s="108"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="142"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R23" s="125"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
-      <c r="B24" s="125"/>
+      <c r="B24" s="108"/>
       <c r="Q24" s="38"/>
-      <c r="R24" s="142"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R24" s="125"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
-      <c r="B25" s="126"/>
+      <c r="B25" s="109"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="134"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R25" s="117"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
-      <c r="B26" s="125"/>
+      <c r="B26" s="108"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="142"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="124"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R26" s="125"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="107"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
-      <c r="B28" s="127"/>
+      <c r="B28" s="110"/>
       <c r="Q28" s="52"/>
-      <c r="R28" s="143"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R28" s="126"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="75"/>
-      <c r="B29" s="128"/>
+      <c r="B29" s="111"/>
       <c r="Q29" s="81"/>
-      <c r="R29" s="144"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R29" s="127"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="70"/>
-      <c r="B30" s="129"/>
+      <c r="B30" s="112"/>
       <c r="Q30" s="71"/>
-      <c r="R30" s="145"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R30" s="128"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="78"/>
-      <c r="B31" s="130"/>
+      <c r="B31" s="113"/>
       <c r="Q31" s="76"/>
-      <c r="R31" s="146"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="124"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B33" s="124"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B34" s="124"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R31" s="129"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="107"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="107"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="107"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
-      <c r="B35" s="124"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B35" s="107"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
-      <c r="B36" s="124"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B36" s="107"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
-      <c r="B37" s="124"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B37" s="107"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
-      <c r="B38" s="124"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B38" s="107"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="124"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B39" s="107"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
-      <c r="B40" s="131"/>
+      <c r="B40" s="114"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="147"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R40" s="130"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
-      <c r="B41" s="124"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B41" s="107"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
-      <c r="B42" s="124"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B42" s="107"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
-      <c r="B43" s="124"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B43" s="107"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
-      <c r="B44" s="124"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B44" s="107"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
-      <c r="B45" s="124"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B45" s="107"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
-      <c r="B46" s="124"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B46" s="107"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
-      <c r="B47" s="124"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B47" s="107"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
-      <c r="B48" s="124"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B48" s="107"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="131"/>
+      <c r="B49" s="114"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="147"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R49" s="130"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
-      <c r="B50" s="124"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B50" s="107"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
-      <c r="B51" s="124"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B51" s="107"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
-      <c r="B52" s="124"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B52" s="107"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
-      <c r="B53" s="131"/>
+      <c r="B53" s="114"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="147"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R53" s="130"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
-      <c r="B54" s="124"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B54" s="107"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
-      <c r="B55" s="124"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B56" s="124"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B55" s="107"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B56" s="107"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
-      <c r="B57" s="124"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B57" s="107"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
-      <c r="B58" s="124"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B59" s="124"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B58" s="107"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B59" s="107"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
-      <c r="B60" s="124"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B61" s="124"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B62" s="124"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B63" s="124"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A64" s="115"/>
-      <c r="B64" s="132"/>
-      <c r="Q64" s="114"/>
-      <c r="R64" s="148"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="124"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="124"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="124"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="124"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="124"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="124"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="124"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="124"/>
+      <c r="B60" s="107"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="107"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="107"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B63" s="107"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="98"/>
+      <c r="B64" s="115"/>
+      <c r="Q64" s="97"/>
+      <c r="R64" s="131"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="107"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="107"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="107"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="107"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="107"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="107"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="107"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="107"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC957F9-B29E-475E-ACA1-1D1FB178345B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562CE30-82F3-4FF9-B370-BA1E3C7F2433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
     <sheet name="Historical Projections" sheetId="4" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1363,6 +1366,27 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="25">
+          <cell r="C25">
+            <v>47</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1667,7 +1691,7 @@
   <dimension ref="B2:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1757,7 +1781,8 @@
       <c r="J7" s="157"/>
       <c r="K7" s="157"/>
       <c r="L7" s="59">
-        <v>45</v>
+        <f>[1]Main!$C$25</f>
+        <v>47</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="6"/>
@@ -2266,10 +2291,10 @@
   <dimension ref="A1:CR80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V74" sqref="A74:XFD74"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562CE30-82F3-4FF9-B370-BA1E3C7F2433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B2EDE-96D1-4D98-9829-F48393B98C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="149">
   <si>
     <t>£BOWL</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Hemel, UK</t>
   </si>
   <si>
-    <t>2015?</t>
-  </si>
-  <si>
     <t>IR</t>
   </si>
   <si>
@@ -408,9 +405,6 @@
     <t>Laurence Keen</t>
   </si>
   <si>
-    <t>Metrics</t>
-  </si>
-  <si>
     <t>Hollywood Bowl</t>
   </si>
   <si>
@@ -550,6 +544,21 @@
   </si>
   <si>
     <t>ROCE</t>
+  </si>
+  <si>
+    <t>Non-Finance Metrics</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Directors</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Operations</t>
   </si>
 </sst>
 </file>
@@ -889,7 +898,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1125,6 +1134,12 @@
     <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1134,28 +1149,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,6 +1171,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1273,7 +1299,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1323,7 +1349,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1377,7 +1403,7 @@
       <sheetData sheetId="0">
         <row r="25">
           <cell r="C25">
-            <v>47</v>
+            <v>48</v>
           </cell>
         </row>
       </sheetData>
@@ -1691,7 +1717,7 @@
   <dimension ref="B2:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C27" sqref="C27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1711,27 +1737,27 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="H5" s="143" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="145"/>
-      <c r="O5" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
+      <c r="H5" s="145" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="147"/>
+      <c r="O5" s="145" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="147"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1741,20 +1767,20 @@
         <v>2.3650000000000002</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="154" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
+      <c r="H6" s="150" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
       <c r="L6" s="58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O6" s="92">
         <v>44866</v>
       </c>
       <c r="P6" s="93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1774,15 +1800,15 @@
         <f>$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H7" s="156" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
+      <c r="H7" s="152" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="6"/>
@@ -1801,12 +1827,12 @@
         <v>404.29506139000006</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="158" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
+      <c r="H8" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1823,19 +1849,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="14">
-        <f>'Financial Model'!V63</f>
+        <f>'Financial Model'!V67</f>
         <v>56.066000000000003</v>
       </c>
       <c r="D9" s="39" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H9" s="158" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
+      <c r="H9" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1852,19 +1878,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="14">
-        <f>'Financial Model'!V64</f>
+        <f>'Financial Model'!V68</f>
         <v>0</v>
       </c>
       <c r="D10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H10" s="158" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
+      <c r="H10" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -1888,12 +1914,12 @@
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H11" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
+      <c r="H11" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -1914,12 +1940,12 @@
         <v>348.22906139000008</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="159" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
+      <c r="H12" s="155" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -1953,43 +1979,43 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="147"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="153"/>
+      <c r="C16" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="144"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="152" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="153"/>
-      <c r="H17" s="143" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="145"/>
+      <c r="D17" s="144"/>
+      <c r="H17" s="145" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="147"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
       <c r="H18" s="82" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I18" s="83"/>
       <c r="J18" s="83"/>
@@ -1998,10 +2024,10 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="151"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="149"/>
       <c r="H19" s="86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I19" s="83"/>
       <c r="J19" s="83"/>
@@ -2015,29 +2041,29 @@
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
       <c r="P20" s="89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H21" s="82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I21" s="83"/>
       <c r="J21" s="83"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
       <c r="P21" s="89" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="145"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="147"/>
       <c r="H22" s="86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I22" s="83"/>
       <c r="J22" s="83"/>
@@ -2048,12 +2074,12 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="153"/>
+      <c r="D23" s="144"/>
       <c r="H23" s="87" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
@@ -2064,10 +2090,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="152" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="153"/>
+      <c r="C24" s="143">
+        <v>2010</v>
+      </c>
+      <c r="D24" s="144"/>
       <c r="H24" s="82"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
@@ -2076,12 +2102,12 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="152">
+        <v>32</v>
+      </c>
+      <c r="C25" s="143">
         <v>64</v>
       </c>
-      <c r="D25" s="153"/>
+      <c r="D25" s="144"/>
       <c r="H25" s="82"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
@@ -2090,10 +2116,13 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
+        <v>114</v>
+      </c>
+      <c r="C26" s="170">
+        <f>'Financial Model'!V33</f>
+        <v>2530</v>
+      </c>
+      <c r="D26" s="144"/>
       <c r="H26" s="84"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
@@ -2102,16 +2131,16 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="152">
+        <v>118</v>
+      </c>
+      <c r="C27" s="143">
         <v>2016</v>
       </c>
-      <c r="D27" s="153"/>
+      <c r="D27" s="144"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C28" s="90" t="s">
         <v>23</v>
@@ -2122,23 +2151,23 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="148" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="149"/>
-      <c r="H29" s="143" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="145"/>
+      <c r="D29" s="159"/>
+      <c r="H29" s="145" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="147"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="82" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I30" s="83"/>
       <c r="J30" s="83"/>
@@ -2147,7 +2176,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H31" s="86" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I31" s="83"/>
       <c r="J31" s="83"/>
@@ -2155,13 +2184,13 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="143" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="145"/>
+      <c r="B32" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="146"/>
+      <c r="D32" s="147"/>
       <c r="H32" s="86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I32" s="83"/>
       <c r="J32" s="83"/>
@@ -2170,13 +2199,13 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="146">
-        <f>C6/'Financial Model'!L61</f>
+        <v>134</v>
+      </c>
+      <c r="C33" s="156">
+        <f>C6/'Financial Model'!L65</f>
         <v>3.0577866054115437</v>
       </c>
-      <c r="D33" s="147"/>
+      <c r="D33" s="157"/>
       <c r="H33" s="86"/>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -2185,15 +2214,15 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="146">
+        <v>135</v>
+      </c>
+      <c r="C34" s="156">
         <f>C8/'Financial Model'!U3</f>
         <v>5.6247399954088877</v>
       </c>
-      <c r="D34" s="147"/>
+      <c r="D34" s="157"/>
       <c r="H34" s="82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I34" s="83"/>
       <c r="J34" s="83"/>
@@ -2202,15 +2231,15 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="146">
+        <v>136</v>
+      </c>
+      <c r="C35" s="156">
         <f>C6/('Financial Model'!U13*100)</f>
         <v>2.2528786210358729</v>
       </c>
-      <c r="D35" s="147"/>
+      <c r="D35" s="157"/>
       <c r="H35" s="86" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I35" s="83"/>
       <c r="J35" s="83"/>
@@ -2246,14 +2275,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2268,12 +2295,14 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2288,13 +2317,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
-  <dimension ref="A1:CR80"/>
+  <dimension ref="A1:CR84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12:S12"/>
+      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2320,16 +2349,16 @@
   <sheetData>
     <row r="1" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>14</v>
@@ -2350,10 +2379,10 @@
         <v>19</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>25</v>
@@ -2374,49 +2403,49 @@
         <v>24</v>
       </c>
       <c r="X1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:96" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -2469,52 +2498,52 @@
         <v>44834</v>
       </c>
       <c r="W2" s="133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2640,7 +2669,7 @@
     <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="14">
@@ -2760,7 +2789,7 @@
     <row r="5" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="12">
@@ -2891,7 +2920,7 @@
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="14">
@@ -3010,7 +3039,7 @@
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="14">
@@ -3129,7 +3158,7 @@
     </row>
     <row r="8" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="12">
@@ -3259,7 +3288,7 @@
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="14">
@@ -3371,7 +3400,7 @@
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="14">
@@ -3501,7 +3530,7 @@
     </row>
     <row r="11" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="14">
@@ -3620,7 +3649,7 @@
     </row>
     <row r="12" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="12">
@@ -3983,7 +4012,7 @@
     </row>
     <row r="13" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="26">
@@ -4234,7 +4263,7 @@
     </row>
     <row r="15" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AN15" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO15" s="62">
         <v>-0.02</v>
@@ -4242,7 +4271,7 @@
     </row>
     <row r="16" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="23">
@@ -4369,7 +4398,7 @@
         <v>0.86</v>
       </c>
       <c r="AN16" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO16" s="63">
         <v>7.0000000000000007E-2</v>
@@ -4377,7 +4406,7 @@
     </row>
     <row r="17" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="23">
@@ -4505,7 +4534,7 @@
         <v>0.30209379984489798</v>
       </c>
       <c r="AN17" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AO17" s="64">
         <f>NPV(AO16,X12:CR12)</f>
@@ -4515,7 +4544,7 @@
     <row r="18" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="23">
@@ -4652,7 +4681,7 @@
     </row>
     <row r="19" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="23">
@@ -4779,7 +4808,7 @@
         <v>0.2</v>
       </c>
       <c r="AN19" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO19" s="64">
         <f>AO17+AO18</f>
@@ -4788,7 +4817,7 @@
     </row>
     <row r="20" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AN20" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO20" s="65">
         <f>AO19/Main!C7</f>
@@ -4797,14 +4826,14 @@
     </row>
     <row r="21" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="23">
         <f t="shared" ref="H21:M21" si="45">H3/F3-1</f>
@@ -4831,7 +4860,7 @@
         <v>0.5227927414761171</v>
       </c>
       <c r="P21" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="23">
         <f t="shared" ref="Q21:T21" si="46">Q3/P3-1</f>
@@ -4906,7 +4935,7 @@
         <v>0.02</v>
       </c>
       <c r="AN21" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO21" s="67">
         <f>Main!C6</f>
@@ -4916,11 +4945,11 @@
     </row>
     <row r="22" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" ref="G22" si="48">G3/F3-1</f>
@@ -4951,74 +4980,74 @@
         <v>-6.5935930839647328E-2</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W22" s="138"/>
       <c r="X22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN22" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO22" s="66">
         <f>AO20/AO21-1</f>
@@ -5058,7 +5087,7 @@
     </row>
     <row r="24" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="38"/>
@@ -5092,7 +5121,7 @@
     </row>
     <row r="25" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="10"/>
@@ -5146,7 +5175,7 @@
     </row>
     <row r="26" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="38"/>
@@ -5186,7 +5215,7 @@
     </row>
     <row r="27" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S27" s="1">
         <v>6</v>
@@ -5200,7 +5229,7 @@
     </row>
     <row r="28" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
@@ -5239,7 +5268,7 @@
     </row>
     <row r="29" spans="1:42" s="72" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" s="74"/>
       <c r="D29" s="74"/>
@@ -5254,7 +5283,7 @@
       <c r="M29" s="75"/>
       <c r="N29" s="74"/>
       <c r="O29" s="74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P29" s="81">
         <f>P3/P25</f>
@@ -5289,7 +5318,7 @@
     </row>
     <row r="30" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" s="69"/>
       <c r="D30" s="69"/>
@@ -5326,7 +5355,7 @@
     </row>
     <row r="31" spans="1:42" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" s="78"/>
       <c r="G31" s="78"/>
@@ -5343,374 +5372,390 @@
       </c>
       <c r="W31" s="79"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="14">
-        <v>48.180999999999997</v>
-      </c>
-      <c r="L35" s="14">
-        <v>55.976999999999997</v>
-      </c>
-      <c r="M35" s="31"/>
-      <c r="U35" s="14">
-        <v>49.036000000000001</v>
-      </c>
-      <c r="V35" s="14">
-        <v>68.641000000000005</v>
-      </c>
-      <c r="W35" s="135"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="14">
-        <v>147.39099999999999</v>
-      </c>
-      <c r="L36" s="14">
-        <v>133.077</v>
-      </c>
-      <c r="M36" s="31"/>
-      <c r="U36" s="14">
-        <v>132.34200000000001</v>
-      </c>
-      <c r="V36" s="14">
-        <v>147.45500000000001</v>
-      </c>
-      <c r="W36" s="135"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="14">
-        <v>78.364000000000004</v>
-      </c>
-      <c r="L37" s="14">
-        <v>77.807000000000002</v>
-      </c>
-      <c r="M37" s="31"/>
-      <c r="U37" s="14">
-        <v>77.947999999999993</v>
-      </c>
-      <c r="V37" s="14">
-        <v>81.793999999999997</v>
-      </c>
-      <c r="W37" s="135"/>
+    <row r="32" spans="1:42" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="77"/>
+      <c r="E32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+      <c r="W32" s="79"/>
+    </row>
+    <row r="33" spans="1:23" s="160" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="161" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="I33" s="162"/>
+      <c r="K33" s="162"/>
+      <c r="M33" s="162"/>
+      <c r="P33" s="160">
+        <f t="shared" ref="P33:U33" si="51">SUM(P34:P36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="160">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="160">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="160">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="160">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="160">
+        <f t="shared" si="51"/>
+        <v>1787</v>
+      </c>
+      <c r="V33" s="160">
+        <f>SUM(V34:V36)</f>
+        <v>2530</v>
+      </c>
+      <c r="W33" s="163"/>
+    </row>
+    <row r="34" spans="1:23" s="164" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="165" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="166"/>
+      <c r="G34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="K34" s="166"/>
+      <c r="M34" s="166"/>
+      <c r="U34" s="164">
+        <v>6</v>
+      </c>
+      <c r="V34" s="164">
+        <v>7</v>
+      </c>
+      <c r="W34" s="167"/>
+    </row>
+    <row r="35" spans="1:23" s="164" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="165" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="I35" s="166"/>
+      <c r="K35" s="166"/>
+      <c r="M35" s="166"/>
+      <c r="U35" s="164">
+        <v>58</v>
+      </c>
+      <c r="V35" s="164">
+        <v>91</v>
+      </c>
+      <c r="W35" s="167"/>
+    </row>
+    <row r="36" spans="1:23" s="168" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="165" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="169"/>
+      <c r="G36" s="169"/>
+      <c r="I36" s="169"/>
+      <c r="K36" s="169"/>
+      <c r="M36" s="169"/>
+      <c r="U36" s="168">
+        <v>1723</v>
+      </c>
+      <c r="V36" s="168">
+        <v>2432</v>
+      </c>
+      <c r="W36" s="167"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="14">
-        <v>2.93</v>
-      </c>
-      <c r="L38" s="14">
-        <v>4.13</v>
-      </c>
-      <c r="M38" s="31"/>
-      <c r="U38" s="14">
-        <v>6.29</v>
-      </c>
-      <c r="V38" s="14">
-        <v>1.647</v>
-      </c>
-      <c r="W38" s="135"/>
+      <c r="B38" s="29" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H39" s="14">
-        <f>SUM(H35:H38)</f>
-        <v>276.86600000000004</v>
+        <v>48.180999999999997</v>
       </c>
       <c r="L39" s="14">
-        <f>SUM(L35:L38)</f>
-        <v>270.99099999999999</v>
+        <v>55.976999999999997</v>
       </c>
       <c r="M39" s="31"/>
       <c r="U39" s="14">
-        <f>SUM(U35:U38)</f>
-        <v>265.61600000000004</v>
+        <v>49.036000000000001</v>
       </c>
       <c r="V39" s="14">
-        <f>SUM(V35:V38)</f>
-        <v>299.53699999999998</v>
+        <v>68.641000000000005</v>
       </c>
       <c r="W39" s="135"/>
     </row>
-    <row r="40" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="12">
-        <v>15.635999999999999</v>
-      </c>
-      <c r="I40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="12">
-        <v>49.576999999999998</v>
-      </c>
-      <c r="M40" s="30"/>
-      <c r="U40" s="12">
-        <v>29.942</v>
-      </c>
-      <c r="V40" s="12">
-        <v>56.066000000000003</v>
-      </c>
-      <c r="W40" s="134"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="14">
+        <v>147.39099999999999</v>
+      </c>
+      <c r="L40" s="14">
+        <v>133.077</v>
+      </c>
+      <c r="M40" s="31"/>
+      <c r="U40" s="14">
+        <v>132.34200000000001</v>
+      </c>
+      <c r="V40" s="14">
+        <v>147.45500000000001</v>
+      </c>
+      <c r="W40" s="135"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H41" s="14">
-        <v>2.9940000000000002</v>
+        <v>78.364000000000004</v>
       </c>
       <c r="L41" s="14">
-        <v>10.474</v>
+        <v>77.807000000000002</v>
       </c>
       <c r="M41" s="31"/>
       <c r="U41" s="14">
-        <v>3.3</v>
+        <v>77.947999999999993</v>
       </c>
       <c r="V41" s="14">
-        <v>5.13</v>
+        <v>81.793999999999997</v>
       </c>
       <c r="W41" s="135"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H42" s="14">
-        <v>1.3120000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="L42" s="14">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="M42" s="31"/>
       <c r="U42" s="14">
-        <v>0.65</v>
+        <v>6.29</v>
       </c>
       <c r="V42" s="14">
-        <v>0.27100000000000002</v>
+        <v>1.647</v>
       </c>
       <c r="W42" s="135"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H43" s="14">
-        <v>1.4830000000000001</v>
+        <f>SUM(H39:H42)</f>
+        <v>276.86600000000004</v>
       </c>
       <c r="L43" s="14">
-        <v>1.7390000000000001</v>
+        <f>SUM(L39:L42)</f>
+        <v>270.99099999999999</v>
       </c>
       <c r="M43" s="31"/>
       <c r="U43" s="14">
-        <v>1.4610000000000001</v>
+        <f>SUM(U39:U42)</f>
+        <v>265.61600000000004</v>
       </c>
       <c r="V43" s="14">
-        <v>2.1480000000000001</v>
+        <f>SUM(V39:V42)</f>
+        <v>299.53699999999998</v>
       </c>
       <c r="W43" s="135"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="14">
-        <f>H39+H40+H41+H42+H43</f>
-        <v>298.29100000000011</v>
-      </c>
-      <c r="L44" s="14">
-        <f>L39+L40+L41+L42+L43</f>
-        <v>332.78099999999995</v>
-      </c>
-      <c r="M44" s="31"/>
-      <c r="U44" s="14">
-        <f>SUM(U40:U43)+U39</f>
-        <v>300.96900000000005</v>
-      </c>
-      <c r="V44" s="14">
-        <f>SUM(V40:V43)+V39</f>
-        <v>363.15199999999999</v>
-      </c>
-      <c r="W44" s="135"/>
+    <row r="44" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="12">
+        <v>15.635999999999999</v>
+      </c>
+      <c r="I44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="12">
+        <v>49.576999999999998</v>
+      </c>
+      <c r="M44" s="30"/>
+      <c r="U44" s="12">
+        <v>29.942</v>
+      </c>
+      <c r="V44" s="12">
+        <v>56.066000000000003</v>
+      </c>
+      <c r="W44" s="134"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H45" s="14"/>
-      <c r="L45" s="14"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="14">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="L45" s="14">
+        <v>10.474</v>
+      </c>
       <c r="M45" s="31"/>
+      <c r="U45" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="V45" s="14">
+        <v>5.13</v>
+      </c>
+      <c r="W45" s="135"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H46" s="14">
-        <v>11.737</v>
+        <v>1.3120000000000001</v>
       </c>
       <c r="L46" s="14">
-        <v>21.773</v>
+        <v>0</v>
       </c>
       <c r="M46" s="31"/>
       <c r="U46" s="14">
-        <v>18.141999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="V46" s="14">
-        <v>28.681000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="W46" s="135"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H47" s="14">
-        <v>11.831</v>
+        <v>1.4830000000000001</v>
       </c>
       <c r="L47" s="14">
-        <v>11.615</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="M47" s="31"/>
       <c r="U47" s="14">
-        <v>13.811</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="V47" s="14">
-        <v>11.557</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="W47" s="135"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H48" s="14">
-        <v>0</v>
+        <f>H43+H44+H45+H46+H47</f>
+        <v>298.29100000000011</v>
       </c>
       <c r="L48" s="14">
-        <v>2.0670000000000002</v>
+        <f>L43+L44+L45+L46+L47</f>
+        <v>332.78099999999995</v>
       </c>
       <c r="M48" s="31"/>
       <c r="U48" s="14">
-        <v>0</v>
+        <f>SUM(U44:U47)+U43</f>
+        <v>300.96900000000005</v>
       </c>
       <c r="V48" s="14">
-        <v>0</v>
+        <f>SUM(V44:V47)+V43</f>
+        <v>363.15199999999999</v>
       </c>
       <c r="W48" s="135"/>
     </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="12">
-        <v>5.38</v>
-      </c>
-      <c r="I49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="12">
-        <v>0</v>
-      </c>
-      <c r="M49" s="30"/>
-      <c r="U49" s="12">
-        <v>0</v>
-      </c>
-      <c r="V49" s="12">
-        <v>0</v>
-      </c>
-      <c r="W49" s="134"/>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="31"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H50" s="14">
-        <f>SUM(H46:H49)</f>
-        <v>28.947999999999997</v>
+        <v>11.737</v>
       </c>
       <c r="L50" s="14">
-        <f>SUM(L46:L49)</f>
-        <v>35.454999999999998</v>
+        <v>21.773</v>
       </c>
       <c r="M50" s="31"/>
       <c r="U50" s="14">
-        <f>SUM(U46:U49)</f>
-        <v>31.952999999999999</v>
+        <v>18.141999999999999</v>
       </c>
       <c r="V50" s="14">
-        <f>SUM(V46:V49)</f>
-        <v>40.238</v>
+        <v>28.681000000000001</v>
       </c>
       <c r="W50" s="135"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
       <c r="B51" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H51" s="14">
-        <v>0.68700000000000006</v>
+        <v>11.831</v>
       </c>
       <c r="L51" s="14">
-        <v>0.51600000000000001</v>
+        <v>11.615</v>
       </c>
       <c r="M51" s="31"/>
       <c r="U51" s="14">
-        <v>0.56499999999999995</v>
+        <v>13.811</v>
       </c>
       <c r="V51" s="14">
-        <v>3</v>
+        <v>11.557</v>
       </c>
       <c r="W51" s="135"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H52" s="14">
-        <v>164.32900000000001</v>
+        <v>0</v>
       </c>
       <c r="L52" s="14">
-        <v>160.916</v>
+        <v>2.0670000000000002</v>
       </c>
       <c r="M52" s="31"/>
       <c r="U52" s="14">
-        <v>160.12899999999999</v>
+        <v>0</v>
       </c>
       <c r="V52" s="14">
-        <v>176.81200000000001</v>
+        <v>0</v>
       </c>
       <c r="W52" s="135"/>
     </row>
     <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" s="61"/>
       <c r="G53" s="61"/>
       <c r="H53" s="12">
-        <v>24.693000000000001</v>
+        <v>5.38</v>
       </c>
       <c r="I53" s="61"/>
       <c r="K53" s="61"/>
@@ -5729,362 +5774,447 @@
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H54" s="14">
-        <v>3.8029999999999999</v>
+        <f>SUM(H50:H53)</f>
+        <v>28.947999999999997</v>
       </c>
       <c r="L54" s="14">
-        <v>3.7690000000000001</v>
+        <f>SUM(L50:L53)</f>
+        <v>35.454999999999998</v>
       </c>
       <c r="M54" s="31"/>
       <c r="U54" s="14">
-        <v>3.6349999999999998</v>
+        <f>SUM(U50:U53)</f>
+        <v>31.952999999999999</v>
       </c>
       <c r="V54" s="14">
-        <v>4.6820000000000004</v>
+        <f>SUM(V50:V53)</f>
+        <v>40.238</v>
       </c>
       <c r="W54" s="135"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H55" s="14">
-        <f>H50+H51+H52+H53+H54</f>
-        <v>222.46</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="L55" s="14">
-        <f>L50+L51+L52+L53+L54</f>
-        <v>200.65600000000001</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="M55" s="31"/>
       <c r="U55" s="14">
-        <f>U50+U51+U52+U53+U54</f>
-        <v>196.28199999999998</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="V55" s="14">
-        <f>V50+V51+V52+V53+V54</f>
-        <v>224.732</v>
+        <v>3</v>
       </c>
       <c r="W55" s="135"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H57" s="14">
-        <v>75.83</v>
-      </c>
-      <c r="L57" s="14">
-        <v>132.125</v>
-      </c>
-      <c r="M57" s="31"/>
-      <c r="U57" s="14">
-        <v>104.687</v>
-      </c>
-      <c r="V57" s="14">
-        <v>138.41999999999999</v>
-      </c>
-      <c r="W57" s="135"/>
+      <c r="B56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="14">
+        <v>164.32900000000001</v>
+      </c>
+      <c r="L56" s="14">
+        <v>160.916</v>
+      </c>
+      <c r="M56" s="31"/>
+      <c r="U56" s="14">
+        <v>160.12899999999999</v>
+      </c>
+      <c r="V56" s="14">
+        <v>176.81200000000001</v>
+      </c>
+      <c r="W56" s="135"/>
+    </row>
+    <row r="57" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="12">
+        <v>24.693000000000001</v>
+      </c>
+      <c r="I57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+      <c r="M57" s="30"/>
+      <c r="U57" s="12">
+        <v>0</v>
+      </c>
+      <c r="V57" s="12">
+        <v>0</v>
+      </c>
+      <c r="W57" s="134"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
       <c r="B58" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H58" s="14">
-        <f>H55+H57</f>
-        <v>298.29000000000002</v>
+        <v>3.8029999999999999</v>
       </c>
       <c r="L58" s="14">
-        <f>L55+L57</f>
-        <v>332.78100000000001</v>
+        <v>3.7690000000000001</v>
       </c>
       <c r="M58" s="31"/>
       <c r="U58" s="14">
-        <f>U57+U55</f>
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="V58" s="14">
+        <v>4.6820000000000004</v>
+      </c>
+      <c r="W58" s="135"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="14">
+        <f>H54+H55+H56+H57+H58</f>
+        <v>222.46</v>
+      </c>
+      <c r="L59" s="14">
+        <f>L54+L55+L56+L57+L58</f>
+        <v>200.65600000000001</v>
+      </c>
+      <c r="M59" s="31"/>
+      <c r="U59" s="14">
+        <f>U54+U55+U56+U57+U58</f>
+        <v>196.28199999999998</v>
+      </c>
+      <c r="V59" s="14">
+        <f>V54+V55+V56+V57+V58</f>
+        <v>224.732</v>
+      </c>
+      <c r="W59" s="135"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" s="14">
+        <v>75.83</v>
+      </c>
+      <c r="L61" s="14">
+        <v>132.125</v>
+      </c>
+      <c r="M61" s="31"/>
+      <c r="U61" s="14">
+        <v>104.687</v>
+      </c>
+      <c r="V61" s="14">
+        <v>138.41999999999999</v>
+      </c>
+      <c r="W61" s="135"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" s="14">
+        <f>H59+H61</f>
+        <v>298.29000000000002</v>
+      </c>
+      <c r="L62" s="14">
+        <f>L59+L61</f>
+        <v>332.78100000000001</v>
+      </c>
+      <c r="M62" s="31"/>
+      <c r="U62" s="14">
+        <f>U61+U59</f>
         <v>300.96899999999999</v>
       </c>
-      <c r="V58" s="14">
-        <f>V57+V55</f>
+      <c r="V62" s="14">
+        <f>V61+V59</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="W58" s="135"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60" s="14">
-        <f>H44-H55</f>
-        <v>75.831000000000103</v>
-      </c>
-      <c r="L60" s="14">
-        <f>L44-L55</f>
-        <v>132.12499999999994</v>
-      </c>
-      <c r="M60" s="31"/>
-      <c r="U60" s="14">
-        <f t="shared" ref="U60:V60" si="51">U44-U55</f>
-        <v>104.68700000000007</v>
-      </c>
-      <c r="V60" s="14">
-        <f t="shared" si="51"/>
-        <v>138.41999999999999</v>
-      </c>
-      <c r="W60" s="135"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H61" s="1">
-        <f>H60/H14</f>
-        <v>0.50318915060727853</v>
-      </c>
-      <c r="L61" s="1">
-        <f>L60/L14</f>
-        <v>0.77343526713555533</v>
-      </c>
-      <c r="U61" s="1">
-        <f t="shared" ref="U61:V61" si="52">U60/U14</f>
-        <v>0.63597840274765649</v>
-      </c>
-      <c r="V61" s="1">
-        <f t="shared" si="52"/>
-        <v>0.80971382354881549</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="14">
-        <f t="shared" ref="H63" si="53">H40</f>
-        <v>15.635999999999999</v>
-      </c>
-      <c r="L63" s="14">
-        <f t="shared" ref="L63" si="54">L40</f>
-        <v>49.576999999999998</v>
-      </c>
-      <c r="U63" s="14">
-        <f t="shared" ref="U63" si="55">U40</f>
-        <v>29.942</v>
-      </c>
-      <c r="V63" s="14">
-        <f>V40</f>
-        <v>56.066000000000003</v>
-      </c>
-      <c r="W63" s="135"/>
+      <c r="W62" s="135"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="H64" s="14">
-        <f t="shared" ref="H64" si="56">H49+H53</f>
-        <v>30.073</v>
+        <f>H48-H59</f>
+        <v>75.831000000000103</v>
       </c>
       <c r="L64" s="14">
-        <f t="shared" ref="L64" si="57">L49+L53</f>
-        <v>0</v>
-      </c>
+        <f>L48-L59</f>
+        <v>132.12499999999994</v>
+      </c>
+      <c r="M64" s="31"/>
       <c r="U64" s="14">
-        <f t="shared" ref="U64" si="58">U49+U53</f>
-        <v>0</v>
+        <f t="shared" ref="U64:V64" si="52">U48-U59</f>
+        <v>104.68700000000007</v>
       </c>
       <c r="V64" s="14">
-        <f>V49+V53</f>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>138.41999999999999</v>
       </c>
       <c r="W64" s="135"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
       <c r="B65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="14">
-        <f>H63-H64</f>
-        <v>-14.437000000000001</v>
-      </c>
-      <c r="L65" s="14">
-        <f>L63-L64</f>
-        <v>49.576999999999998</v>
-      </c>
-      <c r="U65" s="14">
-        <f>U63-U64</f>
-        <v>29.942</v>
-      </c>
-      <c r="V65" s="14">
-        <f>V63-V64</f>
-        <v>56.066000000000003</v>
-      </c>
-      <c r="W65" s="135"/>
+        <v>132</v>
+      </c>
+      <c r="H65" s="1">
+        <f>H64/H14</f>
+        <v>0.50318915060727853</v>
+      </c>
+      <c r="L65" s="1">
+        <f>L64/L14</f>
+        <v>0.77343526713555533</v>
+      </c>
+      <c r="U65" s="1">
+        <f t="shared" ref="U65:V65" si="53">U64/U14</f>
+        <v>0.63597840274765649</v>
+      </c>
+      <c r="V65" s="1">
+        <f t="shared" si="53"/>
+        <v>0.80971382354881549</v>
+      </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1.4767999999999999</v>
-      </c>
-      <c r="L67" s="1">
-        <v>2.3904999999999998</v>
-      </c>
-      <c r="U67" s="1">
-        <v>2.395</v>
-      </c>
-      <c r="V67" s="1">
-        <v>1.8740000000000001</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H67" s="14">
+        <f t="shared" ref="H67" si="54">H44</f>
+        <v>15.635999999999999</v>
+      </c>
+      <c r="L67" s="14">
+        <f t="shared" ref="L67" si="55">L44</f>
+        <v>49.576999999999998</v>
+      </c>
+      <c r="U67" s="14">
+        <f t="shared" ref="U67" si="56">U44</f>
+        <v>29.942</v>
+      </c>
+      <c r="V67" s="14">
+        <f>V44</f>
+        <v>56.066000000000003</v>
+      </c>
+      <c r="W67" s="135"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="27">
-        <f t="shared" ref="H68" si="59">H67*H14</f>
-        <v>222.55491928799998</v>
-      </c>
-      <c r="L68" s="27">
-        <f t="shared" ref="L68" si="60">L67*L14</f>
-        <v>408.36618902800001</v>
-      </c>
-      <c r="U68" s="27">
-        <f t="shared" ref="U68" si="61">U67*U14</f>
-        <v>394.23565944500001</v>
-      </c>
-      <c r="V68" s="27">
-        <f>V67*V14</f>
-        <v>320.358961964</v>
-      </c>
-      <c r="W68" s="136"/>
+        <v>7</v>
+      </c>
+      <c r="H68" s="14">
+        <f t="shared" ref="H68" si="57">H53+H57</f>
+        <v>30.073</v>
+      </c>
+      <c r="L68" s="14">
+        <f t="shared" ref="L68" si="58">L53+L57</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="14">
+        <f t="shared" ref="U68" si="59">U53+U57</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="14">
+        <f>V53+V57</f>
+        <v>0</v>
+      </c>
+      <c r="W68" s="135"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="27">
-        <f>H68-H65</f>
-        <v>236.99191928799999</v>
-      </c>
-      <c r="L69" s="27">
-        <f>L68-L65</f>
-        <v>358.78918902800001</v>
-      </c>
-      <c r="U69" s="27">
-        <f>U68-U65</f>
-        <v>364.293659445</v>
-      </c>
-      <c r="V69" s="27">
-        <f>V68-V65</f>
-        <v>264.29296196400003</v>
-      </c>
-      <c r="W69" s="136"/>
-    </row>
-    <row r="71" spans="1:23" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="E71" s="95"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="94">
-        <f>H67/H61</f>
-        <v>2.9348804484709379</v>
-      </c>
-      <c r="I71" s="95"/>
-      <c r="K71" s="95"/>
-      <c r="L71" s="94">
-        <f>L67/L61</f>
-        <v>3.0907563975629149</v>
-      </c>
-      <c r="M71" s="95"/>
-      <c r="U71" s="94">
-        <f t="shared" ref="U71" si="62">U67/U61</f>
-        <v>3.7658511510025101</v>
-      </c>
-      <c r="V71" s="94">
-        <f>V67/V61</f>
-        <v>2.3143979335645142</v>
-      </c>
-      <c r="W71" s="142"/>
-    </row>
-    <row r="72" spans="1:23" s="97" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="96"/>
-      <c r="B72" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="E72" s="98"/>
-      <c r="G72" s="98"/>
-      <c r="I72" s="98"/>
-      <c r="K72" s="98"/>
-      <c r="M72" s="98"/>
-      <c r="U72" s="94">
-        <f t="shared" ref="U72" si="63">U68/U3</f>
-        <v>5.4847889402181478</v>
-      </c>
-      <c r="V72" s="94">
-        <f>V68/V3</f>
-        <v>1.6535424198491799</v>
-      </c>
-      <c r="W72" s="142"/>
+        <v>8</v>
+      </c>
+      <c r="H69" s="14">
+        <f>H67-H68</f>
+        <v>-14.437000000000001</v>
+      </c>
+      <c r="L69" s="14">
+        <f>L67-L68</f>
+        <v>49.576999999999998</v>
+      </c>
+      <c r="U69" s="14">
+        <f>U67-U68</f>
+        <v>29.942</v>
+      </c>
+      <c r="V69" s="14">
+        <f>V67-V68</f>
+        <v>56.066000000000003</v>
+      </c>
+      <c r="W69" s="135"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1.4767999999999999</v>
+      </c>
+      <c r="L71" s="1">
+        <v>2.3904999999999998</v>
+      </c>
+      <c r="U71" s="1">
+        <v>2.395</v>
+      </c>
+      <c r="V71" s="1">
+        <v>1.8740000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="27">
+        <f t="shared" ref="H72" si="60">H71*H14</f>
+        <v>222.55491928799998</v>
+      </c>
+      <c r="L72" s="27">
+        <f t="shared" ref="L72" si="61">L71*L14</f>
+        <v>408.36618902800001</v>
+      </c>
+      <c r="U72" s="27">
+        <f t="shared" ref="U72" si="62">U71*U14</f>
+        <v>394.23565944500001</v>
+      </c>
+      <c r="V72" s="27">
+        <f>V71*V14</f>
+        <v>320.358961964</v>
+      </c>
+      <c r="W72" s="136"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="27">
+        <f>H72-H69</f>
+        <v>236.99191928799999</v>
+      </c>
+      <c r="L73" s="27">
+        <f>L72-L69</f>
+        <v>358.78918902800001</v>
+      </c>
+      <c r="U73" s="27">
+        <f>U72-U69</f>
+        <v>364.293659445</v>
+      </c>
+      <c r="V73" s="27">
+        <f>V72-V69</f>
+        <v>264.29296196400003</v>
+      </c>
+      <c r="W73" s="136"/>
+    </row>
+    <row r="75" spans="1:23" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="95"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="94">
+        <f>H71/H65</f>
+        <v>2.9348804484709379</v>
+      </c>
+      <c r="I75" s="95"/>
+      <c r="K75" s="95"/>
+      <c r="L75" s="94">
+        <f>L71/L65</f>
+        <v>3.0907563975629149</v>
+      </c>
+      <c r="M75" s="95"/>
+      <c r="U75" s="94">
+        <f t="shared" ref="U75" si="63">U71/U65</f>
+        <v>3.7658511510025101</v>
+      </c>
+      <c r="V75" s="94">
+        <f>V71/V65</f>
+        <v>2.3143979335645142</v>
+      </c>
+      <c r="W75" s="142"/>
+    </row>
+    <row r="76" spans="1:23" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="96"/>
+      <c r="B76" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="98"/>
+      <c r="G76" s="98"/>
+      <c r="I76" s="98"/>
+      <c r="K76" s="98"/>
+      <c r="M76" s="98"/>
+      <c r="U76" s="94">
+        <f t="shared" ref="U76" si="64">U72/U3</f>
+        <v>5.4847889402181478</v>
+      </c>
+      <c r="V76" s="94">
+        <f>V72/V3</f>
+        <v>1.6535424198491799</v>
+      </c>
+      <c r="W76" s="142"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U77" s="94">
+        <f t="shared" ref="U77" si="65">U73/U3</f>
+        <v>5.0682219795347674</v>
+      </c>
+      <c r="V77" s="94">
+        <f>V73/V3</f>
+        <v>1.3641560741608643</v>
+      </c>
+      <c r="W77" s="142"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U78" s="94">
+        <f t="shared" ref="U78" si="66">U71/U13</f>
+        <v>228.14563625289284</v>
+      </c>
+      <c r="V78" s="94">
+        <f>V71/V13</f>
+        <v>8.554082987476967</v>
+      </c>
+      <c r="W78" s="142"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U79" s="94">
+        <f t="shared" ref="U79" si="67">U73/U12</f>
+        <v>210.81808995659659</v>
+      </c>
+      <c r="V79" s="94">
+        <f>V73/V12</f>
+        <v>7.0570335094924017</v>
+      </c>
+      <c r="W79" s="142"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="U73" s="94">
-        <f t="shared" ref="U73" si="64">U69/U3</f>
-        <v>5.0682219795347674</v>
-      </c>
-      <c r="V73" s="94">
-        <f>V69/V3</f>
-        <v>1.3641560741608643</v>
-      </c>
-      <c r="W73" s="142"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U74" s="94">
-        <f t="shared" ref="U74" si="65">U67/U13</f>
-        <v>228.14563625289284</v>
-      </c>
-      <c r="V74" s="94">
-        <f>V67/V13</f>
-        <v>8.554082987476967</v>
-      </c>
-      <c r="W74" s="142"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U75" s="94">
-        <f t="shared" ref="U75" si="66">U69/U12</f>
-        <v>210.81808995659659</v>
-      </c>
-      <c r="V75" s="94">
-        <f>V69/V12</f>
-        <v>7.0570335094924017</v>
-      </c>
-      <c r="W75" s="142"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6142,13 +6272,13 @@
         <v>44834</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="22">
         <v>44834</v>
       </c>
       <c r="R2" s="118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -6404,10 +6534,10 @@
         <v>0.58313916923721965</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R22" s="125" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B2EDE-96D1-4D98-9829-F48393B98C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA700C-C0CA-4001-A19F-0B55EBB6F3DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="149">
   <si>
     <t>£BOWL</t>
   </si>
@@ -898,7 +898,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1060,9 +1060,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1134,12 +1131,20 @@
     <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1149,10 +1154,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,32 +1196,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1717,7 +1714,7 @@
   <dimension ref="B2:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D27"/>
+      <selection activeCell="C37" sqref="C33:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1737,27 +1734,27 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
-      <c r="H5" s="145" t="s">
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
+      <c r="H5" s="152" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="147"/>
-      <c r="O5" s="145" t="s">
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="154"/>
+      <c r="O5" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="147"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="154"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1767,19 +1764,19 @@
         <v>2.3650000000000002</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="150" t="s">
+      <c r="H6" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="92">
+      <c r="O6" s="91">
         <v>44866</v>
       </c>
-      <c r="P6" s="93" t="s">
+      <c r="P6" s="92" t="s">
         <v>138</v>
       </c>
       <c r="Q6" s="6"/>
@@ -1800,12 +1797,12 @@
         <f>$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H7" s="152" t="s">
+      <c r="H7" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>48</v>
@@ -1827,12 +1824,12 @@
         <v>404.29506139000006</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="154" t="s">
+      <c r="H8" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1856,12 +1853,12 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H9" s="154" t="s">
+      <c r="H9" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1885,12 +1882,12 @@
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H10" s="154" t="s">
+      <c r="H10" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -1914,12 +1911,12 @@
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H11" s="154" t="s">
+      <c r="H11" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -1940,12 +1937,12 @@
         <v>348.22906139000008</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="155" t="s">
+      <c r="H12" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -1979,41 +1976,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="144"/>
+      <c r="D16" s="162"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="144"/>
-      <c r="H17" s="145" t="s">
+      <c r="D17" s="162"/>
+      <c r="H17" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="147"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="144"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="162"/>
       <c r="H18" s="82" t="s">
         <v>119</v>
       </c>
@@ -2024,8 +2021,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
       <c r="H19" s="86" t="s">
         <v>120</v>
       </c>
@@ -2057,11 +2054,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="147"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
       <c r="H22" s="86" t="s">
         <v>122</v>
       </c>
@@ -2074,10 +2071,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="144"/>
+      <c r="D23" s="162"/>
       <c r="H23" s="87" t="s">
         <v>128</v>
       </c>
@@ -2090,10 +2087,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="143">
+      <c r="C24" s="161">
         <v>2010</v>
       </c>
-      <c r="D24" s="144"/>
+      <c r="D24" s="162"/>
       <c r="H24" s="82"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
@@ -2104,10 +2101,10 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="143">
+      <c r="C25" s="161">
         <v>64</v>
       </c>
-      <c r="D25" s="144"/>
+      <c r="D25" s="162"/>
       <c r="H25" s="82"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
@@ -2118,11 +2115,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="170">
+      <c r="C26" s="169">
         <f>'Financial Model'!V33</f>
         <v>2530</v>
       </c>
-      <c r="D26" s="144"/>
+      <c r="D26" s="162"/>
       <c r="H26" s="84"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
@@ -2133,10 +2130,10 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="143">
+      <c r="C27" s="161">
         <v>2016</v>
       </c>
-      <c r="D27" s="144"/>
+      <c r="D27" s="162"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2145,7 +2142,7 @@
       <c r="C28" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="99">
+      <c r="D28" s="98">
         <v>44911</v>
       </c>
     </row>
@@ -2153,17 +2150,17 @@
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="158" t="s">
+      <c r="C29" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="159"/>
-      <c r="H29" s="145" t="s">
+      <c r="D29" s="158"/>
+      <c r="H29" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="147"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="154"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="82" t="s">
@@ -2184,11 +2181,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="147"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="154"/>
       <c r="H32" s="86" t="s">
         <v>124</v>
       </c>
@@ -2201,11 +2198,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="156">
+      <c r="C33" s="155">
         <f>C6/'Financial Model'!L65</f>
         <v>3.0577866054115437</v>
       </c>
-      <c r="D33" s="157"/>
+      <c r="D33" s="156"/>
       <c r="H33" s="86"/>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -2216,11 +2213,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="156">
+      <c r="C34" s="155">
         <f>C8/'Financial Model'!U3</f>
         <v>5.6247399954088877</v>
       </c>
-      <c r="D34" s="157"/>
+      <c r="D34" s="156"/>
       <c r="H34" s="82" t="s">
         <v>121</v>
       </c>
@@ -2231,13 +2228,13 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="156">
-        <f>C6/('Financial Model'!U13*100)</f>
-        <v>2.2528786210358729</v>
-      </c>
-      <c r="D35" s="157"/>
+        <v>141</v>
+      </c>
+      <c r="C35" s="155">
+        <f>C12/'Financial Model'!V3</f>
+        <v>1.7973947764799401</v>
+      </c>
+      <c r="D35" s="156"/>
       <c r="H35" s="86" t="s">
         <v>127</v>
       </c>
@@ -2247,9 +2244,14 @@
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="17"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91"/>
+      <c r="B36" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="155">
+        <f>C6/('Financial Model'!U13*100)</f>
+        <v>2.2528786210358729</v>
+      </c>
+      <c r="D36" s="156"/>
       <c r="H36" s="82"/>
       <c r="I36" s="83"/>
       <c r="J36" s="83"/>
@@ -2257,9 +2259,14 @@
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="17"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="91"/>
+      <c r="B37" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="155">
+        <f>C12/'Financial Model'!V12</f>
+        <v>9.2982580275560043</v>
+      </c>
+      <c r="D37" s="156"/>
       <c r="H37" s="82"/>
       <c r="I37" s="83"/>
       <c r="J37" s="83"/>
@@ -2274,13 +2281,16 @@
       <c r="L38" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
+  <mergeCells count="30">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2295,14 +2305,13 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2399,7 +2408,7 @@
       <c r="V1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="132" t="s">
+      <c r="W1" s="131" t="s">
         <v>24</v>
       </c>
       <c r="X1" s="10" t="s">
@@ -2497,7 +2506,7 @@
       <c r="V2" s="22">
         <v>44834</v>
       </c>
-      <c r="W2" s="133" t="s">
+      <c r="W2" s="132" t="s">
         <v>67</v>
       </c>
       <c r="X2" s="21" t="s">
@@ -2601,7 +2610,7 @@
       <c r="V3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="W3" s="134">
+      <c r="W3" s="133">
         <f>V3*(1+W21)</f>
         <v>213.11510000000004</v>
       </c>
@@ -2721,7 +2730,7 @@
       <c r="V4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="W4" s="135">
+      <c r="W4" s="134">
         <f>W3*0.14</f>
         <v>29.836114000000009</v>
       </c>
@@ -2852,7 +2861,7 @@
         <f t="shared" si="4"/>
         <v>164.34900000000002</v>
       </c>
-      <c r="W5" s="134">
+      <c r="W5" s="133">
         <f>W3-W4</f>
         <v>183.27898600000003</v>
       </c>
@@ -2972,7 +2981,7 @@
       <c r="V6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="W6" s="135">
+      <c r="W6" s="134">
         <f>AVERAGE(T6:V6)</f>
         <v>0.95100000000000007</v>
       </c>
@@ -3091,7 +3100,7 @@
       <c r="V7" s="14">
         <v>108.93899999999999</v>
       </c>
-      <c r="W7" s="135">
+      <c r="W7" s="134">
         <f>W5*0.65</f>
         <v>119.13134090000003</v>
       </c>
@@ -3348,7 +3357,7 @@
         <f>-0.012+8.796</f>
         <v>8.7839999999999989</v>
       </c>
-      <c r="W9" s="135">
+      <c r="W9" s="134">
         <f>AVERAGE(T9:V9)</f>
         <v>8.8556666666666661</v>
       </c>
@@ -3582,7 +3591,7 @@
       <c r="V11" s="14">
         <v>9.2140000000000004</v>
       </c>
-      <c r="W11" s="135">
+      <c r="W11" s="134">
         <f>W10-W12</f>
         <v>11.248595686666661</v>
       </c>
@@ -3713,7 +3722,7 @@
         <f t="shared" si="16"/>
         <v>37.451000000000015</v>
       </c>
-      <c r="W12" s="134">
+      <c r="W12" s="133">
         <f>W10*(1-W19)</f>
         <v>44.994382746666673</v>
       </c>
@@ -4196,7 +4205,7 @@
       <c r="V14" s="27">
         <v>170.949286</v>
       </c>
-      <c r="W14" s="136">
+      <c r="W14" s="135">
         <f>V14</f>
         <v>170.949286</v>
       </c>
@@ -4334,7 +4343,7 @@
         <f t="shared" ref="V16" si="27">V5/V3</f>
         <v>0.84829230777171583</v>
       </c>
-      <c r="W16" s="137">
+      <c r="W16" s="136">
         <v>0.86</v>
       </c>
       <c r="X16" s="23">
@@ -4469,7 +4478,7 @@
         <f t="shared" ref="V17:AL17" si="33">V8/V3</f>
         <v>0.28620168162650139</v>
       </c>
-      <c r="W17" s="137">
+      <c r="W17" s="136">
         <f>W8/W3</f>
         <v>0.30546237737260279</v>
       </c>
@@ -4744,7 +4753,7 @@
         <f t="shared" ref="V19" si="43">V11/V10</f>
         <v>0.19744990892531872</v>
       </c>
-      <c r="W19" s="137">
+      <c r="W19" s="136">
         <v>0.2</v>
       </c>
       <c r="X19" s="23">
@@ -4886,7 +4895,7 @@
         <f t="shared" ref="V21" si="47">V3/U3-1</f>
         <v>1.6954144522663404</v>
       </c>
-      <c r="W21" s="137">
+      <c r="W21" s="136">
         <v>0.1</v>
       </c>
       <c r="X21" s="23">
@@ -5000,7 +5009,7 @@
       <c r="V22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="138"/>
+      <c r="W22" s="137"/>
       <c r="X22" s="38" t="s">
         <v>71</v>
       </c>
@@ -5069,7 +5078,7 @@
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="138"/>
+      <c r="W23" s="137"/>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
@@ -5103,7 +5112,7 @@
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
-      <c r="W24" s="138"/>
+      <c r="W24" s="137"/>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
@@ -5152,7 +5161,7 @@
         <f>SUM(V26:V28)</f>
         <v>67</v>
       </c>
-      <c r="W25" s="132"/>
+      <c r="W25" s="131"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
@@ -5197,7 +5206,7 @@
       <c r="V26" s="38">
         <v>59</v>
       </c>
-      <c r="W26" s="138"/>
+      <c r="W26" s="137"/>
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
@@ -5257,7 +5266,7 @@
       <c r="V28" s="52">
         <v>5</v>
       </c>
-      <c r="W28" s="139"/>
+      <c r="W28" s="138"/>
       <c r="X28" s="55"/>
       <c r="Y28" s="55"/>
       <c r="Z28" s="55"/>
@@ -5307,7 +5316,7 @@
         <f t="shared" si="50"/>
         <v>2.8916567164179106</v>
       </c>
-      <c r="W29" s="140"/>
+      <c r="W29" s="139"/>
       <c r="X29" s="74"/>
       <c r="Y29" s="74"/>
       <c r="Z29" s="74"/>
@@ -5344,7 +5353,7 @@
       <c r="T30" s="71"/>
       <c r="U30" s="71"/>
       <c r="V30" s="71"/>
-      <c r="W30" s="141"/>
+      <c r="W30" s="140"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
       <c r="Z30" s="69"/>
@@ -5383,95 +5392,95 @@
       <c r="Q32" s="80"/>
       <c r="W32" s="79"/>
     </row>
-    <row r="33" spans="1:23" s="160" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="161" t="s">
+    <row r="33" spans="1:23" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="I33" s="162"/>
-      <c r="K33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="P33" s="160">
+      <c r="E33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="P33" s="142">
         <f t="shared" ref="P33:U33" si="51">SUM(P34:P36)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="160">
+      <c r="Q33" s="142">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="R33" s="160">
+      <c r="R33" s="142">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S33" s="160">
+      <c r="S33" s="142">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="T33" s="160">
+      <c r="T33" s="142">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="U33" s="160">
+      <c r="U33" s="142">
         <f t="shared" si="51"/>
         <v>1787</v>
       </c>
-      <c r="V33" s="160">
+      <c r="V33" s="142">
         <f>SUM(V34:V36)</f>
         <v>2530</v>
       </c>
-      <c r="W33" s="163"/>
-    </row>
-    <row r="34" spans="1:23" s="164" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="165" t="s">
+      <c r="W33" s="145"/>
+    </row>
+    <row r="34" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="K34" s="166"/>
-      <c r="M34" s="166"/>
-      <c r="U34" s="164">
+      <c r="E34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="M34" s="148"/>
+      <c r="U34" s="146">
         <v>6</v>
       </c>
-      <c r="V34" s="164">
+      <c r="V34" s="146">
         <v>7</v>
       </c>
-      <c r="W34" s="167"/>
-    </row>
-    <row r="35" spans="1:23" s="164" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="165" t="s">
+      <c r="W34" s="149"/>
+    </row>
+    <row r="35" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="I35" s="166"/>
-      <c r="K35" s="166"/>
-      <c r="M35" s="166"/>
-      <c r="U35" s="164">
+      <c r="E35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="M35" s="148"/>
+      <c r="U35" s="146">
         <v>58</v>
       </c>
-      <c r="V35" s="164">
+      <c r="V35" s="146">
         <v>91</v>
       </c>
-      <c r="W35" s="167"/>
-    </row>
-    <row r="36" spans="1:23" s="168" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="165" t="s">
+      <c r="W35" s="149"/>
+    </row>
+    <row r="36" spans="1:23" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="147" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="K36" s="169"/>
-      <c r="M36" s="169"/>
-      <c r="U36" s="168">
+      <c r="E36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="U36" s="150">
         <v>1723</v>
       </c>
-      <c r="V36" s="168">
+      <c r="V36" s="150">
         <v>2432</v>
       </c>
-      <c r="W36" s="167"/>
+      <c r="W36" s="149"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="s">
@@ -5495,7 +5504,7 @@
       <c r="V39" s="14">
         <v>68.641000000000005</v>
       </c>
-      <c r="W39" s="135"/>
+      <c r="W39" s="134"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
@@ -5514,7 +5523,7 @@
       <c r="V40" s="14">
         <v>147.45500000000001</v>
       </c>
-      <c r="W40" s="135"/>
+      <c r="W40" s="134"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
@@ -5533,7 +5542,7 @@
       <c r="V41" s="14">
         <v>81.793999999999997</v>
       </c>
-      <c r="W41" s="135"/>
+      <c r="W41" s="134"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
@@ -5552,7 +5561,7 @@
       <c r="V42" s="14">
         <v>1.647</v>
       </c>
-      <c r="W42" s="135"/>
+      <c r="W42" s="134"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
@@ -5575,7 +5584,7 @@
         <f>SUM(V39:V42)</f>
         <v>299.53699999999998</v>
       </c>
-      <c r="W43" s="135"/>
+      <c r="W43" s="134"/>
     </row>
     <row r="44" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
@@ -5598,7 +5607,7 @@
       <c r="V44" s="12">
         <v>56.066000000000003</v>
       </c>
-      <c r="W44" s="134"/>
+      <c r="W44" s="133"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
@@ -5618,7 +5627,7 @@
       <c r="V45" s="14">
         <v>5.13</v>
       </c>
-      <c r="W45" s="135"/>
+      <c r="W45" s="134"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
@@ -5638,7 +5647,7 @@
       <c r="V46" s="14">
         <v>0.27100000000000002</v>
       </c>
-      <c r="W46" s="135"/>
+      <c r="W46" s="134"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
@@ -5658,7 +5667,7 @@
       <c r="V47" s="14">
         <v>2.1480000000000001</v>
       </c>
-      <c r="W47" s="135"/>
+      <c r="W47" s="134"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
@@ -5681,7 +5690,7 @@
         <f>SUM(V44:V47)+V43</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="W48" s="135"/>
+      <c r="W48" s="134"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="H49" s="14"/>
@@ -5706,7 +5715,7 @@
       <c r="V50" s="14">
         <v>28.681000000000001</v>
       </c>
-      <c r="W50" s="135"/>
+      <c r="W50" s="134"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
@@ -5726,7 +5735,7 @@
       <c r="V51" s="14">
         <v>11.557</v>
       </c>
-      <c r="W51" s="135"/>
+      <c r="W51" s="134"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
@@ -5746,7 +5755,7 @@
       <c r="V52" s="14">
         <v>0</v>
       </c>
-      <c r="W52" s="135"/>
+      <c r="W52" s="134"/>
     </row>
     <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
@@ -5769,7 +5778,7 @@
       <c r="V53" s="12">
         <v>0</v>
       </c>
-      <c r="W53" s="134"/>
+      <c r="W53" s="133"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
@@ -5793,7 +5802,7 @@
         <f>SUM(V50:V53)</f>
         <v>40.238</v>
       </c>
-      <c r="W54" s="135"/>
+      <c r="W54" s="134"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
@@ -5812,7 +5821,7 @@
       <c r="V55" s="14">
         <v>3</v>
       </c>
-      <c r="W55" s="135"/>
+      <c r="W55" s="134"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
@@ -5831,7 +5840,7 @@
       <c r="V56" s="14">
         <v>176.81200000000001</v>
       </c>
-      <c r="W56" s="135"/>
+      <c r="W56" s="134"/>
     </row>
     <row r="57" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
@@ -5854,7 +5863,7 @@
       <c r="V57" s="12">
         <v>0</v>
       </c>
-      <c r="W57" s="134"/>
+      <c r="W57" s="133"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
@@ -5874,7 +5883,7 @@
       <c r="V58" s="14">
         <v>4.6820000000000004</v>
       </c>
-      <c r="W58" s="135"/>
+      <c r="W58" s="134"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
@@ -5897,7 +5906,7 @@
         <f>V54+V55+V56+V57+V58</f>
         <v>224.732</v>
       </c>
-      <c r="W59" s="135"/>
+      <c r="W59" s="134"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="H60" s="14"/>
@@ -5919,7 +5928,7 @@
       <c r="V61" s="14">
         <v>138.41999999999999</v>
       </c>
-      <c r="W61" s="135"/>
+      <c r="W61" s="134"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
@@ -5942,7 +5951,7 @@
         <f>V61+V59</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="W62" s="135"/>
+      <c r="W62" s="134"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
@@ -5965,7 +5974,7 @@
         <f t="shared" si="52"/>
         <v>138.41999999999999</v>
       </c>
-      <c r="W64" s="135"/>
+      <c r="W64" s="134"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -6009,7 +6018,7 @@
         <f>V44</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="W67" s="135"/>
+      <c r="W67" s="134"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
@@ -6031,7 +6040,7 @@
         <f>V53+V57</f>
         <v>0</v>
       </c>
-      <c r="W68" s="135"/>
+      <c r="W68" s="134"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
@@ -6053,7 +6062,7 @@
         <f>V67-V68</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="W69" s="135"/>
+      <c r="W69" s="134"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
@@ -6092,7 +6101,7 @@
         <f>V71*V14</f>
         <v>320.358961964</v>
       </c>
-      <c r="W72" s="136"/>
+      <c r="W72" s="135"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
@@ -6114,96 +6123,96 @@
         <f>V72-V69</f>
         <v>264.29296196400003</v>
       </c>
-      <c r="W73" s="136"/>
-    </row>
-    <row r="75" spans="1:23" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="94" t="s">
+      <c r="W73" s="135"/>
+    </row>
+    <row r="75" spans="1:23" s="93" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="95"/>
-      <c r="G75" s="95"/>
-      <c r="H75" s="94">
+      <c r="E75" s="94"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="93">
         <f>H71/H65</f>
         <v>2.9348804484709379</v>
       </c>
-      <c r="I75" s="95"/>
-      <c r="K75" s="95"/>
-      <c r="L75" s="94">
+      <c r="I75" s="94"/>
+      <c r="K75" s="94"/>
+      <c r="L75" s="93">
         <f>L71/L65</f>
         <v>3.0907563975629149</v>
       </c>
-      <c r="M75" s="95"/>
-      <c r="U75" s="94">
+      <c r="M75" s="94"/>
+      <c r="U75" s="93">
         <f t="shared" ref="U75" si="63">U71/U65</f>
         <v>3.7658511510025101</v>
       </c>
-      <c r="V75" s="94">
+      <c r="V75" s="93">
         <f>V71/V65</f>
         <v>2.3143979335645142</v>
       </c>
-      <c r="W75" s="142"/>
-    </row>
-    <row r="76" spans="1:23" s="97" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="96"/>
-      <c r="B76" s="97" t="s">
+      <c r="W75" s="141"/>
+    </row>
+    <row r="76" spans="1:23" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="95"/>
+      <c r="B76" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="98"/>
-      <c r="G76" s="98"/>
-      <c r="I76" s="98"/>
-      <c r="K76" s="98"/>
-      <c r="M76" s="98"/>
-      <c r="U76" s="94">
+      <c r="E76" s="97"/>
+      <c r="G76" s="97"/>
+      <c r="I76" s="97"/>
+      <c r="K76" s="97"/>
+      <c r="M76" s="97"/>
+      <c r="U76" s="93">
         <f t="shared" ref="U76" si="64">U72/U3</f>
         <v>5.4847889402181478</v>
       </c>
-      <c r="V76" s="94">
+      <c r="V76" s="93">
         <f>V72/V3</f>
         <v>1.6535424198491799</v>
       </c>
-      <c r="W76" s="142"/>
+      <c r="W76" s="141"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="U77" s="94">
+      <c r="U77" s="93">
         <f t="shared" ref="U77" si="65">U73/U3</f>
         <v>5.0682219795347674</v>
       </c>
-      <c r="V77" s="94">
+      <c r="V77" s="93">
         <f>V73/V3</f>
         <v>1.3641560741608643</v>
       </c>
-      <c r="W77" s="142"/>
+      <c r="W77" s="141"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U78" s="94">
+      <c r="U78" s="93">
         <f t="shared" ref="U78" si="66">U71/U13</f>
         <v>228.14563625289284</v>
       </c>
-      <c r="V78" s="94">
+      <c r="V78" s="93">
         <f>V71/V13</f>
         <v>8.554082987476967</v>
       </c>
-      <c r="W78" s="142"/>
+      <c r="W78" s="141"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="U79" s="94">
+      <c r="U79" s="93">
         <f t="shared" ref="U79" si="67">U73/U12</f>
         <v>210.81808995659659</v>
       </c>
-      <c r="V79" s="94">
+      <c r="V79" s="93">
         <f>V73/V12</f>
         <v>7.0570335094924017</v>
       </c>
-      <c r="W79" s="142"/>
+      <c r="W79" s="141"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
@@ -6247,9 +6256,9 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="2" max="2" width="9.140625" style="116"/>
+    <col min="2" max="2" width="9.140625" style="115"/>
     <col min="3" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="116"/>
+    <col min="18" max="18" width="9.140625" style="115"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6257,13 +6266,13 @@
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>19</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="117" t="s">
+      <c r="R1" s="116" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6271,13 +6280,13 @@
       <c r="A2" s="35">
         <v>44834</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="100" t="s">
         <v>67</v>
       </c>
       <c r="Q2" s="22">
         <v>44834</v>
       </c>
-      <c r="R2" s="118" t="s">
+      <c r="R2" s="117" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6285,13 +6294,13 @@
       <c r="A3" s="30">
         <v>93.568000000000012</v>
       </c>
-      <c r="B3" s="102">
+      <c r="B3" s="101">
         <v>158.58780000000002</v>
       </c>
       <c r="Q3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="R3" s="119">
+      <c r="R3" s="118">
         <v>258.76080000000002</v>
       </c>
     </row>
@@ -6299,13 +6308,13 @@
       <c r="A4" s="31">
         <v>15.750999999999999</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="102">
         <v>22.585512000000008</v>
       </c>
       <c r="Q4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="R4" s="120">
+      <c r="R4" s="119">
         <v>36.226512000000007</v>
       </c>
     </row>
@@ -6313,13 +6322,13 @@
       <c r="A5" s="30">
         <v>77.817000000000007</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="103">
         <v>136.00228800000002</v>
       </c>
       <c r="Q5" s="12">
         <v>164.34900000000002</v>
       </c>
-      <c r="R5" s="121">
+      <c r="R5" s="120">
         <v>222.534288</v>
       </c>
     </row>
@@ -6327,13 +6336,13 @@
       <c r="A6" s="31">
         <v>3.9E-2</v>
       </c>
-      <c r="B6" s="103">
+      <c r="B6" s="102">
         <v>0.4</v>
       </c>
       <c r="Q6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="R6" s="116">
+      <c r="R6" s="115">
         <v>0.4</v>
       </c>
     </row>
@@ -6341,13 +6350,13 @@
       <c r="A7" s="31">
         <v>60.022999999999996</v>
       </c>
-      <c r="B7" s="103">
+      <c r="B7" s="102">
         <v>84.6045728</v>
       </c>
       <c r="Q7" s="14">
         <v>108.93899999999999</v>
       </c>
-      <c r="R7" s="120">
+      <c r="R7" s="119">
         <v>133.5205728</v>
       </c>
     </row>
@@ -6355,13 +6364,13 @@
       <c r="A8" s="30">
         <v>17.833000000000013</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>51.797715200000027</v>
       </c>
       <c r="Q8" s="12">
         <v>55.449000000000012</v>
       </c>
-      <c r="R8" s="121">
+      <c r="R8" s="120">
         <v>89.413715200000013</v>
       </c>
     </row>
@@ -6369,13 +6378,13 @@
       <c r="A9" s="31">
         <v>4.6049999999999986</v>
       </c>
-      <c r="B9" s="103">
+      <c r="B9" s="102">
         <v>-1.0790000000000002</v>
       </c>
       <c r="Q9" s="14">
         <v>8.7839999999999989</v>
       </c>
-      <c r="R9" s="120">
+      <c r="R9" s="119">
         <v>3.1</v>
       </c>
     </row>
@@ -6383,13 +6392,13 @@
       <c r="A10" s="31">
         <v>13.228000000000014</v>
       </c>
-      <c r="B10" s="105">
+      <c r="B10" s="104">
         <v>52.876715200000028</v>
       </c>
       <c r="Q10" s="14">
         <v>46.665000000000013</v>
       </c>
-      <c r="R10" s="122">
+      <c r="R10" s="121">
         <v>86.313715200000019</v>
       </c>
     </row>
@@ -6397,13 +6406,13 @@
       <c r="A11" s="31">
         <v>2.8020000000000005</v>
       </c>
-      <c r="B11" s="103">
+      <c r="B11" s="102">
         <v>3.9384320000000015</v>
       </c>
       <c r="Q11" s="14">
         <v>9.2140000000000004</v>
       </c>
-      <c r="R11" s="120">
+      <c r="R11" s="119">
         <v>10.350432000000001</v>
       </c>
     </row>
@@ -6411,13 +6420,13 @@
       <c r="A12" s="30">
         <v>10.426000000000013</v>
       </c>
-      <c r="B12" s="104">
+      <c r="B12" s="103">
         <v>48.938283200000029</v>
       </c>
       <c r="Q12" s="12">
         <v>37.451000000000015</v>
       </c>
-      <c r="R12" s="121">
+      <c r="R12" s="120">
         <v>75.963283200000021</v>
       </c>
     </row>
@@ -6425,14 +6434,14 @@
       <c r="A13" s="33">
         <v>6.0988847885565384E-2</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="105">
         <v>0.29730235065240646</v>
       </c>
       <c r="P13" s="23"/>
       <c r="Q13" s="26">
         <v>0.21907666815291649</v>
       </c>
-      <c r="R13" s="123">
+      <c r="R13" s="122">
         <v>0.46148048484533777</v>
       </c>
     </row>
@@ -6440,30 +6449,30 @@
       <c r="A14" s="32">
         <v>170.949286</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="102">
         <v>164.60779099999999</v>
       </c>
       <c r="Q14" s="27">
         <v>170.949286</v>
       </c>
-      <c r="R14" s="120">
+      <c r="R14" s="119">
         <v>164.60779099999999</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="107"/>
+      <c r="B15" s="106"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>0.83166253419972636</v>
       </c>
-      <c r="B16" s="108">
+      <c r="B16" s="107">
         <v>0.857583546779765</v>
       </c>
       <c r="Q16" s="23">
         <v>0.84829230777171583</v>
       </c>
-      <c r="R16" s="124">
+      <c r="R16" s="123">
         <v>0.86</v>
       </c>
     </row>
@@ -6471,13 +6480,13 @@
       <c r="A17" s="34">
         <v>0.19058866279069778</v>
       </c>
-      <c r="B17" s="108">
+      <c r="B17" s="107">
         <v>0.32661853686096926</v>
       </c>
       <c r="Q17" s="23">
         <v>0.28620168162650139</v>
       </c>
-      <c r="R17" s="124">
+      <c r="R17" s="123">
         <v>0.34554582919824023</v>
       </c>
     </row>
@@ -6485,13 +6494,13 @@
       <c r="A18" s="34">
         <v>0.11142698358413144</v>
       </c>
-      <c r="B18" s="108">
+      <c r="B18" s="107">
         <v>0.3085879443437643</v>
       </c>
       <c r="Q18" s="23">
         <v>0.19330446317506367</v>
       </c>
-      <c r="R18" s="124">
+      <c r="R18" s="123">
         <v>0.29356565291187853</v>
       </c>
     </row>
@@ -6499,30 +6508,30 @@
       <c r="A19" s="34">
         <v>0.21182340489869955</v>
       </c>
-      <c r="B19" s="108">
+      <c r="B19" s="107">
         <v>7.4483295437383745E-2</v>
       </c>
       <c r="Q19" s="23">
         <v>0.19744990892531872</v>
       </c>
-      <c r="R19" s="124">
+      <c r="R19" s="123">
         <v>0.11991642320130369</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="107"/>
+      <c r="B20" s="106"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <v>0.5227927414761171</v>
       </c>
-      <c r="B21" s="108">
+      <c r="B21" s="107">
         <v>1.5809716006184393</v>
       </c>
       <c r="Q21" s="23">
         <v>1.6954144522663404</v>
       </c>
-      <c r="R21" s="124">
+      <c r="R21" s="123">
         <v>2.6</v>
       </c>
     </row>
@@ -6530,222 +6539,222 @@
       <c r="A22" s="34">
         <v>-6.5935930839647328E-2</v>
       </c>
-      <c r="B22" s="108">
+      <c r="B22" s="107">
         <v>0.58313916923721965</v>
       </c>
       <c r="Q22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="R22" s="125" t="s">
+      <c r="R22" s="124" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
-      <c r="B23" s="108"/>
+      <c r="B23" s="107"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="125"/>
+      <c r="R23" s="124"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
-      <c r="B24" s="108"/>
+      <c r="B24" s="107"/>
       <c r="Q24" s="38"/>
-      <c r="R24" s="125"/>
+      <c r="R24" s="124"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
-      <c r="B25" s="109"/>
+      <c r="B25" s="108"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="117"/>
+      <c r="R25" s="116"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
-      <c r="B26" s="108"/>
+      <c r="B26" s="107"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="125"/>
+      <c r="R26" s="124"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="107"/>
+      <c r="B27" s="106"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
-      <c r="B28" s="110"/>
+      <c r="B28" s="109"/>
       <c r="Q28" s="52"/>
-      <c r="R28" s="126"/>
+      <c r="R28" s="125"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="75"/>
-      <c r="B29" s="111"/>
+      <c r="B29" s="110"/>
       <c r="Q29" s="81"/>
-      <c r="R29" s="127"/>
+      <c r="R29" s="126"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="70"/>
-      <c r="B30" s="112"/>
+      <c r="B30" s="111"/>
       <c r="Q30" s="71"/>
-      <c r="R30" s="128"/>
+      <c r="R30" s="127"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="78"/>
-      <c r="B31" s="113"/>
+      <c r="B31" s="112"/>
       <c r="Q31" s="76"/>
-      <c r="R31" s="129"/>
+      <c r="R31" s="128"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="107"/>
+      <c r="B32" s="106"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="107"/>
+      <c r="B33" s="106"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="107"/>
+      <c r="B34" s="106"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
-      <c r="B35" s="107"/>
+      <c r="B35" s="106"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
-      <c r="B36" s="107"/>
+      <c r="B36" s="106"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
-      <c r="B37" s="107"/>
+      <c r="B37" s="106"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
-      <c r="B38" s="107"/>
+      <c r="B38" s="106"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="107"/>
+      <c r="B39" s="106"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
-      <c r="B40" s="114"/>
+      <c r="B40" s="113"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="130"/>
+      <c r="R40" s="129"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
-      <c r="B41" s="107"/>
+      <c r="B41" s="106"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
-      <c r="B42" s="107"/>
+      <c r="B42" s="106"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
-      <c r="B43" s="107"/>
+      <c r="B43" s="106"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
-      <c r="B44" s="107"/>
+      <c r="B44" s="106"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
-      <c r="B45" s="107"/>
+      <c r="B45" s="106"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
-      <c r="B46" s="107"/>
+      <c r="B46" s="106"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
-      <c r="B47" s="107"/>
+      <c r="B47" s="106"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
-      <c r="B48" s="107"/>
+      <c r="B48" s="106"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="114"/>
+      <c r="B49" s="113"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="130"/>
+      <c r="R49" s="129"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
-      <c r="B50" s="107"/>
+      <c r="B50" s="106"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
-      <c r="B51" s="107"/>
+      <c r="B51" s="106"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
-      <c r="B52" s="107"/>
+      <c r="B52" s="106"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
-      <c r="B53" s="114"/>
+      <c r="B53" s="113"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="130"/>
+      <c r="R53" s="129"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
-      <c r="B54" s="107"/>
+      <c r="B54" s="106"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
-      <c r="B55" s="107"/>
+      <c r="B55" s="106"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="107"/>
+      <c r="B56" s="106"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
-      <c r="B57" s="107"/>
+      <c r="B57" s="106"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
-      <c r="B58" s="107"/>
+      <c r="B58" s="106"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="107"/>
+      <c r="B59" s="106"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
-      <c r="B60" s="107"/>
+      <c r="B60" s="106"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="107"/>
+      <c r="B61" s="106"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="107"/>
+      <c r="B62" s="106"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="107"/>
+      <c r="B63" s="106"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="98"/>
-      <c r="B64" s="115"/>
-      <c r="Q64" s="97"/>
-      <c r="R64" s="131"/>
+      <c r="A64" s="97"/>
+      <c r="B64" s="114"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="130"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="107"/>
+      <c r="B65" s="106"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="107"/>
+      <c r="B66" s="106"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="107"/>
+      <c r="B67" s="106"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="107"/>
+      <c r="B68" s="106"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="107"/>
+      <c r="B69" s="106"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="107"/>
+      <c r="B70" s="106"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="107"/>
+      <c r="B71" s="106"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="107"/>
+      <c r="B72" s="106"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA700C-C0CA-4001-A19F-0B55EBB6F3DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6475809-A67C-4C18-8E80-104965293F49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1145,6 +1145,21 @@
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,28 +1169,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,7 +1193,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C33:D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1734,27 +1734,27 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154"/>
-      <c r="H5" s="152" t="s">
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
+      <c r="H5" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="154"/>
-      <c r="O5" s="152" t="s">
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="159"/>
+      <c r="O5" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="154"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="159"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1764,12 +1764,12 @@
         <v>2.3650000000000002</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="163" t="s">
+      <c r="H6" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
@@ -1797,12 +1797,12 @@
         <f>$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H7" s="165" t="s">
+      <c r="H7" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>48</v>
@@ -1824,12 +1824,12 @@
         <v>404.29506139000006</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="167" t="s">
+      <c r="H8" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1853,12 +1853,12 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1882,12 +1882,12 @@
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H10" s="167" t="s">
+      <c r="H10" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -1911,12 +1911,12 @@
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H11" s="167" t="s">
+      <c r="H11" s="166" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -1937,12 +1937,12 @@
         <v>348.22906139000008</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="168" t="s">
+      <c r="H12" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -1976,41 +1976,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="154"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="162"/>
+      <c r="D16" s="155"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="162"/>
-      <c r="H17" s="152" t="s">
+      <c r="D17" s="155"/>
+      <c r="H17" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="159"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="155"/>
       <c r="H18" s="82" t="s">
         <v>119</v>
       </c>
@@ -2021,8 +2021,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
       <c r="H19" s="86" t="s">
         <v>120</v>
       </c>
@@ -2054,11 +2054,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159"/>
       <c r="H22" s="86" t="s">
         <v>122</v>
       </c>
@@ -2071,10 +2071,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="161" t="s">
+      <c r="C23" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="162"/>
+      <c r="D23" s="155"/>
       <c r="H23" s="87" t="s">
         <v>128</v>
       </c>
@@ -2087,10 +2087,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="161">
+      <c r="C24" s="156">
         <v>2010</v>
       </c>
-      <c r="D24" s="162"/>
+      <c r="D24" s="155"/>
       <c r="H24" s="82"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
@@ -2101,10 +2101,10 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="161">
+      <c r="C25" s="156">
         <v>64</v>
       </c>
-      <c r="D25" s="162"/>
+      <c r="D25" s="155"/>
       <c r="H25" s="82"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
@@ -2115,11 +2115,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="169">
+      <c r="C26" s="154">
         <f>'Financial Model'!V33</f>
         <v>2530</v>
       </c>
-      <c r="D26" s="162"/>
+      <c r="D26" s="155"/>
       <c r="H26" s="84"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
@@ -2130,10 +2130,10 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="161">
+      <c r="C27" s="156">
         <v>2016</v>
       </c>
-      <c r="D27" s="162"/>
+      <c r="D27" s="155"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2150,17 +2150,17 @@
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="157" t="s">
+      <c r="C29" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="158"/>
-      <c r="H29" s="152" t="s">
+      <c r="D29" s="169"/>
+      <c r="H29" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="154"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="159"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="82" t="s">
@@ -2181,11 +2181,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="152" t="s">
+      <c r="B32" s="157" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="153"/>
-      <c r="D32" s="154"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="159"/>
       <c r="H32" s="86" t="s">
         <v>124</v>
       </c>
@@ -2198,11 +2198,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="155">
+      <c r="C33" s="152">
         <f>C6/'Financial Model'!L65</f>
         <v>3.0577866054115437</v>
       </c>
-      <c r="D33" s="156"/>
+      <c r="D33" s="153"/>
       <c r="H33" s="86"/>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -2213,11 +2213,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="155">
+      <c r="C34" s="152">
         <f>C8/'Financial Model'!U3</f>
         <v>5.6247399954088877</v>
       </c>
-      <c r="D34" s="156"/>
+      <c r="D34" s="153"/>
       <c r="H34" s="82" t="s">
         <v>121</v>
       </c>
@@ -2230,11 +2230,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="155">
+      <c r="C35" s="152">
         <f>C12/'Financial Model'!V3</f>
         <v>1.7973947764799401</v>
       </c>
-      <c r="D35" s="156"/>
+      <c r="D35" s="153"/>
       <c r="H35" s="86" t="s">
         <v>127</v>
       </c>
@@ -2247,11 +2247,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="155">
+      <c r="C36" s="152">
         <f>C6/('Financial Model'!U13*100)</f>
         <v>2.2528786210358729</v>
       </c>
-      <c r="D36" s="156"/>
+      <c r="D36" s="153"/>
       <c r="H36" s="82"/>
       <c r="I36" s="83"/>
       <c r="J36" s="83"/>
@@ -2262,11 +2262,11 @@
       <c r="B37" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="155">
+      <c r="C37" s="152">
         <f>C12/'Financial Model'!V12</f>
         <v>9.2982580275560043</v>
       </c>
-      <c r="D37" s="156"/>
+      <c r="D37" s="153"/>
       <c r="H37" s="82"/>
       <c r="I37" s="83"/>
       <c r="J37" s="83"/>
@@ -2282,15 +2282,9 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2305,13 +2299,19 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2328,11 +2328,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
   <dimension ref="A1:CR84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6475809-A67C-4C18-8E80-104965293F49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119E64A-B351-4AB2-A81C-0818CE8D3CCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
@@ -1145,21 +1145,6 @@
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1169,10 +1154,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,10 +1196,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1398,13 +1398,24 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Ten Entertainment Group Plc</v>
+          </cell>
+        </row>
         <row r="25">
           <cell r="C25">
             <v>48</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="P19">
+            <v>8.1420000000000101</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1714,7 +1725,7 @@
   <dimension ref="B2:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:D37"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1734,27 +1745,27 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159"/>
-      <c r="H5" s="157" t="s">
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
+      <c r="H5" s="152" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="159"/>
-      <c r="O5" s="157" t="s">
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="154"/>
+      <c r="O5" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="159"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="154"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1764,12 +1775,12 @@
         <v>2.3650000000000002</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="162" t="s">
+      <c r="H6" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
@@ -1797,12 +1808,12 @@
         <f>$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H7" s="164" t="s">
+      <c r="H7" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>48</v>
@@ -1824,12 +1835,12 @@
         <v>404.29506139000006</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="166" t="s">
+      <c r="H8" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1853,12 +1864,12 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>FY22</v>
       </c>
-      <c r="H9" s="166" t="s">
+      <c r="H9" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1882,12 +1893,12 @@
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H10" s="166" t="s">
+      <c r="H10" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -1911,12 +1922,12 @@
         <f t="shared" si="0"/>
         <v>FY22</v>
       </c>
-      <c r="H11" s="166" t="s">
+      <c r="H11" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -1937,12 +1948,12 @@
         <v>348.22906139000008</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="167" t="s">
+      <c r="H12" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -1976,41 +1987,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="156" t="s">
+      <c r="C16" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="162"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="156" t="s">
+      <c r="C17" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="155"/>
-      <c r="H17" s="157" t="s">
+      <c r="D17" s="162"/>
+      <c r="H17" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="159"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="155"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="162"/>
       <c r="H18" s="82" t="s">
         <v>119</v>
       </c>
@@ -2021,8 +2032,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
       <c r="H19" s="86" t="s">
         <v>120</v>
       </c>
@@ -2054,11 +2065,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
       <c r="H22" s="86" t="s">
         <v>122</v>
       </c>
@@ -2071,10 +2082,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="156" t="s">
+      <c r="C23" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="155"/>
+      <c r="D23" s="162"/>
       <c r="H23" s="87" t="s">
         <v>128</v>
       </c>
@@ -2087,10 +2098,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="156">
+      <c r="C24" s="161">
         <v>2010</v>
       </c>
-      <c r="D24" s="155"/>
+      <c r="D24" s="162"/>
       <c r="H24" s="82"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
@@ -2101,10 +2112,10 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="156">
+      <c r="C25" s="161">
         <v>64</v>
       </c>
-      <c r="D25" s="155"/>
+      <c r="D25" s="162"/>
       <c r="H25" s="82"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
@@ -2115,11 +2126,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="154">
+      <c r="C26" s="169">
         <f>'Financial Model'!V33</f>
         <v>2530</v>
       </c>
-      <c r="D26" s="155"/>
+      <c r="D26" s="162"/>
       <c r="H26" s="84"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
@@ -2130,10 +2141,10 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="156">
+      <c r="C27" s="161">
         <v>2016</v>
       </c>
-      <c r="D27" s="155"/>
+      <c r="D27" s="162"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2150,17 +2161,17 @@
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="168" t="s">
+      <c r="C29" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="169"/>
-      <c r="H29" s="157" t="s">
+      <c r="D29" s="156"/>
+      <c r="H29" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="159"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="154"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="82" t="s">
@@ -2181,11 +2192,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="158"/>
-      <c r="D32" s="159"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="154"/>
       <c r="H32" s="86" t="s">
         <v>124</v>
       </c>
@@ -2198,11 +2209,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="152">
+      <c r="C33" s="157">
         <f>C6/'Financial Model'!L65</f>
         <v>3.0577866054115437</v>
       </c>
-      <c r="D33" s="153"/>
+      <c r="D33" s="158"/>
       <c r="H33" s="86"/>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -2213,11 +2224,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="152">
+      <c r="C34" s="157">
         <f>C8/'Financial Model'!U3</f>
         <v>5.6247399954088877</v>
       </c>
-      <c r="D34" s="153"/>
+      <c r="D34" s="158"/>
       <c r="H34" s="82" t="s">
         <v>121</v>
       </c>
@@ -2230,11 +2241,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="152">
+      <c r="C35" s="157">
         <f>C12/'Financial Model'!V3</f>
         <v>1.7973947764799401</v>
       </c>
-      <c r="D35" s="153"/>
+      <c r="D35" s="158"/>
       <c r="H35" s="86" t="s">
         <v>127</v>
       </c>
@@ -2247,11 +2258,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="152">
+      <c r="C36" s="157">
         <f>C6/('Financial Model'!U13*100)</f>
         <v>2.2528786210358729</v>
       </c>
-      <c r="D36" s="153"/>
+      <c r="D36" s="158"/>
       <c r="H36" s="82"/>
       <c r="I36" s="83"/>
       <c r="J36" s="83"/>
@@ -2262,11 +2273,11 @@
       <c r="B37" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="152">
+      <c r="C37" s="157">
         <f>C12/'Financial Model'!V12</f>
         <v>9.2982580275560043</v>
       </c>
-      <c r="D37" s="153"/>
+      <c r="D37" s="158"/>
       <c r="H37" s="82"/>
       <c r="I37" s="83"/>
       <c r="J37" s="83"/>
@@ -2282,6 +2293,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C35:D35"/>
@@ -2298,20 +2323,6 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2329,10 +2340,10 @@
   <dimension ref="A1:CR84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2589,6 +2600,9 @@
         <f>V3-L3</f>
         <v>93.568000000000012</v>
       </c>
+      <c r="N3" s="3">
+        <v>111.1</v>
+      </c>
       <c r="P3" s="12">
         <v>104.803</v>
       </c>
@@ -4845,7 +4859,7 @@
         <v>71</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:M21" si="45">H3/F3-1</f>
+        <f t="shared" ref="H21:N21" si="45">H3/F3-1</f>
         <v>3.3437826541274918E-2</v>
       </c>
       <c r="I21" s="34">
@@ -4868,6 +4882,10 @@
         <f t="shared" si="45"/>
         <v>0.5227927414761171</v>
       </c>
+      <c r="N21" s="23">
+        <f t="shared" si="45"/>
+        <v>0.10908128936939088</v>
+      </c>
       <c r="P21" s="38" t="s">
         <v>71</v>
       </c>
@@ -4965,7 +4983,7 @@
         <v>-6.0994178235557306E-2</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:M22" si="49">H3/G3-1</f>
+        <f t="shared" ref="H22:N22" si="49">H3/G3-1</f>
         <v>0.10056594175251155</v>
       </c>
       <c r="I22" s="34">
@@ -4987,6 +5005,10 @@
       <c r="M22" s="34">
         <f t="shared" si="49"/>
         <v>-6.5935930839647328E-2</v>
+      </c>
+      <c r="N22" s="23">
+        <f t="shared" si="49"/>
+        <v>0.18737175102599157</v>
       </c>
       <c r="P22" s="38" t="s">
         <v>71</v>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119E64A-B351-4AB2-A81C-0818CE8D3CCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677E588F-8286-4689-A5E7-14E6E6FC9E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>me</author>
   </authors>
   <commentList>
-    <comment ref="S26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
+    <comment ref="T26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
+    <comment ref="T28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="152">
   <si>
     <t>£BOWL</t>
   </si>
@@ -559,6 +559,15 @@
   </si>
   <si>
     <t>Operations</t>
+  </si>
+  <si>
+    <t>H123</t>
+  </si>
+  <si>
+    <t>38% of UK estate fitted with Solar Panels to subsidise energy usage</t>
+  </si>
+  <si>
+    <t>The UK &amp; Canada's largest ten-pin bowling operator</t>
   </si>
 </sst>
 </file>
@@ -573,7 +582,7 @@
     <numFmt numFmtId="168" formatCode="0.0\x"/>
     <numFmt numFmtId="169" formatCode="0.000\x"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,8 +756,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,6 +815,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +919,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1154,28 +1175,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,9 +1217,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1288,13 +1334,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1338,14 +1384,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1362,8 +1408,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9690100" y="9525"/>
-          <a:ext cx="0" cy="13719175"/>
+          <a:off x="9077325" y="9525"/>
+          <a:ext cx="0" cy="14316075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1405,13 +1451,13 @@
         </row>
         <row r="25">
           <cell r="C25">
-            <v>48</v>
+            <v>51</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="19">
-          <cell r="P19">
+          <cell r="R19">
             <v>8.1420000000000101</v>
           </cell>
         </row>
@@ -1724,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1738,6 +1784,13 @@
         <v>0</v>
       </c>
       <c r="F2"/>
+      <c r="H2" s="186" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -1772,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>2.3650000000000002</v>
+        <v>2.52</v>
       </c>
       <c r="D6" s="39"/>
       <c r="H6" s="163" t="s">
@@ -1801,12 +1854,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <f>'Financial Model'!V14</f>
-        <v>170.949286</v>
+        <f>'Financial Model'!N14</f>
+        <v>171.22236899999999</v>
       </c>
       <c r="D7" s="39" t="str">
         <f>$C$28</f>
-        <v>FY22</v>
+        <v>H123</v>
       </c>
       <c r="H7" s="165" t="s">
         <v>100</v>
@@ -1816,7 +1869,7 @@
       <c r="K7" s="166"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="6"/>
@@ -1832,15 +1885,15 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>404.29506139000006</v>
+        <v>431.48036987999996</v>
       </c>
       <c r="D8" s="39"/>
       <c r="H8" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1857,19 +1910,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="14">
-        <f>'Financial Model'!V67</f>
-        <v>56.066000000000003</v>
+        <f>'Financial Model'!N67</f>
+        <v>44.149000000000001</v>
       </c>
       <c r="D9" s="39" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>FY22</v>
+        <v>H123</v>
       </c>
       <c r="H9" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1886,19 +1939,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="14">
-        <f>'Financial Model'!V68</f>
+        <f>'Financial Model'!N68</f>
         <v>0</v>
       </c>
       <c r="D10" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>FY22</v>
+        <v>H123</v>
       </c>
       <c r="H10" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -1916,18 +1969,18 @@
       </c>
       <c r="C11" s="14">
         <f>C9-C10</f>
-        <v>56.066000000000003</v>
+        <v>44.149000000000001</v>
       </c>
       <c r="D11" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>FY22</v>
+        <v>H123</v>
       </c>
       <c r="H11" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -1945,15 +1998,15 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>348.22906139000008</v>
+        <v>387.33136987999995</v>
       </c>
       <c r="D12" s="40"/>
       <c r="H12" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -1997,19 +2050,19 @@
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="162"/>
+      <c r="D16" s="156"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="162"/>
+      <c r="D17" s="156"/>
       <c r="H17" s="152" t="s">
         <v>125</v>
       </c>
@@ -2020,8 +2073,8 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
       <c r="H18" s="82" t="s">
         <v>119</v>
       </c>
@@ -2032,8 +2085,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="162"/>
       <c r="H19" s="86" t="s">
         <v>120</v>
       </c>
@@ -2082,10 +2135,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="161" t="s">
+      <c r="C23" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="162"/>
+      <c r="D23" s="156"/>
       <c r="H23" s="87" t="s">
         <v>128</v>
       </c>
@@ -2098,10 +2151,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="161">
+      <c r="C24" s="155">
         <v>2010</v>
       </c>
-      <c r="D24" s="162"/>
+      <c r="D24" s="156"/>
       <c r="H24" s="82"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
@@ -2112,25 +2165,29 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="161">
-        <v>64</v>
-      </c>
-      <c r="D25" s="162"/>
+      <c r="C25" s="155">
+        <f>+'Financial Model'!N25</f>
+        <v>69</v>
+      </c>
+      <c r="D25" s="156"/>
       <c r="H25" s="82"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
+      <c r="O25" s="185" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="169">
-        <f>'Financial Model'!V33</f>
+      <c r="C26" s="158">
+        <f>'Financial Model'!W33</f>
         <v>2530</v>
       </c>
-      <c r="D26" s="162"/>
+      <c r="D26" s="156"/>
       <c r="H26" s="84"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
@@ -2141,30 +2198,30 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="161">
+      <c r="C27" s="155">
         <v>2016</v>
       </c>
-      <c r="D27" s="162"/>
+      <c r="D27" s="156"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
         <v>139</v>
       </c>
       <c r="C28" s="90" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="D28" s="98">
-        <v>44911</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="156"/>
+      <c r="D29" s="160"/>
       <c r="H29" s="152" t="s">
         <v>126</v>
       </c>
@@ -2209,11 +2266,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="157">
-        <f>C6/'Financial Model'!L65</f>
-        <v>3.0577866054115437</v>
-      </c>
-      <c r="D33" s="158"/>
+      <c r="C33" s="182">
+        <f>C6/'Financial Model'!N65</f>
+        <v>3.0961565002870257</v>
+      </c>
+      <c r="D33" s="157"/>
       <c r="H33" s="86"/>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -2224,11 +2281,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="157">
-        <f>C8/'Financial Model'!U3</f>
-        <v>5.6247399954088877</v>
-      </c>
-      <c r="D34" s="158"/>
+      <c r="C34" s="182">
+        <f>C8/SUM('Financial Model'!M3:N3)</f>
+        <v>2.1190470969452901</v>
+      </c>
+      <c r="D34" s="157"/>
       <c r="H34" s="82" t="s">
         <v>121</v>
       </c>
@@ -2241,11 +2298,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="157">
-        <f>C12/'Financial Model'!V3</f>
-        <v>1.7973947764799401</v>
-      </c>
-      <c r="D35" s="158"/>
+      <c r="C35" s="182">
+        <f>C12/SUM('Financial Model'!M3:N3)</f>
+        <v>1.9022265488655337</v>
+      </c>
+      <c r="D35" s="157"/>
       <c r="H35" s="86" t="s">
         <v>127</v>
       </c>
@@ -2258,11 +2315,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="157">
-        <f>C6/('Financial Model'!U13*100)</f>
-        <v>2.2528786210358729</v>
-      </c>
-      <c r="D36" s="158"/>
+      <c r="C36" s="182">
+        <f>C6/SUM('Financial Model'!M13:N13)</f>
+        <v>13.332662899445351</v>
+      </c>
+      <c r="D36" s="157"/>
       <c r="H36" s="82"/>
       <c r="I36" s="83"/>
       <c r="J36" s="83"/>
@@ -2270,14 +2327,14 @@
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="157">
-        <f>C12/'Financial Model'!V12</f>
-        <v>9.2982580275560043</v>
-      </c>
-      <c r="D37" s="158"/>
+      <c r="C37" s="183">
+        <f>C12/SUM('Financial Model'!M12:N12)</f>
+        <v>11.974629625919729</v>
+      </c>
+      <c r="D37" s="184"/>
       <c r="H37" s="82"/>
       <c r="I37" s="83"/>
       <c r="J37" s="83"/>
@@ -2293,23 +2350,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2323,6 +2363,23 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2337,13 +2394,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
-  <dimension ref="A1:CR84"/>
+  <dimension ref="A1:CS84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21:N22"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2360,14 +2417,16 @@
     <col min="11" max="11" width="9.140625" style="25"/>
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.140625" style="25"/>
-    <col min="14" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="9.140625" style="79"/>
-    <col min="24" max="39" width="9.140625" style="1"/>
-    <col min="40" max="40" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="174"/>
+    <col min="16" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="79"/>
+    <col min="25" max="40" width="9.140625" style="1"/>
+    <col min="41" max="41" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="10" t="s">
         <v>113</v>
       </c>
@@ -2398,77 +2457,81 @@
       <c r="M1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" s="171"/>
+      <c r="Q1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="131" t="s">
+      <c r="X1" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:97" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="19"/>
       <c r="E2" s="35"/>
@@ -2496,31 +2559,32 @@
       <c r="M2" s="35">
         <v>44834</v>
       </c>
-      <c r="P2" s="22">
+      <c r="N2" s="22">
+        <v>45016</v>
+      </c>
+      <c r="O2" s="172"/>
+      <c r="Q2" s="22">
         <v>42643</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="R2" s="22">
         <v>43008</v>
       </c>
-      <c r="R2" s="22">
+      <c r="S2" s="22">
         <v>43373</v>
       </c>
-      <c r="S2" s="22">
+      <c r="T2" s="22">
         <v>43738</v>
       </c>
-      <c r="T2" s="22">
+      <c r="U2" s="22">
         <v>44104</v>
       </c>
-      <c r="U2" s="22">
+      <c r="V2" s="22">
         <v>44469</v>
       </c>
-      <c r="V2" s="22">
+      <c r="W2" s="22">
         <v>44834</v>
       </c>
-      <c r="W2" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="132" t="s">
         <v>67</v>
       </c>
       <c r="Y2" s="21" t="s">
@@ -2565,8 +2629,11 @@
       <c r="AL2" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM2" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2576,120 +2643,121 @@
         <v>66.989999999999995</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G12" si="0">S3-F3</f>
+        <f t="shared" ref="G3:G12" si="0">T3-F3</f>
         <v>62.904000000000011</v>
       </c>
       <c r="H3" s="36">
         <v>69.23</v>
       </c>
       <c r="I3" s="30">
-        <f>T3-H3</f>
+        <f>U3-H3</f>
         <v>10.242999999999995</v>
       </c>
       <c r="J3" s="12">
         <v>10.433</v>
       </c>
       <c r="K3" s="30">
-        <f>U3-J3</f>
+        <f>V3-J3</f>
         <v>61.445</v>
       </c>
       <c r="L3" s="12">
         <v>100.173</v>
       </c>
       <c r="M3" s="30">
-        <f>V3-L3</f>
+        <f>W3-L3</f>
         <v>93.568000000000012</v>
       </c>
-      <c r="N3" s="3">
-        <v>111.1</v>
-      </c>
-      <c r="P3" s="12">
+      <c r="N3" s="169">
+        <v>110.05200000000001</v>
+      </c>
+      <c r="O3" s="41"/>
+      <c r="Q3" s="12">
         <v>104.803</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="R3" s="12">
         <v>113.968</v>
       </c>
-      <c r="R3" s="12">
+      <c r="S3" s="12">
         <v>120.548</v>
       </c>
-      <c r="S3" s="12">
+      <c r="T3" s="12">
         <v>129.89400000000001</v>
       </c>
-      <c r="T3" s="12">
+      <c r="U3" s="12">
         <v>79.472999999999999</v>
       </c>
-      <c r="U3" s="12">
+      <c r="V3" s="12">
         <v>71.878</v>
       </c>
-      <c r="V3" s="12">
+      <c r="W3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="W3" s="133">
-        <f>V3*(1+W21)</f>
+      <c r="X3" s="133">
+        <f>W3*(1+X21)</f>
         <v>213.11510000000004</v>
       </c>
-      <c r="X3" s="36">
-        <f>W3*(1+X21)</f>
+      <c r="Y3" s="36">
+        <f>X3*(1+Y21)</f>
         <v>245.08236500000004</v>
       </c>
-      <c r="Y3" s="36">
-        <f t="shared" ref="Y3:AL3" si="1">X3*(1+Y21)</f>
+      <c r="Z3" s="36">
+        <f t="shared" ref="Z3:AM3" si="1">Y3*(1+Z21)</f>
         <v>294.09883800000006</v>
       </c>
-      <c r="Z3" s="36">
+      <c r="AA3" s="36">
         <f t="shared" si="1"/>
         <v>352.91860560000003</v>
       </c>
-      <c r="AA3" s="36">
+      <c r="AB3" s="36">
         <f t="shared" si="1"/>
         <v>405.85639644000003</v>
       </c>
-      <c r="AB3" s="36">
+      <c r="AC3" s="36">
         <f t="shared" si="1"/>
         <v>446.44203608400005</v>
       </c>
-      <c r="AC3" s="36">
+      <c r="AD3" s="36">
         <f t="shared" si="1"/>
         <v>491.08623969240011</v>
       </c>
-      <c r="AD3" s="36">
+      <c r="AE3" s="36">
         <f t="shared" si="1"/>
         <v>530.37313886779214</v>
       </c>
-      <c r="AE3" s="36">
+      <c r="AF3" s="36">
         <f t="shared" si="1"/>
         <v>556.89179581118174</v>
       </c>
-      <c r="AF3" s="36">
+      <c r="AG3" s="36">
         <f t="shared" si="1"/>
         <v>584.73638560174084</v>
       </c>
-      <c r="AG3" s="36">
+      <c r="AH3" s="36">
         <f t="shared" si="1"/>
         <v>596.43111331377565</v>
       </c>
-      <c r="AH3" s="36">
+      <c r="AI3" s="36">
         <f t="shared" si="1"/>
         <v>608.35973558005117</v>
       </c>
-      <c r="AI3" s="36">
+      <c r="AJ3" s="36">
         <f t="shared" si="1"/>
         <v>620.52693029165221</v>
       </c>
-      <c r="AJ3" s="36">
+      <c r="AK3" s="36">
         <f t="shared" si="1"/>
         <v>632.93746889748525</v>
       </c>
-      <c r="AK3" s="36">
+      <c r="AL3" s="36">
         <f t="shared" si="1"/>
         <v>645.59621827543492</v>
       </c>
-      <c r="AL3" s="36">
+      <c r="AM3" s="36">
         <f t="shared" si="1"/>
         <v>658.50814264094367</v>
       </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>33</v>
@@ -2706,110 +2774,113 @@
         <v>9.9760000000000009</v>
       </c>
       <c r="I4" s="31">
-        <f>T4-H4</f>
+        <f>U4-H4</f>
         <v>1.5669999999999984</v>
       </c>
       <c r="J4" s="14">
         <v>1.1919999999999999</v>
       </c>
       <c r="K4" s="31">
-        <f>U4-J4</f>
+        <f>V4-J4</f>
         <v>9.0649999999999995</v>
       </c>
       <c r="L4" s="14">
         <v>13.641</v>
       </c>
       <c r="M4" s="31">
-        <f>V4-L4</f>
+        <f>W4-L4</f>
         <v>15.750999999999999</v>
       </c>
-      <c r="P4" s="14">
+      <c r="N4" s="170">
+        <v>18.972000000000001</v>
+      </c>
+      <c r="Q4" s="14">
         <v>15.375999999999999</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="R4" s="14">
         <v>15.349</v>
       </c>
-      <c r="R4" s="14">
+      <c r="S4" s="14">
         <v>16.748000000000001</v>
       </c>
-      <c r="S4" s="14">
+      <c r="T4" s="14">
         <v>18.542000000000002</v>
       </c>
-      <c r="T4" s="14">
+      <c r="U4" s="14">
         <v>11.542999999999999</v>
       </c>
-      <c r="U4" s="14">
+      <c r="V4" s="14">
         <v>10.257</v>
       </c>
-      <c r="V4" s="14">
+      <c r="W4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="W4" s="134">
-        <f>W3*0.14</f>
-        <v>29.836114000000009</v>
-      </c>
-      <c r="X4" s="27">
-        <f t="shared" ref="X4:AL4" si="2">X3*0.14</f>
+      <c r="X4" s="134">
+        <f>X3*0.16</f>
+        <v>34.098416000000007</v>
+      </c>
+      <c r="Y4" s="27">
+        <f t="shared" ref="Y4:AM4" si="2">Y3*0.14</f>
         <v>34.31153110000001</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="Z4" s="27">
         <f t="shared" si="2"/>
         <v>41.173837320000011</v>
       </c>
-      <c r="Z4" s="27">
+      <c r="AA4" s="27">
         <f t="shared" si="2"/>
         <v>49.408604784000012</v>
       </c>
-      <c r="AA4" s="27">
+      <c r="AB4" s="27">
         <f t="shared" si="2"/>
         <v>56.819895501600008</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AC4" s="27">
         <f t="shared" si="2"/>
         <v>62.501885051760013</v>
       </c>
-      <c r="AC4" s="27">
+      <c r="AD4" s="27">
         <f t="shared" si="2"/>
         <v>68.752073556936026</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AE4" s="27">
         <f t="shared" si="2"/>
         <v>74.2522394414909</v>
       </c>
-      <c r="AE4" s="27">
+      <c r="AF4" s="27">
         <f t="shared" si="2"/>
         <v>77.964851413565455</v>
       </c>
-      <c r="AF4" s="27">
+      <c r="AG4" s="27">
         <f t="shared" si="2"/>
         <v>81.863093984243719</v>
       </c>
-      <c r="AG4" s="27">
+      <c r="AH4" s="27">
         <f t="shared" si="2"/>
         <v>83.500355863928604</v>
       </c>
-      <c r="AH4" s="27">
+      <c r="AI4" s="27">
         <f t="shared" si="2"/>
         <v>85.170362981207177</v>
       </c>
-      <c r="AI4" s="27">
+      <c r="AJ4" s="27">
         <f t="shared" si="2"/>
         <v>86.87377024083132</v>
       </c>
-      <c r="AJ4" s="27">
+      <c r="AK4" s="27">
         <f t="shared" si="2"/>
         <v>88.611245645647941</v>
       </c>
-      <c r="AK4" s="27">
+      <c r="AL4" s="27">
         <f t="shared" si="2"/>
         <v>90.383470558560902</v>
       </c>
-      <c r="AL4" s="27">
+      <c r="AM4" s="27">
         <f t="shared" si="2"/>
         <v>92.19113996973212</v>
       </c>
     </row>
-    <row r="5" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>34</v>
@@ -2824,7 +2895,7 @@
         <v>53.836000000000013</v>
       </c>
       <c r="H5" s="36">
-        <f t="shared" ref="H5:M5" si="3">H3-H4</f>
+        <f t="shared" ref="H5:N5" si="3">H3-H4</f>
         <v>59.254000000000005</v>
       </c>
       <c r="I5" s="30">
@@ -2847,100 +2918,105 @@
         <f t="shared" si="3"/>
         <v>77.817000000000007</v>
       </c>
-      <c r="P5" s="12">
-        <f t="shared" ref="P5:V5" si="4">P3-P4</f>
+      <c r="N5" s="169">
+        <f t="shared" si="3"/>
+        <v>91.080000000000013</v>
+      </c>
+      <c r="O5" s="173"/>
+      <c r="Q5" s="12">
+        <f t="shared" ref="Q5:W5" si="4">Q3-Q4</f>
         <v>89.426999999999992</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="R5" s="12">
         <f t="shared" si="4"/>
         <v>98.619</v>
       </c>
-      <c r="R5" s="12">
+      <c r="S5" s="12">
         <f t="shared" si="4"/>
         <v>103.8</v>
       </c>
-      <c r="S5" s="12">
+      <c r="T5" s="12">
         <f t="shared" si="4"/>
         <v>111.352</v>
       </c>
-      <c r="T5" s="12">
+      <c r="U5" s="12">
         <f t="shared" si="4"/>
         <v>67.930000000000007</v>
       </c>
-      <c r="U5" s="12">
+      <c r="V5" s="12">
         <f t="shared" si="4"/>
         <v>61.621000000000002</v>
       </c>
-      <c r="V5" s="12">
+      <c r="W5" s="12">
         <f t="shared" si="4"/>
         <v>164.34900000000002</v>
       </c>
-      <c r="W5" s="133">
-        <f>W3-W4</f>
-        <v>183.27898600000003</v>
-      </c>
-      <c r="X5" s="12">
-        <f t="shared" ref="X5:AL5" si="5">X3-X4</f>
+      <c r="X5" s="133">
+        <f>X3-X4</f>
+        <v>179.01668400000003</v>
+      </c>
+      <c r="Y5" s="12">
+        <f t="shared" ref="Y5:AM5" si="5">Y3-Y4</f>
         <v>210.77083390000001</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Z5" s="12">
         <f t="shared" si="5"/>
         <v>252.92500068000004</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="AA5" s="12">
         <f t="shared" si="5"/>
         <v>303.510000816</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AB5" s="12">
         <f t="shared" si="5"/>
         <v>349.03650093840002</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AC5" s="12">
         <f t="shared" si="5"/>
         <v>383.94015103224001</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AD5" s="12">
         <f t="shared" si="5"/>
         <v>422.3341661354641</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AE5" s="12">
         <f t="shared" si="5"/>
         <v>456.12089942630121</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AF5" s="12">
         <f t="shared" si="5"/>
         <v>478.9269443976163</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AG5" s="12">
         <f t="shared" si="5"/>
         <v>502.8732916174971</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AH5" s="12">
         <f t="shared" si="5"/>
         <v>512.93075744984708</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AI5" s="12">
         <f t="shared" si="5"/>
         <v>523.18937259884399</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AJ5" s="12">
         <f t="shared" si="5"/>
         <v>533.65316005082093</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AK5" s="12">
         <f t="shared" si="5"/>
         <v>544.32622325183729</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AL5" s="12">
         <f t="shared" si="5"/>
         <v>555.21274771687399</v>
       </c>
-      <c r="AL5" s="12">
+      <c r="AM5" s="12">
         <f t="shared" si="5"/>
         <v>566.31700267121153</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -2957,31 +3033,31 @@
         <v>0</v>
       </c>
       <c r="I6" s="31">
-        <f>T6-H6</f>
+        <f>U6-H6</f>
         <v>0</v>
       </c>
       <c r="J6" s="14">
         <v>1.5940000000000001</v>
       </c>
       <c r="K6" s="31">
-        <f>U6-J6</f>
+        <f>V6-J6</f>
         <v>1.22</v>
       </c>
       <c r="L6" s="14">
         <v>0</v>
       </c>
       <c r="M6" s="31">
-        <f>V6-L6</f>
+        <f>W6-L6</f>
         <v>3.9E-2</v>
       </c>
-      <c r="P6" s="14">
+      <c r="N6" s="170">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
         <v>1.395</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="R6" s="14">
         <v>0.08</v>
-      </c>
-      <c r="R6" s="14">
-        <v>0</v>
       </c>
       <c r="S6" s="14">
         <v>0</v>
@@ -2990,77 +3066,80 @@
         <v>0</v>
       </c>
       <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
         <v>2.8140000000000001</v>
       </c>
-      <c r="V6" s="14">
+      <c r="W6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="W6" s="134">
-        <f>AVERAGE(T6:V6)</f>
+      <c r="X6" s="134">
+        <f>AVERAGE(U6:W6)</f>
         <v>0.95100000000000007</v>
       </c>
-      <c r="X6" s="14">
-        <f>AVERAGE(P6:W6)</f>
+      <c r="Y6" s="14">
+        <f>AVERAGE(Q6:X6)</f>
         <v>0.65987499999999999</v>
       </c>
-      <c r="Y6" s="14">
-        <f t="shared" ref="Y6:AL6" si="6">AVERAGE(Q6:X6)</f>
+      <c r="Z6" s="14">
+        <f t="shared" ref="Z6:AM6" si="6">AVERAGE(R6:Y6)</f>
         <v>0.56798437499999999</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="AA6" s="14">
         <f t="shared" si="6"/>
         <v>0.62898242187499998</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AB6" s="14">
         <f t="shared" si="6"/>
         <v>0.70760522460937492</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AC6" s="14">
         <f t="shared" si="6"/>
         <v>0.79605587768554675</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AD6" s="14">
         <f t="shared" si="6"/>
         <v>0.89556286239624006</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AE6" s="14">
         <f t="shared" si="6"/>
         <v>0.65575822019577013</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AF6" s="14">
         <f t="shared" si="6"/>
         <v>0.73285299772024137</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AG6" s="14">
         <f t="shared" si="6"/>
         <v>0.70558462243527176</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AH6" s="14">
         <f t="shared" si="6"/>
         <v>0.71129832523968051</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AI6" s="14">
         <f t="shared" si="6"/>
         <v>0.7292125690196406</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AJ6" s="14">
         <f t="shared" si="6"/>
         <v>0.74174133741272075</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AK6" s="14">
         <f t="shared" si="6"/>
         <v>0.74600835151313905</v>
       </c>
-      <c r="AK6" s="14">
+      <c r="AL6" s="14">
         <f t="shared" si="6"/>
         <v>0.73975241074158815</v>
       </c>
-      <c r="AL6" s="14">
+      <c r="AM6" s="14">
         <f t="shared" si="6"/>
         <v>0.72027610428475664</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -3076,110 +3155,113 @@
         <v>40.078000000000003</v>
       </c>
       <c r="I7" s="31">
-        <f>T7-H7</f>
+        <f>U7-H7</f>
         <v>17.991</v>
       </c>
       <c r="J7" s="14">
         <v>20.856999999999999</v>
       </c>
       <c r="K7" s="31">
-        <f>U7-J7</f>
+        <f>V7-J7</f>
         <v>33.997999999999998</v>
       </c>
       <c r="L7" s="14">
         <v>48.915999999999997</v>
       </c>
       <c r="M7" s="31">
-        <f>V7-L7</f>
+        <f>W7-L7</f>
         <v>60.022999999999996</v>
       </c>
-      <c r="P7" s="14">
+      <c r="N7" s="170">
+        <v>58.933999999999997</v>
+      </c>
+      <c r="Q7" s="14">
         <v>76.444000000000003</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="R7" s="14">
         <v>76.498000000000005</v>
       </c>
-      <c r="R7" s="14">
+      <c r="S7" s="14">
         <v>78.908000000000001</v>
       </c>
-      <c r="S7" s="14">
+      <c r="T7" s="14">
         <v>82.908000000000001</v>
       </c>
-      <c r="T7" s="14">
+      <c r="U7" s="14">
         <v>58.069000000000003</v>
       </c>
-      <c r="U7" s="14">
+      <c r="V7" s="14">
         <v>54.854999999999997</v>
       </c>
-      <c r="V7" s="14">
+      <c r="W7" s="14">
         <v>108.93899999999999</v>
       </c>
-      <c r="W7" s="134">
-        <f>W5*0.65</f>
-        <v>119.13134090000003</v>
-      </c>
-      <c r="X7" s="27">
+      <c r="X7" s="134">
         <f>X5*0.65</f>
+        <v>116.36084460000002</v>
+      </c>
+      <c r="Y7" s="27">
+        <f>Y5*0.65</f>
         <v>137.00104203500001</v>
       </c>
-      <c r="Y7" s="27">
-        <f t="shared" ref="Y7:AL7" si="7">Y5*0.65</f>
+      <c r="Z7" s="27">
+        <f t="shared" ref="Z7:AM7" si="7">Z5*0.65</f>
         <v>164.40125044200002</v>
       </c>
-      <c r="Z7" s="27">
+      <c r="AA7" s="27">
         <f t="shared" si="7"/>
         <v>197.2815005304</v>
       </c>
-      <c r="AA7" s="27">
+      <c r="AB7" s="27">
         <f t="shared" si="7"/>
         <v>226.87372560996002</v>
       </c>
-      <c r="AB7" s="27">
+      <c r="AC7" s="27">
         <f t="shared" si="7"/>
         <v>249.561098170956</v>
       </c>
-      <c r="AC7" s="27">
+      <c r="AD7" s="27">
         <f t="shared" si="7"/>
         <v>274.51720798805167</v>
       </c>
-      <c r="AD7" s="27">
+      <c r="AE7" s="27">
         <f t="shared" si="7"/>
         <v>296.47858462709581</v>
       </c>
-      <c r="AE7" s="27">
+      <c r="AF7" s="27">
         <f t="shared" si="7"/>
         <v>311.3025138584506</v>
       </c>
-      <c r="AF7" s="27">
+      <c r="AG7" s="27">
         <f t="shared" si="7"/>
         <v>326.86763955137314</v>
       </c>
-      <c r="AG7" s="27">
+      <c r="AH7" s="27">
         <f t="shared" si="7"/>
         <v>333.40499234240059</v>
       </c>
-      <c r="AH7" s="27">
+      <c r="AI7" s="27">
         <f t="shared" si="7"/>
         <v>340.0730921892486</v>
       </c>
-      <c r="AI7" s="27">
+      <c r="AJ7" s="27">
         <f t="shared" si="7"/>
         <v>346.87455403303363</v>
       </c>
-      <c r="AJ7" s="27">
+      <c r="AK7" s="27">
         <f t="shared" si="7"/>
         <v>353.81204511369424</v>
       </c>
-      <c r="AK7" s="27">
+      <c r="AL7" s="27">
         <f t="shared" si="7"/>
         <v>360.88828601596811</v>
       </c>
-      <c r="AL7" s="27">
+      <c r="AM7" s="27">
         <f t="shared" si="7"/>
         <v>368.1060517362875</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
@@ -3193,7 +3275,7 @@
         <v>11.681000000000012</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" ref="H8:M8" si="8">H5+H6-H7</f>
+        <f t="shared" ref="H8:N8" si="8">H5+H6-H7</f>
         <v>19.176000000000002</v>
       </c>
       <c r="I8" s="30">
@@ -3216,100 +3298,105 @@
         <f t="shared" si="8"/>
         <v>17.833000000000013</v>
       </c>
-      <c r="P8" s="12">
-        <f t="shared" ref="P8:W8" si="9">P5+P6-P7</f>
+      <c r="N8" s="169">
+        <f t="shared" si="8"/>
+        <v>32.146000000000015</v>
+      </c>
+      <c r="O8" s="173"/>
+      <c r="Q8" s="12">
+        <f t="shared" ref="Q8:X8" si="9">Q5+Q6-Q7</f>
         <v>14.377999999999986</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="R8" s="12">
         <f t="shared" si="9"/>
         <v>22.200999999999993</v>
       </c>
-      <c r="R8" s="12">
+      <c r="S8" s="12">
         <f t="shared" si="9"/>
         <v>24.891999999999996</v>
       </c>
-      <c r="S8" s="12">
+      <c r="T8" s="12">
         <f t="shared" si="9"/>
         <v>28.444000000000003</v>
       </c>
-      <c r="T8" s="12">
+      <c r="U8" s="12">
         <f t="shared" si="9"/>
         <v>9.8610000000000042</v>
       </c>
-      <c r="U8" s="12">
+      <c r="V8" s="12">
         <f t="shared" si="9"/>
         <v>9.5800000000000054</v>
       </c>
-      <c r="V8" s="12">
+      <c r="W8" s="12">
         <f t="shared" si="9"/>
         <v>55.449000000000012</v>
       </c>
-      <c r="W8" s="41">
+      <c r="X8" s="41">
         <f t="shared" si="9"/>
-        <v>65.098645099999999</v>
-      </c>
-      <c r="X8" s="12">
-        <f t="shared" ref="X8:AL8" si="10">X5+X6-X7</f>
+        <v>63.606839399999998</v>
+      </c>
+      <c r="Y8" s="12">
+        <f t="shared" ref="Y8:AM8" si="10">Y5+Y6-Y7</f>
         <v>74.429666865000002</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Z8" s="12">
         <f t="shared" si="10"/>
         <v>89.091734613000028</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="AA8" s="12">
         <f t="shared" si="10"/>
         <v>106.85748270747499</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AB8" s="12">
         <f t="shared" si="10"/>
         <v>122.87038055304939</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AC8" s="12">
         <f t="shared" si="10"/>
         <v>135.17510873896956</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AD8" s="12">
         <f t="shared" si="10"/>
         <v>148.71252100980865</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AE8" s="12">
         <f t="shared" si="10"/>
         <v>160.29807301940116</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AF8" s="12">
         <f t="shared" si="10"/>
         <v>168.35728353688592</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AG8" s="12">
         <f t="shared" si="10"/>
         <v>176.71123668855921</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AH8" s="12">
         <f t="shared" si="10"/>
         <v>180.23706343268617</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AI8" s="12">
         <f t="shared" si="10"/>
         <v>183.84549297861503</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AJ8" s="12">
         <f t="shared" si="10"/>
         <v>187.52034735519999</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AK8" s="12">
         <f t="shared" si="10"/>
         <v>191.26018648965623</v>
       </c>
-      <c r="AK8" s="12">
+      <c r="AL8" s="12">
         <f t="shared" si="10"/>
         <v>195.06421411164752</v>
       </c>
-      <c r="AL8" s="12">
+      <c r="AM8" s="12">
         <f t="shared" si="10"/>
         <v>198.93122703920875</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
@@ -3327,101 +3414,104 @@
         <v>4.7079999999999993</v>
       </c>
       <c r="I9" s="31">
-        <f>T9-H9</f>
+        <f>U9-H9</f>
         <v>3.9570000000000016</v>
       </c>
       <c r="J9" s="14">
         <v>4.4669999999999996</v>
       </c>
       <c r="K9" s="31">
-        <f>U9-J9</f>
+        <f>V9-J9</f>
         <v>4.6510000000000007</v>
       </c>
       <c r="L9" s="14">
         <v>4.1790000000000003</v>
       </c>
       <c r="M9" s="31">
-        <f>V9-L9</f>
+        <f>W9-L9</f>
         <v>4.6049999999999986</v>
       </c>
-      <c r="P9" s="14">
+      <c r="N9" s="170">
+        <v>4.4569999999999999</v>
+      </c>
+      <c r="Q9" s="14">
         <f>-0.022+11.905-0.079</f>
         <v>11.803999999999998</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="R9" s="14">
         <f>1.158-0.012+0.055</f>
         <v>1.2009999999999998</v>
       </c>
-      <c r="R9" s="14">
+      <c r="S9" s="14">
         <f>0.976-0.018</f>
         <v>0.95799999999999996</v>
       </c>
-      <c r="S9" s="14">
+      <c r="T9" s="14">
         <f>1.023-0.167</f>
         <v>0.85599999999999987</v>
       </c>
-      <c r="T9" s="14">
+      <c r="U9" s="14">
         <f>8.743-0.078</f>
         <v>8.6650000000000009</v>
       </c>
-      <c r="U9" s="14">
+      <c r="V9" s="14">
         <v>9.1180000000000003</v>
       </c>
-      <c r="V9" s="14">
+      <c r="W9" s="14">
         <f>-0.012+8.796</f>
         <v>8.7839999999999989</v>
       </c>
-      <c r="W9" s="134">
-        <f>AVERAGE(T9:V9)</f>
+      <c r="X9" s="134">
+        <f>AVERAGE(U9:W9)</f>
         <v>8.8556666666666661</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>2.9</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>3.9</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>5.9</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>6.9</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>7.9</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>8.9</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>9.9</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>10.9</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>11.9</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>12.9</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1">
         <v>13.9</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <v>14.9</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AL9" s="1">
         <v>15.9</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
@@ -3435,7 +3525,7 @@
         <v>11.20300000000001</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" ref="H10:M10" si="11">H8-H9</f>
+        <f t="shared" ref="H10:N10" si="11">H8-H9</f>
         <v>14.468000000000004</v>
       </c>
       <c r="I10" s="31">
@@ -3458,100 +3548,104 @@
         <f t="shared" si="11"/>
         <v>13.228000000000014</v>
       </c>
-      <c r="P10" s="14">
-        <f t="shared" ref="P10:W10" si="12">P8-P9</f>
+      <c r="N10" s="170">
+        <f t="shared" si="11"/>
+        <v>27.689000000000014</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" ref="Q10:X10" si="12">Q8-Q9</f>
         <v>2.5739999999999874</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="R10" s="14">
         <f t="shared" si="12"/>
         <v>20.999999999999993</v>
       </c>
-      <c r="R10" s="14">
+      <c r="S10" s="14">
         <f t="shared" si="12"/>
         <v>23.933999999999997</v>
       </c>
-      <c r="S10" s="14">
+      <c r="T10" s="14">
         <f t="shared" si="12"/>
         <v>27.588000000000001</v>
       </c>
-      <c r="T10" s="14">
+      <c r="U10" s="14">
         <f t="shared" si="12"/>
         <v>1.1960000000000033</v>
       </c>
-      <c r="U10" s="14">
+      <c r="V10" s="14">
         <f t="shared" si="12"/>
         <v>0.46200000000000507</v>
       </c>
-      <c r="V10" s="14">
+      <c r="W10" s="14">
         <f t="shared" si="12"/>
         <v>46.665000000000013</v>
       </c>
-      <c r="W10" s="44">
+      <c r="X10" s="44">
         <f t="shared" si="12"/>
-        <v>56.242978433333334</v>
-      </c>
-      <c r="X10" s="14">
-        <f t="shared" ref="X10:AL10" si="13">X8-X9</f>
+        <v>54.751172733333334</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" ref="Y10:AM10" si="13">Y8-Y9</f>
         <v>71.529666864999996</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Z10" s="14">
         <f t="shared" si="13"/>
         <v>85.191734613000023</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="AA10" s="14">
         <f t="shared" si="13"/>
         <v>101.95748270747498</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AB10" s="14">
         <f t="shared" si="13"/>
         <v>116.97038055304938</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AC10" s="14">
         <f t="shared" si="13"/>
         <v>128.27510873896955</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AD10" s="14">
         <f t="shared" si="13"/>
         <v>140.81252100980865</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AE10" s="14">
         <f t="shared" si="13"/>
         <v>151.39807301940115</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AF10" s="14">
         <f t="shared" si="13"/>
         <v>158.45728353688591</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AG10" s="14">
         <f t="shared" si="13"/>
         <v>165.81123668855921</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AH10" s="14">
         <f t="shared" si="13"/>
         <v>168.33706343268616</v>
       </c>
-      <c r="AH10" s="14">
+      <c r="AI10" s="14">
         <f t="shared" si="13"/>
         <v>170.94549297861502</v>
       </c>
-      <c r="AI10" s="14">
+      <c r="AJ10" s="14">
         <f t="shared" si="13"/>
         <v>173.62034735519998</v>
       </c>
-      <c r="AJ10" s="14">
+      <c r="AK10" s="14">
         <f t="shared" si="13"/>
         <v>176.36018648965623</v>
       </c>
-      <c r="AK10" s="14">
+      <c r="AL10" s="14">
         <f t="shared" si="13"/>
         <v>179.16421411164751</v>
       </c>
-      <c r="AL10" s="14">
+      <c r="AM10" s="14">
         <f t="shared" si="13"/>
         <v>182.03122703920874</v>
       </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
@@ -3567,110 +3661,113 @@
         <v>2.948</v>
       </c>
       <c r="I11" s="31">
-        <f>T11-H11</f>
+        <f>U11-H11</f>
         <v>-3.137</v>
       </c>
       <c r="J11" s="14">
         <v>-2.8559999999999999</v>
       </c>
       <c r="K11" s="31">
-        <f>U11-J11</f>
+        <f>V11-J11</f>
         <v>1.5899999999999999</v>
       </c>
       <c r="L11" s="14">
         <v>6.4119999999999999</v>
       </c>
       <c r="M11" s="31">
-        <f>V11-L11</f>
+        <f>W11-L11</f>
         <v>2.8020000000000005</v>
       </c>
-      <c r="P11" s="14">
+      <c r="N11" s="170">
+        <v>5.7690000000000001</v>
+      </c>
+      <c r="Q11" s="14">
         <v>1.387</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="R11" s="14">
         <v>2.8479999999999999</v>
       </c>
-      <c r="R11" s="14">
+      <c r="S11" s="14">
         <v>5.15</v>
       </c>
-      <c r="S11" s="14">
+      <c r="T11" s="14">
         <v>5.3029999999999999</v>
       </c>
-      <c r="T11" s="14">
+      <c r="U11" s="14">
         <v>-0.189</v>
       </c>
-      <c r="U11" s="14">
+      <c r="V11" s="14">
         <v>-1.266</v>
       </c>
-      <c r="V11" s="14">
+      <c r="W11" s="14">
         <v>9.2140000000000004</v>
       </c>
-      <c r="W11" s="134">
-        <f>W10-W12</f>
-        <v>11.248595686666661</v>
-      </c>
-      <c r="X11" s="27">
-        <f>X10*(1-(1-X19))</f>
+      <c r="X11" s="134">
+        <f>X10-X12</f>
+        <v>10.950234546666664</v>
+      </c>
+      <c r="Y11" s="27">
+        <f>Y10*(1-(1-Y19))</f>
         <v>14.305933372999997</v>
       </c>
-      <c r="Y11" s="27">
-        <f t="shared" ref="Y11:AL11" si="14">Y10*(1-(1-Y19))</f>
+      <c r="Z11" s="27">
+        <f t="shared" ref="Z11:AM11" si="14">Z10*(1-(1-Z19))</f>
         <v>17.038346922600002</v>
       </c>
-      <c r="Z11" s="27">
+      <c r="AA11" s="27">
         <f t="shared" si="14"/>
         <v>20.391496541494991</v>
       </c>
-      <c r="AA11" s="27">
+      <c r="AB11" s="27">
         <f t="shared" si="14"/>
         <v>23.39407611060987</v>
       </c>
-      <c r="AB11" s="27">
+      <c r="AC11" s="27">
         <f t="shared" si="14"/>
         <v>25.655021747793903</v>
       </c>
-      <c r="AC11" s="27">
+      <c r="AD11" s="27">
         <f t="shared" si="14"/>
         <v>28.162504201961724</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AE11" s="27">
         <f t="shared" si="14"/>
         <v>30.279614603880223</v>
       </c>
-      <c r="AE11" s="27">
+      <c r="AF11" s="27">
         <f t="shared" si="14"/>
         <v>31.691456707377174</v>
       </c>
-      <c r="AF11" s="27">
+      <c r="AG11" s="27">
         <f t="shared" si="14"/>
         <v>33.162247337711833</v>
       </c>
-      <c r="AG11" s="27">
+      <c r="AH11" s="27">
         <f t="shared" si="14"/>
         <v>33.667412686537226</v>
       </c>
-      <c r="AH11" s="27">
+      <c r="AI11" s="27">
         <f t="shared" si="14"/>
         <v>34.189098595722996</v>
       </c>
-      <c r="AI11" s="27">
+      <c r="AJ11" s="27">
         <f t="shared" si="14"/>
         <v>34.724069471039989</v>
       </c>
-      <c r="AJ11" s="27">
+      <c r="AK11" s="27">
         <f t="shared" si="14"/>
         <v>35.272037297931234</v>
       </c>
-      <c r="AK11" s="27">
+      <c r="AL11" s="27">
         <f t="shared" si="14"/>
         <v>35.832842822329496</v>
       </c>
-      <c r="AL11" s="27">
+      <c r="AM11" s="27">
         <f t="shared" si="14"/>
         <v>36.406245407841737</v>
       </c>
     </row>
-    <row r="12" spans="1:96" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
@@ -3684,7 +3781,7 @@
         <v>8.910000000000009</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" ref="H12:M12" si="15">H10-H11</f>
+        <f t="shared" ref="H12:N12" si="15">H10-H11</f>
         <v>11.520000000000003</v>
       </c>
       <c r="I12" s="30">
@@ -3707,333 +3804,338 @@
         <f t="shared" si="15"/>
         <v>10.426000000000013</v>
       </c>
-      <c r="O12" s="88"/>
-      <c r="P12" s="12">
-        <f t="shared" ref="P12:V12" si="16">P10-P11</f>
+      <c r="N12" s="169">
+        <f t="shared" si="15"/>
+        <v>21.920000000000016</v>
+      </c>
+      <c r="O12" s="175"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="12">
+        <f t="shared" ref="Q12:W12" si="16">Q10-Q11</f>
         <v>1.1869999999999874</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="R12" s="12">
         <f t="shared" si="16"/>
         <v>18.151999999999994</v>
       </c>
-      <c r="R12" s="12">
+      <c r="S12" s="12">
         <f t="shared" si="16"/>
         <v>18.783999999999999</v>
       </c>
-      <c r="S12" s="12">
+      <c r="T12" s="12">
         <f t="shared" si="16"/>
         <v>22.285</v>
       </c>
-      <c r="T12" s="12">
+      <c r="U12" s="12">
         <f t="shared" si="16"/>
         <v>1.3850000000000033</v>
       </c>
-      <c r="U12" s="12">
+      <c r="V12" s="12">
         <f t="shared" si="16"/>
         <v>1.7280000000000051</v>
       </c>
-      <c r="V12" s="12">
+      <c r="W12" s="12">
         <f t="shared" si="16"/>
         <v>37.451000000000015</v>
       </c>
-      <c r="W12" s="133">
-        <f>W10*(1-W19)</f>
-        <v>44.994382746666673</v>
-      </c>
-      <c r="X12" s="12">
-        <f t="shared" ref="X12:AL12" si="17">X10-X11</f>
+      <c r="X12" s="133">
+        <f>X10*(1-X19)</f>
+        <v>43.80093818666667</v>
+      </c>
+      <c r="Y12" s="12">
+        <f t="shared" ref="Y12:AM12" si="17">Y10-Y11</f>
         <v>57.223733492000001</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Z12" s="12">
         <f t="shared" si="17"/>
         <v>68.153387690400024</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="AA12" s="12">
         <f t="shared" si="17"/>
         <v>81.565986165979993</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AB12" s="12">
         <f t="shared" si="17"/>
         <v>93.576304442439508</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AC12" s="12">
         <f t="shared" si="17"/>
         <v>102.62008699117564</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AD12" s="12">
         <f t="shared" si="17"/>
         <v>112.65001680784692</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AE12" s="12">
         <f t="shared" si="17"/>
         <v>121.11845841552093</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AF12" s="12">
         <f t="shared" si="17"/>
         <v>126.76582682950874</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AG12" s="12">
         <f t="shared" si="17"/>
         <v>132.64898935084739</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AH12" s="12">
         <f t="shared" si="17"/>
         <v>134.66965074614893</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AI12" s="12">
         <f t="shared" si="17"/>
         <v>136.75639438289204</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AJ12" s="12">
         <f t="shared" si="17"/>
         <v>138.89627788415999</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AK12" s="12">
         <f t="shared" si="17"/>
         <v>141.08814919172499</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AL12" s="12">
         <f t="shared" si="17"/>
         <v>143.33137128931801</v>
       </c>
-      <c r="AL12" s="12">
+      <c r="AM12" s="12">
         <f t="shared" si="17"/>
         <v>145.62498163136701</v>
       </c>
-      <c r="AM12" s="12">
-        <f t="shared" ref="AM12:BR12" si="18">AL12*(1+$AO$15)</f>
+      <c r="AN12" s="12">
+        <f t="shared" ref="AN12:BS12" si="18">AM12*(1+$AP$15)</f>
         <v>142.71248199873966</v>
       </c>
-      <c r="AN12" s="12">
+      <c r="AO12" s="12">
         <f t="shared" si="18"/>
         <v>139.85823235876487</v>
       </c>
-      <c r="AO12" s="12">
+      <c r="AP12" s="12">
         <f t="shared" si="18"/>
         <v>137.06106771158957</v>
       </c>
-      <c r="AP12" s="12">
+      <c r="AQ12" s="12">
         <f t="shared" si="18"/>
         <v>134.31984635735779</v>
       </c>
-      <c r="AQ12" s="12">
+      <c r="AR12" s="12">
         <f t="shared" si="18"/>
         <v>131.63344943021062</v>
       </c>
-      <c r="AR12" s="12">
+      <c r="AS12" s="12">
         <f t="shared" si="18"/>
         <v>129.00078044160639</v>
       </c>
-      <c r="AS12" s="12">
+      <c r="AT12" s="12">
         <f t="shared" si="18"/>
         <v>126.42076483277427</v>
       </c>
-      <c r="AT12" s="12">
+      <c r="AU12" s="12">
         <f t="shared" si="18"/>
         <v>123.89234953611879</v>
       </c>
-      <c r="AU12" s="12">
+      <c r="AV12" s="12">
         <f t="shared" si="18"/>
         <v>121.4145025453964</v>
       </c>
-      <c r="AV12" s="12">
+      <c r="AW12" s="12">
         <f t="shared" si="18"/>
         <v>118.98621249448847</v>
       </c>
-      <c r="AW12" s="12">
+      <c r="AX12" s="12">
         <f t="shared" si="18"/>
         <v>116.60648824459869</v>
       </c>
-      <c r="AX12" s="12">
+      <c r="AY12" s="12">
         <f t="shared" si="18"/>
         <v>114.27435847970672</v>
       </c>
-      <c r="AY12" s="12">
+      <c r="AZ12" s="12">
         <f t="shared" si="18"/>
         <v>111.98887131011259</v>
       </c>
-      <c r="AZ12" s="12">
+      <c r="BA12" s="12">
         <f t="shared" si="18"/>
         <v>109.74909388391033</v>
       </c>
-      <c r="BA12" s="12">
+      <c r="BB12" s="12">
         <f t="shared" si="18"/>
         <v>107.55411200623213</v>
       </c>
-      <c r="BB12" s="12">
+      <c r="BC12" s="12">
         <f t="shared" si="18"/>
         <v>105.40302976610748</v>
       </c>
-      <c r="BC12" s="12">
+      <c r="BD12" s="12">
         <f t="shared" si="18"/>
         <v>103.29496917078532</v>
       </c>
-      <c r="BD12" s="12">
+      <c r="BE12" s="12">
         <f t="shared" si="18"/>
         <v>101.22906978736961</v>
       </c>
-      <c r="BE12" s="12">
+      <c r="BF12" s="12">
         <f t="shared" si="18"/>
         <v>99.20448839162222</v>
       </c>
-      <c r="BF12" s="12">
+      <c r="BG12" s="12">
         <f t="shared" si="18"/>
         <v>97.220398623789777</v>
       </c>
-      <c r="BG12" s="12">
+      <c r="BH12" s="12">
         <f t="shared" si="18"/>
         <v>95.275990651313975</v>
       </c>
-      <c r="BH12" s="12">
+      <c r="BI12" s="12">
         <f t="shared" si="18"/>
         <v>93.370470838287687</v>
       </c>
-      <c r="BI12" s="12">
+      <c r="BJ12" s="12">
         <f t="shared" si="18"/>
         <v>91.503061421521934</v>
       </c>
-      <c r="BJ12" s="12">
+      <c r="BK12" s="12">
         <f t="shared" si="18"/>
         <v>89.673000193091497</v>
       </c>
-      <c r="BK12" s="12">
+      <c r="BL12" s="12">
         <f t="shared" si="18"/>
         <v>87.879540189229658</v>
       </c>
-      <c r="BL12" s="12">
+      <c r="BM12" s="12">
         <f t="shared" si="18"/>
         <v>86.121949385445063</v>
       </c>
-      <c r="BM12" s="12">
+      <c r="BN12" s="12">
         <f t="shared" si="18"/>
         <v>84.399510397736165</v>
       </c>
-      <c r="BN12" s="12">
+      <c r="BO12" s="12">
         <f t="shared" si="18"/>
         <v>82.711520189781439</v>
       </c>
-      <c r="BO12" s="12">
+      <c r="BP12" s="12">
         <f t="shared" si="18"/>
         <v>81.057289785985802</v>
       </c>
-      <c r="BP12" s="12">
+      <c r="BQ12" s="12">
         <f t="shared" si="18"/>
         <v>79.436143990266089</v>
       </c>
-      <c r="BQ12" s="12">
+      <c r="BR12" s="12">
         <f t="shared" si="18"/>
         <v>77.847421110460772</v>
       </c>
-      <c r="BR12" s="12">
+      <c r="BS12" s="12">
         <f t="shared" si="18"/>
         <v>76.290472688251555</v>
       </c>
-      <c r="BS12" s="12">
-        <f t="shared" ref="BS12:CR12" si="19">BR12*(1+$AO$15)</f>
+      <c r="BT12" s="12">
+        <f t="shared" ref="BT12:CS12" si="19">BS12*(1+$AP$15)</f>
         <v>74.76466323448652</v>
       </c>
-      <c r="BT12" s="12">
+      <c r="BU12" s="12">
         <f t="shared" si="19"/>
         <v>73.269369969796784</v>
       </c>
-      <c r="BU12" s="12">
+      <c r="BV12" s="12">
         <f t="shared" si="19"/>
         <v>71.803982570400848</v>
       </c>
-      <c r="BV12" s="12">
+      <c r="BW12" s="12">
         <f t="shared" si="19"/>
         <v>70.367902918992826</v>
       </c>
-      <c r="BW12" s="12">
+      <c r="BX12" s="12">
         <f t="shared" si="19"/>
         <v>68.96054486061297</v>
       </c>
-      <c r="BX12" s="12">
+      <c r="BY12" s="12">
         <f t="shared" si="19"/>
         <v>67.581333963400709</v>
       </c>
-      <c r="BY12" s="12">
+      <c r="BZ12" s="12">
         <f t="shared" si="19"/>
         <v>66.229707284132701</v>
       </c>
-      <c r="BZ12" s="12">
+      <c r="CA12" s="12">
         <f t="shared" si="19"/>
         <v>64.905113138450048</v>
       </c>
-      <c r="CA12" s="12">
+      <c r="CB12" s="12">
         <f t="shared" si="19"/>
         <v>63.607010875681048</v>
       </c>
-      <c r="CB12" s="12">
+      <c r="CC12" s="12">
         <f t="shared" si="19"/>
         <v>62.334870658167425</v>
       </c>
-      <c r="CC12" s="12">
+      <c r="CD12" s="12">
         <f t="shared" si="19"/>
         <v>61.088173245004079</v>
       </c>
-      <c r="CD12" s="12">
+      <c r="CE12" s="12">
         <f t="shared" si="19"/>
         <v>59.866409780103993</v>
       </c>
-      <c r="CE12" s="12">
+      <c r="CF12" s="12">
         <f t="shared" si="19"/>
         <v>58.66908158450191</v>
       </c>
-      <c r="CF12" s="12">
+      <c r="CG12" s="12">
         <f t="shared" si="19"/>
         <v>57.495699952811869</v>
       </c>
-      <c r="CG12" s="12">
+      <c r="CH12" s="12">
         <f t="shared" si="19"/>
         <v>56.34578595375563</v>
       </c>
-      <c r="CH12" s="12">
+      <c r="CI12" s="12">
         <f t="shared" si="19"/>
         <v>55.218870234680516</v>
       </c>
-      <c r="CI12" s="12">
+      <c r="CJ12" s="12">
         <f t="shared" si="19"/>
         <v>54.114492829986908</v>
       </c>
-      <c r="CJ12" s="12">
+      <c r="CK12" s="12">
         <f t="shared" si="19"/>
         <v>53.032202973387172</v>
       </c>
-      <c r="CK12" s="12">
+      <c r="CL12" s="12">
         <f t="shared" si="19"/>
         <v>51.971558913919431</v>
       </c>
-      <c r="CL12" s="12">
+      <c r="CM12" s="12">
         <f t="shared" si="19"/>
         <v>50.932127735641039</v>
       </c>
-      <c r="CM12" s="12">
+      <c r="CN12" s="12">
         <f t="shared" si="19"/>
         <v>49.91348518092822</v>
       </c>
-      <c r="CN12" s="12">
+      <c r="CO12" s="12">
         <f t="shared" si="19"/>
         <v>48.915215477309651</v>
       </c>
-      <c r="CO12" s="12">
+      <c r="CP12" s="12">
         <f t="shared" si="19"/>
         <v>47.936911167763455</v>
       </c>
-      <c r="CP12" s="12">
+      <c r="CQ12" s="12">
         <f t="shared" si="19"/>
         <v>46.978172944408186</v>
       </c>
-      <c r="CQ12" s="12">
+      <c r="CR12" s="12">
         <f t="shared" si="19"/>
         <v>46.03860948552002</v>
       </c>
-      <c r="CR12" s="12">
+      <c r="CS12" s="12">
         <f t="shared" si="19"/>
         <v>45.117837295809622</v>
       </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4070,102 +4172,106 @@
         <f t="shared" si="20"/>
         <v>6.0988847885565384E-2</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26">
-        <f t="shared" ref="P13:AL13" si="21">P12/P14</f>
+      <c r="N13" s="26">
+        <f>N12/N14</f>
+        <v>0.12802065599267592</v>
+      </c>
+      <c r="O13" s="43"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26">
+        <f t="shared" ref="Q13:AM13" si="21">Q12/Q14</f>
         <v>1.1214705682000902E-2</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="R13" s="26">
         <f t="shared" si="21"/>
         <v>0.12101333333333329</v>
       </c>
-      <c r="R13" s="26">
+      <c r="S13" s="26">
         <f t="shared" si="21"/>
         <v>0.12522666666666665</v>
       </c>
-      <c r="S13" s="26">
+      <c r="T13" s="26">
         <f t="shared" si="21"/>
         <v>0.14856666666666668</v>
       </c>
-      <c r="T13" s="26">
+      <c r="U13" s="26">
         <f t="shared" si="21"/>
         <v>9.0285867154261852E-3</v>
       </c>
-      <c r="U13" s="26">
+      <c r="V13" s="26">
         <f t="shared" si="21"/>
         <v>1.0497680513797826E-2</v>
       </c>
-      <c r="V13" s="26">
+      <c r="W13" s="26">
         <f t="shared" si="21"/>
         <v>0.21907666815291649</v>
       </c>
-      <c r="W13" s="43">
+      <c r="X13" s="43">
         <f t="shared" si="21"/>
-        <v>0.26320310426255111</v>
-      </c>
-      <c r="X13" s="27">
+        <v>0.25622182584995806</v>
+      </c>
+      <c r="Y13" s="27">
         <f t="shared" si="21"/>
         <v>0.33474099150083608</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="Z13" s="27">
         <f t="shared" si="21"/>
         <v>0.39867605934546008</v>
       </c>
-      <c r="Z13" s="27">
+      <c r="AA13" s="27">
         <f t="shared" si="21"/>
         <v>0.47713557672291179</v>
       </c>
-      <c r="AA13" s="27">
+      <c r="AB13" s="27">
         <f t="shared" si="21"/>
         <v>0.54739219233965974</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AC13" s="27">
         <f t="shared" si="21"/>
         <v>0.60029549928143977</v>
       </c>
-      <c r="AC13" s="27">
+      <c r="AD13" s="27">
         <f t="shared" si="21"/>
         <v>0.65896746013813079</v>
       </c>
-      <c r="AD13" s="27">
+      <c r="AE13" s="27">
         <f t="shared" si="21"/>
         <v>0.70850520203705869</v>
       </c>
-      <c r="AE13" s="27">
+      <c r="AF13" s="27">
         <f t="shared" si="21"/>
         <v>0.74154054571195305</v>
       </c>
-      <c r="AF13" s="27">
+      <c r="AG13" s="27">
         <f t="shared" si="21"/>
         <v>0.77595521136512602</v>
       </c>
-      <c r="AG13" s="27">
+      <c r="AH13" s="27">
         <f t="shared" si="21"/>
         <v>0.78777545023586082</v>
       </c>
-      <c r="AH13" s="27">
+      <c r="AI13" s="27">
         <f t="shared" si="21"/>
         <v>0.79998224960642439</v>
       </c>
-      <c r="AI13" s="27">
+      <c r="AJ13" s="27">
         <f t="shared" si="21"/>
         <v>0.81249990060888577</v>
       </c>
-      <c r="AJ13" s="27">
+      <c r="AK13" s="27">
         <f t="shared" si="21"/>
         <v>0.82532166406196628</v>
       </c>
-      <c r="AK13" s="27">
+      <c r="AL13" s="27">
         <f t="shared" si="21"/>
         <v>0.8384438136191924</v>
       </c>
-      <c r="AL13" s="27">
+      <c r="AM13" s="27">
         <f t="shared" si="21"/>
         <v>0.85186071868920821</v>
       </c>
     </row>
-    <row r="14" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4174,35 +4280,35 @@
         <v>150.529032</v>
       </c>
       <c r="G14" s="32">
-        <f>S14</f>
+        <f>T14</f>
         <v>150</v>
       </c>
       <c r="H14" s="27">
         <v>150.700785</v>
       </c>
       <c r="I14" s="32">
-        <f>T14</f>
+        <f>U14</f>
         <v>153.40163899999999</v>
       </c>
       <c r="J14" s="27">
         <v>158.57798500000001</v>
       </c>
       <c r="K14" s="32">
-        <f>U14</f>
+        <f>V14</f>
         <v>164.60779099999999</v>
       </c>
       <c r="L14" s="27">
         <v>170.828776</v>
       </c>
       <c r="M14" s="32">
-        <f>V14</f>
+        <f>W14</f>
         <v>170.949286</v>
       </c>
-      <c r="P14" s="27">
+      <c r="N14" s="27">
+        <v>171.22236899999999</v>
+      </c>
+      <c r="Q14" s="27">
         <v>105.84317</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>150</v>
       </c>
       <c r="R14" s="1">
         <v>150</v>
@@ -4210,29 +4316,28 @@
       <c r="S14" s="1">
         <v>150</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14" s="1">
+        <v>150</v>
+      </c>
+      <c r="U14" s="27">
         <v>153.40163899999999</v>
       </c>
-      <c r="U14" s="27">
+      <c r="V14" s="27">
         <v>164.60779099999999</v>
       </c>
-      <c r="V14" s="27">
+      <c r="W14" s="27">
         <v>170.949286</v>
       </c>
-      <c r="W14" s="135">
-        <f>V14</f>
-        <v>170.949286</v>
-      </c>
-      <c r="X14" s="27">
+      <c r="X14" s="135">
         <f>W14</f>
         <v>170.949286</v>
       </c>
       <c r="Y14" s="27">
-        <f t="shared" ref="Y14:AL14" si="22">X14</f>
+        <f>X14</f>
         <v>170.949286</v>
       </c>
       <c r="Z14" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="Z14:AM14" si="22">Y14</f>
         <v>170.949286</v>
       </c>
       <c r="AA14" s="27">
@@ -4283,16 +4388,20 @@
         <f t="shared" si="22"/>
         <v>170.949286</v>
       </c>
-    </row>
-    <row r="15" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AN15" s="45" t="s">
+      <c r="AM14" s="27">
+        <f t="shared" si="22"/>
+        <v>170.949286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO15" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="AO15" s="62">
+      <c r="AP15" s="62">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
@@ -4326,63 +4435,64 @@
         <v>0.86382558174358359</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" ref="M16" si="24">M5/M3</f>
+        <f t="shared" ref="M16:N16" si="24">M5/M3</f>
         <v>0.83166253419972636</v>
       </c>
-      <c r="P16" s="23">
-        <f t="shared" ref="P16:Q16" si="25">P5/P3</f>
+      <c r="N16" s="23">
+        <f t="shared" si="24"/>
+        <v>0.82760876676480211</v>
+      </c>
+      <c r="Q16" s="23">
+        <f t="shared" ref="Q16:R16" si="25">Q5/Q3</f>
         <v>0.85328664255794195</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="R16" s="23">
         <f t="shared" si="25"/>
         <v>0.86532184472834472</v>
       </c>
-      <c r="R16" s="23">
-        <f t="shared" ref="R16:S16" si="26">R5/R3</f>
+      <c r="S16" s="23">
+        <f t="shared" ref="S16:T16" si="26">S5/S3</f>
         <v>0.8610677904237316</v>
       </c>
-      <c r="S16" s="23">
+      <c r="T16" s="23">
         <f t="shared" si="26"/>
         <v>0.85725283692857257</v>
       </c>
-      <c r="T16" s="23">
-        <f>T5/T3</f>
-        <v>0.85475570319479577</v>
-      </c>
       <c r="U16" s="23">
         <f>U5/U3</f>
+        <v>0.85475570319479577</v>
+      </c>
+      <c r="V16" s="23">
+        <f>V5/V3</f>
         <v>0.85729986922284984</v>
       </c>
-      <c r="V16" s="23">
-        <f t="shared" ref="V16" si="27">V5/V3</f>
+      <c r="W16" s="23">
+        <f t="shared" ref="W16" si="27">W5/W3</f>
         <v>0.84829230777171583</v>
       </c>
-      <c r="W16" s="136">
-        <v>0.86</v>
-      </c>
-      <c r="X16" s="23">
-        <f t="shared" ref="X16:AL16" si="28">X5/X3</f>
+      <c r="X16" s="136">
+        <f>X5/X3</f>
+        <v>0.84</v>
+      </c>
+      <c r="Y16" s="23">
+        <f t="shared" ref="Y16:AM16" si="28">Y5/Y3</f>
         <v>0.85999999999999988</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Z16" s="23">
         <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="Z16" s="23">
+      <c r="AA16" s="23">
         <f t="shared" si="28"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="AA16" s="23">
+      <c r="AB16" s="23">
         <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AB16" s="23">
+      <c r="AC16" s="23">
         <f t="shared" si="28"/>
         <v>0.85999999999999988</v>
-      </c>
-      <c r="AC16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
       </c>
       <c r="AD16" s="23">
         <f t="shared" si="28"/>
@@ -4406,11 +4516,11 @@
       </c>
       <c r="AI16" s="23">
         <f t="shared" si="28"/>
-        <v>0.8600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AJ16" s="23">
         <f t="shared" si="28"/>
-        <v>0.86</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AK16" s="23">
         <f t="shared" si="28"/>
@@ -4420,14 +4530,18 @@
         <f t="shared" si="28"/>
         <v>0.86</v>
       </c>
-      <c r="AN16" s="46" t="s">
+      <c r="AM16" s="23">
+        <f t="shared" si="28"/>
+        <v>0.86</v>
+      </c>
+      <c r="AO16" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="AO16" s="63">
+      <c r="AP16" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
@@ -4461,110 +4575,114 @@
         <v>0.37551036706497759</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" ref="M17" si="30">M8/M3</f>
+        <f t="shared" ref="M17:N17" si="30">M8/M3</f>
         <v>0.19058866279069778</v>
       </c>
-      <c r="P17" s="23">
-        <f t="shared" ref="P17:Q17" si="31">P8/P3</f>
+      <c r="N17" s="23">
+        <f t="shared" si="30"/>
+        <v>0.29209828081270683</v>
+      </c>
+      <c r="Q17" s="23">
+        <f t="shared" ref="Q17:R17" si="31">Q8/Q3</f>
         <v>0.13719072927301687</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="R17" s="23">
         <f t="shared" si="31"/>
         <v>0.19480029481959843</v>
       </c>
-      <c r="R17" s="23">
-        <f t="shared" ref="R17:S17" si="32">R8/R3</f>
+      <c r="S17" s="23">
+        <f t="shared" ref="S17:T17" si="32">S8/S3</f>
         <v>0.20649036068619966</v>
       </c>
-      <c r="S17" s="23">
+      <c r="T17" s="23">
         <f t="shared" si="32"/>
         <v>0.2189785517421898</v>
       </c>
-      <c r="T17" s="23">
-        <f>T8/T3</f>
-        <v>0.12407987618436456</v>
-      </c>
       <c r="U17" s="23">
         <f>U8/U3</f>
+        <v>0.12407987618436456</v>
+      </c>
+      <c r="V17" s="23">
+        <f>V8/V3</f>
         <v>0.13328139347227252</v>
       </c>
-      <c r="V17" s="23">
-        <f t="shared" ref="V17:AL17" si="33">V8/V3</f>
+      <c r="W17" s="23">
+        <f t="shared" ref="W17:AM17" si="33">W8/W3</f>
         <v>0.28620168162650139</v>
       </c>
-      <c r="W17" s="136">
-        <f>W8/W3</f>
-        <v>0.30546237737260279</v>
-      </c>
-      <c r="X17" s="23">
+      <c r="X17" s="136">
+        <f>X8/X3</f>
+        <v>0.29846237737260284</v>
+      </c>
+      <c r="Y17" s="23">
         <f t="shared" si="33"/>
         <v>0.30369246218511065</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Z17" s="23">
         <f t="shared" si="33"/>
         <v>0.30293127038128592</v>
       </c>
-      <c r="Z17" s="23">
+      <c r="AA17" s="23">
         <f t="shared" si="33"/>
         <v>0.3027822308370669</v>
       </c>
-      <c r="AA17" s="23">
+      <c r="AB17" s="23">
         <f t="shared" si="33"/>
         <v>0.30274348668843509</v>
       </c>
-      <c r="AB17" s="23">
+      <c r="AC17" s="23">
         <f t="shared" si="33"/>
         <v>0.30278311138589953</v>
       </c>
-      <c r="AC17" s="23">
+      <c r="AD17" s="23">
         <f t="shared" si="33"/>
         <v>0.30282363664466994</v>
       </c>
-      <c r="AD17" s="23">
+      <c r="AE17" s="23">
         <f t="shared" si="33"/>
         <v>0.30223640918466499</v>
       </c>
-      <c r="AE17" s="23">
+      <c r="AF17" s="23">
         <f t="shared" si="33"/>
         <v>0.30231597018169881</v>
       </c>
-      <c r="AF17" s="23">
+      <c r="AG17" s="23">
         <f t="shared" si="33"/>
         <v>0.30220667131344858</v>
       </c>
-      <c r="AG17" s="23">
+      <c r="AH17" s="23">
         <f t="shared" si="33"/>
         <v>0.30219259091177808</v>
       </c>
-      <c r="AH17" s="23">
+      <c r="AI17" s="23">
         <f t="shared" si="33"/>
         <v>0.30219865357020109</v>
       </c>
-      <c r="AI17" s="23">
+      <c r="AJ17" s="23">
         <f t="shared" si="33"/>
         <v>0.30219534109029572</v>
       </c>
-      <c r="AJ17" s="23">
+      <c r="AK17" s="23">
         <f t="shared" si="33"/>
         <v>0.30217864463422056</v>
       </c>
-      <c r="AK17" s="23">
+      <c r="AL17" s="23">
         <f t="shared" si="33"/>
         <v>0.30214584377944109</v>
       </c>
-      <c r="AL17" s="23">
+      <c r="AM17" s="23">
         <f t="shared" si="33"/>
         <v>0.30209379984489798</v>
       </c>
-      <c r="AN17" s="46" t="s">
+      <c r="AO17" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="AO17" s="64">
-        <f>NPV(AO16,X12:CR12)</f>
+      <c r="AP17" s="64">
+        <f>NPV(AP16,Y12:CS12)</f>
         <v>1553.7941199059314</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>45</v>
@@ -4599,110 +4717,114 @@
         <v>0.26978327493436355</v>
       </c>
       <c r="M18" s="34">
-        <f t="shared" ref="M18" si="35">M12/M3</f>
+        <f t="shared" ref="M18:N18" si="35">M12/M3</f>
         <v>0.11142698358413144</v>
       </c>
-      <c r="P18" s="23">
-        <f t="shared" ref="P18:Q18" si="36">P12/P3</f>
+      <c r="N18" s="23">
+        <f t="shared" si="35"/>
+        <v>0.1991785701304839</v>
+      </c>
+      <c r="Q18" s="23">
+        <f t="shared" ref="Q18:R18" si="36">Q12/Q3</f>
         <v>1.1326011659971446E-2</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="R18" s="23">
         <f t="shared" si="36"/>
         <v>0.15927277832373993</v>
       </c>
-      <c r="R18" s="23">
-        <f t="shared" ref="R18:S18" si="37">R12/R3</f>
+      <c r="S18" s="23">
+        <f t="shared" ref="S18:T18" si="37">S12/S3</f>
         <v>0.15582174735375118</v>
       </c>
-      <c r="S18" s="23">
+      <c r="T18" s="23">
         <f t="shared" si="37"/>
         <v>0.17156296672671562</v>
       </c>
-      <c r="T18" s="23">
-        <f>T12/T3</f>
-        <v>1.7427302354258722E-2</v>
-      </c>
       <c r="U18" s="23">
         <f>U12/U3</f>
+        <v>1.7427302354258722E-2</v>
+      </c>
+      <c r="V18" s="23">
+        <f>V12/V3</f>
         <v>2.4040735691032097E-2</v>
       </c>
-      <c r="V18" s="23">
-        <f t="shared" ref="V18:W18" si="38">V12/V3</f>
+      <c r="W18" s="23">
+        <f t="shared" ref="W18:X18" si="38">W12/W3</f>
         <v>0.19330446317506367</v>
       </c>
-      <c r="W18" s="42">
+      <c r="X18" s="42">
         <f t="shared" si="38"/>
-        <v>0.21112714559722265</v>
-      </c>
-      <c r="X18" s="23">
-        <f t="shared" ref="X18:AL18" si="39">X12/X3</f>
+        <v>0.20552714559722263</v>
+      </c>
+      <c r="Y18" s="23">
+        <f t="shared" ref="Y18:AM18" si="39">Y12/Y3</f>
         <v>0.23348776437668206</v>
       </c>
-      <c r="Y18" s="23">
+      <c r="Z18" s="23">
         <f t="shared" si="39"/>
         <v>0.23173633787155598</v>
       </c>
-      <c r="Z18" s="23">
+      <c r="AA18" s="23">
         <f t="shared" si="39"/>
         <v>0.23111840767734232</v>
       </c>
-      <c r="AA18" s="23">
+      <c r="AB18" s="23">
         <f t="shared" si="39"/>
         <v>0.23056506011301317</v>
       </c>
-      <c r="AB18" s="23">
+      <c r="AC18" s="23">
         <f t="shared" si="39"/>
         <v>0.22986206203008003</v>
       </c>
-      <c r="AC18" s="23">
+      <c r="AD18" s="23">
         <f t="shared" si="39"/>
         <v>0.2293894792865854</v>
       </c>
-      <c r="AD18" s="23">
+      <c r="AE18" s="23">
         <f t="shared" si="39"/>
         <v>0.22836461641718347</v>
       </c>
-      <c r="AE18" s="23">
+      <c r="AF18" s="23">
         <f t="shared" si="39"/>
         <v>0.22763098286420011</v>
       </c>
-      <c r="AF18" s="23">
+      <c r="AG18" s="23">
         <f t="shared" si="39"/>
         <v>0.22685263413929832</v>
       </c>
-      <c r="AG18" s="23">
+      <c r="AH18" s="23">
         <f t="shared" si="39"/>
         <v>0.22579246410859313</v>
       </c>
-      <c r="AH18" s="23">
+      <c r="AI18" s="23">
         <f t="shared" si="39"/>
         <v>0.22479527553298589</v>
       </c>
-      <c r="AI18" s="23">
+      <c r="AJ18" s="23">
         <f t="shared" si="39"/>
         <v>0.22383601920206384</v>
       </c>
-      <c r="AJ18" s="23">
+      <c r="AK18" s="23">
         <f t="shared" si="39"/>
         <v>0.22291009163588729</v>
       </c>
-      <c r="AK18" s="23">
+      <c r="AL18" s="23">
         <f t="shared" si="39"/>
         <v>0.22201395738066051</v>
       </c>
-      <c r="AL18" s="23">
+      <c r="AM18" s="23">
         <f t="shared" si="39"/>
         <v>0.22114378274403523</v>
       </c>
-      <c r="AN18" s="46" t="s">
+      <c r="AO18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AO18" s="64">
+      <c r="AP18" s="64">
         <f>Main!C11</f>
-        <v>56.066000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44.149000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>137</v>
       </c>
@@ -4736,50 +4858,50 @@
         <v>0.19176361515686216</v>
       </c>
       <c r="M19" s="34">
-        <f t="shared" ref="M19" si="41">M11/M10</f>
+        <f t="shared" ref="M19:N19" si="41">M11/M10</f>
         <v>0.21182340489869955</v>
       </c>
-      <c r="P19" s="23">
-        <f>P11/P10</f>
+      <c r="N19" s="23">
+        <f t="shared" si="41"/>
+        <v>0.20834988623641146</v>
+      </c>
+      <c r="Q19" s="23">
+        <f>Q11/Q10</f>
         <v>0.53885003885004146</v>
       </c>
-      <c r="Q19" s="23">
-        <f t="shared" ref="Q19:U19" si="42">Q11/Q10</f>
+      <c r="R19" s="23">
+        <f t="shared" ref="R19:V19" si="42">R11/R10</f>
         <v>0.13561904761904767</v>
       </c>
-      <c r="R19" s="23">
+      <c r="S19" s="23">
         <f t="shared" si="42"/>
         <v>0.21517506476142731</v>
       </c>
-      <c r="S19" s="23">
+      <c r="T19" s="23">
         <f t="shared" si="42"/>
         <v>0.1922212556183848</v>
       </c>
-      <c r="T19" s="23">
+      <c r="U19" s="23">
         <f t="shared" si="42"/>
         <v>-0.15802675585284237</v>
       </c>
-      <c r="U19" s="23">
+      <c r="V19" s="23">
         <f t="shared" si="42"/>
         <v>-2.7402597402597104</v>
       </c>
-      <c r="V19" s="23">
-        <f t="shared" ref="V19" si="43">V11/V10</f>
+      <c r="W19" s="23">
+        <f t="shared" ref="W19" si="43">W11/W10</f>
         <v>0.19744990892531872</v>
       </c>
-      <c r="W19" s="136">
+      <c r="X19" s="136">
         <v>0.2</v>
       </c>
-      <c r="X19" s="23">
-        <f>W19</f>
+      <c r="Y19" s="23">
+        <f>X19</f>
         <v>0.2</v>
       </c>
-      <c r="Y19" s="23">
-        <f t="shared" ref="Y19:AL19" si="44">X19</f>
-        <v>0.2</v>
-      </c>
       <c r="Z19" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="Z19:AM19" si="44">Y19</f>
         <v>0.2</v>
       </c>
       <c r="AA19" s="23">
@@ -4830,24 +4952,28 @@
         <f t="shared" si="44"/>
         <v>0.2</v>
       </c>
-      <c r="AN19" s="46" t="s">
+      <c r="AM19" s="23">
+        <f t="shared" si="44"/>
+        <v>0.2</v>
+      </c>
+      <c r="AO19" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AO19" s="64">
-        <f>AO17+AO18</f>
-        <v>1609.8601199059315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AN20" s="47" t="s">
+      <c r="AP19" s="64">
+        <f>AP17+AP18</f>
+        <v>1597.9431199059313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO20" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="AO20" s="65">
-        <f>AO19/Main!C7</f>
-        <v>9.417179548242931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP20" s="65">
+        <f>AP19/Main!C7</f>
+        <v>9.3325605131998355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
@@ -4884,67 +5010,64 @@
       </c>
       <c r="N21" s="23">
         <f t="shared" si="45"/>
-        <v>0.10908128936939088</v>
-      </c>
-      <c r="P21" s="38" t="s">
+        <v>9.8619388457967805E-2</v>
+      </c>
+      <c r="Q21" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="23">
-        <f t="shared" ref="Q21:T21" si="46">Q3/P3-1</f>
+      <c r="R21" s="23">
+        <f t="shared" ref="R21:U21" si="46">R3/Q3-1</f>
         <v>8.744978674274595E-2</v>
       </c>
-      <c r="R21" s="23">
+      <c r="S21" s="23">
         <f t="shared" si="46"/>
         <v>5.7735504703074536E-2</v>
       </c>
-      <c r="S21" s="23">
+      <c r="T21" s="23">
         <f t="shared" si="46"/>
         <v>7.7529282941235067E-2</v>
       </c>
-      <c r="T21" s="23">
+      <c r="U21" s="23">
         <f t="shared" si="46"/>
         <v>-0.38817035428888169</v>
       </c>
-      <c r="U21" s="23">
-        <f>U3/T3-1</f>
+      <c r="V21" s="23">
+        <f>V3/U3-1</f>
         <v>-9.5567047928227233E-2</v>
       </c>
-      <c r="V21" s="23">
-        <f t="shared" ref="V21" si="47">V3/U3-1</f>
+      <c r="W21" s="23">
+        <f t="shared" ref="W21" si="47">W3/V3-1</f>
         <v>1.6954144522663404</v>
       </c>
-      <c r="W21" s="136">
+      <c r="X21" s="136">
         <v>0.1</v>
       </c>
-      <c r="X21" s="23">
+      <c r="Y21" s="23">
         <v>0.15</v>
-      </c>
-      <c r="Y21" s="23">
-        <v>0.2</v>
       </c>
       <c r="Z21" s="23">
         <v>0.2</v>
       </c>
       <c r="AA21" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="AB21" s="23">
         <v>0.15</v>
-      </c>
-      <c r="AB21" s="23">
-        <v>0.1</v>
       </c>
       <c r="AC21" s="23">
         <v>0.1</v>
       </c>
       <c r="AD21" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AE21" s="23">
         <v>0.08</v>
-      </c>
-      <c r="AE21" s="23">
-        <v>0.05</v>
       </c>
       <c r="AF21" s="23">
         <v>0.05</v>
       </c>
       <c r="AG21" s="23">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AH21" s="23">
         <v>0.02</v>
@@ -4961,16 +5084,19 @@
       <c r="AL21" s="23">
         <v>0.02</v>
       </c>
-      <c r="AN21" s="46" t="s">
+      <c r="AM21" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="AO21" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="AO21" s="67">
+      <c r="AP21" s="67">
         <f>Main!C6</f>
-        <v>2.3650000000000002</v>
-      </c>
-      <c r="AP21" s="49"/>
-    </row>
-    <row r="22" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.52</v>
+      </c>
+      <c r="AQ21" s="49"/>
+    </row>
+    <row r="22" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
@@ -5008,10 +5134,7 @@
       </c>
       <c r="N22" s="23">
         <f t="shared" si="49"/>
-        <v>0.18737175102599157</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>71</v>
+        <v>0.17617134062927486</v>
       </c>
       <c r="Q22" s="38" t="s">
         <v>71</v>
@@ -5031,10 +5154,10 @@
       <c r="V22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="137"/>
-      <c r="X22" s="38" t="s">
+      <c r="W22" s="38" t="s">
         <v>71</v>
       </c>
+      <c r="X22" s="137"/>
       <c r="Y22" s="38" t="s">
         <v>71</v>
       </c>
@@ -5077,15 +5200,18 @@
       <c r="AL22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AN22" s="48" t="s">
+      <c r="AM22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO22" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO22" s="66">
-        <f>AO20/AO21-1</f>
-        <v>2.9818941007369681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP22" s="66">
+        <f>AP20/AP21-1</f>
+        <v>2.7033970290475535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="34"/>
       <c r="F23" s="38"/>
       <c r="G23" s="34"/>
@@ -5095,13 +5221,12 @@
       <c r="K23" s="34"/>
       <c r="L23" s="23"/>
       <c r="M23" s="34"/>
-      <c r="R23" s="38"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="137"/>
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="38"/>
@@ -5115,8 +5240,9 @@
       <c r="AI23" s="38"/>
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
-    </row>
-    <row r="24" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL23" s="38"/>
+    </row>
+    <row r="24" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
         <v>144</v>
       </c>
@@ -5129,13 +5255,12 @@
       <c r="K24" s="34"/>
       <c r="L24" s="23"/>
       <c r="M24" s="34"/>
-      <c r="R24" s="38"/>
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="137"/>
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
       <c r="AA24" s="38"/>
@@ -5149,8 +5274,9 @@
       <c r="AI24" s="38"/>
       <c r="AJ24" s="38"/>
       <c r="AK24" s="38"/>
-    </row>
-    <row r="25" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL24" s="38"/>
+    </row>
+    <row r="25" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>110</v>
       </c>
@@ -5163,28 +5289,31 @@
       <c r="K25" s="53"/>
       <c r="L25" s="54"/>
       <c r="M25" s="53"/>
-      <c r="P25" s="3">
+      <c r="N25" s="3">
+        <v>69</v>
+      </c>
+      <c r="O25" s="173"/>
+      <c r="Q25" s="3">
         <v>54</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="3">
         <v>58</v>
       </c>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10">
-        <f>SUM(S26:S28)</f>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10">
+        <f>SUM(T26:T28)</f>
         <v>60</v>
       </c>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10">
-        <f>SUM(U26:U28)</f>
-        <v>64</v>
-      </c>
+      <c r="U25" s="10"/>
       <c r="V25" s="10">
         <f>SUM(V26:V28)</f>
+        <v>64</v>
+      </c>
+      <c r="W25" s="10">
+        <f>SUM(W26:W28)</f>
         <v>67</v>
       </c>
-      <c r="W25" s="131"/>
-      <c r="X25" s="10"/>
+      <c r="X25" s="131"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
@@ -5198,13 +5327,14 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
-      <c r="AL25" s="1"/>
+      <c r="AL25" s="10"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
-    </row>
-    <row r="26" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ25" s="1"/>
+    </row>
+    <row r="26" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
         <v>97</v>
       </c>
@@ -5217,19 +5347,18 @@
       <c r="K26" s="34"/>
       <c r="L26" s="23"/>
       <c r="M26" s="34"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38">
+      <c r="S26" s="38"/>
+      <c r="T26" s="38">
         <v>54</v>
       </c>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38">
+      <c r="U26" s="38"/>
+      <c r="V26" s="38">
         <v>56</v>
       </c>
-      <c r="V26" s="38">
+      <c r="W26" s="38">
         <v>59</v>
       </c>
-      <c r="W26" s="137"/>
-      <c r="X26" s="38"/>
+      <c r="X26" s="137"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="38"/>
@@ -5243,22 +5372,23 @@
       <c r="AI26" s="38"/>
       <c r="AJ26" s="38"/>
       <c r="AK26" s="38"/>
-    </row>
-    <row r="27" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL26" s="38"/>
+    </row>
+    <row r="27" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <v>6</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>5</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="51" t="s">
         <v>99</v>
       </c>
@@ -5274,30 +5404,31 @@
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
       <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
+      <c r="O28" s="176"/>
       <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52">
+      <c r="R28" s="55"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52">
         <v>0</v>
       </c>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52">
+      <c r="U28" s="52"/>
+      <c r="V28" s="52">
         <v>3</v>
       </c>
-      <c r="V28" s="52">
+      <c r="W28" s="52">
         <v>5</v>
       </c>
-      <c r="W28" s="138"/>
-      <c r="X28" s="55"/>
+      <c r="X28" s="138"/>
       <c r="Y28" s="55"/>
       <c r="Z28" s="55"/>
       <c r="AA28" s="55"/>
       <c r="AB28" s="55"/>
       <c r="AC28" s="55"/>
       <c r="AD28" s="55"/>
-    </row>
-    <row r="29" spans="1:42" s="72" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE28" s="55"/>
+    </row>
+    <row r="29" spans="1:43" s="72" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="73" t="s">
         <v>117</v>
       </c>
@@ -5313,41 +5444,42 @@
       <c r="L29" s="74"/>
       <c r="M29" s="75"/>
       <c r="N29" s="74"/>
-      <c r="O29" s="74" t="s">
+      <c r="O29" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="P29" s="81">
-        <f>P3/P25</f>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="81">
+        <f>Q3/Q25</f>
         <v>1.9407962962962964</v>
       </c>
-      <c r="Q29" s="81">
-        <f t="shared" ref="Q29:V29" si="50">Q3/Q25</f>
+      <c r="R29" s="81">
+        <f t="shared" ref="R29:W29" si="50">R3/R25</f>
         <v>1.9649655172413794</v>
       </c>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81">
+      <c r="S29" s="81"/>
+      <c r="T29" s="81">
         <f t="shared" si="50"/>
         <v>2.1649000000000003</v>
       </c>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81">
+      <c r="U29" s="81"/>
+      <c r="V29" s="81">
         <f t="shared" si="50"/>
         <v>1.12309375</v>
       </c>
-      <c r="V29" s="81">
+      <c r="W29" s="81">
         <f t="shared" si="50"/>
         <v>2.8916567164179106</v>
       </c>
-      <c r="W29" s="139"/>
-      <c r="X29" s="74"/>
+      <c r="X29" s="139"/>
       <c r="Y29" s="74"/>
       <c r="Z29" s="74"/>
       <c r="AA29" s="74"/>
       <c r="AB29" s="74"/>
       <c r="AC29" s="74"/>
       <c r="AD29" s="74"/>
-    </row>
-    <row r="30" spans="1:42" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE29" s="74"/>
+    </row>
+    <row r="30" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="68" t="s">
         <v>115</v>
       </c>
@@ -5363,28 +5495,29 @@
       <c r="L30" s="69"/>
       <c r="M30" s="70"/>
       <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="36">
+      <c r="O30" s="178"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="36">
         <v>12.1</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="R30" s="36">
         <v>13.1</v>
       </c>
-      <c r="R30" s="71"/>
       <c r="S30" s="71"/>
       <c r="T30" s="71"/>
       <c r="U30" s="71"/>
       <c r="V30" s="71"/>
-      <c r="W30" s="140"/>
-      <c r="X30" s="69"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="140"/>
       <c r="Y30" s="69"/>
       <c r="Z30" s="69"/>
       <c r="AA30" s="69"/>
       <c r="AB30" s="69"/>
       <c r="AC30" s="69"/>
       <c r="AD30" s="69"/>
-    </row>
-    <row r="31" spans="1:42" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE30" s="69"/>
+    </row>
+    <row r="31" spans="1:43" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="77" t="s">
         <v>116</v>
       </c>
@@ -5393,28 +5526,30 @@
       <c r="I31" s="78"/>
       <c r="K31" s="78"/>
       <c r="M31" s="78"/>
-      <c r="P31" s="80">
-        <f>P3/P30</f>
-        <v>8.6614049586776858</v>
-      </c>
+      <c r="O31" s="79"/>
       <c r="Q31" s="80">
         <f>Q3/Q30</f>
+        <v>8.6614049586776858</v>
+      </c>
+      <c r="R31" s="80">
+        <f>R3/R30</f>
         <v>8.6998473282442745</v>
       </c>
-      <c r="W31" s="79"/>
-    </row>
-    <row r="32" spans="1:42" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X31" s="79"/>
+    </row>
+    <row r="32" spans="1:43" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="77"/>
       <c r="E32" s="78"/>
       <c r="G32" s="78"/>
       <c r="I32" s="78"/>
       <c r="K32" s="78"/>
       <c r="M32" s="78"/>
-      <c r="P32" s="80"/>
+      <c r="O32" s="79"/>
       <c r="Q32" s="80"/>
-      <c r="W32" s="79"/>
-    </row>
-    <row r="33" spans="1:23" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R32" s="80"/>
+      <c r="X32" s="79"/>
+    </row>
+    <row r="33" spans="1:24" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="143" t="s">
         <v>145</v>
       </c>
@@ -5423,12 +5558,9 @@
       <c r="I33" s="144"/>
       <c r="K33" s="144"/>
       <c r="M33" s="144"/>
-      <c r="P33" s="142">
-        <f t="shared" ref="P33:U33" si="51">SUM(P34:P36)</f>
-        <v>0</v>
-      </c>
+      <c r="O33" s="145"/>
       <c r="Q33" s="142">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="Q33:V33" si="51">SUM(Q34:Q36)</f>
         <v>0</v>
       </c>
       <c r="R33" s="142">
@@ -5445,15 +5577,19 @@
       </c>
       <c r="U33" s="142">
         <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="142">
+        <f t="shared" si="51"/>
         <v>1787</v>
       </c>
-      <c r="V33" s="142">
-        <f>SUM(V34:V36)</f>
+      <c r="W33" s="142">
+        <f>SUM(W34:W36)</f>
         <v>2530</v>
       </c>
-      <c r="W33" s="145"/>
-    </row>
-    <row r="34" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X33" s="145"/>
+    </row>
+    <row r="34" spans="1:24" s="146" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="147" t="s">
         <v>146</v>
       </c>
@@ -5462,15 +5598,16 @@
       <c r="I34" s="148"/>
       <c r="K34" s="148"/>
       <c r="M34" s="148"/>
-      <c r="U34" s="146">
+      <c r="O34" s="149"/>
+      <c r="V34" s="146">
         <v>6</v>
       </c>
-      <c r="V34" s="146">
+      <c r="W34" s="146">
         <v>7</v>
       </c>
-      <c r="W34" s="149"/>
-    </row>
-    <row r="35" spans="1:23" s="146" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X34" s="149"/>
+    </row>
+    <row r="35" spans="1:24" s="146" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="147" t="s">
         <v>147</v>
       </c>
@@ -5479,15 +5616,16 @@
       <c r="I35" s="148"/>
       <c r="K35" s="148"/>
       <c r="M35" s="148"/>
-      <c r="U35" s="146">
+      <c r="O35" s="149"/>
+      <c r="V35" s="146">
         <v>58</v>
       </c>
-      <c r="V35" s="146">
+      <c r="W35" s="146">
         <v>91</v>
       </c>
-      <c r="W35" s="149"/>
-    </row>
-    <row r="36" spans="1:23" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X35" s="149"/>
+    </row>
+    <row r="36" spans="1:24" s="150" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="147" t="s">
         <v>148</v>
       </c>
@@ -5496,20 +5634,21 @@
       <c r="I36" s="151"/>
       <c r="K36" s="151"/>
       <c r="M36" s="151"/>
-      <c r="U36" s="150">
+      <c r="O36" s="179"/>
+      <c r="V36" s="150">
         <v>1723</v>
       </c>
-      <c r="V36" s="150">
+      <c r="W36" s="150">
         <v>2432</v>
       </c>
-      <c r="W36" s="149"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36" s="149"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
@@ -5520,15 +5659,18 @@
         <v>55.976999999999997</v>
       </c>
       <c r="M39" s="31"/>
-      <c r="U39" s="14">
+      <c r="N39" s="27">
+        <v>74.733999999999995</v>
+      </c>
+      <c r="V39" s="14">
         <v>49.036000000000001</v>
       </c>
-      <c r="V39" s="14">
+      <c r="W39" s="14">
         <v>68.641000000000005</v>
       </c>
-      <c r="W39" s="134"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="134"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
@@ -5539,15 +5681,18 @@
         <v>133.077</v>
       </c>
       <c r="M40" s="31"/>
-      <c r="U40" s="14">
+      <c r="N40" s="27">
+        <v>150.56299999999999</v>
+      </c>
+      <c r="V40" s="14">
         <v>132.34200000000001</v>
       </c>
-      <c r="V40" s="14">
+      <c r="W40" s="14">
         <v>147.45500000000001</v>
       </c>
-      <c r="W40" s="134"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="134"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
@@ -5558,15 +5703,18 @@
         <v>77.807000000000002</v>
       </c>
       <c r="M41" s="31"/>
-      <c r="U41" s="14">
+      <c r="N41" s="27">
+        <v>88.628</v>
+      </c>
+      <c r="V41" s="14">
         <v>77.947999999999993</v>
       </c>
-      <c r="V41" s="14">
+      <c r="W41" s="14">
         <v>81.793999999999997</v>
       </c>
-      <c r="W41" s="134"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="134"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
@@ -5577,15 +5725,18 @@
         <v>4.13</v>
       </c>
       <c r="M42" s="31"/>
-      <c r="U42" s="14">
+      <c r="N42" s="27">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="V42" s="14">
         <v>6.29</v>
       </c>
-      <c r="V42" s="14">
+      <c r="W42" s="14">
         <v>1.647</v>
       </c>
-      <c r="W42" s="134"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="134"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
@@ -5598,17 +5749,21 @@
         <v>270.99099999999999</v>
       </c>
       <c r="M43" s="31"/>
-      <c r="U43" s="14">
-        <f>SUM(U39:U42)</f>
-        <v>265.61600000000004</v>
+      <c r="N43" s="27">
+        <f>SUM(N39:N42)</f>
+        <v>314.22299999999996</v>
       </c>
       <c r="V43" s="14">
         <f>SUM(V39:V42)</f>
+        <v>265.61600000000004</v>
+      </c>
+      <c r="W43" s="14">
+        <f>SUM(W39:W42)</f>
         <v>299.53699999999998</v>
       </c>
-      <c r="W43" s="134"/>
-    </row>
-    <row r="44" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X43" s="134"/>
+    </row>
+    <row r="44" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -5623,15 +5778,19 @@
         <v>49.576999999999998</v>
       </c>
       <c r="M44" s="30"/>
-      <c r="U44" s="12">
+      <c r="N44" s="36">
+        <v>44.149000000000001</v>
+      </c>
+      <c r="O44" s="173"/>
+      <c r="V44" s="12">
         <v>29.942</v>
       </c>
-      <c r="V44" s="12">
+      <c r="W44" s="12">
         <v>56.066000000000003</v>
       </c>
-      <c r="W44" s="133"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="133"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="1" t="s">
         <v>54</v>
@@ -5643,15 +5802,18 @@
         <v>10.474</v>
       </c>
       <c r="M45" s="31"/>
-      <c r="U45" s="14">
+      <c r="N45" s="27">
+        <v>5.8979999999999997</v>
+      </c>
+      <c r="V45" s="14">
         <v>3.3</v>
       </c>
-      <c r="V45" s="14">
+      <c r="W45" s="14">
         <v>5.13</v>
       </c>
-      <c r="W45" s="134"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="134"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
         <v>55</v>
@@ -5663,15 +5825,18 @@
         <v>0</v>
       </c>
       <c r="M46" s="31"/>
-      <c r="U46" s="14">
+      <c r="N46" s="27">
+        <v>0</v>
+      </c>
+      <c r="V46" s="14">
         <v>0.65</v>
       </c>
-      <c r="V46" s="14">
+      <c r="W46" s="14">
         <v>0.27100000000000002</v>
       </c>
-      <c r="W46" s="134"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="134"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="1" t="s">
         <v>56</v>
@@ -5683,15 +5848,18 @@
         <v>1.7390000000000001</v>
       </c>
       <c r="M47" s="31"/>
-      <c r="U47" s="14">
+      <c r="N47" s="27">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="V47" s="14">
         <v>1.4610000000000001</v>
       </c>
-      <c r="V47" s="14">
+      <c r="W47" s="14">
         <v>2.1480000000000001</v>
       </c>
-      <c r="W47" s="134"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="134"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
@@ -5704,22 +5872,26 @@
         <v>332.78099999999995</v>
       </c>
       <c r="M48" s="31"/>
-      <c r="U48" s="14">
-        <f>SUM(U44:U47)+U43</f>
-        <v>300.96900000000005</v>
+      <c r="N48" s="27">
+        <f>N43+N44+N45+N46+N47</f>
+        <v>366.90899999999999</v>
       </c>
       <c r="V48" s="14">
         <f>SUM(V44:V47)+V43</f>
+        <v>300.96900000000005</v>
+      </c>
+      <c r="W48" s="14">
+        <f>SUM(W44:W47)+W43</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="W48" s="134"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="134"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="31"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
         <v>58</v>
@@ -5731,15 +5903,18 @@
         <v>21.773</v>
       </c>
       <c r="M50" s="31"/>
-      <c r="U50" s="14">
+      <c r="N50" s="1">
+        <v>25.984000000000002</v>
+      </c>
+      <c r="V50" s="14">
         <v>18.141999999999999</v>
       </c>
-      <c r="V50" s="14">
+      <c r="W50" s="14">
         <v>28.681000000000001</v>
       </c>
-      <c r="W50" s="134"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="134"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="1" t="s">
         <v>59</v>
@@ -5751,15 +5926,18 @@
         <v>11.615</v>
       </c>
       <c r="M51" s="31"/>
-      <c r="U51" s="14">
+      <c r="N51" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="V51" s="14">
         <v>13.811</v>
       </c>
-      <c r="V51" s="14">
+      <c r="W51" s="14">
         <v>11.557</v>
       </c>
-      <c r="W51" s="134"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="134"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="1" t="s">
         <v>40</v>
@@ -5771,15 +5949,18 @@
         <v>2.0670000000000002</v>
       </c>
       <c r="M52" s="31"/>
-      <c r="U52" s="14">
-        <v>0</v>
+      <c r="N52" s="1">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="V52" s="14">
         <v>0</v>
       </c>
-      <c r="W52" s="134"/>
-    </row>
-    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W52" s="14">
+        <v>0</v>
+      </c>
+      <c r="X52" s="134"/>
+    </row>
+    <row r="53" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
@@ -5794,15 +5975,19 @@
         <v>0</v>
       </c>
       <c r="M53" s="30"/>
-      <c r="U53" s="12">
+      <c r="N53" s="3">
         <v>0</v>
       </c>
+      <c r="O53" s="173"/>
       <c r="V53" s="12">
         <v>0</v>
       </c>
-      <c r="W53" s="133"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W53" s="12">
+        <v>0</v>
+      </c>
+      <c r="X53" s="133"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
         <v>61</v>
@@ -5816,17 +6001,21 @@
         <v>35.454999999999998</v>
       </c>
       <c r="M54" s="31"/>
-      <c r="U54" s="14">
-        <f>SUM(U50:U53)</f>
-        <v>31.952999999999999</v>
+      <c r="N54" s="14">
+        <f>SUM(N50:N53)</f>
+        <v>37.99</v>
       </c>
       <c r="V54" s="14">
         <f>SUM(V50:V53)</f>
+        <v>31.952999999999999</v>
+      </c>
+      <c r="W54" s="14">
+        <f>SUM(W50:W53)</f>
         <v>40.238</v>
       </c>
-      <c r="W54" s="134"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="134"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>62</v>
       </c>
@@ -5837,15 +6026,18 @@
         <v>0.51600000000000001</v>
       </c>
       <c r="M55" s="31"/>
-      <c r="U55" s="14">
+      <c r="N55" s="1">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="V55" s="14">
         <v>0.56499999999999995</v>
       </c>
-      <c r="V55" s="14">
+      <c r="W55" s="14">
         <v>3</v>
       </c>
-      <c r="W55" s="134"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="134"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>59</v>
       </c>
@@ -5856,15 +6048,18 @@
         <v>160.916</v>
       </c>
       <c r="M56" s="31"/>
-      <c r="U56" s="14">
+      <c r="N56" s="1">
+        <v>180.39599999999999</v>
+      </c>
+      <c r="V56" s="14">
         <v>160.12899999999999</v>
       </c>
-      <c r="V56" s="14">
+      <c r="W56" s="14">
         <v>176.81200000000001</v>
       </c>
-      <c r="W56" s="134"/>
-    </row>
-    <row r="57" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X56" s="134"/>
+    </row>
+    <row r="57" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>60</v>
       </c>
@@ -5879,15 +6074,19 @@
         <v>0</v>
       </c>
       <c r="M57" s="30"/>
-      <c r="U57" s="12">
+      <c r="N57" s="3">
         <v>0</v>
       </c>
+      <c r="O57" s="173"/>
       <c r="V57" s="12">
         <v>0</v>
       </c>
-      <c r="W57" s="133"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W57" s="12">
+        <v>0</v>
+      </c>
+      <c r="X57" s="133"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="1" t="s">
         <v>63</v>
@@ -5899,15 +6098,18 @@
         <v>3.7690000000000001</v>
       </c>
       <c r="M58" s="31"/>
-      <c r="U58" s="14">
+      <c r="N58" s="1">
+        <v>5.2969999999999997</v>
+      </c>
+      <c r="V58" s="14">
         <v>3.6349999999999998</v>
       </c>
-      <c r="V58" s="14">
+      <c r="W58" s="14">
         <v>4.6820000000000004</v>
       </c>
-      <c r="W58" s="134"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="134"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>64</v>
       </c>
@@ -5920,20 +6122,24 @@
         <v>200.65600000000001</v>
       </c>
       <c r="M59" s="31"/>
-      <c r="U59" s="14">
-        <f>U54+U55+U56+U57+U58</f>
-        <v>196.28199999999998</v>
+      <c r="N59" s="14">
+        <f>N54+N55+N56+N57+N58</f>
+        <v>227.54899999999998</v>
       </c>
       <c r="V59" s="14">
         <f>V54+V55+V56+V57+V58</f>
+        <v>196.28199999999998</v>
+      </c>
+      <c r="W59" s="14">
+        <f>W54+W55+W56+W57+W58</f>
         <v>224.732</v>
       </c>
-      <c r="W59" s="134"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="134"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H60" s="14"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
@@ -5944,15 +6150,18 @@
         <v>132.125</v>
       </c>
       <c r="M61" s="31"/>
-      <c r="U61" s="14">
+      <c r="N61" s="14">
+        <v>139.387</v>
+      </c>
+      <c r="V61" s="14">
         <v>104.687</v>
       </c>
-      <c r="V61" s="14">
+      <c r="W61" s="14">
         <v>138.41999999999999</v>
       </c>
-      <c r="W61" s="134"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="134"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
@@ -5965,17 +6174,21 @@
         <v>332.78100000000001</v>
       </c>
       <c r="M62" s="31"/>
-      <c r="U62" s="14">
-        <f>U61+U59</f>
-        <v>300.96899999999999</v>
+      <c r="N62" s="14">
+        <f>N59+N61</f>
+        <v>366.93599999999998</v>
       </c>
       <c r="V62" s="14">
         <f>V61+V59</f>
+        <v>300.96899999999999</v>
+      </c>
+      <c r="W62" s="14">
+        <f>W61+W59</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="W62" s="134"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="134"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>131</v>
       </c>
@@ -5988,17 +6201,21 @@
         <v>132.12499999999994</v>
       </c>
       <c r="M64" s="31"/>
-      <c r="U64" s="14">
-        <f t="shared" ref="U64:V64" si="52">U48-U59</f>
+      <c r="N64" s="14">
+        <f>N48-N59</f>
+        <v>139.36000000000001</v>
+      </c>
+      <c r="V64" s="14">
+        <f t="shared" ref="V64:W64" si="52">V48-V59</f>
         <v>104.68700000000007</v>
       </c>
-      <c r="V64" s="14">
+      <c r="W64" s="14">
         <f t="shared" si="52"/>
         <v>138.41999999999999</v>
       </c>
-      <c r="W64" s="134"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="134"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="1" t="s">
         <v>132</v>
@@ -6011,16 +6228,20 @@
         <f>L64/L14</f>
         <v>0.77343526713555533</v>
       </c>
-      <c r="U65" s="1">
-        <f t="shared" ref="U65:V65" si="53">U64/U14</f>
+      <c r="N65" s="1">
+        <f>N64/N14</f>
+        <v>0.81391234576365445</v>
+      </c>
+      <c r="V65" s="1">
+        <f t="shared" ref="V65:W65" si="53">V64/V14</f>
         <v>0.63597840274765649</v>
       </c>
-      <c r="V65" s="1">
+      <c r="W65" s="1">
         <f t="shared" si="53"/>
         <v>0.80971382354881549</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
@@ -6029,20 +6250,24 @@
         <v>15.635999999999999</v>
       </c>
       <c r="L67" s="14">
-        <f t="shared" ref="L67" si="55">L44</f>
+        <f t="shared" ref="L67:N67" si="55">L44</f>
         <v>49.576999999999998</v>
       </c>
-      <c r="U67" s="14">
-        <f t="shared" ref="U67" si="56">U44</f>
+      <c r="N67" s="14">
+        <f t="shared" si="55"/>
+        <v>44.149000000000001</v>
+      </c>
+      <c r="V67" s="14">
+        <f t="shared" ref="V67" si="56">V44</f>
         <v>29.942</v>
       </c>
-      <c r="V67" s="14">
-        <f>V44</f>
+      <c r="W67" s="14">
+        <f>W44</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="W67" s="134"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="134"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
@@ -6051,20 +6276,24 @@
         <v>30.073</v>
       </c>
       <c r="L68" s="14">
-        <f t="shared" ref="L68" si="58">L53+L57</f>
+        <f t="shared" ref="L68:N68" si="58">L53+L57</f>
         <v>0</v>
       </c>
-      <c r="U68" s="14">
-        <f t="shared" ref="U68" si="59">U53+U57</f>
+      <c r="N68" s="14">
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="V68" s="14">
-        <f>V53+V57</f>
+        <f t="shared" ref="V68" si="59">V53+V57</f>
         <v>0</v>
       </c>
-      <c r="W68" s="134"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W68" s="14">
+        <f>W53+W57</f>
+        <v>0</v>
+      </c>
+      <c r="X68" s="134"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
@@ -6076,17 +6305,21 @@
         <f>L67-L68</f>
         <v>49.576999999999998</v>
       </c>
-      <c r="U69" s="14">
-        <f>U67-U68</f>
-        <v>29.942</v>
+      <c r="N69" s="14">
+        <f>N67-N68</f>
+        <v>44.149000000000001</v>
       </c>
       <c r="V69" s="14">
         <f>V67-V68</f>
+        <v>29.942</v>
+      </c>
+      <c r="W69" s="14">
+        <f>W67-W68</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="W69" s="134"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="134"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
@@ -6096,14 +6329,17 @@
       <c r="L71" s="1">
         <v>2.3904999999999998</v>
       </c>
-      <c r="U71" s="1">
+      <c r="N71" s="1">
+        <v>2.3014000000000001</v>
+      </c>
+      <c r="V71" s="1">
         <v>2.395</v>
       </c>
-      <c r="V71" s="1">
+      <c r="W71" s="1">
         <v>1.8740000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>5</v>
       </c>
@@ -6112,20 +6348,24 @@
         <v>222.55491928799998</v>
       </c>
       <c r="L72" s="27">
-        <f t="shared" ref="L72" si="61">L71*L14</f>
+        <f t="shared" ref="L72:N72" si="61">L71*L14</f>
         <v>408.36618902800001</v>
       </c>
-      <c r="U72" s="27">
-        <f t="shared" ref="U72" si="62">U71*U14</f>
+      <c r="N72" s="27">
+        <f t="shared" si="61"/>
+        <v>394.05116001659997</v>
+      </c>
+      <c r="V72" s="27">
+        <f t="shared" ref="V72" si="62">V71*V14</f>
         <v>394.23565944500001</v>
       </c>
-      <c r="V72" s="27">
-        <f>V71*V14</f>
+      <c r="W72" s="27">
+        <f>W71*W14</f>
         <v>320.358961964</v>
       </c>
-      <c r="W72" s="135"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="135"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
@@ -6137,17 +6377,21 @@
         <f>L72-L69</f>
         <v>358.78918902800001</v>
       </c>
-      <c r="U73" s="27">
-        <f>U72-U69</f>
-        <v>364.293659445</v>
+      <c r="N73" s="27">
+        <f>N72-N69</f>
+        <v>349.90216001659996</v>
       </c>
       <c r="V73" s="27">
         <f>V72-V69</f>
+        <v>364.293659445</v>
+      </c>
+      <c r="W73" s="27">
+        <f>W72-W69</f>
         <v>264.29296196400003</v>
       </c>
-      <c r="W73" s="135"/>
-    </row>
-    <row r="75" spans="1:23" s="93" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X73" s="135"/>
+    </row>
+    <row r="75" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="93" t="s">
         <v>134</v>
       </c>
@@ -6164,17 +6408,22 @@
         <v>3.0907563975629149</v>
       </c>
       <c r="M75" s="94"/>
-      <c r="U75" s="93">
-        <f t="shared" ref="U75" si="63">U71/U65</f>
+      <c r="N75" s="93">
+        <f>N71/N65</f>
+        <v>2.827577210222445</v>
+      </c>
+      <c r="O75" s="180"/>
+      <c r="V75" s="93">
+        <f t="shared" ref="V75" si="63">V71/V65</f>
         <v>3.7658511510025101</v>
       </c>
-      <c r="V75" s="93">
-        <f>V71/V65</f>
+      <c r="W75" s="93">
+        <f>W71/W65</f>
         <v>2.3143979335645142</v>
       </c>
-      <c r="W75" s="141"/>
-    </row>
-    <row r="76" spans="1:23" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X75" s="141"/>
+    </row>
+    <row r="76" spans="1:24" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="95"/>
       <c r="B76" s="96" t="s">
         <v>135</v>
@@ -6184,59 +6433,60 @@
       <c r="I76" s="97"/>
       <c r="K76" s="97"/>
       <c r="M76" s="97"/>
-      <c r="U76" s="93">
-        <f t="shared" ref="U76" si="64">U72/U3</f>
+      <c r="O76" s="181"/>
+      <c r="V76" s="93">
+        <f t="shared" ref="V76" si="64">V72/V3</f>
         <v>5.4847889402181478</v>
       </c>
-      <c r="V76" s="93">
-        <f>V72/V3</f>
+      <c r="W76" s="93">
+        <f>W72/W3</f>
         <v>1.6535424198491799</v>
       </c>
-      <c r="W76" s="141"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="141"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="U77" s="93">
-        <f t="shared" ref="U77" si="65">U73/U3</f>
+      <c r="V77" s="93">
+        <f t="shared" ref="V77" si="65">V73/V3</f>
         <v>5.0682219795347674</v>
       </c>
-      <c r="V77" s="93">
-        <f>V73/V3</f>
+      <c r="W77" s="93">
+        <f>W73/W3</f>
         <v>1.3641560741608643</v>
       </c>
-      <c r="W77" s="141"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="141"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U78" s="93">
-        <f t="shared" ref="U78" si="66">U71/U13</f>
+      <c r="V78" s="93">
+        <f t="shared" ref="V78" si="66">V71/V13</f>
         <v>228.14563625289284</v>
       </c>
-      <c r="V78" s="93">
-        <f>V71/V13</f>
+      <c r="W78" s="93">
+        <f>W71/W13</f>
         <v>8.554082987476967</v>
       </c>
-      <c r="W78" s="141"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X78" s="141"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="U79" s="93">
-        <f t="shared" ref="U79" si="67">U73/U12</f>
+      <c r="V79" s="93">
+        <f t="shared" ref="V79" si="67">V73/V12</f>
         <v>210.81808995659659</v>
       </c>
-      <c r="V79" s="93">
-        <f>V73/V12</f>
+      <c r="W79" s="93">
+        <f>W73/W12</f>
         <v>7.0570335094924017</v>
       </c>
-      <c r="W79" s="141"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X79" s="141"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>143</v>
       </c>
@@ -6250,20 +6500,21 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{B9683B42-B241-4D1D-8CE0-7A17859DA76B}"/>
-    <hyperlink ref="U1" r:id="rId2" xr:uid="{05878C96-F10F-4982-ACE4-FF132CF4E29A}"/>
-    <hyperlink ref="S1" r:id="rId3" xr:uid="{6765EA13-C896-4C06-BD01-2D2BC5D2014C}"/>
+    <hyperlink ref="V1" r:id="rId2" xr:uid="{05878C96-F10F-4982-ACE4-FF132CF4E29A}"/>
+    <hyperlink ref="T1" r:id="rId3" xr:uid="{6765EA13-C896-4C06-BD01-2D2BC5D2014C}"/>
     <hyperlink ref="H1" r:id="rId4" xr:uid="{D3D9ED60-186F-274D-93DB-4D868CA2340E}"/>
-    <hyperlink ref="Q1" r:id="rId5" xr:uid="{9260496C-E59A-0143-BDFB-5C62E2643276}"/>
-    <hyperlink ref="V1" r:id="rId6" xr:uid="{D7D97D6D-2030-4F4C-B5FB-6BFE0FD9DC61}"/>
+    <hyperlink ref="R1" r:id="rId5" xr:uid="{9260496C-E59A-0143-BDFB-5C62E2643276}"/>
+    <hyperlink ref="W1" r:id="rId6" xr:uid="{D7D97D6D-2030-4F4C-B5FB-6BFE0FD9DC61}"/>
+    <hyperlink ref="N1" r:id="rId7" xr:uid="{FC756CF2-3D82-4D5D-9DD4-F7502A0327A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
   <ignoredErrors>
-    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 W12 X11:AL11" formula="1"/>
-    <ignoredError sqref="W6" formulaRange="1"/>
+    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 X12 Y11:AM11" formula="1"/>
+    <ignoredError sqref="X6" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <drawing r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677E588F-8286-4689-A5E7-14E6E6FC9E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED8FB7-D803-4472-A26E-AC7EBC61D17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1166,6 +1166,25 @@
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,28 +1194,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1217,34 +1224,27 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1444,24 +1444,13 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Ten Entertainment Group Plc</v>
-          </cell>
-        </row>
         <row r="25">
           <cell r="C25">
             <v>51</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="19">
-          <cell r="R19">
-            <v>8.1420000000000101</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1770,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1784,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="H2" s="186" t="s">
+      <c r="H2" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -1798,27 +1787,27 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154"/>
-      <c r="H5" s="152" t="s">
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
+      <c r="H5" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="154"/>
-      <c r="O5" s="152" t="s">
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="169"/>
+      <c r="O5" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="154"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="169"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1828,12 +1817,12 @@
         <v>2.52</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="163" t="s">
+      <c r="H6" s="174" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
@@ -1861,12 +1850,12 @@
         <f>$C$28</f>
         <v>H123</v>
       </c>
-      <c r="H7" s="165" t="s">
+      <c r="H7" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>51</v>
@@ -1888,12 +1877,12 @@
         <v>431.48036987999996</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="167" t="s">
+      <c r="H8" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1917,12 +1906,12 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>H123</v>
       </c>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="178" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1946,12 +1935,12 @@
         <f t="shared" si="0"/>
         <v>H123</v>
       </c>
-      <c r="H10" s="167" t="s">
+      <c r="H10" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -1975,12 +1964,12 @@
         <f t="shared" si="0"/>
         <v>H123</v>
       </c>
-      <c r="H11" s="167" t="s">
+      <c r="H11" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -2001,12 +1990,12 @@
         <v>387.33136987999995</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="168" t="s">
+      <c r="H12" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -2040,41 +2029,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="154"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="172" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="173"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="156"/>
-      <c r="H17" s="152" t="s">
+      <c r="D17" s="173"/>
+      <c r="H17" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="169"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="156"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
       <c r="H18" s="82" t="s">
         <v>119</v>
       </c>
@@ -2085,8 +2074,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="162"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
       <c r="H19" s="86" t="s">
         <v>120</v>
       </c>
@@ -2118,11 +2107,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
       <c r="H22" s="86" t="s">
         <v>122</v>
       </c>
@@ -2135,10 +2124,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="156"/>
+      <c r="D23" s="173"/>
       <c r="H23" s="87" t="s">
         <v>128</v>
       </c>
@@ -2151,10 +2140,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="172">
         <v>2010</v>
       </c>
-      <c r="D24" s="156"/>
+      <c r="D24" s="173"/>
       <c r="H24" s="82"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
@@ -2165,17 +2154,17 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="155">
+      <c r="C25" s="172">
         <f>+'Financial Model'!N25</f>
         <v>69</v>
       </c>
-      <c r="D25" s="156"/>
+      <c r="D25" s="173"/>
       <c r="H25" s="82"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
-      <c r="O25" s="185" t="s">
+      <c r="O25" s="165" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2183,11 +2172,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="158">
+      <c r="C26" s="182">
         <f>'Financial Model'!W33</f>
         <v>2530</v>
       </c>
-      <c r="D26" s="156"/>
+      <c r="D26" s="173"/>
       <c r="H26" s="84"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
@@ -2198,10 +2187,10 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="155">
+      <c r="C27" s="172">
         <v>2016</v>
       </c>
-      <c r="D27" s="156"/>
+      <c r="D27" s="173"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2218,17 +2207,17 @@
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="159" t="s">
+      <c r="C29" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="160"/>
-      <c r="H29" s="152" t="s">
+      <c r="D29" s="186"/>
+      <c r="H29" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="154"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="169"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="82" t="s">
@@ -2249,11 +2238,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="152" t="s">
+      <c r="B32" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="153"/>
-      <c r="D32" s="154"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="169"/>
       <c r="H32" s="86" t="s">
         <v>124</v>
       </c>
@@ -2266,11 +2255,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="182">
+      <c r="C33" s="183">
         <f>C6/'Financial Model'!N65</f>
         <v>3.0961565002870257</v>
       </c>
-      <c r="D33" s="157"/>
+      <c r="D33" s="184"/>
       <c r="H33" s="86"/>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -2281,11 +2270,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="182">
+      <c r="C34" s="183">
         <f>C8/SUM('Financial Model'!M3:N3)</f>
         <v>2.1190470969452901</v>
       </c>
-      <c r="D34" s="157"/>
+      <c r="D34" s="184"/>
       <c r="H34" s="82" t="s">
         <v>121</v>
       </c>
@@ -2298,11 +2287,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="182">
+      <c r="C35" s="183">
         <f>C12/SUM('Financial Model'!M3:N3)</f>
         <v>1.9022265488655337</v>
       </c>
-      <c r="D35" s="157"/>
+      <c r="D35" s="184"/>
       <c r="H35" s="86" t="s">
         <v>127</v>
       </c>
@@ -2315,11 +2304,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="182">
+      <c r="C36" s="183">
         <f>C6/SUM('Financial Model'!M13:N13)</f>
         <v>13.332662899445351</v>
       </c>
-      <c r="D36" s="157"/>
+      <c r="D36" s="184"/>
       <c r="H36" s="82"/>
       <c r="I36" s="83"/>
       <c r="J36" s="83"/>
@@ -2330,11 +2319,11 @@
       <c r="B37" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="183">
+      <c r="C37" s="180">
         <f>C12/SUM('Financial Model'!M12:N12)</f>
         <v>11.974629625919729</v>
       </c>
-      <c r="D37" s="184"/>
+      <c r="D37" s="181"/>
       <c r="H37" s="82"/>
       <c r="I37" s="83"/>
       <c r="J37" s="83"/>
@@ -2350,6 +2339,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2364,22 +2369,6 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2396,11 +2385,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
   <dimension ref="A1:CS84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2418,7 +2407,7 @@
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.140625" style="25"/>
     <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="174"/>
+    <col min="15" max="15" width="9.140625" style="157"/>
     <col min="16" max="23" width="9.140625" style="1"/>
     <col min="24" max="24" width="9.140625" style="79"/>
     <col min="25" max="40" width="9.140625" style="1"/>
@@ -2460,7 +2449,7 @@
       <c r="N1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="171"/>
+      <c r="O1" s="154"/>
       <c r="Q1" s="10" t="s">
         <v>70</v>
       </c>
@@ -2562,7 +2551,7 @@
       <c r="N2" s="22">
         <v>45016</v>
       </c>
-      <c r="O2" s="172"/>
+      <c r="O2" s="155"/>
       <c r="Q2" s="22">
         <v>42643</v>
       </c>
@@ -2667,7 +2656,7 @@
         <f>W3-L3</f>
         <v>93.568000000000012</v>
       </c>
-      <c r="N3" s="169">
+      <c r="N3" s="152">
         <v>110.05200000000001</v>
       </c>
       <c r="O3" s="41"/>
@@ -2791,7 +2780,7 @@
         <f>W4-L4</f>
         <v>15.750999999999999</v>
       </c>
-      <c r="N4" s="170">
+      <c r="N4" s="153">
         <v>18.972000000000001</v>
       </c>
       <c r="Q4" s="14">
@@ -2918,11 +2907,11 @@
         <f t="shared" si="3"/>
         <v>77.817000000000007</v>
       </c>
-      <c r="N5" s="169">
+      <c r="N5" s="152">
         <f t="shared" si="3"/>
         <v>91.080000000000013</v>
       </c>
-      <c r="O5" s="173"/>
+      <c r="O5" s="156"/>
       <c r="Q5" s="12">
         <f t="shared" ref="Q5:W5" si="4">Q3-Q4</f>
         <v>89.426999999999992</v>
@@ -3050,7 +3039,7 @@
         <f>W6-L6</f>
         <v>3.9E-2</v>
       </c>
-      <c r="N6" s="170">
+      <c r="N6" s="153">
         <v>0</v>
       </c>
       <c r="Q6" s="14">
@@ -3172,7 +3161,7 @@
         <f>W7-L7</f>
         <v>60.022999999999996</v>
       </c>
-      <c r="N7" s="170">
+      <c r="N7" s="153">
         <v>58.933999999999997</v>
       </c>
       <c r="Q7" s="14">
@@ -3298,11 +3287,11 @@
         <f t="shared" si="8"/>
         <v>17.833000000000013</v>
       </c>
-      <c r="N8" s="169">
+      <c r="N8" s="152">
         <f t="shared" si="8"/>
         <v>32.146000000000015</v>
       </c>
-      <c r="O8" s="173"/>
+      <c r="O8" s="156"/>
       <c r="Q8" s="12">
         <f t="shared" ref="Q8:X8" si="9">Q5+Q6-Q7</f>
         <v>14.377999999999986</v>
@@ -3431,7 +3420,7 @@
         <f>W9-L9</f>
         <v>4.6049999999999986</v>
       </c>
-      <c r="N9" s="170">
+      <c r="N9" s="153">
         <v>4.4569999999999999</v>
       </c>
       <c r="Q9" s="14">
@@ -3548,7 +3537,7 @@
         <f t="shared" si="11"/>
         <v>13.228000000000014</v>
       </c>
-      <c r="N10" s="170">
+      <c r="N10" s="153">
         <f t="shared" si="11"/>
         <v>27.689000000000014</v>
       </c>
@@ -3678,7 +3667,7 @@
         <f>W11-L11</f>
         <v>2.8020000000000005</v>
       </c>
-      <c r="N11" s="170">
+      <c r="N11" s="153">
         <v>5.7690000000000001</v>
       </c>
       <c r="Q11" s="14">
@@ -3804,11 +3793,11 @@
         <f t="shared" si="15"/>
         <v>10.426000000000013</v>
       </c>
-      <c r="N12" s="169">
+      <c r="N12" s="152">
         <f t="shared" si="15"/>
         <v>21.920000000000016</v>
       </c>
-      <c r="O12" s="175"/>
+      <c r="O12" s="158"/>
       <c r="P12" s="88"/>
       <c r="Q12" s="12">
         <f t="shared" ref="Q12:W12" si="16">Q10-Q11</f>
@@ -5292,7 +5281,7 @@
       <c r="N25" s="3">
         <v>69</v>
       </c>
-      <c r="O25" s="173"/>
+      <c r="O25" s="156"/>
       <c r="Q25" s="3">
         <v>54</v>
       </c>
@@ -5404,7 +5393,7 @@
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
       <c r="N28" s="55"/>
-      <c r="O28" s="176"/>
+      <c r="O28" s="159"/>
       <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
@@ -5444,7 +5433,7 @@
       <c r="L29" s="74"/>
       <c r="M29" s="75"/>
       <c r="N29" s="74"/>
-      <c r="O29" s="177" t="s">
+      <c r="O29" s="160" t="s">
         <v>109</v>
       </c>
       <c r="P29" s="74"/>
@@ -5495,7 +5484,7 @@
       <c r="L30" s="69"/>
       <c r="M30" s="70"/>
       <c r="N30" s="69"/>
-      <c r="O30" s="178"/>
+      <c r="O30" s="161"/>
       <c r="P30" s="69"/>
       <c r="Q30" s="36">
         <v>12.1</v>
@@ -5634,7 +5623,7 @@
       <c r="I36" s="151"/>
       <c r="K36" s="151"/>
       <c r="M36" s="151"/>
-      <c r="O36" s="179"/>
+      <c r="O36" s="162"/>
       <c r="V36" s="150">
         <v>1723</v>
       </c>
@@ -5781,7 +5770,7 @@
       <c r="N44" s="36">
         <v>44.149000000000001</v>
       </c>
-      <c r="O44" s="173"/>
+      <c r="O44" s="156"/>
       <c r="V44" s="12">
         <v>29.942</v>
       </c>
@@ -5978,7 +5967,7 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="173"/>
+      <c r="O53" s="156"/>
       <c r="V53" s="12">
         <v>0</v>
       </c>
@@ -6077,7 +6066,7 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="173"/>
+      <c r="O57" s="156"/>
       <c r="V57" s="12">
         <v>0</v>
       </c>
@@ -6412,7 +6401,7 @@
         <f>N71/N65</f>
         <v>2.827577210222445</v>
       </c>
-      <c r="O75" s="180"/>
+      <c r="O75" s="163"/>
       <c r="V75" s="93">
         <f t="shared" ref="V75" si="63">V71/V65</f>
         <v>3.7658511510025101</v>
@@ -6433,7 +6422,7 @@
       <c r="I76" s="97"/>
       <c r="K76" s="97"/>
       <c r="M76" s="97"/>
-      <c r="O76" s="181"/>
+      <c r="O76" s="164"/>
       <c r="V76" s="93">
         <f t="shared" ref="V76" si="64">V72/V3</f>
         <v>5.4847889402181478</v>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED8FB7-D803-4472-A26E-AC7EBC61D17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E523A265-7E7C-4026-B7DB-F546F75F369F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="1605" yWindow="2805" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="154">
   <si>
     <t>£BOWL</t>
   </si>
@@ -568,6 +568,12 @@
   </si>
   <si>
     <t>The UK &amp; Canada's largest ten-pin bowling operator</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Hollywood Bowl acquire Lincoln Bowl in the UK</t>
   </si>
 </sst>
 </file>
@@ -919,7 +925,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1166,8 +1172,6 @@
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1185,6 +1189,7 @@
     <xf numFmtId="169" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1233,7 +1238,7 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1760,7 +1765,7 @@
   <dimension ref="B2:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1773,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -1787,50 +1792,50 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
-      <c r="H5" s="167" t="s">
+      <c r="C5" s="167"/>
+      <c r="D5" s="168"/>
+      <c r="H5" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="169"/>
-      <c r="O5" s="167" t="s">
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="168"/>
+      <c r="O5" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="169"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="168"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>2.52</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="174" t="s">
+      <c r="H6" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
       <c r="O6" s="91">
-        <v>44866</v>
-      </c>
-      <c r="P6" s="92" t="s">
-        <v>138</v>
+        <v>45200</v>
+      </c>
+      <c r="P6" s="165" t="s">
+        <v>153</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1850,12 +1855,12 @@
         <f>$C$28</f>
         <v>H123</v>
       </c>
-      <c r="H7" s="176" t="s">
+      <c r="H7" s="175" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>51</v>
@@ -1874,15 +1879,15 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>431.48036987999996</v>
+        <v>416.92646851499995</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="178" t="s">
+      <c r="H8" s="177" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1906,12 +1911,12 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>H123</v>
       </c>
-      <c r="H9" s="178" t="s">
+      <c r="H9" s="177" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1935,17 +1940,21 @@
         <f t="shared" si="0"/>
         <v>H123</v>
       </c>
-      <c r="H10" s="178" t="s">
+      <c r="H10" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="6"/>
+      <c r="O10" s="91">
+        <v>44866</v>
+      </c>
+      <c r="P10" s="92" t="s">
+        <v>138</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1964,12 +1973,12 @@
         <f t="shared" si="0"/>
         <v>H123</v>
       </c>
-      <c r="H11" s="178" t="s">
+      <c r="H11" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -1987,15 +1996,15 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>387.33136987999995</v>
+        <v>372.77746851499995</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="179" t="s">
+      <c r="H12" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -2029,41 +2038,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="173"/>
+      <c r="D16" s="172"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="H17" s="167" t="s">
+      <c r="D17" s="172"/>
+      <c r="H17" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="169"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
+      <c r="L17" s="168"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="173"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="172"/>
       <c r="H18" s="82" t="s">
         <v>119</v>
       </c>
@@ -2074,8 +2083,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="170"/>
       <c r="H19" s="86" t="s">
         <v>120</v>
       </c>
@@ -2107,11 +2116,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="167" t="s">
+      <c r="B22" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="168"/>
       <c r="H22" s="86" t="s">
         <v>122</v>
       </c>
@@ -2124,10 +2133,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="172" t="s">
+      <c r="C23" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="173"/>
+      <c r="D23" s="172"/>
       <c r="H23" s="87" t="s">
         <v>128</v>
       </c>
@@ -2140,10 +2149,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <v>2010</v>
       </c>
-      <c r="D24" s="173"/>
+      <c r="D24" s="172"/>
       <c r="H24" s="82"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
@@ -2154,17 +2163,17 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>+'Financial Model'!N25</f>
         <v>69</v>
       </c>
-      <c r="D25" s="173"/>
+      <c r="D25" s="172"/>
       <c r="H25" s="82"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
-      <c r="O25" s="165" t="s">
+      <c r="O25" s="163" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2172,11 +2181,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="182">
+      <c r="C26" s="181">
         <f>'Financial Model'!W33</f>
         <v>2530</v>
       </c>
-      <c r="D26" s="173"/>
+      <c r="D26" s="172"/>
       <c r="H26" s="84"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
@@ -2187,10 +2196,10 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="172">
+      <c r="C27" s="171">
         <v>2016</v>
       </c>
-      <c r="D27" s="173"/>
+      <c r="D27" s="172"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2207,17 +2216,17 @@
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="186"/>
-      <c r="H29" s="167" t="s">
+      <c r="D29" s="185"/>
+      <c r="H29" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="169"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="168"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="82" t="s">
@@ -2238,11 +2247,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="169"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="168"/>
       <c r="H32" s="86" t="s">
         <v>124</v>
       </c>
@@ -2255,11 +2264,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="183">
+      <c r="C33" s="182">
         <f>C6/'Financial Model'!N65</f>
-        <v>3.0961565002870257</v>
-      </c>
-      <c r="D33" s="184"/>
+        <v>2.9917226500789318</v>
+      </c>
+      <c r="D33" s="183"/>
       <c r="H33" s="86"/>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -2270,11 +2279,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="183">
+      <c r="C34" s="182">
         <f>C8/SUM('Financial Model'!M3:N3)</f>
-        <v>2.1190470969452901</v>
-      </c>
-      <c r="D34" s="184"/>
+        <v>2.0475713020086435</v>
+      </c>
+      <c r="D34" s="183"/>
       <c r="H34" s="82" t="s">
         <v>121</v>
       </c>
@@ -2287,11 +2296,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="183">
+      <c r="C35" s="182">
         <f>C12/SUM('Financial Model'!M3:N3)</f>
-        <v>1.9022265488655337</v>
-      </c>
-      <c r="D35" s="184"/>
+        <v>1.830750753928887</v>
+      </c>
+      <c r="D35" s="183"/>
       <c r="H35" s="86" t="s">
         <v>127</v>
       </c>
@@ -2304,11 +2313,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="183">
+      <c r="C36" s="182">
         <f>C6/SUM('Financial Model'!M13:N13)</f>
-        <v>13.332662899445351</v>
-      </c>
-      <c r="D36" s="184"/>
+        <v>12.882950063551361</v>
+      </c>
+      <c r="D36" s="183"/>
       <c r="H36" s="82"/>
       <c r="I36" s="83"/>
       <c r="J36" s="83"/>
@@ -2319,11 +2328,11 @@
       <c r="B37" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="180">
+      <c r="C37" s="179">
         <f>C12/SUM('Financial Model'!M12:N12)</f>
-        <v>11.974629625919729</v>
-      </c>
-      <c r="D37" s="181"/>
+        <v>11.524685232022494</v>
+      </c>
+      <c r="D37" s="180"/>
       <c r="H37" s="82"/>
       <c r="I37" s="83"/>
       <c r="J37" s="83"/>
@@ -2373,11 +2382,12 @@
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
     <hyperlink ref="H7:K7" r:id="rId2" display="Ten Entertainment Group" xr:uid="{3ECDA33B-F500-4B53-BFC3-C26A5E9CD34E}"/>
-    <hyperlink ref="P6" r:id="rId3" xr:uid="{D95A0780-5F95-45A9-AA92-44BF55CFDC51}"/>
+    <hyperlink ref="P10" r:id="rId3" xr:uid="{D95A0780-5F95-45A9-AA92-44BF55CFDC51}"/>
+    <hyperlink ref="P6" r:id="rId4" xr:uid="{66193291-EDC1-402D-BD22-8E08782733F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2386,10 +2396,10 @@
   <dimension ref="A1:CS84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
+      <selection pane="bottomRight" activeCell="AM7" sqref="Y7:AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2407,7 +2417,7 @@
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.140625" style="25"/>
     <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="157"/>
+    <col min="15" max="15" width="9.140625" style="155"/>
     <col min="16" max="23" width="9.140625" style="1"/>
     <col min="24" max="24" width="9.140625" style="79"/>
     <col min="25" max="40" width="9.140625" style="1"/>
@@ -2449,7 +2459,7 @@
       <c r="N1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="154"/>
+      <c r="O1" s="152"/>
       <c r="Q1" s="10" t="s">
         <v>70</v>
       </c>
@@ -2551,7 +2561,7 @@
       <c r="N2" s="22">
         <v>45016</v>
       </c>
-      <c r="O2" s="155"/>
+      <c r="O2" s="153"/>
       <c r="Q2" s="22">
         <v>42643</v>
       </c>
@@ -2656,7 +2666,7 @@
         <f>W3-L3</f>
         <v>93.568000000000012</v>
       </c>
-      <c r="N3" s="152">
+      <c r="N3" s="12">
         <v>110.05200000000001</v>
       </c>
       <c r="O3" s="41"/>
@@ -2683,67 +2693,67 @@
       </c>
       <c r="X3" s="133">
         <f>W3*(1+X21)</f>
-        <v>213.11510000000004</v>
+        <v>215.05251000000004</v>
       </c>
       <c r="Y3" s="36">
         <f>X3*(1+Y21)</f>
-        <v>245.08236500000004</v>
+        <v>247.31038650000002</v>
       </c>
       <c r="Z3" s="36">
         <f t="shared" ref="Z3:AM3" si="1">Y3*(1+Z21)</f>
-        <v>294.09883800000006</v>
+        <v>296.77246380000003</v>
       </c>
       <c r="AA3" s="36">
         <f t="shared" si="1"/>
-        <v>352.91860560000003</v>
+        <v>356.12695656</v>
       </c>
       <c r="AB3" s="36">
         <f t="shared" si="1"/>
-        <v>405.85639644000003</v>
+        <v>409.54600004399998</v>
       </c>
       <c r="AC3" s="36">
         <f t="shared" si="1"/>
-        <v>446.44203608400005</v>
+        <v>450.50060004840003</v>
       </c>
       <c r="AD3" s="36">
         <f t="shared" si="1"/>
-        <v>491.08623969240011</v>
+        <v>495.55066005324005</v>
       </c>
       <c r="AE3" s="36">
         <f t="shared" si="1"/>
-        <v>530.37313886779214</v>
+        <v>535.19471285749933</v>
       </c>
       <c r="AF3" s="36">
         <f t="shared" si="1"/>
-        <v>556.89179581118174</v>
+        <v>561.95444850037427</v>
       </c>
       <c r="AG3" s="36">
         <f t="shared" si="1"/>
-        <v>584.73638560174084</v>
+        <v>590.05217092539306</v>
       </c>
       <c r="AH3" s="36">
         <f t="shared" si="1"/>
-        <v>596.43111331377565</v>
+        <v>601.85321434390096</v>
       </c>
       <c r="AI3" s="36">
         <f t="shared" si="1"/>
-        <v>608.35973558005117</v>
+        <v>613.89027863077899</v>
       </c>
       <c r="AJ3" s="36">
         <f t="shared" si="1"/>
-        <v>620.52693029165221</v>
+        <v>626.16808420339453</v>
       </c>
       <c r="AK3" s="36">
         <f t="shared" si="1"/>
-        <v>632.93746889748525</v>
+        <v>638.69144588746246</v>
       </c>
       <c r="AL3" s="36">
         <f t="shared" si="1"/>
-        <v>645.59621827543492</v>
+        <v>651.46527480521172</v>
       </c>
       <c r="AM3" s="36">
         <f t="shared" si="1"/>
-        <v>658.50814264094367</v>
+        <v>664.49458030131598</v>
       </c>
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.2">
@@ -2780,7 +2790,7 @@
         <f>W4-L4</f>
         <v>15.750999999999999</v>
       </c>
-      <c r="N4" s="153">
+      <c r="N4" s="14">
         <v>18.972000000000001</v>
       </c>
       <c r="Q4" s="14">
@@ -2806,67 +2816,67 @@
       </c>
       <c r="X4" s="134">
         <f>X3*0.16</f>
-        <v>34.098416000000007</v>
+        <v>34.408401600000005</v>
       </c>
       <c r="Y4" s="27">
         <f t="shared" ref="Y4:AM4" si="2">Y3*0.14</f>
-        <v>34.31153110000001</v>
+        <v>34.623454110000004</v>
       </c>
       <c r="Z4" s="27">
         <f t="shared" si="2"/>
-        <v>41.173837320000011</v>
+        <v>41.548144932000007</v>
       </c>
       <c r="AA4" s="27">
         <f t="shared" si="2"/>
-        <v>49.408604784000012</v>
+        <v>49.857773918400007</v>
       </c>
       <c r="AB4" s="27">
         <f t="shared" si="2"/>
-        <v>56.819895501600008</v>
+        <v>57.336440006160004</v>
       </c>
       <c r="AC4" s="27">
         <f t="shared" si="2"/>
-        <v>62.501885051760013</v>
+        <v>63.070084006776007</v>
       </c>
       <c r="AD4" s="27">
         <f t="shared" si="2"/>
-        <v>68.752073556936026</v>
+        <v>69.377092407453617</v>
       </c>
       <c r="AE4" s="27">
         <f t="shared" si="2"/>
-        <v>74.2522394414909</v>
+        <v>74.92725980004991</v>
       </c>
       <c r="AF4" s="27">
         <f t="shared" si="2"/>
-        <v>77.964851413565455</v>
+        <v>78.673622790052406</v>
       </c>
       <c r="AG4" s="27">
         <f t="shared" si="2"/>
-        <v>81.863093984243719</v>
+        <v>82.60730392955503</v>
       </c>
       <c r="AH4" s="27">
         <f t="shared" si="2"/>
-        <v>83.500355863928604</v>
+        <v>84.259450008146146</v>
       </c>
       <c r="AI4" s="27">
         <f t="shared" si="2"/>
-        <v>85.170362981207177</v>
+        <v>85.944639008309068</v>
       </c>
       <c r="AJ4" s="27">
         <f t="shared" si="2"/>
-        <v>86.87377024083132</v>
+        <v>87.66353178847524</v>
       </c>
       <c r="AK4" s="27">
         <f t="shared" si="2"/>
-        <v>88.611245645647941</v>
+        <v>89.41680242424475</v>
       </c>
       <c r="AL4" s="27">
         <f t="shared" si="2"/>
-        <v>90.383470558560902</v>
+        <v>91.205138472729644</v>
       </c>
       <c r="AM4" s="27">
         <f t="shared" si="2"/>
-        <v>92.19113996973212</v>
+        <v>93.029241242184241</v>
       </c>
     </row>
     <row r="5" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2907,11 +2917,11 @@
         <f t="shared" si="3"/>
         <v>77.817000000000007</v>
       </c>
-      <c r="N5" s="152">
+      <c r="N5" s="12">
         <f t="shared" si="3"/>
         <v>91.080000000000013</v>
       </c>
-      <c r="O5" s="156"/>
+      <c r="O5" s="154"/>
       <c r="Q5" s="12">
         <f t="shared" ref="Q5:W5" si="4">Q3-Q4</f>
         <v>89.426999999999992</v>
@@ -2942,67 +2952,67 @@
       </c>
       <c r="X5" s="133">
         <f>X3-X4</f>
-        <v>179.01668400000003</v>
+        <v>180.64410840000005</v>
       </c>
       <c r="Y5" s="12">
         <f t="shared" ref="Y5:AM5" si="5">Y3-Y4</f>
-        <v>210.77083390000001</v>
+        <v>212.68693239000001</v>
       </c>
       <c r="Z5" s="12">
         <f t="shared" si="5"/>
-        <v>252.92500068000004</v>
+        <v>255.22431886800001</v>
       </c>
       <c r="AA5" s="12">
         <f t="shared" si="5"/>
-        <v>303.510000816</v>
+        <v>306.26918264159997</v>
       </c>
       <c r="AB5" s="12">
         <f t="shared" si="5"/>
-        <v>349.03650093840002</v>
+        <v>352.20956003783999</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="5"/>
-        <v>383.94015103224001</v>
+        <v>387.430516041624</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="5"/>
-        <v>422.3341661354641</v>
+        <v>426.17356764578642</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="5"/>
-        <v>456.12089942630121</v>
+        <v>460.26745305744942</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="5"/>
-        <v>478.9269443976163</v>
+        <v>483.28082571032189</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="5"/>
-        <v>502.8732916174971</v>
+        <v>507.44486699583803</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="5"/>
-        <v>512.93075744984708</v>
+        <v>517.59376433575483</v>
       </c>
       <c r="AI5" s="12">
         <f t="shared" si="5"/>
-        <v>523.18937259884399</v>
+        <v>527.94563962246991</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="5"/>
-        <v>533.65316005082093</v>
+        <v>538.50455241491932</v>
       </c>
       <c r="AK5" s="12">
         <f t="shared" si="5"/>
-        <v>544.32622325183729</v>
+        <v>549.27464346321767</v>
       </c>
       <c r="AL5" s="12">
         <f t="shared" si="5"/>
-        <v>555.21274771687399</v>
+        <v>560.26013633248203</v>
       </c>
       <c r="AM5" s="12">
         <f t="shared" si="5"/>
-        <v>566.31700267121153</v>
+        <v>571.46533905913179</v>
       </c>
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.2">
@@ -3039,7 +3049,7 @@
         <f>W6-L6</f>
         <v>3.9E-2</v>
       </c>
-      <c r="N6" s="153">
+      <c r="N6" s="14">
         <v>0</v>
       </c>
       <c r="Q6" s="14">
@@ -3161,7 +3171,7 @@
         <f>W7-L7</f>
         <v>60.022999999999996</v>
       </c>
-      <c r="N7" s="153">
+      <c r="N7" s="14">
         <v>58.933999999999997</v>
       </c>
       <c r="Q7" s="14">
@@ -3186,68 +3196,68 @@
         <v>108.93899999999999</v>
       </c>
       <c r="X7" s="134">
-        <f>X5*0.65</f>
-        <v>116.36084460000002</v>
+        <f>X5*0.62</f>
+        <v>111.99934720800003</v>
       </c>
       <c r="Y7" s="27">
-        <f>Y5*0.65</f>
-        <v>137.00104203500001</v>
+        <f>Y5*0.63</f>
+        <v>133.99276740569999</v>
       </c>
       <c r="Z7" s="27">
-        <f t="shared" ref="Z7:AM7" si="7">Z5*0.65</f>
-        <v>164.40125044200002</v>
+        <f t="shared" ref="Z7:AM7" si="7">Z5*0.63</f>
+        <v>160.79132088684</v>
       </c>
       <c r="AA7" s="27">
         <f t="shared" si="7"/>
-        <v>197.2815005304</v>
+        <v>192.94958506420798</v>
       </c>
       <c r="AB7" s="27">
         <f t="shared" si="7"/>
-        <v>226.87372560996002</v>
+        <v>221.8920228238392</v>
       </c>
       <c r="AC7" s="27">
         <f t="shared" si="7"/>
-        <v>249.561098170956</v>
+        <v>244.08122510622312</v>
       </c>
       <c r="AD7" s="27">
         <f t="shared" si="7"/>
-        <v>274.51720798805167</v>
+        <v>268.48934761684546</v>
       </c>
       <c r="AE7" s="27">
         <f t="shared" si="7"/>
-        <v>296.47858462709581</v>
+        <v>289.96849542619316</v>
       </c>
       <c r="AF7" s="27">
         <f t="shared" si="7"/>
-        <v>311.3025138584506</v>
+        <v>304.46692019750282</v>
       </c>
       <c r="AG7" s="27">
         <f t="shared" si="7"/>
-        <v>326.86763955137314</v>
+        <v>319.69026620737793</v>
       </c>
       <c r="AH7" s="27">
         <f t="shared" si="7"/>
-        <v>333.40499234240059</v>
+        <v>326.08407153152552</v>
       </c>
       <c r="AI7" s="27">
         <f t="shared" si="7"/>
-        <v>340.0730921892486</v>
+        <v>332.60575296215603</v>
       </c>
       <c r="AJ7" s="27">
         <f t="shared" si="7"/>
-        <v>346.87455403303363</v>
+        <v>339.25786802139919</v>
       </c>
       <c r="AK7" s="27">
         <f t="shared" si="7"/>
-        <v>353.81204511369424</v>
+        <v>346.04302538182714</v>
       </c>
       <c r="AL7" s="27">
         <f t="shared" si="7"/>
-        <v>360.88828601596811</v>
+        <v>352.96388588946371</v>
       </c>
       <c r="AM7" s="27">
         <f t="shared" si="7"/>
-        <v>368.1060517362875</v>
+        <v>360.02316360725303</v>
       </c>
     </row>
     <row r="8" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3287,11 +3297,11 @@
         <f t="shared" si="8"/>
         <v>17.833000000000013</v>
       </c>
-      <c r="N8" s="152">
+      <c r="N8" s="12">
         <f t="shared" si="8"/>
         <v>32.146000000000015</v>
       </c>
-      <c r="O8" s="156"/>
+      <c r="O8" s="154"/>
       <c r="Q8" s="12">
         <f t="shared" ref="Q8:X8" si="9">Q5+Q6-Q7</f>
         <v>14.377999999999986</v>
@@ -3322,67 +3332,67 @@
       </c>
       <c r="X8" s="41">
         <f t="shared" si="9"/>
-        <v>63.606839399999998</v>
+        <v>69.595761192000012</v>
       </c>
       <c r="Y8" s="12">
         <f t="shared" ref="Y8:AM8" si="10">Y5+Y6-Y7</f>
-        <v>74.429666865000002</v>
+        <v>79.354039984300016</v>
       </c>
       <c r="Z8" s="12">
         <f t="shared" si="10"/>
-        <v>89.091734613000028</v>
+        <v>95.000982356160023</v>
       </c>
       <c r="AA8" s="12">
         <f t="shared" si="10"/>
-        <v>106.85748270747499</v>
+        <v>113.94857999926697</v>
       </c>
       <c r="AB8" s="12">
         <f t="shared" si="10"/>
-        <v>122.87038055304939</v>
+        <v>131.02514243861017</v>
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="10"/>
-        <v>135.17510873896956</v>
+        <v>144.14534681308643</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="10"/>
-        <v>148.71252100980865</v>
+        <v>158.57978289133717</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="10"/>
-        <v>160.29807301940116</v>
+        <v>170.95471585145202</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="10"/>
-        <v>168.35728353688592</v>
+        <v>179.54675851053929</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="10"/>
-        <v>176.71123668855921</v>
+        <v>188.46018541089535</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="10"/>
-        <v>180.23706343268617</v>
+        <v>192.22099112946898</v>
       </c>
       <c r="AI8" s="12">
         <f t="shared" si="10"/>
-        <v>183.84549297861503</v>
+        <v>196.06909922933352</v>
       </c>
       <c r="AJ8" s="12">
         <f t="shared" si="10"/>
-        <v>187.52034735519999</v>
+        <v>199.98842573093282</v>
       </c>
       <c r="AK8" s="12">
         <f t="shared" si="10"/>
-        <v>191.26018648965623</v>
+        <v>203.97762643290372</v>
       </c>
       <c r="AL8" s="12">
         <f t="shared" si="10"/>
-        <v>195.06421411164752</v>
+        <v>208.03600285375995</v>
       </c>
       <c r="AM8" s="12">
         <f t="shared" si="10"/>
-        <v>198.93122703920875</v>
+        <v>212.16245155616349</v>
       </c>
     </row>
     <row r="9" spans="1:97" x14ac:dyDescent="0.2">
@@ -3420,7 +3430,7 @@
         <f>W9-L9</f>
         <v>4.6049999999999986</v>
       </c>
-      <c r="N9" s="153">
+      <c r="N9" s="14">
         <v>4.4569999999999999</v>
       </c>
       <c r="Q9" s="14">
@@ -3537,7 +3547,7 @@
         <f t="shared" si="11"/>
         <v>13.228000000000014</v>
       </c>
-      <c r="N10" s="153">
+      <c r="N10" s="14">
         <f t="shared" si="11"/>
         <v>27.689000000000014</v>
       </c>
@@ -3571,67 +3581,67 @@
       </c>
       <c r="X10" s="44">
         <f t="shared" si="12"/>
-        <v>54.751172733333334</v>
+        <v>60.740094525333348</v>
       </c>
       <c r="Y10" s="14">
         <f t="shared" ref="Y10:AM10" si="13">Y8-Y9</f>
-        <v>71.529666864999996</v>
+        <v>76.45403998430001</v>
       </c>
       <c r="Z10" s="14">
         <f t="shared" si="13"/>
-        <v>85.191734613000023</v>
+        <v>91.100982356160017</v>
       </c>
       <c r="AA10" s="14">
         <f t="shared" si="13"/>
-        <v>101.95748270747498</v>
+        <v>109.04857999926696</v>
       </c>
       <c r="AB10" s="14">
         <f t="shared" si="13"/>
-        <v>116.97038055304938</v>
+        <v>125.12514243861017</v>
       </c>
       <c r="AC10" s="14">
         <f t="shared" si="13"/>
-        <v>128.27510873896955</v>
+        <v>137.24534681308643</v>
       </c>
       <c r="AD10" s="14">
         <f t="shared" si="13"/>
-        <v>140.81252100980865</v>
+        <v>150.67978289133717</v>
       </c>
       <c r="AE10" s="14">
         <f t="shared" si="13"/>
-        <v>151.39807301940115</v>
+        <v>162.05471585145202</v>
       </c>
       <c r="AF10" s="14">
         <f t="shared" si="13"/>
-        <v>158.45728353688591</v>
+        <v>169.64675851053929</v>
       </c>
       <c r="AG10" s="14">
         <f t="shared" si="13"/>
-        <v>165.81123668855921</v>
+        <v>177.56018541089534</v>
       </c>
       <c r="AH10" s="14">
         <f t="shared" si="13"/>
-        <v>168.33706343268616</v>
+        <v>180.32099112946898</v>
       </c>
       <c r="AI10" s="14">
         <f t="shared" si="13"/>
-        <v>170.94549297861502</v>
+        <v>183.16909922933351</v>
       </c>
       <c r="AJ10" s="14">
         <f t="shared" si="13"/>
-        <v>173.62034735519998</v>
+        <v>186.08842573093281</v>
       </c>
       <c r="AK10" s="14">
         <f t="shared" si="13"/>
-        <v>176.36018648965623</v>
+        <v>189.07762643290371</v>
       </c>
       <c r="AL10" s="14">
         <f t="shared" si="13"/>
-        <v>179.16421411164751</v>
+        <v>192.13600285375995</v>
       </c>
       <c r="AM10" s="14">
         <f t="shared" si="13"/>
-        <v>182.03122703920874</v>
+        <v>195.26245155616348</v>
       </c>
     </row>
     <row r="11" spans="1:97" x14ac:dyDescent="0.2">
@@ -3667,7 +3677,7 @@
         <f>W11-L11</f>
         <v>2.8020000000000005</v>
       </c>
-      <c r="N11" s="153">
+      <c r="N11" s="14">
         <v>5.7690000000000001</v>
       </c>
       <c r="Q11" s="14">
@@ -3693,67 +3703,67 @@
       </c>
       <c r="X11" s="134">
         <f>X10-X12</f>
-        <v>10.950234546666664</v>
+        <v>12.148018905066664</v>
       </c>
       <c r="Y11" s="27">
         <f>Y10*(1-(1-Y19))</f>
-        <v>14.305933372999997</v>
+        <v>15.290807996859998</v>
       </c>
       <c r="Z11" s="27">
         <f t="shared" ref="Z11:AM11" si="14">Z10*(1-(1-Z19))</f>
-        <v>17.038346922600002</v>
+        <v>18.220196471232001</v>
       </c>
       <c r="AA11" s="27">
         <f t="shared" si="14"/>
-        <v>20.391496541494991</v>
+        <v>21.809715999853388</v>
       </c>
       <c r="AB11" s="27">
         <f t="shared" si="14"/>
-        <v>23.39407611060987</v>
+        <v>25.025028487722029</v>
       </c>
       <c r="AC11" s="27">
         <f t="shared" si="14"/>
-        <v>25.655021747793903</v>
+        <v>27.44906936261728</v>
       </c>
       <c r="AD11" s="27">
         <f t="shared" si="14"/>
-        <v>28.162504201961724</v>
+        <v>30.135956578267429</v>
       </c>
       <c r="AE11" s="27">
         <f t="shared" si="14"/>
-        <v>30.279614603880223</v>
+        <v>32.410943170290395</v>
       </c>
       <c r="AF11" s="27">
         <f t="shared" si="14"/>
-        <v>31.691456707377174</v>
+        <v>33.929351702107851</v>
       </c>
       <c r="AG11" s="27">
         <f t="shared" si="14"/>
-        <v>33.162247337711833</v>
+        <v>35.512037082179063</v>
       </c>
       <c r="AH11" s="27">
         <f t="shared" si="14"/>
-        <v>33.667412686537226</v>
+        <v>36.06419822589379</v>
       </c>
       <c r="AI11" s="27">
         <f t="shared" si="14"/>
-        <v>34.189098595722996</v>
+        <v>36.633819845866697</v>
       </c>
       <c r="AJ11" s="27">
         <f t="shared" si="14"/>
-        <v>34.724069471039989</v>
+        <v>37.217685146186554</v>
       </c>
       <c r="AK11" s="27">
         <f t="shared" si="14"/>
-        <v>35.272037297931234</v>
+        <v>37.815525286580737</v>
       </c>
       <c r="AL11" s="27">
         <f t="shared" si="14"/>
-        <v>35.832842822329496</v>
+        <v>38.427200570751978</v>
       </c>
       <c r="AM11" s="27">
         <f t="shared" si="14"/>
-        <v>36.406245407841737</v>
+        <v>39.052490311232688</v>
       </c>
     </row>
     <row r="12" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3793,11 +3803,11 @@
         <f t="shared" si="15"/>
         <v>10.426000000000013</v>
       </c>
-      <c r="N12" s="152">
+      <c r="N12" s="12">
         <f t="shared" si="15"/>
         <v>21.920000000000016</v>
       </c>
-      <c r="O12" s="158"/>
+      <c r="O12" s="156"/>
       <c r="P12" s="88"/>
       <c r="Q12" s="12">
         <f t="shared" ref="Q12:W12" si="16">Q10-Q11</f>
@@ -3829,299 +3839,299 @@
       </c>
       <c r="X12" s="133">
         <f>X10*(1-X19)</f>
-        <v>43.80093818666667</v>
+        <v>48.592075620266684</v>
       </c>
       <c r="Y12" s="12">
         <f t="shared" ref="Y12:AM12" si="17">Y10-Y11</f>
-        <v>57.223733492000001</v>
+        <v>61.163231987440014</v>
       </c>
       <c r="Z12" s="12">
         <f t="shared" si="17"/>
-        <v>68.153387690400024</v>
+        <v>72.880785884928017</v>
       </c>
       <c r="AA12" s="12">
         <f t="shared" si="17"/>
-        <v>81.565986165979993</v>
+        <v>87.238863999413581</v>
       </c>
       <c r="AB12" s="12">
         <f t="shared" si="17"/>
-        <v>93.576304442439508</v>
+        <v>100.10011395088814</v>
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="17"/>
-        <v>102.62008699117564</v>
+        <v>109.79627745046915</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="17"/>
-        <v>112.65001680784692</v>
+        <v>120.54382631306974</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="17"/>
-        <v>121.11845841552093</v>
+        <v>129.64377268116164</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>126.76582682950874</v>
+        <v>135.71740680843143</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="17"/>
-        <v>132.64898935084739</v>
+        <v>142.04814832871628</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="17"/>
-        <v>134.66965074614893</v>
+        <v>144.25679290357519</v>
       </c>
       <c r="AI12" s="12">
         <f t="shared" si="17"/>
-        <v>136.75639438289204</v>
+        <v>146.53527938346681</v>
       </c>
       <c r="AJ12" s="12">
         <f t="shared" si="17"/>
-        <v>138.89627788415999</v>
+        <v>148.87074058474627</v>
       </c>
       <c r="AK12" s="12">
         <f t="shared" si="17"/>
-        <v>141.08814919172499</v>
+        <v>151.26210114632298</v>
       </c>
       <c r="AL12" s="12">
         <f t="shared" si="17"/>
-        <v>143.33137128931801</v>
+        <v>153.70880228300797</v>
       </c>
       <c r="AM12" s="12">
         <f t="shared" si="17"/>
-        <v>145.62498163136701</v>
+        <v>156.20996124493081</v>
       </c>
       <c r="AN12" s="12">
         <f t="shared" ref="AN12:BS12" si="18">AM12*(1+$AP$15)</f>
-        <v>142.71248199873966</v>
+        <v>153.08576202003218</v>
       </c>
       <c r="AO12" s="12">
         <f t="shared" si="18"/>
-        <v>139.85823235876487</v>
+        <v>150.02404677963153</v>
       </c>
       <c r="AP12" s="12">
         <f t="shared" si="18"/>
-        <v>137.06106771158957</v>
+        <v>147.0235658440389</v>
       </c>
       <c r="AQ12" s="12">
         <f t="shared" si="18"/>
-        <v>134.31984635735779</v>
+        <v>144.08309452715812</v>
       </c>
       <c r="AR12" s="12">
         <f t="shared" si="18"/>
-        <v>131.63344943021062</v>
+        <v>141.20143263661495</v>
       </c>
       <c r="AS12" s="12">
         <f t="shared" si="18"/>
-        <v>129.00078044160639</v>
+        <v>138.37740398388266</v>
       </c>
       <c r="AT12" s="12">
         <f t="shared" si="18"/>
-        <v>126.42076483277427</v>
+        <v>135.60985590420501</v>
       </c>
       <c r="AU12" s="12">
         <f t="shared" si="18"/>
-        <v>123.89234953611879</v>
+        <v>132.8976587861209</v>
       </c>
       <c r="AV12" s="12">
         <f t="shared" si="18"/>
-        <v>121.4145025453964</v>
+        <v>130.23970561039849</v>
       </c>
       <c r="AW12" s="12">
         <f t="shared" si="18"/>
-        <v>118.98621249448847</v>
+        <v>127.63491149819052</v>
       </c>
       <c r="AX12" s="12">
         <f t="shared" si="18"/>
-        <v>116.60648824459869</v>
+        <v>125.08221326822671</v>
       </c>
       <c r="AY12" s="12">
         <f t="shared" si="18"/>
-        <v>114.27435847970672</v>
+        <v>122.58056900286218</v>
       </c>
       <c r="AZ12" s="12">
         <f t="shared" si="18"/>
-        <v>111.98887131011259</v>
+        <v>120.12895762280493</v>
       </c>
       <c r="BA12" s="12">
         <f t="shared" si="18"/>
-        <v>109.74909388391033</v>
+        <v>117.72637847034883</v>
       </c>
       <c r="BB12" s="12">
         <f t="shared" si="18"/>
-        <v>107.55411200623213</v>
+        <v>115.37185090094185</v>
       </c>
       <c r="BC12" s="12">
         <f t="shared" si="18"/>
-        <v>105.40302976610748</v>
+        <v>113.06441388292301</v>
       </c>
       <c r="BD12" s="12">
         <f t="shared" si="18"/>
-        <v>103.29496917078532</v>
+        <v>110.80312560526454</v>
       </c>
       <c r="BE12" s="12">
         <f t="shared" si="18"/>
-        <v>101.22906978736961</v>
+        <v>108.58706309315924</v>
       </c>
       <c r="BF12" s="12">
         <f t="shared" si="18"/>
-        <v>99.20448839162222</v>
+        <v>106.41532183129605</v>
       </c>
       <c r="BG12" s="12">
         <f t="shared" si="18"/>
-        <v>97.220398623789777</v>
+        <v>104.28701539467014</v>
       </c>
       <c r="BH12" s="12">
         <f t="shared" si="18"/>
-        <v>95.275990651313975</v>
+        <v>102.20127508677673</v>
       </c>
       <c r="BI12" s="12">
         <f t="shared" si="18"/>
-        <v>93.370470838287687</v>
+        <v>100.1572495850412</v>
       </c>
       <c r="BJ12" s="12">
         <f t="shared" si="18"/>
-        <v>91.503061421521934</v>
+        <v>98.154104593340378</v>
       </c>
       <c r="BK12" s="12">
         <f t="shared" si="18"/>
-        <v>89.673000193091497</v>
+        <v>96.191022501473569</v>
       </c>
       <c r="BL12" s="12">
         <f t="shared" si="18"/>
-        <v>87.879540189229658</v>
+        <v>94.267202051444102</v>
       </c>
       <c r="BM12" s="12">
         <f t="shared" si="18"/>
-        <v>86.121949385445063</v>
+        <v>92.381858010415215</v>
       </c>
       <c r="BN12" s="12">
         <f t="shared" si="18"/>
-        <v>84.399510397736165</v>
+        <v>90.534220850206907</v>
       </c>
       <c r="BO12" s="12">
         <f t="shared" si="18"/>
-        <v>82.711520189781439</v>
+        <v>88.723536433202767</v>
       </c>
       <c r="BP12" s="12">
         <f t="shared" si="18"/>
-        <v>81.057289785985802</v>
+        <v>86.949065704538711</v>
       </c>
       <c r="BQ12" s="12">
         <f t="shared" si="18"/>
-        <v>79.436143990266089</v>
+        <v>85.210084390447932</v>
       </c>
       <c r="BR12" s="12">
         <f t="shared" si="18"/>
-        <v>77.847421110460772</v>
+        <v>83.505882702638971</v>
       </c>
       <c r="BS12" s="12">
         <f t="shared" si="18"/>
-        <v>76.290472688251555</v>
+        <v>81.835765048586197</v>
       </c>
       <c r="BT12" s="12">
         <f t="shared" ref="BT12:CS12" si="19">BS12*(1+$AP$15)</f>
-        <v>74.76466323448652</v>
+        <v>80.199049747614467</v>
       </c>
       <c r="BU12" s="12">
         <f t="shared" si="19"/>
-        <v>73.269369969796784</v>
+        <v>78.595068752662172</v>
       </c>
       <c r="BV12" s="12">
         <f t="shared" si="19"/>
-        <v>71.803982570400848</v>
+        <v>77.023167377608928</v>
       </c>
       <c r="BW12" s="12">
         <f t="shared" si="19"/>
-        <v>70.367902918992826</v>
+        <v>75.482704030056752</v>
       </c>
       <c r="BX12" s="12">
         <f t="shared" si="19"/>
-        <v>68.96054486061297</v>
+        <v>73.973049949455614</v>
       </c>
       <c r="BY12" s="12">
         <f t="shared" si="19"/>
-        <v>67.581333963400709</v>
+        <v>72.493588950466503</v>
       </c>
       <c r="BZ12" s="12">
         <f t="shared" si="19"/>
-        <v>66.229707284132701</v>
+        <v>71.043717171457175</v>
       </c>
       <c r="CA12" s="12">
         <f t="shared" si="19"/>
-        <v>64.905113138450048</v>
+        <v>69.622842828028027</v>
       </c>
       <c r="CB12" s="12">
         <f t="shared" si="19"/>
-        <v>63.607010875681048</v>
+        <v>68.23038597146747</v>
       </c>
       <c r="CC12" s="12">
         <f t="shared" si="19"/>
-        <v>62.334870658167425</v>
+        <v>66.865778252038126</v>
       </c>
       <c r="CD12" s="12">
         <f t="shared" si="19"/>
-        <v>61.088173245004079</v>
+        <v>65.528462686997358</v>
       </c>
       <c r="CE12" s="12">
         <f t="shared" si="19"/>
-        <v>59.866409780103993</v>
+        <v>64.217893433257416</v>
       </c>
       <c r="CF12" s="12">
         <f t="shared" si="19"/>
-        <v>58.66908158450191</v>
+        <v>62.933535564592269</v>
       </c>
       <c r="CG12" s="12">
         <f t="shared" si="19"/>
-        <v>57.495699952811869</v>
+        <v>61.67486485330042</v>
       </c>
       <c r="CH12" s="12">
         <f t="shared" si="19"/>
-        <v>56.34578595375563</v>
+        <v>60.441367556234411</v>
       </c>
       <c r="CI12" s="12">
         <f t="shared" si="19"/>
-        <v>55.218870234680516</v>
+        <v>59.232540205109721</v>
       </c>
       <c r="CJ12" s="12">
         <f t="shared" si="19"/>
-        <v>54.114492829986908</v>
+        <v>58.047889401007524</v>
       </c>
       <c r="CK12" s="12">
         <f t="shared" si="19"/>
-        <v>53.032202973387172</v>
+        <v>56.886931612987375</v>
       </c>
       <c r="CL12" s="12">
         <f t="shared" si="19"/>
-        <v>51.971558913919431</v>
+        <v>55.749192980727628</v>
       </c>
       <c r="CM12" s="12">
         <f t="shared" si="19"/>
-        <v>50.932127735641039</v>
+        <v>54.634209121113074</v>
       </c>
       <c r="CN12" s="12">
         <f t="shared" si="19"/>
-        <v>49.91348518092822</v>
+        <v>53.541524938690813</v>
       </c>
       <c r="CO12" s="12">
         <f t="shared" si="19"/>
-        <v>48.915215477309651</v>
+        <v>52.470694439916997</v>
       </c>
       <c r="CP12" s="12">
         <f t="shared" si="19"/>
-        <v>47.936911167763455</v>
+        <v>51.421280551118656</v>
       </c>
       <c r="CQ12" s="12">
         <f t="shared" si="19"/>
-        <v>46.978172944408186</v>
+        <v>50.392854940096285</v>
       </c>
       <c r="CR12" s="12">
         <f t="shared" si="19"/>
-        <v>46.03860948552002</v>
+        <v>49.384997841294357</v>
       </c>
       <c r="CS12" s="12">
         <f t="shared" si="19"/>
-        <v>45.117837295809622</v>
+        <v>48.397297884468472</v>
       </c>
     </row>
     <row r="13" spans="1:97" x14ac:dyDescent="0.2">
@@ -4197,67 +4207,67 @@
       </c>
       <c r="X13" s="43">
         <f t="shared" si="21"/>
-        <v>0.25622182584995806</v>
+        <v>0.28424848536814995</v>
       </c>
       <c r="Y13" s="27">
         <f t="shared" si="21"/>
-        <v>0.33474099150083608</v>
+        <v>0.35778582887699228</v>
       </c>
       <c r="Z13" s="27">
         <f t="shared" si="21"/>
-        <v>0.39867605934546008</v>
+        <v>0.42632986419684732</v>
       </c>
       <c r="AA13" s="27">
         <f t="shared" si="21"/>
-        <v>0.47713557672291179</v>
+        <v>0.51032014254457658</v>
       </c>
       <c r="AB13" s="27">
         <f t="shared" si="21"/>
-        <v>0.54739219233965974</v>
+        <v>0.58555444303457427</v>
       </c>
       <c r="AC13" s="27">
         <f t="shared" si="21"/>
-        <v>0.60029549928143977</v>
+        <v>0.64227397504584571</v>
       </c>
       <c r="AD13" s="27">
         <f t="shared" si="21"/>
-        <v>0.65896746013813079</v>
+        <v>0.70514378347897722</v>
       </c>
       <c r="AE13" s="27">
         <f t="shared" si="21"/>
-        <v>0.70850520203705869</v>
+        <v>0.75837563124517315</v>
       </c>
       <c r="AF13" s="27">
         <f t="shared" si="21"/>
-        <v>0.74154054571195305</v>
+        <v>0.79390449638047289</v>
       </c>
       <c r="AG13" s="27">
         <f t="shared" si="21"/>
-        <v>0.77595521136512602</v>
+        <v>0.83093735956707226</v>
       </c>
       <c r="AH13" s="27">
         <f t="shared" si="21"/>
-        <v>0.78777545023586082</v>
+        <v>0.84385724140184581</v>
       </c>
       <c r="AI13" s="27">
         <f t="shared" si="21"/>
-        <v>0.79998224960642439</v>
+        <v>0.8571856765957292</v>
       </c>
       <c r="AJ13" s="27">
         <f t="shared" si="21"/>
-        <v>0.81249990060888577</v>
+        <v>0.87084739613797668</v>
       </c>
       <c r="AK13" s="27">
         <f t="shared" si="21"/>
-        <v>0.82532166406196628</v>
+        <v>0.88483610950163882</v>
       </c>
       <c r="AL13" s="27">
         <f t="shared" si="21"/>
-        <v>0.8384438136191924</v>
+        <v>0.89914854796765853</v>
       </c>
       <c r="AM13" s="27">
         <f t="shared" si="21"/>
-        <v>0.85186071868920821</v>
+        <v>0.91377954772464398</v>
       </c>
     </row>
     <row r="14" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4461,11 +4471,11 @@
       </c>
       <c r="X16" s="136">
         <f>X5/X3</f>
-        <v>0.84</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="Y16" s="23">
         <f t="shared" ref="Y16:AM16" si="28">Y5/Y3</f>
-        <v>0.85999999999999988</v>
+        <v>0.86</v>
       </c>
       <c r="Z16" s="23">
         <f t="shared" si="28"/>
@@ -4481,7 +4491,7 @@
       </c>
       <c r="AC16" s="23">
         <f t="shared" si="28"/>
-        <v>0.85999999999999988</v>
+        <v>0.86</v>
       </c>
       <c r="AD16" s="23">
         <f t="shared" si="28"/>
@@ -4509,19 +4519,19 @@
       </c>
       <c r="AJ16" s="23">
         <f t="shared" si="28"/>
-        <v>0.8600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AK16" s="23">
         <f t="shared" si="28"/>
-        <v>0.86</v>
+        <v>0.85999999999999988</v>
       </c>
       <c r="AL16" s="23">
         <f t="shared" si="28"/>
-        <v>0.86</v>
+        <v>0.85999999999999988</v>
       </c>
       <c r="AM16" s="23">
         <f t="shared" si="28"/>
-        <v>0.86</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AO16" s="46" t="s">
         <v>88</v>
@@ -4601,74 +4611,74 @@
       </c>
       <c r="X17" s="136">
         <f>X8/X3</f>
-        <v>0.29846237737260284</v>
+        <v>0.32362217577465152</v>
       </c>
       <c r="Y17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30369246218511065</v>
+        <v>0.32086820576902869</v>
       </c>
       <c r="Z17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30293127038128592</v>
+        <v>0.3201138715490221</v>
       </c>
       <c r="AA17" s="23">
         <f t="shared" si="33"/>
-        <v>0.3027822308370669</v>
+        <v>0.31996617470339961</v>
       </c>
       <c r="AB17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30274348668843509</v>
+        <v>0.31992777960115193</v>
       </c>
       <c r="AC17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30278311138589953</v>
+        <v>0.31996704731935988</v>
       </c>
       <c r="AD17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30282363664466994</v>
+        <v>0.32000720748570888</v>
       </c>
       <c r="AE17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30223640918466499</v>
+        <v>0.31942527036318152</v>
       </c>
       <c r="AF17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30231597018169881</v>
+        <v>0.31950411459447625</v>
       </c>
       <c r="AG17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30220667131344858</v>
+        <v>0.31939580040071491</v>
       </c>
       <c r="AH17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30219259091177808</v>
+        <v>0.31938184684950982</v>
       </c>
       <c r="AI17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30219865357020109</v>
+        <v>0.31938785488938848</v>
       </c>
       <c r="AJ17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30219534109029572</v>
+        <v>0.31938457225164441</v>
       </c>
       <c r="AK17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30217864463422056</v>
+        <v>0.31936802621409244</v>
       </c>
       <c r="AL17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30214584377944109</v>
+        <v>0.31933552086250916</v>
       </c>
       <c r="AM17" s="23">
         <f t="shared" si="33"/>
-        <v>0.30209379984489798</v>
+        <v>0.31928394579224129</v>
       </c>
       <c r="AO17" s="46" t="s">
         <v>89</v>
       </c>
       <c r="AP17" s="64">
         <f>NPV(AP16,Y12:CS12)</f>
-        <v>1553.7941199059314</v>
+        <v>1664.771245280672</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4743,67 +4753,67 @@
       </c>
       <c r="X18" s="42">
         <f t="shared" si="38"/>
-        <v>0.20552714559722263</v>
+        <v>0.22595446860986032</v>
       </c>
       <c r="Y18" s="23">
         <f t="shared" ref="Y18:AM18" si="39">Y12/Y3</f>
-        <v>0.23348776437668206</v>
+        <v>0.2473136403732886</v>
       </c>
       <c r="Z18" s="23">
         <f t="shared" si="39"/>
-        <v>0.23173633787155598</v>
+        <v>0.24557799248532575</v>
       </c>
       <c r="AA18" s="23">
         <f t="shared" si="39"/>
-        <v>0.23111840767734232</v>
+        <v>0.2449656292297987</v>
       </c>
       <c r="AB18" s="23">
         <f t="shared" si="39"/>
-        <v>0.23056506011301317</v>
+        <v>0.24441726677866171</v>
       </c>
       <c r="AC18" s="23">
         <f t="shared" si="39"/>
-        <v>0.22986206203008003</v>
+        <v>0.24372060201179102</v>
       </c>
       <c r="AD18" s="23">
         <f t="shared" si="39"/>
-        <v>0.2293894792865854</v>
+        <v>0.24325227677048999</v>
       </c>
       <c r="AE18" s="23">
         <f t="shared" si="39"/>
-        <v>0.22836461641718347</v>
+        <v>0.24223664689991159</v>
       </c>
       <c r="AF18" s="23">
         <f t="shared" si="39"/>
-        <v>0.22763098286420011</v>
+        <v>0.24150962265821629</v>
       </c>
       <c r="AG18" s="23">
         <f t="shared" si="39"/>
-        <v>0.22685263413929832</v>
+        <v>0.24073828608398939</v>
       </c>
       <c r="AH18" s="23">
         <f t="shared" si="39"/>
-        <v>0.22579246410859313</v>
+        <v>0.23968766713464185</v>
       </c>
       <c r="AI18" s="23">
         <f t="shared" si="39"/>
-        <v>0.22479527553298589</v>
+        <v>0.23869946223989591</v>
       </c>
       <c r="AJ18" s="23">
         <f t="shared" si="39"/>
-        <v>0.22383601920206384</v>
+        <v>0.23774884785790112</v>
       </c>
       <c r="AK18" s="23">
         <f t="shared" si="39"/>
-        <v>0.22291009163588729</v>
+        <v>0.23683126198150989</v>
       </c>
       <c r="AL18" s="23">
         <f t="shared" si="39"/>
-        <v>0.22201395738066051</v>
+        <v>0.23594320100786176</v>
       </c>
       <c r="AM18" s="23">
         <f t="shared" si="39"/>
-        <v>0.22114378274403523</v>
+        <v>0.23508086578237733</v>
       </c>
       <c r="AO18" s="46" t="s">
         <v>8</v>
@@ -4950,7 +4960,7 @@
       </c>
       <c r="AP19" s="64">
         <f>AP17+AP18</f>
-        <v>1597.9431199059313</v>
+        <v>1708.9202452806721</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4959,7 +4969,7 @@
       </c>
       <c r="AP20" s="65">
         <f>AP19/Main!C7</f>
-        <v>9.3325605131998355</v>
+        <v>9.9807066989049318</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5029,7 +5039,7 @@
         <v>1.6954144522663404</v>
       </c>
       <c r="X21" s="136">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Y21" s="23">
         <v>0.15</v>
@@ -5081,7 +5091,7 @@
       </c>
       <c r="AP21" s="67">
         <f>Main!C6</f>
-        <v>2.52</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="AQ21" s="49"/>
     </row>
@@ -5197,7 +5207,7 @@
       </c>
       <c r="AP22" s="66">
         <f>AP20/AP21-1</f>
-        <v>2.7033970290475535</v>
+        <v>3.0988528537597251</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5281,7 +5291,7 @@
       <c r="N25" s="3">
         <v>69</v>
       </c>
-      <c r="O25" s="156"/>
+      <c r="O25" s="154"/>
       <c r="Q25" s="3">
         <v>54</v>
       </c>
@@ -5393,7 +5403,7 @@
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
       <c r="N28" s="55"/>
-      <c r="O28" s="159"/>
+      <c r="O28" s="157"/>
       <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
@@ -5433,7 +5443,7 @@
       <c r="L29" s="74"/>
       <c r="M29" s="75"/>
       <c r="N29" s="74"/>
-      <c r="O29" s="160" t="s">
+      <c r="O29" s="158" t="s">
         <v>109</v>
       </c>
       <c r="P29" s="74"/>
@@ -5484,7 +5494,7 @@
       <c r="L30" s="69"/>
       <c r="M30" s="70"/>
       <c r="N30" s="69"/>
-      <c r="O30" s="161"/>
+      <c r="O30" s="159"/>
       <c r="P30" s="69"/>
       <c r="Q30" s="36">
         <v>12.1</v>
@@ -5537,6 +5547,9 @@
       <c r="Q32" s="80"/>
       <c r="R32" s="80"/>
       <c r="X32" s="79"/>
+      <c r="Z32" s="76" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="33" spans="1:24" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="143" t="s">
@@ -5623,7 +5636,7 @@
       <c r="I36" s="151"/>
       <c r="K36" s="151"/>
       <c r="M36" s="151"/>
-      <c r="O36" s="162"/>
+      <c r="O36" s="160"/>
       <c r="V36" s="150">
         <v>1723</v>
       </c>
@@ -5770,7 +5783,7 @@
       <c r="N44" s="36">
         <v>44.149000000000001</v>
       </c>
-      <c r="O44" s="156"/>
+      <c r="O44" s="154"/>
       <c r="V44" s="12">
         <v>29.942</v>
       </c>
@@ -5967,7 +5980,7 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="156"/>
+      <c r="O53" s="154"/>
       <c r="V53" s="12">
         <v>0</v>
       </c>
@@ -6066,7 +6079,7 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="156"/>
+      <c r="O57" s="154"/>
       <c r="V57" s="12">
         <v>0</v>
       </c>
@@ -6401,7 +6414,7 @@
         <f>N71/N65</f>
         <v>2.827577210222445</v>
       </c>
-      <c r="O75" s="163"/>
+      <c r="O75" s="161"/>
       <c r="V75" s="93">
         <f t="shared" ref="V75" si="63">V71/V65</f>
         <v>3.7658511510025101</v>
@@ -6422,7 +6435,7 @@
       <c r="I76" s="97"/>
       <c r="K76" s="97"/>
       <c r="M76" s="97"/>
-      <c r="O76" s="164"/>
+      <c r="O76" s="162"/>
       <c r="V76" s="93">
         <f t="shared" ref="V76" si="64">V72/V3</f>
         <v>5.4847889402181478</v>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E523A265-7E7C-4026-B7DB-F546F75F369F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4AE97F-24EE-48E5-B1F6-30AE41C533A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="2805" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="1605" yWindow="2805" windowWidth="21600" windowHeight="11235" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1199,16 +1199,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,27 +1248,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1819,15 +1819,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>2.4350000000000001</v>
+        <v>2.6949999999999998</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="173" t="s">
+      <c r="H6" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
@@ -1855,12 +1855,12 @@
         <f>$C$28</f>
         <v>H123</v>
       </c>
-      <c r="H7" s="175" t="s">
+      <c r="H7" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>51</v>
@@ -1879,15 +1879,15 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>416.92646851499995</v>
+        <v>461.44428445499994</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="177" t="s">
+      <c r="H8" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="173"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1911,12 +1911,12 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>H123</v>
       </c>
-      <c r="H9" s="177" t="s">
+      <c r="H9" s="184" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="173"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1940,12 +1940,12 @@
         <f t="shared" si="0"/>
         <v>H123</v>
       </c>
-      <c r="H10" s="177" t="s">
+      <c r="H10" s="184" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -1973,12 +1973,12 @@
         <f t="shared" si="0"/>
         <v>H123</v>
       </c>
-      <c r="H11" s="177" t="s">
+      <c r="H11" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="173"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -1996,15 +1996,15 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>372.77746851499995</v>
+        <v>417.29528445499994</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="178" t="s">
+      <c r="H12" s="185" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -2048,19 +2048,19 @@
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="174"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="172"/>
+      <c r="D17" s="174"/>
       <c r="H17" s="166" t="s">
         <v>125</v>
       </c>
@@ -2071,8 +2071,8 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
       <c r="H18" s="82" t="s">
         <v>119</v>
       </c>
@@ -2083,8 +2083,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="179"/>
       <c r="H19" s="86" t="s">
         <v>120</v>
       </c>
@@ -2133,10 +2133,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="171" t="s">
+      <c r="C23" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="172"/>
+      <c r="D23" s="174"/>
       <c r="H23" s="87" t="s">
         <v>128</v>
       </c>
@@ -2149,10 +2149,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="171">
+      <c r="C24" s="173">
         <v>2010</v>
       </c>
-      <c r="D24" s="172"/>
+      <c r="D24" s="174"/>
       <c r="H24" s="82"/>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
@@ -2163,11 +2163,11 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="171">
+      <c r="C25" s="173">
         <f>+'Financial Model'!N25</f>
         <v>69</v>
       </c>
-      <c r="D25" s="172"/>
+      <c r="D25" s="174"/>
       <c r="H25" s="82"/>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
@@ -2181,11 +2181,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="181">
+      <c r="C26" s="177">
         <f>'Financial Model'!W33</f>
         <v>2530</v>
       </c>
-      <c r="D26" s="172"/>
+      <c r="D26" s="174"/>
       <c r="H26" s="84"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
@@ -2196,10 +2196,10 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="171">
+      <c r="C27" s="173">
         <v>2016</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="174"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2216,10 +2216,10 @@
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="184" t="s">
+      <c r="C29" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="185"/>
+      <c r="D29" s="170"/>
       <c r="H29" s="166" t="s">
         <v>126</v>
       </c>
@@ -2264,11 +2264,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="182">
+      <c r="C33" s="171">
         <f>C6/'Financial Model'!N65</f>
-        <v>2.9917226500789318</v>
-      </c>
-      <c r="D33" s="183"/>
+        <v>3.3111673683625136</v>
+      </c>
+      <c r="D33" s="172"/>
       <c r="H33" s="86"/>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -2279,11 +2279,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="182">
+      <c r="C34" s="171">
         <f>C8/SUM('Financial Model'!M3:N3)</f>
-        <v>2.0475713020086435</v>
-      </c>
-      <c r="D34" s="183"/>
+        <v>2.2662031453442686</v>
+      </c>
+      <c r="D34" s="172"/>
       <c r="H34" s="82" t="s">
         <v>121</v>
       </c>
@@ -2296,11 +2296,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="182">
+      <c r="C35" s="171">
         <f>C12/SUM('Financial Model'!M3:N3)</f>
-        <v>1.830750753928887</v>
-      </c>
-      <c r="D35" s="183"/>
+        <v>2.0493825972645121</v>
+      </c>
+      <c r="D35" s="172"/>
       <c r="H35" s="86" t="s">
         <v>127</v>
       </c>
@@ -2313,11 +2313,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="182">
+      <c r="C36" s="171">
         <f>C6/SUM('Financial Model'!M13:N13)</f>
-        <v>12.882950063551361</v>
-      </c>
-      <c r="D36" s="183"/>
+        <v>14.258542267462389</v>
+      </c>
+      <c r="D36" s="172"/>
       <c r="H36" s="82"/>
       <c r="I36" s="83"/>
       <c r="J36" s="83"/>
@@ -2328,11 +2328,11 @@
       <c r="B37" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="179">
+      <c r="C37" s="175">
         <f>C12/SUM('Financial Model'!M12:N12)</f>
-        <v>11.524685232022494</v>
-      </c>
-      <c r="D37" s="180"/>
+        <v>12.900985731002272</v>
+      </c>
+      <c r="D37" s="176"/>
       <c r="H37" s="82"/>
       <c r="I37" s="83"/>
       <c r="J37" s="83"/>
@@ -2348,22 +2348,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2378,6 +2362,22 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2395,7 +2395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
   <dimension ref="A1:CS84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="AP21" s="67">
         <f>Main!C6</f>
-        <v>2.4350000000000001</v>
+        <v>2.6949999999999998</v>
       </c>
       <c r="AQ21" s="49"/>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="AP22" s="66">
         <f>AP20/AP21-1</f>
-        <v>3.0988528537597251</v>
+        <v>2.7034162148070249</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4AE97F-24EE-48E5-B1F6-30AE41C533A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A165BF-4F73-423E-AC64-2F7C20F1E3A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="2805" windowWidth="21600" windowHeight="11235" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="1605" yWindow="2805" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,31 @@
     <author>me</author>
   </authors>
   <commentList>
-    <comment ref="T26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
+    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{3A373CEE-C2EA-4293-ACE0-4FDA99EC17ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>me:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Now includes staffing costs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
       <text>
         <r>
           <rPr>
@@ -93,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
+    <comment ref="U28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
       <text>
         <r>
           <rPr>
@@ -112,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="158">
   <si>
     <t>£BOWL</t>
   </si>
@@ -574,6 +598,18 @@
   </si>
   <si>
     <t>Hollywood Bowl acquire Lincoln Bowl in the UK</t>
+  </si>
+  <si>
+    <t>H223</t>
+  </si>
+  <si>
+    <t>H124</t>
+  </si>
+  <si>
+    <t>FY39</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
   </si>
 </sst>
 </file>
@@ -588,7 +624,7 @@
     <numFmt numFmtId="168" formatCode="0.0\x"/>
     <numFmt numFmtId="169" formatCode="0.000\x"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +804,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -925,7 +967,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1044,9 +1086,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,37 +1238,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,6 +1267,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1339,13 +1384,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1389,14 +1434,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1413,7 +1458,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9077325" y="9525"/>
+          <a:off x="9696450" y="9525"/>
           <a:ext cx="0" cy="14316075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1449,13 +1494,24 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Ten Entertainment Group Plc</v>
+          </cell>
+        </row>
         <row r="25">
           <cell r="C25">
             <v>51</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="R19">
+            <v>8.1420000000000101</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1764,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1778,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="H2" s="164" t="s">
+      <c r="H2" s="163" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -1792,52 +1848,47 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="168"/>
-      <c r="H5" s="166" t="s">
+      <c r="C5" s="166"/>
+      <c r="D5" s="167"/>
+      <c r="H5" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="168"/>
-      <c r="O5" s="166" t="s">
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="167"/>
+      <c r="O5" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="168"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="167"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>2.6949999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="180" t="s">
+      <c r="H6" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="91">
-        <v>45200</v>
-      </c>
-      <c r="P6" s="165" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" s="6"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -1848,19 +1899,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <f>'Financial Model'!N14</f>
-        <v>171.22236899999999</v>
+        <f>+'Financial Model'!Y14</f>
+        <v>171.46803399999999</v>
       </c>
       <c r="D7" s="39" t="str">
         <f>$C$28</f>
-        <v>H123</v>
-      </c>
-      <c r="H7" s="182" t="s">
+        <v>FY23</v>
+      </c>
+      <c r="H7" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>51</v>
@@ -1879,20 +1930,24 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>461.44428445499994</v>
+        <v>493.82793791999995</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="184" t="s">
+      <c r="H8" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="6"/>
+      <c r="O8" s="90">
+        <v>45200</v>
+      </c>
+      <c r="P8" s="164" t="s">
+        <v>153</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1904,19 +1959,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="14">
-        <f>'Financial Model'!N67</f>
-        <v>44.149000000000001</v>
+        <f>+'Financial Model'!Y67</f>
+        <v>52.454999999999998</v>
       </c>
       <c r="D9" s="39" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>H123</v>
-      </c>
-      <c r="H9" s="184" t="s">
+        <v>FY23</v>
+      </c>
+      <c r="H9" s="176" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="173"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1933,26 +1988,26 @@
         <v>7</v>
       </c>
       <c r="C10" s="14">
-        <f>'Financial Model'!N68</f>
-        <v>0</v>
+        <f>+'Financial Model'!Y68</f>
+        <v>1.96</v>
       </c>
       <c r="D10" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>H123</v>
-      </c>
-      <c r="H10" s="184" t="s">
+        <v>FY23</v>
+      </c>
+      <c r="H10" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
-      <c r="O10" s="91">
+      <c r="O10" s="90">
         <v>44866</v>
       </c>
-      <c r="P10" s="92" t="s">
+      <c r="P10" s="91" t="s">
         <v>138</v>
       </c>
       <c r="Q10" s="6"/>
@@ -1967,18 +2022,18 @@
       </c>
       <c r="C11" s="14">
         <f>C9-C10</f>
-        <v>44.149000000000001</v>
+        <v>50.494999999999997</v>
       </c>
       <c r="D11" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>H123</v>
-      </c>
-      <c r="H11" s="184" t="s">
+        <v>FY23</v>
+      </c>
+      <c r="H11" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -1996,15 +2051,15 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>417.29528445499994</v>
+        <v>443.33293791999995</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="185" t="s">
+      <c r="H12" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -2038,94 +2093,94 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="168"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="170" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="174"/>
+      <c r="D16" s="171"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="173" t="s">
+      <c r="C17" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="174"/>
-      <c r="H17" s="166" t="s">
+      <c r="D17" s="171"/>
+      <c r="H17" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="168"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="167"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="174"/>
-      <c r="H18" s="82" t="s">
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
+      <c r="H18" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
-      <c r="H19" s="86" t="s">
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
+      <c r="H19" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H20" s="86"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
-      <c r="P20" s="89" t="s">
+      <c r="P20" s="88" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
-      <c r="P21" s="89" t="s">
+      <c r="P21" s="88" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="166" t="s">
+      <c r="B22" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="168"/>
-      <c r="H22" s="86" t="s">
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
+      <c r="H22" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
     </row>
@@ -2133,15 +2188,15 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="173" t="s">
+      <c r="C23" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="174"/>
-      <c r="H23" s="87" t="s">
+      <c r="D23" s="171"/>
+      <c r="H23" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
       <c r="K23" s="6"/>
       <c r="L23" s="7"/>
     </row>
@@ -2149,13 +2204,13 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="173">
+      <c r="C24" s="170">
         <v>2010</v>
       </c>
-      <c r="D24" s="174"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
+      <c r="D24" s="171"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
     </row>
@@ -2163,17 +2218,17 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="173">
-        <f>+'Financial Model'!N25</f>
-        <v>69</v>
-      </c>
-      <c r="D25" s="174"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
+      <c r="C25" s="170">
+        <f>+'Financial Model'!Y25</f>
+        <v>71</v>
+      </c>
+      <c r="D25" s="171"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
-      <c r="O25" s="163" t="s">
+      <c r="O25" s="162" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2181,14 +2236,14 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="177">
-        <f>'Financial Model'!W33</f>
-        <v>2530</v>
-      </c>
-      <c r="D26" s="174"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
+      <c r="C26" s="180">
+        <f>+'Financial Model'!Y33</f>
+        <v>2787</v>
+      </c>
+      <c r="D26" s="171"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9"/>
     </row>
@@ -2196,67 +2251,67 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="173">
+      <c r="C27" s="170">
         <v>2016</v>
       </c>
-      <c r="D27" s="174"/>
+      <c r="D27" s="171"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="98">
-        <v>45076</v>
+      <c r="C28" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="97">
+        <v>45278</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="169" t="s">
+      <c r="C29" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="170"/>
-      <c r="H29" s="166" t="s">
+      <c r="D29" s="184"/>
+      <c r="H29" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="168"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="167"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H30" s="82" t="s">
+      <c r="H30" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
       <c r="K30" s="6"/>
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H31" s="86" t="s">
+      <c r="H31" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="165" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="168"/>
-      <c r="H32" s="86" t="s">
+      <c r="C32" s="166"/>
+      <c r="D32" s="167"/>
+      <c r="H32" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
       <c r="K32" s="6"/>
       <c r="L32" s="7"/>
     </row>
@@ -2264,14 +2319,14 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="171">
-        <f>C6/'Financial Model'!N65</f>
-        <v>3.3111673683625136</v>
-      </c>
-      <c r="D33" s="172"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
+      <c r="C33" s="181">
+        <f>C6/'Financial Model'!Y65</f>
+        <v>3.3380285110179795</v>
+      </c>
+      <c r="D33" s="182"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
     </row>
@@ -2279,16 +2334,16 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="171">
-        <f>C8/SUM('Financial Model'!M3:N3)</f>
-        <v>2.2662031453442686</v>
-      </c>
-      <c r="D34" s="172"/>
-      <c r="H34" s="82" t="s">
+      <c r="C34" s="181">
+        <f>C8/'Financial Model'!Y3</f>
+        <v>2.2959984467319439</v>
+      </c>
+      <c r="D34" s="182"/>
+      <c r="H34" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
       <c r="K34" s="6"/>
       <c r="L34" s="7"/>
     </row>
@@ -2296,16 +2351,16 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="171">
-        <f>C12/SUM('Financial Model'!M3:N3)</f>
-        <v>2.0493825972645121</v>
-      </c>
-      <c r="D35" s="172"/>
-      <c r="H35" s="86" t="s">
+      <c r="C35" s="181">
+        <f>C12/'Financial Model'!Y3</f>
+        <v>2.0612275221543408</v>
+      </c>
+      <c r="D35" s="182"/>
+      <c r="H35" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
       <c r="K35" s="6"/>
       <c r="L35" s="7"/>
     </row>
@@ -2313,14 +2368,14 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="171">
-        <f>C6/SUM('Financial Model'!M13:N13)</f>
-        <v>14.258542267462389</v>
-      </c>
-      <c r="D36" s="172"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
+      <c r="C36" s="181">
+        <f>C6/'Financial Model'!Y13</f>
+        <v>14.460131121197039</v>
+      </c>
+      <c r="D36" s="182"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
       <c r="K36" s="6"/>
       <c r="L36" s="7"/>
     </row>
@@ -2328,26 +2383,42 @@
       <c r="B37" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="175">
-        <f>C12/SUM('Financial Model'!M12:N12)</f>
-        <v>12.900985731002272</v>
-      </c>
-      <c r="D37" s="176"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
+      <c r="C37" s="178">
+        <f>C12/'Financial Model'!Y12</f>
+        <v>12.981550698954646</v>
+      </c>
+      <c r="D37" s="179"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
       <c r="K37" s="6"/>
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H38" s="84"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2362,28 +2433,12 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
     <hyperlink ref="H7:K7" r:id="rId2" display="Ten Entertainment Group" xr:uid="{3ECDA33B-F500-4B53-BFC3-C26A5E9CD34E}"/>
     <hyperlink ref="P10" r:id="rId3" xr:uid="{D95A0780-5F95-45A9-AA92-44BF55CFDC51}"/>
-    <hyperlink ref="P6" r:id="rId4" xr:uid="{66193291-EDC1-402D-BD22-8E08782733F4}"/>
+    <hyperlink ref="P8" r:id="rId4" xr:uid="{66193291-EDC1-402D-BD22-8E08782733F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
@@ -2393,13 +2448,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
-  <dimension ref="A1:CS84"/>
+  <dimension ref="A1:CU84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM7" sqref="Y7:AM7"/>
+      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2417,15 +2472,16 @@
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.140625" style="25"/>
     <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="155"/>
-    <col min="16" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="9.140625" style="79"/>
-    <col min="25" max="40" width="9.140625" style="1"/>
-    <col min="41" max="41" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="25"/>
+    <col min="16" max="16" width="9.140625" style="154"/>
+    <col min="17" max="25" width="9.140625" style="1"/>
+    <col min="26" max="26" width="9.140625" style="78"/>
+    <col min="27" max="42" width="9.140625" style="1"/>
+    <col min="43" max="43" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="10" t="s">
         <v>113</v>
       </c>
@@ -2459,78 +2515,86 @@
       <c r="N1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="Q1" s="10" t="s">
+      <c r="O1" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="131" t="s">
+      <c r="Y1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:97" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO1" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="19"/>
       <c r="E2" s="35"/>
@@ -2561,35 +2625,36 @@
       <c r="N2" s="22">
         <v>45016</v>
       </c>
-      <c r="O2" s="153"/>
-      <c r="Q2" s="22">
+      <c r="O2" s="35">
+        <f>Y2</f>
+        <v>45199</v>
+      </c>
+      <c r="P2" s="152"/>
+      <c r="R2" s="22">
         <v>42643</v>
       </c>
-      <c r="R2" s="22">
+      <c r="S2" s="22">
         <v>43008</v>
       </c>
-      <c r="S2" s="22">
+      <c r="T2" s="22">
         <v>43373</v>
       </c>
-      <c r="T2" s="22">
+      <c r="U2" s="22">
         <v>43738</v>
       </c>
-      <c r="U2" s="22">
+      <c r="V2" s="22">
         <v>44104</v>
       </c>
-      <c r="V2" s="22">
+      <c r="W2" s="22">
         <v>44469</v>
       </c>
-      <c r="W2" s="22">
+      <c r="X2" s="22">
         <v>44834</v>
       </c>
-      <c r="X2" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Y2" s="22">
+        <v>45199</v>
+      </c>
+      <c r="Z2" s="131" t="s">
         <v>67</v>
       </c>
       <c r="AA2" s="21" t="s">
@@ -2631,8 +2696,14 @@
       <c r="AM2" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2642,121 +2713,128 @@
         <v>66.989999999999995</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G12" si="0">T3-F3</f>
+        <f t="shared" ref="G3:G12" si="0">U3-F3</f>
         <v>62.904000000000011</v>
       </c>
       <c r="H3" s="36">
         <v>69.23</v>
       </c>
       <c r="I3" s="30">
-        <f>U3-H3</f>
+        <f>V3-H3</f>
         <v>10.242999999999995</v>
       </c>
       <c r="J3" s="12">
         <v>10.433</v>
       </c>
       <c r="K3" s="30">
-        <f>V3-J3</f>
+        <f>W3-J3</f>
         <v>61.445</v>
       </c>
       <c r="L3" s="12">
         <v>100.173</v>
       </c>
       <c r="M3" s="30">
-        <f>W3-L3</f>
+        <f>X3-L3</f>
         <v>93.568000000000012</v>
       </c>
       <c r="N3" s="12">
         <v>110.05200000000001</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="Q3" s="12">
+      <c r="O3" s="30">
+        <f>Y3-N3</f>
+        <v>105.02999999999999</v>
+      </c>
+      <c r="P3" s="153"/>
+      <c r="R3" s="12">
         <v>104.803</v>
       </c>
-      <c r="R3" s="12">
+      <c r="S3" s="12">
         <v>113.968</v>
       </c>
-      <c r="S3" s="12">
+      <c r="T3" s="12">
         <v>120.548</v>
       </c>
-      <c r="T3" s="12">
+      <c r="U3" s="12">
         <v>129.89400000000001</v>
       </c>
-      <c r="U3" s="12">
+      <c r="V3" s="12">
         <v>79.472999999999999</v>
       </c>
-      <c r="V3" s="12">
+      <c r="W3" s="12">
         <v>71.878</v>
       </c>
-      <c r="W3" s="12">
+      <c r="X3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="X3" s="133">
-        <f>W3*(1+X21)</f>
-        <v>215.05251000000004</v>
-      </c>
-      <c r="Y3" s="36">
-        <f>X3*(1+Y21)</f>
-        <v>247.31038650000002</v>
-      </c>
-      <c r="Z3" s="36">
-        <f t="shared" ref="Z3:AM3" si="1">Y3*(1+Z21)</f>
-        <v>296.77246380000003</v>
+      <c r="Y3" s="12">
+        <v>215.08199999999999</v>
+      </c>
+      <c r="Z3" s="132">
+        <f>Y3*(1+Z21)</f>
+        <v>238.74102000000002</v>
       </c>
       <c r="AA3" s="36">
-        <f t="shared" si="1"/>
-        <v>356.12695656</v>
+        <f>Z3*(1+AA21)</f>
+        <v>274.55217299999998</v>
       </c>
       <c r="AB3" s="36">
-        <f t="shared" si="1"/>
-        <v>409.54600004399998</v>
+        <f t="shared" ref="AB3:AO3" si="1">AA3*(1+AB21)</f>
+        <v>329.46260759999996</v>
       </c>
       <c r="AC3" s="36">
         <f t="shared" si="1"/>
-        <v>450.50060004840003</v>
+        <v>395.35512911999996</v>
       </c>
       <c r="AD3" s="36">
         <f t="shared" si="1"/>
-        <v>495.55066005324005</v>
+        <v>454.65839848799993</v>
       </c>
       <c r="AE3" s="36">
         <f t="shared" si="1"/>
-        <v>535.19471285749933</v>
+        <v>500.12423833679998</v>
       </c>
       <c r="AF3" s="36">
         <f t="shared" si="1"/>
-        <v>561.95444850037427</v>
+        <v>550.13666217048001</v>
       </c>
       <c r="AG3" s="36">
         <f t="shared" si="1"/>
-        <v>590.05217092539306</v>
+        <v>594.14759514411844</v>
       </c>
       <c r="AH3" s="36">
         <f t="shared" si="1"/>
-        <v>601.85321434390096</v>
+        <v>623.85497490132434</v>
       </c>
       <c r="AI3" s="36">
         <f t="shared" si="1"/>
-        <v>613.89027863077899</v>
+        <v>655.04772364639064</v>
       </c>
       <c r="AJ3" s="36">
         <f t="shared" si="1"/>
-        <v>626.16808420339453</v>
+        <v>668.14867811931845</v>
       </c>
       <c r="AK3" s="36">
         <f t="shared" si="1"/>
-        <v>638.69144588746246</v>
+        <v>681.51165168170485</v>
       </c>
       <c r="AL3" s="36">
         <f t="shared" si="1"/>
-        <v>651.46527480521172</v>
+        <v>695.14188471533896</v>
       </c>
       <c r="AM3" s="36">
         <f t="shared" si="1"/>
-        <v>664.49458030131598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
+        <v>709.04472240964571</v>
+      </c>
+      <c r="AN3" s="36">
+        <f t="shared" si="1"/>
+        <v>723.22561685783865</v>
+      </c>
+      <c r="AO3" s="36">
+        <f t="shared" si="1"/>
+        <v>737.69012919499539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>33</v>
@@ -2773,113 +2851,121 @@
         <v>9.9760000000000009</v>
       </c>
       <c r="I4" s="31">
-        <f>U4-H4</f>
+        <f>V4-H4</f>
         <v>1.5669999999999984</v>
       </c>
       <c r="J4" s="14">
         <v>1.1919999999999999</v>
       </c>
       <c r="K4" s="31">
-        <f>V4-J4</f>
+        <f>W4-J4</f>
         <v>9.0649999999999995</v>
       </c>
       <c r="L4" s="14">
         <v>13.641</v>
       </c>
       <c r="M4" s="31">
-        <f>W4-L4</f>
+        <f>X4-L4</f>
         <v>15.750999999999999</v>
       </c>
       <c r="N4" s="14">
         <v>18.972000000000001</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="O4" s="31">
+        <f>Y4-N4</f>
+        <v>59.235999999999997</v>
+      </c>
+      <c r="R4" s="14">
         <v>15.375999999999999</v>
       </c>
-      <c r="R4" s="14">
+      <c r="S4" s="14">
         <v>15.349</v>
       </c>
-      <c r="S4" s="14">
+      <c r="T4" s="14">
         <v>16.748000000000001</v>
       </c>
-      <c r="T4" s="14">
+      <c r="U4" s="14">
         <v>18.542000000000002</v>
       </c>
-      <c r="U4" s="14">
+      <c r="V4" s="14">
         <v>11.542999999999999</v>
       </c>
-      <c r="V4" s="14">
+      <c r="W4" s="14">
         <v>10.257</v>
       </c>
-      <c r="W4" s="14">
+      <c r="X4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="X4" s="134">
-        <f>X3*0.16</f>
-        <v>34.408401600000005</v>
-      </c>
-      <c r="Y4" s="27">
-        <f t="shared" ref="Y4:AM4" si="2">Y3*0.14</f>
-        <v>34.623454110000004</v>
-      </c>
-      <c r="Z4" s="27">
-        <f t="shared" si="2"/>
-        <v>41.548144932000007</v>
+      <c r="Y4" s="14">
+        <f>37.491+40.717</f>
+        <v>78.207999999999998</v>
+      </c>
+      <c r="Z4" s="133">
+        <f>Z3*0.16</f>
+        <v>38.198563200000002</v>
       </c>
       <c r="AA4" s="27">
-        <f t="shared" si="2"/>
-        <v>49.857773918400007</v>
+        <f t="shared" ref="AA4:AO4" si="2">AA3*0.14</f>
+        <v>38.437304220000001</v>
       </c>
       <c r="AB4" s="27">
         <f t="shared" si="2"/>
-        <v>57.336440006160004</v>
+        <v>46.124765063999995</v>
       </c>
       <c r="AC4" s="27">
         <f t="shared" si="2"/>
-        <v>63.070084006776007</v>
+        <v>55.349718076800002</v>
       </c>
       <c r="AD4" s="27">
         <f t="shared" si="2"/>
-        <v>69.377092407453617</v>
+        <v>63.652175788319994</v>
       </c>
       <c r="AE4" s="27">
         <f t="shared" si="2"/>
-        <v>74.92725980004991</v>
+        <v>70.01739336715201</v>
       </c>
       <c r="AF4" s="27">
         <f t="shared" si="2"/>
-        <v>78.673622790052406</v>
+        <v>77.019132703867214</v>
       </c>
       <c r="AG4" s="27">
         <f t="shared" si="2"/>
-        <v>82.60730392955503</v>
+        <v>83.180663320176592</v>
       </c>
       <c r="AH4" s="27">
         <f t="shared" si="2"/>
-        <v>84.259450008146146</v>
+        <v>87.339696486185417</v>
       </c>
       <c r="AI4" s="27">
         <f t="shared" si="2"/>
-        <v>85.944639008309068</v>
+        <v>91.706681310494702</v>
       </c>
       <c r="AJ4" s="27">
         <f t="shared" si="2"/>
-        <v>87.66353178847524</v>
+        <v>93.540814936704592</v>
       </c>
       <c r="AK4" s="27">
         <f t="shared" si="2"/>
-        <v>89.41680242424475</v>
+        <v>95.411631235438691</v>
       </c>
       <c r="AL4" s="27">
         <f t="shared" si="2"/>
-        <v>91.205138472729644</v>
+        <v>97.319863860147464</v>
       </c>
       <c r="AM4" s="27">
         <f t="shared" si="2"/>
-        <v>93.029241242184241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99.266261137350412</v>
+      </c>
+      <c r="AN4" s="27">
+        <f t="shared" si="2"/>
+        <v>101.25158636009742</v>
+      </c>
+      <c r="AO4" s="27">
+        <f t="shared" si="2"/>
+        <v>103.27661808729937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>34</v>
@@ -2894,7 +2980,7 @@
         <v>53.836000000000013</v>
       </c>
       <c r="H5" s="36">
-        <f t="shared" ref="H5:N5" si="3">H3-H4</f>
+        <f t="shared" ref="H5:O5" si="3">H3-H4</f>
         <v>59.254000000000005</v>
       </c>
       <c r="I5" s="30">
@@ -2921,101 +3007,109 @@
         <f t="shared" si="3"/>
         <v>91.080000000000013</v>
       </c>
-      <c r="O5" s="154"/>
-      <c r="Q5" s="12">
-        <f t="shared" ref="Q5:W5" si="4">Q3-Q4</f>
+      <c r="O5" s="30">
+        <f t="shared" si="3"/>
+        <v>45.79399999999999</v>
+      </c>
+      <c r="P5" s="153"/>
+      <c r="R5" s="12">
+        <f t="shared" ref="R5:Y5" si="4">R3-R4</f>
         <v>89.426999999999992</v>
       </c>
-      <c r="R5" s="12">
+      <c r="S5" s="12">
         <f t="shared" si="4"/>
         <v>98.619</v>
       </c>
-      <c r="S5" s="12">
+      <c r="T5" s="12">
         <f t="shared" si="4"/>
         <v>103.8</v>
       </c>
-      <c r="T5" s="12">
+      <c r="U5" s="12">
         <f t="shared" si="4"/>
         <v>111.352</v>
       </c>
-      <c r="U5" s="12">
+      <c r="V5" s="12">
         <f t="shared" si="4"/>
         <v>67.930000000000007</v>
       </c>
-      <c r="V5" s="12">
+      <c r="W5" s="12">
         <f t="shared" si="4"/>
         <v>61.621000000000002</v>
       </c>
-      <c r="W5" s="12">
+      <c r="X5" s="12">
         <f t="shared" si="4"/>
         <v>164.34900000000002</v>
       </c>
-      <c r="X5" s="133">
-        <f>X3-X4</f>
-        <v>180.64410840000005</v>
-      </c>
       <c r="Y5" s="12">
-        <f t="shared" ref="Y5:AM5" si="5">Y3-Y4</f>
-        <v>212.68693239000001</v>
-      </c>
-      <c r="Z5" s="12">
-        <f t="shared" si="5"/>
-        <v>255.22431886800001</v>
+        <f t="shared" si="4"/>
+        <v>136.874</v>
+      </c>
+      <c r="Z5" s="132">
+        <f>Z3-Z4</f>
+        <v>200.54245680000002</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" si="5"/>
-        <v>306.26918264159997</v>
+        <f t="shared" ref="AA5:AO5" si="5">AA3-AA4</f>
+        <v>236.11486877999999</v>
       </c>
       <c r="AB5" s="12">
         <f t="shared" si="5"/>
-        <v>352.20956003783999</v>
+        <v>283.33784253599998</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="5"/>
-        <v>387.430516041624</v>
+        <v>340.00541104319996</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="5"/>
-        <v>426.17356764578642</v>
+        <v>391.00622269967994</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="5"/>
-        <v>460.26745305744942</v>
+        <v>430.10684496964797</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="5"/>
-        <v>483.28082571032189</v>
+        <v>473.11752946661278</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="5"/>
-        <v>507.44486699583803</v>
+        <v>510.96693182394188</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="5"/>
-        <v>517.59376433575483</v>
+        <v>536.51527841513894</v>
       </c>
       <c r="AI5" s="12">
         <f t="shared" si="5"/>
-        <v>527.94563962246991</v>
+        <v>563.34104233589596</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="5"/>
-        <v>538.50455241491932</v>
+        <v>574.60786318261387</v>
       </c>
       <c r="AK5" s="12">
         <f t="shared" si="5"/>
-        <v>549.27464346321767</v>
+        <v>586.10002044626617</v>
       </c>
       <c r="AL5" s="12">
         <f t="shared" si="5"/>
-        <v>560.26013633248203</v>
+        <v>597.82202085519145</v>
       </c>
       <c r="AM5" s="12">
         <f t="shared" si="5"/>
-        <v>571.46533905913179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
+        <v>609.77846127229532</v>
+      </c>
+      <c r="AN5" s="12">
+        <f t="shared" si="5"/>
+        <v>621.97403049774118</v>
+      </c>
+      <c r="AO5" s="12">
+        <f t="shared" si="5"/>
+        <v>634.41351110769597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -3032,34 +3126,35 @@
         <v>0</v>
       </c>
       <c r="I6" s="31">
-        <f>U6-H6</f>
+        <f>V6-H6</f>
         <v>0</v>
       </c>
       <c r="J6" s="14">
         <v>1.5940000000000001</v>
       </c>
       <c r="K6" s="31">
-        <f>V6-J6</f>
+        <f>W6-J6</f>
         <v>1.22</v>
       </c>
       <c r="L6" s="14">
         <v>0</v>
       </c>
       <c r="M6" s="31">
-        <f>W6-L6</f>
+        <f>X6-L6</f>
         <v>3.9E-2</v>
       </c>
       <c r="N6" s="14">
         <v>0</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="O6" s="31">
+        <f t="shared" ref="O6:O11" si="6">Y6-N6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
         <v>1.395</v>
       </c>
-      <c r="R6" s="14">
+      <c r="S6" s="14">
         <v>0.08</v>
-      </c>
-      <c r="S6" s="14">
-        <v>0</v>
       </c>
       <c r="T6" s="14">
         <v>0</v>
@@ -3068,77 +3163,83 @@
         <v>0</v>
       </c>
       <c r="V6" s="14">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14">
         <v>2.8140000000000001</v>
       </c>
-      <c r="W6" s="14">
+      <c r="X6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="X6" s="134">
-        <f>AVERAGE(U6:W6)</f>
-        <v>0.95100000000000007</v>
-      </c>
       <c r="Y6" s="14">
-        <f>AVERAGE(Q6:X6)</f>
-        <v>0.65987499999999999</v>
-      </c>
-      <c r="Z6" s="14">
-        <f t="shared" ref="Z6:AM6" si="6">AVERAGE(R6:Y6)</f>
-        <v>0.56798437499999999</v>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="133">
+        <f>-AVERAGE(U6:Y6)</f>
+        <v>-0.5706</v>
       </c>
       <c r="AA6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.62898242187499998</v>
+        <f>AVERAGE(R6:Z6)</f>
+        <v>0.41748888888888885</v>
       </c>
       <c r="AB6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.70760522460937492</v>
+        <f>AVERAGE(S6:AA6)</f>
+        <v>0.30887654320987656</v>
       </c>
       <c r="AC6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.79605587768554675</v>
+        <f>AVERAGE(T6:AB6)</f>
+        <v>0.33430727023319612</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.89556286239624006</v>
+        <f>AVERAGE(U6:AC6)</f>
+        <v>0.37145252248132904</v>
       </c>
       <c r="AE6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.65575822019577013</v>
+        <f>AVERAGE(V6:AD6)</f>
+        <v>0.41272502497925445</v>
       </c>
       <c r="AF6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.73285299772024137</v>
+        <f>AVERAGE(W6:AE6)</f>
+        <v>0.45858336108806053</v>
       </c>
       <c r="AG6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.70558462243527176</v>
+        <f>AVERAGE(X6:AF6)</f>
+        <v>0.19687040120895619</v>
       </c>
       <c r="AH6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.71129832523968051</v>
+        <f>AVERAGE(Z6:AG6)</f>
+        <v>0.24121300151119521</v>
       </c>
       <c r="AI6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.7292125690196406</v>
+        <f t="shared" ref="AI6:AO6" si="7">AVERAGE(AA6:AH6)</f>
+        <v>0.34268962670009467</v>
       </c>
       <c r="AJ6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.74174133741272075</v>
+        <f t="shared" si="7"/>
+        <v>0.33333971892649533</v>
       </c>
       <c r="AK6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.74600835151313905</v>
+        <f t="shared" si="7"/>
+        <v>0.33639761589107264</v>
       </c>
       <c r="AL6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.73975241074158815</v>
+        <f t="shared" si="7"/>
+        <v>0.33665890909830726</v>
       </c>
       <c r="AM6" s="14">
-        <f t="shared" si="6"/>
-        <v>0.72027610428475664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0.33230970742542953</v>
+      </c>
+      <c r="AN6" s="14">
+        <f t="shared" si="7"/>
+        <v>0.32225779273120136</v>
+      </c>
+      <c r="AO6" s="14">
+        <f t="shared" si="7"/>
+        <v>0.30521709668659402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -3154,113 +3255,120 @@
         <v>40.078000000000003</v>
       </c>
       <c r="I7" s="31">
-        <f>U7-H7</f>
+        <f>V7-H7</f>
         <v>17.991</v>
       </c>
       <c r="J7" s="14">
         <v>20.856999999999999</v>
       </c>
       <c r="K7" s="31">
-        <f>V7-J7</f>
+        <f>W7-J7</f>
         <v>33.997999999999998</v>
       </c>
       <c r="L7" s="14">
         <v>48.915999999999997</v>
       </c>
       <c r="M7" s="31">
-        <f>W7-L7</f>
+        <f>X7-L7</f>
         <v>60.022999999999996</v>
       </c>
       <c r="N7" s="14">
         <v>58.933999999999997</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="O7" s="31">
+        <f t="shared" si="6"/>
+        <v>23.855000000000004</v>
+      </c>
+      <c r="R7" s="14">
         <v>76.444000000000003</v>
       </c>
-      <c r="R7" s="14">
+      <c r="S7" s="14">
         <v>76.498000000000005</v>
       </c>
-      <c r="S7" s="14">
+      <c r="T7" s="14">
         <v>78.908000000000001</v>
       </c>
-      <c r="T7" s="14">
+      <c r="U7" s="14">
         <v>82.908000000000001</v>
       </c>
-      <c r="U7" s="14">
+      <c r="V7" s="14">
         <v>58.069000000000003</v>
       </c>
-      <c r="V7" s="14">
+      <c r="W7" s="14">
         <v>54.854999999999997</v>
       </c>
-      <c r="W7" s="14">
+      <c r="X7" s="14">
         <v>108.93899999999999</v>
       </c>
-      <c r="X7" s="134">
-        <f>X5*0.62</f>
-        <v>111.99934720800003</v>
-      </c>
-      <c r="Y7" s="27">
-        <f>Y5*0.63</f>
-        <v>133.99276740569999</v>
-      </c>
-      <c r="Z7" s="27">
-        <f t="shared" ref="Z7:AM7" si="7">Z5*0.63</f>
-        <v>160.79132088684</v>
+      <c r="Y7" s="14">
+        <v>82.789000000000001</v>
+      </c>
+      <c r="Z7" s="133">
+        <f>Z5*0.62</f>
+        <v>124.33632321600001</v>
       </c>
       <c r="AA7" s="27">
-        <f t="shared" si="7"/>
-        <v>192.94958506420798</v>
+        <f>AA5*0.63</f>
+        <v>148.7523673314</v>
       </c>
       <c r="AB7" s="27">
-        <f t="shared" si="7"/>
-        <v>221.8920228238392</v>
+        <f t="shared" ref="AB7:AO7" si="8">AB5*0.63</f>
+        <v>178.50284079767999</v>
       </c>
       <c r="AC7" s="27">
-        <f t="shared" si="7"/>
-        <v>244.08122510622312</v>
+        <f t="shared" si="8"/>
+        <v>214.20340895721597</v>
       </c>
       <c r="AD7" s="27">
-        <f t="shared" si="7"/>
-        <v>268.48934761684546</v>
+        <f t="shared" si="8"/>
+        <v>246.33392030079835</v>
       </c>
       <c r="AE7" s="27">
-        <f t="shared" si="7"/>
-        <v>289.96849542619316</v>
+        <f t="shared" si="8"/>
+        <v>270.9673123308782</v>
       </c>
       <c r="AF7" s="27">
-        <f t="shared" si="7"/>
-        <v>304.46692019750282</v>
+        <f t="shared" si="8"/>
+        <v>298.06404356396604</v>
       </c>
       <c r="AG7" s="27">
-        <f t="shared" si="7"/>
-        <v>319.69026620737793</v>
+        <f t="shared" si="8"/>
+        <v>321.90916704908341</v>
       </c>
       <c r="AH7" s="27">
-        <f t="shared" si="7"/>
-        <v>326.08407153152552</v>
+        <f t="shared" si="8"/>
+        <v>338.00462540153751</v>
       </c>
       <c r="AI7" s="27">
-        <f t="shared" si="7"/>
-        <v>332.60575296215603</v>
+        <f t="shared" si="8"/>
+        <v>354.90485667161448</v>
       </c>
       <c r="AJ7" s="27">
-        <f t="shared" si="7"/>
-        <v>339.25786802139919</v>
+        <f t="shared" si="8"/>
+        <v>362.00295380504673</v>
       </c>
       <c r="AK7" s="27">
-        <f t="shared" si="7"/>
-        <v>346.04302538182714</v>
+        <f t="shared" si="8"/>
+        <v>369.24301288114771</v>
       </c>
       <c r="AL7" s="27">
-        <f t="shared" si="7"/>
-        <v>352.96388588946371</v>
+        <f t="shared" si="8"/>
+        <v>376.62787313877061</v>
       </c>
       <c r="AM7" s="27">
-        <f t="shared" si="7"/>
-        <v>360.02316360725303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>384.16043060154607</v>
+      </c>
+      <c r="AN7" s="27">
+        <f t="shared" si="8"/>
+        <v>391.84363921357692</v>
+      </c>
+      <c r="AO7" s="27">
+        <f t="shared" si="8"/>
+        <v>399.68051199784844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
@@ -3274,128 +3382,136 @@
         <v>11.681000000000012</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" ref="H8:N8" si="8">H5+H6-H7</f>
+        <f t="shared" ref="H8:O8" si="9">H5+H6-H7</f>
         <v>19.176000000000002</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.3150000000000031</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-10.022</v>
       </c>
       <c r="K8" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.602000000000004</v>
       </c>
       <c r="L8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37.616</v>
       </c>
       <c r="M8" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.833000000000013</v>
       </c>
       <c r="N8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.146000000000015</v>
       </c>
-      <c r="O8" s="154"/>
-      <c r="Q8" s="12">
-        <f t="shared" ref="Q8:X8" si="9">Q5+Q6-Q7</f>
+      <c r="O8" s="30">
+        <f t="shared" si="9"/>
+        <v>21.938999999999986</v>
+      </c>
+      <c r="P8" s="153"/>
+      <c r="R8" s="12">
+        <f t="shared" ref="R8:Z8" si="10">R5+R6-R7</f>
         <v>14.377999999999986</v>
       </c>
-      <c r="R8" s="12">
-        <f t="shared" si="9"/>
+      <c r="S8" s="12">
+        <f t="shared" si="10"/>
         <v>22.200999999999993</v>
       </c>
-      <c r="S8" s="12">
-        <f t="shared" si="9"/>
+      <c r="T8" s="12">
+        <f t="shared" si="10"/>
         <v>24.891999999999996</v>
       </c>
-      <c r="T8" s="12">
-        <f t="shared" si="9"/>
+      <c r="U8" s="12">
+        <f t="shared" si="10"/>
         <v>28.444000000000003</v>
       </c>
-      <c r="U8" s="12">
-        <f t="shared" si="9"/>
+      <c r="V8" s="12">
+        <f t="shared" si="10"/>
         <v>9.8610000000000042</v>
       </c>
-      <c r="V8" s="12">
-        <f t="shared" si="9"/>
+      <c r="W8" s="12">
+        <f t="shared" si="10"/>
         <v>9.5800000000000054</v>
       </c>
-      <c r="W8" s="12">
-        <f t="shared" si="9"/>
+      <c r="X8" s="12">
+        <f t="shared" si="10"/>
         <v>55.449000000000012</v>
       </c>
-      <c r="X8" s="41">
-        <f t="shared" si="9"/>
-        <v>69.595761192000012</v>
-      </c>
       <c r="Y8" s="12">
-        <f t="shared" ref="Y8:AM8" si="10">Y5+Y6-Y7</f>
-        <v>79.354039984300016</v>
-      </c>
-      <c r="Z8" s="12">
         <f t="shared" si="10"/>
-        <v>95.000982356160023</v>
+        <v>54.084999999999994</v>
+      </c>
+      <c r="Z8" s="41">
+        <f t="shared" si="10"/>
+        <v>75.635533584000001</v>
       </c>
       <c r="AA8" s="12">
-        <f t="shared" si="10"/>
-        <v>113.94857999926697</v>
+        <f t="shared" ref="AA8:AO8" si="11">AA5+AA6-AA7</f>
+        <v>87.779990337488897</v>
       </c>
       <c r="AB8" s="12">
-        <f t="shared" si="10"/>
-        <v>131.02514243861017</v>
+        <f t="shared" si="11"/>
+        <v>105.14387828152985</v>
       </c>
       <c r="AC8" s="12">
-        <f t="shared" si="10"/>
-        <v>144.14534681308643</v>
+        <f t="shared" si="11"/>
+        <v>126.13630935621717</v>
       </c>
       <c r="AD8" s="12">
-        <f t="shared" si="10"/>
-        <v>158.57978289133717</v>
+        <f t="shared" si="11"/>
+        <v>145.0437549213629</v>
       </c>
       <c r="AE8" s="12">
-        <f t="shared" si="10"/>
-        <v>170.95471585145202</v>
+        <f t="shared" si="11"/>
+        <v>159.552257663749</v>
       </c>
       <c r="AF8" s="12">
-        <f t="shared" si="10"/>
-        <v>179.54675851053929</v>
+        <f t="shared" si="11"/>
+        <v>175.51206926373482</v>
       </c>
       <c r="AG8" s="12">
-        <f t="shared" si="10"/>
-        <v>188.46018541089535</v>
+        <f t="shared" si="11"/>
+        <v>189.25463517606744</v>
       </c>
       <c r="AH8" s="12">
-        <f t="shared" si="10"/>
-        <v>192.22099112946898</v>
+        <f t="shared" si="11"/>
+        <v>198.75186601511257</v>
       </c>
       <c r="AI8" s="12">
-        <f t="shared" si="10"/>
-        <v>196.06909922933352</v>
+        <f t="shared" si="11"/>
+        <v>208.7788752909816</v>
       </c>
       <c r="AJ8" s="12">
-        <f t="shared" si="10"/>
-        <v>199.98842573093282</v>
+        <f t="shared" si="11"/>
+        <v>212.93824909649362</v>
       </c>
       <c r="AK8" s="12">
-        <f t="shared" si="10"/>
-        <v>203.97762643290372</v>
+        <f t="shared" si="11"/>
+        <v>217.19340518100955</v>
       </c>
       <c r="AL8" s="12">
-        <f t="shared" si="10"/>
-        <v>208.03600285375995</v>
+        <f t="shared" si="11"/>
+        <v>221.53080662551918</v>
       </c>
       <c r="AM8" s="12">
-        <f t="shared" si="10"/>
-        <v>212.16245155616349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>225.9503403781747</v>
+      </c>
+      <c r="AN8" s="12">
+        <f t="shared" si="11"/>
+        <v>230.45264907689545</v>
+      </c>
+      <c r="AO8" s="12">
+        <f t="shared" si="11"/>
+        <v>235.03821620653417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
@@ -3413,104 +3529,112 @@
         <v>4.7079999999999993</v>
       </c>
       <c r="I9" s="31">
-        <f>U9-H9</f>
+        <f>V9-H9</f>
         <v>3.9570000000000016</v>
       </c>
       <c r="J9" s="14">
         <v>4.4669999999999996</v>
       </c>
       <c r="K9" s="31">
-        <f>V9-J9</f>
+        <f>W9-J9</f>
         <v>4.6510000000000007</v>
       </c>
       <c r="L9" s="14">
         <v>4.1790000000000003</v>
       </c>
       <c r="M9" s="31">
-        <f>W9-L9</f>
+        <f>X9-L9</f>
         <v>4.6049999999999986</v>
       </c>
       <c r="N9" s="14">
         <v>4.4569999999999999</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="O9" s="31">
+        <f t="shared" si="6"/>
+        <v>4.5480000000000009</v>
+      </c>
+      <c r="R9" s="14">
         <f>-0.022+11.905-0.079</f>
         <v>11.803999999999998</v>
       </c>
-      <c r="R9" s="14">
+      <c r="S9" s="14">
         <f>1.158-0.012+0.055</f>
         <v>1.2009999999999998</v>
       </c>
-      <c r="S9" s="14">
+      <c r="T9" s="14">
         <f>0.976-0.018</f>
         <v>0.95799999999999996</v>
       </c>
-      <c r="T9" s="14">
+      <c r="U9" s="14">
         <f>1.023-0.167</f>
         <v>0.85599999999999987</v>
       </c>
-      <c r="U9" s="14">
+      <c r="V9" s="14">
         <f>8.743-0.078</f>
         <v>8.6650000000000009</v>
       </c>
-      <c r="V9" s="14">
+      <c r="W9" s="14">
         <v>9.1180000000000003</v>
       </c>
-      <c r="W9" s="14">
+      <c r="X9" s="14">
         <f>-0.012+8.796</f>
         <v>8.7839999999999989</v>
       </c>
-      <c r="X9" s="134">
-        <f>AVERAGE(U9:W9)</f>
-        <v>8.8556666666666661</v>
-      </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="14">
+        <f>10.445-1.44</f>
+        <v>9.0050000000000008</v>
+      </c>
+      <c r="Z9" s="133">
+        <f>-AVERAGE(V9:Y9)</f>
+        <v>-8.8930000000000007</v>
+      </c>
+      <c r="AA9" s="1">
         <v>2.9</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AB9" s="1">
         <v>3.9</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AC9" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AD9" s="1">
         <v>5.9</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AE9" s="1">
         <v>6.9</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AF9" s="1">
         <v>7.9</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AG9" s="1">
         <v>8.9</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AH9" s="1">
         <v>9.9</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AI9" s="1">
         <v>10.9</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AJ9" s="1">
         <v>11.9</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AK9" s="1">
         <v>12.9</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AL9" s="1">
         <v>13.9</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AM9" s="1">
         <v>14.9</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AN9" s="1">
         <v>15.9</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AO9" s="1">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
@@ -3524,127 +3648,135 @@
         <v>11.20300000000001</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" ref="H10:N10" si="11">H8-H9</f>
+        <f t="shared" ref="H10:O10" si="12">H8-H9</f>
         <v>14.468000000000004</v>
       </c>
       <c r="I10" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-13.272000000000006</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-14.489000000000001</v>
       </c>
       <c r="K10" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.951000000000004</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33.436999999999998</v>
       </c>
       <c r="M10" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.228000000000014</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27.689000000000014</v>
       </c>
-      <c r="Q10" s="14">
-        <f t="shared" ref="Q10:X10" si="12">Q8-Q9</f>
+      <c r="O10" s="31">
+        <f t="shared" si="12"/>
+        <v>17.390999999999984</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" ref="R10:Z10" si="13">R8-R9</f>
         <v>2.5739999999999874</v>
       </c>
-      <c r="R10" s="14">
-        <f t="shared" si="12"/>
+      <c r="S10" s="14">
+        <f t="shared" si="13"/>
         <v>20.999999999999993</v>
       </c>
-      <c r="S10" s="14">
-        <f t="shared" si="12"/>
+      <c r="T10" s="14">
+        <f t="shared" si="13"/>
         <v>23.933999999999997</v>
       </c>
-      <c r="T10" s="14">
-        <f t="shared" si="12"/>
+      <c r="U10" s="14">
+        <f t="shared" si="13"/>
         <v>27.588000000000001</v>
       </c>
-      <c r="U10" s="14">
-        <f t="shared" si="12"/>
+      <c r="V10" s="14">
+        <f t="shared" si="13"/>
         <v>1.1960000000000033</v>
       </c>
-      <c r="V10" s="14">
-        <f t="shared" si="12"/>
+      <c r="W10" s="14">
+        <f t="shared" si="13"/>
         <v>0.46200000000000507</v>
       </c>
-      <c r="W10" s="14">
-        <f t="shared" si="12"/>
+      <c r="X10" s="14">
+        <f t="shared" si="13"/>
         <v>46.665000000000013</v>
       </c>
-      <c r="X10" s="44">
-        <f t="shared" si="12"/>
-        <v>60.740094525333348</v>
-      </c>
       <c r="Y10" s="14">
-        <f t="shared" ref="Y10:AM10" si="13">Y8-Y9</f>
-        <v>76.45403998430001</v>
-      </c>
-      <c r="Z10" s="14">
         <f t="shared" si="13"/>
-        <v>91.100982356160017</v>
+        <v>45.079999999999991</v>
+      </c>
+      <c r="Z10" s="44">
+        <f t="shared" si="13"/>
+        <v>84.528533584000002</v>
       </c>
       <c r="AA10" s="14">
-        <f t="shared" si="13"/>
-        <v>109.04857999926696</v>
+        <f t="shared" ref="AA10:AO10" si="14">AA8-AA9</f>
+        <v>84.879990337488891</v>
       </c>
       <c r="AB10" s="14">
-        <f t="shared" si="13"/>
-        <v>125.12514243861017</v>
+        <f t="shared" si="14"/>
+        <v>101.24387828152985</v>
       </c>
       <c r="AC10" s="14">
-        <f t="shared" si="13"/>
-        <v>137.24534681308643</v>
+        <f t="shared" si="14"/>
+        <v>121.23630935621716</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="13"/>
-        <v>150.67978289133717</v>
+        <f t="shared" si="14"/>
+        <v>139.1437549213629</v>
       </c>
       <c r="AE10" s="14">
-        <f t="shared" si="13"/>
-        <v>162.05471585145202</v>
+        <f t="shared" si="14"/>
+        <v>152.652257663749</v>
       </c>
       <c r="AF10" s="14">
-        <f t="shared" si="13"/>
-        <v>169.64675851053929</v>
+        <f t="shared" si="14"/>
+        <v>167.61206926373481</v>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" si="13"/>
-        <v>177.56018541089534</v>
+        <f t="shared" si="14"/>
+        <v>180.35463517606743</v>
       </c>
       <c r="AH10" s="14">
-        <f t="shared" si="13"/>
-        <v>180.32099112946898</v>
+        <f t="shared" si="14"/>
+        <v>188.85186601511256</v>
       </c>
       <c r="AI10" s="14">
-        <f t="shared" si="13"/>
-        <v>183.16909922933351</v>
+        <f t="shared" si="14"/>
+        <v>197.8788752909816</v>
       </c>
       <c r="AJ10" s="14">
-        <f t="shared" si="13"/>
-        <v>186.08842573093281</v>
+        <f t="shared" si="14"/>
+        <v>201.03824909649362</v>
       </c>
       <c r="AK10" s="14">
-        <f t="shared" si="13"/>
-        <v>189.07762643290371</v>
+        <f t="shared" si="14"/>
+        <v>204.29340518100955</v>
       </c>
       <c r="AL10" s="14">
-        <f t="shared" si="13"/>
-        <v>192.13600285375995</v>
+        <f t="shared" si="14"/>
+        <v>207.63080662551917</v>
       </c>
       <c r="AM10" s="14">
-        <f t="shared" si="13"/>
-        <v>195.26245155616348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>211.0503403781747</v>
+      </c>
+      <c r="AN10" s="14">
+        <f t="shared" si="14"/>
+        <v>214.55264907689545</v>
+      </c>
+      <c r="AO10" s="14">
+        <f t="shared" si="14"/>
+        <v>218.13821620653417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
@@ -3660,113 +3792,120 @@
         <v>2.948</v>
       </c>
       <c r="I11" s="31">
-        <f>U11-H11</f>
+        <f>V11-H11</f>
         <v>-3.137</v>
       </c>
       <c r="J11" s="14">
         <v>-2.8559999999999999</v>
       </c>
       <c r="K11" s="31">
-        <f>V11-J11</f>
+        <f>W11-J11</f>
         <v>1.5899999999999999</v>
       </c>
       <c r="L11" s="14">
         <v>6.4119999999999999</v>
       </c>
       <c r="M11" s="31">
-        <f>W11-L11</f>
+        <f>X11-L11</f>
         <v>2.8020000000000005</v>
       </c>
       <c r="N11" s="14">
         <v>5.7690000000000001</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="O11" s="31">
+        <f t="shared" si="6"/>
+        <v>5.16</v>
+      </c>
+      <c r="R11" s="14">
         <v>1.387</v>
       </c>
-      <c r="R11" s="14">
+      <c r="S11" s="14">
         <v>2.8479999999999999</v>
       </c>
-      <c r="S11" s="14">
+      <c r="T11" s="14">
         <v>5.15</v>
       </c>
-      <c r="T11" s="14">
+      <c r="U11" s="14">
         <v>5.3029999999999999</v>
       </c>
-      <c r="U11" s="14">
+      <c r="V11" s="14">
         <v>-0.189</v>
       </c>
-      <c r="V11" s="14">
+      <c r="W11" s="14">
         <v>-1.266</v>
       </c>
-      <c r="W11" s="14">
+      <c r="X11" s="14">
         <v>9.2140000000000004</v>
       </c>
-      <c r="X11" s="134">
-        <f>X10-X12</f>
-        <v>12.148018905066664</v>
-      </c>
-      <c r="Y11" s="27">
-        <f>Y10*(1-(1-Y19))</f>
-        <v>15.290807996859998</v>
-      </c>
-      <c r="Z11" s="27">
-        <f t="shared" ref="Z11:AM11" si="14">Z10*(1-(1-Z19))</f>
-        <v>18.220196471232001</v>
+      <c r="Y11" s="14">
+        <v>10.929</v>
+      </c>
+      <c r="Z11" s="133">
+        <f>Z10-Z12</f>
+        <v>16.905706716799997</v>
       </c>
       <c r="AA11" s="27">
-        <f t="shared" si="14"/>
-        <v>21.809715999853388</v>
+        <f>AA10*(1-(1-AA19))</f>
+        <v>16.975998067497773</v>
       </c>
       <c r="AB11" s="27">
-        <f t="shared" si="14"/>
-        <v>25.025028487722029</v>
+        <f t="shared" ref="AB11:AO11" si="15">AB10*(1-(1-AB19))</f>
+        <v>20.248775656305966</v>
       </c>
       <c r="AC11" s="27">
-        <f t="shared" si="14"/>
-        <v>27.44906936261728</v>
+        <f t="shared" si="15"/>
+        <v>24.247261871243428</v>
       </c>
       <c r="AD11" s="27">
-        <f t="shared" si="14"/>
-        <v>30.135956578267429</v>
+        <f t="shared" si="15"/>
+        <v>27.828750984272574</v>
       </c>
       <c r="AE11" s="27">
-        <f t="shared" si="14"/>
-        <v>32.410943170290395</v>
+        <f t="shared" si="15"/>
+        <v>30.530451532749794</v>
       </c>
       <c r="AF11" s="27">
-        <f t="shared" si="14"/>
-        <v>33.929351702107851</v>
+        <f t="shared" si="15"/>
+        <v>33.522413852746958</v>
       </c>
       <c r="AG11" s="27">
-        <f t="shared" si="14"/>
-        <v>35.512037082179063</v>
+        <f t="shared" si="15"/>
+        <v>36.070927035213479</v>
       </c>
       <c r="AH11" s="27">
-        <f t="shared" si="14"/>
-        <v>36.06419822589379</v>
+        <f t="shared" si="15"/>
+        <v>37.770373203022501</v>
       </c>
       <c r="AI11" s="27">
-        <f t="shared" si="14"/>
-        <v>36.633819845866697</v>
+        <f t="shared" si="15"/>
+        <v>39.575775058196314</v>
       </c>
       <c r="AJ11" s="27">
-        <f t="shared" si="14"/>
-        <v>37.217685146186554</v>
+        <f t="shared" si="15"/>
+        <v>40.207649819298716</v>
       </c>
       <c r="AK11" s="27">
-        <f t="shared" si="14"/>
-        <v>37.815525286580737</v>
+        <f t="shared" si="15"/>
+        <v>40.858681036201901</v>
       </c>
       <c r="AL11" s="27">
-        <f t="shared" si="14"/>
-        <v>38.427200570751978</v>
+        <f t="shared" si="15"/>
+        <v>41.526161325103828</v>
       </c>
       <c r="AM11" s="27">
-        <f t="shared" si="14"/>
-        <v>39.052490311232688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>42.210068075634929</v>
+      </c>
+      <c r="AN11" s="27">
+        <f t="shared" si="15"/>
+        <v>42.910529815379078</v>
+      </c>
+      <c r="AO11" s="27">
+        <f t="shared" si="15"/>
+        <v>43.627643241306821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
@@ -3780,497 +3919,513 @@
         <v>8.910000000000009</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" ref="H12:N12" si="15">H10-H11</f>
+        <f t="shared" ref="H12:O12" si="16">H10-H11</f>
         <v>11.520000000000003</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-10.135000000000005</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-11.633000000000001</v>
       </c>
       <c r="K12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.361000000000004</v>
       </c>
       <c r="L12" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27.024999999999999</v>
       </c>
       <c r="M12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.426000000000013</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21.920000000000016</v>
       </c>
-      <c r="O12" s="156"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="12">
-        <f t="shared" ref="Q12:W12" si="16">Q10-Q11</f>
+      <c r="O12" s="30">
+        <f t="shared" si="16"/>
+        <v>12.230999999999984</v>
+      </c>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="12">
+        <f t="shared" ref="R12:Y12" si="17">R10-R11</f>
         <v>1.1869999999999874</v>
       </c>
-      <c r="R12" s="12">
-        <f t="shared" si="16"/>
+      <c r="S12" s="12">
+        <f t="shared" si="17"/>
         <v>18.151999999999994</v>
       </c>
-      <c r="S12" s="12">
-        <f t="shared" si="16"/>
+      <c r="T12" s="12">
+        <f t="shared" si="17"/>
         <v>18.783999999999999</v>
       </c>
-      <c r="T12" s="12">
-        <f t="shared" si="16"/>
+      <c r="U12" s="12">
+        <f t="shared" si="17"/>
         <v>22.285</v>
       </c>
-      <c r="U12" s="12">
-        <f t="shared" si="16"/>
+      <c r="V12" s="12">
+        <f t="shared" si="17"/>
         <v>1.3850000000000033</v>
       </c>
-      <c r="V12" s="12">
-        <f t="shared" si="16"/>
+      <c r="W12" s="12">
+        <f t="shared" si="17"/>
         <v>1.7280000000000051</v>
       </c>
-      <c r="W12" s="12">
-        <f t="shared" si="16"/>
+      <c r="X12" s="12">
+        <f t="shared" si="17"/>
         <v>37.451000000000015</v>
       </c>
-      <c r="X12" s="133">
-        <f>X10*(1-X19)</f>
-        <v>48.592075620266684</v>
-      </c>
       <c r="Y12" s="12">
-        <f t="shared" ref="Y12:AM12" si="17">Y10-Y11</f>
-        <v>61.163231987440014</v>
-      </c>
-      <c r="Z12" s="12">
         <f t="shared" si="17"/>
-        <v>72.880785884928017</v>
+        <v>34.150999999999989</v>
+      </c>
+      <c r="Z12" s="132">
+        <f>Z10*(1-Z19)</f>
+        <v>67.622826867200004</v>
       </c>
       <c r="AA12" s="12">
-        <f t="shared" si="17"/>
-        <v>87.238863999413581</v>
+        <f t="shared" ref="AA12:AO12" si="18">AA10-AA11</f>
+        <v>67.903992269991122</v>
       </c>
       <c r="AB12" s="12">
-        <f t="shared" si="17"/>
-        <v>100.10011395088814</v>
+        <f t="shared" si="18"/>
+        <v>80.995102625223879</v>
       </c>
       <c r="AC12" s="12">
-        <f t="shared" si="17"/>
-        <v>109.79627745046915</v>
+        <f t="shared" si="18"/>
+        <v>96.989047484973739</v>
       </c>
       <c r="AD12" s="12">
-        <f t="shared" si="17"/>
-        <v>120.54382631306974</v>
+        <f t="shared" si="18"/>
+        <v>111.31500393709032</v>
       </c>
       <c r="AE12" s="12">
-        <f t="shared" si="17"/>
-        <v>129.64377268116164</v>
+        <f t="shared" si="18"/>
+        <v>122.1218061309992</v>
       </c>
       <c r="AF12" s="12">
-        <f t="shared" si="17"/>
-        <v>135.71740680843143</v>
+        <f t="shared" si="18"/>
+        <v>134.08965541098786</v>
       </c>
       <c r="AG12" s="12">
-        <f t="shared" si="17"/>
-        <v>142.04814832871628</v>
+        <f t="shared" si="18"/>
+        <v>144.28370814085395</v>
       </c>
       <c r="AH12" s="12">
-        <f t="shared" si="17"/>
-        <v>144.25679290357519</v>
+        <f t="shared" si="18"/>
+        <v>151.08149281209006</v>
       </c>
       <c r="AI12" s="12">
-        <f t="shared" si="17"/>
-        <v>146.53527938346681</v>
+        <f t="shared" si="18"/>
+        <v>158.30310023278528</v>
       </c>
       <c r="AJ12" s="12">
-        <f t="shared" si="17"/>
-        <v>148.87074058474627</v>
+        <f t="shared" si="18"/>
+        <v>160.83059927719489</v>
       </c>
       <c r="AK12" s="12">
-        <f t="shared" si="17"/>
-        <v>151.26210114632298</v>
+        <f t="shared" si="18"/>
+        <v>163.43472414480766</v>
       </c>
       <c r="AL12" s="12">
-        <f t="shared" si="17"/>
-        <v>153.70880228300797</v>
+        <f t="shared" si="18"/>
+        <v>166.10464530041534</v>
       </c>
       <c r="AM12" s="12">
-        <f t="shared" si="17"/>
-        <v>156.20996124493081</v>
+        <f t="shared" si="18"/>
+        <v>168.84027230253977</v>
       </c>
       <c r="AN12" s="12">
-        <f t="shared" ref="AN12:BS12" si="18">AM12*(1+$AP$15)</f>
-        <v>153.08576202003218</v>
+        <f t="shared" si="18"/>
+        <v>171.64211926151637</v>
       </c>
       <c r="AO12" s="12">
         <f t="shared" si="18"/>
-        <v>150.02404677963153</v>
+        <v>174.51057296522734</v>
       </c>
       <c r="AP12" s="12">
-        <f t="shared" si="18"/>
-        <v>147.0235658440389</v>
+        <f t="shared" ref="AP12:BU12" si="19">AO12*(1+$AR$15)</f>
+        <v>171.02036150592278</v>
       </c>
       <c r="AQ12" s="12">
-        <f t="shared" si="18"/>
-        <v>144.08309452715812</v>
+        <f t="shared" si="19"/>
+        <v>167.59995427580432</v>
       </c>
       <c r="AR12" s="12">
-        <f t="shared" si="18"/>
-        <v>141.20143263661495</v>
+        <f t="shared" si="19"/>
+        <v>164.24795519028822</v>
       </c>
       <c r="AS12" s="12">
-        <f t="shared" si="18"/>
-        <v>138.37740398388266</v>
+        <f t="shared" si="19"/>
+        <v>160.96299608648246</v>
       </c>
       <c r="AT12" s="12">
-        <f t="shared" si="18"/>
-        <v>135.60985590420501</v>
+        <f t="shared" si="19"/>
+        <v>157.74373616475282</v>
       </c>
       <c r="AU12" s="12">
-        <f t="shared" si="18"/>
-        <v>132.8976587861209</v>
+        <f t="shared" si="19"/>
+        <v>154.58886144145777</v>
       </c>
       <c r="AV12" s="12">
-        <f t="shared" si="18"/>
-        <v>130.23970561039849</v>
+        <f t="shared" si="19"/>
+        <v>151.49708421262861</v>
       </c>
       <c r="AW12" s="12">
-        <f t="shared" si="18"/>
-        <v>127.63491149819052</v>
+        <f t="shared" si="19"/>
+        <v>148.46714252837603</v>
       </c>
       <c r="AX12" s="12">
-        <f t="shared" si="18"/>
-        <v>125.08221326822671</v>
+        <f t="shared" si="19"/>
+        <v>145.4977996778085</v>
       </c>
       <c r="AY12" s="12">
-        <f t="shared" si="18"/>
-        <v>122.58056900286218</v>
+        <f t="shared" si="19"/>
+        <v>142.58784368425233</v>
       </c>
       <c r="AZ12" s="12">
-        <f t="shared" si="18"/>
-        <v>120.12895762280493</v>
+        <f t="shared" si="19"/>
+        <v>139.73608681056729</v>
       </c>
       <c r="BA12" s="12">
-        <f t="shared" si="18"/>
-        <v>117.72637847034883</v>
+        <f t="shared" si="19"/>
+        <v>136.94136507435593</v>
       </c>
       <c r="BB12" s="12">
-        <f t="shared" si="18"/>
-        <v>115.37185090094185</v>
+        <f t="shared" si="19"/>
+        <v>134.20253777286879</v>
       </c>
       <c r="BC12" s="12">
-        <f t="shared" si="18"/>
-        <v>113.06441388292301</v>
+        <f t="shared" si="19"/>
+        <v>131.51848701741142</v>
       </c>
       <c r="BD12" s="12">
-        <f t="shared" si="18"/>
-        <v>110.80312560526454</v>
+        <f t="shared" si="19"/>
+        <v>128.88811727706317</v>
       </c>
       <c r="BE12" s="12">
-        <f t="shared" si="18"/>
-        <v>108.58706309315924</v>
+        <f t="shared" si="19"/>
+        <v>126.31035493152191</v>
       </c>
       <c r="BF12" s="12">
-        <f t="shared" si="18"/>
-        <v>106.41532183129605</v>
+        <f t="shared" si="19"/>
+        <v>123.78414783289148</v>
       </c>
       <c r="BG12" s="12">
-        <f t="shared" si="18"/>
-        <v>104.28701539467014</v>
+        <f t="shared" si="19"/>
+        <v>121.30846487623364</v>
       </c>
       <c r="BH12" s="12">
-        <f t="shared" si="18"/>
-        <v>102.20127508677673</v>
+        <f t="shared" si="19"/>
+        <v>118.88229557870896</v>
       </c>
       <c r="BI12" s="12">
-        <f t="shared" si="18"/>
-        <v>100.1572495850412</v>
+        <f t="shared" si="19"/>
+        <v>116.50464966713479</v>
       </c>
       <c r="BJ12" s="12">
-        <f t="shared" si="18"/>
-        <v>98.154104593340378</v>
+        <f t="shared" si="19"/>
+        <v>114.17455667379208</v>
       </c>
       <c r="BK12" s="12">
-        <f t="shared" si="18"/>
-        <v>96.191022501473569</v>
+        <f t="shared" si="19"/>
+        <v>111.89106554031623</v>
       </c>
       <c r="BL12" s="12">
-        <f t="shared" si="18"/>
-        <v>94.267202051444102</v>
+        <f t="shared" si="19"/>
+        <v>109.65324422950991</v>
       </c>
       <c r="BM12" s="12">
-        <f t="shared" si="18"/>
-        <v>92.381858010415215</v>
+        <f t="shared" si="19"/>
+        <v>107.46017934491971</v>
       </c>
       <c r="BN12" s="12">
-        <f t="shared" si="18"/>
-        <v>90.534220850206907</v>
+        <f t="shared" si="19"/>
+        <v>105.31097575802131</v>
       </c>
       <c r="BO12" s="12">
-        <f t="shared" si="18"/>
-        <v>88.723536433202767</v>
+        <f t="shared" si="19"/>
+        <v>103.20475624286088</v>
       </c>
       <c r="BP12" s="12">
-        <f t="shared" si="18"/>
-        <v>86.949065704538711</v>
+        <f t="shared" si="19"/>
+        <v>101.14066111800366</v>
       </c>
       <c r="BQ12" s="12">
-        <f t="shared" si="18"/>
-        <v>85.210084390447932</v>
+        <f t="shared" si="19"/>
+        <v>99.117847895643592</v>
       </c>
       <c r="BR12" s="12">
-        <f t="shared" si="18"/>
-        <v>83.505882702638971</v>
+        <f t="shared" si="19"/>
+        <v>97.135490937730722</v>
       </c>
       <c r="BS12" s="12">
-        <f t="shared" si="18"/>
-        <v>81.835765048586197</v>
+        <f t="shared" si="19"/>
+        <v>95.1927811189761</v>
       </c>
       <c r="BT12" s="12">
-        <f t="shared" ref="BT12:CS12" si="19">BS12*(1+$AP$15)</f>
-        <v>80.199049747614467</v>
+        <f t="shared" si="19"/>
+        <v>93.288925496596576</v>
       </c>
       <c r="BU12" s="12">
         <f t="shared" si="19"/>
-        <v>78.595068752662172</v>
+        <v>91.423146986664648</v>
       </c>
       <c r="BV12" s="12">
-        <f t="shared" si="19"/>
-        <v>77.023167377608928</v>
+        <f t="shared" ref="BV12:CU12" si="20">BU12*(1+$AR$15)</f>
+        <v>89.594684046931349</v>
       </c>
       <c r="BW12" s="12">
-        <f t="shared" si="19"/>
-        <v>75.482704030056752</v>
+        <f t="shared" si="20"/>
+        <v>87.80279036599272</v>
       </c>
       <c r="BX12" s="12">
-        <f t="shared" si="19"/>
-        <v>73.973049949455614</v>
+        <f t="shared" si="20"/>
+        <v>86.046734558672867</v>
       </c>
       <c r="BY12" s="12">
-        <f t="shared" si="19"/>
-        <v>72.493588950466503</v>
+        <f t="shared" si="20"/>
+        <v>84.325799867499413</v>
       </c>
       <c r="BZ12" s="12">
-        <f t="shared" si="19"/>
-        <v>71.043717171457175</v>
+        <f t="shared" si="20"/>
+        <v>82.639283870149427</v>
       </c>
       <c r="CA12" s="12">
-        <f t="shared" si="19"/>
-        <v>69.622842828028027</v>
+        <f t="shared" si="20"/>
+        <v>80.986498192746438</v>
       </c>
       <c r="CB12" s="12">
-        <f t="shared" si="19"/>
-        <v>68.23038597146747</v>
+        <f t="shared" si="20"/>
+        <v>79.366768228891502</v>
       </c>
       <c r="CC12" s="12">
-        <f t="shared" si="19"/>
-        <v>66.865778252038126</v>
+        <f t="shared" si="20"/>
+        <v>77.779432864313677</v>
       </c>
       <c r="CD12" s="12">
-        <f t="shared" si="19"/>
-        <v>65.528462686997358</v>
+        <f t="shared" si="20"/>
+        <v>76.223844207027398</v>
       </c>
       <c r="CE12" s="12">
-        <f t="shared" si="19"/>
-        <v>64.217893433257416</v>
+        <f t="shared" si="20"/>
+        <v>74.699367322886843</v>
       </c>
       <c r="CF12" s="12">
-        <f t="shared" si="19"/>
-        <v>62.933535564592269</v>
+        <f t="shared" si="20"/>
+        <v>73.2053799764291</v>
       </c>
       <c r="CG12" s="12">
-        <f t="shared" si="19"/>
-        <v>61.67486485330042</v>
+        <f t="shared" si="20"/>
+        <v>71.741272376900511</v>
       </c>
       <c r="CH12" s="12">
-        <f t="shared" si="19"/>
-        <v>60.441367556234411</v>
+        <f t="shared" si="20"/>
+        <v>70.306446929362494</v>
       </c>
       <c r="CI12" s="12">
-        <f t="shared" si="19"/>
-        <v>59.232540205109721</v>
+        <f t="shared" si="20"/>
+        <v>68.90031799077525</v>
       </c>
       <c r="CJ12" s="12">
-        <f t="shared" si="19"/>
-        <v>58.047889401007524</v>
+        <f t="shared" si="20"/>
+        <v>67.522311630959749</v>
       </c>
       <c r="CK12" s="12">
-        <f t="shared" si="19"/>
-        <v>56.886931612987375</v>
+        <f t="shared" si="20"/>
+        <v>66.171865398340557</v>
       </c>
       <c r="CL12" s="12">
-        <f t="shared" si="19"/>
-        <v>55.749192980727628</v>
+        <f t="shared" si="20"/>
+        <v>64.848428090373744</v>
       </c>
       <c r="CM12" s="12">
-        <f t="shared" si="19"/>
-        <v>54.634209121113074</v>
+        <f t="shared" si="20"/>
+        <v>63.551459528566269</v>
       </c>
       <c r="CN12" s="12">
-        <f t="shared" si="19"/>
-        <v>53.541524938690813</v>
+        <f t="shared" si="20"/>
+        <v>62.280430337994943</v>
       </c>
       <c r="CO12" s="12">
-        <f t="shared" si="19"/>
-        <v>52.470694439916997</v>
+        <f t="shared" si="20"/>
+        <v>61.034821731235041</v>
       </c>
       <c r="CP12" s="12">
-        <f t="shared" si="19"/>
-        <v>51.421280551118656</v>
+        <f t="shared" si="20"/>
+        <v>59.814125296610342</v>
       </c>
       <c r="CQ12" s="12">
-        <f t="shared" si="19"/>
-        <v>50.392854940096285</v>
+        <f t="shared" si="20"/>
+        <v>58.617842790678132</v>
       </c>
       <c r="CR12" s="12">
-        <f t="shared" si="19"/>
-        <v>49.384997841294357</v>
+        <f t="shared" si="20"/>
+        <v>57.445485934864571</v>
       </c>
       <c r="CS12" s="12">
-        <f t="shared" si="19"/>
-        <v>48.397297884468472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>56.296576216167281</v>
+      </c>
+      <c r="CT12" s="12">
+        <f t="shared" si="20"/>
+        <v>55.170644691843933</v>
+      </c>
+      <c r="CU12" s="12">
+        <f t="shared" si="20"/>
+        <v>54.06723179800705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="26">
-        <f t="shared" ref="F13:M13" si="20">F12/F14</f>
+        <f t="shared" ref="F13:M13" si="21">F12/F14</f>
         <v>8.8853291768992385E-2</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9400000000000057E-2</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.6442866571663867E-2</v>
       </c>
       <c r="I13" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-6.6068394484364051E-2</v>
       </c>
       <c r="J13" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-7.3358228129837819E-2</v>
       </c>
       <c r="K13" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.116869753753031E-2</v>
       </c>
       <c r="L13" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.15819934224664817</v>
       </c>
       <c r="M13" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.0988847885565384E-2</v>
       </c>
       <c r="N13" s="26">
         <f>N12/N14</f>
         <v>0.12802065599267592</v>
       </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26">
-        <f t="shared" ref="Q13:AM13" si="21">Q12/Q14</f>
+      <c r="O13" s="33">
+        <f>O12/O14</f>
+        <v>7.1331079704337108E-2</v>
+      </c>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26">
+        <f t="shared" ref="R13:AO13" si="22">R12/R14</f>
         <v>1.1214705682000902E-2</v>
       </c>
-      <c r="R13" s="26">
-        <f t="shared" si="21"/>
+      <c r="S13" s="26">
+        <f t="shared" si="22"/>
         <v>0.12101333333333329</v>
       </c>
-      <c r="S13" s="26">
-        <f t="shared" si="21"/>
+      <c r="T13" s="26">
+        <f t="shared" si="22"/>
         <v>0.12522666666666665</v>
       </c>
-      <c r="T13" s="26">
-        <f t="shared" si="21"/>
+      <c r="U13" s="26">
+        <f t="shared" si="22"/>
         <v>0.14856666666666668</v>
       </c>
-      <c r="U13" s="26">
-        <f t="shared" si="21"/>
+      <c r="V13" s="26">
+        <f t="shared" si="22"/>
         <v>9.0285867154261852E-3</v>
       </c>
-      <c r="V13" s="26">
-        <f t="shared" si="21"/>
+      <c r="W13" s="26">
+        <f t="shared" si="22"/>
         <v>1.0497680513797826E-2</v>
       </c>
-      <c r="W13" s="26">
-        <f t="shared" si="21"/>
+      <c r="X13" s="26">
+        <f t="shared" si="22"/>
         <v>0.21907666815291649</v>
       </c>
-      <c r="X13" s="43">
-        <f t="shared" si="21"/>
-        <v>0.28424848536814995</v>
-      </c>
-      <c r="Y13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.35778582887699228</v>
-      </c>
-      <c r="Z13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.42632986419684732</v>
+      <c r="Y13" s="26">
+        <f t="shared" si="22"/>
+        <v>0.19916831845170624</v>
+      </c>
+      <c r="Z13" s="43">
+        <f t="shared" si="22"/>
+        <v>0.39437570542856992</v>
       </c>
       <c r="AA13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.51032014254457658</v>
+        <f t="shared" si="22"/>
+        <v>0.39601545947620259</v>
       </c>
       <c r="AB13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.58555444303457427</v>
+        <f t="shared" si="22"/>
+        <v>0.47236269487538352</v>
       </c>
       <c r="AC13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.64227397504584571</v>
+        <f t="shared" si="22"/>
+        <v>0.56563923445330777</v>
       </c>
       <c r="AD13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.70514378347897722</v>
+        <f t="shared" si="22"/>
+        <v>0.64918808095210523</v>
       </c>
       <c r="AE13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.75837563124517315</v>
+        <f t="shared" si="22"/>
+        <v>0.71221325212721109</v>
       </c>
       <c r="AF13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.79390449638047289</v>
+        <f t="shared" si="22"/>
+        <v>0.78200963924849032</v>
       </c>
       <c r="AG13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.83093735956707226</v>
+        <f t="shared" si="22"/>
+        <v>0.84146126117509434</v>
       </c>
       <c r="AH13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.84385724140184581</v>
+        <f t="shared" si="22"/>
+        <v>0.88110587896569736</v>
       </c>
       <c r="AI13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.8571856765957292</v>
+        <f t="shared" si="22"/>
+        <v>0.9232222271399303</v>
       </c>
       <c r="AJ13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.87084739613797668</v>
+        <f t="shared" si="22"/>
+        <v>0.93796257836136909</v>
       </c>
       <c r="AK13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.88483610950163882</v>
+        <f t="shared" si="22"/>
+        <v>0.95314981068020921</v>
       </c>
       <c r="AL13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.89914854796765853</v>
+        <f t="shared" si="22"/>
+        <v>0.96872076634654458</v>
       </c>
       <c r="AM13" s="27">
-        <f t="shared" si="21"/>
-        <v>0.91377954772464398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="22"/>
+        <v>0.98467491790650485</v>
+      </c>
+      <c r="AN13" s="27">
+        <f t="shared" si="22"/>
+        <v>1.0010152636468461</v>
+      </c>
+      <c r="AO13" s="27">
+        <f t="shared" si="22"/>
+        <v>1.0177440593109464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4279,38 +4434,39 @@
         <v>150.529032</v>
       </c>
       <c r="G14" s="32">
-        <f>T14</f>
+        <f>U14</f>
         <v>150</v>
       </c>
       <c r="H14" s="27">
         <v>150.700785</v>
       </c>
       <c r="I14" s="32">
-        <f>U14</f>
+        <f>V14</f>
         <v>153.40163899999999</v>
       </c>
       <c r="J14" s="27">
         <v>158.57798500000001</v>
       </c>
       <c r="K14" s="32">
-        <f>V14</f>
+        <f>W14</f>
         <v>164.60779099999999</v>
       </c>
       <c r="L14" s="27">
         <v>170.828776</v>
       </c>
       <c r="M14" s="32">
-        <f>W14</f>
+        <f>X14</f>
         <v>170.949286</v>
       </c>
       <c r="N14" s="27">
         <v>171.22236899999999</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="O14" s="32">
+        <f>+Y14</f>
+        <v>171.46803399999999</v>
+      </c>
+      <c r="R14" s="27">
         <v>105.84317</v>
-      </c>
-      <c r="R14" s="1">
-        <v>150</v>
       </c>
       <c r="S14" s="1">
         <v>150</v>
@@ -4318,661 +4474,699 @@
       <c r="T14" s="1">
         <v>150</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="1">
+        <v>150</v>
+      </c>
+      <c r="V14" s="27">
         <v>153.40163899999999</v>
       </c>
-      <c r="V14" s="27">
+      <c r="W14" s="27">
         <v>164.60779099999999</v>
       </c>
-      <c r="W14" s="27">
+      <c r="X14" s="27">
         <v>170.949286</v>
       </c>
-      <c r="X14" s="135">
-        <f>W14</f>
-        <v>170.949286</v>
-      </c>
       <c r="Y14" s="27">
-        <f>X14</f>
-        <v>170.949286</v>
-      </c>
-      <c r="Z14" s="27">
-        <f t="shared" ref="Z14:AM14" si="22">Y14</f>
-        <v>170.949286</v>
+        <v>171.46803399999999</v>
+      </c>
+      <c r="Z14" s="134">
+        <f>+Y14</f>
+        <v>171.46803399999999</v>
       </c>
       <c r="AA14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f>Z14</f>
+        <v>171.46803399999999</v>
       </c>
       <c r="AB14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" ref="AB14:AO14" si="23">AA14</f>
+        <v>171.46803399999999</v>
       </c>
       <c r="AC14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
       </c>
       <c r="AD14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
       </c>
       <c r="AE14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
       </c>
       <c r="AF14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
       </c>
       <c r="AG14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
       </c>
       <c r="AH14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
       </c>
       <c r="AI14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
       </c>
       <c r="AJ14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
       </c>
       <c r="AK14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
       </c>
       <c r="AL14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
       </c>
       <c r="AM14" s="27">
-        <f t="shared" si="22"/>
-        <v>170.949286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AO15" s="45" t="s">
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
+      </c>
+      <c r="AN14" s="27">
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
+      </c>
+      <c r="AO14" s="27">
+        <f t="shared" si="23"/>
+        <v>171.46803399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="AP15" s="62">
+      <c r="AR15" s="62">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="23">
-        <f t="shared" ref="F16:L16" si="23">F5/F3</f>
+        <f t="shared" ref="F16:L16" si="24">F5/F3</f>
         <v>0.85857590685176888</v>
       </c>
       <c r="G16" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.8558438255118912</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.85590062111801246</v>
       </c>
       <c r="I16" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.84701747534901894</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.88574714847119718</v>
       </c>
       <c r="K16" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.85246968833916514</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.86382558174358359</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" ref="M16:N16" si="24">M5/M3</f>
+        <f t="shared" ref="M16:N16" si="25">M5/M3</f>
         <v>0.83166253419972636</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.82760876676480211</v>
       </c>
-      <c r="Q16" s="23">
-        <f t="shared" ref="Q16:R16" si="25">Q5/Q3</f>
+      <c r="O16" s="34">
+        <f t="shared" ref="O16" si="26">O5/O3</f>
+        <v>0.43600875940207556</v>
+      </c>
+      <c r="R16" s="23">
+        <f t="shared" ref="R16:S16" si="27">R5/R3</f>
         <v>0.85328664255794195</v>
       </c>
-      <c r="R16" s="23">
-        <f t="shared" si="25"/>
+      <c r="S16" s="23">
+        <f t="shared" si="27"/>
         <v>0.86532184472834472</v>
       </c>
-      <c r="S16" s="23">
-        <f t="shared" ref="S16:T16" si="26">S5/S3</f>
+      <c r="T16" s="23">
+        <f t="shared" ref="T16:U16" si="28">T5/T3</f>
         <v>0.8610677904237316</v>
       </c>
-      <c r="T16" s="23">
-        <f t="shared" si="26"/>
+      <c r="U16" s="23">
+        <f t="shared" si="28"/>
         <v>0.85725283692857257</v>
-      </c>
-      <c r="U16" s="23">
-        <f>U5/U3</f>
-        <v>0.85475570319479577</v>
       </c>
       <c r="V16" s="23">
         <f>V5/V3</f>
+        <v>0.85475570319479577</v>
+      </c>
+      <c r="W16" s="23">
+        <f>W5/W3</f>
         <v>0.85729986922284984</v>
       </c>
-      <c r="W16" s="23">
-        <f t="shared" ref="W16" si="27">W5/W3</f>
+      <c r="X16" s="23">
+        <f t="shared" ref="X16:Y16" si="29">X5/X3</f>
         <v>0.84829230777171583</v>
       </c>
-      <c r="X16" s="136">
-        <f>X5/X3</f>
+      <c r="Y16" s="23">
+        <f t="shared" si="29"/>
+        <v>0.6363805432346733</v>
+      </c>
+      <c r="Z16" s="135">
+        <f>Z5/Z3</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="Y16" s="23">
-        <f t="shared" ref="Y16:AM16" si="28">Y5/Y3</f>
+      <c r="AA16" s="23">
+        <f t="shared" ref="AA16:AO16" si="30">AA5/AA3</f>
         <v>0.86</v>
       </c>
-      <c r="Z16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AB16" s="23">
+        <f t="shared" si="30"/>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AC16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AA16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AD16" s="23">
+        <f t="shared" si="30"/>
+        <v>0.86</v>
+      </c>
+      <c r="AE16" s="23">
+        <f t="shared" si="30"/>
+        <v>0.86</v>
+      </c>
+      <c r="AF16" s="23">
+        <f t="shared" si="30"/>
+        <v>0.86</v>
+      </c>
+      <c r="AG16" s="23">
+        <f t="shared" si="30"/>
+        <v>0.86</v>
+      </c>
+      <c r="AH16" s="23">
+        <f t="shared" si="30"/>
+        <v>0.86</v>
+      </c>
+      <c r="AI16" s="23">
+        <f t="shared" si="30"/>
+        <v>0.86</v>
+      </c>
+      <c r="AJ16" s="23">
+        <f t="shared" si="30"/>
+        <v>0.86</v>
+      </c>
+      <c r="AK16" s="23">
+        <f t="shared" si="30"/>
+        <v>0.86</v>
+      </c>
+      <c r="AL16" s="23">
+        <f t="shared" si="30"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="AB16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AM16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AC16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
-      </c>
-      <c r="AD16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
-      </c>
-      <c r="AE16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
-      </c>
-      <c r="AF16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
-      </c>
-      <c r="AG16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
-      </c>
-      <c r="AH16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
-      </c>
-      <c r="AI16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
-      </c>
-      <c r="AJ16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.86</v>
-      </c>
-      <c r="AK16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AN16" s="23">
+        <f t="shared" si="30"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="AL16" s="23">
-        <f t="shared" si="28"/>
+      <c r="AO16" s="23">
+        <f t="shared" si="30"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="AM16" s="23">
-        <f t="shared" si="28"/>
-        <v>0.8600000000000001</v>
-      </c>
-      <c r="AO16" s="46" t="s">
+      <c r="AQ16" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="AP16" s="63">
+      <c r="AR16" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="23">
-        <f t="shared" ref="F17:L17" si="29">F8/F3</f>
+        <f t="shared" ref="F17:L17" si="31">F8/F3</f>
         <v>0.25023137781758459</v>
       </c>
       <c r="G17" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.18569566323286293</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.27698974433049256</v>
       </c>
       <c r="I17" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.90940154251684147</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.96060577015240112</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.31901700707950204</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.37551036706497759</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" ref="M17:N17" si="30">M8/M3</f>
+        <f t="shared" ref="M17:N17" si="32">M8/M3</f>
         <v>0.19058866279069778</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.29209828081270683</v>
       </c>
-      <c r="Q17" s="23">
-        <f t="shared" ref="Q17:R17" si="31">Q8/Q3</f>
+      <c r="O17" s="34">
+        <f t="shared" ref="O17" si="33">O8/O3</f>
+        <v>0.20888317623536121</v>
+      </c>
+      <c r="R17" s="23">
+        <f t="shared" ref="R17:S17" si="34">R8/R3</f>
         <v>0.13719072927301687</v>
       </c>
-      <c r="R17" s="23">
-        <f t="shared" si="31"/>
+      <c r="S17" s="23">
+        <f t="shared" si="34"/>
         <v>0.19480029481959843</v>
       </c>
-      <c r="S17" s="23">
-        <f t="shared" ref="S17:T17" si="32">S8/S3</f>
+      <c r="T17" s="23">
+        <f t="shared" ref="T17:U17" si="35">T8/T3</f>
         <v>0.20649036068619966</v>
       </c>
-      <c r="T17" s="23">
-        <f t="shared" si="32"/>
+      <c r="U17" s="23">
+        <f t="shared" si="35"/>
         <v>0.2189785517421898</v>
-      </c>
-      <c r="U17" s="23">
-        <f>U8/U3</f>
-        <v>0.12407987618436456</v>
       </c>
       <c r="V17" s="23">
         <f>V8/V3</f>
+        <v>0.12407987618436456</v>
+      </c>
+      <c r="W17" s="23">
+        <f>W8/W3</f>
         <v>0.13328139347227252</v>
       </c>
-      <c r="W17" s="23">
-        <f t="shared" ref="W17:AM17" si="33">W8/W3</f>
+      <c r="X17" s="23">
+        <f t="shared" ref="X17:AO17" si="36">X8/X3</f>
         <v>0.28620168162650139</v>
       </c>
-      <c r="X17" s="136">
-        <f>X8/X3</f>
-        <v>0.32362217577465152</v>
-      </c>
       <c r="Y17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.32086820576902869</v>
-      </c>
-      <c r="Z17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.3201138715490221</v>
+        <f t="shared" ref="Y17" si="37">Y8/Y3</f>
+        <v>0.25146223300880594</v>
+      </c>
+      <c r="Z17" s="135">
+        <f>Z8/Z3</f>
+        <v>0.31680996246057758</v>
       </c>
       <c r="AA17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31996617470339961</v>
+        <f t="shared" si="36"/>
+        <v>0.31972061768197663</v>
       </c>
       <c r="AB17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31992777960115193</v>
+        <f t="shared" si="36"/>
+        <v>0.31913751623426984</v>
       </c>
       <c r="AC17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31996704731935988</v>
+        <f t="shared" si="36"/>
+        <v>0.31904558728497412</v>
       </c>
       <c r="AD17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.32000720748570888</v>
+        <f t="shared" si="36"/>
+        <v>0.31901699254586874</v>
       </c>
       <c r="AE17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31942527036318152</v>
+        <f t="shared" si="36"/>
+        <v>0.31902524499582702</v>
       </c>
       <c r="AF17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31950411459447625</v>
+        <f t="shared" si="36"/>
+        <v>0.31903358080386574</v>
       </c>
       <c r="AG17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31939580040071491</v>
+        <f t="shared" si="36"/>
+        <v>0.31853134931929028</v>
       </c>
       <c r="AH17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31938184684950982</v>
+        <f t="shared" si="36"/>
+        <v>0.31858664915920454</v>
       </c>
       <c r="AI17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31938785488938848</v>
+        <f t="shared" si="36"/>
+        <v>0.31872315215262864</v>
       </c>
       <c r="AJ17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31938457225164441</v>
+        <f t="shared" si="36"/>
+        <v>0.31869890051397659</v>
       </c>
       <c r="AK17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31936802621409244</v>
+        <f t="shared" si="36"/>
+        <v>0.31869360508372963</v>
       </c>
       <c r="AL17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31933552086250916</v>
+        <f t="shared" si="36"/>
+        <v>0.31868430243738827</v>
       </c>
       <c r="AM17" s="23">
-        <f t="shared" si="33"/>
-        <v>0.31928394579224129</v>
-      </c>
-      <c r="AO17" s="46" t="s">
+        <f t="shared" si="36"/>
+        <v>0.31866867242209507</v>
+      </c>
+      <c r="AN17" s="23">
+        <f t="shared" si="36"/>
+        <v>0.31864558404074694</v>
+      </c>
+      <c r="AO17" s="23">
+        <f t="shared" si="36"/>
+        <v>0.3186137470254885</v>
+      </c>
+      <c r="AQ17" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="AP17" s="64">
-        <f>NPV(AP16,Y12:CS12)</f>
-        <v>1664.771245280672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR17" s="64">
+        <f>NPV(AR16,AA12:CU12)</f>
+        <v>1856.1599751389613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="23">
-        <f t="shared" ref="F18:L18" si="34">F12/F3</f>
+        <f t="shared" ref="F18:L18" si="38">F12/F3</f>
         <v>0.19965666517390643</v>
       </c>
       <c r="G18" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.14164441053033205</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.16640184890943235</v>
       </c>
       <c r="I18" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-0.98945621399980577</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-1.1150196491900701</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.21744649686711701</v>
       </c>
       <c r="L18" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.26978327493436355</v>
       </c>
       <c r="M18" s="34">
-        <f t="shared" ref="M18:N18" si="35">M12/M3</f>
+        <f t="shared" ref="M18:N18" si="39">M12/M3</f>
         <v>0.11142698358413144</v>
       </c>
       <c r="N18" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.1991785701304839</v>
       </c>
-      <c r="Q18" s="23">
-        <f t="shared" ref="Q18:R18" si="36">Q12/Q3</f>
+      <c r="O18" s="34">
+        <f t="shared" ref="O18" si="40">O12/O3</f>
+        <v>0.1164524421593829</v>
+      </c>
+      <c r="R18" s="23">
+        <f t="shared" ref="R18:S18" si="41">R12/R3</f>
         <v>1.1326011659971446E-2</v>
       </c>
-      <c r="R18" s="23">
-        <f t="shared" si="36"/>
+      <c r="S18" s="23">
+        <f t="shared" si="41"/>
         <v>0.15927277832373993</v>
       </c>
-      <c r="S18" s="23">
-        <f t="shared" ref="S18:T18" si="37">S12/S3</f>
+      <c r="T18" s="23">
+        <f t="shared" ref="T18:U18" si="42">T12/T3</f>
         <v>0.15582174735375118</v>
       </c>
-      <c r="T18" s="23">
-        <f t="shared" si="37"/>
+      <c r="U18" s="23">
+        <f t="shared" si="42"/>
         <v>0.17156296672671562</v>
-      </c>
-      <c r="U18" s="23">
-        <f>U12/U3</f>
-        <v>1.7427302354258722E-2</v>
       </c>
       <c r="V18" s="23">
         <f>V12/V3</f>
+        <v>1.7427302354258722E-2</v>
+      </c>
+      <c r="W18" s="23">
+        <f>W12/W3</f>
         <v>2.4040735691032097E-2</v>
       </c>
-      <c r="W18" s="23">
-        <f t="shared" ref="W18:X18" si="38">W12/W3</f>
+      <c r="X18" s="23">
+        <f t="shared" ref="X18:Z18" si="43">X12/X3</f>
         <v>0.19330446317506367</v>
       </c>
-      <c r="X18" s="42">
-        <f t="shared" si="38"/>
-        <v>0.22595446860986032</v>
-      </c>
       <c r="Y18" s="23">
-        <f t="shared" ref="Y18:AM18" si="39">Y12/Y3</f>
-        <v>0.2473136403732886</v>
-      </c>
-      <c r="Z18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.24557799248532575</v>
+        <f t="shared" ref="Y18" si="44">Y12/Y3</f>
+        <v>0.15878130201504537</v>
+      </c>
+      <c r="Z18" s="42">
+        <f t="shared" si="43"/>
+        <v>0.2832476248413448</v>
       </c>
       <c r="AA18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.2449656292297987</v>
+        <f t="shared" ref="AA18:AO18" si="45">AA12/AA3</f>
+        <v>0.24732636980436912</v>
       </c>
       <c r="AB18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.24441726677866171</v>
+        <f t="shared" si="45"/>
+        <v>0.24584004605329873</v>
       </c>
       <c r="AC18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.24372060201179102</v>
+        <f t="shared" si="45"/>
+        <v>0.24532133350807039</v>
       </c>
       <c r="AD18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.24325227677048999</v>
+        <f t="shared" si="45"/>
+        <v>0.24483217357751796</v>
       </c>
       <c r="AE18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.24223664689991159</v>
+        <f t="shared" si="45"/>
+        <v>0.24418293849769063</v>
       </c>
       <c r="AF18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.24150962265821629</v>
+        <f t="shared" si="45"/>
+        <v>0.243738810065771</v>
       </c>
       <c r="AG18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.24073828608398939</v>
+        <f t="shared" si="45"/>
+        <v>0.24284152510262372</v>
       </c>
       <c r="AH18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.23968766713464185</v>
+        <f t="shared" si="45"/>
+        <v>0.24217406110448467</v>
       </c>
       <c r="AI18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.23869946223989591</v>
+        <f t="shared" si="45"/>
+        <v>0.24166651454274929</v>
       </c>
       <c r="AJ18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.23774884785790112</v>
+        <f t="shared" si="45"/>
+        <v>0.24071079468404435</v>
       </c>
       <c r="AK18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.23683126198150989</v>
+        <f t="shared" si="45"/>
+        <v>0.23981207620077299</v>
       </c>
       <c r="AL18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.23594320100786176</v>
+        <f t="shared" si="45"/>
+        <v>0.23895070769391963</v>
       </c>
       <c r="AM18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.23508086578237733</v>
-      </c>
-      <c r="AO18" s="46" t="s">
+        <f t="shared" si="45"/>
+        <v>0.2381235865189805</v>
+      </c>
+      <c r="AN18" s="23">
+        <f t="shared" si="45"/>
+        <v>0.23732859464691131</v>
+      </c>
+      <c r="AO18" s="23">
+        <f t="shared" si="45"/>
+        <v>0.23656351909664572</v>
+      </c>
+      <c r="AQ18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AP18" s="64">
+      <c r="AR18" s="64">
         <f>Main!C11</f>
-        <v>44.149000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50.494999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="23">
-        <f t="shared" ref="F19:L19" si="40">F11/F10</f>
+        <f t="shared" ref="F19:L19" si="46">F11/F10</f>
         <v>0.1837046078730547</v>
       </c>
       <c r="G19" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.20467731857538143</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.20376002211777711</v>
       </c>
       <c r="I19" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.23636226642555747</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.19711505279867483</v>
       </c>
       <c r="K19" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.10634740151160453</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.19176361515686216</v>
       </c>
       <c r="M19" s="34">
-        <f t="shared" ref="M19:N19" si="41">M11/M10</f>
+        <f t="shared" ref="M19:N19" si="47">M11/M10</f>
         <v>0.21182340489869955</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0.20834988623641146</v>
       </c>
-      <c r="Q19" s="23">
-        <f>Q11/Q10</f>
+      <c r="O19" s="34">
+        <f t="shared" ref="O19" si="48">O11/O10</f>
+        <v>0.29670519234086623</v>
+      </c>
+      <c r="R19" s="23">
+        <f>R11/R10</f>
         <v>0.53885003885004146</v>
       </c>
-      <c r="R19" s="23">
-        <f t="shared" ref="R19:V19" si="42">R11/R10</f>
+      <c r="S19" s="23">
+        <f t="shared" ref="S19:W19" si="49">S11/S10</f>
         <v>0.13561904761904767</v>
       </c>
-      <c r="S19" s="23">
-        <f t="shared" si="42"/>
+      <c r="T19" s="23">
+        <f t="shared" si="49"/>
         <v>0.21517506476142731</v>
       </c>
-      <c r="T19" s="23">
-        <f t="shared" si="42"/>
+      <c r="U19" s="23">
+        <f t="shared" si="49"/>
         <v>0.1922212556183848</v>
       </c>
-      <c r="U19" s="23">
-        <f t="shared" si="42"/>
+      <c r="V19" s="23">
+        <f t="shared" si="49"/>
         <v>-0.15802675585284237</v>
       </c>
-      <c r="V19" s="23">
-        <f t="shared" si="42"/>
+      <c r="W19" s="23">
+        <f t="shared" si="49"/>
         <v>-2.7402597402597104</v>
       </c>
-      <c r="W19" s="23">
-        <f t="shared" ref="W19" si="43">W11/W10</f>
+      <c r="X19" s="23">
+        <f t="shared" ref="X19:Y19" si="50">X11/X10</f>
         <v>0.19744990892531872</v>
       </c>
-      <c r="X19" s="136">
+      <c r="Y19" s="23">
+        <f t="shared" si="50"/>
+        <v>0.24243566992014201</v>
+      </c>
+      <c r="Z19" s="135">
         <v>0.2</v>
       </c>
-      <c r="Y19" s="23">
-        <f>X19</f>
+      <c r="AA19" s="23">
+        <f>Z19</f>
         <v>0.2</v>
       </c>
-      <c r="Z19" s="23">
-        <f t="shared" ref="Z19:AM19" si="44">Y19</f>
+      <c r="AB19" s="23">
+        <f t="shared" ref="AB19:AO19" si="51">AA19</f>
         <v>0.2</v>
       </c>
-      <c r="AA19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AC19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AB19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AD19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AC19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AE19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AD19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AF19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AE19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AG19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AF19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AH19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AG19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AI19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AH19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AJ19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AI19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AK19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AJ19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AL19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AK19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AM19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AL19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AN19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AM19" s="23">
-        <f t="shared" si="44"/>
+      <c r="AO19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AO19" s="46" t="s">
+      <c r="AQ19" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AP19" s="64">
-        <f>AP17+AP18</f>
-        <v>1708.9202452806721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AO20" s="47" t="s">
+      <c r="AR19" s="64">
+        <f>AR17+AR18</f>
+        <v>1906.6549751389612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="AP20" s="65">
-        <f>AP19/Main!C7</f>
-        <v>9.9807066989049318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR20" s="65">
+        <f>AR19/Main!C7</f>
+        <v>11.119594309566535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
@@ -4984,95 +5178,97 @@
         <v>71</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:N21" si="45">H3/F3-1</f>
+        <f t="shared" ref="H21:O21" si="52">H3/F3-1</f>
         <v>3.3437826541274918E-2</v>
       </c>
       <c r="I21" s="34">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>-0.8371645682309552</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>-0.84929943666040741</v>
       </c>
       <c r="K21" s="34">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>4.9987308405740531</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>8.6015527652640671</v>
       </c>
       <c r="M21" s="34">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>0.5227927414761171</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>9.8619388457967805E-2</v>
       </c>
-      <c r="Q21" s="38" t="s">
+      <c r="O21" s="34">
+        <f t="shared" si="52"/>
+        <v>0.12249914500683956</v>
+      </c>
+      <c r="R21" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="23">
-        <f t="shared" ref="R21:U21" si="46">R3/Q3-1</f>
+      <c r="S21" s="23">
+        <f t="shared" ref="S21:V21" si="53">S3/R3-1</f>
         <v>8.744978674274595E-2</v>
       </c>
-      <c r="S21" s="23">
-        <f t="shared" si="46"/>
+      <c r="T21" s="23">
+        <f t="shared" si="53"/>
         <v>5.7735504703074536E-2</v>
       </c>
-      <c r="T21" s="23">
-        <f t="shared" si="46"/>
+      <c r="U21" s="23">
+        <f t="shared" si="53"/>
         <v>7.7529282941235067E-2</v>
       </c>
-      <c r="U21" s="23">
-        <f t="shared" si="46"/>
+      <c r="V21" s="23">
+        <f t="shared" si="53"/>
         <v>-0.38817035428888169</v>
       </c>
-      <c r="V21" s="23">
-        <f>V3/U3-1</f>
+      <c r="W21" s="23">
+        <f>W3/V3-1</f>
         <v>-9.5567047928227233E-2</v>
       </c>
-      <c r="W21" s="23">
-        <f t="shared" ref="W21" si="47">W3/V3-1</f>
+      <c r="X21" s="23">
+        <f t="shared" ref="X21" si="54">X3/W3-1</f>
         <v>1.6954144522663404</v>
       </c>
-      <c r="X21" s="136">
+      <c r="Y21" s="23">
+        <f t="shared" ref="Y21" si="55">Y3/X3-1</f>
+        <v>0.11015221352217641</v>
+      </c>
+      <c r="Z21" s="135">
         <v>0.11</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="AA21" s="23">
         <v>0.15</v>
       </c>
-      <c r="Z21" s="23">
+      <c r="AB21" s="23">
         <v>0.2</v>
       </c>
-      <c r="AA21" s="23">
+      <c r="AC21" s="23">
         <v>0.2</v>
       </c>
-      <c r="AB21" s="23">
+      <c r="AD21" s="23">
         <v>0.15</v>
       </c>
-      <c r="AC21" s="23">
+      <c r="AE21" s="23">
         <v>0.1</v>
       </c>
-      <c r="AD21" s="23">
+      <c r="AF21" s="23">
         <v>0.1</v>
       </c>
-      <c r="AE21" s="23">
+      <c r="AG21" s="23">
         <v>0.08</v>
       </c>
-      <c r="AF21" s="23">
+      <c r="AH21" s="23">
         <v>0.05</v>
       </c>
-      <c r="AG21" s="23">
+      <c r="AI21" s="23">
         <v>0.05</v>
-      </c>
-      <c r="AH21" s="23">
-        <v>0.02</v>
-      </c>
-      <c r="AI21" s="23">
-        <v>0.02</v>
       </c>
       <c r="AJ21" s="23">
         <v>0.02</v>
@@ -5086,16 +5282,22 @@
       <c r="AM21" s="23">
         <v>0.02</v>
       </c>
-      <c r="AO21" s="46" t="s">
+      <c r="AN21" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="AO21" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="AQ21" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="AP21" s="67">
+      <c r="AR21" s="66">
         <f>Main!C6</f>
-        <v>2.6949999999999998</v>
-      </c>
-      <c r="AQ21" s="49"/>
-    </row>
-    <row r="22" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.88</v>
+      </c>
+      <c r="AS21" s="49"/>
+    </row>
+    <row r="22" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
@@ -5104,39 +5306,40 @@
         <v>71</v>
       </c>
       <c r="G22" s="34">
-        <f t="shared" ref="G22" si="48">G3/F3-1</f>
+        <f t="shared" ref="G22" si="56">G3/F3-1</f>
         <v>-6.0994178235557306E-2</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:N22" si="49">H3/G3-1</f>
+        <f t="shared" ref="H22:O22" si="57">H3/G3-1</f>
         <v>0.10056594175251155</v>
       </c>
       <c r="I22" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>-0.85204391159901782</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>1.8549253148492095E-2</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>4.8894852870698742</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>0.63028724875905273</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>-6.5935930839647328E-2</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>0.17617134062927486</v>
       </c>
-      <c r="Q22" s="38" t="s">
-        <v>71</v>
+      <c r="O22" s="34">
+        <f t="shared" si="57"/>
+        <v>-4.563297350343487E-2</v>
       </c>
       <c r="R22" s="38" t="s">
         <v>71</v>
@@ -5156,13 +5359,13 @@
       <c r="W22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="X22" s="137"/>
+      <c r="X22" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="Y22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="Z22" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="Z22" s="136"/>
       <c r="AA22" s="38" t="s">
         <v>71</v>
       </c>
@@ -5202,15 +5405,21 @@
       <c r="AM22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AO22" s="48" t="s">
+      <c r="AN22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ22" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AP22" s="66">
-        <f>AP20/AP21-1</f>
-        <v>2.7034162148070249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR22" s="186">
+        <f>AR20/AR21-1</f>
+        <v>2.8609702463772693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="34"/>
       <c r="F23" s="38"/>
       <c r="G23" s="34"/>
@@ -5220,14 +5429,13 @@
       <c r="K23" s="34"/>
       <c r="L23" s="23"/>
       <c r="M23" s="34"/>
-      <c r="S23" s="38"/>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38"/>
       <c r="W23" s="38"/>
-      <c r="X23" s="137"/>
+      <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
+      <c r="Z23" s="136"/>
       <c r="AA23" s="38"/>
       <c r="AB23" s="38"/>
       <c r="AC23" s="38"/>
@@ -5240,8 +5448,17 @@
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
       <c r="AL23" s="38"/>
-    </row>
-    <row r="24" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AQ23" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR23" s="185">
+        <f>+AR20*Main!C7</f>
+        <v>1906.6549751389612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
         <v>144</v>
       </c>
@@ -5254,14 +5471,13 @@
       <c r="K24" s="34"/>
       <c r="L24" s="23"/>
       <c r="M24" s="34"/>
-      <c r="S24" s="38"/>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
-      <c r="X24" s="137"/>
+      <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
+      <c r="Z24" s="136"/>
       <c r="AA24" s="38"/>
       <c r="AB24" s="38"/>
       <c r="AC24" s="38"/>
@@ -5274,8 +5490,10 @@
       <c r="AJ24" s="38"/>
       <c r="AK24" s="38"/>
       <c r="AL24" s="38"/>
-    </row>
-    <row r="25" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+    </row>
+    <row r="25" spans="1:45" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>110</v>
       </c>
@@ -5291,30 +5509,36 @@
       <c r="N25" s="3">
         <v>69</v>
       </c>
-      <c r="O25" s="154"/>
-      <c r="Q25" s="3">
+      <c r="O25" s="61">
+        <f>+Y25</f>
+        <v>71</v>
+      </c>
+      <c r="P25" s="153"/>
+      <c r="R25" s="3">
         <v>54</v>
       </c>
-      <c r="R25" s="3">
+      <c r="S25" s="3">
         <v>58</v>
       </c>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10">
-        <f>SUM(T26:T28)</f>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10">
+        <f>SUM(U26:U28)</f>
         <v>60</v>
       </c>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10">
-        <f>SUM(V26:V28)</f>
-        <v>64</v>
-      </c>
+      <c r="V25" s="10"/>
       <c r="W25" s="10">
         <f>SUM(W26:W28)</f>
+        <v>64</v>
+      </c>
+      <c r="X25" s="10">
+        <f>SUM(X26:X28)</f>
         <v>67</v>
       </c>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
+      <c r="Y25" s="10">
+        <f>SUM(Y26:Y28)</f>
+        <v>71</v>
+      </c>
+      <c r="Z25" s="130"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
@@ -5327,13 +5551,15 @@
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-    </row>
-    <row r="26" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+    </row>
+    <row r="26" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
         <v>97</v>
       </c>
@@ -5346,20 +5572,25 @@
       <c r="K26" s="34"/>
       <c r="L26" s="23"/>
       <c r="M26" s="34"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38">
+      <c r="O26" s="25">
+        <f>+Y26</f>
+        <v>62</v>
+      </c>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38">
         <v>54</v>
       </c>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38">
+      <c r="V26" s="38"/>
+      <c r="W26" s="38">
         <v>56</v>
       </c>
-      <c r="W26" s="38">
+      <c r="X26" s="38">
         <v>59</v>
       </c>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
+      <c r="Y26" s="38">
+        <v>62</v>
+      </c>
+      <c r="Z26" s="136"/>
       <c r="AA26" s="38"/>
       <c r="AB26" s="38"/>
       <c r="AC26" s="38"/>
@@ -5372,22 +5603,31 @@
       <c r="AJ26" s="38"/>
       <c r="AK26" s="38"/>
       <c r="AL26" s="38"/>
-    </row>
-    <row r="27" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+    </row>
+    <row r="27" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="T27" s="1">
+      <c r="O27" s="25">
+        <f>+Y27</f>
+        <v>3</v>
+      </c>
+      <c r="U27" s="1">
         <v>6</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>5</v>
       </c>
-      <c r="W27" s="1">
+      <c r="X27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="51" t="s">
         <v>99</v>
       </c>
@@ -5403,254 +5643,287 @@
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
       <c r="N28" s="55"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="55"/>
+      <c r="O28" s="25">
+        <f>+Y28</f>
+        <v>6</v>
+      </c>
+      <c r="P28" s="156"/>
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52">
+      <c r="S28" s="55"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52">
         <v>0</v>
       </c>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52">
+      <c r="V28" s="52"/>
+      <c r="W28" s="52">
         <v>3</v>
       </c>
-      <c r="W28" s="52">
+      <c r="X28" s="52">
         <v>5</v>
       </c>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
+      <c r="Y28" s="52">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="137"/>
       <c r="AA28" s="55"/>
       <c r="AB28" s="55"/>
       <c r="AC28" s="55"/>
       <c r="AD28" s="55"/>
       <c r="AE28" s="55"/>
-    </row>
-    <row r="29" spans="1:43" s="72" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="73" t="s">
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="55"/>
+    </row>
+    <row r="29" spans="1:45" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="158" t="s">
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="81">
-        <f>Q3/Q25</f>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="80">
+        <f>R3/R25</f>
         <v>1.9407962962962964</v>
       </c>
-      <c r="R29" s="81">
-        <f t="shared" ref="R29:W29" si="50">R3/R25</f>
+      <c r="S29" s="80">
+        <f t="shared" ref="S29:Y29" si="58">S3/S25</f>
         <v>1.9649655172413794</v>
       </c>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81">
-        <f t="shared" si="50"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80">
+        <f t="shared" si="58"/>
         <v>2.1649000000000003</v>
       </c>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81">
-        <f t="shared" si="50"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80">
+        <f t="shared" si="58"/>
         <v>1.12309375</v>
       </c>
-      <c r="W29" s="81">
-        <f t="shared" si="50"/>
+      <c r="X29" s="80">
+        <f t="shared" si="58"/>
         <v>2.8916567164179106</v>
       </c>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
-    </row>
-    <row r="30" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="68" t="s">
+      <c r="Y29" s="80">
+        <f t="shared" si="58"/>
+        <v>3.0293239436619719</v>
+      </c>
+      <c r="Z29" s="138"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+    </row>
+    <row r="30" spans="1:45" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="36">
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="36">
         <v>12.1</v>
       </c>
-      <c r="R30" s="36">
+      <c r="S30" s="36">
         <v>13.1</v>
       </c>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="140"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-    </row>
-    <row r="31" spans="1:43" s="76" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="77" t="s">
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="68"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="68"/>
+      <c r="AF30" s="68"/>
+      <c r="AG30" s="68"/>
+    </row>
+    <row r="31" spans="1:45" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="O31" s="79"/>
-      <c r="Q31" s="80">
-        <f>Q3/Q30</f>
+      <c r="E31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="78"/>
+      <c r="R31" s="79">
+        <f>R3/R30</f>
         <v>8.6614049586776858</v>
       </c>
-      <c r="R31" s="80">
-        <f>R3/R30</f>
+      <c r="S31" s="79">
+        <f>S3/S30</f>
         <v>8.6998473282442745</v>
       </c>
-      <c r="X31" s="79"/>
-    </row>
-    <row r="32" spans="1:43" s="76" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="77"/>
-      <c r="E32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="O32" s="79"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="80"/>
-      <c r="X32" s="79"/>
-      <c r="Z32" s="76" t="s">
+      <c r="Z31" s="78"/>
+    </row>
+    <row r="32" spans="1:45" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="78"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="Z32" s="78"/>
+      <c r="AB32" s="75" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="143" t="s">
+    <row r="33" spans="1:26" s="141" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="O33" s="145"/>
-      <c r="Q33" s="142">
-        <f t="shared" ref="Q33:V33" si="51">SUM(Q34:Q36)</f>
+      <c r="E33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="144"/>
+      <c r="R33" s="141">
+        <f t="shared" ref="R33:W33" si="59">SUM(R34:R36)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="142">
-        <f t="shared" si="51"/>
+      <c r="S33" s="141">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="S33" s="142">
-        <f t="shared" si="51"/>
+      <c r="T33" s="141">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="T33" s="142">
-        <f t="shared" si="51"/>
+      <c r="U33" s="141">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="U33" s="142">
-        <f t="shared" si="51"/>
+      <c r="V33" s="141">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="V33" s="142">
-        <f t="shared" si="51"/>
+      <c r="W33" s="141">
+        <f t="shared" si="59"/>
         <v>1787</v>
       </c>
-      <c r="W33" s="142">
-        <f>SUM(W34:W36)</f>
+      <c r="X33" s="141">
+        <f>SUM(X34:X36)</f>
         <v>2530</v>
       </c>
-      <c r="X33" s="145"/>
-    </row>
-    <row r="34" spans="1:24" s="146" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="147" t="s">
+      <c r="Y33" s="141">
+        <f>SUM(Y34:Y36)</f>
+        <v>2787</v>
+      </c>
+      <c r="Z33" s="144"/>
+    </row>
+    <row r="34" spans="1:26" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="146" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="O34" s="149"/>
-      <c r="V34" s="146">
+      <c r="E34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="M34" s="147"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="148"/>
+      <c r="W34" s="145">
         <v>6</v>
       </c>
-      <c r="W34" s="146">
+      <c r="X34" s="145">
         <v>7</v>
       </c>
-      <c r="X34" s="149"/>
-    </row>
-    <row r="35" spans="1:24" s="146" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="147" t="s">
+      <c r="Y34" s="145">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="148"/>
+    </row>
+    <row r="35" spans="1:26" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="M35" s="148"/>
-      <c r="O35" s="149"/>
-      <c r="V35" s="146">
+      <c r="E35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="M35" s="147"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="148"/>
+      <c r="W35" s="145">
         <v>58</v>
       </c>
-      <c r="W35" s="146">
+      <c r="X35" s="145">
         <v>91</v>
       </c>
-      <c r="X35" s="149"/>
-    </row>
-    <row r="36" spans="1:24" s="150" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="147" t="s">
+      <c r="Y35" s="145">
+        <v>112</v>
+      </c>
+      <c r="Z35" s="148"/>
+    </row>
+    <row r="36" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="O36" s="160"/>
-      <c r="V36" s="150">
+      <c r="E36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="M36" s="150"/>
+      <c r="O36" s="150"/>
+      <c r="P36" s="159"/>
+      <c r="W36" s="149">
         <v>1723</v>
       </c>
-      <c r="W36" s="150">
+      <c r="X36" s="149">
         <v>2432</v>
       </c>
-      <c r="X36" s="149"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y36" s="149">
+        <v>2668</v>
+      </c>
+      <c r="Z36" s="148"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
@@ -5664,15 +5937,18 @@
       <c r="N39" s="27">
         <v>74.733999999999995</v>
       </c>
-      <c r="V39" s="14">
+      <c r="W39" s="14">
         <v>49.036000000000001</v>
       </c>
-      <c r="W39" s="14">
+      <c r="X39" s="14">
         <v>68.641000000000005</v>
       </c>
-      <c r="X39" s="134"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="14">
+        <v>78.278999999999996</v>
+      </c>
+      <c r="Z39" s="133"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
@@ -5686,15 +5962,18 @@
       <c r="N40" s="27">
         <v>150.56299999999999</v>
       </c>
-      <c r="V40" s="14">
+      <c r="W40" s="14">
         <v>132.34200000000001</v>
       </c>
-      <c r="W40" s="14">
+      <c r="X40" s="14">
         <v>147.45500000000001</v>
       </c>
-      <c r="X40" s="134"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="14">
+        <v>150.81100000000001</v>
+      </c>
+      <c r="Z40" s="133"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
@@ -5708,15 +5987,18 @@
       <c r="N41" s="27">
         <v>88.628</v>
       </c>
-      <c r="V41" s="14">
+      <c r="W41" s="14">
         <v>77.947999999999993</v>
       </c>
-      <c r="W41" s="14">
+      <c r="X41" s="14">
         <v>81.793999999999997</v>
       </c>
-      <c r="X41" s="134"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="14">
+        <v>89.376000000000005</v>
+      </c>
+      <c r="Z41" s="133"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
@@ -5730,15 +6012,18 @@
       <c r="N42" s="27">
         <v>0.29799999999999999</v>
       </c>
-      <c r="V42" s="14">
+      <c r="W42" s="14">
         <v>6.29</v>
       </c>
-      <c r="W42" s="14">
+      <c r="X42" s="14">
         <v>1.647</v>
       </c>
-      <c r="X42" s="134"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="14">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="Z42" s="133"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
@@ -5755,17 +6040,21 @@
         <f>SUM(N39:N42)</f>
         <v>314.22299999999996</v>
       </c>
-      <c r="V43" s="14">
-        <f>SUM(V39:V42)</f>
-        <v>265.61600000000004</v>
-      </c>
       <c r="W43" s="14">
         <f>SUM(W39:W42)</f>
+        <v>265.61600000000004</v>
+      </c>
+      <c r="X43" s="14">
+        <f>SUM(X39:X42)</f>
         <v>299.53699999999998</v>
       </c>
-      <c r="X43" s="134"/>
-    </row>
-    <row r="44" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y43" s="14">
+        <f>SUM(Y39:Y42)</f>
+        <v>319.77500000000003</v>
+      </c>
+      <c r="Z43" s="133"/>
+    </row>
+    <row r="44" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -5783,16 +6072,20 @@
       <c r="N44" s="36">
         <v>44.149000000000001</v>
       </c>
-      <c r="O44" s="154"/>
-      <c r="V44" s="12">
+      <c r="O44" s="61"/>
+      <c r="P44" s="153"/>
+      <c r="W44" s="12">
         <v>29.942</v>
       </c>
-      <c r="W44" s="12">
+      <c r="X44" s="12">
         <v>56.066000000000003</v>
       </c>
-      <c r="X44" s="133"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="12">
+        <v>52.454999999999998</v>
+      </c>
+      <c r="Z44" s="132"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="1" t="s">
         <v>54</v>
@@ -5807,15 +6100,18 @@
       <c r="N45" s="27">
         <v>5.8979999999999997</v>
       </c>
-      <c r="V45" s="14">
+      <c r="W45" s="14">
         <v>3.3</v>
       </c>
-      <c r="W45" s="14">
+      <c r="X45" s="14">
         <v>5.13</v>
       </c>
-      <c r="X45" s="134"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="14">
+        <v>8.1159999999999997</v>
+      </c>
+      <c r="Z45" s="133"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
         <v>55</v>
@@ -5830,15 +6126,18 @@
       <c r="N46" s="27">
         <v>0</v>
       </c>
-      <c r="V46" s="14">
+      <c r="W46" s="14">
         <v>0.65</v>
       </c>
-      <c r="W46" s="14">
+      <c r="X46" s="14">
         <v>0.27100000000000002</v>
       </c>
-      <c r="X46" s="134"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="14">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="Z46" s="133"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="1" t="s">
         <v>56</v>
@@ -5853,15 +6152,18 @@
       <c r="N47" s="27">
         <v>2.6389999999999998</v>
       </c>
-      <c r="V47" s="14">
+      <c r="W47" s="14">
         <v>1.4610000000000001</v>
       </c>
-      <c r="W47" s="14">
+      <c r="X47" s="14">
         <v>2.1480000000000001</v>
       </c>
-      <c r="X47" s="134"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="14">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="Z47" s="133"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
@@ -5878,22 +6180,26 @@
         <f>N43+N44+N45+N46+N47</f>
         <v>366.90899999999999</v>
       </c>
-      <c r="V48" s="14">
-        <f>SUM(V44:V47)+V43</f>
-        <v>300.96900000000005</v>
-      </c>
       <c r="W48" s="14">
         <f>SUM(W44:W47)+W43</f>
+        <v>300.96900000000005</v>
+      </c>
+      <c r="X48" s="14">
+        <f>SUM(X44:X47)+X43</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="X48" s="134"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="14">
+        <f>SUM(Y44:Y47)+Y43</f>
+        <v>383.50600000000003</v>
+      </c>
+      <c r="Z48" s="133"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="31"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
         <v>58</v>
@@ -5908,15 +6214,18 @@
       <c r="N50" s="1">
         <v>25.984000000000002</v>
       </c>
-      <c r="V50" s="14">
+      <c r="W50" s="14">
         <v>18.141999999999999</v>
       </c>
-      <c r="W50" s="14">
+      <c r="X50" s="14">
         <v>28.681000000000001</v>
       </c>
-      <c r="X50" s="134"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="14">
+        <v>29.109000000000002</v>
+      </c>
+      <c r="Z50" s="133"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="1" t="s">
         <v>59</v>
@@ -5931,15 +6240,18 @@
       <c r="N51" s="1">
         <v>11.91</v>
       </c>
-      <c r="V51" s="14">
+      <c r="W51" s="14">
         <v>13.811</v>
       </c>
-      <c r="W51" s="14">
+      <c r="X51" s="14">
         <v>11.557</v>
       </c>
-      <c r="X51" s="134"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="14">
+        <v>12.553000000000001</v>
+      </c>
+      <c r="Z51" s="133"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="1" t="s">
         <v>40</v>
@@ -5954,15 +6266,18 @@
       <c r="N52" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="V52" s="14">
-        <v>0</v>
-      </c>
       <c r="W52" s="14">
         <v>0</v>
       </c>
-      <c r="X52" s="134"/>
-    </row>
-    <row r="53" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X52" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="133"/>
+    </row>
+    <row r="53" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
@@ -5980,16 +6295,20 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="154"/>
-      <c r="V53" s="12">
-        <v>0</v>
-      </c>
+      <c r="O53" s="61"/>
+      <c r="P53" s="153"/>
       <c r="W53" s="12">
         <v>0</v>
       </c>
-      <c r="X53" s="133"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="132"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
         <v>61</v>
@@ -6007,17 +6326,21 @@
         <f>SUM(N50:N53)</f>
         <v>37.99</v>
       </c>
-      <c r="V54" s="14">
-        <f>SUM(V50:V53)</f>
-        <v>31.952999999999999</v>
-      </c>
       <c r="W54" s="14">
         <f>SUM(W50:W53)</f>
+        <v>31.952999999999999</v>
+      </c>
+      <c r="X54" s="14">
+        <f>SUM(X50:X53)</f>
         <v>40.238</v>
       </c>
-      <c r="X54" s="134"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="14">
+        <f>SUM(Y50:Y53)</f>
+        <v>41.662000000000006</v>
+      </c>
+      <c r="Z54" s="133"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>62</v>
       </c>
@@ -6031,15 +6354,18 @@
       <c r="N55" s="1">
         <v>3.8660000000000001</v>
       </c>
-      <c r="V55" s="14">
+      <c r="W55" s="14">
         <v>0.56499999999999995</v>
       </c>
-      <c r="W55" s="14">
+      <c r="X55" s="14">
         <v>3</v>
       </c>
-      <c r="X55" s="134"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="14">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Z55" s="133"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>59</v>
       </c>
@@ -6053,15 +6379,18 @@
       <c r="N56" s="1">
         <v>180.39599999999999</v>
       </c>
-      <c r="V56" s="14">
+      <c r="W56" s="14">
         <v>160.12899999999999</v>
       </c>
-      <c r="W56" s="14">
+      <c r="X56" s="14">
         <v>176.81200000000001</v>
       </c>
-      <c r="X56" s="134"/>
-    </row>
-    <row r="57" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y56" s="14">
+        <v>181.65199999999999</v>
+      </c>
+      <c r="Z56" s="133"/>
+    </row>
+    <row r="57" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>60</v>
       </c>
@@ -6079,16 +6408,20 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="154"/>
-      <c r="V57" s="12">
-        <v>0</v>
-      </c>
+      <c r="O57" s="61"/>
+      <c r="P57" s="153"/>
       <c r="W57" s="12">
         <v>0</v>
       </c>
-      <c r="X57" s="133"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="Z57" s="132"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="1" t="s">
         <v>63</v>
@@ -6103,15 +6436,18 @@
       <c r="N58" s="1">
         <v>5.2969999999999997</v>
       </c>
-      <c r="V58" s="14">
+      <c r="W58" s="14">
         <v>3.6349999999999998</v>
       </c>
-      <c r="W58" s="14">
+      <c r="X58" s="14">
         <v>4.6820000000000004</v>
       </c>
-      <c r="X58" s="134"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="14">
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="Z58" s="133"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>64</v>
       </c>
@@ -6128,20 +6464,24 @@
         <f>N54+N55+N56+N57+N58</f>
         <v>227.54899999999998</v>
       </c>
-      <c r="V59" s="14">
-        <f>V54+V55+V56+V57+V58</f>
-        <v>196.28199999999998</v>
-      </c>
       <c r="W59" s="14">
         <f>W54+W55+W56+W57+W58</f>
+        <v>196.28199999999998</v>
+      </c>
+      <c r="X59" s="14">
+        <f>X54+X55+X56+X57+X58</f>
         <v>224.732</v>
       </c>
-      <c r="X59" s="134"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="14">
+        <f>Y54+Y55+Y56+Y57+Y58</f>
+        <v>235.566</v>
+      </c>
+      <c r="Z59" s="133"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H60" s="14"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
@@ -6155,15 +6495,18 @@
       <c r="N61" s="14">
         <v>139.387</v>
       </c>
-      <c r="V61" s="14">
+      <c r="W61" s="14">
         <v>104.687</v>
       </c>
-      <c r="W61" s="14">
+      <c r="X61" s="14">
         <v>138.41999999999999</v>
       </c>
-      <c r="X61" s="134"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="14">
+        <v>147.94</v>
+      </c>
+      <c r="Z61" s="133"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
@@ -6180,17 +6523,21 @@
         <f>N59+N61</f>
         <v>366.93599999999998</v>
       </c>
-      <c r="V62" s="14">
-        <f>V61+V59</f>
-        <v>300.96899999999999</v>
-      </c>
       <c r="W62" s="14">
         <f>W61+W59</f>
+        <v>300.96899999999999</v>
+      </c>
+      <c r="X62" s="14">
+        <f>X61+X59</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="X62" s="134"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="14">
+        <f>Y61+Y59</f>
+        <v>383.50599999999997</v>
+      </c>
+      <c r="Z62" s="133"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>131</v>
       </c>
@@ -6207,17 +6554,21 @@
         <f>N48-N59</f>
         <v>139.36000000000001</v>
       </c>
-      <c r="V64" s="14">
-        <f t="shared" ref="V64:W64" si="52">V48-V59</f>
+      <c r="W64" s="14">
+        <f t="shared" ref="W64:X64" si="60">W48-W59</f>
         <v>104.68700000000007</v>
       </c>
-      <c r="W64" s="14">
-        <f t="shared" si="52"/>
+      <c r="X64" s="14">
+        <f t="shared" si="60"/>
         <v>138.41999999999999</v>
       </c>
-      <c r="X64" s="134"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="14">
+        <f t="shared" ref="Y64" si="61">Y48-Y59</f>
+        <v>147.94000000000003</v>
+      </c>
+      <c r="Z64" s="133"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="1" t="s">
         <v>132</v>
@@ -6234,68 +6585,80 @@
         <f>N64/N14</f>
         <v>0.81391234576365445</v>
       </c>
-      <c r="V65" s="1">
-        <f t="shared" ref="V65:W65" si="53">V64/V14</f>
+      <c r="W65" s="1">
+        <f t="shared" ref="W65:X65" si="62">W64/W14</f>
         <v>0.63597840274765649</v>
       </c>
-      <c r="W65" s="1">
-        <f t="shared" si="53"/>
+      <c r="X65" s="1">
+        <f t="shared" si="62"/>
         <v>0.80971382354881549</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="1">
+        <f t="shared" ref="Y65" si="63">Y64/Y14</f>
+        <v>0.86278472172836618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H67" s="14">
-        <f t="shared" ref="H67" si="54">H44</f>
+        <f t="shared" ref="H67" si="64">H44</f>
         <v>15.635999999999999</v>
       </c>
       <c r="L67" s="14">
-        <f t="shared" ref="L67:N67" si="55">L44</f>
+        <f t="shared" ref="L67:N67" si="65">L44</f>
         <v>49.576999999999998</v>
       </c>
       <c r="N67" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>44.149000000000001</v>
       </c>
-      <c r="V67" s="14">
-        <f t="shared" ref="V67" si="56">V44</f>
+      <c r="W67" s="14">
+        <f t="shared" ref="W67" si="66">W44</f>
         <v>29.942</v>
       </c>
-      <c r="W67" s="14">
-        <f>W44</f>
+      <c r="X67" s="14">
+        <f>X44</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="X67" s="134"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="14">
+        <f t="shared" ref="Y67" si="67">Y44</f>
+        <v>52.454999999999998</v>
+      </c>
+      <c r="Z67" s="133"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H68" s="14">
-        <f t="shared" ref="H68" si="57">H53+H57</f>
+        <f t="shared" ref="H68" si="68">H53+H57</f>
         <v>30.073</v>
       </c>
       <c r="L68" s="14">
-        <f t="shared" ref="L68:N68" si="58">L53+L57</f>
+        <f t="shared" ref="L68:N68" si="69">L53+L57</f>
         <v>0</v>
       </c>
       <c r="N68" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="V68" s="14">
-        <f t="shared" ref="V68" si="59">V53+V57</f>
+      <c r="W68" s="14">
+        <f t="shared" ref="W68" si="70">W53+W57</f>
         <v>0</v>
       </c>
-      <c r="W68" s="14">
-        <f>W53+W57</f>
+      <c r="X68" s="14">
+        <f>X53+X57</f>
         <v>0</v>
       </c>
-      <c r="X68" s="134"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="14">
+        <f t="shared" ref="Y68" si="71">Y53+Y57</f>
+        <v>1.96</v>
+      </c>
+      <c r="Z68" s="133"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
@@ -6311,17 +6674,21 @@
         <f>N67-N68</f>
         <v>44.149000000000001</v>
       </c>
-      <c r="V69" s="14">
-        <f>V67-V68</f>
-        <v>29.942</v>
-      </c>
       <c r="W69" s="14">
         <f>W67-W68</f>
+        <v>29.942</v>
+      </c>
+      <c r="X69" s="14">
+        <f>X67-X68</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="X69" s="134"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="14">
+        <f t="shared" ref="Y69" si="72">Y67-Y68</f>
+        <v>50.494999999999997</v>
+      </c>
+      <c r="Z69" s="133"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
@@ -6334,40 +6701,47 @@
       <c r="N71" s="1">
         <v>2.3014000000000001</v>
       </c>
-      <c r="V71" s="1">
+      <c r="W71" s="1">
         <v>2.395</v>
       </c>
-      <c r="W71" s="1">
+      <c r="X71" s="1">
         <v>1.8740000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="1">
+        <v>2.4750000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="27">
-        <f t="shared" ref="H72" si="60">H71*H14</f>
+        <f t="shared" ref="H72" si="73">H71*H14</f>
         <v>222.55491928799998</v>
       </c>
       <c r="L72" s="27">
-        <f t="shared" ref="L72:N72" si="61">L71*L14</f>
+        <f t="shared" ref="L72:N72" si="74">L71*L14</f>
         <v>408.36618902800001</v>
       </c>
       <c r="N72" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>394.05116001659997</v>
       </c>
-      <c r="V72" s="27">
-        <f t="shared" ref="V72" si="62">V71*V14</f>
+      <c r="W72" s="27">
+        <f t="shared" ref="W72" si="75">W71*W14</f>
         <v>394.23565944500001</v>
       </c>
-      <c r="W72" s="27">
-        <f>W71*W14</f>
+      <c r="X72" s="27">
+        <f>X71*X14</f>
         <v>320.358961964</v>
       </c>
-      <c r="X72" s="135"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="27">
+        <f t="shared" ref="Y72" si="76">Y71*Y14</f>
+        <v>424.38338414999998</v>
+      </c>
+      <c r="Z72" s="134"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
@@ -6383,112 +6757,138 @@
         <f>N72-N69</f>
         <v>349.90216001659996</v>
       </c>
-      <c r="V73" s="27">
-        <f>V72-V69</f>
-        <v>364.293659445</v>
-      </c>
       <c r="W73" s="27">
         <f>W72-W69</f>
+        <v>364.293659445</v>
+      </c>
+      <c r="X73" s="27">
+        <f>X72-X69</f>
         <v>264.29296196400003</v>
       </c>
-      <c r="X73" s="135"/>
-    </row>
-    <row r="75" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="93" t="s">
+      <c r="Y73" s="27">
+        <f t="shared" ref="Y73" si="77">Y72-Y69</f>
+        <v>373.88838414999998</v>
+      </c>
+      <c r="Z73" s="134"/>
+    </row>
+    <row r="75" spans="1:26" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="93">
+      <c r="E75" s="93"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="92">
         <f>H71/H65</f>
         <v>2.9348804484709379</v>
       </c>
-      <c r="I75" s="94"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="93">
+      <c r="I75" s="93"/>
+      <c r="K75" s="93"/>
+      <c r="L75" s="92">
         <f>L71/L65</f>
         <v>3.0907563975629149</v>
       </c>
-      <c r="M75" s="94"/>
-      <c r="N75" s="93">
+      <c r="M75" s="93"/>
+      <c r="N75" s="92">
         <f>N71/N65</f>
         <v>2.827577210222445</v>
       </c>
-      <c r="O75" s="161"/>
-      <c r="V75" s="93">
-        <f t="shared" ref="V75" si="63">V71/V65</f>
+      <c r="O75" s="93"/>
+      <c r="P75" s="160"/>
+      <c r="W75" s="92">
+        <f t="shared" ref="W75" si="78">W71/W65</f>
         <v>3.7658511510025101</v>
       </c>
-      <c r="W75" s="93">
-        <f>W71/W65</f>
+      <c r="X75" s="92">
+        <f>X71/X65</f>
         <v>2.3143979335645142</v>
       </c>
-      <c r="X75" s="141"/>
-    </row>
-    <row r="76" spans="1:24" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="95"/>
-      <c r="B76" s="96" t="s">
+      <c r="Y75" s="92">
+        <f t="shared" ref="Y75" si="79">Y71/Y65</f>
+        <v>2.8686182516560761</v>
+      </c>
+      <c r="Z75" s="140"/>
+    </row>
+    <row r="76" spans="1:26" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="94"/>
+      <c r="B76" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="K76" s="97"/>
-      <c r="M76" s="97"/>
-      <c r="O76" s="162"/>
-      <c r="V76" s="93">
-        <f t="shared" ref="V76" si="64">V72/V3</f>
+      <c r="E76" s="96"/>
+      <c r="G76" s="96"/>
+      <c r="I76" s="96"/>
+      <c r="K76" s="96"/>
+      <c r="M76" s="96"/>
+      <c r="O76" s="96"/>
+      <c r="P76" s="161"/>
+      <c r="W76" s="92">
+        <f t="shared" ref="W76" si="80">W72/W3</f>
         <v>5.4847889402181478</v>
       </c>
-      <c r="W76" s="93">
-        <f>W72/W3</f>
+      <c r="X76" s="92">
+        <f>X72/X3</f>
         <v>1.6535424198491799</v>
       </c>
-      <c r="X76" s="141"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="92">
+        <f t="shared" ref="Y76" si="81">Y72/Y3</f>
+        <v>1.9731236651602644</v>
+      </c>
+      <c r="Z76" s="140"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="V77" s="93">
-        <f t="shared" ref="V77" si="65">V73/V3</f>
+      <c r="W77" s="92">
+        <f t="shared" ref="W77" si="82">W73/W3</f>
         <v>5.0682219795347674</v>
       </c>
-      <c r="W77" s="93">
-        <f>W73/W3</f>
+      <c r="X77" s="92">
+        <f>X73/X3</f>
         <v>1.3641560741608643</v>
       </c>
-      <c r="X77" s="141"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="92">
+        <f t="shared" ref="Y77" si="83">Y73/Y3</f>
+        <v>1.7383527405826615</v>
+      </c>
+      <c r="Z77" s="140"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="V78" s="93">
-        <f t="shared" ref="V78" si="66">V71/V13</f>
+      <c r="W78" s="92">
+        <f t="shared" ref="W78" si="84">W71/W13</f>
         <v>228.14563625289284</v>
       </c>
-      <c r="W78" s="93">
-        <f>W71/W13</f>
+      <c r="X78" s="92">
+        <f>X71/X13</f>
         <v>8.554082987476967</v>
       </c>
-      <c r="X78" s="141"/>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y78" s="92">
+        <f t="shared" ref="Y78" si="85">Y71/Y13</f>
+        <v>12.426675182278707</v>
+      </c>
+      <c r="Z78" s="140"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="V79" s="93">
-        <f t="shared" ref="V79" si="67">V73/V12</f>
+      <c r="W79" s="92">
+        <f t="shared" ref="W79" si="86">W73/W12</f>
         <v>210.81808995659659</v>
       </c>
-      <c r="W79" s="93">
-        <f>W73/W12</f>
+      <c r="X79" s="92">
+        <f>X73/X12</f>
         <v>7.0570335094924017</v>
       </c>
-      <c r="X79" s="141"/>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y79" s="92">
+        <f t="shared" ref="Y79" si="87">Y73/Y12</f>
+        <v>10.948094760036312</v>
+      </c>
+      <c r="Z79" s="140"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>143</v>
       </c>
@@ -6502,21 +6902,22 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{B9683B42-B241-4D1D-8CE0-7A17859DA76B}"/>
-    <hyperlink ref="V1" r:id="rId2" xr:uid="{05878C96-F10F-4982-ACE4-FF132CF4E29A}"/>
-    <hyperlink ref="T1" r:id="rId3" xr:uid="{6765EA13-C896-4C06-BD01-2D2BC5D2014C}"/>
+    <hyperlink ref="W1" r:id="rId2" xr:uid="{05878C96-F10F-4982-ACE4-FF132CF4E29A}"/>
+    <hyperlink ref="U1" r:id="rId3" xr:uid="{6765EA13-C896-4C06-BD01-2D2BC5D2014C}"/>
     <hyperlink ref="H1" r:id="rId4" xr:uid="{D3D9ED60-186F-274D-93DB-4D868CA2340E}"/>
-    <hyperlink ref="R1" r:id="rId5" xr:uid="{9260496C-E59A-0143-BDFB-5C62E2643276}"/>
-    <hyperlink ref="W1" r:id="rId6" xr:uid="{D7D97D6D-2030-4F4C-B5FB-6BFE0FD9DC61}"/>
+    <hyperlink ref="S1" r:id="rId5" xr:uid="{9260496C-E59A-0143-BDFB-5C62E2643276}"/>
+    <hyperlink ref="X1" r:id="rId6" xr:uid="{D7D97D6D-2030-4F4C-B5FB-6BFE0FD9DC61}"/>
     <hyperlink ref="N1" r:id="rId7" xr:uid="{FC756CF2-3D82-4D5D-9DD4-F7502A0327A9}"/>
+    <hyperlink ref="Y1" r:id="rId8" xr:uid="{F32AE00E-F68C-4DC8-A21B-34B62D129557}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
   <ignoredErrors>
-    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 X12 Y11:AM11" formula="1"/>
-    <ignoredError sqref="X6" formulaRange="1"/>
+    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 Z12 AA11:AO11 O5:O11" formula="1"/>
+    <ignoredError sqref="Z6" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <drawing r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -6531,9 +6932,9 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="2" max="2" width="9.140625" style="115"/>
+    <col min="2" max="2" width="9.140625" style="114"/>
     <col min="3" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="115"/>
+    <col min="18" max="18" width="9.140625" style="114"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6541,13 +6942,13 @@
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="98" t="s">
         <v>19</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="116" t="s">
+      <c r="R1" s="115" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6555,13 +6956,13 @@
       <c r="A2" s="35">
         <v>44834</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>67</v>
       </c>
       <c r="Q2" s="22">
         <v>44834</v>
       </c>
-      <c r="R2" s="117" t="s">
+      <c r="R2" s="116" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6569,13 +6970,13 @@
       <c r="A3" s="30">
         <v>93.568000000000012</v>
       </c>
-      <c r="B3" s="101">
+      <c r="B3" s="100">
         <v>158.58780000000002</v>
       </c>
       <c r="Q3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="R3" s="118">
+      <c r="R3" s="117">
         <v>258.76080000000002</v>
       </c>
     </row>
@@ -6583,13 +6984,13 @@
       <c r="A4" s="31">
         <v>15.750999999999999</v>
       </c>
-      <c r="B4" s="102">
+      <c r="B4" s="101">
         <v>22.585512000000008</v>
       </c>
       <c r="Q4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="R4" s="119">
+      <c r="R4" s="118">
         <v>36.226512000000007</v>
       </c>
     </row>
@@ -6597,13 +6998,13 @@
       <c r="A5" s="30">
         <v>77.817000000000007</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="102">
         <v>136.00228800000002</v>
       </c>
       <c r="Q5" s="12">
         <v>164.34900000000002</v>
       </c>
-      <c r="R5" s="120">
+      <c r="R5" s="119">
         <v>222.534288</v>
       </c>
     </row>
@@ -6611,13 +7012,13 @@
       <c r="A6" s="31">
         <v>3.9E-2</v>
       </c>
-      <c r="B6" s="102">
+      <c r="B6" s="101">
         <v>0.4</v>
       </c>
       <c r="Q6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="R6" s="115">
+      <c r="R6" s="114">
         <v>0.4</v>
       </c>
     </row>
@@ -6625,13 +7026,13 @@
       <c r="A7" s="31">
         <v>60.022999999999996</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="101">
         <v>84.6045728</v>
       </c>
       <c r="Q7" s="14">
         <v>108.93899999999999</v>
       </c>
-      <c r="R7" s="119">
+      <c r="R7" s="118">
         <v>133.5205728</v>
       </c>
     </row>
@@ -6639,13 +7040,13 @@
       <c r="A8" s="30">
         <v>17.833000000000013</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="102">
         <v>51.797715200000027</v>
       </c>
       <c r="Q8" s="12">
         <v>55.449000000000012</v>
       </c>
-      <c r="R8" s="120">
+      <c r="R8" s="119">
         <v>89.413715200000013</v>
       </c>
     </row>
@@ -6653,13 +7054,13 @@
       <c r="A9" s="31">
         <v>4.6049999999999986</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="101">
         <v>-1.0790000000000002</v>
       </c>
       <c r="Q9" s="14">
         <v>8.7839999999999989</v>
       </c>
-      <c r="R9" s="119">
+      <c r="R9" s="118">
         <v>3.1</v>
       </c>
     </row>
@@ -6667,13 +7068,13 @@
       <c r="A10" s="31">
         <v>13.228000000000014</v>
       </c>
-      <c r="B10" s="104">
+      <c r="B10" s="103">
         <v>52.876715200000028</v>
       </c>
       <c r="Q10" s="14">
         <v>46.665000000000013</v>
       </c>
-      <c r="R10" s="121">
+      <c r="R10" s="120">
         <v>86.313715200000019</v>
       </c>
     </row>
@@ -6681,13 +7082,13 @@
       <c r="A11" s="31">
         <v>2.8020000000000005</v>
       </c>
-      <c r="B11" s="102">
+      <c r="B11" s="101">
         <v>3.9384320000000015</v>
       </c>
       <c r="Q11" s="14">
         <v>9.2140000000000004</v>
       </c>
-      <c r="R11" s="119">
+      <c r="R11" s="118">
         <v>10.350432000000001</v>
       </c>
     </row>
@@ -6695,13 +7096,13 @@
       <c r="A12" s="30">
         <v>10.426000000000013</v>
       </c>
-      <c r="B12" s="103">
+      <c r="B12" s="102">
         <v>48.938283200000029</v>
       </c>
       <c r="Q12" s="12">
         <v>37.451000000000015</v>
       </c>
-      <c r="R12" s="120">
+      <c r="R12" s="119">
         <v>75.963283200000021</v>
       </c>
     </row>
@@ -6709,14 +7110,14 @@
       <c r="A13" s="33">
         <v>6.0988847885565384E-2</v>
       </c>
-      <c r="B13" s="105">
+      <c r="B13" s="104">
         <v>0.29730235065240646</v>
       </c>
       <c r="P13" s="23"/>
       <c r="Q13" s="26">
         <v>0.21907666815291649</v>
       </c>
-      <c r="R13" s="122">
+      <c r="R13" s="121">
         <v>0.46148048484533777</v>
       </c>
     </row>
@@ -6724,30 +7125,30 @@
       <c r="A14" s="32">
         <v>170.949286</v>
       </c>
-      <c r="B14" s="102">
+      <c r="B14" s="101">
         <v>164.60779099999999</v>
       </c>
       <c r="Q14" s="27">
         <v>170.949286</v>
       </c>
-      <c r="R14" s="119">
+      <c r="R14" s="118">
         <v>164.60779099999999</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="106"/>
+      <c r="B15" s="105"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>0.83166253419972636</v>
       </c>
-      <c r="B16" s="107">
+      <c r="B16" s="106">
         <v>0.857583546779765</v>
       </c>
       <c r="Q16" s="23">
         <v>0.84829230777171583</v>
       </c>
-      <c r="R16" s="123">
+      <c r="R16" s="122">
         <v>0.86</v>
       </c>
     </row>
@@ -6755,13 +7156,13 @@
       <c r="A17" s="34">
         <v>0.19058866279069778</v>
       </c>
-      <c r="B17" s="107">
+      <c r="B17" s="106">
         <v>0.32661853686096926</v>
       </c>
       <c r="Q17" s="23">
         <v>0.28620168162650139</v>
       </c>
-      <c r="R17" s="123">
+      <c r="R17" s="122">
         <v>0.34554582919824023</v>
       </c>
     </row>
@@ -6769,13 +7170,13 @@
       <c r="A18" s="34">
         <v>0.11142698358413144</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="106">
         <v>0.3085879443437643</v>
       </c>
       <c r="Q18" s="23">
         <v>0.19330446317506367</v>
       </c>
-      <c r="R18" s="123">
+      <c r="R18" s="122">
         <v>0.29356565291187853</v>
       </c>
     </row>
@@ -6783,30 +7184,30 @@
       <c r="A19" s="34">
         <v>0.21182340489869955</v>
       </c>
-      <c r="B19" s="107">
+      <c r="B19" s="106">
         <v>7.4483295437383745E-2</v>
       </c>
       <c r="Q19" s="23">
         <v>0.19744990892531872</v>
       </c>
-      <c r="R19" s="123">
+      <c r="R19" s="122">
         <v>0.11991642320130369</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
+      <c r="B20" s="105"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <v>0.5227927414761171</v>
       </c>
-      <c r="B21" s="107">
+      <c r="B21" s="106">
         <v>1.5809716006184393</v>
       </c>
       <c r="Q21" s="23">
         <v>1.6954144522663404</v>
       </c>
-      <c r="R21" s="123">
+      <c r="R21" s="122">
         <v>2.6</v>
       </c>
     </row>
@@ -6814,222 +7215,222 @@
       <c r="A22" s="34">
         <v>-6.5935930839647328E-2</v>
       </c>
-      <c r="B22" s="107">
+      <c r="B22" s="106">
         <v>0.58313916923721965</v>
       </c>
       <c r="Q22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="R22" s="124" t="s">
+      <c r="R22" s="123" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
-      <c r="B23" s="107"/>
+      <c r="B23" s="106"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="124"/>
+      <c r="R23" s="123"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
-      <c r="B24" s="107"/>
+      <c r="B24" s="106"/>
       <c r="Q24" s="38"/>
-      <c r="R24" s="124"/>
+      <c r="R24" s="123"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
-      <c r="B25" s="108"/>
+      <c r="B25" s="107"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="116"/>
+      <c r="R25" s="115"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
-      <c r="B26" s="107"/>
+      <c r="B26" s="106"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="124"/>
+      <c r="R26" s="123"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="106"/>
+      <c r="B27" s="105"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
-      <c r="B28" s="109"/>
+      <c r="B28" s="108"/>
       <c r="Q28" s="52"/>
-      <c r="R28" s="125"/>
+      <c r="R28" s="124"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
-      <c r="B29" s="110"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="126"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="109"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="125"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="70"/>
-      <c r="B30" s="111"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="127"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="110"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="126"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="78"/>
-      <c r="B31" s="112"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="128"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="111"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="127"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="106"/>
+      <c r="B32" s="105"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="106"/>
+      <c r="B33" s="105"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="106"/>
+      <c r="B34" s="105"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
-      <c r="B35" s="106"/>
+      <c r="B35" s="105"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
-      <c r="B36" s="106"/>
+      <c r="B36" s="105"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
-      <c r="B37" s="106"/>
+      <c r="B37" s="105"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
-      <c r="B38" s="106"/>
+      <c r="B38" s="105"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="106"/>
+      <c r="B39" s="105"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
-      <c r="B40" s="113"/>
+      <c r="B40" s="112"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="129"/>
+      <c r="R40" s="128"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
-      <c r="B41" s="106"/>
+      <c r="B41" s="105"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
-      <c r="B42" s="106"/>
+      <c r="B42" s="105"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
-      <c r="B43" s="106"/>
+      <c r="B43" s="105"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
-      <c r="B44" s="106"/>
+      <c r="B44" s="105"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
-      <c r="B45" s="106"/>
+      <c r="B45" s="105"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
-      <c r="B46" s="106"/>
+      <c r="B46" s="105"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
-      <c r="B47" s="106"/>
+      <c r="B47" s="105"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
-      <c r="B48" s="106"/>
+      <c r="B48" s="105"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="113"/>
+      <c r="B49" s="112"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="129"/>
+      <c r="R49" s="128"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
-      <c r="B50" s="106"/>
+      <c r="B50" s="105"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
-      <c r="B51" s="106"/>
+      <c r="B51" s="105"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
-      <c r="B52" s="106"/>
+      <c r="B52" s="105"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
-      <c r="B53" s="113"/>
+      <c r="B53" s="112"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="129"/>
+      <c r="R53" s="128"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
-      <c r="B54" s="106"/>
+      <c r="B54" s="105"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
-      <c r="B55" s="106"/>
+      <c r="B55" s="105"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="106"/>
+      <c r="B56" s="105"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
-      <c r="B57" s="106"/>
+      <c r="B57" s="105"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
-      <c r="B58" s="106"/>
+      <c r="B58" s="105"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="106"/>
+      <c r="B59" s="105"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
-      <c r="B60" s="106"/>
+      <c r="B60" s="105"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="106"/>
+      <c r="B61" s="105"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="106"/>
+      <c r="B62" s="105"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="106"/>
+      <c r="B63" s="105"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="97"/>
-      <c r="B64" s="114"/>
-      <c r="Q64" s="96"/>
-      <c r="R64" s="130"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="113"/>
+      <c r="Q64" s="95"/>
+      <c r="R64" s="129"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="106"/>
+      <c r="B65" s="105"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="106"/>
+      <c r="B66" s="105"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="106"/>
+      <c r="B67" s="105"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="106"/>
+      <c r="B68" s="105"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="106"/>
+      <c r="B69" s="105"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="106"/>
+      <c r="B70" s="105"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="106"/>
+      <c r="B71" s="105"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="106"/>
+      <c r="B72" s="105"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Hill\Desktop\Work\Misc\Personal\financial-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A165BF-4F73-423E-AC64-2F7C20F1E3A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC4C0E5-B347-4868-B2C1-B182384BDB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="2805" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1229,6 +1229,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,16 +1244,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,33 +1294,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1486,7 +1486,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1494,24 +1494,13 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Ten Entertainment Group Plc</v>
-          </cell>
-        </row>
         <row r="25">
           <cell r="C25">
             <v>51</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="19">
-          <cell r="R19">
-            <v>8.1420000000000101</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1821,7 +1810,7 @@
   <dimension ref="B2:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1848,42 +1837,42 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167"/>
-      <c r="H5" s="165" t="s">
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
+      <c r="H5" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="167"/>
-      <c r="O5" s="165" t="s">
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="169"/>
+      <c r="O5" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="167"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="169"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>2.88</v>
+        <v>3.3464999999999998</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="172" t="s">
+      <c r="H6" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
@@ -1906,12 +1895,12 @@
         <f>$C$28</f>
         <v>FY23</v>
       </c>
-      <c r="H7" s="174" t="s">
+      <c r="H7" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>51</v>
@@ -1930,15 +1919,15 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>493.82793791999995</v>
+        <v>573.81777578099991</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="176" t="s">
+      <c r="H8" s="185" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1966,12 +1955,12 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>FY23</v>
       </c>
-      <c r="H9" s="176" t="s">
+      <c r="H9" s="185" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1995,12 +1984,12 @@
         <f t="shared" si="0"/>
         <v>FY23</v>
       </c>
-      <c r="H10" s="176" t="s">
+      <c r="H10" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -2028,12 +2017,12 @@
         <f t="shared" si="0"/>
         <v>FY23</v>
       </c>
-      <c r="H11" s="176" t="s">
+      <c r="H11" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -2051,15 +2040,15 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>443.33293791999995</v>
+        <v>523.3227757809999</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="177" t="s">
+      <c r="H12" s="186" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -2093,41 +2082,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="175"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="170" t="s">
+      <c r="C17" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="171"/>
-      <c r="H17" s="165" t="s">
+      <c r="D17" s="175"/>
+      <c r="H17" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="167"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="169"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175"/>
       <c r="H18" s="81" t="s">
         <v>119</v>
       </c>
@@ -2138,8 +2127,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="H19" s="85" t="s">
         <v>120</v>
       </c>
@@ -2171,11 +2160,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
       <c r="H22" s="85" t="s">
         <v>122</v>
       </c>
@@ -2188,10 +2177,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="170" t="s">
+      <c r="C23" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="171"/>
+      <c r="D23" s="175"/>
       <c r="H23" s="86" t="s">
         <v>128</v>
       </c>
@@ -2204,10 +2193,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="170">
+      <c r="C24" s="174">
         <v>2010</v>
       </c>
-      <c r="D24" s="171"/>
+      <c r="D24" s="175"/>
       <c r="H24" s="81"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -2218,11 +2207,11 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="170">
+      <c r="C25" s="174">
         <f>+'Financial Model'!Y25</f>
         <v>71</v>
       </c>
-      <c r="D25" s="171"/>
+      <c r="D25" s="175"/>
       <c r="H25" s="81"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -2236,11 +2225,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="180">
+      <c r="C26" s="178">
         <f>+'Financial Model'!Y33</f>
         <v>2787</v>
       </c>
-      <c r="D26" s="171"/>
+      <c r="D26" s="175"/>
       <c r="H26" s="83"/>
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
@@ -2251,10 +2240,10 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="170">
+      <c r="C27" s="174">
         <v>2016</v>
       </c>
-      <c r="D27" s="171"/>
+      <c r="D27" s="175"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2271,17 +2260,17 @@
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="183" t="s">
+      <c r="C29" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="184"/>
-      <c r="H29" s="165" t="s">
+      <c r="D29" s="171"/>
+      <c r="H29" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="167"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="169"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="81" t="s">
@@ -2302,11 +2291,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="167"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="169"/>
       <c r="H32" s="85" t="s">
         <v>124</v>
       </c>
@@ -2319,11 +2308,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="181">
+      <c r="C33" s="172">
         <f>C6/'Financial Model'!Y65</f>
-        <v>3.3380285110179795</v>
-      </c>
-      <c r="D33" s="182"/>
+        <v>3.8787195875422458</v>
+      </c>
+      <c r="D33" s="173"/>
       <c r="H33" s="85"/>
       <c r="I33" s="82"/>
       <c r="J33" s="82"/>
@@ -2334,11 +2323,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="181">
+      <c r="C34" s="172">
         <f>C8/'Financial Model'!Y3</f>
-        <v>2.2959984467319439</v>
-      </c>
-      <c r="D34" s="182"/>
+        <v>2.6679023618015449</v>
+      </c>
+      <c r="D34" s="173"/>
       <c r="H34" s="81" t="s">
         <v>121</v>
       </c>
@@ -2351,11 +2340,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="181">
+      <c r="C35" s="172">
         <f>C12/'Financial Model'!Y3</f>
-        <v>2.0612275221543408</v>
-      </c>
-      <c r="D35" s="182"/>
+        <v>2.4331314372239423</v>
+      </c>
+      <c r="D35" s="173"/>
       <c r="H35" s="85" t="s">
         <v>127</v>
       </c>
@@ -2368,11 +2357,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="181">
+      <c r="C36" s="172">
         <f>C6/'Financial Model'!Y13</f>
-        <v>14.460131121197039</v>
-      </c>
-      <c r="D36" s="182"/>
+        <v>16.802371110099269</v>
+      </c>
+      <c r="D36" s="173"/>
       <c r="H36" s="81"/>
       <c r="I36" s="82"/>
       <c r="J36" s="82"/>
@@ -2383,11 +2372,11 @@
       <c r="B37" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="178">
+      <c r="C37" s="176">
         <f>C12/'Financial Model'!Y12</f>
-        <v>12.981550698954646</v>
-      </c>
-      <c r="D37" s="179"/>
+        <v>15.323790687856873</v>
+      </c>
+      <c r="D37" s="177"/>
       <c r="H37" s="81"/>
       <c r="I37" s="82"/>
       <c r="J37" s="82"/>
@@ -2403,22 +2392,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2433,6 +2406,22 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2451,10 +2440,10 @@
   <dimension ref="A1:CU84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomRight" activeCell="AF37" sqref="AA37:AF37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3179,31 +3168,31 @@
         <v>-0.5706</v>
       </c>
       <c r="AA6" s="14">
-        <f>AVERAGE(R6:Z6)</f>
+        <f t="shared" ref="AA6:AG6" si="7">AVERAGE(R6:Z6)</f>
         <v>0.41748888888888885</v>
       </c>
       <c r="AB6" s="14">
-        <f>AVERAGE(S6:AA6)</f>
+        <f t="shared" si="7"/>
         <v>0.30887654320987656</v>
       </c>
       <c r="AC6" s="14">
-        <f>AVERAGE(T6:AB6)</f>
+        <f t="shared" si="7"/>
         <v>0.33430727023319612</v>
       </c>
       <c r="AD6" s="14">
-        <f>AVERAGE(U6:AC6)</f>
+        <f t="shared" si="7"/>
         <v>0.37145252248132904</v>
       </c>
       <c r="AE6" s="14">
-        <f>AVERAGE(V6:AD6)</f>
+        <f t="shared" si="7"/>
         <v>0.41272502497925445</v>
       </c>
       <c r="AF6" s="14">
-        <f>AVERAGE(W6:AE6)</f>
+        <f t="shared" si="7"/>
         <v>0.45858336108806053</v>
       </c>
       <c r="AG6" s="14">
-        <f>AVERAGE(X6:AF6)</f>
+        <f t="shared" si="7"/>
         <v>0.19687040120895619</v>
       </c>
       <c r="AH6" s="14">
@@ -3211,31 +3200,31 @@
         <v>0.24121300151119521</v>
       </c>
       <c r="AI6" s="14">
-        <f t="shared" ref="AI6:AO6" si="7">AVERAGE(AA6:AH6)</f>
+        <f t="shared" ref="AI6:AO6" si="8">AVERAGE(AA6:AH6)</f>
         <v>0.34268962670009467</v>
       </c>
       <c r="AJ6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33333971892649533</v>
       </c>
       <c r="AK6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33639761589107264</v>
       </c>
       <c r="AL6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33665890909830726</v>
       </c>
       <c r="AM6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33230970742542953</v>
       </c>
       <c r="AN6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.32225779273120136</v>
       </c>
       <c r="AO6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.30521709668659402</v>
       </c>
     </row>
@@ -3312,59 +3301,59 @@
         <v>148.7523673314</v>
       </c>
       <c r="AB7" s="27">
-        <f t="shared" ref="AB7:AO7" si="8">AB5*0.63</f>
+        <f t="shared" ref="AB7:AO7" si="9">AB5*0.63</f>
         <v>178.50284079767999</v>
       </c>
       <c r="AC7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>214.20340895721597</v>
       </c>
       <c r="AD7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>246.33392030079835</v>
       </c>
       <c r="AE7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>270.9673123308782</v>
       </c>
       <c r="AF7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>298.06404356396604</v>
       </c>
       <c r="AG7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>321.90916704908341</v>
       </c>
       <c r="AH7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>338.00462540153751</v>
       </c>
       <c r="AI7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>354.90485667161448</v>
       </c>
       <c r="AJ7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>362.00295380504673</v>
       </c>
       <c r="AK7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>369.24301288114771</v>
       </c>
       <c r="AL7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>376.62787313877061</v>
       </c>
       <c r="AM7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>384.16043060154607</v>
       </c>
       <c r="AN7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>391.84363921357692</v>
       </c>
       <c r="AO7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>399.68051199784844</v>
       </c>
     </row>
@@ -3382,132 +3371,132 @@
         <v>11.681000000000012</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" ref="H8:O8" si="9">H5+H6-H7</f>
+        <f t="shared" ref="H8:O8" si="10">H5+H6-H7</f>
         <v>19.176000000000002</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-9.3150000000000031</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.022</v>
       </c>
       <c r="K8" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.602000000000004</v>
       </c>
       <c r="L8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.616</v>
       </c>
       <c r="M8" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17.833000000000013</v>
       </c>
       <c r="N8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.146000000000015</v>
       </c>
       <c r="O8" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.938999999999986</v>
       </c>
       <c r="P8" s="153"/>
       <c r="R8" s="12">
-        <f t="shared" ref="R8:Z8" si="10">R5+R6-R7</f>
+        <f t="shared" ref="R8:Z8" si="11">R5+R6-R7</f>
         <v>14.377999999999986</v>
       </c>
       <c r="S8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22.200999999999993</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24.891999999999996</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.444000000000003</v>
       </c>
       <c r="V8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.8610000000000042</v>
       </c>
       <c r="W8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.5800000000000054</v>
       </c>
       <c r="X8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>55.449000000000012</v>
       </c>
       <c r="Y8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>54.084999999999994</v>
       </c>
       <c r="Z8" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75.635533584000001</v>
       </c>
       <c r="AA8" s="12">
-        <f t="shared" ref="AA8:AO8" si="11">AA5+AA6-AA7</f>
+        <f t="shared" ref="AA8:AO8" si="12">AA5+AA6-AA7</f>
         <v>87.779990337488897</v>
       </c>
       <c r="AB8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>105.14387828152985</v>
       </c>
       <c r="AC8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>126.13630935621717</v>
       </c>
       <c r="AD8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>145.0437549213629</v>
       </c>
       <c r="AE8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>159.552257663749</v>
       </c>
       <c r="AF8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>175.51206926373482</v>
       </c>
       <c r="AG8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>189.25463517606744</v>
       </c>
       <c r="AH8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>198.75186601511257</v>
       </c>
       <c r="AI8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>208.7788752909816</v>
       </c>
       <c r="AJ8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>212.93824909649362</v>
       </c>
       <c r="AK8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>217.19340518100955</v>
       </c>
       <c r="AL8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>221.53080662551918</v>
       </c>
       <c r="AM8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>225.9503403781747</v>
       </c>
       <c r="AN8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>230.45264907689545</v>
       </c>
       <c r="AO8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>235.03821620653417</v>
       </c>
     </row>
@@ -3648,131 +3637,131 @@
         <v>11.20300000000001</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" ref="H10:O10" si="12">H8-H9</f>
+        <f t="shared" ref="H10:O10" si="13">H8-H9</f>
         <v>14.468000000000004</v>
       </c>
       <c r="I10" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-13.272000000000006</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-14.489000000000001</v>
       </c>
       <c r="K10" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14.951000000000004</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33.436999999999998</v>
       </c>
       <c r="M10" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.228000000000014</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.689000000000014</v>
       </c>
       <c r="O10" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.390999999999984</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" ref="R10:Z10" si="13">R8-R9</f>
+        <f t="shared" ref="R10:Z10" si="14">R8-R9</f>
         <v>2.5739999999999874</v>
       </c>
       <c r="S10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.999999999999993</v>
       </c>
       <c r="T10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.933999999999997</v>
       </c>
       <c r="U10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.588000000000001</v>
       </c>
       <c r="V10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1960000000000033</v>
       </c>
       <c r="W10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.46200000000000507</v>
       </c>
       <c r="X10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.665000000000013</v>
       </c>
       <c r="Y10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.079999999999991</v>
       </c>
       <c r="Z10" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>84.528533584000002</v>
       </c>
       <c r="AA10" s="14">
-        <f t="shared" ref="AA10:AO10" si="14">AA8-AA9</f>
+        <f t="shared" ref="AA10:AO10" si="15">AA8-AA9</f>
         <v>84.879990337488891</v>
       </c>
       <c r="AB10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>101.24387828152985</v>
       </c>
       <c r="AC10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>121.23630935621716</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>139.1437549213629</v>
       </c>
       <c r="AE10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>152.652257663749</v>
       </c>
       <c r="AF10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>167.61206926373481</v>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>180.35463517606743</v>
       </c>
       <c r="AH10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>188.85186601511256</v>
       </c>
       <c r="AI10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>197.8788752909816</v>
       </c>
       <c r="AJ10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>201.03824909649362</v>
       </c>
       <c r="AK10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>204.29340518100955</v>
       </c>
       <c r="AL10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>207.63080662551917</v>
       </c>
       <c r="AM10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>211.0503403781747</v>
       </c>
       <c r="AN10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>214.55264907689545</v>
       </c>
       <c r="AO10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>218.13821620653417</v>
       </c>
     </row>
@@ -3849,59 +3838,59 @@
         <v>16.975998067497773</v>
       </c>
       <c r="AB11" s="27">
-        <f t="shared" ref="AB11:AO11" si="15">AB10*(1-(1-AB19))</f>
+        <f t="shared" ref="AB11:AO11" si="16">AB10*(1-(1-AB19))</f>
         <v>20.248775656305966</v>
       </c>
       <c r="AC11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24.247261871243428</v>
       </c>
       <c r="AD11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27.828750984272574</v>
       </c>
       <c r="AE11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30.530451532749794</v>
       </c>
       <c r="AF11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.522413852746958</v>
       </c>
       <c r="AG11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.070927035213479</v>
       </c>
       <c r="AH11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.770373203022501</v>
       </c>
       <c r="AI11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39.575775058196314</v>
       </c>
       <c r="AJ11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40.207649819298716</v>
       </c>
       <c r="AK11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40.858681036201901</v>
       </c>
       <c r="AL11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>41.526161325103828</v>
       </c>
       <c r="AM11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42.210068075634929</v>
       </c>
       <c r="AN11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42.910529815379078</v>
       </c>
       <c r="AO11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43.627643241306821</v>
       </c>
     </row>
@@ -3919,69 +3908,69 @@
         <v>8.910000000000009</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" ref="H12:O12" si="16">H10-H11</f>
+        <f t="shared" ref="H12:O12" si="17">H10-H11</f>
         <v>11.520000000000003</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-10.135000000000005</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-11.633000000000001</v>
       </c>
       <c r="K12" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13.361000000000004</v>
       </c>
       <c r="L12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>27.024999999999999</v>
       </c>
       <c r="M12" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.426000000000013</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.920000000000016</v>
       </c>
       <c r="O12" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12.230999999999984</v>
       </c>
       <c r="P12" s="155"/>
       <c r="Q12" s="87"/>
       <c r="R12" s="12">
-        <f t="shared" ref="R12:Y12" si="17">R10-R11</f>
+        <f t="shared" ref="R12:Y12" si="18">R10-R11</f>
         <v>1.1869999999999874</v>
       </c>
       <c r="S12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.151999999999994</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.783999999999999</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.285</v>
       </c>
       <c r="V12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3850000000000033</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7280000000000051</v>
       </c>
       <c r="X12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.451000000000015</v>
       </c>
       <c r="Y12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34.150999999999989</v>
       </c>
       <c r="Z12" s="132">
@@ -3989,295 +3978,295 @@
         <v>67.622826867200004</v>
       </c>
       <c r="AA12" s="12">
-        <f t="shared" ref="AA12:AO12" si="18">AA10-AA11</f>
+        <f t="shared" ref="AA12:AO12" si="19">AA10-AA11</f>
         <v>67.903992269991122</v>
       </c>
       <c r="AB12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>80.995102625223879</v>
       </c>
       <c r="AC12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>96.989047484973739</v>
       </c>
       <c r="AD12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>111.31500393709032</v>
       </c>
       <c r="AE12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>122.1218061309992</v>
       </c>
       <c r="AF12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>134.08965541098786</v>
       </c>
       <c r="AG12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>144.28370814085395</v>
       </c>
       <c r="AH12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>151.08149281209006</v>
       </c>
       <c r="AI12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>158.30310023278528</v>
       </c>
       <c r="AJ12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>160.83059927719489</v>
       </c>
       <c r="AK12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>163.43472414480766</v>
       </c>
       <c r="AL12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>166.10464530041534</v>
       </c>
       <c r="AM12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>168.84027230253977</v>
       </c>
       <c r="AN12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>171.64211926151637</v>
       </c>
       <c r="AO12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>174.51057296522734</v>
       </c>
       <c r="AP12" s="12">
-        <f t="shared" ref="AP12:BU12" si="19">AO12*(1+$AR$15)</f>
+        <f t="shared" ref="AP12:BU12" si="20">AO12*(1+$AR$15)</f>
         <v>171.02036150592278</v>
       </c>
       <c r="AQ12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>167.59995427580432</v>
       </c>
       <c r="AR12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>164.24795519028822</v>
       </c>
       <c r="AS12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>160.96299608648246</v>
       </c>
       <c r="AT12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>157.74373616475282</v>
       </c>
       <c r="AU12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>154.58886144145777</v>
       </c>
       <c r="AV12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>151.49708421262861</v>
       </c>
       <c r="AW12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>148.46714252837603</v>
       </c>
       <c r="AX12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>145.4977996778085</v>
       </c>
       <c r="AY12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>142.58784368425233</v>
       </c>
       <c r="AZ12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>139.73608681056729</v>
       </c>
       <c r="BA12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>136.94136507435593</v>
       </c>
       <c r="BB12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>134.20253777286879</v>
       </c>
       <c r="BC12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>131.51848701741142</v>
       </c>
       <c r="BD12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>128.88811727706317</v>
       </c>
       <c r="BE12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>126.31035493152191</v>
       </c>
       <c r="BF12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>123.78414783289148</v>
       </c>
       <c r="BG12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>121.30846487623364</v>
       </c>
       <c r="BH12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>118.88229557870896</v>
       </c>
       <c r="BI12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>116.50464966713479</v>
       </c>
       <c r="BJ12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>114.17455667379208</v>
       </c>
       <c r="BK12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>111.89106554031623</v>
       </c>
       <c r="BL12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>109.65324422950991</v>
       </c>
       <c r="BM12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>107.46017934491971</v>
       </c>
       <c r="BN12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>105.31097575802131</v>
       </c>
       <c r="BO12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>103.20475624286088</v>
       </c>
       <c r="BP12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>101.14066111800366</v>
       </c>
       <c r="BQ12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>99.117847895643592</v>
       </c>
       <c r="BR12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>97.135490937730722</v>
       </c>
       <c r="BS12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>95.1927811189761</v>
       </c>
       <c r="BT12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>93.288925496596576</v>
       </c>
       <c r="BU12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>91.423146986664648</v>
       </c>
       <c r="BV12" s="12">
-        <f t="shared" ref="BV12:CU12" si="20">BU12*(1+$AR$15)</f>
+        <f t="shared" ref="BV12:CU12" si="21">BU12*(1+$AR$15)</f>
         <v>89.594684046931349</v>
       </c>
       <c r="BW12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>87.80279036599272</v>
       </c>
       <c r="BX12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>86.046734558672867</v>
       </c>
       <c r="BY12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>84.325799867499413</v>
       </c>
       <c r="BZ12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>82.639283870149427</v>
       </c>
       <c r="CA12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>80.986498192746438</v>
       </c>
       <c r="CB12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>79.366768228891502</v>
       </c>
       <c r="CC12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>77.779432864313677</v>
       </c>
       <c r="CD12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>76.223844207027398</v>
       </c>
       <c r="CE12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>74.699367322886843</v>
       </c>
       <c r="CF12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>73.2053799764291</v>
       </c>
       <c r="CG12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>71.741272376900511</v>
       </c>
       <c r="CH12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>70.306446929362494</v>
       </c>
       <c r="CI12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>68.90031799077525</v>
       </c>
       <c r="CJ12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>67.522311630959749</v>
       </c>
       <c r="CK12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>66.171865398340557</v>
       </c>
       <c r="CL12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>64.848428090373744</v>
       </c>
       <c r="CM12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>63.551459528566269</v>
       </c>
       <c r="CN12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>62.280430337994943</v>
       </c>
       <c r="CO12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>61.034821731235041</v>
       </c>
       <c r="CP12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>59.814125296610342</v>
       </c>
       <c r="CQ12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>58.617842790678132</v>
       </c>
       <c r="CR12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>57.445485934864571</v>
       </c>
       <c r="CS12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>56.296576216167281</v>
       </c>
       <c r="CT12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>55.170644691843933</v>
       </c>
       <c r="CU12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>54.06723179800705</v>
       </c>
     </row>
@@ -4287,35 +4276,35 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="26">
-        <f t="shared" ref="F13:M13" si="21">F12/F14</f>
+        <f t="shared" ref="F13:M13" si="22">F12/F14</f>
         <v>8.8853291768992385E-2</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.9400000000000057E-2</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.6442866571663867E-2</v>
       </c>
       <c r="I13" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.6068394484364051E-2</v>
       </c>
       <c r="J13" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-7.3358228129837819E-2</v>
       </c>
       <c r="K13" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.116869753753031E-2</v>
       </c>
       <c r="L13" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.15819934224664817</v>
       </c>
       <c r="M13" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.0988847885565384E-2</v>
       </c>
       <c r="N13" s="26">
@@ -4329,99 +4318,99 @@
       <c r="P13" s="43"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="26">
-        <f t="shared" ref="R13:AO13" si="22">R12/R14</f>
+        <f t="shared" ref="R13:AO13" si="23">R12/R14</f>
         <v>1.1214705682000902E-2</v>
       </c>
       <c r="S13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12101333333333329</v>
       </c>
       <c r="T13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12522666666666665</v>
       </c>
       <c r="U13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14856666666666668</v>
       </c>
       <c r="V13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.0285867154261852E-3</v>
       </c>
       <c r="W13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0497680513797826E-2</v>
       </c>
       <c r="X13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21907666815291649</v>
       </c>
       <c r="Y13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.19916831845170624</v>
       </c>
       <c r="Z13" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.39437570542856992</v>
       </c>
       <c r="AA13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.39601545947620259</v>
       </c>
       <c r="AB13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.47236269487538352</v>
       </c>
       <c r="AC13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.56563923445330777</v>
       </c>
       <c r="AD13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.64918808095210523</v>
       </c>
       <c r="AE13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.71221325212721109</v>
       </c>
       <c r="AF13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.78200963924849032</v>
       </c>
       <c r="AG13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.84146126117509434</v>
       </c>
       <c r="AH13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.88110587896569736</v>
       </c>
       <c r="AI13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.9232222271399303</v>
       </c>
       <c r="AJ13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.93796257836136909</v>
       </c>
       <c r="AK13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95314981068020921</v>
       </c>
       <c r="AL13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.96872076634654458</v>
       </c>
       <c r="AM13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.98467491790650485</v>
       </c>
       <c r="AN13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0010152636468461</v>
       </c>
       <c r="AO13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0177440593109464</v>
       </c>
     </row>
@@ -4498,59 +4487,59 @@
         <v>171.46803399999999</v>
       </c>
       <c r="AB14" s="27">
-        <f t="shared" ref="AB14:AO14" si="23">AA14</f>
+        <f t="shared" ref="AB14:AO14" si="24">AA14</f>
         <v>171.46803399999999</v>
       </c>
       <c r="AC14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AD14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AE14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AF14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AG14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AH14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AI14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AJ14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AK14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AL14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AM14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AN14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AO14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
     </row>
@@ -4568,59 +4557,59 @@
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="23">
-        <f t="shared" ref="F16:L16" si="24">F5/F3</f>
+        <f t="shared" ref="F16:L16" si="25">F5/F3</f>
         <v>0.85857590685176888</v>
       </c>
       <c r="G16" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.8558438255118912</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.85590062111801246</v>
       </c>
       <c r="I16" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.84701747534901894</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.88574714847119718</v>
       </c>
       <c r="K16" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.85246968833916514</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.86382558174358359</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" ref="M16:N16" si="25">M5/M3</f>
+        <f t="shared" ref="M16:N16" si="26">M5/M3</f>
         <v>0.83166253419972636</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.82760876676480211</v>
       </c>
       <c r="O16" s="34">
-        <f t="shared" ref="O16" si="26">O5/O3</f>
+        <f t="shared" ref="O16" si="27">O5/O3</f>
         <v>0.43600875940207556</v>
       </c>
       <c r="R16" s="23">
-        <f t="shared" ref="R16:S16" si="27">R5/R3</f>
+        <f t="shared" ref="R16:S16" si="28">R5/R3</f>
         <v>0.85328664255794195</v>
       </c>
       <c r="S16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86532184472834472</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" ref="T16:U16" si="28">T5/T3</f>
+        <f t="shared" ref="T16:U16" si="29">T5/T3</f>
         <v>0.8610677904237316</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.85725283692857257</v>
       </c>
       <c r="V16" s="23">
@@ -4632,11 +4621,11 @@
         <v>0.85729986922284984</v>
       </c>
       <c r="X16" s="23">
-        <f t="shared" ref="X16:Y16" si="29">X5/X3</f>
+        <f t="shared" ref="X16:Y16" si="30">X5/X3</f>
         <v>0.84829230777171583</v>
       </c>
       <c r="Y16" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.6363805432346733</v>
       </c>
       <c r="Z16" s="135">
@@ -4644,63 +4633,63 @@
         <v>0.84000000000000008</v>
       </c>
       <c r="AA16" s="23">
-        <f t="shared" ref="AA16:AO16" si="30">AA5/AA3</f>
+        <f t="shared" ref="AA16:AO16" si="31">AA5/AA3</f>
         <v>0.86</v>
       </c>
       <c r="AB16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.8600000000000001</v>
       </c>
       <c r="AC16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AD16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AE16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AF16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AG16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AH16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AI16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AJ16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AK16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AL16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AM16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AN16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AO16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AQ16" s="46" t="s">
@@ -4716,59 +4705,59 @@
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="23">
-        <f t="shared" ref="F17:L17" si="31">F8/F3</f>
+        <f t="shared" ref="F17:L17" si="32">F8/F3</f>
         <v>0.25023137781758459</v>
       </c>
       <c r="G17" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.18569566323286293</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.27698974433049256</v>
       </c>
       <c r="I17" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.90940154251684147</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.96060577015240112</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.31901700707950204</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.37551036706497759</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" ref="M17:N17" si="32">M8/M3</f>
+        <f t="shared" ref="M17:N17" si="33">M8/M3</f>
         <v>0.19058866279069778</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.29209828081270683</v>
       </c>
       <c r="O17" s="34">
-        <f t="shared" ref="O17" si="33">O8/O3</f>
+        <f t="shared" ref="O17" si="34">O8/O3</f>
         <v>0.20888317623536121</v>
       </c>
       <c r="R17" s="23">
-        <f t="shared" ref="R17:S17" si="34">R8/R3</f>
+        <f t="shared" ref="R17:S17" si="35">R8/R3</f>
         <v>0.13719072927301687</v>
       </c>
       <c r="S17" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.19480029481959843</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" ref="T17:U17" si="35">T8/T3</f>
+        <f t="shared" ref="T17:U17" si="36">T8/T3</f>
         <v>0.20649036068619966</v>
       </c>
       <c r="U17" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.2189785517421898</v>
       </c>
       <c r="V17" s="23">
@@ -4780,11 +4769,11 @@
         <v>0.13328139347227252</v>
       </c>
       <c r="X17" s="23">
-        <f t="shared" ref="X17:AO17" si="36">X8/X3</f>
+        <f t="shared" ref="X17:AO17" si="37">X8/X3</f>
         <v>0.28620168162650139</v>
       </c>
       <c r="Y17" s="23">
-        <f t="shared" ref="Y17" si="37">Y8/Y3</f>
+        <f t="shared" ref="Y17" si="38">Y8/Y3</f>
         <v>0.25146223300880594</v>
       </c>
       <c r="Z17" s="135">
@@ -4792,63 +4781,63 @@
         <v>0.31680996246057758</v>
       </c>
       <c r="AA17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31972061768197663</v>
       </c>
       <c r="AB17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31913751623426984</v>
       </c>
       <c r="AC17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31904558728497412</v>
       </c>
       <c r="AD17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31901699254586874</v>
       </c>
       <c r="AE17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31902524499582702</v>
       </c>
       <c r="AF17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31903358080386574</v>
       </c>
       <c r="AG17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31853134931929028</v>
       </c>
       <c r="AH17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31858664915920454</v>
       </c>
       <c r="AI17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31872315215262864</v>
       </c>
       <c r="AJ17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31869890051397659</v>
       </c>
       <c r="AK17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31869360508372963</v>
       </c>
       <c r="AL17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31868430243738827</v>
       </c>
       <c r="AM17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31866867242209507</v>
       </c>
       <c r="AN17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31864558404074694</v>
       </c>
       <c r="AO17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.3186137470254885</v>
       </c>
       <c r="AQ17" s="46" t="s">
@@ -4866,59 +4855,59 @@
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="23">
-        <f t="shared" ref="F18:L18" si="38">F12/F3</f>
+        <f t="shared" ref="F18:L18" si="39">F12/F3</f>
         <v>0.19965666517390643</v>
       </c>
       <c r="G18" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.14164441053033205</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.16640184890943235</v>
       </c>
       <c r="I18" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-0.98945621399980577</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.1150196491900701</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.21744649686711701</v>
       </c>
       <c r="L18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.26978327493436355</v>
       </c>
       <c r="M18" s="34">
-        <f t="shared" ref="M18:N18" si="39">M12/M3</f>
+        <f t="shared" ref="M18:N18" si="40">M12/M3</f>
         <v>0.11142698358413144</v>
       </c>
       <c r="N18" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.1991785701304839</v>
       </c>
       <c r="O18" s="34">
-        <f t="shared" ref="O18" si="40">O12/O3</f>
+        <f t="shared" ref="O18" si="41">O12/O3</f>
         <v>0.1164524421593829</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" ref="R18:S18" si="41">R12/R3</f>
+        <f t="shared" ref="R18:S18" si="42">R12/R3</f>
         <v>1.1326011659971446E-2</v>
       </c>
       <c r="S18" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.15927277832373993</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" ref="T18:U18" si="42">T12/T3</f>
+        <f t="shared" ref="T18:U18" si="43">T12/T3</f>
         <v>0.15582174735375118</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.17156296672671562</v>
       </c>
       <c r="V18" s="23">
@@ -4930,75 +4919,75 @@
         <v>2.4040735691032097E-2</v>
       </c>
       <c r="X18" s="23">
-        <f t="shared" ref="X18:Z18" si="43">X12/X3</f>
+        <f t="shared" ref="X18:Z18" si="44">X12/X3</f>
         <v>0.19330446317506367</v>
       </c>
       <c r="Y18" s="23">
-        <f t="shared" ref="Y18" si="44">Y12/Y3</f>
+        <f t="shared" ref="Y18" si="45">Y12/Y3</f>
         <v>0.15878130201504537</v>
       </c>
       <c r="Z18" s="42">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2832476248413448</v>
       </c>
       <c r="AA18" s="23">
-        <f t="shared" ref="AA18:AO18" si="45">AA12/AA3</f>
+        <f t="shared" ref="AA18:AO18" si="46">AA12/AA3</f>
         <v>0.24732636980436912</v>
       </c>
       <c r="AB18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24584004605329873</v>
       </c>
       <c r="AC18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24532133350807039</v>
       </c>
       <c r="AD18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24483217357751796</v>
       </c>
       <c r="AE18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24418293849769063</v>
       </c>
       <c r="AF18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.243738810065771</v>
       </c>
       <c r="AG18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24284152510262372</v>
       </c>
       <c r="AH18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24217406110448467</v>
       </c>
       <c r="AI18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24166651454274929</v>
       </c>
       <c r="AJ18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24071079468404435</v>
       </c>
       <c r="AK18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.23981207620077299</v>
       </c>
       <c r="AL18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.23895070769391963</v>
       </c>
       <c r="AM18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.2381235865189805</v>
       </c>
       <c r="AN18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.23732859464691131</v>
       </c>
       <c r="AO18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.23656351909664572</v>
       </c>
       <c r="AQ18" s="46" t="s">
@@ -5015,43 +5004,43 @@
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="23">
-        <f t="shared" ref="F19:L19" si="46">F11/F10</f>
+        <f t="shared" ref="F19:L19" si="47">F11/F10</f>
         <v>0.1837046078730547</v>
       </c>
       <c r="G19" s="34">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.20467731857538143</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.20376002211777711</v>
       </c>
       <c r="I19" s="34">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.23636226642555747</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.19711505279867483</v>
       </c>
       <c r="K19" s="34">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.10634740151160453</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.19176361515686216</v>
       </c>
       <c r="M19" s="34">
-        <f t="shared" ref="M19:N19" si="47">M11/M10</f>
+        <f t="shared" ref="M19:N19" si="48">M11/M10</f>
         <v>0.21182340489869955</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.20834988623641146</v>
       </c>
       <c r="O19" s="34">
-        <f t="shared" ref="O19" si="48">O11/O10</f>
+        <f t="shared" ref="O19" si="49">O11/O10</f>
         <v>0.29670519234086623</v>
       </c>
       <c r="R19" s="23">
@@ -5059,31 +5048,31 @@
         <v>0.53885003885004146</v>
       </c>
       <c r="S19" s="23">
-        <f t="shared" ref="S19:W19" si="49">S11/S10</f>
+        <f t="shared" ref="S19:W19" si="50">S11/S10</f>
         <v>0.13561904761904767</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.21517506476142731</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.1922212556183848</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-0.15802675585284237</v>
       </c>
       <c r="W19" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-2.7402597402597104</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" ref="X19:Y19" si="50">X11/X10</f>
+        <f t="shared" ref="X19:Y19" si="51">X11/X10</f>
         <v>0.19744990892531872</v>
       </c>
       <c r="Y19" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.24243566992014201</v>
       </c>
       <c r="Z19" s="135">
@@ -5094,59 +5083,59 @@
         <v>0.2</v>
       </c>
       <c r="AB19" s="23">
-        <f t="shared" ref="AB19:AO19" si="51">AA19</f>
+        <f t="shared" ref="AB19:AO19" si="52">AA19</f>
         <v>0.2</v>
       </c>
       <c r="AC19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AD19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AE19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AF19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AG19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AH19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AI19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AJ19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AK19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AL19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AM19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AN19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AO19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AQ19" s="46" t="s">
@@ -5178,54 +5167,54 @@
         <v>71</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:O21" si="52">H3/F3-1</f>
+        <f t="shared" ref="H21:O21" si="53">H3/F3-1</f>
         <v>3.3437826541274918E-2</v>
       </c>
       <c r="I21" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-0.8371645682309552</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-0.84929943666040741</v>
       </c>
       <c r="K21" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4.9987308405740531</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8.6015527652640671</v>
       </c>
       <c r="M21" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.5227927414761171</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>9.8619388457967805E-2</v>
       </c>
       <c r="O21" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.12249914500683956</v>
       </c>
       <c r="R21" s="38" t="s">
         <v>71</v>
       </c>
       <c r="S21" s="23">
-        <f t="shared" ref="S21:V21" si="53">S3/R3-1</f>
+        <f t="shared" ref="S21:V21" si="54">S3/R3-1</f>
         <v>8.744978674274595E-2</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>5.7735504703074536E-2</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7.7529282941235067E-2</v>
       </c>
       <c r="V21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-0.38817035428888169</v>
       </c>
       <c r="W21" s="23">
@@ -5233,11 +5222,11 @@
         <v>-9.5567047928227233E-2</v>
       </c>
       <c r="X21" s="23">
-        <f t="shared" ref="X21" si="54">X3/W3-1</f>
+        <f t="shared" ref="X21" si="55">X3/W3-1</f>
         <v>1.6954144522663404</v>
       </c>
       <c r="Y21" s="23">
-        <f t="shared" ref="Y21" si="55">Y3/X3-1</f>
+        <f t="shared" ref="Y21" si="56">Y3/X3-1</f>
         <v>0.11015221352217641</v>
       </c>
       <c r="Z21" s="135">
@@ -5293,7 +5282,7 @@
       </c>
       <c r="AR21" s="66">
         <f>Main!C6</f>
-        <v>2.88</v>
+        <v>3.3464999999999998</v>
       </c>
       <c r="AS21" s="49"/>
     </row>
@@ -5306,39 +5295,39 @@
         <v>71</v>
       </c>
       <c r="G22" s="34">
-        <f t="shared" ref="G22" si="56">G3/F3-1</f>
+        <f t="shared" ref="G22" si="57">G3/F3-1</f>
         <v>-6.0994178235557306E-2</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:O22" si="57">H3/G3-1</f>
+        <f t="shared" ref="H22:O22" si="58">H3/G3-1</f>
         <v>0.10056594175251155</v>
       </c>
       <c r="I22" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-0.85204391159901782</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1.8549253148492095E-2</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4.8894852870698742</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.63028724875905273</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-6.5935930839647328E-2</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.17617134062927486</v>
       </c>
       <c r="O22" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-4.563297350343487E-2</v>
       </c>
       <c r="R22" s="38" t="s">
@@ -5414,9 +5403,9 @@
       <c r="AQ22" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AR22" s="186">
+      <c r="AR22" s="166">
         <f>AR20/AR21-1</f>
-        <v>2.8609702463772693</v>
+        <v>2.322753416873311</v>
       </c>
     </row>
     <row r="23" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5453,7 +5442,7 @@
       <c r="AQ23" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="AR23" s="185">
+      <c r="AR23" s="165">
         <f>+AR20*Main!C7</f>
         <v>1906.6549751389612</v>
       </c>
@@ -5700,25 +5689,25 @@
         <v>1.9407962962962964</v>
       </c>
       <c r="S29" s="80">
-        <f t="shared" ref="S29:Y29" si="58">S3/S25</f>
+        <f t="shared" ref="S29:Y29" si="59">S3/S25</f>
         <v>1.9649655172413794</v>
       </c>
       <c r="T29" s="80"/>
       <c r="U29" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2.1649000000000003</v>
       </c>
       <c r="V29" s="80"/>
       <c r="W29" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1.12309375</v>
       </c>
       <c r="X29" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2.8916567164179106</v>
       </c>
       <c r="Y29" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3.0293239436619719</v>
       </c>
       <c r="Z29" s="138"/>
@@ -5819,27 +5808,27 @@
       <c r="O33" s="143"/>
       <c r="P33" s="144"/>
       <c r="R33" s="141">
-        <f t="shared" ref="R33:W33" si="59">SUM(R34:R36)</f>
+        <f t="shared" ref="R33:W33" si="60">SUM(R34:R36)</f>
         <v>0</v>
       </c>
       <c r="S33" s="141">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T33" s="141">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="U33" s="141">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="V33" s="141">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W33" s="141">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1787</v>
       </c>
       <c r="X33" s="141">
@@ -6555,15 +6544,15 @@
         <v>139.36000000000001</v>
       </c>
       <c r="W64" s="14">
-        <f t="shared" ref="W64:X64" si="60">W48-W59</f>
+        <f t="shared" ref="W64:X64" si="61">W48-W59</f>
         <v>104.68700000000007</v>
       </c>
       <c r="X64" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>138.41999999999999</v>
       </c>
       <c r="Y64" s="14">
-        <f t="shared" ref="Y64" si="61">Y48-Y59</f>
+        <f t="shared" ref="Y64" si="62">Y48-Y59</f>
         <v>147.94000000000003</v>
       </c>
       <c r="Z64" s="133"/>
@@ -6586,15 +6575,15 @@
         <v>0.81391234576365445</v>
       </c>
       <c r="W65" s="1">
-        <f t="shared" ref="W65:X65" si="62">W64/W14</f>
+        <f t="shared" ref="W65:X65" si="63">W64/W14</f>
         <v>0.63597840274765649</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.80971382354881549</v>
       </c>
       <c r="Y65" s="1">
-        <f t="shared" ref="Y65" si="63">Y64/Y14</f>
+        <f t="shared" ref="Y65" si="64">Y64/Y14</f>
         <v>0.86278472172836618</v>
       </c>
     </row>
@@ -6603,19 +6592,19 @@
         <v>6</v>
       </c>
       <c r="H67" s="14">
-        <f t="shared" ref="H67" si="64">H44</f>
+        <f t="shared" ref="H67" si="65">H44</f>
         <v>15.635999999999999</v>
       </c>
       <c r="L67" s="14">
-        <f t="shared" ref="L67:N67" si="65">L44</f>
+        <f t="shared" ref="L67:N67" si="66">L44</f>
         <v>49.576999999999998</v>
       </c>
       <c r="N67" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>44.149000000000001</v>
       </c>
       <c r="W67" s="14">
-        <f t="shared" ref="W67" si="66">W44</f>
+        <f t="shared" ref="W67" si="67">W44</f>
         <v>29.942</v>
       </c>
       <c r="X67" s="14">
@@ -6623,7 +6612,7 @@
         <v>56.066000000000003</v>
       </c>
       <c r="Y67" s="14">
-        <f t="shared" ref="Y67" si="67">Y44</f>
+        <f t="shared" ref="Y67" si="68">Y44</f>
         <v>52.454999999999998</v>
       </c>
       <c r="Z67" s="133"/>
@@ -6633,19 +6622,19 @@
         <v>7</v>
       </c>
       <c r="H68" s="14">
-        <f t="shared" ref="H68" si="68">H53+H57</f>
+        <f t="shared" ref="H68" si="69">H53+H57</f>
         <v>30.073</v>
       </c>
       <c r="L68" s="14">
-        <f t="shared" ref="L68:N68" si="69">L53+L57</f>
+        <f t="shared" ref="L68:N68" si="70">L53+L57</f>
         <v>0</v>
       </c>
       <c r="N68" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="W68" s="14">
-        <f t="shared" ref="W68" si="70">W53+W57</f>
+        <f t="shared" ref="W68" si="71">W53+W57</f>
         <v>0</v>
       </c>
       <c r="X68" s="14">
@@ -6653,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="14">
-        <f t="shared" ref="Y68" si="71">Y53+Y57</f>
+        <f t="shared" ref="Y68" si="72">Y53+Y57</f>
         <v>1.96</v>
       </c>
       <c r="Z68" s="133"/>
@@ -6683,7 +6672,7 @@
         <v>56.066000000000003</v>
       </c>
       <c r="Y69" s="14">
-        <f t="shared" ref="Y69" si="72">Y67-Y68</f>
+        <f t="shared" ref="Y69" si="73">Y67-Y68</f>
         <v>50.494999999999997</v>
       </c>
       <c r="Z69" s="133"/>
@@ -6701,6 +6690,21 @@
       <c r="N71" s="1">
         <v>2.3014000000000001</v>
       </c>
+      <c r="R71" s="1">
+        <v>1.4937</v>
+      </c>
+      <c r="S71" s="1">
+        <v>1.6520999999999999</v>
+      </c>
+      <c r="T71" s="1">
+        <v>2.0512999999999999</v>
+      </c>
+      <c r="U71" s="1">
+        <v>2.1863999999999999</v>
+      </c>
+      <c r="V71" s="1">
+        <v>1.2907999999999999</v>
+      </c>
       <c r="W71" s="1">
         <v>2.395</v>
       </c>
@@ -6716,19 +6720,39 @@
         <v>5</v>
       </c>
       <c r="H72" s="27">
-        <f t="shared" ref="H72" si="73">H71*H14</f>
+        <f t="shared" ref="H72" si="74">H71*H14</f>
         <v>222.55491928799998</v>
       </c>
       <c r="L72" s="27">
-        <f t="shared" ref="L72:N72" si="74">L71*L14</f>
+        <f t="shared" ref="L72:N72" si="75">L71*L14</f>
         <v>408.36618902800001</v>
       </c>
       <c r="N72" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>394.05116001659997</v>
       </c>
+      <c r="R72" s="27">
+        <f t="shared" ref="R72:W72" si="76">R71*R14</f>
+        <v>158.09794302899999</v>
+      </c>
+      <c r="S72" s="27">
+        <f t="shared" si="76"/>
+        <v>247.815</v>
+      </c>
+      <c r="T72" s="27">
+        <f t="shared" si="76"/>
+        <v>307.69499999999999</v>
+      </c>
+      <c r="U72" s="27">
+        <f t="shared" si="76"/>
+        <v>327.96</v>
+      </c>
+      <c r="V72" s="27">
+        <f t="shared" si="76"/>
+        <v>198.01083562119999</v>
+      </c>
       <c r="W72" s="27">
-        <f t="shared" ref="W72" si="75">W71*W14</f>
+        <f t="shared" ref="W72" si="77">W71*W14</f>
         <v>394.23565944500001</v>
       </c>
       <c r="X72" s="27">
@@ -6736,7 +6760,7 @@
         <v>320.358961964</v>
       </c>
       <c r="Y72" s="27">
-        <f t="shared" ref="Y72" si="76">Y71*Y14</f>
+        <f t="shared" ref="Y72" si="78">Y71*Y14</f>
         <v>424.38338414999998</v>
       </c>
       <c r="Z72" s="134"/>
@@ -6757,6 +6781,11 @@
         <f>N72-N69</f>
         <v>349.90216001659996</v>
       </c>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="27"/>
+      <c r="V73" s="27"/>
       <c r="W73" s="27">
         <f>W72-W69</f>
         <v>364.293659445</v>
@@ -6766,7 +6795,7 @@
         <v>264.29296196400003</v>
       </c>
       <c r="Y73" s="27">
-        <f t="shared" ref="Y73" si="77">Y72-Y69</f>
+        <f t="shared" ref="Y73" si="79">Y72-Y69</f>
         <v>373.88838414999998</v>
       </c>
       <c r="Z73" s="134"/>
@@ -6795,7 +6824,7 @@
       <c r="O75" s="93"/>
       <c r="P75" s="160"/>
       <c r="W75" s="92">
-        <f t="shared" ref="W75" si="78">W71/W65</f>
+        <f t="shared" ref="W75" si="80">W71/W65</f>
         <v>3.7658511510025101</v>
       </c>
       <c r="X75" s="92">
@@ -6803,7 +6832,7 @@
         <v>2.3143979335645142</v>
       </c>
       <c r="Y75" s="92">
-        <f t="shared" ref="Y75" si="79">Y71/Y65</f>
+        <f t="shared" ref="Y75" si="81">Y71/Y65</f>
         <v>2.8686182516560761</v>
       </c>
       <c r="Z75" s="140"/>
@@ -6820,8 +6849,28 @@
       <c r="M76" s="96"/>
       <c r="O76" s="96"/>
       <c r="P76" s="161"/>
+      <c r="R76" s="92">
+        <f t="shared" ref="R76:W76" si="82">R72/R3</f>
+        <v>1.5085249757068022</v>
+      </c>
+      <c r="S76" s="92">
+        <f t="shared" si="82"/>
+        <v>2.174426154710094</v>
+      </c>
+      <c r="T76" s="92">
+        <f t="shared" si="82"/>
+        <v>2.552468726150579</v>
+      </c>
+      <c r="U76" s="92">
+        <f t="shared" si="82"/>
+        <v>2.5248279366252482</v>
+      </c>
+      <c r="V76" s="92">
+        <f t="shared" si="82"/>
+        <v>2.4915485211480628</v>
+      </c>
       <c r="W76" s="92">
-        <f t="shared" ref="W76" si="80">W72/W3</f>
+        <f t="shared" ref="W76" si="83">W72/W3</f>
         <v>5.4847889402181478</v>
       </c>
       <c r="X76" s="92">
@@ -6829,7 +6878,7 @@
         <v>1.6535424198491799</v>
       </c>
       <c r="Y76" s="92">
-        <f t="shared" ref="Y76" si="81">Y72/Y3</f>
+        <f t="shared" ref="Y76" si="84">Y72/Y3</f>
         <v>1.9731236651602644</v>
       </c>
       <c r="Z76" s="140"/>
@@ -6839,7 +6888,7 @@
         <v>141</v>
       </c>
       <c r="W77" s="92">
-        <f t="shared" ref="W77" si="82">W73/W3</f>
+        <f t="shared" ref="W77" si="85">W73/W3</f>
         <v>5.0682219795347674</v>
       </c>
       <c r="X77" s="92">
@@ -6847,7 +6896,7 @@
         <v>1.3641560741608643</v>
       </c>
       <c r="Y77" s="92">
-        <f t="shared" ref="Y77" si="83">Y73/Y3</f>
+        <f t="shared" ref="Y77" si="86">Y73/Y3</f>
         <v>1.7383527405826615</v>
       </c>
       <c r="Z77" s="140"/>
@@ -6856,8 +6905,28 @@
       <c r="B78" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="R78" s="92">
+        <f t="shared" ref="R78:W78" si="87">R71/R13</f>
+        <v>133.19119042038895</v>
+      </c>
+      <c r="S78" s="92">
+        <f t="shared" si="87"/>
+        <v>13.652214631996477</v>
+      </c>
+      <c r="T78" s="92">
+        <f t="shared" si="87"/>
+        <v>16.380696337308347</v>
+      </c>
+      <c r="U78" s="92">
+        <f t="shared" si="87"/>
+        <v>14.71662553286964</v>
+      </c>
+      <c r="V78" s="92">
+        <f t="shared" si="87"/>
+        <v>142.9681123618769</v>
+      </c>
       <c r="W78" s="92">
-        <f t="shared" ref="W78" si="84">W71/W13</f>
+        <f t="shared" ref="W78" si="88">W71/W13</f>
         <v>228.14563625289284</v>
       </c>
       <c r="X78" s="92">
@@ -6865,7 +6934,7 @@
         <v>8.554082987476967</v>
       </c>
       <c r="Y78" s="92">
-        <f t="shared" ref="Y78" si="85">Y71/Y13</f>
+        <f t="shared" ref="Y78" si="89">Y71/Y13</f>
         <v>12.426675182278707</v>
       </c>
       <c r="Z78" s="140"/>
@@ -6875,7 +6944,7 @@
         <v>142</v>
       </c>
       <c r="W79" s="92">
-        <f t="shared" ref="W79" si="86">W73/W12</f>
+        <f t="shared" ref="W79" si="90">W73/W12</f>
         <v>210.81808995659659</v>
       </c>
       <c r="X79" s="92">
@@ -6883,7 +6952,7 @@
         <v>7.0570335094924017</v>
       </c>
       <c r="Y79" s="92">
-        <f t="shared" ref="Y79" si="87">Y73/Y12</f>
+        <f t="shared" ref="Y79" si="91">Y73/Y12</f>
         <v>10.948094760036312</v>
       </c>
       <c r="Z79" s="140"/>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Hill\Desktop\Work\Misc\Personal\financial-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC4C0E5-B347-4868-B2C1-B182384BDB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3047E9-02F2-4EE1-96A2-4B5369C2B1B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="7980" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,31 @@
     <author>me</author>
   </authors>
   <commentList>
-    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{3A373CEE-C2EA-4293-ACE0-4FDA99EC17ED}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{FF6883B4-3C30-4584-980F-D498EF8038BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>me:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BOWL now include Centre Staff Costs in COGS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{3A373CEE-C2EA-4293-ACE0-4FDA99EC17ED}">
       <text>
         <r>
           <rPr>
@@ -59,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
+    <comment ref="V26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
       <text>
         <r>
           <rPr>
@@ -117,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
+    <comment ref="V28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
       <text>
         <r>
           <rPr>
@@ -136,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="159">
   <si>
     <t>£BOWL</t>
   </si>
@@ -610,6 +634,9 @@
   </si>
   <si>
     <t>Market Cap</t>
+  </si>
+  <si>
+    <t>H224</t>
   </si>
 </sst>
 </file>
@@ -967,7 +994,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1244,37 +1271,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,6 +1301,46 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1384,15 +1430,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1434,15 +1480,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1458,8 +1504,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9696450" y="9525"/>
-          <a:ext cx="0" cy="14316075"/>
+          <a:off x="10306050" y="9525"/>
+          <a:ext cx="0" cy="14478000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1486,7 +1532,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1809,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1864,15 +1910,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>3.3464999999999998</v>
+        <v>3.2050000000000001</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="181" t="s">
+      <c r="H6" s="174" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
@@ -1888,19 +1934,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <f>+'Financial Model'!Y14</f>
-        <v>171.46803399999999</v>
+        <f>+'Financial Model'!P14</f>
+        <v>172.98253099999999</v>
       </c>
       <c r="D7" s="39" t="str">
         <f>$C$28</f>
-        <v>FY23</v>
-      </c>
-      <c r="H7" s="183" t="s">
+        <v>H124</v>
+      </c>
+      <c r="H7" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="184"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>51</v>
@@ -1919,15 +1965,15 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>573.81777578099991</v>
+        <v>554.40901185500002</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="185" t="s">
+      <c r="H8" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1948,19 +1994,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="14">
-        <f>+'Financial Model'!Y67</f>
-        <v>52.454999999999998</v>
+        <f>+'Financial Model'!P68</f>
+        <v>41.404000000000003</v>
       </c>
       <c r="D9" s="39" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>FY23</v>
-      </c>
-      <c r="H9" s="185" t="s">
+        <v>H124</v>
+      </c>
+      <c r="H9" s="178" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1977,19 +2023,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="14">
-        <f>+'Financial Model'!Y68</f>
-        <v>1.96</v>
+        <f>+'Financial Model'!P69</f>
+        <v>0</v>
       </c>
       <c r="D10" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>FY23</v>
-      </c>
-      <c r="H10" s="185" t="s">
+        <v>H124</v>
+      </c>
+      <c r="H10" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -2011,18 +2057,18 @@
       </c>
       <c r="C11" s="14">
         <f>C9-C10</f>
-        <v>50.494999999999997</v>
+        <v>41.404000000000003</v>
       </c>
       <c r="D11" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>FY23</v>
-      </c>
-      <c r="H11" s="185" t="s">
+        <v>H124</v>
+      </c>
+      <c r="H11" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -2040,15 +2086,15 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>523.3227757809999</v>
+        <v>513.00501185500002</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="186" t="s">
+      <c r="H12" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -2092,19 +2138,19 @@
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="172" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="175"/>
+      <c r="D16" s="173"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="174" t="s">
+      <c r="C17" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
       <c r="H17" s="167" t="s">
         <v>125</v>
       </c>
@@ -2115,8 +2161,8 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
       <c r="H18" s="81" t="s">
         <v>119</v>
       </c>
@@ -2127,8 +2173,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
       <c r="H19" s="85" t="s">
         <v>120</v>
       </c>
@@ -2177,10 +2223,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="174" t="s">
+      <c r="C23" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="175"/>
+      <c r="D23" s="173"/>
       <c r="H23" s="86" t="s">
         <v>128</v>
       </c>
@@ -2193,10 +2239,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="174">
+      <c r="C24" s="172">
         <v>2010</v>
       </c>
-      <c r="D24" s="175"/>
+      <c r="D24" s="173"/>
       <c r="H24" s="81"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -2207,11 +2253,11 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="174">
-        <f>+'Financial Model'!Y25</f>
+      <c r="C25" s="172">
+        <f>+'Financial Model'!Z25</f>
         <v>71</v>
       </c>
-      <c r="D25" s="175"/>
+      <c r="D25" s="173"/>
       <c r="H25" s="81"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -2225,11 +2271,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="178">
-        <f>+'Financial Model'!Y33</f>
+      <c r="C26" s="182">
+        <f>+'Financial Model'!Z33</f>
         <v>2787</v>
       </c>
-      <c r="D26" s="175"/>
+      <c r="D26" s="173"/>
       <c r="H26" s="83"/>
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
@@ -2240,30 +2286,30 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="174">
+      <c r="C27" s="172">
         <v>2016</v>
       </c>
-      <c r="D27" s="175"/>
+      <c r="D27" s="173"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
         <v>139</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D28" s="97">
-        <v>45278</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="170" t="s">
+      <c r="C29" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="171"/>
+      <c r="D29" s="186"/>
       <c r="H29" s="167" t="s">
         <v>126</v>
       </c>
@@ -2308,11 +2354,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="172">
-        <f>C6/'Financial Model'!Y65</f>
-        <v>3.8787195875422458</v>
-      </c>
-      <c r="D33" s="173"/>
+      <c r="C33" s="183">
+        <f>C6/'Financial Model'!P66</f>
+        <v>3.6746491234738916</v>
+      </c>
+      <c r="D33" s="184"/>
       <c r="H33" s="85"/>
       <c r="I33" s="82"/>
       <c r="J33" s="82"/>
@@ -2323,11 +2369,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="172">
-        <f>C8/'Financial Model'!Y3</f>
-        <v>2.6679023618015449</v>
-      </c>
-      <c r="D34" s="173"/>
+      <c r="C34" s="183">
+        <f>+C8/SUM('Financial Model'!O3:P3)</f>
+        <v>2.4726448567905202</v>
+      </c>
+      <c r="D34" s="184"/>
       <c r="H34" s="81" t="s">
         <v>121</v>
       </c>
@@ -2340,11 +2386,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="172">
-        <f>C12/'Financial Model'!Y3</f>
-        <v>2.4331314372239423</v>
-      </c>
-      <c r="D35" s="173"/>
+      <c r="C35" s="183">
+        <f>+C12/SUM('Financial Model'!O3:P3)</f>
+        <v>2.2879844608348163</v>
+      </c>
+      <c r="D35" s="184"/>
       <c r="H35" s="85" t="s">
         <v>127</v>
       </c>
@@ -2357,11 +2403,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="172">
-        <f>C6/'Financial Model'!Y13</f>
-        <v>16.802371110099269</v>
-      </c>
-      <c r="D36" s="173"/>
+      <c r="C36" s="183">
+        <f>+C6/SUM('Financial Model'!O13:P13)</f>
+        <v>16.170113612901787</v>
+      </c>
+      <c r="D36" s="184"/>
       <c r="H36" s="81"/>
       <c r="I36" s="82"/>
       <c r="J36" s="82"/>
@@ -2372,11 +2418,11 @@
       <c r="B37" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="176">
-        <f>C12/'Financial Model'!Y12</f>
-        <v>15.323790687856873</v>
-      </c>
-      <c r="D37" s="177"/>
+      <c r="C37" s="180">
+        <f>+C12/SUM('Financial Model'!O12:P12)</f>
+        <v>15.009801973638021</v>
+      </c>
+      <c r="D37" s="181"/>
       <c r="H37" s="81"/>
       <c r="I37" s="82"/>
       <c r="J37" s="82"/>
@@ -2392,6 +2438,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2406,22 +2468,6 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2437,13 +2483,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
-  <dimension ref="A1:CU84"/>
+  <dimension ref="A1:CV85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF37" sqref="AA37:AF37"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2462,15 +2508,16 @@
     <col min="13" max="13" width="9.140625" style="25"/>
     <col min="14" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="9.140625" style="25"/>
-    <col min="16" max="16" width="9.140625" style="154"/>
-    <col min="17" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="9.140625" style="78"/>
-    <col min="27" max="42" width="9.140625" style="1"/>
-    <col min="43" max="43" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="189"/>
+    <col min="17" max="17" width="9.140625" style="154"/>
+    <col min="18" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="9.140625" style="78"/>
+    <col min="28" max="43" width="9.140625" style="1"/>
+    <col min="44" max="44" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:100" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="10" t="s">
         <v>113</v>
       </c>
@@ -2507,83 +2554,86 @@
       <c r="O1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="151" t="s">
+      <c r="P1" s="187" t="s">
         <v>155</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="Q1" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="130" t="s">
+      <c r="AA1" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:99" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:100" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="19"/>
       <c r="E2" s="35"/>
@@ -2615,38 +2665,38 @@
         <v>45016</v>
       </c>
       <c r="O2" s="35">
-        <f>Y2</f>
+        <f>Z2</f>
         <v>45199</v>
       </c>
-      <c r="P2" s="152"/>
-      <c r="R2" s="22">
+      <c r="P2" s="199">
+        <v>45382</v>
+      </c>
+      <c r="Q2" s="152"/>
+      <c r="S2" s="22">
         <v>42643</v>
       </c>
-      <c r="S2" s="22">
+      <c r="T2" s="22">
         <v>43008</v>
       </c>
-      <c r="T2" s="22">
+      <c r="U2" s="22">
         <v>43373</v>
       </c>
-      <c r="U2" s="22">
+      <c r="V2" s="22">
         <v>43738</v>
       </c>
-      <c r="V2" s="22">
+      <c r="W2" s="22">
         <v>44104</v>
       </c>
-      <c r="W2" s="22">
+      <c r="X2" s="22">
         <v>44469</v>
       </c>
-      <c r="X2" s="22">
+      <c r="Y2" s="22">
         <v>44834</v>
       </c>
-      <c r="Y2" s="22">
+      <c r="Z2" s="22">
         <v>45199</v>
       </c>
-      <c r="Z2" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="131" t="s">
         <v>67</v>
       </c>
       <c r="AB2" s="21" t="s">
@@ -2691,8 +2741,11 @@
       <c r="AO2" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP2" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2702,128 +2755,131 @@
         <v>66.989999999999995</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G12" si="0">U3-F3</f>
+        <f t="shared" ref="G3:G12" si="0">V3-F3</f>
         <v>62.904000000000011</v>
       </c>
       <c r="H3" s="36">
         <v>69.23</v>
       </c>
       <c r="I3" s="30">
-        <f>V3-H3</f>
+        <f>W3-H3</f>
         <v>10.242999999999995</v>
       </c>
       <c r="J3" s="12">
         <v>10.433</v>
       </c>
       <c r="K3" s="30">
-        <f>W3-J3</f>
+        <f>X3-J3</f>
         <v>61.445</v>
       </c>
       <c r="L3" s="12">
         <v>100.173</v>
       </c>
       <c r="M3" s="30">
-        <f>X3-L3</f>
+        <f>Y3-L3</f>
         <v>93.568000000000012</v>
       </c>
       <c r="N3" s="12">
         <v>110.05200000000001</v>
       </c>
       <c r="O3" s="30">
-        <f>Y3-N3</f>
+        <f>Z3-N3</f>
         <v>105.02999999999999</v>
       </c>
-      <c r="P3" s="153"/>
-      <c r="R3" s="12">
+      <c r="P3" s="201">
+        <v>119.187</v>
+      </c>
+      <c r="Q3" s="153"/>
+      <c r="S3" s="12">
         <v>104.803</v>
       </c>
-      <c r="S3" s="12">
+      <c r="T3" s="12">
         <v>113.968</v>
       </c>
-      <c r="T3" s="12">
+      <c r="U3" s="12">
         <v>120.548</v>
       </c>
-      <c r="U3" s="12">
+      <c r="V3" s="12">
         <v>129.89400000000001</v>
       </c>
-      <c r="V3" s="12">
+      <c r="W3" s="12">
         <v>79.472999999999999</v>
       </c>
-      <c r="W3" s="12">
+      <c r="X3" s="12">
         <v>71.878</v>
       </c>
-      <c r="X3" s="12">
+      <c r="Y3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Z3" s="12">
         <v>215.08199999999999</v>
       </c>
-      <c r="Z3" s="132">
-        <f>Y3*(1+Z21)</f>
+      <c r="AA3" s="132">
+        <f>Z3*(1+AA21)</f>
         <v>238.74102000000002</v>
       </c>
-      <c r="AA3" s="36">
-        <f>Z3*(1+AA21)</f>
+      <c r="AB3" s="36">
+        <f>AA3*(1+AB21)</f>
         <v>274.55217299999998</v>
       </c>
-      <c r="AB3" s="36">
-        <f t="shared" ref="AB3:AO3" si="1">AA3*(1+AB21)</f>
+      <c r="AC3" s="36">
+        <f t="shared" ref="AC3:AP3" si="1">AB3*(1+AC21)</f>
         <v>329.46260759999996</v>
       </c>
-      <c r="AC3" s="36">
+      <c r="AD3" s="36">
         <f t="shared" si="1"/>
         <v>395.35512911999996</v>
       </c>
-      <c r="AD3" s="36">
+      <c r="AE3" s="36">
         <f t="shared" si="1"/>
         <v>454.65839848799993</v>
       </c>
-      <c r="AE3" s="36">
+      <c r="AF3" s="36">
         <f t="shared" si="1"/>
         <v>500.12423833679998</v>
       </c>
-      <c r="AF3" s="36">
+      <c r="AG3" s="36">
         <f t="shared" si="1"/>
         <v>550.13666217048001</v>
       </c>
-      <c r="AG3" s="36">
+      <c r="AH3" s="36">
         <f t="shared" si="1"/>
         <v>594.14759514411844</v>
       </c>
-      <c r="AH3" s="36">
+      <c r="AI3" s="36">
         <f t="shared" si="1"/>
         <v>623.85497490132434</v>
       </c>
-      <c r="AI3" s="36">
+      <c r="AJ3" s="36">
         <f t="shared" si="1"/>
         <v>655.04772364639064</v>
       </c>
-      <c r="AJ3" s="36">
+      <c r="AK3" s="36">
         <f t="shared" si="1"/>
         <v>668.14867811931845</v>
       </c>
-      <c r="AK3" s="36">
+      <c r="AL3" s="36">
         <f t="shared" si="1"/>
         <v>681.51165168170485</v>
       </c>
-      <c r="AL3" s="36">
+      <c r="AM3" s="36">
         <f t="shared" si="1"/>
         <v>695.14188471533896</v>
       </c>
-      <c r="AM3" s="36">
+      <c r="AN3" s="36">
         <f t="shared" si="1"/>
         <v>709.04472240964571</v>
       </c>
-      <c r="AN3" s="36">
+      <c r="AO3" s="36">
         <f t="shared" si="1"/>
         <v>723.22561685783865</v>
       </c>
-      <c r="AO3" s="36">
+      <c r="AP3" s="36">
         <f t="shared" si="1"/>
         <v>737.69012919499539</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>33</v>
@@ -2840,121 +2896,125 @@
         <v>9.9760000000000009</v>
       </c>
       <c r="I4" s="31">
-        <f>V4-H4</f>
+        <f>W4-H4</f>
         <v>1.5669999999999984</v>
       </c>
       <c r="J4" s="14">
         <v>1.1919999999999999</v>
       </c>
       <c r="K4" s="31">
-        <f>W4-J4</f>
+        <f>X4-J4</f>
         <v>9.0649999999999995</v>
       </c>
       <c r="L4" s="14">
         <v>13.641</v>
       </c>
       <c r="M4" s="31">
-        <f>X4-L4</f>
+        <f>Y4-L4</f>
         <v>15.750999999999999</v>
       </c>
       <c r="N4" s="14">
         <v>18.972000000000001</v>
       </c>
       <c r="O4" s="31">
-        <f>Y4-N4</f>
+        <f>Z4-N4</f>
         <v>59.235999999999997</v>
       </c>
-      <c r="R4" s="14">
+      <c r="P4" s="200">
+        <f>19.825+22.269</f>
+        <v>42.093999999999994</v>
+      </c>
+      <c r="S4" s="14">
         <v>15.375999999999999</v>
       </c>
-      <c r="S4" s="14">
+      <c r="T4" s="14">
         <v>15.349</v>
       </c>
-      <c r="T4" s="14">
+      <c r="U4" s="14">
         <v>16.748000000000001</v>
       </c>
-      <c r="U4" s="14">
+      <c r="V4" s="14">
         <v>18.542000000000002</v>
       </c>
-      <c r="V4" s="14">
+      <c r="W4" s="14">
         <v>11.542999999999999</v>
       </c>
-      <c r="W4" s="14">
+      <c r="X4" s="14">
         <v>10.257</v>
       </c>
-      <c r="X4" s="14">
+      <c r="Y4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Z4" s="14">
         <f>37.491+40.717</f>
         <v>78.207999999999998</v>
       </c>
-      <c r="Z4" s="133">
-        <f>Z3*0.16</f>
+      <c r="AA4" s="133">
+        <f>AA3*0.16</f>
         <v>38.198563200000002</v>
       </c>
-      <c r="AA4" s="27">
-        <f t="shared" ref="AA4:AO4" si="2">AA3*0.14</f>
+      <c r="AB4" s="27">
+        <f t="shared" ref="AB4:AP4" si="2">AB3*0.14</f>
         <v>38.437304220000001</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AC4" s="27">
         <f t="shared" si="2"/>
         <v>46.124765063999995</v>
       </c>
-      <c r="AC4" s="27">
+      <c r="AD4" s="27">
         <f t="shared" si="2"/>
         <v>55.349718076800002</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AE4" s="27">
         <f t="shared" si="2"/>
         <v>63.652175788319994</v>
       </c>
-      <c r="AE4" s="27">
+      <c r="AF4" s="27">
         <f t="shared" si="2"/>
         <v>70.01739336715201</v>
       </c>
-      <c r="AF4" s="27">
+      <c r="AG4" s="27">
         <f t="shared" si="2"/>
         <v>77.019132703867214</v>
       </c>
-      <c r="AG4" s="27">
+      <c r="AH4" s="27">
         <f t="shared" si="2"/>
         <v>83.180663320176592</v>
       </c>
-      <c r="AH4" s="27">
+      <c r="AI4" s="27">
         <f t="shared" si="2"/>
         <v>87.339696486185417</v>
       </c>
-      <c r="AI4" s="27">
+      <c r="AJ4" s="27">
         <f t="shared" si="2"/>
         <v>91.706681310494702</v>
       </c>
-      <c r="AJ4" s="27">
+      <c r="AK4" s="27">
         <f t="shared" si="2"/>
         <v>93.540814936704592</v>
       </c>
-      <c r="AK4" s="27">
+      <c r="AL4" s="27">
         <f t="shared" si="2"/>
         <v>95.411631235438691</v>
       </c>
-      <c r="AL4" s="27">
+      <c r="AM4" s="27">
         <f t="shared" si="2"/>
         <v>97.319863860147464</v>
       </c>
-      <c r="AM4" s="27">
+      <c r="AN4" s="27">
         <f t="shared" si="2"/>
         <v>99.266261137350412</v>
       </c>
-      <c r="AN4" s="27">
+      <c r="AO4" s="27">
         <f t="shared" si="2"/>
         <v>101.25158636009742</v>
       </c>
-      <c r="AO4" s="27">
+      <c r="AP4" s="27">
         <f t="shared" si="2"/>
         <v>103.27661808729937</v>
       </c>
     </row>
-    <row r="5" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>34</v>
@@ -2969,7 +3029,7 @@
         <v>53.836000000000013</v>
       </c>
       <c r="H5" s="36">
-        <f t="shared" ref="H5:O5" si="3">H3-H4</f>
+        <f t="shared" ref="H5:P5" si="3">H3-H4</f>
         <v>59.254000000000005</v>
       </c>
       <c r="I5" s="30">
@@ -3000,105 +3060,109 @@
         <f t="shared" si="3"/>
         <v>45.79399999999999</v>
       </c>
-      <c r="P5" s="153"/>
-      <c r="R5" s="12">
-        <f t="shared" ref="R5:Y5" si="4">R3-R4</f>
+      <c r="P5" s="12">
+        <f t="shared" si="3"/>
+        <v>77.093000000000004</v>
+      </c>
+      <c r="Q5" s="153"/>
+      <c r="S5" s="12">
+        <f t="shared" ref="S5:Z5" si="4">S3-S4</f>
         <v>89.426999999999992</v>
       </c>
-      <c r="S5" s="12">
+      <c r="T5" s="12">
         <f t="shared" si="4"/>
         <v>98.619</v>
       </c>
-      <c r="T5" s="12">
+      <c r="U5" s="12">
         <f t="shared" si="4"/>
         <v>103.8</v>
       </c>
-      <c r="U5" s="12">
+      <c r="V5" s="12">
         <f t="shared" si="4"/>
         <v>111.352</v>
       </c>
-      <c r="V5" s="12">
+      <c r="W5" s="12">
         <f t="shared" si="4"/>
         <v>67.930000000000007</v>
       </c>
-      <c r="W5" s="12">
+      <c r="X5" s="12">
         <f t="shared" si="4"/>
         <v>61.621000000000002</v>
       </c>
-      <c r="X5" s="12">
+      <c r="Y5" s="12">
         <f t="shared" si="4"/>
         <v>164.34900000000002</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Z5" s="12">
         <f t="shared" si="4"/>
         <v>136.874</v>
       </c>
-      <c r="Z5" s="132">
-        <f>Z3-Z4</f>
+      <c r="AA5" s="132">
+        <f>AA3-AA4</f>
         <v>200.54245680000002</v>
       </c>
-      <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AO5" si="5">AA3-AA4</f>
+      <c r="AB5" s="12">
+        <f t="shared" ref="AB5:AP5" si="5">AB3-AB4</f>
         <v>236.11486877999999</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AC5" s="12">
         <f t="shared" si="5"/>
         <v>283.33784253599998</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AD5" s="12">
         <f t="shared" si="5"/>
         <v>340.00541104319996</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AE5" s="12">
         <f t="shared" si="5"/>
         <v>391.00622269967994</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AF5" s="12">
         <f t="shared" si="5"/>
         <v>430.10684496964797</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AG5" s="12">
         <f t="shared" si="5"/>
         <v>473.11752946661278</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AH5" s="12">
         <f t="shared" si="5"/>
         <v>510.96693182394188</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AI5" s="12">
         <f t="shared" si="5"/>
         <v>536.51527841513894</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AJ5" s="12">
         <f t="shared" si="5"/>
         <v>563.34104233589596</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AK5" s="12">
         <f t="shared" si="5"/>
         <v>574.60786318261387</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AL5" s="12">
         <f t="shared" si="5"/>
         <v>586.10002044626617</v>
       </c>
-      <c r="AL5" s="12">
+      <c r="AM5" s="12">
         <f t="shared" si="5"/>
         <v>597.82202085519145</v>
       </c>
-      <c r="AM5" s="12">
+      <c r="AN5" s="12">
         <f t="shared" si="5"/>
         <v>609.77846127229532</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AO5" s="12">
         <f t="shared" si="5"/>
         <v>621.97403049774118</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AP5" s="12">
         <f t="shared" si="5"/>
         <v>634.41351110769597</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -3115,38 +3179,38 @@
         <v>0</v>
       </c>
       <c r="I6" s="31">
-        <f>V6-H6</f>
+        <f>W6-H6</f>
         <v>0</v>
       </c>
       <c r="J6" s="14">
         <v>1.5940000000000001</v>
       </c>
       <c r="K6" s="31">
-        <f>W6-J6</f>
+        <f>X6-J6</f>
         <v>1.22</v>
       </c>
       <c r="L6" s="14">
         <v>0</v>
       </c>
       <c r="M6" s="31">
-        <f>X6-L6</f>
+        <f>Y6-L6</f>
         <v>3.9E-2</v>
       </c>
       <c r="N6" s="14">
         <v>0</v>
       </c>
       <c r="O6" s="31">
-        <f t="shared" ref="O6:O11" si="6">Y6-N6</f>
+        <f t="shared" ref="O6:O11" si="6">Z6-N6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="14">
+      <c r="P6" s="200">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
         <v>1.395</v>
       </c>
-      <c r="S6" s="14">
+      <c r="T6" s="14">
         <v>0.08</v>
-      </c>
-      <c r="T6" s="14">
-        <v>0</v>
       </c>
       <c r="U6" s="14">
         <v>0</v>
@@ -3155,80 +3219,83 @@
         <v>0</v>
       </c>
       <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
         <v>2.8140000000000001</v>
       </c>
-      <c r="X6" s="14">
+      <c r="Y6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Z6" s="14">
         <v>0</v>
       </c>
-      <c r="Z6" s="133">
-        <f>-AVERAGE(U6:Y6)</f>
+      <c r="AA6" s="133">
+        <f>-AVERAGE(V6:Z6)</f>
         <v>-0.5706</v>
       </c>
-      <c r="AA6" s="14">
-        <f t="shared" ref="AA6:AG6" si="7">AVERAGE(R6:Z6)</f>
+      <c r="AB6" s="14">
+        <f t="shared" ref="AB6:AH6" si="7">AVERAGE(S6:AA6)</f>
         <v>0.41748888888888885</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AC6" s="14">
         <f t="shared" si="7"/>
         <v>0.30887654320987656</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AD6" s="14">
         <f t="shared" si="7"/>
         <v>0.33430727023319612</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AE6" s="14">
         <f t="shared" si="7"/>
         <v>0.37145252248132904</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AF6" s="14">
         <f t="shared" si="7"/>
         <v>0.41272502497925445</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AG6" s="14">
         <f t="shared" si="7"/>
         <v>0.45858336108806053</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AH6" s="14">
         <f t="shared" si="7"/>
         <v>0.19687040120895619</v>
       </c>
-      <c r="AH6" s="14">
-        <f>AVERAGE(Z6:AG6)</f>
+      <c r="AI6" s="14">
+        <f>AVERAGE(AA6:AH6)</f>
         <v>0.24121300151119521</v>
       </c>
-      <c r="AI6" s="14">
-        <f t="shared" ref="AI6:AO6" si="8">AVERAGE(AA6:AH6)</f>
+      <c r="AJ6" s="14">
+        <f t="shared" ref="AJ6:AP6" si="8">AVERAGE(AB6:AI6)</f>
         <v>0.34268962670009467</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AK6" s="14">
         <f t="shared" si="8"/>
         <v>0.33333971892649533</v>
       </c>
-      <c r="AK6" s="14">
+      <c r="AL6" s="14">
         <f t="shared" si="8"/>
         <v>0.33639761589107264</v>
       </c>
-      <c r="AL6" s="14">
+      <c r="AM6" s="14">
         <f t="shared" si="8"/>
         <v>0.33665890909830726</v>
       </c>
-      <c r="AM6" s="14">
+      <c r="AN6" s="14">
         <f t="shared" si="8"/>
         <v>0.33230970742542953</v>
       </c>
-      <c r="AN6" s="14">
+      <c r="AO6" s="14">
         <f t="shared" si="8"/>
         <v>0.32225779273120136</v>
       </c>
-      <c r="AO6" s="14">
+      <c r="AP6" s="14">
         <f t="shared" si="8"/>
         <v>0.30521709668659402</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -3244,21 +3311,21 @@
         <v>40.078000000000003</v>
       </c>
       <c r="I7" s="31">
-        <f>V7-H7</f>
+        <f>W7-H7</f>
         <v>17.991</v>
       </c>
       <c r="J7" s="14">
         <v>20.856999999999999</v>
       </c>
       <c r="K7" s="31">
-        <f>W7-J7</f>
+        <f>X7-J7</f>
         <v>33.997999999999998</v>
       </c>
       <c r="L7" s="14">
         <v>48.915999999999997</v>
       </c>
       <c r="M7" s="31">
-        <f>X7-L7</f>
+        <f>Y7-L7</f>
         <v>60.022999999999996</v>
       </c>
       <c r="N7" s="14">
@@ -3268,96 +3335,99 @@
         <f t="shared" si="6"/>
         <v>23.855000000000004</v>
       </c>
-      <c r="R7" s="14">
+      <c r="P7" s="200">
+        <v>42.725000000000001</v>
+      </c>
+      <c r="S7" s="14">
         <v>76.444000000000003</v>
       </c>
-      <c r="S7" s="14">
+      <c r="T7" s="14">
         <v>76.498000000000005</v>
       </c>
-      <c r="T7" s="14">
+      <c r="U7" s="14">
         <v>78.908000000000001</v>
       </c>
-      <c r="U7" s="14">
+      <c r="V7" s="14">
         <v>82.908000000000001</v>
       </c>
-      <c r="V7" s="14">
+      <c r="W7" s="14">
         <v>58.069000000000003</v>
       </c>
-      <c r="W7" s="14">
+      <c r="X7" s="14">
         <v>54.854999999999997</v>
       </c>
-      <c r="X7" s="14">
+      <c r="Y7" s="14">
         <v>108.93899999999999</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Z7" s="14">
         <v>82.789000000000001</v>
       </c>
-      <c r="Z7" s="133">
-        <f>Z5*0.62</f>
+      <c r="AA7" s="133">
+        <f>AA5*0.62</f>
         <v>124.33632321600001</v>
       </c>
-      <c r="AA7" s="27">
-        <f>AA5*0.63</f>
+      <c r="AB7" s="27">
+        <f>AB5*0.63</f>
         <v>148.7523673314</v>
       </c>
-      <c r="AB7" s="27">
-        <f t="shared" ref="AB7:AO7" si="9">AB5*0.63</f>
+      <c r="AC7" s="27">
+        <f t="shared" ref="AC7:AP7" si="9">AC5*0.63</f>
         <v>178.50284079767999</v>
       </c>
-      <c r="AC7" s="27">
+      <c r="AD7" s="27">
         <f t="shared" si="9"/>
         <v>214.20340895721597</v>
       </c>
-      <c r="AD7" s="27">
+      <c r="AE7" s="27">
         <f t="shared" si="9"/>
         <v>246.33392030079835</v>
       </c>
-      <c r="AE7" s="27">
+      <c r="AF7" s="27">
         <f t="shared" si="9"/>
         <v>270.9673123308782</v>
       </c>
-      <c r="AF7" s="27">
+      <c r="AG7" s="27">
         <f t="shared" si="9"/>
         <v>298.06404356396604</v>
       </c>
-      <c r="AG7" s="27">
+      <c r="AH7" s="27">
         <f t="shared" si="9"/>
         <v>321.90916704908341</v>
       </c>
-      <c r="AH7" s="27">
+      <c r="AI7" s="27">
         <f t="shared" si="9"/>
         <v>338.00462540153751</v>
       </c>
-      <c r="AI7" s="27">
+      <c r="AJ7" s="27">
         <f t="shared" si="9"/>
         <v>354.90485667161448</v>
       </c>
-      <c r="AJ7" s="27">
+      <c r="AK7" s="27">
         <f t="shared" si="9"/>
         <v>362.00295380504673</v>
       </c>
-      <c r="AK7" s="27">
+      <c r="AL7" s="27">
         <f t="shared" si="9"/>
         <v>369.24301288114771</v>
       </c>
-      <c r="AL7" s="27">
+      <c r="AM7" s="27">
         <f t="shared" si="9"/>
         <v>376.62787313877061</v>
       </c>
-      <c r="AM7" s="27">
+      <c r="AN7" s="27">
         <f t="shared" si="9"/>
         <v>384.16043060154607</v>
       </c>
-      <c r="AN7" s="27">
+      <c r="AO7" s="27">
         <f t="shared" si="9"/>
         <v>391.84363921357692</v>
       </c>
-      <c r="AO7" s="27">
+      <c r="AP7" s="27">
         <f t="shared" si="9"/>
         <v>399.68051199784844</v>
       </c>
     </row>
-    <row r="8" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
@@ -3371,7 +3441,7 @@
         <v>11.681000000000012</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" ref="H8:O8" si="10">H5+H6-H7</f>
+        <f t="shared" ref="H8:P8" si="10">H5+H6-H7</f>
         <v>19.176000000000002</v>
       </c>
       <c r="I8" s="30">
@@ -3402,105 +3472,109 @@
         <f t="shared" si="10"/>
         <v>21.938999999999986</v>
       </c>
-      <c r="P8" s="153"/>
-      <c r="R8" s="12">
-        <f t="shared" ref="R8:Z8" si="11">R5+R6-R7</f>
+      <c r="P8" s="12">
+        <f t="shared" si="10"/>
+        <v>34.368000000000002</v>
+      </c>
+      <c r="Q8" s="153"/>
+      <c r="S8" s="12">
+        <f t="shared" ref="S8:AA8" si="11">S5+S6-S7</f>
         <v>14.377999999999986</v>
       </c>
-      <c r="S8" s="12">
+      <c r="T8" s="12">
         <f t="shared" si="11"/>
         <v>22.200999999999993</v>
       </c>
-      <c r="T8" s="12">
+      <c r="U8" s="12">
         <f t="shared" si="11"/>
         <v>24.891999999999996</v>
       </c>
-      <c r="U8" s="12">
+      <c r="V8" s="12">
         <f t="shared" si="11"/>
         <v>28.444000000000003</v>
       </c>
-      <c r="V8" s="12">
+      <c r="W8" s="12">
         <f t="shared" si="11"/>
         <v>9.8610000000000042</v>
       </c>
-      <c r="W8" s="12">
+      <c r="X8" s="12">
         <f t="shared" si="11"/>
         <v>9.5800000000000054</v>
       </c>
-      <c r="X8" s="12">
+      <c r="Y8" s="12">
         <f t="shared" si="11"/>
         <v>55.449000000000012</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Z8" s="12">
         <f t="shared" si="11"/>
         <v>54.084999999999994</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="AA8" s="41">
         <f t="shared" si="11"/>
         <v>75.635533584000001</v>
       </c>
-      <c r="AA8" s="12">
-        <f t="shared" ref="AA8:AO8" si="12">AA5+AA6-AA7</f>
+      <c r="AB8" s="12">
+        <f t="shared" ref="AB8:AP8" si="12">AB5+AB6-AB7</f>
         <v>87.779990337488897</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AC8" s="12">
         <f t="shared" si="12"/>
         <v>105.14387828152985</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AD8" s="12">
         <f t="shared" si="12"/>
         <v>126.13630935621717</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AE8" s="12">
         <f t="shared" si="12"/>
         <v>145.0437549213629</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AF8" s="12">
         <f t="shared" si="12"/>
         <v>159.552257663749</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AG8" s="12">
         <f t="shared" si="12"/>
         <v>175.51206926373482</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AH8" s="12">
         <f t="shared" si="12"/>
         <v>189.25463517606744</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AI8" s="12">
         <f t="shared" si="12"/>
         <v>198.75186601511257</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AJ8" s="12">
         <f t="shared" si="12"/>
         <v>208.7788752909816</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AK8" s="12">
         <f t="shared" si="12"/>
         <v>212.93824909649362</v>
       </c>
-      <c r="AK8" s="12">
+      <c r="AL8" s="12">
         <f t="shared" si="12"/>
         <v>217.19340518100955</v>
       </c>
-      <c r="AL8" s="12">
+      <c r="AM8" s="12">
         <f t="shared" si="12"/>
         <v>221.53080662551918</v>
       </c>
-      <c r="AM8" s="12">
+      <c r="AN8" s="12">
         <f t="shared" si="12"/>
         <v>225.9503403781747</v>
       </c>
-      <c r="AN8" s="12">
+      <c r="AO8" s="12">
         <f t="shared" si="12"/>
         <v>230.45264907689545</v>
       </c>
-      <c r="AO8" s="12">
+      <c r="AP8" s="12">
         <f t="shared" si="12"/>
         <v>235.03821620653417</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
@@ -3518,21 +3592,21 @@
         <v>4.7079999999999993</v>
       </c>
       <c r="I9" s="31">
-        <f>V9-H9</f>
+        <f>W9-H9</f>
         <v>3.9570000000000016</v>
       </c>
       <c r="J9" s="14">
         <v>4.4669999999999996</v>
       </c>
       <c r="K9" s="31">
-        <f>W9-J9</f>
+        <f>X9-J9</f>
         <v>4.6510000000000007</v>
       </c>
       <c r="L9" s="14">
         <v>4.1790000000000003</v>
       </c>
       <c r="M9" s="31">
-        <f>X9-L9</f>
+        <f>Y9-L9</f>
         <v>4.6049999999999986</v>
       </c>
       <c r="N9" s="14">
@@ -3542,88 +3616,92 @@
         <f t="shared" si="6"/>
         <v>4.5480000000000009</v>
       </c>
-      <c r="R9" s="14">
+      <c r="P9" s="200">
+        <f>-1.029+5.869</f>
+        <v>4.84</v>
+      </c>
+      <c r="S9" s="14">
         <f>-0.022+11.905-0.079</f>
         <v>11.803999999999998</v>
       </c>
-      <c r="S9" s="14">
+      <c r="T9" s="14">
         <f>1.158-0.012+0.055</f>
         <v>1.2009999999999998</v>
       </c>
-      <c r="T9" s="14">
+      <c r="U9" s="14">
         <f>0.976-0.018</f>
         <v>0.95799999999999996</v>
       </c>
-      <c r="U9" s="14">
+      <c r="V9" s="14">
         <f>1.023-0.167</f>
         <v>0.85599999999999987</v>
       </c>
-      <c r="V9" s="14">
+      <c r="W9" s="14">
         <f>8.743-0.078</f>
         <v>8.6650000000000009</v>
       </c>
-      <c r="W9" s="14">
+      <c r="X9" s="14">
         <v>9.1180000000000003</v>
       </c>
-      <c r="X9" s="14">
+      <c r="Y9" s="14">
         <f>-0.012+8.796</f>
         <v>8.7839999999999989</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Z9" s="14">
         <f>10.445-1.44</f>
         <v>9.0050000000000008</v>
       </c>
-      <c r="Z9" s="133">
-        <f>-AVERAGE(V9:Y9)</f>
+      <c r="AA9" s="133">
+        <f>-AVERAGE(W9:Z9)</f>
         <v>-8.8930000000000007</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>2.9</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>3.9</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>5.9</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>6.9</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>7.9</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>8.9</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>9.9</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1">
         <v>10.9</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <v>11.9</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AL9" s="1">
         <v>12.9</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <v>13.9</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN9" s="1">
         <v>14.9</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AO9" s="1">
         <v>15.9</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AP9" s="1">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
@@ -3637,7 +3715,7 @@
         <v>11.20300000000001</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" ref="H10:O10" si="13">H8-H9</f>
+        <f t="shared" ref="H10:P10" si="13">H8-H9</f>
         <v>14.468000000000004</v>
       </c>
       <c r="I10" s="31">
@@ -3668,104 +3746,108 @@
         <f t="shared" si="13"/>
         <v>17.390999999999984</v>
       </c>
-      <c r="R10" s="14">
-        <f t="shared" ref="R10:Z10" si="14">R8-R9</f>
+      <c r="P10" s="14">
+        <f t="shared" si="13"/>
+        <v>29.528000000000002</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" ref="S10:AA10" si="14">S8-S9</f>
         <v>2.5739999999999874</v>
       </c>
-      <c r="S10" s="14">
+      <c r="T10" s="14">
         <f t="shared" si="14"/>
         <v>20.999999999999993</v>
       </c>
-      <c r="T10" s="14">
+      <c r="U10" s="14">
         <f t="shared" si="14"/>
         <v>23.933999999999997</v>
       </c>
-      <c r="U10" s="14">
+      <c r="V10" s="14">
         <f t="shared" si="14"/>
         <v>27.588000000000001</v>
       </c>
-      <c r="V10" s="14">
+      <c r="W10" s="14">
         <f t="shared" si="14"/>
         <v>1.1960000000000033</v>
       </c>
-      <c r="W10" s="14">
+      <c r="X10" s="14">
         <f t="shared" si="14"/>
         <v>0.46200000000000507</v>
       </c>
-      <c r="X10" s="14">
+      <c r="Y10" s="14">
         <f t="shared" si="14"/>
         <v>46.665000000000013</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Z10" s="14">
         <f t="shared" si="14"/>
         <v>45.079999999999991</v>
       </c>
-      <c r="Z10" s="44">
+      <c r="AA10" s="44">
         <f t="shared" si="14"/>
         <v>84.528533584000002</v>
       </c>
-      <c r="AA10" s="14">
-        <f t="shared" ref="AA10:AO10" si="15">AA8-AA9</f>
+      <c r="AB10" s="14">
+        <f t="shared" ref="AB10:AP10" si="15">AB8-AB9</f>
         <v>84.879990337488891</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AC10" s="14">
         <f t="shared" si="15"/>
         <v>101.24387828152985</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AD10" s="14">
         <f t="shared" si="15"/>
         <v>121.23630935621716</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AE10" s="14">
         <f t="shared" si="15"/>
         <v>139.1437549213629</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AF10" s="14">
         <f t="shared" si="15"/>
         <v>152.652257663749</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AG10" s="14">
         <f t="shared" si="15"/>
         <v>167.61206926373481</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AH10" s="14">
         <f t="shared" si="15"/>
         <v>180.35463517606743</v>
       </c>
-      <c r="AH10" s="14">
+      <c r="AI10" s="14">
         <f t="shared" si="15"/>
         <v>188.85186601511256</v>
       </c>
-      <c r="AI10" s="14">
+      <c r="AJ10" s="14">
         <f t="shared" si="15"/>
         <v>197.8788752909816</v>
       </c>
-      <c r="AJ10" s="14">
+      <c r="AK10" s="14">
         <f t="shared" si="15"/>
         <v>201.03824909649362</v>
       </c>
-      <c r="AK10" s="14">
+      <c r="AL10" s="14">
         <f t="shared" si="15"/>
         <v>204.29340518100955</v>
       </c>
-      <c r="AL10" s="14">
+      <c r="AM10" s="14">
         <f t="shared" si="15"/>
         <v>207.63080662551917</v>
       </c>
-      <c r="AM10" s="14">
+      <c r="AN10" s="14">
         <f t="shared" si="15"/>
         <v>211.0503403781747</v>
       </c>
-      <c r="AN10" s="14">
+      <c r="AO10" s="14">
         <f t="shared" si="15"/>
         <v>214.55264907689545</v>
       </c>
-      <c r="AO10" s="14">
+      <c r="AP10" s="14">
         <f t="shared" si="15"/>
         <v>218.13821620653417</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
@@ -3781,21 +3863,21 @@
         <v>2.948</v>
       </c>
       <c r="I11" s="31">
-        <f>V11-H11</f>
+        <f>W11-H11</f>
         <v>-3.137</v>
       </c>
       <c r="J11" s="14">
         <v>-2.8559999999999999</v>
       </c>
       <c r="K11" s="31">
-        <f>W11-J11</f>
+        <f>X11-J11</f>
         <v>1.5899999999999999</v>
       </c>
       <c r="L11" s="14">
         <v>6.4119999999999999</v>
       </c>
       <c r="M11" s="31">
-        <f>X11-L11</f>
+        <f>Y11-L11</f>
         <v>2.8020000000000005</v>
       </c>
       <c r="N11" s="14">
@@ -3805,96 +3887,99 @@
         <f t="shared" si="6"/>
         <v>5.16</v>
       </c>
-      <c r="R11" s="14">
+      <c r="P11" s="200">
+        <v>7.5810000000000004</v>
+      </c>
+      <c r="S11" s="14">
         <v>1.387</v>
       </c>
-      <c r="S11" s="14">
+      <c r="T11" s="14">
         <v>2.8479999999999999</v>
       </c>
-      <c r="T11" s="14">
+      <c r="U11" s="14">
         <v>5.15</v>
       </c>
-      <c r="U11" s="14">
+      <c r="V11" s="14">
         <v>5.3029999999999999</v>
       </c>
-      <c r="V11" s="14">
+      <c r="W11" s="14">
         <v>-0.189</v>
       </c>
-      <c r="W11" s="14">
+      <c r="X11" s="14">
         <v>-1.266</v>
       </c>
-      <c r="X11" s="14">
+      <c r="Y11" s="14">
         <v>9.2140000000000004</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Z11" s="14">
         <v>10.929</v>
       </c>
-      <c r="Z11" s="133">
-        <f>Z10-Z12</f>
+      <c r="AA11" s="133">
+        <f>AA10-AA12</f>
         <v>16.905706716799997</v>
       </c>
-      <c r="AA11" s="27">
-        <f>AA10*(1-(1-AA19))</f>
+      <c r="AB11" s="27">
+        <f>AB10*(1-(1-AB19))</f>
         <v>16.975998067497773</v>
       </c>
-      <c r="AB11" s="27">
-        <f t="shared" ref="AB11:AO11" si="16">AB10*(1-(1-AB19))</f>
+      <c r="AC11" s="27">
+        <f t="shared" ref="AC11:AP11" si="16">AC10*(1-(1-AC19))</f>
         <v>20.248775656305966</v>
       </c>
-      <c r="AC11" s="27">
+      <c r="AD11" s="27">
         <f t="shared" si="16"/>
         <v>24.247261871243428</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AE11" s="27">
         <f t="shared" si="16"/>
         <v>27.828750984272574</v>
       </c>
-      <c r="AE11" s="27">
+      <c r="AF11" s="27">
         <f t="shared" si="16"/>
         <v>30.530451532749794</v>
       </c>
-      <c r="AF11" s="27">
+      <c r="AG11" s="27">
         <f t="shared" si="16"/>
         <v>33.522413852746958</v>
       </c>
-      <c r="AG11" s="27">
+      <c r="AH11" s="27">
         <f t="shared" si="16"/>
         <v>36.070927035213479</v>
       </c>
-      <c r="AH11" s="27">
+      <c r="AI11" s="27">
         <f t="shared" si="16"/>
         <v>37.770373203022501</v>
       </c>
-      <c r="AI11" s="27">
+      <c r="AJ11" s="27">
         <f t="shared" si="16"/>
         <v>39.575775058196314</v>
       </c>
-      <c r="AJ11" s="27">
+      <c r="AK11" s="27">
         <f t="shared" si="16"/>
         <v>40.207649819298716</v>
       </c>
-      <c r="AK11" s="27">
+      <c r="AL11" s="27">
         <f t="shared" si="16"/>
         <v>40.858681036201901</v>
       </c>
-      <c r="AL11" s="27">
+      <c r="AM11" s="27">
         <f t="shared" si="16"/>
         <v>41.526161325103828</v>
       </c>
-      <c r="AM11" s="27">
+      <c r="AN11" s="27">
         <f t="shared" si="16"/>
         <v>42.210068075634929</v>
       </c>
-      <c r="AN11" s="27">
+      <c r="AO11" s="27">
         <f t="shared" si="16"/>
         <v>42.910529815379078</v>
       </c>
-      <c r="AO11" s="27">
+      <c r="AP11" s="27">
         <f t="shared" si="16"/>
         <v>43.627643241306821</v>
       </c>
     </row>
-    <row r="12" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
@@ -3908,7 +3993,7 @@
         <v>8.910000000000009</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" ref="H12:O12" si="17">H10-H11</f>
+        <f t="shared" ref="H12:P12" si="17">H10-H11</f>
         <v>11.520000000000003</v>
       </c>
       <c r="I12" s="30">
@@ -3939,338 +4024,342 @@
         <f t="shared" si="17"/>
         <v>12.230999999999984</v>
       </c>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="12">
-        <f t="shared" ref="R12:Y12" si="18">R10-R11</f>
+      <c r="P12" s="12">
+        <f t="shared" si="17"/>
+        <v>21.947000000000003</v>
+      </c>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="12">
+        <f t="shared" ref="S12:Z12" si="18">S10-S11</f>
         <v>1.1869999999999874</v>
       </c>
-      <c r="S12" s="12">
+      <c r="T12" s="12">
         <f t="shared" si="18"/>
         <v>18.151999999999994</v>
       </c>
-      <c r="T12" s="12">
+      <c r="U12" s="12">
         <f t="shared" si="18"/>
         <v>18.783999999999999</v>
       </c>
-      <c r="U12" s="12">
+      <c r="V12" s="12">
         <f t="shared" si="18"/>
         <v>22.285</v>
       </c>
-      <c r="V12" s="12">
+      <c r="W12" s="12">
         <f t="shared" si="18"/>
         <v>1.3850000000000033</v>
       </c>
-      <c r="W12" s="12">
+      <c r="X12" s="12">
         <f t="shared" si="18"/>
         <v>1.7280000000000051</v>
       </c>
-      <c r="X12" s="12">
+      <c r="Y12" s="12">
         <f t="shared" si="18"/>
         <v>37.451000000000015</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Z12" s="12">
         <f t="shared" si="18"/>
         <v>34.150999999999989</v>
       </c>
-      <c r="Z12" s="132">
-        <f>Z10*(1-Z19)</f>
+      <c r="AA12" s="132">
+        <f>AA10*(1-AA19)</f>
         <v>67.622826867200004</v>
       </c>
-      <c r="AA12" s="12">
-        <f t="shared" ref="AA12:AO12" si="19">AA10-AA11</f>
+      <c r="AB12" s="12">
+        <f t="shared" ref="AB12:AP12" si="19">AB10-AB11</f>
         <v>67.903992269991122</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AC12" s="12">
         <f t="shared" si="19"/>
         <v>80.995102625223879</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AD12" s="12">
         <f t="shared" si="19"/>
         <v>96.989047484973739</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AE12" s="12">
         <f t="shared" si="19"/>
         <v>111.31500393709032</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AF12" s="12">
         <f t="shared" si="19"/>
         <v>122.1218061309992</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AG12" s="12">
         <f t="shared" si="19"/>
         <v>134.08965541098786</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AH12" s="12">
         <f t="shared" si="19"/>
         <v>144.28370814085395</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AI12" s="12">
         <f t="shared" si="19"/>
         <v>151.08149281209006</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AJ12" s="12">
         <f t="shared" si="19"/>
         <v>158.30310023278528</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AK12" s="12">
         <f t="shared" si="19"/>
         <v>160.83059927719489</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AL12" s="12">
         <f t="shared" si="19"/>
         <v>163.43472414480766</v>
       </c>
-      <c r="AL12" s="12">
+      <c r="AM12" s="12">
         <f t="shared" si="19"/>
         <v>166.10464530041534</v>
       </c>
-      <c r="AM12" s="12">
+      <c r="AN12" s="12">
         <f t="shared" si="19"/>
         <v>168.84027230253977</v>
       </c>
-      <c r="AN12" s="12">
+      <c r="AO12" s="12">
         <f t="shared" si="19"/>
         <v>171.64211926151637</v>
       </c>
-      <c r="AO12" s="12">
+      <c r="AP12" s="12">
         <f t="shared" si="19"/>
         <v>174.51057296522734</v>
       </c>
-      <c r="AP12" s="12">
-        <f t="shared" ref="AP12:BU12" si="20">AO12*(1+$AR$15)</f>
+      <c r="AQ12" s="12">
+        <f t="shared" ref="AQ12:BV12" si="20">AP12*(1+$AS$15)</f>
         <v>171.02036150592278</v>
       </c>
-      <c r="AQ12" s="12">
+      <c r="AR12" s="12">
         <f t="shared" si="20"/>
         <v>167.59995427580432</v>
       </c>
-      <c r="AR12" s="12">
+      <c r="AS12" s="12">
         <f t="shared" si="20"/>
         <v>164.24795519028822</v>
       </c>
-      <c r="AS12" s="12">
+      <c r="AT12" s="12">
         <f t="shared" si="20"/>
         <v>160.96299608648246</v>
       </c>
-      <c r="AT12" s="12">
+      <c r="AU12" s="12">
         <f t="shared" si="20"/>
         <v>157.74373616475282</v>
       </c>
-      <c r="AU12" s="12">
+      <c r="AV12" s="12">
         <f t="shared" si="20"/>
         <v>154.58886144145777</v>
       </c>
-      <c r="AV12" s="12">
+      <c r="AW12" s="12">
         <f t="shared" si="20"/>
         <v>151.49708421262861</v>
       </c>
-      <c r="AW12" s="12">
+      <c r="AX12" s="12">
         <f t="shared" si="20"/>
         <v>148.46714252837603</v>
       </c>
-      <c r="AX12" s="12">
+      <c r="AY12" s="12">
         <f t="shared" si="20"/>
         <v>145.4977996778085</v>
       </c>
-      <c r="AY12" s="12">
+      <c r="AZ12" s="12">
         <f t="shared" si="20"/>
         <v>142.58784368425233</v>
       </c>
-      <c r="AZ12" s="12">
+      <c r="BA12" s="12">
         <f t="shared" si="20"/>
         <v>139.73608681056729</v>
       </c>
-      <c r="BA12" s="12">
+      <c r="BB12" s="12">
         <f t="shared" si="20"/>
         <v>136.94136507435593</v>
       </c>
-      <c r="BB12" s="12">
+      <c r="BC12" s="12">
         <f t="shared" si="20"/>
         <v>134.20253777286879</v>
       </c>
-      <c r="BC12" s="12">
+      <c r="BD12" s="12">
         <f t="shared" si="20"/>
         <v>131.51848701741142</v>
       </c>
-      <c r="BD12" s="12">
+      <c r="BE12" s="12">
         <f t="shared" si="20"/>
         <v>128.88811727706317</v>
       </c>
-      <c r="BE12" s="12">
+      <c r="BF12" s="12">
         <f t="shared" si="20"/>
         <v>126.31035493152191</v>
       </c>
-      <c r="BF12" s="12">
+      <c r="BG12" s="12">
         <f t="shared" si="20"/>
         <v>123.78414783289148</v>
       </c>
-      <c r="BG12" s="12">
+      <c r="BH12" s="12">
         <f t="shared" si="20"/>
         <v>121.30846487623364</v>
       </c>
-      <c r="BH12" s="12">
+      <c r="BI12" s="12">
         <f t="shared" si="20"/>
         <v>118.88229557870896</v>
       </c>
-      <c r="BI12" s="12">
+      <c r="BJ12" s="12">
         <f t="shared" si="20"/>
         <v>116.50464966713479</v>
       </c>
-      <c r="BJ12" s="12">
+      <c r="BK12" s="12">
         <f t="shared" si="20"/>
         <v>114.17455667379208</v>
       </c>
-      <c r="BK12" s="12">
+      <c r="BL12" s="12">
         <f t="shared" si="20"/>
         <v>111.89106554031623</v>
       </c>
-      <c r="BL12" s="12">
+      <c r="BM12" s="12">
         <f t="shared" si="20"/>
         <v>109.65324422950991</v>
       </c>
-      <c r="BM12" s="12">
+      <c r="BN12" s="12">
         <f t="shared" si="20"/>
         <v>107.46017934491971</v>
       </c>
-      <c r="BN12" s="12">
+      <c r="BO12" s="12">
         <f t="shared" si="20"/>
         <v>105.31097575802131</v>
       </c>
-      <c r="BO12" s="12">
+      <c r="BP12" s="12">
         <f t="shared" si="20"/>
         <v>103.20475624286088</v>
       </c>
-      <c r="BP12" s="12">
+      <c r="BQ12" s="12">
         <f t="shared" si="20"/>
         <v>101.14066111800366</v>
       </c>
-      <c r="BQ12" s="12">
+      <c r="BR12" s="12">
         <f t="shared" si="20"/>
         <v>99.117847895643592</v>
       </c>
-      <c r="BR12" s="12">
+      <c r="BS12" s="12">
         <f t="shared" si="20"/>
         <v>97.135490937730722</v>
       </c>
-      <c r="BS12" s="12">
+      <c r="BT12" s="12">
         <f t="shared" si="20"/>
         <v>95.1927811189761</v>
       </c>
-      <c r="BT12" s="12">
+      <c r="BU12" s="12">
         <f t="shared" si="20"/>
         <v>93.288925496596576</v>
       </c>
-      <c r="BU12" s="12">
+      <c r="BV12" s="12">
         <f t="shared" si="20"/>
         <v>91.423146986664648</v>
       </c>
-      <c r="BV12" s="12">
-        <f t="shared" ref="BV12:CU12" si="21">BU12*(1+$AR$15)</f>
+      <c r="BW12" s="12">
+        <f t="shared" ref="BW12:CV12" si="21">BV12*(1+$AS$15)</f>
         <v>89.594684046931349</v>
       </c>
-      <c r="BW12" s="12">
+      <c r="BX12" s="12">
         <f t="shared" si="21"/>
         <v>87.80279036599272</v>
       </c>
-      <c r="BX12" s="12">
+      <c r="BY12" s="12">
         <f t="shared" si="21"/>
         <v>86.046734558672867</v>
       </c>
-      <c r="BY12" s="12">
+      <c r="BZ12" s="12">
         <f t="shared" si="21"/>
         <v>84.325799867499413</v>
       </c>
-      <c r="BZ12" s="12">
+      <c r="CA12" s="12">
         <f t="shared" si="21"/>
         <v>82.639283870149427</v>
       </c>
-      <c r="CA12" s="12">
+      <c r="CB12" s="12">
         <f t="shared" si="21"/>
         <v>80.986498192746438</v>
       </c>
-      <c r="CB12" s="12">
+      <c r="CC12" s="12">
         <f t="shared" si="21"/>
         <v>79.366768228891502</v>
       </c>
-      <c r="CC12" s="12">
+      <c r="CD12" s="12">
         <f t="shared" si="21"/>
         <v>77.779432864313677</v>
       </c>
-      <c r="CD12" s="12">
+      <c r="CE12" s="12">
         <f t="shared" si="21"/>
         <v>76.223844207027398</v>
       </c>
-      <c r="CE12" s="12">
+      <c r="CF12" s="12">
         <f t="shared" si="21"/>
         <v>74.699367322886843</v>
       </c>
-      <c r="CF12" s="12">
+      <c r="CG12" s="12">
         <f t="shared" si="21"/>
         <v>73.2053799764291</v>
       </c>
-      <c r="CG12" s="12">
+      <c r="CH12" s="12">
         <f t="shared" si="21"/>
         <v>71.741272376900511</v>
       </c>
-      <c r="CH12" s="12">
+      <c r="CI12" s="12">
         <f t="shared" si="21"/>
         <v>70.306446929362494</v>
       </c>
-      <c r="CI12" s="12">
+      <c r="CJ12" s="12">
         <f t="shared" si="21"/>
         <v>68.90031799077525</v>
       </c>
-      <c r="CJ12" s="12">
+      <c r="CK12" s="12">
         <f t="shared" si="21"/>
         <v>67.522311630959749</v>
       </c>
-      <c r="CK12" s="12">
+      <c r="CL12" s="12">
         <f t="shared" si="21"/>
         <v>66.171865398340557</v>
       </c>
-      <c r="CL12" s="12">
+      <c r="CM12" s="12">
         <f t="shared" si="21"/>
         <v>64.848428090373744</v>
       </c>
-      <c r="CM12" s="12">
+      <c r="CN12" s="12">
         <f t="shared" si="21"/>
         <v>63.551459528566269</v>
       </c>
-      <c r="CN12" s="12">
+      <c r="CO12" s="12">
         <f t="shared" si="21"/>
         <v>62.280430337994943</v>
       </c>
-      <c r="CO12" s="12">
+      <c r="CP12" s="12">
         <f t="shared" si="21"/>
         <v>61.034821731235041</v>
       </c>
-      <c r="CP12" s="12">
+      <c r="CQ12" s="12">
         <f t="shared" si="21"/>
         <v>59.814125296610342</v>
       </c>
-      <c r="CQ12" s="12">
+      <c r="CR12" s="12">
         <f t="shared" si="21"/>
         <v>58.617842790678132</v>
       </c>
-      <c r="CR12" s="12">
+      <c r="CS12" s="12">
         <f t="shared" si="21"/>
         <v>57.445485934864571</v>
       </c>
-      <c r="CS12" s="12">
+      <c r="CT12" s="12">
         <f t="shared" si="21"/>
         <v>56.296576216167281</v>
       </c>
-      <c r="CT12" s="12">
+      <c r="CU12" s="12">
         <f t="shared" si="21"/>
         <v>55.170644691843933</v>
       </c>
-      <c r="CU12" s="12">
+      <c r="CV12" s="12">
         <f t="shared" si="21"/>
         <v>54.06723179800705</v>
       </c>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -4315,106 +4404,110 @@
         <f>O12/O14</f>
         <v>7.1331079704337108E-2</v>
       </c>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26">
-        <f t="shared" ref="R13:AO13" si="23">R12/R14</f>
+      <c r="P13" s="26">
+        <f>P12/P14</f>
+        <v>0.12687408302518133</v>
+      </c>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26">
+        <f t="shared" ref="S13:AP13" si="23">S12/S14</f>
         <v>1.1214705682000902E-2</v>
       </c>
-      <c r="S13" s="26">
+      <c r="T13" s="26">
         <f t="shared" si="23"/>
         <v>0.12101333333333329</v>
       </c>
-      <c r="T13" s="26">
+      <c r="U13" s="26">
         <f t="shared" si="23"/>
         <v>0.12522666666666665</v>
       </c>
-      <c r="U13" s="26">
+      <c r="V13" s="26">
         <f t="shared" si="23"/>
         <v>0.14856666666666668</v>
       </c>
-      <c r="V13" s="26">
+      <c r="W13" s="26">
         <f t="shared" si="23"/>
         <v>9.0285867154261852E-3</v>
       </c>
-      <c r="W13" s="26">
+      <c r="X13" s="26">
         <f t="shared" si="23"/>
         <v>1.0497680513797826E-2</v>
       </c>
-      <c r="X13" s="26">
+      <c r="Y13" s="26">
         <f t="shared" si="23"/>
         <v>0.21907666815291649</v>
       </c>
-      <c r="Y13" s="26">
+      <c r="Z13" s="26">
         <f t="shared" si="23"/>
         <v>0.19916831845170624</v>
       </c>
-      <c r="Z13" s="43">
+      <c r="AA13" s="43">
         <f t="shared" si="23"/>
         <v>0.39437570542856992</v>
       </c>
-      <c r="AA13" s="27">
+      <c r="AB13" s="27">
         <f t="shared" si="23"/>
         <v>0.39601545947620259</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AC13" s="27">
         <f t="shared" si="23"/>
         <v>0.47236269487538352</v>
       </c>
-      <c r="AC13" s="27">
+      <c r="AD13" s="27">
         <f t="shared" si="23"/>
         <v>0.56563923445330777</v>
       </c>
-      <c r="AD13" s="27">
+      <c r="AE13" s="27">
         <f t="shared" si="23"/>
         <v>0.64918808095210523</v>
       </c>
-      <c r="AE13" s="27">
+      <c r="AF13" s="27">
         <f t="shared" si="23"/>
         <v>0.71221325212721109</v>
       </c>
-      <c r="AF13" s="27">
+      <c r="AG13" s="27">
         <f t="shared" si="23"/>
         <v>0.78200963924849032</v>
       </c>
-      <c r="AG13" s="27">
+      <c r="AH13" s="27">
         <f t="shared" si="23"/>
         <v>0.84146126117509434</v>
       </c>
-      <c r="AH13" s="27">
+      <c r="AI13" s="27">
         <f t="shared" si="23"/>
         <v>0.88110587896569736</v>
       </c>
-      <c r="AI13" s="27">
+      <c r="AJ13" s="27">
         <f t="shared" si="23"/>
         <v>0.9232222271399303</v>
       </c>
-      <c r="AJ13" s="27">
+      <c r="AK13" s="27">
         <f t="shared" si="23"/>
         <v>0.93796257836136909</v>
       </c>
-      <c r="AK13" s="27">
+      <c r="AL13" s="27">
         <f t="shared" si="23"/>
         <v>0.95314981068020921</v>
       </c>
-      <c r="AL13" s="27">
+      <c r="AM13" s="27">
         <f t="shared" si="23"/>
         <v>0.96872076634654458</v>
       </c>
-      <c r="AM13" s="27">
+      <c r="AN13" s="27">
         <f t="shared" si="23"/>
         <v>0.98467491790650485</v>
       </c>
-      <c r="AN13" s="27">
+      <c r="AO13" s="27">
         <f t="shared" si="23"/>
         <v>1.0010152636468461</v>
       </c>
-      <c r="AO13" s="27">
+      <c r="AP13" s="27">
         <f t="shared" si="23"/>
         <v>1.0177440593109464</v>
       </c>
     </row>
-    <row r="14" spans="1:99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4423,42 +4516,42 @@
         <v>150.529032</v>
       </c>
       <c r="G14" s="32">
-        <f>U14</f>
+        <f>V14</f>
         <v>150</v>
       </c>
       <c r="H14" s="27">
         <v>150.700785</v>
       </c>
       <c r="I14" s="32">
-        <f>V14</f>
+        <f>W14</f>
         <v>153.40163899999999</v>
       </c>
       <c r="J14" s="27">
         <v>158.57798500000001</v>
       </c>
       <c r="K14" s="32">
-        <f>W14</f>
+        <f>X14</f>
         <v>164.60779099999999</v>
       </c>
       <c r="L14" s="27">
         <v>170.828776</v>
       </c>
       <c r="M14" s="32">
-        <f>X14</f>
+        <f>Y14</f>
         <v>170.949286</v>
       </c>
       <c r="N14" s="27">
         <v>171.22236899999999</v>
       </c>
       <c r="O14" s="32">
-        <f>+Y14</f>
+        <f>+Z14</f>
         <v>171.46803399999999</v>
       </c>
-      <c r="R14" s="27">
+      <c r="P14" s="200">
+        <v>172.98253099999999</v>
+      </c>
+      <c r="S14" s="27">
         <v>105.84317</v>
-      </c>
-      <c r="S14" s="1">
-        <v>150</v>
       </c>
       <c r="T14" s="1">
         <v>150</v>
@@ -4466,32 +4559,31 @@
       <c r="U14" s="1">
         <v>150</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="1">
+        <v>150</v>
+      </c>
+      <c r="W14" s="27">
         <v>153.40163899999999</v>
       </c>
-      <c r="W14" s="27">
+      <c r="X14" s="27">
         <v>164.60779099999999</v>
       </c>
-      <c r="X14" s="27">
+      <c r="Y14" s="27">
         <v>170.949286</v>
       </c>
-      <c r="Y14" s="27">
+      <c r="Z14" s="27">
         <v>171.46803399999999</v>
       </c>
-      <c r="Z14" s="134">
-        <f>+Y14</f>
+      <c r="AA14" s="134">
+        <f>+Z14</f>
         <v>171.46803399999999</v>
       </c>
-      <c r="AA14" s="27">
-        <f>Z14</f>
+      <c r="AB14" s="27">
+        <f>AA14</f>
         <v>171.46803399999999</v>
       </c>
-      <c r="AB14" s="27">
-        <f t="shared" ref="AB14:AO14" si="24">AA14</f>
-        <v>171.46803399999999</v>
-      </c>
       <c r="AC14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AC14:AP14" si="24">AB14</f>
         <v>171.46803399999999</v>
       </c>
       <c r="AD14" s="27">
@@ -4542,16 +4634,20 @@
         <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ15" s="45" t="s">
+      <c r="AP14" s="27">
+        <f t="shared" si="24"/>
+        <v>171.46803399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR15" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="AR15" s="62">
+      <c r="AS15" s="62">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
@@ -4593,56 +4689,56 @@
         <v>0.82760876676480211</v>
       </c>
       <c r="O16" s="34">
-        <f t="shared" ref="O16" si="27">O5/O3</f>
+        <f t="shared" ref="O16:P16" si="27">O5/O3</f>
         <v>0.43600875940207556</v>
       </c>
-      <c r="R16" s="23">
-        <f t="shared" ref="R16:S16" si="28">R5/R3</f>
+      <c r="P16" s="23">
+        <f t="shared" si="27"/>
+        <v>0.64682389857954314</v>
+      </c>
+      <c r="S16" s="23">
+        <f t="shared" ref="S16:T16" si="28">S5/S3</f>
         <v>0.85328664255794195</v>
       </c>
-      <c r="S16" s="23">
+      <c r="T16" s="23">
         <f t="shared" si="28"/>
         <v>0.86532184472834472</v>
       </c>
-      <c r="T16" s="23">
-        <f t="shared" ref="T16:U16" si="29">T5/T3</f>
+      <c r="U16" s="23">
+        <f t="shared" ref="U16:V16" si="29">U5/U3</f>
         <v>0.8610677904237316</v>
       </c>
-      <c r="U16" s="23">
+      <c r="V16" s="23">
         <f t="shared" si="29"/>
         <v>0.85725283692857257</v>
       </c>
-      <c r="V16" s="23">
-        <f>V5/V3</f>
-        <v>0.85475570319479577</v>
-      </c>
       <c r="W16" s="23">
         <f>W5/W3</f>
+        <v>0.85475570319479577</v>
+      </c>
+      <c r="X16" s="23">
+        <f>X5/X3</f>
         <v>0.85729986922284984</v>
       </c>
-      <c r="X16" s="23">
-        <f t="shared" ref="X16:Y16" si="30">X5/X3</f>
+      <c r="Y16" s="23">
+        <f t="shared" ref="Y16:Z16" si="30">Y5/Y3</f>
         <v>0.84829230777171583</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Z16" s="23">
         <f t="shared" si="30"/>
         <v>0.6363805432346733</v>
       </c>
-      <c r="Z16" s="135">
-        <f>Z5/Z3</f>
+      <c r="AA16" s="135">
+        <f>AA5/AA3</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="AA16" s="23">
-        <f t="shared" ref="AA16:AO16" si="31">AA5/AA3</f>
+      <c r="AB16" s="23">
+        <f t="shared" ref="AB16:AP16" si="31">AB5/AB3</f>
         <v>0.86</v>
       </c>
-      <c r="AB16" s="23">
+      <c r="AC16" s="23">
         <f t="shared" si="31"/>
         <v>0.8600000000000001</v>
-      </c>
-      <c r="AC16" s="23">
-        <f t="shared" si="31"/>
-        <v>0.86</v>
       </c>
       <c r="AD16" s="23">
         <f t="shared" si="31"/>
@@ -4678,28 +4774,32 @@
       </c>
       <c r="AL16" s="23">
         <f t="shared" si="31"/>
-        <v>0.85999999999999988</v>
+        <v>0.86</v>
       </c>
       <c r="AM16" s="23">
         <f t="shared" si="31"/>
-        <v>0.86</v>
+        <v>0.85999999999999988</v>
       </c>
       <c r="AN16" s="23">
         <f t="shared" si="31"/>
-        <v>0.85999999999999988</v>
+        <v>0.86</v>
       </c>
       <c r="AO16" s="23">
         <f t="shared" si="31"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="AQ16" s="46" t="s">
+      <c r="AP16" s="23">
+        <f t="shared" si="31"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="AR16" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="AR16" s="63">
+      <c r="AS16" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
@@ -4741,114 +4841,118 @@
         <v>0.29209828081270683</v>
       </c>
       <c r="O17" s="34">
-        <f t="shared" ref="O17" si="34">O8/O3</f>
+        <f t="shared" ref="O17:P17" si="34">O8/O3</f>
         <v>0.20888317623536121</v>
       </c>
-      <c r="R17" s="23">
-        <f t="shared" ref="R17:S17" si="35">R8/R3</f>
+      <c r="P17" s="23">
+        <f t="shared" si="34"/>
+        <v>0.28835359561025953</v>
+      </c>
+      <c r="S17" s="23">
+        <f t="shared" ref="S17:T17" si="35">S8/S3</f>
         <v>0.13719072927301687</v>
       </c>
-      <c r="S17" s="23">
+      <c r="T17" s="23">
         <f t="shared" si="35"/>
         <v>0.19480029481959843</v>
       </c>
-      <c r="T17" s="23">
-        <f t="shared" ref="T17:U17" si="36">T8/T3</f>
+      <c r="U17" s="23">
+        <f t="shared" ref="U17:V17" si="36">U8/U3</f>
         <v>0.20649036068619966</v>
       </c>
-      <c r="U17" s="23">
+      <c r="V17" s="23">
         <f t="shared" si="36"/>
         <v>0.2189785517421898</v>
       </c>
-      <c r="V17" s="23">
-        <f>V8/V3</f>
-        <v>0.12407987618436456</v>
-      </c>
       <c r="W17" s="23">
         <f>W8/W3</f>
+        <v>0.12407987618436456</v>
+      </c>
+      <c r="X17" s="23">
+        <f>X8/X3</f>
         <v>0.13328139347227252</v>
       </c>
-      <c r="X17" s="23">
-        <f t="shared" ref="X17:AO17" si="37">X8/X3</f>
+      <c r="Y17" s="23">
+        <f t="shared" ref="Y17:AP17" si="37">Y8/Y3</f>
         <v>0.28620168162650139</v>
       </c>
-      <c r="Y17" s="23">
-        <f t="shared" ref="Y17" si="38">Y8/Y3</f>
+      <c r="Z17" s="23">
+        <f t="shared" ref="Z17" si="38">Z8/Z3</f>
         <v>0.25146223300880594</v>
       </c>
-      <c r="Z17" s="135">
-        <f>Z8/Z3</f>
+      <c r="AA17" s="135">
+        <f>AA8/AA3</f>
         <v>0.31680996246057758</v>
       </c>
-      <c r="AA17" s="23">
+      <c r="AB17" s="23">
         <f t="shared" si="37"/>
         <v>0.31972061768197663</v>
       </c>
-      <c r="AB17" s="23">
+      <c r="AC17" s="23">
         <f t="shared" si="37"/>
         <v>0.31913751623426984</v>
       </c>
-      <c r="AC17" s="23">
+      <c r="AD17" s="23">
         <f t="shared" si="37"/>
         <v>0.31904558728497412</v>
       </c>
-      <c r="AD17" s="23">
+      <c r="AE17" s="23">
         <f t="shared" si="37"/>
         <v>0.31901699254586874</v>
       </c>
-      <c r="AE17" s="23">
+      <c r="AF17" s="23">
         <f t="shared" si="37"/>
         <v>0.31902524499582702</v>
       </c>
-      <c r="AF17" s="23">
+      <c r="AG17" s="23">
         <f t="shared" si="37"/>
         <v>0.31903358080386574</v>
       </c>
-      <c r="AG17" s="23">
+      <c r="AH17" s="23">
         <f t="shared" si="37"/>
         <v>0.31853134931929028</v>
       </c>
-      <c r="AH17" s="23">
+      <c r="AI17" s="23">
         <f t="shared" si="37"/>
         <v>0.31858664915920454</v>
       </c>
-      <c r="AI17" s="23">
+      <c r="AJ17" s="23">
         <f t="shared" si="37"/>
         <v>0.31872315215262864</v>
       </c>
-      <c r="AJ17" s="23">
+      <c r="AK17" s="23">
         <f t="shared" si="37"/>
         <v>0.31869890051397659</v>
       </c>
-      <c r="AK17" s="23">
+      <c r="AL17" s="23">
         <f t="shared" si="37"/>
         <v>0.31869360508372963</v>
       </c>
-      <c r="AL17" s="23">
+      <c r="AM17" s="23">
         <f t="shared" si="37"/>
         <v>0.31868430243738827</v>
       </c>
-      <c r="AM17" s="23">
+      <c r="AN17" s="23">
         <f t="shared" si="37"/>
         <v>0.31866867242209507</v>
       </c>
-      <c r="AN17" s="23">
+      <c r="AO17" s="23">
         <f t="shared" si="37"/>
         <v>0.31864558404074694</v>
       </c>
-      <c r="AO17" s="23">
+      <c r="AP17" s="23">
         <f t="shared" si="37"/>
         <v>0.3186137470254885</v>
       </c>
-      <c r="AQ17" s="46" t="s">
+      <c r="AR17" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="AR17" s="64">
-        <f>NPV(AR16,AA12:CU12)</f>
+      <c r="AS17" s="64">
+        <f>NPV(AS16,AB12:CV12)</f>
         <v>1856.1599751389613</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>45</v>
@@ -4891,114 +4995,118 @@
         <v>0.1991785701304839</v>
       </c>
       <c r="O18" s="34">
-        <f t="shared" ref="O18" si="41">O12/O3</f>
+        <f t="shared" ref="O18:P18" si="41">O12/O3</f>
         <v>0.1164524421593829</v>
       </c>
-      <c r="R18" s="23">
-        <f t="shared" ref="R18:S18" si="42">R12/R3</f>
+      <c r="P18" s="23">
+        <f t="shared" si="41"/>
+        <v>0.18413920981315079</v>
+      </c>
+      <c r="S18" s="23">
+        <f t="shared" ref="S18:T18" si="42">S12/S3</f>
         <v>1.1326011659971446E-2</v>
       </c>
-      <c r="S18" s="23">
+      <c r="T18" s="23">
         <f t="shared" si="42"/>
         <v>0.15927277832373993</v>
       </c>
-      <c r="T18" s="23">
-        <f t="shared" ref="T18:U18" si="43">T12/T3</f>
+      <c r="U18" s="23">
+        <f t="shared" ref="U18:V18" si="43">U12/U3</f>
         <v>0.15582174735375118</v>
       </c>
-      <c r="U18" s="23">
+      <c r="V18" s="23">
         <f t="shared" si="43"/>
         <v>0.17156296672671562</v>
       </c>
-      <c r="V18" s="23">
-        <f>V12/V3</f>
-        <v>1.7427302354258722E-2</v>
-      </c>
       <c r="W18" s="23">
         <f>W12/W3</f>
+        <v>1.7427302354258722E-2</v>
+      </c>
+      <c r="X18" s="23">
+        <f>X12/X3</f>
         <v>2.4040735691032097E-2</v>
       </c>
-      <c r="X18" s="23">
-        <f t="shared" ref="X18:Z18" si="44">X12/X3</f>
+      <c r="Y18" s="23">
+        <f t="shared" ref="Y18:AA18" si="44">Y12/Y3</f>
         <v>0.19330446317506367</v>
       </c>
-      <c r="Y18" s="23">
-        <f t="shared" ref="Y18" si="45">Y12/Y3</f>
+      <c r="Z18" s="23">
+        <f t="shared" ref="Z18" si="45">Z12/Z3</f>
         <v>0.15878130201504537</v>
       </c>
-      <c r="Z18" s="42">
+      <c r="AA18" s="42">
         <f t="shared" si="44"/>
         <v>0.2832476248413448</v>
       </c>
-      <c r="AA18" s="23">
-        <f t="shared" ref="AA18:AO18" si="46">AA12/AA3</f>
+      <c r="AB18" s="23">
+        <f t="shared" ref="AB18:AP18" si="46">AB12/AB3</f>
         <v>0.24732636980436912</v>
       </c>
-      <c r="AB18" s="23">
+      <c r="AC18" s="23">
         <f t="shared" si="46"/>
         <v>0.24584004605329873</v>
       </c>
-      <c r="AC18" s="23">
+      <c r="AD18" s="23">
         <f t="shared" si="46"/>
         <v>0.24532133350807039</v>
       </c>
-      <c r="AD18" s="23">
+      <c r="AE18" s="23">
         <f t="shared" si="46"/>
         <v>0.24483217357751796</v>
       </c>
-      <c r="AE18" s="23">
+      <c r="AF18" s="23">
         <f t="shared" si="46"/>
         <v>0.24418293849769063</v>
       </c>
-      <c r="AF18" s="23">
+      <c r="AG18" s="23">
         <f t="shared" si="46"/>
         <v>0.243738810065771</v>
       </c>
-      <c r="AG18" s="23">
+      <c r="AH18" s="23">
         <f t="shared" si="46"/>
         <v>0.24284152510262372</v>
       </c>
-      <c r="AH18" s="23">
+      <c r="AI18" s="23">
         <f t="shared" si="46"/>
         <v>0.24217406110448467</v>
       </c>
-      <c r="AI18" s="23">
+      <c r="AJ18" s="23">
         <f t="shared" si="46"/>
         <v>0.24166651454274929</v>
       </c>
-      <c r="AJ18" s="23">
+      <c r="AK18" s="23">
         <f t="shared" si="46"/>
         <v>0.24071079468404435</v>
       </c>
-      <c r="AK18" s="23">
+      <c r="AL18" s="23">
         <f t="shared" si="46"/>
         <v>0.23981207620077299</v>
       </c>
-      <c r="AL18" s="23">
+      <c r="AM18" s="23">
         <f t="shared" si="46"/>
         <v>0.23895070769391963</v>
       </c>
-      <c r="AM18" s="23">
+      <c r="AN18" s="23">
         <f t="shared" si="46"/>
         <v>0.2381235865189805</v>
       </c>
-      <c r="AN18" s="23">
+      <c r="AO18" s="23">
         <f t="shared" si="46"/>
         <v>0.23732859464691131</v>
       </c>
-      <c r="AO18" s="23">
+      <c r="AP18" s="23">
         <f t="shared" si="46"/>
         <v>0.23656351909664572</v>
       </c>
-      <c r="AQ18" s="46" t="s">
+      <c r="AR18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AR18" s="64">
+      <c r="AS18" s="64">
         <f>Main!C11</f>
-        <v>50.494999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41.404000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>137</v>
       </c>
@@ -5040,54 +5148,54 @@
         <v>0.20834988623641146</v>
       </c>
       <c r="O19" s="34">
-        <f t="shared" ref="O19" si="49">O11/O10</f>
+        <f t="shared" ref="O19:P19" si="49">O11/O10</f>
         <v>0.29670519234086623</v>
       </c>
-      <c r="R19" s="23">
-        <f>R11/R10</f>
+      <c r="P19" s="23">
+        <f t="shared" si="49"/>
+        <v>0.25673936602546737</v>
+      </c>
+      <c r="S19" s="23">
+        <f>S11/S10</f>
         <v>0.53885003885004146</v>
       </c>
-      <c r="S19" s="23">
-        <f t="shared" ref="S19:W19" si="50">S11/S10</f>
+      <c r="T19" s="23">
+        <f t="shared" ref="T19:X19" si="50">T11/T10</f>
         <v>0.13561904761904767</v>
       </c>
-      <c r="T19" s="23">
+      <c r="U19" s="23">
         <f t="shared" si="50"/>
         <v>0.21517506476142731</v>
       </c>
-      <c r="U19" s="23">
+      <c r="V19" s="23">
         <f t="shared" si="50"/>
         <v>0.1922212556183848</v>
       </c>
-      <c r="V19" s="23">
+      <c r="W19" s="23">
         <f t="shared" si="50"/>
         <v>-0.15802675585284237</v>
       </c>
-      <c r="W19" s="23">
+      <c r="X19" s="23">
         <f t="shared" si="50"/>
         <v>-2.7402597402597104</v>
       </c>
-      <c r="X19" s="23">
-        <f t="shared" ref="X19:Y19" si="51">X11/X10</f>
+      <c r="Y19" s="23">
+        <f t="shared" ref="Y19:Z19" si="51">Y11/Y10</f>
         <v>0.19744990892531872</v>
       </c>
-      <c r="Y19" s="23">
+      <c r="Z19" s="23">
         <f t="shared" si="51"/>
         <v>0.24243566992014201</v>
       </c>
-      <c r="Z19" s="135">
+      <c r="AA19" s="135">
         <v>0.2</v>
       </c>
-      <c r="AA19" s="23">
-        <f>Z19</f>
+      <c r="AB19" s="23">
+        <f>AA19</f>
         <v>0.2</v>
       </c>
-      <c r="AB19" s="23">
-        <f t="shared" ref="AB19:AO19" si="52">AA19</f>
-        <v>0.2</v>
-      </c>
       <c r="AC19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AC19:AP19" si="52">AB19</f>
         <v>0.2</v>
       </c>
       <c r="AD19" s="23">
@@ -5138,24 +5246,28 @@
         <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
-      <c r="AQ19" s="46" t="s">
+      <c r="AP19" s="23">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AR19" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AR19" s="64">
-        <f>AR17+AR18</f>
-        <v>1906.6549751389612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AQ20" s="47" t="s">
+      <c r="AS19" s="64">
+        <f>AS17+AS18</f>
+        <v>1897.5639751389613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR20" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="AR20" s="65">
-        <f>AR19/Main!C7</f>
-        <v>11.119594309566535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS20" s="65">
+        <f>AS19/Main!C7</f>
+        <v>10.969685575585441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
@@ -5167,7 +5279,7 @@
         <v>71</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:O21" si="53">H3/F3-1</f>
+        <f t="shared" ref="H21:P21" si="53">H3/F3-1</f>
         <v>3.3437826541274918E-2</v>
       </c>
       <c r="I21" s="34">
@@ -5198,69 +5310,70 @@
         <f t="shared" si="53"/>
         <v>0.12249914500683956</v>
       </c>
-      <c r="R21" s="38" t="s">
+      <c r="P21" s="23">
+        <f t="shared" si="53"/>
+        <v>8.3006215243702997E-2</v>
+      </c>
+      <c r="S21" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="S21" s="23">
-        <f t="shared" ref="S21:V21" si="54">S3/R3-1</f>
+      <c r="T21" s="23">
+        <f t="shared" ref="T21:W21" si="54">T3/S3-1</f>
         <v>8.744978674274595E-2</v>
       </c>
-      <c r="T21" s="23">
+      <c r="U21" s="23">
         <f t="shared" si="54"/>
         <v>5.7735504703074536E-2</v>
       </c>
-      <c r="U21" s="23">
+      <c r="V21" s="23">
         <f t="shared" si="54"/>
         <v>7.7529282941235067E-2</v>
       </c>
-      <c r="V21" s="23">
+      <c r="W21" s="23">
         <f t="shared" si="54"/>
         <v>-0.38817035428888169</v>
       </c>
-      <c r="W21" s="23">
-        <f>W3/V3-1</f>
+      <c r="X21" s="23">
+        <f>X3/W3-1</f>
         <v>-9.5567047928227233E-2</v>
       </c>
-      <c r="X21" s="23">
-        <f t="shared" ref="X21" si="55">X3/W3-1</f>
+      <c r="Y21" s="23">
+        <f t="shared" ref="Y21" si="55">Y3/X3-1</f>
         <v>1.6954144522663404</v>
       </c>
-      <c r="Y21" s="23">
-        <f t="shared" ref="Y21" si="56">Y3/X3-1</f>
+      <c r="Z21" s="23">
+        <f t="shared" ref="Z21" si="56">Z3/Y3-1</f>
         <v>0.11015221352217641</v>
       </c>
-      <c r="Z21" s="135">
+      <c r="AA21" s="135">
         <v>0.11</v>
       </c>
-      <c r="AA21" s="23">
+      <c r="AB21" s="23">
         <v>0.15</v>
-      </c>
-      <c r="AB21" s="23">
-        <v>0.2</v>
       </c>
       <c r="AC21" s="23">
         <v>0.2</v>
       </c>
       <c r="AD21" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="AE21" s="23">
         <v>0.15</v>
-      </c>
-      <c r="AE21" s="23">
-        <v>0.1</v>
       </c>
       <c r="AF21" s="23">
         <v>0.1</v>
       </c>
       <c r="AG21" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AH21" s="23">
         <v>0.08</v>
-      </c>
-      <c r="AH21" s="23">
-        <v>0.05</v>
       </c>
       <c r="AI21" s="23">
         <v>0.05</v>
       </c>
       <c r="AJ21" s="23">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AK21" s="23">
         <v>0.02</v>
@@ -5277,16 +5390,19 @@
       <c r="AO21" s="23">
         <v>0.02</v>
       </c>
-      <c r="AQ21" s="46" t="s">
+      <c r="AP21" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="AR21" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="AR21" s="66">
+      <c r="AS21" s="66">
         <f>Main!C6</f>
-        <v>3.3464999999999998</v>
-      </c>
-      <c r="AS21" s="49"/>
-    </row>
-    <row r="22" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="AT21" s="49"/>
+    </row>
+    <row r="22" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
@@ -5299,7 +5415,7 @@
         <v>-6.0994178235557306E-2</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:O22" si="58">H3/G3-1</f>
+        <f t="shared" ref="H22:P22" si="58">H3/G3-1</f>
         <v>0.10056594175251155</v>
       </c>
       <c r="I22" s="34">
@@ -5330,8 +5446,9 @@
         <f t="shared" si="58"/>
         <v>-4.563297350343487E-2</v>
       </c>
-      <c r="R22" s="38" t="s">
-        <v>71</v>
+      <c r="P22" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1347900599828622</v>
       </c>
       <c r="S22" s="38" t="s">
         <v>71</v>
@@ -5354,10 +5471,10 @@
       <c r="Y22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="38" t="s">
+      <c r="Z22" s="38" t="s">
         <v>71</v>
       </c>
+      <c r="AA22" s="136"/>
       <c r="AB22" s="38" t="s">
         <v>71</v>
       </c>
@@ -5400,15 +5517,18 @@
       <c r="AO22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AQ22" s="46" t="s">
+      <c r="AP22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR22" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AR22" s="166">
-        <f>AR20/AR21-1</f>
-        <v>2.322753416873311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS22" s="166">
+        <f>AS20/AS21-1</f>
+        <v>2.4226788067349267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="34"/>
       <c r="F23" s="38"/>
       <c r="G23" s="34"/>
@@ -5418,14 +5538,13 @@
       <c r="K23" s="34"/>
       <c r="L23" s="23"/>
       <c r="M23" s="34"/>
-      <c r="T23" s="38"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38"/>
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
-      <c r="Z23" s="136"/>
-      <c r="AA23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="136"/>
       <c r="AB23" s="38"/>
       <c r="AC23" s="38"/>
       <c r="AD23" s="38"/>
@@ -5439,15 +5558,16 @@
       <c r="AL23" s="38"/>
       <c r="AM23" s="38"/>
       <c r="AN23" s="38"/>
-      <c r="AQ23" s="48" t="s">
+      <c r="AO23" s="38"/>
+      <c r="AR23" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="AR23" s="165">
-        <f>+AR20*Main!C7</f>
-        <v>1906.6549751389612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS23" s="165">
+        <f>+AS20*Main!C7</f>
+        <v>1897.5639751389613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
         <v>144</v>
       </c>
@@ -5460,14 +5580,13 @@
       <c r="K24" s="34"/>
       <c r="L24" s="23"/>
       <c r="M24" s="34"/>
-      <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
-      <c r="Z24" s="136"/>
-      <c r="AA24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="136"/>
       <c r="AB24" s="38"/>
       <c r="AC24" s="38"/>
       <c r="AD24" s="38"/>
@@ -5481,8 +5600,9 @@
       <c r="AL24" s="38"/>
       <c r="AM24" s="38"/>
       <c r="AN24" s="38"/>
-    </row>
-    <row r="25" spans="1:45" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO24" s="38"/>
+    </row>
+    <row r="25" spans="1:46" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>110</v>
       </c>
@@ -5499,36 +5619,38 @@
         <v>69</v>
       </c>
       <c r="O25" s="61">
-        <f>+Y25</f>
+        <f>+Z25</f>
         <v>71</v>
       </c>
-      <c r="P25" s="153"/>
-      <c r="R25" s="3">
+      <c r="P25" s="188">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="153"/>
+      <c r="S25" s="3">
         <v>54</v>
       </c>
-      <c r="S25" s="3">
+      <c r="T25" s="3">
         <v>58</v>
       </c>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10">
-        <f>SUM(U26:U28)</f>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10">
+        <f>SUM(V26:V28)</f>
         <v>60</v>
       </c>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10">
-        <f>SUM(W26:W28)</f>
-        <v>64</v>
-      </c>
+      <c r="W25" s="10"/>
       <c r="X25" s="10">
         <f>SUM(X26:X28)</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Y25" s="10">
         <f>SUM(Y26:Y28)</f>
+        <v>67</v>
+      </c>
+      <c r="Z25" s="10">
+        <f>SUM(Z26:Z28)</f>
         <v>71</v>
       </c>
-      <c r="Z25" s="130"/>
-      <c r="AA25" s="10"/>
+      <c r="AA25" s="130"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
@@ -5542,13 +5664,14 @@
       <c r="AL25" s="10"/>
       <c r="AM25" s="10"/>
       <c r="AN25" s="10"/>
-      <c r="AO25" s="1"/>
+      <c r="AO25" s="10"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
-    </row>
-    <row r="26" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AT25" s="1"/>
+    </row>
+    <row r="26" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
         <v>97</v>
       </c>
@@ -5562,25 +5685,24 @@
       <c r="L26" s="23"/>
       <c r="M26" s="34"/>
       <c r="O26" s="25">
-        <f>+Y26</f>
+        <f>+Z26</f>
         <v>62</v>
       </c>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38">
+      <c r="U26" s="38"/>
+      <c r="V26" s="38">
         <v>54</v>
       </c>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38">
+      <c r="W26" s="38"/>
+      <c r="X26" s="38">
         <v>56</v>
       </c>
-      <c r="X26" s="38">
+      <c r="Y26" s="38">
         <v>59</v>
       </c>
-      <c r="Y26" s="38">
+      <c r="Z26" s="38">
         <v>62</v>
       </c>
-      <c r="Z26" s="136"/>
-      <c r="AA26" s="38"/>
+      <c r="AA26" s="136"/>
       <c r="AB26" s="38"/>
       <c r="AC26" s="38"/>
       <c r="AD26" s="38"/>
@@ -5594,29 +5716,30 @@
       <c r="AL26" s="38"/>
       <c r="AM26" s="38"/>
       <c r="AN26" s="38"/>
-    </row>
-    <row r="27" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO26" s="38"/>
+    </row>
+    <row r="27" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>98</v>
       </c>
       <c r="O27" s="25">
-        <f>+Y27</f>
+        <f>+Z27</f>
         <v>3</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>6</v>
       </c>
-      <c r="W27" s="1">
+      <c r="X27" s="1">
         <v>5</v>
-      </c>
-      <c r="X27" s="1">
-        <v>3</v>
       </c>
       <c r="Y27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="51" t="s">
         <v>99</v>
       </c>
@@ -5633,37 +5756,38 @@
       <c r="M28" s="56"/>
       <c r="N28" s="55"/>
       <c r="O28" s="25">
-        <f>+Y28</f>
+        <f>+Z28</f>
         <v>6</v>
       </c>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="55"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="156"/>
       <c r="R28" s="55"/>
       <c r="S28" s="55"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52">
+      <c r="T28" s="55"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52">
         <v>0</v>
       </c>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52">
+      <c r="W28" s="52"/>
+      <c r="X28" s="52">
         <v>3</v>
       </c>
-      <c r="X28" s="52">
+      <c r="Y28" s="52">
         <v>5</v>
       </c>
-      <c r="Y28" s="52">
+      <c r="Z28" s="52">
         <v>6</v>
       </c>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="55"/>
+      <c r="AA28" s="137"/>
       <c r="AB28" s="55"/>
       <c r="AC28" s="55"/>
       <c r="AD28" s="55"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="55"/>
-    </row>
-    <row r="29" spans="1:45" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH28" s="55"/>
+    </row>
+    <row r="29" spans="1:46" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72" t="s">
         <v>117</v>
       </c>
@@ -5682,44 +5806,45 @@
       <c r="O29" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="80">
-        <f>R3/R25</f>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="80">
+        <f>S3/S25</f>
         <v>1.9407962962962964</v>
       </c>
-      <c r="S29" s="80">
-        <f t="shared" ref="S29:Y29" si="59">S3/S25</f>
+      <c r="T29" s="80">
+        <f t="shared" ref="T29:Z29" si="59">T3/T25</f>
         <v>1.9649655172413794</v>
       </c>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80">
+      <c r="U29" s="80"/>
+      <c r="V29" s="80">
         <f t="shared" si="59"/>
         <v>2.1649000000000003</v>
       </c>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80">
+      <c r="W29" s="80"/>
+      <c r="X29" s="80">
         <f t="shared" si="59"/>
         <v>1.12309375</v>
       </c>
-      <c r="X29" s="80">
+      <c r="Y29" s="80">
         <f t="shared" si="59"/>
         <v>2.8916567164179106</v>
       </c>
-      <c r="Y29" s="80">
+      <c r="Z29" s="80">
         <f t="shared" si="59"/>
         <v>3.0293239436619719</v>
       </c>
-      <c r="Z29" s="138"/>
-      <c r="AA29" s="73"/>
+      <c r="AA29" s="138"/>
       <c r="AB29" s="73"/>
       <c r="AC29" s="73"/>
       <c r="AD29" s="73"/>
       <c r="AE29" s="73"/>
       <c r="AF29" s="73"/>
       <c r="AG29" s="73"/>
-    </row>
-    <row r="30" spans="1:45" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH29" s="73"/>
+    </row>
+    <row r="30" spans="1:46" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="67" t="s">
         <v>115</v>
       </c>
@@ -5736,30 +5861,31 @@
       <c r="M30" s="69"/>
       <c r="N30" s="68"/>
       <c r="O30" s="69"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="36">
+      <c r="P30" s="192"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="36">
         <v>12.1</v>
       </c>
-      <c r="S30" s="36">
+      <c r="T30" s="36">
         <v>13.1</v>
       </c>
-      <c r="T30" s="70"/>
       <c r="U30" s="70"/>
       <c r="V30" s="70"/>
       <c r="W30" s="70"/>
       <c r="X30" s="70"/>
       <c r="Y30" s="70"/>
-      <c r="Z30" s="139"/>
-      <c r="AA30" s="68"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="139"/>
       <c r="AB30" s="68"/>
       <c r="AC30" s="68"/>
       <c r="AD30" s="68"/>
       <c r="AE30" s="68"/>
       <c r="AF30" s="68"/>
       <c r="AG30" s="68"/>
-    </row>
-    <row r="31" spans="1:45" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH30" s="68"/>
+    </row>
+    <row r="31" spans="1:46" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="76" t="s">
         <v>116</v>
       </c>
@@ -5769,18 +5895,19 @@
       <c r="K31" s="77"/>
       <c r="M31" s="77"/>
       <c r="O31" s="77"/>
-      <c r="P31" s="78"/>
-      <c r="R31" s="79">
-        <f>R3/R30</f>
-        <v>8.6614049586776858</v>
-      </c>
+      <c r="P31" s="193"/>
+      <c r="Q31" s="78"/>
       <c r="S31" s="79">
         <f>S3/S30</f>
+        <v>8.6614049586776858</v>
+      </c>
+      <c r="T31" s="79">
+        <f>T3/T30</f>
         <v>8.6998473282442745</v>
       </c>
-      <c r="Z31" s="78"/>
-    </row>
-    <row r="32" spans="1:45" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA31" s="78"/>
+    </row>
+    <row r="32" spans="1:46" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="76"/>
       <c r="E32" s="77"/>
       <c r="G32" s="77"/>
@@ -5788,15 +5915,16 @@
       <c r="K32" s="77"/>
       <c r="M32" s="77"/>
       <c r="O32" s="77"/>
-      <c r="P32" s="78"/>
-      <c r="R32" s="79"/>
+      <c r="P32" s="193"/>
+      <c r="Q32" s="78"/>
       <c r="S32" s="79"/>
-      <c r="Z32" s="78"/>
-      <c r="AB32" s="75" t="s">
+      <c r="T32" s="79"/>
+      <c r="AA32" s="78"/>
+      <c r="AC32" s="75" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="142" t="s">
         <v>145</v>
       </c>
@@ -5806,13 +5934,10 @@
       <c r="K33" s="143"/>
       <c r="M33" s="143"/>
       <c r="O33" s="143"/>
-      <c r="P33" s="144"/>
-      <c r="R33" s="141">
-        <f t="shared" ref="R33:W33" si="60">SUM(R34:R36)</f>
-        <v>0</v>
-      </c>
+      <c r="P33" s="194"/>
+      <c r="Q33" s="144"/>
       <c r="S33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="S33:X33" si="60">SUM(S34:S36)</f>
         <v>0</v>
       </c>
       <c r="T33" s="141">
@@ -5829,19 +5954,23 @@
       </c>
       <c r="W33" s="141">
         <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="141">
+        <f t="shared" si="60"/>
         <v>1787</v>
-      </c>
-      <c r="X33" s="141">
-        <f>SUM(X34:X36)</f>
-        <v>2530</v>
       </c>
       <c r="Y33" s="141">
         <f>SUM(Y34:Y36)</f>
+        <v>2530</v>
+      </c>
+      <c r="Z33" s="141">
+        <f>SUM(Z34:Z36)</f>
         <v>2787</v>
       </c>
-      <c r="Z33" s="144"/>
-    </row>
-    <row r="34" spans="1:26" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA33" s="144"/>
+    </row>
+    <row r="34" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="146" t="s">
         <v>146</v>
       </c>
@@ -5851,19 +5980,20 @@
       <c r="K34" s="147"/>
       <c r="M34" s="147"/>
       <c r="O34" s="147"/>
-      <c r="P34" s="148"/>
-      <c r="W34" s="145">
+      <c r="P34" s="195"/>
+      <c r="Q34" s="148"/>
+      <c r="X34" s="145">
         <v>6</v>
-      </c>
-      <c r="X34" s="145">
-        <v>7</v>
       </c>
       <c r="Y34" s="145">
         <v>7</v>
       </c>
-      <c r="Z34" s="148"/>
-    </row>
-    <row r="35" spans="1:26" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z34" s="145">
+        <v>7</v>
+      </c>
+      <c r="AA34" s="148"/>
+    </row>
+    <row r="35" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="146" t="s">
         <v>147</v>
       </c>
@@ -5873,19 +6003,20 @@
       <c r="K35" s="147"/>
       <c r="M35" s="147"/>
       <c r="O35" s="147"/>
-      <c r="P35" s="148"/>
-      <c r="W35" s="145">
+      <c r="P35" s="195"/>
+      <c r="Q35" s="148"/>
+      <c r="X35" s="145">
         <v>58</v>
       </c>
-      <c r="X35" s="145">
+      <c r="Y35" s="145">
         <v>91</v>
       </c>
-      <c r="Y35" s="145">
+      <c r="Z35" s="145">
         <v>112</v>
       </c>
-      <c r="Z35" s="148"/>
-    </row>
-    <row r="36" spans="1:26" s="149" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA35" s="148"/>
+    </row>
+    <row r="36" spans="1:27" s="149" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="146" t="s">
         <v>148</v>
       </c>
@@ -5895,24 +6026,25 @@
       <c r="K36" s="150"/>
       <c r="M36" s="150"/>
       <c r="O36" s="150"/>
-      <c r="P36" s="159"/>
-      <c r="W36" s="149">
+      <c r="P36" s="196"/>
+      <c r="Q36" s="159"/>
+      <c r="X36" s="149">
         <v>1723</v>
       </c>
-      <c r="X36" s="149">
+      <c r="Y36" s="149">
         <v>2432</v>
       </c>
-      <c r="Y36" s="149">
+      <c r="Z36" s="149">
         <v>2668</v>
       </c>
-      <c r="Z36" s="148"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA36" s="148"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
@@ -5926,18 +6058,21 @@
       <c r="N39" s="27">
         <v>74.733999999999995</v>
       </c>
-      <c r="W39" s="14">
+      <c r="P39" s="200">
+        <v>91.209000000000003</v>
+      </c>
+      <c r="X39" s="14">
         <v>49.036000000000001</v>
       </c>
-      <c r="X39" s="14">
+      <c r="Y39" s="14">
         <v>68.641000000000005</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="Z39" s="14">
         <v>78.278999999999996</v>
       </c>
-      <c r="Z39" s="133"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="133"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
@@ -5951,18 +6086,21 @@
       <c r="N40" s="27">
         <v>150.56299999999999</v>
       </c>
-      <c r="W40" s="14">
+      <c r="P40" s="200">
+        <v>160.84</v>
+      </c>
+      <c r="X40" s="14">
         <v>132.34200000000001</v>
       </c>
-      <c r="X40" s="14">
+      <c r="Y40" s="14">
         <v>147.45500000000001</v>
       </c>
-      <c r="Y40" s="14">
+      <c r="Z40" s="14">
         <v>150.81100000000001</v>
       </c>
-      <c r="Z40" s="133"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="133"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
@@ -5976,18 +6114,21 @@
       <c r="N41" s="27">
         <v>88.628</v>
       </c>
-      <c r="W41" s="14">
+      <c r="P41" s="200">
+        <v>94.15</v>
+      </c>
+      <c r="X41" s="14">
         <v>77.947999999999993</v>
       </c>
-      <c r="X41" s="14">
+      <c r="Y41" s="14">
         <v>81.793999999999997</v>
       </c>
-      <c r="Y41" s="14">
+      <c r="Z41" s="14">
         <v>89.376000000000005</v>
       </c>
-      <c r="Z41" s="133"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="133"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
@@ -6001,18 +6142,21 @@
       <c r="N42" s="27">
         <v>0.29799999999999999</v>
       </c>
-      <c r="W42" s="14">
+      <c r="P42" s="200">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="X42" s="14">
         <v>6.29</v>
       </c>
-      <c r="X42" s="14">
+      <c r="Y42" s="14">
         <v>1.647</v>
       </c>
-      <c r="Y42" s="14">
+      <c r="Z42" s="14">
         <v>1.3089999999999999</v>
       </c>
-      <c r="Z42" s="133"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="133"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
@@ -6029,21 +6173,25 @@
         <f>SUM(N39:N42)</f>
         <v>314.22299999999996</v>
       </c>
-      <c r="W43" s="14">
-        <f>SUM(W39:W42)</f>
-        <v>265.61600000000004</v>
+      <c r="P43" s="14">
+        <f>SUM(P39:P42)</f>
+        <v>346.33</v>
       </c>
       <c r="X43" s="14">
         <f>SUM(X39:X42)</f>
-        <v>299.53699999999998</v>
+        <v>265.61600000000004</v>
       </c>
       <c r="Y43" s="14">
         <f>SUM(Y39:Y42)</f>
+        <v>299.53699999999998</v>
+      </c>
+      <c r="Z43" s="14">
+        <f>SUM(Z39:Z42)</f>
         <v>319.77500000000003</v>
       </c>
-      <c r="Z43" s="133"/>
-    </row>
-    <row r="44" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA43" s="133"/>
+    </row>
+    <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -6062,19 +6210,22 @@
         <v>44.149000000000001</v>
       </c>
       <c r="O44" s="61"/>
-      <c r="P44" s="153"/>
-      <c r="W44" s="12">
+      <c r="P44" s="201">
+        <v>41.404000000000003</v>
+      </c>
+      <c r="Q44" s="153"/>
+      <c r="X44" s="12">
         <v>29.942</v>
       </c>
-      <c r="X44" s="12">
+      <c r="Y44" s="12">
         <v>56.066000000000003</v>
       </c>
-      <c r="Y44" s="12">
+      <c r="Z44" s="12">
         <v>52.454999999999998</v>
       </c>
-      <c r="Z44" s="132"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="132"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="1" t="s">
         <v>54</v>
@@ -6089,18 +6240,21 @@
       <c r="N45" s="27">
         <v>5.8979999999999997</v>
       </c>
-      <c r="W45" s="14">
+      <c r="P45" s="200">
+        <v>9.2129999999999992</v>
+      </c>
+      <c r="X45" s="14">
         <v>3.3</v>
       </c>
-      <c r="X45" s="14">
+      <c r="Y45" s="14">
         <v>5.13</v>
       </c>
-      <c r="Y45" s="14">
+      <c r="Z45" s="14">
         <v>8.1159999999999997</v>
       </c>
-      <c r="Z45" s="133"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="133"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
         <v>55</v>
@@ -6115,18 +6269,21 @@
       <c r="N46" s="27">
         <v>0</v>
       </c>
-      <c r="W46" s="14">
+      <c r="P46" s="200">
+        <v>0</v>
+      </c>
+      <c r="X46" s="14">
         <v>0.65</v>
       </c>
-      <c r="X46" s="14">
+      <c r="Y46" s="14">
         <v>0.27100000000000002</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Z46" s="14">
         <v>0.71499999999999997</v>
       </c>
-      <c r="Z46" s="133"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="133"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="1" t="s">
         <v>56</v>
@@ -6141,18 +6298,21 @@
       <c r="N47" s="27">
         <v>2.6389999999999998</v>
       </c>
-      <c r="W47" s="14">
+      <c r="P47" s="200">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="X47" s="14">
         <v>1.4610000000000001</v>
       </c>
-      <c r="X47" s="14">
+      <c r="Y47" s="14">
         <v>2.1480000000000001</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Z47" s="14">
         <v>2.4449999999999998</v>
       </c>
-      <c r="Z47" s="133"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="133"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
@@ -6169,26 +6329,30 @@
         <f>N43+N44+N45+N46+N47</f>
         <v>366.90899999999999</v>
       </c>
-      <c r="W48" s="14">
-        <f>SUM(W44:W47)+W43</f>
-        <v>300.96900000000005</v>
+      <c r="P48" s="14">
+        <f>P43+P44+P45+P46+P47</f>
+        <v>399.84500000000003</v>
       </c>
       <c r="X48" s="14">
         <f>SUM(X44:X47)+X43</f>
-        <v>363.15199999999999</v>
+        <v>300.96900000000005</v>
       </c>
       <c r="Y48" s="14">
         <f>SUM(Y44:Y47)+Y43</f>
+        <v>363.15199999999999</v>
+      </c>
+      <c r="Z48" s="14">
+        <f>SUM(Z44:Z47)+Z43</f>
         <v>383.50600000000003</v>
       </c>
-      <c r="Z48" s="133"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="133"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="31"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
         <v>58</v>
@@ -6203,18 +6367,21 @@
       <c r="N50" s="1">
         <v>25.984000000000002</v>
       </c>
-      <c r="W50" s="14">
+      <c r="P50" s="200">
+        <v>29.574000000000002</v>
+      </c>
+      <c r="X50" s="14">
         <v>18.141999999999999</v>
       </c>
-      <c r="X50" s="14">
+      <c r="Y50" s="14">
         <v>28.681000000000001</v>
       </c>
-      <c r="Y50" s="14">
+      <c r="Z50" s="14">
         <v>29.109000000000002</v>
       </c>
-      <c r="Z50" s="133"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="133"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="1" t="s">
         <v>59</v>
@@ -6229,18 +6396,21 @@
       <c r="N51" s="1">
         <v>11.91</v>
       </c>
-      <c r="W51" s="14">
+      <c r="P51" s="200">
+        <v>12.964</v>
+      </c>
+      <c r="X51" s="14">
         <v>13.811</v>
       </c>
-      <c r="X51" s="14">
+      <c r="Y51" s="14">
         <v>11.557</v>
       </c>
-      <c r="Y51" s="14">
+      <c r="Z51" s="14">
         <v>12.553000000000001</v>
       </c>
-      <c r="Z51" s="133"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="133"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="1" t="s">
         <v>40</v>
@@ -6255,8 +6425,8 @@
       <c r="N52" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="W52" s="14">
-        <v>0</v>
+      <c r="P52" s="200">
+        <v>0.79900000000000004</v>
       </c>
       <c r="X52" s="14">
         <v>0</v>
@@ -6264,9 +6434,12 @@
       <c r="Y52" s="14">
         <v>0</v>
       </c>
-      <c r="Z52" s="133"/>
-    </row>
-    <row r="53" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="133"/>
+    </row>
+    <row r="53" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
@@ -6285,19 +6458,22 @@
         <v>0</v>
       </c>
       <c r="O53" s="61"/>
-      <c r="P53" s="153"/>
-      <c r="W53" s="12">
+      <c r="P53" s="201">
         <v>0</v>
       </c>
+      <c r="Q53" s="153"/>
       <c r="X53" s="12">
         <v>0</v>
       </c>
       <c r="Y53" s="12">
         <v>0</v>
       </c>
-      <c r="Z53" s="132"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="132"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
         <v>61</v>
@@ -6315,21 +6491,25 @@
         <f>SUM(N50:N53)</f>
         <v>37.99</v>
       </c>
-      <c r="W54" s="14">
-        <f>SUM(W50:W53)</f>
-        <v>31.952999999999999</v>
+      <c r="P54" s="14">
+        <f>SUM(P50:P53)</f>
+        <v>43.337000000000003</v>
       </c>
       <c r="X54" s="14">
         <f>SUM(X50:X53)</f>
-        <v>40.238</v>
+        <v>31.952999999999999</v>
       </c>
       <c r="Y54" s="14">
         <f>SUM(Y50:Y53)</f>
+        <v>40.238</v>
+      </c>
+      <c r="Z54" s="14">
+        <f>SUM(Z50:Z53)</f>
         <v>41.662000000000006</v>
       </c>
-      <c r="Z54" s="133"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="133"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>62</v>
       </c>
@@ -6343,18 +6523,21 @@
       <c r="N55" s="1">
         <v>3.8660000000000001</v>
       </c>
-      <c r="W55" s="14">
+      <c r="P55" s="200">
+        <v>6.2370000000000001</v>
+      </c>
+      <c r="X55" s="14">
         <v>0.56499999999999995</v>
       </c>
-      <c r="X55" s="14">
+      <c r="Y55" s="14">
         <v>3</v>
       </c>
-      <c r="Y55" s="14">
+      <c r="Z55" s="14">
         <v>5.2080000000000002</v>
       </c>
-      <c r="Z55" s="133"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="133"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>59</v>
       </c>
@@ -6368,18 +6551,21 @@
       <c r="N56" s="1">
         <v>180.39599999999999</v>
       </c>
-      <c r="W56" s="14">
+      <c r="P56" s="200">
+        <v>192.09</v>
+      </c>
+      <c r="X56" s="14">
         <v>160.12899999999999</v>
       </c>
-      <c r="X56" s="14">
+      <c r="Y56" s="14">
         <v>176.81200000000001</v>
       </c>
-      <c r="Y56" s="14">
+      <c r="Z56" s="14">
         <v>181.65199999999999</v>
       </c>
-      <c r="Z56" s="133"/>
-    </row>
-    <row r="57" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA56" s="133"/>
+    </row>
+    <row r="57" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>60</v>
       </c>
@@ -6398,592 +6584,683 @@
         <v>0</v>
       </c>
       <c r="O57" s="61"/>
-      <c r="P57" s="153"/>
-      <c r="W57" s="12">
+      <c r="P57" s="201">
         <v>0</v>
       </c>
+      <c r="Q57" s="153"/>
       <c r="X57" s="12">
         <v>0</v>
       </c>
       <c r="Y57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="12">
         <v>1.96</v>
       </c>
-      <c r="Z57" s="132"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="1" t="s">
+      <c r="AA57" s="132"/>
+    </row>
+    <row r="58" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="14">
+        <v>0</v>
+      </c>
+      <c r="I58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="14">
+        <v>0</v>
+      </c>
+      <c r="M58" s="31"/>
+      <c r="N58" s="14">
+        <v>0</v>
+      </c>
+      <c r="O58" s="31"/>
+      <c r="P58" s="200">
+        <v>1.655</v>
+      </c>
+      <c r="Q58" s="44"/>
+      <c r="X58" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="133"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <v>3.8029999999999999</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L59" s="14">
         <v>3.7690000000000001</v>
       </c>
-      <c r="M58" s="31"/>
-      <c r="N58" s="1">
+      <c r="M59" s="31"/>
+      <c r="N59" s="1">
         <v>5.2969999999999997</v>
       </c>
-      <c r="W58" s="14">
+      <c r="P59" s="200">
+        <v>5.6520000000000001</v>
+      </c>
+      <c r="X59" s="14">
         <v>3.6349999999999998</v>
       </c>
-      <c r="X58" s="14">
+      <c r="Y59" s="14">
         <v>4.6820000000000004</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="Z59" s="14">
         <v>5.0839999999999996</v>
       </c>
-      <c r="Z58" s="133"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+      <c r="AA59" s="133"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H59" s="14">
-        <f>H54+H55+H56+H57+H58</f>
+      <c r="H60" s="14">
+        <f>H54+H55+H56+H57+H59+H58</f>
         <v>222.46</v>
       </c>
-      <c r="L59" s="14">
-        <f>L54+L55+L56+L57+L58</f>
+      <c r="L60" s="14">
+        <f>L54+L55+L56+L57+L59+L58</f>
         <v>200.65600000000001</v>
       </c>
-      <c r="M59" s="31"/>
-      <c r="N59" s="14">
-        <f>N54+N55+N56+N57+N58</f>
+      <c r="M60" s="31"/>
+      <c r="N60" s="14">
+        <f>N54+N55+N56+N57+N59+N58</f>
         <v>227.54899999999998</v>
       </c>
-      <c r="W59" s="14">
-        <f>W54+W55+W56+W57+W58</f>
+      <c r="P60" s="14">
+        <f>P54+P55+P56+P57+P59+P58</f>
+        <v>248.971</v>
+      </c>
+      <c r="X60" s="14">
+        <f t="shared" ref="X60:Z60" si="61">X54+X55+X56+X57+X59+X58</f>
         <v>196.28199999999998</v>
       </c>
-      <c r="X59" s="14">
-        <f>X54+X55+X56+X57+X58</f>
+      <c r="Y60" s="14">
+        <f t="shared" si="61"/>
         <v>224.732</v>
       </c>
-      <c r="Y59" s="14">
-        <f>Y54+Y55+Y56+Y57+Y58</f>
+      <c r="Z60" s="14">
+        <f t="shared" si="61"/>
         <v>235.566</v>
       </c>
-      <c r="Z59" s="133"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+      <c r="AA60" s="133"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H62" s="14">
         <v>75.83</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L62" s="14">
         <v>132.125</v>
-      </c>
-      <c r="M61" s="31"/>
-      <c r="N61" s="14">
-        <v>139.387</v>
-      </c>
-      <c r="W61" s="14">
-        <v>104.687</v>
-      </c>
-      <c r="X61" s="14">
-        <v>138.41999999999999</v>
-      </c>
-      <c r="Y61" s="14">
-        <v>147.94</v>
-      </c>
-      <c r="Z61" s="133"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H62" s="14">
-        <f>H59+H61</f>
-        <v>298.29000000000002</v>
-      </c>
-      <c r="L62" s="14">
-        <f>L59+L61</f>
-        <v>332.78100000000001</v>
       </c>
       <c r="M62" s="31"/>
       <c r="N62" s="14">
-        <f>N59+N61</f>
+        <v>139.387</v>
+      </c>
+      <c r="P62" s="200">
+        <v>150.874</v>
+      </c>
+      <c r="X62" s="14">
+        <v>104.687</v>
+      </c>
+      <c r="Y62" s="14">
+        <v>138.41999999999999</v>
+      </c>
+      <c r="Z62" s="14">
+        <v>147.94</v>
+      </c>
+      <c r="AA62" s="133"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="14">
+        <f>H60+H62</f>
+        <v>298.29000000000002</v>
+      </c>
+      <c r="L63" s="14">
+        <f>L60+L62</f>
+        <v>332.78100000000001</v>
+      </c>
+      <c r="M63" s="31"/>
+      <c r="N63" s="14">
+        <f>N60+N62</f>
         <v>366.93599999999998</v>
       </c>
-      <c r="W62" s="14">
-        <f>W61+W59</f>
+      <c r="P63" s="14">
+        <f>P60+P62</f>
+        <v>399.84500000000003</v>
+      </c>
+      <c r="X63" s="14">
+        <f>X62+X60</f>
         <v>300.96899999999999</v>
       </c>
-      <c r="X62" s="14">
-        <f>X61+X59</f>
+      <c r="Y63" s="14">
+        <f>Y62+Y60</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="Y62" s="14">
-        <f>Y61+Y59</f>
+      <c r="Z63" s="14">
+        <f>Z62+Z60</f>
         <v>383.50599999999997</v>
       </c>
-      <c r="Z62" s="133"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+      <c r="AA63" s="133"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="14">
-        <f>H48-H59</f>
+      <c r="H65" s="14">
+        <f>H48-H60</f>
         <v>75.831000000000103</v>
       </c>
-      <c r="L64" s="14">
-        <f>L48-L59</f>
+      <c r="L65" s="14">
+        <f>L48-L60</f>
         <v>132.12499999999994</v>
       </c>
-      <c r="M64" s="31"/>
-      <c r="N64" s="14">
-        <f>N48-N59</f>
+      <c r="M65" s="31"/>
+      <c r="N65" s="14">
+        <f>N48-N60</f>
         <v>139.36000000000001</v>
       </c>
-      <c r="W64" s="14">
-        <f t="shared" ref="W64:X64" si="61">W48-W59</f>
+      <c r="P65" s="14">
+        <f>P48-P60</f>
+        <v>150.87400000000002</v>
+      </c>
+      <c r="X65" s="14">
+        <f t="shared" ref="X65:Y65" si="62">X48-X60</f>
         <v>104.68700000000007</v>
       </c>
-      <c r="X64" s="14">
-        <f t="shared" si="61"/>
+      <c r="Y65" s="14">
+        <f t="shared" si="62"/>
         <v>138.41999999999999</v>
       </c>
-      <c r="Y64" s="14">
-        <f t="shared" ref="Y64" si="62">Y48-Y59</f>
+      <c r="Z65" s="14">
+        <f t="shared" ref="Z65" si="63">Z48-Z60</f>
         <v>147.94000000000003</v>
       </c>
-      <c r="Z64" s="133"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="1" t="s">
+      <c r="AA65" s="133"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H65" s="1">
-        <f>H64/H14</f>
+      <c r="H66" s="1">
+        <f>H65/H14</f>
         <v>0.50318915060727853</v>
       </c>
-      <c r="L65" s="1">
-        <f>L64/L14</f>
+      <c r="L66" s="1">
+        <f>L65/L14</f>
         <v>0.77343526713555533</v>
       </c>
-      <c r="N65" s="1">
-        <f>N64/N14</f>
+      <c r="N66" s="1">
+        <f>N65/N14</f>
         <v>0.81391234576365445</v>
       </c>
-      <c r="W65" s="1">
-        <f t="shared" ref="W65:X65" si="63">W64/W14</f>
+      <c r="P66" s="1">
+        <f>P65/P14</f>
+        <v>0.87219211748034853</v>
+      </c>
+      <c r="X66" s="1">
+        <f t="shared" ref="X66:Y66" si="64">X65/X14</f>
         <v>0.63597840274765649</v>
       </c>
-      <c r="X65" s="1">
-        <f t="shared" si="63"/>
+      <c r="Y66" s="1">
+        <f t="shared" si="64"/>
         <v>0.80971382354881549</v>
       </c>
-      <c r="Y65" s="1">
-        <f t="shared" ref="Y65" si="64">Y64/Y14</f>
+      <c r="Z66" s="1">
+        <f t="shared" ref="Z66" si="65">Z65/Z14</f>
         <v>0.86278472172836618</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="14">
-        <f t="shared" ref="H67" si="65">H44</f>
+      <c r="H68" s="14">
+        <f t="shared" ref="H68" si="66">H44</f>
         <v>15.635999999999999</v>
       </c>
-      <c r="L67" s="14">
-        <f t="shared" ref="L67:N67" si="66">L44</f>
+      <c r="L68" s="14">
+        <f t="shared" ref="L68:N68" si="67">L44</f>
         <v>49.576999999999998</v>
       </c>
-      <c r="N67" s="14">
-        <f t="shared" si="66"/>
+      <c r="N68" s="14">
+        <f t="shared" si="67"/>
         <v>44.149000000000001</v>
       </c>
-      <c r="W67" s="14">
-        <f t="shared" ref="W67" si="67">W44</f>
+      <c r="P68" s="14">
+        <f t="shared" ref="P68" si="68">P44</f>
+        <v>41.404000000000003</v>
+      </c>
+      <c r="X68" s="14">
+        <f t="shared" ref="X68" si="69">X44</f>
         <v>29.942</v>
       </c>
-      <c r="X67" s="14">
-        <f>X44</f>
+      <c r="Y68" s="14">
+        <f>Y44</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="Y67" s="14">
-        <f t="shared" ref="Y67" si="68">Y44</f>
+      <c r="Z68" s="14">
+        <f t="shared" ref="Z68" si="70">Z44</f>
         <v>52.454999999999998</v>
       </c>
-      <c r="Z67" s="133"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+      <c r="AA68" s="133"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="14">
-        <f t="shared" ref="H68" si="69">H53+H57</f>
+      <c r="H69" s="14">
+        <f t="shared" ref="H69" si="71">H53+H57</f>
         <v>30.073</v>
       </c>
-      <c r="L68" s="14">
-        <f t="shared" ref="L68:N68" si="70">L53+L57</f>
+      <c r="L69" s="14">
+        <f t="shared" ref="L69:N69" si="72">L53+L57</f>
         <v>0</v>
       </c>
-      <c r="N68" s="14">
-        <f t="shared" si="70"/>
+      <c r="N69" s="14">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="W68" s="14">
-        <f t="shared" ref="W68" si="71">W53+W57</f>
+      <c r="P69" s="14">
+        <f t="shared" ref="P69" si="73">P53+P57</f>
         <v>0</v>
       </c>
-      <c r="X68" s="14">
-        <f>X53+X57</f>
+      <c r="X69" s="14">
+        <f t="shared" ref="X69" si="74">X53+X57</f>
         <v>0</v>
       </c>
-      <c r="Y68" s="14">
-        <f t="shared" ref="Y68" si="72">Y53+Y57</f>
+      <c r="Y69" s="14">
+        <f>Y53+Y57</f>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="14">
+        <f t="shared" ref="Z69" si="75">Z53+Z57</f>
         <v>1.96</v>
       </c>
-      <c r="Z68" s="133"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+      <c r="AA69" s="133"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="14">
-        <f>H67-H68</f>
+      <c r="H70" s="14">
+        <f>H68-H69</f>
         <v>-14.437000000000001</v>
       </c>
-      <c r="L69" s="14">
-        <f>L67-L68</f>
+      <c r="L70" s="14">
+        <f>L68-L69</f>
         <v>49.576999999999998</v>
       </c>
-      <c r="N69" s="14">
-        <f>N67-N68</f>
+      <c r="N70" s="14">
+        <f>N68-N69</f>
         <v>44.149000000000001</v>
       </c>
-      <c r="W69" s="14">
-        <f>W67-W68</f>
+      <c r="P70" s="14">
+        <f>P68-P69</f>
+        <v>41.404000000000003</v>
+      </c>
+      <c r="X70" s="14">
+        <f>X68-X69</f>
         <v>29.942</v>
       </c>
-      <c r="X69" s="14">
-        <f>X67-X68</f>
+      <c r="Y70" s="14">
+        <f>Y68-Y69</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="Y69" s="14">
-        <f t="shared" ref="Y69" si="73">Y67-Y68</f>
+      <c r="Z70" s="14">
+        <f t="shared" ref="Z70" si="76">Z68-Z69</f>
         <v>50.494999999999997</v>
       </c>
-      <c r="Z69" s="133"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="AA70" s="133"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H72" s="1">
         <v>1.4767999999999999</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L72" s="1">
         <v>2.3904999999999998</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N72" s="1">
         <v>2.3014000000000001</v>
       </c>
-      <c r="R71" s="1">
+      <c r="P72" s="189">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="S72" s="1">
         <v>1.4937</v>
       </c>
-      <c r="S71" s="1">
+      <c r="T72" s="1">
         <v>1.6520999999999999</v>
       </c>
-      <c r="T71" s="1">
+      <c r="U72" s="1">
         <v>2.0512999999999999</v>
       </c>
-      <c r="U71" s="1">
+      <c r="V72" s="1">
         <v>2.1863999999999999</v>
       </c>
-      <c r="V71" s="1">
+      <c r="W72" s="1">
         <v>1.2907999999999999</v>
       </c>
-      <c r="W71" s="1">
+      <c r="X72" s="1">
         <v>2.395</v>
       </c>
-      <c r="X71" s="1">
+      <c r="Y72" s="1">
         <v>1.8740000000000001</v>
       </c>
-      <c r="Y71" s="1">
+      <c r="Z72" s="1">
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="27">
-        <f t="shared" ref="H72" si="74">H71*H14</f>
+      <c r="H73" s="27">
+        <f t="shared" ref="H73" si="77">H72*H14</f>
         <v>222.55491928799998</v>
       </c>
-      <c r="L72" s="27">
-        <f t="shared" ref="L72:N72" si="75">L71*L14</f>
+      <c r="L73" s="27">
+        <f t="shared" ref="L73:N73" si="78">L72*L14</f>
         <v>408.36618902800001</v>
       </c>
-      <c r="N72" s="27">
-        <f t="shared" si="75"/>
+      <c r="N73" s="27">
+        <f t="shared" si="78"/>
         <v>394.05116001659997</v>
       </c>
-      <c r="R72" s="27">
-        <f t="shared" ref="R72:W72" si="76">R71*R14</f>
+      <c r="P73" s="27">
+        <f t="shared" ref="P73" si="79">P72*P14</f>
+        <v>569.977439645</v>
+      </c>
+      <c r="S73" s="27">
+        <f t="shared" ref="S73:W73" si="80">S72*S14</f>
         <v>158.09794302899999</v>
       </c>
-      <c r="S72" s="27">
-        <f t="shared" si="76"/>
+      <c r="T73" s="27">
+        <f t="shared" si="80"/>
         <v>247.815</v>
       </c>
-      <c r="T72" s="27">
-        <f t="shared" si="76"/>
+      <c r="U73" s="27">
+        <f t="shared" si="80"/>
         <v>307.69499999999999</v>
       </c>
-      <c r="U72" s="27">
-        <f t="shared" si="76"/>
+      <c r="V73" s="27">
+        <f t="shared" si="80"/>
         <v>327.96</v>
       </c>
-      <c r="V72" s="27">
-        <f t="shared" si="76"/>
+      <c r="W73" s="27">
+        <f t="shared" si="80"/>
         <v>198.01083562119999</v>
       </c>
-      <c r="W72" s="27">
-        <f t="shared" ref="W72" si="77">W71*W14</f>
+      <c r="X73" s="27">
+        <f t="shared" ref="X73" si="81">X72*X14</f>
         <v>394.23565944500001</v>
       </c>
-      <c r="X72" s="27">
-        <f>X71*X14</f>
+      <c r="Y73" s="27">
+        <f>Y72*Y14</f>
         <v>320.358961964</v>
       </c>
-      <c r="Y72" s="27">
-        <f t="shared" ref="Y72" si="78">Y71*Y14</f>
+      <c r="Z73" s="27">
+        <f t="shared" ref="Z73" si="82">Z72*Z14</f>
         <v>424.38338414999998</v>
       </c>
-      <c r="Z72" s="134"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+      <c r="AA73" s="134"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="27">
-        <f>H72-H69</f>
+      <c r="H74" s="27">
+        <f>H73-H70</f>
         <v>236.99191928799999</v>
       </c>
-      <c r="L73" s="27">
-        <f>L72-L69</f>
+      <c r="L74" s="27">
+        <f>L73-L70</f>
         <v>358.78918902800001</v>
       </c>
-      <c r="N73" s="27">
-        <f>N72-N69</f>
+      <c r="N74" s="27">
+        <f>N73-N70</f>
         <v>349.90216001659996</v>
       </c>
-      <c r="R73" s="27"/>
-      <c r="S73" s="27"/>
-      <c r="T73" s="27"/>
-      <c r="U73" s="27"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="27">
-        <f>W72-W69</f>
+      <c r="P74" s="27">
+        <f>P73-P70</f>
+        <v>528.57343964500001</v>
+      </c>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27">
+        <f>X73-X70</f>
         <v>364.293659445</v>
       </c>
-      <c r="X73" s="27">
-        <f>X72-X69</f>
+      <c r="Y74" s="27">
+        <f>Y73-Y70</f>
         <v>264.29296196400003</v>
       </c>
-      <c r="Y73" s="27">
-        <f t="shared" ref="Y73" si="79">Y72-Y69</f>
+      <c r="Z74" s="27">
+        <f t="shared" ref="Z74" si="83">Z73-Z70</f>
         <v>373.88838414999998</v>
       </c>
-      <c r="Z73" s="134"/>
-    </row>
-    <row r="75" spans="1:26" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="92" t="s">
+      <c r="AA74" s="134"/>
+    </row>
+    <row r="76" spans="1:27" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="93"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="92">
-        <f>H71/H65</f>
+      <c r="E76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="92">
+        <f>H72/H66</f>
         <v>2.9348804484709379</v>
       </c>
-      <c r="I75" s="93"/>
-      <c r="K75" s="93"/>
-      <c r="L75" s="92">
-        <f>L71/L65</f>
+      <c r="I76" s="93"/>
+      <c r="K76" s="93"/>
+      <c r="L76" s="92">
+        <f>L72/L66</f>
         <v>3.0907563975629149</v>
       </c>
-      <c r="M75" s="93"/>
-      <c r="N75" s="92">
-        <f>N71/N65</f>
+      <c r="M76" s="93"/>
+      <c r="N76" s="92">
+        <f>N72/N66</f>
         <v>2.827577210222445</v>
       </c>
-      <c r="O75" s="93"/>
-      <c r="P75" s="160"/>
-      <c r="W75" s="92">
-        <f t="shared" ref="W75" si="80">W71/W65</f>
+      <c r="O76" s="93"/>
+      <c r="P76" s="92">
+        <f>P72/P66</f>
+        <v>3.7778373983920348</v>
+      </c>
+      <c r="Q76" s="160"/>
+      <c r="X76" s="92">
+        <f t="shared" ref="X76" si="84">X72/X66</f>
         <v>3.7658511510025101</v>
       </c>
-      <c r="X75" s="92">
-        <f>X71/X65</f>
+      <c r="Y76" s="92">
+        <f>Y72/Y66</f>
         <v>2.3143979335645142</v>
       </c>
-      <c r="Y75" s="92">
-        <f t="shared" ref="Y75" si="81">Y71/Y65</f>
+      <c r="Z76" s="92">
+        <f t="shared" ref="Z76" si="85">Z72/Z66</f>
         <v>2.8686182516560761</v>
       </c>
-      <c r="Z75" s="140"/>
-    </row>
-    <row r="76" spans="1:26" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="94"/>
-      <c r="B76" s="95" t="s">
+      <c r="AA76" s="140"/>
+    </row>
+    <row r="77" spans="1:27" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="94"/>
+      <c r="B77" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="I76" s="96"/>
-      <c r="K76" s="96"/>
-      <c r="M76" s="96"/>
-      <c r="O76" s="96"/>
-      <c r="P76" s="161"/>
-      <c r="R76" s="92">
-        <f t="shared" ref="R76:W76" si="82">R72/R3</f>
+      <c r="E77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="K77" s="96"/>
+      <c r="M77" s="96"/>
+      <c r="O77" s="96"/>
+      <c r="P77" s="198"/>
+      <c r="Q77" s="161"/>
+      <c r="S77" s="92">
+        <f t="shared" ref="S77:W77" si="86">S73/S3</f>
         <v>1.5085249757068022</v>
       </c>
-      <c r="S76" s="92">
-        <f t="shared" si="82"/>
+      <c r="T77" s="92">
+        <f t="shared" si="86"/>
         <v>2.174426154710094</v>
       </c>
-      <c r="T76" s="92">
-        <f t="shared" si="82"/>
+      <c r="U77" s="92">
+        <f t="shared" si="86"/>
         <v>2.552468726150579</v>
       </c>
-      <c r="U76" s="92">
-        <f t="shared" si="82"/>
+      <c r="V77" s="92">
+        <f t="shared" si="86"/>
         <v>2.5248279366252482</v>
       </c>
-      <c r="V76" s="92">
-        <f t="shared" si="82"/>
+      <c r="W77" s="92">
+        <f t="shared" si="86"/>
         <v>2.4915485211480628</v>
       </c>
-      <c r="W76" s="92">
-        <f t="shared" ref="W76" si="83">W72/W3</f>
+      <c r="X77" s="92">
+        <f t="shared" ref="X77" si="87">X73/X3</f>
         <v>5.4847889402181478</v>
       </c>
-      <c r="X76" s="92">
-        <f>X72/X3</f>
+      <c r="Y77" s="92">
+        <f>Y73/Y3</f>
         <v>1.6535424198491799</v>
       </c>
-      <c r="Y76" s="92">
-        <f t="shared" ref="Y76" si="84">Y72/Y3</f>
+      <c r="Z77" s="92">
+        <f t="shared" ref="Z77" si="88">Z73/Z3</f>
         <v>1.9731236651602644</v>
       </c>
-      <c r="Z76" s="140"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+      <c r="AA77" s="140"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="W77" s="92">
-        <f t="shared" ref="W77" si="85">W73/W3</f>
+      <c r="X78" s="92">
+        <f t="shared" ref="X78" si="89">X74/X3</f>
         <v>5.0682219795347674</v>
       </c>
-      <c r="X77" s="92">
-        <f>X73/X3</f>
+      <c r="Y78" s="92">
+        <f>Y74/Y3</f>
         <v>1.3641560741608643</v>
       </c>
-      <c r="Y77" s="92">
-        <f t="shared" ref="Y77" si="86">Y73/Y3</f>
+      <c r="Z78" s="92">
+        <f t="shared" ref="Z78" si="90">Z74/Z3</f>
         <v>1.7383527405826615</v>
       </c>
-      <c r="Z77" s="140"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+      <c r="AA78" s="140"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R78" s="92">
-        <f t="shared" ref="R78:W78" si="87">R71/R13</f>
+      <c r="P79" s="197">
+        <f>P72/SUM(O13:P13)</f>
+        <v>16.624188566150199</v>
+      </c>
+      <c r="S79" s="92">
+        <f t="shared" ref="S79:W79" si="91">S72/S13</f>
         <v>133.19119042038895</v>
       </c>
-      <c r="S78" s="92">
-        <f t="shared" si="87"/>
+      <c r="T79" s="92">
+        <f t="shared" si="91"/>
         <v>13.652214631996477</v>
       </c>
-      <c r="T78" s="92">
-        <f t="shared" si="87"/>
+      <c r="U79" s="92">
+        <f t="shared" si="91"/>
         <v>16.380696337308347</v>
       </c>
-      <c r="U78" s="92">
-        <f t="shared" si="87"/>
+      <c r="V79" s="92">
+        <f t="shared" si="91"/>
         <v>14.71662553286964</v>
       </c>
-      <c r="V78" s="92">
-        <f t="shared" si="87"/>
+      <c r="W79" s="92">
+        <f t="shared" si="91"/>
         <v>142.9681123618769</v>
       </c>
-      <c r="W78" s="92">
-        <f t="shared" ref="W78" si="88">W71/W13</f>
+      <c r="X79" s="92">
+        <f t="shared" ref="X79" si="92">X72/X13</f>
         <v>228.14563625289284</v>
       </c>
-      <c r="X78" s="92">
-        <f>X71/X13</f>
+      <c r="Y79" s="92">
+        <f>Y72/Y13</f>
         <v>8.554082987476967</v>
       </c>
-      <c r="Y78" s="92">
-        <f t="shared" ref="Y78" si="89">Y71/Y13</f>
+      <c r="Z79" s="92">
+        <f t="shared" ref="Z79" si="93">Z72/Z13</f>
         <v>12.426675182278707</v>
       </c>
-      <c r="Z78" s="140"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+      <c r="AA79" s="140"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="W79" s="92">
-        <f t="shared" ref="W79" si="90">W73/W12</f>
+      <c r="X80" s="92">
+        <f t="shared" ref="X80" si="94">X74/X12</f>
         <v>210.81808995659659</v>
       </c>
-      <c r="X79" s="92">
-        <f>X73/X12</f>
+      <c r="Y80" s="92">
+        <f>Y74/Y12</f>
         <v>7.0570335094924017</v>
       </c>
-      <c r="Y79" s="92">
-        <f t="shared" ref="Y79" si="91">Y73/Y12</f>
+      <c r="Z80" s="92">
+        <f t="shared" ref="Z80" si="95">Z74/Z12</f>
         <v>10.948094760036312</v>
       </c>
-      <c r="Z79" s="140"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+      <c r="AA80" s="140"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{B9683B42-B241-4D1D-8CE0-7A17859DA76B}"/>
-    <hyperlink ref="W1" r:id="rId2" xr:uid="{05878C96-F10F-4982-ACE4-FF132CF4E29A}"/>
-    <hyperlink ref="U1" r:id="rId3" xr:uid="{6765EA13-C896-4C06-BD01-2D2BC5D2014C}"/>
+    <hyperlink ref="X1" r:id="rId2" xr:uid="{05878C96-F10F-4982-ACE4-FF132CF4E29A}"/>
+    <hyperlink ref="V1" r:id="rId3" xr:uid="{6765EA13-C896-4C06-BD01-2D2BC5D2014C}"/>
     <hyperlink ref="H1" r:id="rId4" xr:uid="{D3D9ED60-186F-274D-93DB-4D868CA2340E}"/>
-    <hyperlink ref="S1" r:id="rId5" xr:uid="{9260496C-E59A-0143-BDFB-5C62E2643276}"/>
-    <hyperlink ref="X1" r:id="rId6" xr:uid="{D7D97D6D-2030-4F4C-B5FB-6BFE0FD9DC61}"/>
+    <hyperlink ref="T1" r:id="rId5" xr:uid="{9260496C-E59A-0143-BDFB-5C62E2643276}"/>
+    <hyperlink ref="Y1" r:id="rId6" xr:uid="{D7D97D6D-2030-4F4C-B5FB-6BFE0FD9DC61}"/>
     <hyperlink ref="N1" r:id="rId7" xr:uid="{FC756CF2-3D82-4D5D-9DD4-F7502A0327A9}"/>
-    <hyperlink ref="Y1" r:id="rId8" xr:uid="{F32AE00E-F68C-4DC8-A21B-34B62D129557}"/>
+    <hyperlink ref="Z1" r:id="rId8" xr:uid="{F32AE00E-F68C-4DC8-A21B-34B62D129557}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
   <ignoredErrors>
-    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 Z12 AA11:AO11 O5:O11" formula="1"/>
-    <ignoredError sqref="Z6" formulaRange="1"/>
+    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 AA12 AB11:AP11 O5:O11" formula="1"/>
+    <ignoredError sqref="AA6" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId10"/>
   <legacyDrawing r:id="rId11"/>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3047E9-02F2-4EE1-96A2-4B5369C2B1B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6CF759-8688-4A52-AD7E-4645FAB1B2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="7980" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -160,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="159">
   <si>
     <t>£BOWL</t>
   </si>
@@ -994,7 +1003,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1238,21 +1247,6 @@
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1322,25 +1316,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1430,13 +1409,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1532,7 +1511,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1855,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1869,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -1883,27 +1862,27 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
-      <c r="H5" s="167" t="s">
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
+      <c r="H5" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="169"/>
-      <c r="O5" s="167" t="s">
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="158"/>
+      <c r="O5" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="169"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="158"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1913,12 +1892,12 @@
         <v>3.2050000000000001</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="174" t="s">
+      <c r="H6" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
@@ -1941,12 +1920,12 @@
         <f>$C$28</f>
         <v>H124</v>
       </c>
-      <c r="H7" s="176" t="s">
+      <c r="H7" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>51</v>
@@ -1968,19 +1947,19 @@
         <v>554.40901185500002</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="178" t="s">
+      <c r="H8" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
       <c r="O8" s="90">
         <v>45200</v>
       </c>
-      <c r="P8" s="164" t="s">
+      <c r="P8" s="153" t="s">
         <v>153</v>
       </c>
       <c r="Q8" s="6"/>
@@ -2001,12 +1980,12 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>H124</v>
       </c>
-      <c r="H9" s="178" t="s">
+      <c r="H9" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -2030,12 +2009,12 @@
         <f t="shared" si="0"/>
         <v>H124</v>
       </c>
-      <c r="H10" s="178" t="s">
+      <c r="H10" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -2063,12 +2042,12 @@
         <f t="shared" si="0"/>
         <v>H124</v>
       </c>
-      <c r="H11" s="178" t="s">
+      <c r="H11" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -2089,12 +2068,12 @@
         <v>513.00501185500002</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="179" t="s">
+      <c r="H12" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -2128,41 +2107,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="173"/>
+      <c r="D16" s="162"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="H17" s="167" t="s">
+      <c r="D17" s="162"/>
+      <c r="H17" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="169"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="158"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="173"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="162"/>
       <c r="H18" s="81" t="s">
         <v>119</v>
       </c>
@@ -2173,8 +2152,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
       <c r="H19" s="85" t="s">
         <v>120</v>
       </c>
@@ -2206,11 +2185,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="167" t="s">
+      <c r="B22" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="158"/>
       <c r="H22" s="85" t="s">
         <v>122</v>
       </c>
@@ -2223,10 +2202,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="172" t="s">
+      <c r="C23" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="173"/>
+      <c r="D23" s="162"/>
       <c r="H23" s="86" t="s">
         <v>128</v>
       </c>
@@ -2239,10 +2218,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="161">
         <v>2010</v>
       </c>
-      <c r="D24" s="173"/>
+      <c r="D24" s="162"/>
       <c r="H24" s="81"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -2253,17 +2232,17 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="161">
         <f>+'Financial Model'!Z25</f>
         <v>71</v>
       </c>
-      <c r="D25" s="173"/>
+      <c r="D25" s="162"/>
       <c r="H25" s="81"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
-      <c r="O25" s="162" t="s">
+      <c r="O25" s="151" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2271,11 +2250,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="182">
+      <c r="C26" s="171">
         <f>+'Financial Model'!Z33</f>
         <v>2787</v>
       </c>
-      <c r="D26" s="173"/>
+      <c r="D26" s="162"/>
       <c r="H26" s="83"/>
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
@@ -2286,10 +2265,10 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="172">
+      <c r="C27" s="161">
         <v>2016</v>
       </c>
-      <c r="D27" s="173"/>
+      <c r="D27" s="162"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2306,17 +2285,17 @@
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="186"/>
-      <c r="H29" s="167" t="s">
+      <c r="D29" s="175"/>
+      <c r="H29" s="156" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="169"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="81" t="s">
@@ -2337,11 +2316,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="169"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="158"/>
       <c r="H32" s="85" t="s">
         <v>124</v>
       </c>
@@ -2354,11 +2333,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="183">
+      <c r="C33" s="172">
         <f>C6/'Financial Model'!P66</f>
         <v>3.6746491234738916</v>
       </c>
-      <c r="D33" s="184"/>
+      <c r="D33" s="173"/>
       <c r="H33" s="85"/>
       <c r="I33" s="82"/>
       <c r="J33" s="82"/>
@@ -2369,11 +2348,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="183">
+      <c r="C34" s="172">
         <f>+C8/SUM('Financial Model'!O3:P3)</f>
         <v>2.4726448567905202</v>
       </c>
-      <c r="D34" s="184"/>
+      <c r="D34" s="173"/>
       <c r="H34" s="81" t="s">
         <v>121</v>
       </c>
@@ -2386,11 +2365,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="183">
+      <c r="C35" s="172">
         <f>+C12/SUM('Financial Model'!O3:P3)</f>
         <v>2.2879844608348163</v>
       </c>
-      <c r="D35" s="184"/>
+      <c r="D35" s="173"/>
       <c r="H35" s="85" t="s">
         <v>127</v>
       </c>
@@ -2403,11 +2382,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="183">
+      <c r="C36" s="172">
         <f>+C6/SUM('Financial Model'!O13:P13)</f>
         <v>16.170113612901787</v>
       </c>
-      <c r="D36" s="184"/>
+      <c r="D36" s="173"/>
       <c r="H36" s="81"/>
       <c r="I36" s="82"/>
       <c r="J36" s="82"/>
@@ -2418,11 +2397,11 @@
       <c r="B37" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="180">
+      <c r="C37" s="169">
         <f>+C12/SUM('Financial Model'!O12:P12)</f>
         <v>15.009801973638021</v>
       </c>
-      <c r="D37" s="181"/>
+      <c r="D37" s="170"/>
       <c r="H37" s="81"/>
       <c r="I37" s="82"/>
       <c r="J37" s="82"/>
@@ -2483,13 +2462,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
-  <dimension ref="A1:CV85"/>
+  <dimension ref="A1:CW85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2508,16 +2487,16 @@
     <col min="13" max="13" width="9.140625" style="25"/>
     <col min="14" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="9.140625" style="25"/>
-    <col min="16" max="16" width="9.140625" style="189"/>
-    <col min="17" max="17" width="9.140625" style="154"/>
-    <col min="18" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="9.140625" style="78"/>
-    <col min="28" max="43" width="9.140625" style="1"/>
-    <col min="44" max="44" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="25"/>
+    <col min="18" max="27" width="9.140625" style="1"/>
+    <col min="28" max="28" width="9.140625" style="78"/>
+    <col min="29" max="44" width="9.140625" style="1"/>
+    <col min="45" max="45" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:101" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="10" t="s">
         <v>113</v>
       </c>
@@ -2554,10 +2533,10 @@
       <c r="O1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="187" t="s">
+      <c r="P1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="151" t="s">
+      <c r="Q1" s="24" t="s">
         <v>158</v>
       </c>
       <c r="S1" s="10" t="s">
@@ -2584,56 +2563,59 @@
       <c r="Z1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="130" t="s">
+      <c r="AA1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:100" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:101" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="19"/>
       <c r="E2" s="35"/>
@@ -2668,10 +2650,10 @@
         <f>Z2</f>
         <v>45199</v>
       </c>
-      <c r="P2" s="199">
+      <c r="P2" s="22">
         <v>45382</v>
       </c>
-      <c r="Q2" s="152"/>
+      <c r="Q2" s="176"/>
       <c r="S2" s="22">
         <v>42643</v>
       </c>
@@ -2696,10 +2678,8 @@
       <c r="Z2" s="22">
         <v>45199</v>
       </c>
-      <c r="AA2" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="131" t="s">
         <v>67</v>
       </c>
       <c r="AC2" s="21" t="s">
@@ -2744,8 +2724,11 @@
       <c r="AP2" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ2" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2786,10 +2769,10 @@
         <f>Z3-N3</f>
         <v>105.02999999999999</v>
       </c>
-      <c r="P3" s="201">
+      <c r="P3" s="12">
         <v>119.187</v>
       </c>
-      <c r="Q3" s="153"/>
+      <c r="Q3" s="30"/>
       <c r="S3" s="12">
         <v>104.803</v>
       </c>
@@ -2814,72 +2797,75 @@
       <c r="Z3" s="12">
         <v>215.08199999999999</v>
       </c>
-      <c r="AA3" s="132">
-        <f>Z3*(1+AA21)</f>
+      <c r="AA3" s="12">
+        <v>230.4</v>
+      </c>
+      <c r="AB3" s="132">
+        <f>Z3*(1+AB21)</f>
         <v>238.74102000000002</v>
       </c>
-      <c r="AB3" s="36">
-        <f>AA3*(1+AB21)</f>
+      <c r="AC3" s="36">
+        <f>AB3*(1+AC21)</f>
         <v>274.55217299999998</v>
       </c>
-      <c r="AC3" s="36">
-        <f t="shared" ref="AC3:AP3" si="1">AB3*(1+AC21)</f>
+      <c r="AD3" s="36">
+        <f t="shared" ref="AD3:AQ3" si="1">AC3*(1+AD21)</f>
         <v>329.46260759999996</v>
       </c>
-      <c r="AD3" s="36">
+      <c r="AE3" s="36">
         <f t="shared" si="1"/>
         <v>395.35512911999996</v>
       </c>
-      <c r="AE3" s="36">
+      <c r="AF3" s="36">
         <f t="shared" si="1"/>
         <v>454.65839848799993</v>
       </c>
-      <c r="AF3" s="36">
+      <c r="AG3" s="36">
         <f t="shared" si="1"/>
         <v>500.12423833679998</v>
       </c>
-      <c r="AG3" s="36">
+      <c r="AH3" s="36">
         <f t="shared" si="1"/>
         <v>550.13666217048001</v>
       </c>
-      <c r="AH3" s="36">
+      <c r="AI3" s="36">
         <f t="shared" si="1"/>
         <v>594.14759514411844</v>
       </c>
-      <c r="AI3" s="36">
+      <c r="AJ3" s="36">
         <f t="shared" si="1"/>
         <v>623.85497490132434</v>
       </c>
-      <c r="AJ3" s="36">
+      <c r="AK3" s="36">
         <f t="shared" si="1"/>
         <v>655.04772364639064</v>
       </c>
-      <c r="AK3" s="36">
+      <c r="AL3" s="36">
         <f t="shared" si="1"/>
         <v>668.14867811931845</v>
       </c>
-      <c r="AL3" s="36">
+      <c r="AM3" s="36">
         <f t="shared" si="1"/>
         <v>681.51165168170485</v>
       </c>
-      <c r="AM3" s="36">
+      <c r="AN3" s="36">
         <f t="shared" si="1"/>
         <v>695.14188471533896</v>
       </c>
-      <c r="AN3" s="36">
+      <c r="AO3" s="36">
         <f t="shared" si="1"/>
         <v>709.04472240964571</v>
       </c>
-      <c r="AO3" s="36">
+      <c r="AP3" s="36">
         <f t="shared" si="1"/>
         <v>723.22561685783865</v>
       </c>
-      <c r="AP3" s="36">
+      <c r="AQ3" s="36">
         <f t="shared" si="1"/>
         <v>737.69012919499539</v>
       </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>33</v>
@@ -2920,7 +2906,7 @@
         <f>Z4-N4</f>
         <v>59.235999999999997</v>
       </c>
-      <c r="P4" s="200">
+      <c r="P4" s="14">
         <f>19.825+22.269</f>
         <v>42.093999999999994</v>
       </c>
@@ -2949,72 +2935,73 @@
         <f>37.491+40.717</f>
         <v>78.207999999999998</v>
       </c>
-      <c r="AA4" s="133">
-        <f>AA3*0.16</f>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="133">
+        <f>AB3*0.16</f>
         <v>38.198563200000002</v>
       </c>
-      <c r="AB4" s="27">
-        <f t="shared" ref="AB4:AP4" si="2">AB3*0.14</f>
+      <c r="AC4" s="27">
+        <f t="shared" ref="AC4:AQ4" si="2">AC3*0.14</f>
         <v>38.437304220000001</v>
       </c>
-      <c r="AC4" s="27">
+      <c r="AD4" s="27">
         <f t="shared" si="2"/>
         <v>46.124765063999995</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AE4" s="27">
         <f t="shared" si="2"/>
         <v>55.349718076800002</v>
       </c>
-      <c r="AE4" s="27">
+      <c r="AF4" s="27">
         <f t="shared" si="2"/>
         <v>63.652175788319994</v>
       </c>
-      <c r="AF4" s="27">
+      <c r="AG4" s="27">
         <f t="shared" si="2"/>
         <v>70.01739336715201</v>
       </c>
-      <c r="AG4" s="27">
+      <c r="AH4" s="27">
         <f t="shared" si="2"/>
         <v>77.019132703867214</v>
       </c>
-      <c r="AH4" s="27">
+      <c r="AI4" s="27">
         <f t="shared" si="2"/>
         <v>83.180663320176592</v>
       </c>
-      <c r="AI4" s="27">
+      <c r="AJ4" s="27">
         <f t="shared" si="2"/>
         <v>87.339696486185417</v>
       </c>
-      <c r="AJ4" s="27">
+      <c r="AK4" s="27">
         <f t="shared" si="2"/>
         <v>91.706681310494702</v>
       </c>
-      <c r="AK4" s="27">
+      <c r="AL4" s="27">
         <f t="shared" si="2"/>
         <v>93.540814936704592</v>
       </c>
-      <c r="AL4" s="27">
+      <c r="AM4" s="27">
         <f t="shared" si="2"/>
         <v>95.411631235438691</v>
       </c>
-      <c r="AM4" s="27">
+      <c r="AN4" s="27">
         <f t="shared" si="2"/>
         <v>97.319863860147464</v>
       </c>
-      <c r="AN4" s="27">
+      <c r="AO4" s="27">
         <f t="shared" si="2"/>
         <v>99.266261137350412</v>
       </c>
-      <c r="AO4" s="27">
+      <c r="AP4" s="27">
         <f t="shared" si="2"/>
         <v>101.25158636009742</v>
       </c>
-      <c r="AP4" s="27">
+      <c r="AQ4" s="27">
         <f t="shared" si="2"/>
         <v>103.27661808729937</v>
       </c>
     </row>
-    <row r="5" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>34</v>
@@ -3064,7 +3051,7 @@
         <f t="shared" si="3"/>
         <v>77.093000000000004</v>
       </c>
-      <c r="Q5" s="153"/>
+      <c r="Q5" s="61"/>
       <c r="S5" s="12">
         <f t="shared" ref="S5:Z5" si="4">S3-S4</f>
         <v>89.426999999999992</v>
@@ -3097,72 +3084,73 @@
         <f t="shared" si="4"/>
         <v>136.874</v>
       </c>
-      <c r="AA5" s="132">
-        <f>AA3-AA4</f>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="132">
+        <f>AB3-AB4</f>
         <v>200.54245680000002</v>
       </c>
-      <c r="AB5" s="12">
-        <f t="shared" ref="AB5:AP5" si="5">AB3-AB4</f>
+      <c r="AC5" s="12">
+        <f t="shared" ref="AC5:AQ5" si="5">AC3-AC4</f>
         <v>236.11486877999999</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AD5" s="12">
         <f t="shared" si="5"/>
         <v>283.33784253599998</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AE5" s="12">
         <f t="shared" si="5"/>
         <v>340.00541104319996</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AF5" s="12">
         <f t="shared" si="5"/>
         <v>391.00622269967994</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AG5" s="12">
         <f t="shared" si="5"/>
         <v>430.10684496964797</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AH5" s="12">
         <f t="shared" si="5"/>
         <v>473.11752946661278</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AI5" s="12">
         <f t="shared" si="5"/>
         <v>510.96693182394188</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AJ5" s="12">
         <f t="shared" si="5"/>
         <v>536.51527841513894</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AK5" s="12">
         <f t="shared" si="5"/>
         <v>563.34104233589596</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AL5" s="12">
         <f t="shared" si="5"/>
         <v>574.60786318261387</v>
       </c>
-      <c r="AL5" s="12">
+      <c r="AM5" s="12">
         <f t="shared" si="5"/>
         <v>586.10002044626617</v>
       </c>
-      <c r="AM5" s="12">
+      <c r="AN5" s="12">
         <f t="shared" si="5"/>
         <v>597.82202085519145</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AO5" s="12">
         <f t="shared" si="5"/>
         <v>609.77846127229532</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AP5" s="12">
         <f t="shared" si="5"/>
         <v>621.97403049774118</v>
       </c>
-      <c r="AP5" s="12">
+      <c r="AQ5" s="12">
         <f t="shared" si="5"/>
         <v>634.41351110769597</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -3203,7 +3191,7 @@
         <f t="shared" ref="O6:O11" si="6">Z6-N6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="200">
+      <c r="P6" s="14">
         <v>0</v>
       </c>
       <c r="S6" s="14">
@@ -3230,72 +3218,73 @@
       <c r="Z6" s="14">
         <v>0</v>
       </c>
-      <c r="AA6" s="133">
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="133">
         <f>-AVERAGE(V6:Z6)</f>
         <v>-0.5706</v>
       </c>
-      <c r="AB6" s="14">
-        <f t="shared" ref="AB6:AH6" si="7">AVERAGE(S6:AA6)</f>
+      <c r="AC6" s="14">
+        <f>AVERAGE(S6:AB6)</f>
         <v>0.41748888888888885</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AD6" s="14">
+        <f>AVERAGE(T6:AC6)</f>
+        <v>0.30887654320987656</v>
+      </c>
+      <c r="AE6" s="14">
+        <f>AVERAGE(U6:AD6)</f>
+        <v>0.33430727023319612</v>
+      </c>
+      <c r="AF6" s="14">
+        <f>AVERAGE(V6:AE6)</f>
+        <v>0.37145252248132904</v>
+      </c>
+      <c r="AG6" s="14">
+        <f>AVERAGE(W6:AF6)</f>
+        <v>0.41272502497925445</v>
+      </c>
+      <c r="AH6" s="14">
+        <f>AVERAGE(X6:AG6)</f>
+        <v>0.45858336108806053</v>
+      </c>
+      <c r="AI6" s="14">
+        <f>AVERAGE(Y6:AH6)</f>
+        <v>0.19687040120895619</v>
+      </c>
+      <c r="AJ6" s="14">
+        <f>AVERAGE(AB6:AI6)</f>
+        <v>0.24121300151119521</v>
+      </c>
+      <c r="AK6" s="14">
+        <f t="shared" ref="AK6:AQ6" si="7">AVERAGE(AC6:AJ6)</f>
+        <v>0.34268962670009467</v>
+      </c>
+      <c r="AL6" s="14">
         <f t="shared" si="7"/>
-        <v>0.30887654320987656</v>
-      </c>
-      <c r="AD6" s="14">
+        <v>0.33333971892649533</v>
+      </c>
+      <c r="AM6" s="14">
         <f t="shared" si="7"/>
-        <v>0.33430727023319612</v>
-      </c>
-      <c r="AE6" s="14">
+        <v>0.33639761589107264</v>
+      </c>
+      <c r="AN6" s="14">
         <f t="shared" si="7"/>
-        <v>0.37145252248132904</v>
-      </c>
-      <c r="AF6" s="14">
+        <v>0.33665890909830726</v>
+      </c>
+      <c r="AO6" s="14">
         <f t="shared" si="7"/>
-        <v>0.41272502497925445</v>
-      </c>
-      <c r="AG6" s="14">
+        <v>0.33230970742542953</v>
+      </c>
+      <c r="AP6" s="14">
         <f t="shared" si="7"/>
-        <v>0.45858336108806053</v>
-      </c>
-      <c r="AH6" s="14">
+        <v>0.32225779273120136</v>
+      </c>
+      <c r="AQ6" s="14">
         <f t="shared" si="7"/>
-        <v>0.19687040120895619</v>
-      </c>
-      <c r="AI6" s="14">
-        <f>AVERAGE(AA6:AH6)</f>
-        <v>0.24121300151119521</v>
-      </c>
-      <c r="AJ6" s="14">
-        <f t="shared" ref="AJ6:AP6" si="8">AVERAGE(AB6:AI6)</f>
-        <v>0.34268962670009467</v>
-      </c>
-      <c r="AK6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.33333971892649533</v>
-      </c>
-      <c r="AL6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.33639761589107264</v>
-      </c>
-      <c r="AM6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.33665890909830726</v>
-      </c>
-      <c r="AN6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.33230970742542953</v>
-      </c>
-      <c r="AO6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.32225779273120136</v>
-      </c>
-      <c r="AP6" s="14">
-        <f t="shared" si="8"/>
         <v>0.30521709668659402</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -3335,7 +3324,7 @@
         <f t="shared" si="6"/>
         <v>23.855000000000004</v>
       </c>
-      <c r="P7" s="200">
+      <c r="P7" s="14">
         <v>42.725000000000001</v>
       </c>
       <c r="S7" s="14">
@@ -3362,72 +3351,73 @@
       <c r="Z7" s="14">
         <v>82.789000000000001</v>
       </c>
-      <c r="AA7" s="133">
-        <f>AA5*0.62</f>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="133">
+        <f>AB5*0.62</f>
         <v>124.33632321600001</v>
       </c>
-      <c r="AB7" s="27">
-        <f>AB5*0.63</f>
+      <c r="AC7" s="27">
+        <f>AC5*0.63</f>
         <v>148.7523673314</v>
       </c>
-      <c r="AC7" s="27">
-        <f t="shared" ref="AC7:AP7" si="9">AC5*0.63</f>
+      <c r="AD7" s="27">
+        <f t="shared" ref="AD7:AQ7" si="8">AD5*0.63</f>
         <v>178.50284079767999</v>
       </c>
-      <c r="AD7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AE7" s="27">
+        <f t="shared" si="8"/>
         <v>214.20340895721597</v>
       </c>
-      <c r="AE7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AF7" s="27">
+        <f t="shared" si="8"/>
         <v>246.33392030079835</v>
       </c>
-      <c r="AF7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AG7" s="27">
+        <f t="shared" si="8"/>
         <v>270.9673123308782</v>
       </c>
-      <c r="AG7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AH7" s="27">
+        <f t="shared" si="8"/>
         <v>298.06404356396604</v>
       </c>
-      <c r="AH7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AI7" s="27">
+        <f t="shared" si="8"/>
         <v>321.90916704908341</v>
       </c>
-      <c r="AI7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AJ7" s="27">
+        <f t="shared" si="8"/>
         <v>338.00462540153751</v>
       </c>
-      <c r="AJ7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AK7" s="27">
+        <f t="shared" si="8"/>
         <v>354.90485667161448</v>
       </c>
-      <c r="AK7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AL7" s="27">
+        <f t="shared" si="8"/>
         <v>362.00295380504673</v>
       </c>
-      <c r="AL7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AM7" s="27">
+        <f t="shared" si="8"/>
         <v>369.24301288114771</v>
       </c>
-      <c r="AM7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AN7" s="27">
+        <f t="shared" si="8"/>
         <v>376.62787313877061</v>
       </c>
-      <c r="AN7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AO7" s="27">
+        <f t="shared" si="8"/>
         <v>384.16043060154607</v>
       </c>
-      <c r="AO7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AP7" s="27">
+        <f t="shared" si="8"/>
         <v>391.84363921357692</v>
       </c>
-      <c r="AP7" s="27">
-        <f t="shared" si="9"/>
+      <c r="AQ7" s="27">
+        <f t="shared" si="8"/>
         <v>399.68051199784844</v>
       </c>
     </row>
-    <row r="8" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
@@ -3441,140 +3431,141 @@
         <v>11.681000000000012</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" ref="H8:P8" si="10">H5+H6-H7</f>
+        <f t="shared" ref="H8:P8" si="9">H5+H6-H7</f>
         <v>19.176000000000002</v>
       </c>
       <c r="I8" s="30">
+        <f t="shared" si="9"/>
+        <v>-9.3150000000000031</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="9"/>
+        <v>-10.022</v>
+      </c>
+      <c r="K8" s="30">
+        <f t="shared" si="9"/>
+        <v>19.602000000000004</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="9"/>
+        <v>37.616</v>
+      </c>
+      <c r="M8" s="30">
+        <f t="shared" si="9"/>
+        <v>17.833000000000013</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" si="9"/>
+        <v>32.146000000000015</v>
+      </c>
+      <c r="O8" s="30">
+        <f t="shared" si="9"/>
+        <v>21.938999999999986</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" si="9"/>
+        <v>34.368000000000002</v>
+      </c>
+      <c r="Q8" s="61"/>
+      <c r="S8" s="12">
+        <f t="shared" ref="S8:AB8" si="10">S5+S6-S7</f>
+        <v>14.377999999999986</v>
+      </c>
+      <c r="T8" s="12">
         <f t="shared" si="10"/>
-        <v>-9.3150000000000031</v>
-      </c>
-      <c r="J8" s="12">
+        <v>22.200999999999993</v>
+      </c>
+      <c r="U8" s="12">
         <f t="shared" si="10"/>
-        <v>-10.022</v>
-      </c>
-      <c r="K8" s="30">
+        <v>24.891999999999996</v>
+      </c>
+      <c r="V8" s="12">
         <f t="shared" si="10"/>
-        <v>19.602000000000004</v>
-      </c>
-      <c r="L8" s="12">
+        <v>28.444000000000003</v>
+      </c>
+      <c r="W8" s="12">
         <f t="shared" si="10"/>
-        <v>37.616</v>
-      </c>
-      <c r="M8" s="30">
+        <v>9.8610000000000042</v>
+      </c>
+      <c r="X8" s="12">
         <f t="shared" si="10"/>
-        <v>17.833000000000013</v>
-      </c>
-      <c r="N8" s="12">
+        <v>9.5800000000000054</v>
+      </c>
+      <c r="Y8" s="12">
         <f t="shared" si="10"/>
-        <v>32.146000000000015</v>
-      </c>
-      <c r="O8" s="30">
+        <v>55.449000000000012</v>
+      </c>
+      <c r="Z8" s="12">
         <f t="shared" si="10"/>
-        <v>21.938999999999986</v>
-      </c>
-      <c r="P8" s="12">
+        <v>54.084999999999994</v>
+      </c>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="41">
         <f t="shared" si="10"/>
-        <v>34.368000000000002</v>
-      </c>
-      <c r="Q8" s="153"/>
-      <c r="S8" s="12">
-        <f t="shared" ref="S8:AA8" si="11">S5+S6-S7</f>
-        <v>14.377999999999986</v>
-      </c>
-      <c r="T8" s="12">
+        <v>75.635533584000001</v>
+      </c>
+      <c r="AC8" s="12">
+        <f t="shared" ref="AC8:AQ8" si="11">AC5+AC6-AC7</f>
+        <v>87.779990337488897</v>
+      </c>
+      <c r="AD8" s="12">
         <f t="shared" si="11"/>
-        <v>22.200999999999993</v>
-      </c>
-      <c r="U8" s="12">
+        <v>105.14387828152985</v>
+      </c>
+      <c r="AE8" s="12">
         <f t="shared" si="11"/>
-        <v>24.891999999999996</v>
-      </c>
-      <c r="V8" s="12">
+        <v>126.13630935621717</v>
+      </c>
+      <c r="AF8" s="12">
         <f t="shared" si="11"/>
-        <v>28.444000000000003</v>
-      </c>
-      <c r="W8" s="12">
+        <v>145.0437549213629</v>
+      </c>
+      <c r="AG8" s="12">
         <f t="shared" si="11"/>
-        <v>9.8610000000000042</v>
-      </c>
-      <c r="X8" s="12">
+        <v>159.552257663749</v>
+      </c>
+      <c r="AH8" s="12">
         <f t="shared" si="11"/>
-        <v>9.5800000000000054</v>
-      </c>
-      <c r="Y8" s="12">
+        <v>175.51206926373482</v>
+      </c>
+      <c r="AI8" s="12">
         <f t="shared" si="11"/>
-        <v>55.449000000000012</v>
-      </c>
-      <c r="Z8" s="12">
+        <v>189.25463517606744</v>
+      </c>
+      <c r="AJ8" s="12">
         <f t="shared" si="11"/>
-        <v>54.084999999999994</v>
-      </c>
-      <c r="AA8" s="41">
+        <v>198.75186601511257</v>
+      </c>
+      <c r="AK8" s="12">
         <f t="shared" si="11"/>
-        <v>75.635533584000001</v>
-      </c>
-      <c r="AB8" s="12">
-        <f t="shared" ref="AB8:AP8" si="12">AB5+AB6-AB7</f>
-        <v>87.779990337488897</v>
-      </c>
-      <c r="AC8" s="12">
-        <f t="shared" si="12"/>
-        <v>105.14387828152985</v>
-      </c>
-      <c r="AD8" s="12">
-        <f t="shared" si="12"/>
-        <v>126.13630935621717</v>
-      </c>
-      <c r="AE8" s="12">
-        <f t="shared" si="12"/>
-        <v>145.0437549213629</v>
-      </c>
-      <c r="AF8" s="12">
-        <f t="shared" si="12"/>
-        <v>159.552257663749</v>
-      </c>
-      <c r="AG8" s="12">
-        <f t="shared" si="12"/>
-        <v>175.51206926373482</v>
-      </c>
-      <c r="AH8" s="12">
-        <f t="shared" si="12"/>
-        <v>189.25463517606744</v>
-      </c>
-      <c r="AI8" s="12">
-        <f t="shared" si="12"/>
-        <v>198.75186601511257</v>
-      </c>
-      <c r="AJ8" s="12">
-        <f t="shared" si="12"/>
         <v>208.7788752909816</v>
       </c>
-      <c r="AK8" s="12">
-        <f t="shared" si="12"/>
+      <c r="AL8" s="12">
+        <f t="shared" si="11"/>
         <v>212.93824909649362</v>
       </c>
-      <c r="AL8" s="12">
-        <f t="shared" si="12"/>
+      <c r="AM8" s="12">
+        <f t="shared" si="11"/>
         <v>217.19340518100955</v>
       </c>
-      <c r="AM8" s="12">
-        <f t="shared" si="12"/>
+      <c r="AN8" s="12">
+        <f t="shared" si="11"/>
         <v>221.53080662551918</v>
       </c>
-      <c r="AN8" s="12">
-        <f t="shared" si="12"/>
+      <c r="AO8" s="12">
+        <f t="shared" si="11"/>
         <v>225.9503403781747</v>
       </c>
-      <c r="AO8" s="12">
-        <f t="shared" si="12"/>
+      <c r="AP8" s="12">
+        <f t="shared" si="11"/>
         <v>230.45264907689545</v>
       </c>
-      <c r="AP8" s="12">
-        <f t="shared" si="12"/>
+      <c r="AQ8" s="12">
+        <f t="shared" si="11"/>
         <v>235.03821620653417</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
@@ -3616,7 +3607,7 @@
         <f t="shared" si="6"/>
         <v>4.5480000000000009</v>
       </c>
-      <c r="P9" s="200">
+      <c r="P9" s="14">
         <f>-1.029+5.869</f>
         <v>4.84</v>
       </c>
@@ -3651,57 +3642,58 @@
         <f>10.445-1.44</f>
         <v>9.0050000000000008</v>
       </c>
-      <c r="AA9" s="133">
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="133">
         <f>-AVERAGE(W9:Z9)</f>
         <v>-8.8930000000000007</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>2.9</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>3.9</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>5.9</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>6.9</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>7.9</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>8.9</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1">
         <v>9.9</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <v>10.9</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AL9" s="1">
         <v>11.9</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <v>12.9</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN9" s="1">
         <v>13.9</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AO9" s="1">
         <v>14.9</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AP9" s="1">
         <v>15.9</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AQ9" s="1">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
@@ -3715,139 +3707,140 @@
         <v>11.20300000000001</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" ref="H10:P10" si="13">H8-H9</f>
+        <f t="shared" ref="H10:P10" si="12">H8-H9</f>
         <v>14.468000000000004</v>
       </c>
       <c r="I10" s="31">
+        <f t="shared" si="12"/>
+        <v>-13.272000000000006</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="12"/>
+        <v>-14.489000000000001</v>
+      </c>
+      <c r="K10" s="31">
+        <f t="shared" si="12"/>
+        <v>14.951000000000004</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="12"/>
+        <v>33.436999999999998</v>
+      </c>
+      <c r="M10" s="31">
+        <f t="shared" si="12"/>
+        <v>13.228000000000014</v>
+      </c>
+      <c r="N10" s="14">
+        <f t="shared" si="12"/>
+        <v>27.689000000000014</v>
+      </c>
+      <c r="O10" s="31">
+        <f t="shared" si="12"/>
+        <v>17.390999999999984</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" si="12"/>
+        <v>29.528000000000002</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" ref="S10:AB10" si="13">S8-S9</f>
+        <v>2.5739999999999874</v>
+      </c>
+      <c r="T10" s="14">
         <f t="shared" si="13"/>
-        <v>-13.272000000000006</v>
-      </c>
-      <c r="J10" s="14">
+        <v>20.999999999999993</v>
+      </c>
+      <c r="U10" s="14">
         <f t="shared" si="13"/>
-        <v>-14.489000000000001</v>
-      </c>
-      <c r="K10" s="31">
+        <v>23.933999999999997</v>
+      </c>
+      <c r="V10" s="14">
         <f t="shared" si="13"/>
-        <v>14.951000000000004</v>
-      </c>
-      <c r="L10" s="14">
+        <v>27.588000000000001</v>
+      </c>
+      <c r="W10" s="14">
         <f t="shared" si="13"/>
-        <v>33.436999999999998</v>
-      </c>
-      <c r="M10" s="31">
+        <v>1.1960000000000033</v>
+      </c>
+      <c r="X10" s="14">
         <f t="shared" si="13"/>
-        <v>13.228000000000014</v>
-      </c>
-      <c r="N10" s="14">
+        <v>0.46200000000000507</v>
+      </c>
+      <c r="Y10" s="14">
         <f t="shared" si="13"/>
-        <v>27.689000000000014</v>
-      </c>
-      <c r="O10" s="31">
+        <v>46.665000000000013</v>
+      </c>
+      <c r="Z10" s="14">
         <f t="shared" si="13"/>
-        <v>17.390999999999984</v>
-      </c>
-      <c r="P10" s="14">
+        <v>45.079999999999991</v>
+      </c>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="44">
         <f t="shared" si="13"/>
-        <v>29.528000000000002</v>
-      </c>
-      <c r="S10" s="14">
-        <f t="shared" ref="S10:AA10" si="14">S8-S9</f>
-        <v>2.5739999999999874</v>
-      </c>
-      <c r="T10" s="14">
+        <v>84.528533584000002</v>
+      </c>
+      <c r="AC10" s="14">
+        <f t="shared" ref="AC10:AQ10" si="14">AC8-AC9</f>
+        <v>84.879990337488891</v>
+      </c>
+      <c r="AD10" s="14">
         <f t="shared" si="14"/>
-        <v>20.999999999999993</v>
-      </c>
-      <c r="U10" s="14">
+        <v>101.24387828152985</v>
+      </c>
+      <c r="AE10" s="14">
         <f t="shared" si="14"/>
-        <v>23.933999999999997</v>
-      </c>
-      <c r="V10" s="14">
+        <v>121.23630935621716</v>
+      </c>
+      <c r="AF10" s="14">
         <f t="shared" si="14"/>
-        <v>27.588000000000001</v>
-      </c>
-      <c r="W10" s="14">
+        <v>139.1437549213629</v>
+      </c>
+      <c r="AG10" s="14">
         <f t="shared" si="14"/>
-        <v>1.1960000000000033</v>
-      </c>
-      <c r="X10" s="14">
+        <v>152.652257663749</v>
+      </c>
+      <c r="AH10" s="14">
         <f t="shared" si="14"/>
-        <v>0.46200000000000507</v>
-      </c>
-      <c r="Y10" s="14">
+        <v>167.61206926373481</v>
+      </c>
+      <c r="AI10" s="14">
         <f t="shared" si="14"/>
-        <v>46.665000000000013</v>
-      </c>
-      <c r="Z10" s="14">
+        <v>180.35463517606743</v>
+      </c>
+      <c r="AJ10" s="14">
         <f t="shared" si="14"/>
-        <v>45.079999999999991</v>
-      </c>
-      <c r="AA10" s="44">
+        <v>188.85186601511256</v>
+      </c>
+      <c r="AK10" s="14">
         <f t="shared" si="14"/>
-        <v>84.528533584000002</v>
-      </c>
-      <c r="AB10" s="14">
-        <f t="shared" ref="AB10:AP10" si="15">AB8-AB9</f>
-        <v>84.879990337488891</v>
-      </c>
-      <c r="AC10" s="14">
-        <f t="shared" si="15"/>
-        <v>101.24387828152985</v>
-      </c>
-      <c r="AD10" s="14">
-        <f t="shared" si="15"/>
-        <v>121.23630935621716</v>
-      </c>
-      <c r="AE10" s="14">
-        <f t="shared" si="15"/>
-        <v>139.1437549213629</v>
-      </c>
-      <c r="AF10" s="14">
-        <f t="shared" si="15"/>
-        <v>152.652257663749</v>
-      </c>
-      <c r="AG10" s="14">
-        <f t="shared" si="15"/>
-        <v>167.61206926373481</v>
-      </c>
-      <c r="AH10" s="14">
-        <f t="shared" si="15"/>
-        <v>180.35463517606743</v>
-      </c>
-      <c r="AI10" s="14">
-        <f t="shared" si="15"/>
-        <v>188.85186601511256</v>
-      </c>
-      <c r="AJ10" s="14">
-        <f t="shared" si="15"/>
         <v>197.8788752909816</v>
       </c>
-      <c r="AK10" s="14">
-        <f t="shared" si="15"/>
+      <c r="AL10" s="14">
+        <f t="shared" si="14"/>
         <v>201.03824909649362</v>
       </c>
-      <c r="AL10" s="14">
-        <f t="shared" si="15"/>
+      <c r="AM10" s="14">
+        <f t="shared" si="14"/>
         <v>204.29340518100955</v>
       </c>
-      <c r="AM10" s="14">
-        <f t="shared" si="15"/>
+      <c r="AN10" s="14">
+        <f t="shared" si="14"/>
         <v>207.63080662551917</v>
       </c>
-      <c r="AN10" s="14">
-        <f t="shared" si="15"/>
+      <c r="AO10" s="14">
+        <f t="shared" si="14"/>
         <v>211.0503403781747</v>
       </c>
-      <c r="AO10" s="14">
-        <f t="shared" si="15"/>
+      <c r="AP10" s="14">
+        <f t="shared" si="14"/>
         <v>214.55264907689545</v>
       </c>
-      <c r="AP10" s="14">
-        <f t="shared" si="15"/>
+      <c r="AQ10" s="14">
+        <f t="shared" si="14"/>
         <v>218.13821620653417</v>
       </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
@@ -3887,7 +3880,7 @@
         <f t="shared" si="6"/>
         <v>5.16</v>
       </c>
-      <c r="P11" s="200">
+      <c r="P11" s="14">
         <v>7.5810000000000004</v>
       </c>
       <c r="S11" s="14">
@@ -3914,72 +3907,73 @@
       <c r="Z11" s="14">
         <v>10.929</v>
       </c>
-      <c r="AA11" s="133">
-        <f>AA10-AA12</f>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="133">
+        <f>AB10-AB12</f>
         <v>16.905706716799997</v>
       </c>
-      <c r="AB11" s="27">
-        <f>AB10*(1-(1-AB19))</f>
+      <c r="AC11" s="27">
+        <f>AC10*(1-(1-AC19))</f>
         <v>16.975998067497773</v>
       </c>
-      <c r="AC11" s="27">
-        <f t="shared" ref="AC11:AP11" si="16">AC10*(1-(1-AC19))</f>
+      <c r="AD11" s="27">
+        <f t="shared" ref="AD11:AQ11" si="15">AD10*(1-(1-AD19))</f>
         <v>20.248775656305966</v>
       </c>
-      <c r="AD11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AE11" s="27">
+        <f t="shared" si="15"/>
         <v>24.247261871243428</v>
       </c>
-      <c r="AE11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AF11" s="27">
+        <f t="shared" si="15"/>
         <v>27.828750984272574</v>
       </c>
-      <c r="AF11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AG11" s="27">
+        <f t="shared" si="15"/>
         <v>30.530451532749794</v>
       </c>
-      <c r="AG11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AH11" s="27">
+        <f t="shared" si="15"/>
         <v>33.522413852746958</v>
       </c>
-      <c r="AH11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AI11" s="27">
+        <f t="shared" si="15"/>
         <v>36.070927035213479</v>
       </c>
-      <c r="AI11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AJ11" s="27">
+        <f t="shared" si="15"/>
         <v>37.770373203022501</v>
       </c>
-      <c r="AJ11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AK11" s="27">
+        <f t="shared" si="15"/>
         <v>39.575775058196314</v>
       </c>
-      <c r="AK11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AL11" s="27">
+        <f t="shared" si="15"/>
         <v>40.207649819298716</v>
       </c>
-      <c r="AL11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AM11" s="27">
+        <f t="shared" si="15"/>
         <v>40.858681036201901</v>
       </c>
-      <c r="AM11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AN11" s="27">
+        <f t="shared" si="15"/>
         <v>41.526161325103828</v>
       </c>
-      <c r="AN11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AO11" s="27">
+        <f t="shared" si="15"/>
         <v>42.210068075634929</v>
       </c>
-      <c r="AO11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AP11" s="27">
+        <f t="shared" si="15"/>
         <v>42.910529815379078</v>
       </c>
-      <c r="AP11" s="27">
-        <f t="shared" si="16"/>
+      <c r="AQ11" s="27">
+        <f t="shared" si="15"/>
         <v>43.627643241306821</v>
       </c>
     </row>
-    <row r="12" spans="1:100" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
@@ -3993,407 +3987,408 @@
         <v>8.910000000000009</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" ref="H12:P12" si="17">H10-H11</f>
+        <f t="shared" ref="H12:P12" si="16">H10-H11</f>
         <v>11.520000000000003</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-10.135000000000005</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-11.633000000000001</v>
       </c>
       <c r="K12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>13.361000000000004</v>
       </c>
       <c r="L12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>27.024999999999999</v>
       </c>
       <c r="M12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>10.426000000000013</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>21.920000000000016</v>
       </c>
       <c r="O12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>12.230999999999984</v>
       </c>
       <c r="P12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>21.947000000000003</v>
       </c>
-      <c r="Q12" s="155"/>
+      <c r="Q12" s="177"/>
       <c r="R12" s="87"/>
       <c r="S12" s="12">
-        <f t="shared" ref="S12:Z12" si="18">S10-S11</f>
+        <f t="shared" ref="S12:Z12" si="17">S10-S11</f>
         <v>1.1869999999999874</v>
       </c>
       <c r="T12" s="12">
+        <f t="shared" si="17"/>
+        <v>18.151999999999994</v>
+      </c>
+      <c r="U12" s="12">
+        <f t="shared" si="17"/>
+        <v>18.783999999999999</v>
+      </c>
+      <c r="V12" s="12">
+        <f t="shared" si="17"/>
+        <v>22.285</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" si="17"/>
+        <v>1.3850000000000033</v>
+      </c>
+      <c r="X12" s="12">
+        <f t="shared" si="17"/>
+        <v>1.7280000000000051</v>
+      </c>
+      <c r="Y12" s="12">
+        <f t="shared" si="17"/>
+        <v>37.451000000000015</v>
+      </c>
+      <c r="Z12" s="12">
+        <f t="shared" si="17"/>
+        <v>34.150999999999989</v>
+      </c>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="132">
+        <f>AB10*(1-AB19)</f>
+        <v>67.622826867200004</v>
+      </c>
+      <c r="AC12" s="12">
+        <f t="shared" ref="AC12:AQ12" si="18">AC10-AC11</f>
+        <v>67.903992269991122</v>
+      </c>
+      <c r="AD12" s="12">
         <f t="shared" si="18"/>
-        <v>18.151999999999994</v>
-      </c>
-      <c r="U12" s="12">
+        <v>80.995102625223879</v>
+      </c>
+      <c r="AE12" s="12">
         <f t="shared" si="18"/>
-        <v>18.783999999999999</v>
-      </c>
-      <c r="V12" s="12">
+        <v>96.989047484973739</v>
+      </c>
+      <c r="AF12" s="12">
         <f t="shared" si="18"/>
-        <v>22.285</v>
-      </c>
-      <c r="W12" s="12">
+        <v>111.31500393709032</v>
+      </c>
+      <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>1.3850000000000033</v>
-      </c>
-      <c r="X12" s="12">
+        <v>122.1218061309992</v>
+      </c>
+      <c r="AH12" s="12">
         <f t="shared" si="18"/>
-        <v>1.7280000000000051</v>
-      </c>
-      <c r="Y12" s="12">
+        <v>134.08965541098786</v>
+      </c>
+      <c r="AI12" s="12">
         <f t="shared" si="18"/>
-        <v>37.451000000000015</v>
-      </c>
-      <c r="Z12" s="12">
+        <v>144.28370814085395</v>
+      </c>
+      <c r="AJ12" s="12">
         <f t="shared" si="18"/>
-        <v>34.150999999999989</v>
-      </c>
-      <c r="AA12" s="132">
-        <f>AA10*(1-AA19)</f>
-        <v>67.622826867200004</v>
-      </c>
-      <c r="AB12" s="12">
-        <f t="shared" ref="AB12:AP12" si="19">AB10-AB11</f>
-        <v>67.903992269991122</v>
-      </c>
-      <c r="AC12" s="12">
+        <v>151.08149281209006</v>
+      </c>
+      <c r="AK12" s="12">
+        <f t="shared" si="18"/>
+        <v>158.30310023278528</v>
+      </c>
+      <c r="AL12" s="12">
+        <f t="shared" si="18"/>
+        <v>160.83059927719489</v>
+      </c>
+      <c r="AM12" s="12">
+        <f t="shared" si="18"/>
+        <v>163.43472414480766</v>
+      </c>
+      <c r="AN12" s="12">
+        <f t="shared" si="18"/>
+        <v>166.10464530041534</v>
+      </c>
+      <c r="AO12" s="12">
+        <f t="shared" si="18"/>
+        <v>168.84027230253977</v>
+      </c>
+      <c r="AP12" s="12">
+        <f t="shared" si="18"/>
+        <v>171.64211926151637</v>
+      </c>
+      <c r="AQ12" s="12">
+        <f t="shared" si="18"/>
+        <v>174.51057296522734</v>
+      </c>
+      <c r="AR12" s="12">
+        <f t="shared" ref="AR12:BW12" si="19">AQ12*(1+$AT$15)</f>
+        <v>171.02036150592278</v>
+      </c>
+      <c r="AS12" s="12">
         <f t="shared" si="19"/>
-        <v>80.995102625223879</v>
-      </c>
-      <c r="AD12" s="12">
+        <v>167.59995427580432</v>
+      </c>
+      <c r="AT12" s="12">
         <f t="shared" si="19"/>
-        <v>96.989047484973739</v>
-      </c>
-      <c r="AE12" s="12">
+        <v>164.24795519028822</v>
+      </c>
+      <c r="AU12" s="12">
         <f t="shared" si="19"/>
-        <v>111.31500393709032</v>
-      </c>
-      <c r="AF12" s="12">
+        <v>160.96299608648246</v>
+      </c>
+      <c r="AV12" s="12">
         <f t="shared" si="19"/>
-        <v>122.1218061309992</v>
-      </c>
-      <c r="AG12" s="12">
+        <v>157.74373616475282</v>
+      </c>
+      <c r="AW12" s="12">
         <f t="shared" si="19"/>
-        <v>134.08965541098786</v>
-      </c>
-      <c r="AH12" s="12">
+        <v>154.58886144145777</v>
+      </c>
+      <c r="AX12" s="12">
         <f t="shared" si="19"/>
-        <v>144.28370814085395</v>
-      </c>
-      <c r="AI12" s="12">
+        <v>151.49708421262861</v>
+      </c>
+      <c r="AY12" s="12">
         <f t="shared" si="19"/>
-        <v>151.08149281209006</v>
-      </c>
-      <c r="AJ12" s="12">
+        <v>148.46714252837603</v>
+      </c>
+      <c r="AZ12" s="12">
         <f t="shared" si="19"/>
-        <v>158.30310023278528</v>
-      </c>
-      <c r="AK12" s="12">
+        <v>145.4977996778085</v>
+      </c>
+      <c r="BA12" s="12">
         <f t="shared" si="19"/>
-        <v>160.83059927719489</v>
-      </c>
-      <c r="AL12" s="12">
+        <v>142.58784368425233</v>
+      </c>
+      <c r="BB12" s="12">
         <f t="shared" si="19"/>
-        <v>163.43472414480766</v>
-      </c>
-      <c r="AM12" s="12">
+        <v>139.73608681056729</v>
+      </c>
+      <c r="BC12" s="12">
         <f t="shared" si="19"/>
-        <v>166.10464530041534</v>
-      </c>
-      <c r="AN12" s="12">
+        <v>136.94136507435593</v>
+      </c>
+      <c r="BD12" s="12">
         <f t="shared" si="19"/>
-        <v>168.84027230253977</v>
-      </c>
-      <c r="AO12" s="12">
+        <v>134.20253777286879</v>
+      </c>
+      <c r="BE12" s="12">
         <f t="shared" si="19"/>
-        <v>171.64211926151637</v>
-      </c>
-      <c r="AP12" s="12">
+        <v>131.51848701741142</v>
+      </c>
+      <c r="BF12" s="12">
         <f t="shared" si="19"/>
-        <v>174.51057296522734</v>
-      </c>
-      <c r="AQ12" s="12">
-        <f t="shared" ref="AQ12:BV12" si="20">AP12*(1+$AS$15)</f>
-        <v>171.02036150592278</v>
-      </c>
-      <c r="AR12" s="12">
+        <v>128.88811727706317</v>
+      </c>
+      <c r="BG12" s="12">
+        <f t="shared" si="19"/>
+        <v>126.31035493152191</v>
+      </c>
+      <c r="BH12" s="12">
+        <f t="shared" si="19"/>
+        <v>123.78414783289148</v>
+      </c>
+      <c r="BI12" s="12">
+        <f t="shared" si="19"/>
+        <v>121.30846487623364</v>
+      </c>
+      <c r="BJ12" s="12">
+        <f t="shared" si="19"/>
+        <v>118.88229557870896</v>
+      </c>
+      <c r="BK12" s="12">
+        <f t="shared" si="19"/>
+        <v>116.50464966713479</v>
+      </c>
+      <c r="BL12" s="12">
+        <f t="shared" si="19"/>
+        <v>114.17455667379208</v>
+      </c>
+      <c r="BM12" s="12">
+        <f t="shared" si="19"/>
+        <v>111.89106554031623</v>
+      </c>
+      <c r="BN12" s="12">
+        <f t="shared" si="19"/>
+        <v>109.65324422950991</v>
+      </c>
+      <c r="BO12" s="12">
+        <f t="shared" si="19"/>
+        <v>107.46017934491971</v>
+      </c>
+      <c r="BP12" s="12">
+        <f t="shared" si="19"/>
+        <v>105.31097575802131</v>
+      </c>
+      <c r="BQ12" s="12">
+        <f t="shared" si="19"/>
+        <v>103.20475624286088</v>
+      </c>
+      <c r="BR12" s="12">
+        <f t="shared" si="19"/>
+        <v>101.14066111800366</v>
+      </c>
+      <c r="BS12" s="12">
+        <f t="shared" si="19"/>
+        <v>99.117847895643592</v>
+      </c>
+      <c r="BT12" s="12">
+        <f t="shared" si="19"/>
+        <v>97.135490937730722</v>
+      </c>
+      <c r="BU12" s="12">
+        <f t="shared" si="19"/>
+        <v>95.1927811189761</v>
+      </c>
+      <c r="BV12" s="12">
+        <f t="shared" si="19"/>
+        <v>93.288925496596576</v>
+      </c>
+      <c r="BW12" s="12">
+        <f t="shared" si="19"/>
+        <v>91.423146986664648</v>
+      </c>
+      <c r="BX12" s="12">
+        <f t="shared" ref="BX12:CW12" si="20">BW12*(1+$AT$15)</f>
+        <v>89.594684046931349</v>
+      </c>
+      <c r="BY12" s="12">
         <f t="shared" si="20"/>
-        <v>167.59995427580432</v>
-      </c>
-      <c r="AS12" s="12">
+        <v>87.80279036599272</v>
+      </c>
+      <c r="BZ12" s="12">
         <f t="shared" si="20"/>
-        <v>164.24795519028822</v>
-      </c>
-      <c r="AT12" s="12">
+        <v>86.046734558672867</v>
+      </c>
+      <c r="CA12" s="12">
         <f t="shared" si="20"/>
-        <v>160.96299608648246</v>
-      </c>
-      <c r="AU12" s="12">
+        <v>84.325799867499413</v>
+      </c>
+      <c r="CB12" s="12">
         <f t="shared" si="20"/>
-        <v>157.74373616475282</v>
-      </c>
-      <c r="AV12" s="12">
+        <v>82.639283870149427</v>
+      </c>
+      <c r="CC12" s="12">
         <f t="shared" si="20"/>
-        <v>154.58886144145777</v>
-      </c>
-      <c r="AW12" s="12">
+        <v>80.986498192746438</v>
+      </c>
+      <c r="CD12" s="12">
         <f t="shared" si="20"/>
-        <v>151.49708421262861</v>
-      </c>
-      <c r="AX12" s="12">
+        <v>79.366768228891502</v>
+      </c>
+      <c r="CE12" s="12">
         <f t="shared" si="20"/>
-        <v>148.46714252837603</v>
-      </c>
-      <c r="AY12" s="12">
+        <v>77.779432864313677</v>
+      </c>
+      <c r="CF12" s="12">
         <f t="shared" si="20"/>
-        <v>145.4977996778085</v>
-      </c>
-      <c r="AZ12" s="12">
+        <v>76.223844207027398</v>
+      </c>
+      <c r="CG12" s="12">
         <f t="shared" si="20"/>
-        <v>142.58784368425233</v>
-      </c>
-      <c r="BA12" s="12">
+        <v>74.699367322886843</v>
+      </c>
+      <c r="CH12" s="12">
         <f t="shared" si="20"/>
-        <v>139.73608681056729</v>
-      </c>
-      <c r="BB12" s="12">
+        <v>73.2053799764291</v>
+      </c>
+      <c r="CI12" s="12">
         <f t="shared" si="20"/>
-        <v>136.94136507435593</v>
-      </c>
-      <c r="BC12" s="12">
+        <v>71.741272376900511</v>
+      </c>
+      <c r="CJ12" s="12">
         <f t="shared" si="20"/>
-        <v>134.20253777286879</v>
-      </c>
-      <c r="BD12" s="12">
+        <v>70.306446929362494</v>
+      </c>
+      <c r="CK12" s="12">
         <f t="shared" si="20"/>
-        <v>131.51848701741142</v>
-      </c>
-      <c r="BE12" s="12">
+        <v>68.90031799077525</v>
+      </c>
+      <c r="CL12" s="12">
         <f t="shared" si="20"/>
-        <v>128.88811727706317</v>
-      </c>
-      <c r="BF12" s="12">
+        <v>67.522311630959749</v>
+      </c>
+      <c r="CM12" s="12">
         <f t="shared" si="20"/>
-        <v>126.31035493152191</v>
-      </c>
-      <c r="BG12" s="12">
+        <v>66.171865398340557</v>
+      </c>
+      <c r="CN12" s="12">
         <f t="shared" si="20"/>
-        <v>123.78414783289148</v>
-      </c>
-      <c r="BH12" s="12">
+        <v>64.848428090373744</v>
+      </c>
+      <c r="CO12" s="12">
         <f t="shared" si="20"/>
-        <v>121.30846487623364</v>
-      </c>
-      <c r="BI12" s="12">
+        <v>63.551459528566269</v>
+      </c>
+      <c r="CP12" s="12">
         <f t="shared" si="20"/>
-        <v>118.88229557870896</v>
-      </c>
-      <c r="BJ12" s="12">
+        <v>62.280430337994943</v>
+      </c>
+      <c r="CQ12" s="12">
         <f t="shared" si="20"/>
-        <v>116.50464966713479</v>
-      </c>
-      <c r="BK12" s="12">
+        <v>61.034821731235041</v>
+      </c>
+      <c r="CR12" s="12">
         <f t="shared" si="20"/>
-        <v>114.17455667379208</v>
-      </c>
-      <c r="BL12" s="12">
+        <v>59.814125296610342</v>
+      </c>
+      <c r="CS12" s="12">
         <f t="shared" si="20"/>
-        <v>111.89106554031623</v>
-      </c>
-      <c r="BM12" s="12">
+        <v>58.617842790678132</v>
+      </c>
+      <c r="CT12" s="12">
         <f t="shared" si="20"/>
-        <v>109.65324422950991</v>
-      </c>
-      <c r="BN12" s="12">
+        <v>57.445485934864571</v>
+      </c>
+      <c r="CU12" s="12">
         <f t="shared" si="20"/>
-        <v>107.46017934491971</v>
-      </c>
-      <c r="BO12" s="12">
+        <v>56.296576216167281</v>
+      </c>
+      <c r="CV12" s="12">
         <f t="shared" si="20"/>
-        <v>105.31097575802131</v>
-      </c>
-      <c r="BP12" s="12">
+        <v>55.170644691843933</v>
+      </c>
+      <c r="CW12" s="12">
         <f t="shared" si="20"/>
-        <v>103.20475624286088</v>
-      </c>
-      <c r="BQ12" s="12">
-        <f t="shared" si="20"/>
-        <v>101.14066111800366</v>
-      </c>
-      <c r="BR12" s="12">
-        <f t="shared" si="20"/>
-        <v>99.117847895643592</v>
-      </c>
-      <c r="BS12" s="12">
-        <f t="shared" si="20"/>
-        <v>97.135490937730722</v>
-      </c>
-      <c r="BT12" s="12">
-        <f t="shared" si="20"/>
-        <v>95.1927811189761</v>
-      </c>
-      <c r="BU12" s="12">
-        <f t="shared" si="20"/>
-        <v>93.288925496596576</v>
-      </c>
-      <c r="BV12" s="12">
-        <f t="shared" si="20"/>
-        <v>91.423146986664648</v>
-      </c>
-      <c r="BW12" s="12">
-        <f t="shared" ref="BW12:CV12" si="21">BV12*(1+$AS$15)</f>
-        <v>89.594684046931349</v>
-      </c>
-      <c r="BX12" s="12">
-        <f t="shared" si="21"/>
-        <v>87.80279036599272</v>
-      </c>
-      <c r="BY12" s="12">
-        <f t="shared" si="21"/>
-        <v>86.046734558672867</v>
-      </c>
-      <c r="BZ12" s="12">
-        <f t="shared" si="21"/>
-        <v>84.325799867499413</v>
-      </c>
-      <c r="CA12" s="12">
-        <f t="shared" si="21"/>
-        <v>82.639283870149427</v>
-      </c>
-      <c r="CB12" s="12">
-        <f t="shared" si="21"/>
-        <v>80.986498192746438</v>
-      </c>
-      <c r="CC12" s="12">
-        <f t="shared" si="21"/>
-        <v>79.366768228891502</v>
-      </c>
-      <c r="CD12" s="12">
-        <f t="shared" si="21"/>
-        <v>77.779432864313677</v>
-      </c>
-      <c r="CE12" s="12">
-        <f t="shared" si="21"/>
-        <v>76.223844207027398</v>
-      </c>
-      <c r="CF12" s="12">
-        <f t="shared" si="21"/>
-        <v>74.699367322886843</v>
-      </c>
-      <c r="CG12" s="12">
-        <f t="shared" si="21"/>
-        <v>73.2053799764291</v>
-      </c>
-      <c r="CH12" s="12">
-        <f t="shared" si="21"/>
-        <v>71.741272376900511</v>
-      </c>
-      <c r="CI12" s="12">
-        <f t="shared" si="21"/>
-        <v>70.306446929362494</v>
-      </c>
-      <c r="CJ12" s="12">
-        <f t="shared" si="21"/>
-        <v>68.90031799077525</v>
-      </c>
-      <c r="CK12" s="12">
-        <f t="shared" si="21"/>
-        <v>67.522311630959749</v>
-      </c>
-      <c r="CL12" s="12">
-        <f t="shared" si="21"/>
-        <v>66.171865398340557</v>
-      </c>
-      <c r="CM12" s="12">
-        <f t="shared" si="21"/>
-        <v>64.848428090373744</v>
-      </c>
-      <c r="CN12" s="12">
-        <f t="shared" si="21"/>
-        <v>63.551459528566269</v>
-      </c>
-      <c r="CO12" s="12">
-        <f t="shared" si="21"/>
-        <v>62.280430337994943</v>
-      </c>
-      <c r="CP12" s="12">
-        <f t="shared" si="21"/>
-        <v>61.034821731235041</v>
-      </c>
-      <c r="CQ12" s="12">
-        <f t="shared" si="21"/>
-        <v>59.814125296610342</v>
-      </c>
-      <c r="CR12" s="12">
-        <f t="shared" si="21"/>
-        <v>58.617842790678132</v>
-      </c>
-      <c r="CS12" s="12">
-        <f t="shared" si="21"/>
-        <v>57.445485934864571</v>
-      </c>
-      <c r="CT12" s="12">
-        <f t="shared" si="21"/>
-        <v>56.296576216167281</v>
-      </c>
-      <c r="CU12" s="12">
-        <f t="shared" si="21"/>
-        <v>55.170644691843933</v>
-      </c>
-      <c r="CV12" s="12">
-        <f t="shared" si="21"/>
         <v>54.06723179800705</v>
       </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="26">
-        <f t="shared" ref="F13:M13" si="22">F12/F14</f>
+        <f t="shared" ref="F13:M13" si="21">F12/F14</f>
         <v>8.8853291768992385E-2</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5.9400000000000057E-2</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7.6442866571663867E-2</v>
       </c>
       <c r="I13" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-6.6068394484364051E-2</v>
       </c>
       <c r="J13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-7.3358228129837819E-2</v>
       </c>
       <c r="K13" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8.116869753753031E-2</v>
       </c>
       <c r="L13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.15819934224664817</v>
       </c>
       <c r="M13" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>6.0988847885565384E-2</v>
       </c>
       <c r="N13" s="26">
@@ -4408,106 +4403,107 @@
         <f>P12/P14</f>
         <v>0.12687408302518133</v>
       </c>
-      <c r="Q13" s="43"/>
+      <c r="Q13" s="33"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26">
-        <f t="shared" ref="S13:AP13" si="23">S12/S14</f>
+        <f t="shared" ref="S13:AQ13" si="22">S12/S14</f>
         <v>1.1214705682000902E-2</v>
       </c>
       <c r="T13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.12101333333333329</v>
       </c>
       <c r="U13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.12522666666666665</v>
       </c>
       <c r="V13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.14856666666666668</v>
       </c>
       <c r="W13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>9.0285867154261852E-3</v>
       </c>
       <c r="X13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.0497680513797826E-2</v>
       </c>
       <c r="Y13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.21907666815291649</v>
       </c>
       <c r="Z13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.19916831845170624</v>
       </c>
-      <c r="AA13" s="43">
-        <f t="shared" si="23"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="43">
+        <f t="shared" si="22"/>
         <v>0.39437570542856992</v>
       </c>
-      <c r="AB13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AC13" s="27">
+        <f t="shared" si="22"/>
         <v>0.39601545947620259</v>
       </c>
-      <c r="AC13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AD13" s="27">
+        <f t="shared" si="22"/>
         <v>0.47236269487538352</v>
       </c>
-      <c r="AD13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AE13" s="27">
+        <f t="shared" si="22"/>
         <v>0.56563923445330777</v>
       </c>
-      <c r="AE13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AF13" s="27">
+        <f t="shared" si="22"/>
         <v>0.64918808095210523</v>
       </c>
-      <c r="AF13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AG13" s="27">
+        <f t="shared" si="22"/>
         <v>0.71221325212721109</v>
       </c>
-      <c r="AG13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AH13" s="27">
+        <f t="shared" si="22"/>
         <v>0.78200963924849032</v>
       </c>
-      <c r="AH13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AI13" s="27">
+        <f t="shared" si="22"/>
         <v>0.84146126117509434</v>
       </c>
-      <c r="AI13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AJ13" s="27">
+        <f t="shared" si="22"/>
         <v>0.88110587896569736</v>
       </c>
-      <c r="AJ13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AK13" s="27">
+        <f t="shared" si="22"/>
         <v>0.9232222271399303</v>
       </c>
-      <c r="AK13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AL13" s="27">
+        <f t="shared" si="22"/>
         <v>0.93796257836136909</v>
       </c>
-      <c r="AL13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AM13" s="27">
+        <f t="shared" si="22"/>
         <v>0.95314981068020921</v>
       </c>
-      <c r="AM13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AN13" s="27">
+        <f t="shared" si="22"/>
         <v>0.96872076634654458</v>
       </c>
-      <c r="AN13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AO13" s="27">
+        <f t="shared" si="22"/>
         <v>0.98467491790650485</v>
       </c>
-      <c r="AO13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AP13" s="27">
+        <f t="shared" si="22"/>
         <v>1.0010152636468461</v>
       </c>
-      <c r="AP13" s="27">
-        <f t="shared" si="23"/>
+      <c r="AQ13" s="27">
+        <f t="shared" si="22"/>
         <v>1.0177440593109464</v>
       </c>
     </row>
-    <row r="14" spans="1:100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4547,7 +4543,7 @@
         <f>+Z14</f>
         <v>171.46803399999999</v>
       </c>
-      <c r="P14" s="200">
+      <c r="P14" s="14">
         <v>172.98253099999999</v>
       </c>
       <c r="S14" s="27">
@@ -4574,142 +4570,143 @@
       <c r="Z14" s="27">
         <v>171.46803399999999</v>
       </c>
-      <c r="AA14" s="134">
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="134">
         <f>+Z14</f>
         <v>171.46803399999999</v>
       </c>
-      <c r="AB14" s="27">
-        <f>AA14</f>
+      <c r="AC14" s="27">
+        <f>AB14</f>
         <v>171.46803399999999</v>
       </c>
-      <c r="AC14" s="27">
-        <f t="shared" ref="AC14:AP14" si="24">AB14</f>
+      <c r="AD14" s="27">
+        <f t="shared" ref="AD14:AQ14" si="23">AC14</f>
         <v>171.46803399999999</v>
       </c>
-      <c r="AD14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AE14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AE14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AF14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AF14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AG14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AG14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AH14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AH14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AI14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AI14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AJ14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AJ14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AK14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AK14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AL14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AL14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AM14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AM14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AN14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AN14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AO14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AO14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AP14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
-      <c r="AP14" s="27">
-        <f t="shared" si="24"/>
+      <c r="AQ14" s="27">
+        <f t="shared" si="23"/>
         <v>171.46803399999999</v>
       </c>
     </row>
-    <row r="15" spans="1:100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AR15" s="45" t="s">
+    <row r="15" spans="1:101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS15" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="AS15" s="62">
+      <c r="AT15" s="62">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="23">
-        <f t="shared" ref="F16:L16" si="25">F5/F3</f>
+        <f t="shared" ref="F16:L16" si="24">F5/F3</f>
         <v>0.85857590685176888</v>
       </c>
       <c r="G16" s="34">
+        <f t="shared" si="24"/>
+        <v>0.8558438255118912</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="24"/>
+        <v>0.85590062111801246</v>
+      </c>
+      <c r="I16" s="34">
+        <f t="shared" si="24"/>
+        <v>0.84701747534901894</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="24"/>
+        <v>0.88574714847119718</v>
+      </c>
+      <c r="K16" s="34">
+        <f t="shared" si="24"/>
+        <v>0.85246968833916514</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="24"/>
+        <v>0.86382558174358359</v>
+      </c>
+      <c r="M16" s="34">
+        <f t="shared" ref="M16:N16" si="25">M5/M3</f>
+        <v>0.83166253419972636</v>
+      </c>
+      <c r="N16" s="23">
         <f t="shared" si="25"/>
-        <v>0.8558438255118912</v>
-      </c>
-      <c r="H16" s="23">
-        <f t="shared" si="25"/>
-        <v>0.85590062111801246</v>
-      </c>
-      <c r="I16" s="34">
-        <f t="shared" si="25"/>
-        <v>0.84701747534901894</v>
-      </c>
-      <c r="J16" s="23">
-        <f t="shared" si="25"/>
-        <v>0.88574714847119718</v>
-      </c>
-      <c r="K16" s="34">
-        <f t="shared" si="25"/>
-        <v>0.85246968833916514</v>
-      </c>
-      <c r="L16" s="23">
-        <f t="shared" si="25"/>
-        <v>0.86382558174358359</v>
-      </c>
-      <c r="M16" s="34">
-        <f t="shared" ref="M16:N16" si="26">M5/M3</f>
-        <v>0.83166253419972636</v>
-      </c>
-      <c r="N16" s="23">
+        <v>0.82760876676480211</v>
+      </c>
+      <c r="O16" s="34">
+        <f t="shared" ref="O16:P16" si="26">O5/O3</f>
+        <v>0.43600875940207556</v>
+      </c>
+      <c r="P16" s="23">
         <f t="shared" si="26"/>
-        <v>0.82760876676480211</v>
-      </c>
-      <c r="O16" s="34">
-        <f t="shared" ref="O16:P16" si="27">O5/O3</f>
-        <v>0.43600875940207556</v>
-      </c>
-      <c r="P16" s="23">
+        <v>0.64682389857954314</v>
+      </c>
+      <c r="S16" s="23">
+        <f t="shared" ref="S16:T16" si="27">S5/S3</f>
+        <v>0.85328664255794195</v>
+      </c>
+      <c r="T16" s="23">
         <f t="shared" si="27"/>
-        <v>0.64682389857954314</v>
-      </c>
-      <c r="S16" s="23">
-        <f t="shared" ref="S16:T16" si="28">S5/S3</f>
-        <v>0.85328664255794195</v>
-      </c>
-      <c r="T16" s="23">
+        <v>0.86532184472834472</v>
+      </c>
+      <c r="U16" s="23">
+        <f t="shared" ref="U16:V16" si="28">U5/U3</f>
+        <v>0.8610677904237316</v>
+      </c>
+      <c r="V16" s="23">
         <f t="shared" si="28"/>
-        <v>0.86532184472834472</v>
-      </c>
-      <c r="U16" s="23">
-        <f t="shared" ref="U16:V16" si="29">U5/U3</f>
-        <v>0.8610677904237316</v>
-      </c>
-      <c r="V16" s="23">
-        <f t="shared" si="29"/>
         <v>0.85725283692857257</v>
       </c>
       <c r="W16" s="23">
@@ -4721,147 +4718,148 @@
         <v>0.85729986922284984</v>
       </c>
       <c r="Y16" s="23">
-        <f t="shared" ref="Y16:Z16" si="30">Y5/Y3</f>
+        <f t="shared" ref="Y16:Z16" si="29">Y5/Y3</f>
         <v>0.84829230777171583</v>
       </c>
       <c r="Z16" s="23">
+        <f t="shared" si="29"/>
+        <v>0.6363805432346733</v>
+      </c>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="135">
+        <f>AB5/AB3</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="AC16" s="23">
+        <f t="shared" ref="AC16:AQ16" si="30">AC5/AC3</f>
+        <v>0.86</v>
+      </c>
+      <c r="AD16" s="23">
         <f t="shared" si="30"/>
-        <v>0.6363805432346733</v>
-      </c>
-      <c r="AA16" s="135">
-        <f>AA5/AA3</f>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="AB16" s="23">
-        <f t="shared" ref="AB16:AP16" si="31">AB5/AB3</f>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AE16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AC16" s="23">
-        <f t="shared" si="31"/>
-        <v>0.8600000000000001</v>
-      </c>
-      <c r="AD16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AF16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AE16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AG16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AF16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AH16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AG16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AI16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AH16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AJ16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AI16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AK16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AJ16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AL16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AK16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AM16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AL16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AN16" s="23">
+        <f t="shared" si="30"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="AO16" s="23">
+        <f t="shared" si="30"/>
         <v>0.86</v>
       </c>
-      <c r="AM16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AP16" s="23">
+        <f t="shared" si="30"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="AN16" s="23">
-        <f t="shared" si="31"/>
-        <v>0.86</v>
-      </c>
-      <c r="AO16" s="23">
-        <f t="shared" si="31"/>
+      <c r="AQ16" s="23">
+        <f t="shared" si="30"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="AP16" s="23">
-        <f t="shared" si="31"/>
-        <v>0.85999999999999988</v>
-      </c>
-      <c r="AR16" s="46" t="s">
+      <c r="AS16" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="AS16" s="63">
+      <c r="AT16" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="23">
-        <f t="shared" ref="F17:L17" si="32">F8/F3</f>
+        <f t="shared" ref="F17:L17" si="31">F8/F3</f>
         <v>0.25023137781758459</v>
       </c>
       <c r="G17" s="34">
+        <f t="shared" si="31"/>
+        <v>0.18569566323286293</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="31"/>
+        <v>0.27698974433049256</v>
+      </c>
+      <c r="I17" s="34">
+        <f t="shared" si="31"/>
+        <v>-0.90940154251684147</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" si="31"/>
+        <v>-0.96060577015240112</v>
+      </c>
+      <c r="K17" s="34">
+        <f t="shared" si="31"/>
+        <v>0.31901700707950204</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="31"/>
+        <v>0.37551036706497759</v>
+      </c>
+      <c r="M17" s="34">
+        <f t="shared" ref="M17:N17" si="32">M8/M3</f>
+        <v>0.19058866279069778</v>
+      </c>
+      <c r="N17" s="23">
         <f t="shared" si="32"/>
-        <v>0.18569566323286293</v>
-      </c>
-      <c r="H17" s="23">
-        <f t="shared" si="32"/>
-        <v>0.27698974433049256</v>
-      </c>
-      <c r="I17" s="34">
-        <f t="shared" si="32"/>
-        <v>-0.90940154251684147</v>
-      </c>
-      <c r="J17" s="23">
-        <f t="shared" si="32"/>
-        <v>-0.96060577015240112</v>
-      </c>
-      <c r="K17" s="34">
-        <f t="shared" si="32"/>
-        <v>0.31901700707950204</v>
-      </c>
-      <c r="L17" s="23">
-        <f t="shared" si="32"/>
-        <v>0.37551036706497759</v>
-      </c>
-      <c r="M17" s="34">
-        <f t="shared" ref="M17:N17" si="33">M8/M3</f>
-        <v>0.19058866279069778</v>
-      </c>
-      <c r="N17" s="23">
+        <v>0.29209828081270683</v>
+      </c>
+      <c r="O17" s="34">
+        <f t="shared" ref="O17:P17" si="33">O8/O3</f>
+        <v>0.20888317623536121</v>
+      </c>
+      <c r="P17" s="23">
         <f t="shared" si="33"/>
-        <v>0.29209828081270683</v>
-      </c>
-      <c r="O17" s="34">
-        <f t="shared" ref="O17:P17" si="34">O8/O3</f>
-        <v>0.20888317623536121</v>
-      </c>
-      <c r="P17" s="23">
+        <v>0.28835359561025953</v>
+      </c>
+      <c r="S17" s="23">
+        <f t="shared" ref="S17:T17" si="34">S8/S3</f>
+        <v>0.13719072927301687</v>
+      </c>
+      <c r="T17" s="23">
         <f t="shared" si="34"/>
-        <v>0.28835359561025953</v>
-      </c>
-      <c r="S17" s="23">
-        <f t="shared" ref="S17:T17" si="35">S8/S3</f>
-        <v>0.13719072927301687</v>
-      </c>
-      <c r="T17" s="23">
+        <v>0.19480029481959843</v>
+      </c>
+      <c r="U17" s="23">
+        <f t="shared" ref="U17:V17" si="35">U8/U3</f>
+        <v>0.20649036068619966</v>
+      </c>
+      <c r="V17" s="23">
         <f t="shared" si="35"/>
-        <v>0.19480029481959843</v>
-      </c>
-      <c r="U17" s="23">
-        <f t="shared" ref="U17:V17" si="36">U8/U3</f>
-        <v>0.20649036068619966</v>
-      </c>
-      <c r="V17" s="23">
-        <f t="shared" si="36"/>
         <v>0.2189785517421898</v>
       </c>
       <c r="W17" s="23">
@@ -4873,149 +4871,150 @@
         <v>0.13328139347227252</v>
       </c>
       <c r="Y17" s="23">
-        <f t="shared" ref="Y17:AP17" si="37">Y8/Y3</f>
+        <f t="shared" ref="Y17:AQ17" si="36">Y8/Y3</f>
         <v>0.28620168162650139</v>
       </c>
       <c r="Z17" s="23">
-        <f t="shared" ref="Z17" si="38">Z8/Z3</f>
+        <f t="shared" ref="Z17" si="37">Z8/Z3</f>
         <v>0.25146223300880594</v>
       </c>
-      <c r="AA17" s="135">
-        <f>AA8/AA3</f>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="135">
+        <f>AB8/AB3</f>
         <v>0.31680996246057758</v>
       </c>
-      <c r="AB17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AC17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31972061768197663</v>
       </c>
-      <c r="AC17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AD17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31913751623426984</v>
       </c>
-      <c r="AD17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AE17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31904558728497412</v>
       </c>
-      <c r="AE17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AF17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31901699254586874</v>
       </c>
-      <c r="AF17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AG17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31902524499582702</v>
       </c>
-      <c r="AG17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AH17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31903358080386574</v>
       </c>
-      <c r="AH17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AI17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31853134931929028</v>
       </c>
-      <c r="AI17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AJ17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31858664915920454</v>
       </c>
-      <c r="AJ17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AK17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31872315215262864</v>
       </c>
-      <c r="AK17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AL17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31869890051397659</v>
       </c>
-      <c r="AL17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AM17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31869360508372963</v>
       </c>
-      <c r="AM17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AN17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31868430243738827</v>
       </c>
-      <c r="AN17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AO17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31866867242209507</v>
       </c>
-      <c r="AO17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AP17" s="23">
+        <f t="shared" si="36"/>
         <v>0.31864558404074694</v>
       </c>
-      <c r="AP17" s="23">
-        <f t="shared" si="37"/>
+      <c r="AQ17" s="23">
+        <f t="shared" si="36"/>
         <v>0.3186137470254885</v>
       </c>
-      <c r="AR17" s="46" t="s">
+      <c r="AS17" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="AS17" s="64">
-        <f>NPV(AS16,AB12:CV12)</f>
+      <c r="AT17" s="64">
+        <f>NPV(AT16,AC12:CW12)</f>
         <v>1856.1599751389613</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="23">
-        <f t="shared" ref="F18:L18" si="39">F12/F3</f>
+        <f t="shared" ref="F18:L18" si="38">F12/F3</f>
         <v>0.19965666517390643</v>
       </c>
       <c r="G18" s="34">
+        <f t="shared" si="38"/>
+        <v>0.14164441053033205</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="38"/>
+        <v>0.16640184890943235</v>
+      </c>
+      <c r="I18" s="34">
+        <f t="shared" si="38"/>
+        <v>-0.98945621399980577</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="38"/>
+        <v>-1.1150196491900701</v>
+      </c>
+      <c r="K18" s="34">
+        <f t="shared" si="38"/>
+        <v>0.21744649686711701</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="38"/>
+        <v>0.26978327493436355</v>
+      </c>
+      <c r="M18" s="34">
+        <f t="shared" ref="M18:N18" si="39">M12/M3</f>
+        <v>0.11142698358413144</v>
+      </c>
+      <c r="N18" s="23">
         <f t="shared" si="39"/>
-        <v>0.14164441053033205</v>
-      </c>
-      <c r="H18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.16640184890943235</v>
-      </c>
-      <c r="I18" s="34">
-        <f t="shared" si="39"/>
-        <v>-0.98945621399980577</v>
-      </c>
-      <c r="J18" s="23">
-        <f t="shared" si="39"/>
-        <v>-1.1150196491900701</v>
-      </c>
-      <c r="K18" s="34">
-        <f t="shared" si="39"/>
-        <v>0.21744649686711701</v>
-      </c>
-      <c r="L18" s="23">
-        <f t="shared" si="39"/>
-        <v>0.26978327493436355</v>
-      </c>
-      <c r="M18" s="34">
-        <f t="shared" ref="M18:N18" si="40">M12/M3</f>
-        <v>0.11142698358413144</v>
-      </c>
-      <c r="N18" s="23">
+        <v>0.1991785701304839</v>
+      </c>
+      <c r="O18" s="34">
+        <f t="shared" ref="O18:P18" si="40">O12/O3</f>
+        <v>0.1164524421593829</v>
+      </c>
+      <c r="P18" s="23">
         <f t="shared" si="40"/>
-        <v>0.1991785701304839</v>
-      </c>
-      <c r="O18" s="34">
-        <f t="shared" ref="O18:P18" si="41">O12/O3</f>
-        <v>0.1164524421593829</v>
-      </c>
-      <c r="P18" s="23">
+        <v>0.18413920981315079</v>
+      </c>
+      <c r="S18" s="23">
+        <f t="shared" ref="S18:T18" si="41">S12/S3</f>
+        <v>1.1326011659971446E-2</v>
+      </c>
+      <c r="T18" s="23">
         <f t="shared" si="41"/>
-        <v>0.18413920981315079</v>
-      </c>
-      <c r="S18" s="23">
-        <f t="shared" ref="S18:T18" si="42">S12/S3</f>
-        <v>1.1326011659971446E-2</v>
-      </c>
-      <c r="T18" s="23">
+        <v>0.15927277832373993</v>
+      </c>
+      <c r="U18" s="23">
+        <f t="shared" ref="U18:V18" si="42">U12/U3</f>
+        <v>0.15582174735375118</v>
+      </c>
+      <c r="V18" s="23">
         <f t="shared" si="42"/>
-        <v>0.15927277832373993</v>
-      </c>
-      <c r="U18" s="23">
-        <f t="shared" ref="U18:V18" si="43">U12/U3</f>
-        <v>0.15582174735375118</v>
-      </c>
-      <c r="V18" s="23">
-        <f t="shared" si="43"/>
         <v>0.17156296672671562</v>
       </c>
       <c r="W18" s="23">
@@ -5027,132 +5026,133 @@
         <v>2.4040735691032097E-2</v>
       </c>
       <c r="Y18" s="23">
-        <f t="shared" ref="Y18:AA18" si="44">Y12/Y3</f>
+        <f t="shared" ref="Y18:AB18" si="43">Y12/Y3</f>
         <v>0.19330446317506367</v>
       </c>
       <c r="Z18" s="23">
-        <f t="shared" ref="Z18" si="45">Z12/Z3</f>
+        <f t="shared" ref="Z18" si="44">Z12/Z3</f>
         <v>0.15878130201504537</v>
       </c>
-      <c r="AA18" s="42">
-        <f t="shared" si="44"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="42">
+        <f t="shared" si="43"/>
         <v>0.2832476248413448</v>
       </c>
-      <c r="AB18" s="23">
-        <f t="shared" ref="AB18:AP18" si="46">AB12/AB3</f>
+      <c r="AC18" s="23">
+        <f t="shared" ref="AC18:AQ18" si="45">AC12/AC3</f>
         <v>0.24732636980436912</v>
       </c>
-      <c r="AC18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AD18" s="23">
+        <f t="shared" si="45"/>
         <v>0.24584004605329873</v>
       </c>
-      <c r="AD18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AE18" s="23">
+        <f t="shared" si="45"/>
         <v>0.24532133350807039</v>
       </c>
-      <c r="AE18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AF18" s="23">
+        <f t="shared" si="45"/>
         <v>0.24483217357751796</v>
       </c>
-      <c r="AF18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AG18" s="23">
+        <f t="shared" si="45"/>
         <v>0.24418293849769063</v>
       </c>
-      <c r="AG18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AH18" s="23">
+        <f t="shared" si="45"/>
         <v>0.243738810065771</v>
       </c>
-      <c r="AH18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AI18" s="23">
+        <f t="shared" si="45"/>
         <v>0.24284152510262372</v>
       </c>
-      <c r="AI18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AJ18" s="23">
+        <f t="shared" si="45"/>
         <v>0.24217406110448467</v>
       </c>
-      <c r="AJ18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AK18" s="23">
+        <f t="shared" si="45"/>
         <v>0.24166651454274929</v>
       </c>
-      <c r="AK18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AL18" s="23">
+        <f t="shared" si="45"/>
         <v>0.24071079468404435</v>
       </c>
-      <c r="AL18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AM18" s="23">
+        <f t="shared" si="45"/>
         <v>0.23981207620077299</v>
       </c>
-      <c r="AM18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AN18" s="23">
+        <f t="shared" si="45"/>
         <v>0.23895070769391963</v>
       </c>
-      <c r="AN18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AO18" s="23">
+        <f t="shared" si="45"/>
         <v>0.2381235865189805</v>
       </c>
-      <c r="AO18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AP18" s="23">
+        <f t="shared" si="45"/>
         <v>0.23732859464691131</v>
       </c>
-      <c r="AP18" s="23">
-        <f t="shared" si="46"/>
+      <c r="AQ18" s="23">
+        <f t="shared" si="45"/>
         <v>0.23656351909664572</v>
       </c>
-      <c r="AR18" s="46" t="s">
+      <c r="AS18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AS18" s="64">
+      <c r="AT18" s="64">
         <f>Main!C11</f>
         <v>41.404000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="23">
-        <f t="shared" ref="F19:L19" si="47">F11/F10</f>
+        <f t="shared" ref="F19:L19" si="46">F11/F10</f>
         <v>0.1837046078730547</v>
       </c>
       <c r="G19" s="34">
+        <f t="shared" si="46"/>
+        <v>0.20467731857538143</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="46"/>
+        <v>0.20376002211777711</v>
+      </c>
+      <c r="I19" s="34">
+        <f t="shared" si="46"/>
+        <v>0.23636226642555747</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="46"/>
+        <v>0.19711505279867483</v>
+      </c>
+      <c r="K19" s="34">
+        <f t="shared" si="46"/>
+        <v>0.10634740151160453</v>
+      </c>
+      <c r="L19" s="23">
+        <f t="shared" si="46"/>
+        <v>0.19176361515686216</v>
+      </c>
+      <c r="M19" s="34">
+        <f t="shared" ref="M19:N19" si="47">M11/M10</f>
+        <v>0.21182340489869955</v>
+      </c>
+      <c r="N19" s="23">
         <f t="shared" si="47"/>
-        <v>0.20467731857538143</v>
-      </c>
-      <c r="H19" s="23">
-        <f t="shared" si="47"/>
-        <v>0.20376002211777711</v>
-      </c>
-      <c r="I19" s="34">
-        <f t="shared" si="47"/>
-        <v>0.23636226642555747</v>
-      </c>
-      <c r="J19" s="23">
-        <f t="shared" si="47"/>
-        <v>0.19711505279867483</v>
-      </c>
-      <c r="K19" s="34">
-        <f t="shared" si="47"/>
-        <v>0.10634740151160453</v>
-      </c>
-      <c r="L19" s="23">
-        <f t="shared" si="47"/>
-        <v>0.19176361515686216</v>
-      </c>
-      <c r="M19" s="34">
-        <f t="shared" ref="M19:N19" si="48">M11/M10</f>
-        <v>0.21182340489869955</v>
-      </c>
-      <c r="N19" s="23">
+        <v>0.20834988623641146</v>
+      </c>
+      <c r="O19" s="34">
+        <f t="shared" ref="O19:P19" si="48">O11/O10</f>
+        <v>0.29670519234086623</v>
+      </c>
+      <c r="P19" s="23">
         <f t="shared" si="48"/>
-        <v>0.20834988623641146</v>
-      </c>
-      <c r="O19" s="34">
-        <f t="shared" ref="O19:P19" si="49">O11/O10</f>
-        <v>0.29670519234086623</v>
-      </c>
-      <c r="P19" s="23">
-        <f t="shared" si="49"/>
         <v>0.25673936602546737</v>
       </c>
       <c r="S19" s="23">
@@ -5160,114 +5160,115 @@
         <v>0.53885003885004146</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" ref="T19:X19" si="50">T11/T10</f>
+        <f t="shared" ref="T19:X19" si="49">T11/T10</f>
         <v>0.13561904761904767</v>
       </c>
       <c r="U19" s="23">
+        <f t="shared" si="49"/>
+        <v>0.21517506476142731</v>
+      </c>
+      <c r="V19" s="23">
+        <f t="shared" si="49"/>
+        <v>0.1922212556183848</v>
+      </c>
+      <c r="W19" s="23">
+        <f t="shared" si="49"/>
+        <v>-0.15802675585284237</v>
+      </c>
+      <c r="X19" s="23">
+        <f t="shared" si="49"/>
+        <v>-2.7402597402597104</v>
+      </c>
+      <c r="Y19" s="23">
+        <f t="shared" ref="Y19:Z19" si="50">Y11/Y10</f>
+        <v>0.19744990892531872</v>
+      </c>
+      <c r="Z19" s="23">
         <f t="shared" si="50"/>
-        <v>0.21517506476142731</v>
-      </c>
-      <c r="V19" s="23">
-        <f t="shared" si="50"/>
-        <v>0.1922212556183848</v>
-      </c>
-      <c r="W19" s="23">
-        <f t="shared" si="50"/>
-        <v>-0.15802675585284237</v>
-      </c>
-      <c r="X19" s="23">
-        <f t="shared" si="50"/>
-        <v>-2.7402597402597104</v>
-      </c>
-      <c r="Y19" s="23">
-        <f t="shared" ref="Y19:Z19" si="51">Y11/Y10</f>
-        <v>0.19744990892531872</v>
-      </c>
-      <c r="Z19" s="23">
+        <v>0.24243566992014201</v>
+      </c>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="135">
+        <v>0.2</v>
+      </c>
+      <c r="AC19" s="23">
+        <f>AB19</f>
+        <v>0.2</v>
+      </c>
+      <c r="AD19" s="23">
+        <f t="shared" ref="AD19:AQ19" si="51">AC19</f>
+        <v>0.2</v>
+      </c>
+      <c r="AE19" s="23">
         <f t="shared" si="51"/>
-        <v>0.24243566992014201</v>
-      </c>
-      <c r="AA19" s="135">
         <v>0.2</v>
       </c>
-      <c r="AB19" s="23">
-        <f>AA19</f>
+      <c r="AF19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AC19" s="23">
-        <f t="shared" ref="AC19:AP19" si="52">AB19</f>
+      <c r="AG19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AD19" s="23">
-        <f t="shared" si="52"/>
+      <c r="AH19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AE19" s="23">
-        <f t="shared" si="52"/>
+      <c r="AI19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AF19" s="23">
-        <f t="shared" si="52"/>
+      <c r="AJ19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AG19" s="23">
-        <f t="shared" si="52"/>
+      <c r="AK19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AH19" s="23">
-        <f t="shared" si="52"/>
+      <c r="AL19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AI19" s="23">
-        <f t="shared" si="52"/>
+      <c r="AM19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AJ19" s="23">
-        <f t="shared" si="52"/>
+      <c r="AN19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AK19" s="23">
-        <f t="shared" si="52"/>
+      <c r="AO19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AL19" s="23">
-        <f t="shared" si="52"/>
+      <c r="AP19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AM19" s="23">
-        <f t="shared" si="52"/>
+      <c r="AQ19" s="23">
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
-      <c r="AN19" s="23">
-        <f t="shared" si="52"/>
-        <v>0.2</v>
-      </c>
-      <c r="AO19" s="23">
-        <f t="shared" si="52"/>
-        <v>0.2</v>
-      </c>
-      <c r="AP19" s="23">
-        <f t="shared" si="52"/>
-        <v>0.2</v>
-      </c>
-      <c r="AR19" s="46" t="s">
+      <c r="AS19" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AS19" s="64">
-        <f>AS17+AS18</f>
+      <c r="AT19" s="64">
+        <f>AT17+AT18</f>
         <v>1897.5639751389613</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AR20" s="47" t="s">
+    <row r="20" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS20" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="AS20" s="65">
-        <f>AS19/Main!C7</f>
+      <c r="AT20" s="65">
+        <f>AT19/Main!C7</f>
         <v>10.969685575585441</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
@@ -5279,58 +5280,58 @@
         <v>71</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:P21" si="53">H3/F3-1</f>
+        <f t="shared" ref="H21:P21" si="52">H3/F3-1</f>
         <v>3.3437826541274918E-2</v>
       </c>
       <c r="I21" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>-0.8371645682309552</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>-0.84929943666040741</v>
       </c>
       <c r="K21" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>4.9987308405740531</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>8.6015527652640671</v>
       </c>
       <c r="M21" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0.5227927414761171</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>9.8619388457967805E-2</v>
       </c>
       <c r="O21" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0.12249914500683956</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>8.3006215243702997E-2</v>
       </c>
       <c r="S21" s="38" t="s">
         <v>71</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" ref="T21:W21" si="54">T3/S3-1</f>
+        <f t="shared" ref="T21:W21" si="53">T3/S3-1</f>
         <v>8.744978674274595E-2</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>5.7735504703074536E-2</v>
       </c>
       <c r="V21" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>7.7529282941235067E-2</v>
       </c>
       <c r="W21" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-0.38817035428888169</v>
       </c>
       <c r="X21" s="23">
@@ -5338,45 +5339,46 @@
         <v>-9.5567047928227233E-2</v>
       </c>
       <c r="Y21" s="23">
-        <f t="shared" ref="Y21" si="55">Y3/X3-1</f>
+        <f t="shared" ref="Y21" si="54">Y3/X3-1</f>
         <v>1.6954144522663404</v>
       </c>
       <c r="Z21" s="23">
-        <f t="shared" ref="Z21" si="56">Z3/Y3-1</f>
+        <f t="shared" ref="Z21:AA21" si="55">Z3/Y3-1</f>
         <v>0.11015221352217641</v>
       </c>
-      <c r="AA21" s="135">
+      <c r="AA21" s="23">
+        <f t="shared" si="55"/>
+        <v>7.1219348899489665E-2</v>
+      </c>
+      <c r="AB21" s="135">
         <v>0.11</v>
       </c>
-      <c r="AB21" s="23">
+      <c r="AC21" s="23">
         <v>0.15</v>
-      </c>
-      <c r="AC21" s="23">
-        <v>0.2</v>
       </c>
       <c r="AD21" s="23">
         <v>0.2</v>
       </c>
       <c r="AE21" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="AF21" s="23">
         <v>0.15</v>
-      </c>
-      <c r="AF21" s="23">
-        <v>0.1</v>
       </c>
       <c r="AG21" s="23">
         <v>0.1</v>
       </c>
       <c r="AH21" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AI21" s="23">
         <v>0.08</v>
-      </c>
-      <c r="AI21" s="23">
-        <v>0.05</v>
       </c>
       <c r="AJ21" s="23">
         <v>0.05</v>
       </c>
       <c r="AK21" s="23">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AL21" s="23">
         <v>0.02</v>
@@ -5393,16 +5395,19 @@
       <c r="AP21" s="23">
         <v>0.02</v>
       </c>
-      <c r="AR21" s="46" t="s">
+      <c r="AQ21" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="AS21" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="AS21" s="66">
+      <c r="AT21" s="66">
         <f>Main!C6</f>
         <v>3.2050000000000001</v>
       </c>
-      <c r="AT21" s="49"/>
-    </row>
-    <row r="22" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU21" s="49"/>
+    </row>
+    <row r="22" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
@@ -5411,43 +5416,43 @@
         <v>71</v>
       </c>
       <c r="G22" s="34">
-        <f t="shared" ref="G22" si="57">G3/F3-1</f>
+        <f t="shared" ref="G22" si="56">G3/F3-1</f>
         <v>-6.0994178235557306E-2</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:P22" si="58">H3/G3-1</f>
+        <f t="shared" ref="H22:P22" si="57">H3/G3-1</f>
         <v>0.10056594175251155</v>
       </c>
       <c r="I22" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>-0.85204391159901782</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1.8549253148492095E-2</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>4.8894852870698742</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.63028724875905273</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>-6.5935930839647328E-2</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.17617134062927486</v>
       </c>
       <c r="O22" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>-4.563297350343487E-2</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.1347900599828622</v>
       </c>
       <c r="S22" s="38" t="s">
@@ -5474,10 +5479,10 @@
       <c r="Z22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="38" t="s">
+      <c r="AA22" s="38" t="s">
         <v>71</v>
       </c>
+      <c r="AB22" s="136"/>
       <c r="AC22" s="38" t="s">
         <v>71</v>
       </c>
@@ -5520,15 +5525,18 @@
       <c r="AP22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AR22" s="46" t="s">
+      <c r="AQ22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS22" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AS22" s="166">
-        <f>AS20/AS21-1</f>
+      <c r="AT22" s="155">
+        <f>AT20/AT21-1</f>
         <v>2.4226788067349267</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="34"/>
       <c r="F23" s="38"/>
       <c r="G23" s="34"/>
@@ -5544,8 +5552,8 @@
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="136"/>
       <c r="AC23" s="38"/>
       <c r="AD23" s="38"/>
       <c r="AE23" s="38"/>
@@ -5559,15 +5567,16 @@
       <c r="AM23" s="38"/>
       <c r="AN23" s="38"/>
       <c r="AO23" s="38"/>
-      <c r="AR23" s="48" t="s">
+      <c r="AP23" s="38"/>
+      <c r="AS23" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="AS23" s="165">
-        <f>+AS20*Main!C7</f>
+      <c r="AT23" s="154">
+        <f>+AT20*Main!C7</f>
         <v>1897.5639751389613</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
         <v>144</v>
       </c>
@@ -5586,8 +5595,8 @@
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="136"/>
       <c r="AC24" s="38"/>
       <c r="AD24" s="38"/>
       <c r="AE24" s="38"/>
@@ -5601,8 +5610,9 @@
       <c r="AM24" s="38"/>
       <c r="AN24" s="38"/>
       <c r="AO24" s="38"/>
-    </row>
-    <row r="25" spans="1:46" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP24" s="38"/>
+    </row>
+    <row r="25" spans="1:47" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>110</v>
       </c>
@@ -5622,10 +5632,10 @@
         <f>+Z25</f>
         <v>71</v>
       </c>
-      <c r="P25" s="188">
+      <c r="P25" s="3">
         <v>71</v>
       </c>
-      <c r="Q25" s="153"/>
+      <c r="Q25" s="61"/>
       <c r="S25" s="3">
         <v>54</v>
       </c>
@@ -5650,8 +5660,8 @@
         <f>SUM(Z26:Z28)</f>
         <v>71</v>
       </c>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="130"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
@@ -5665,13 +5675,14 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="10"/>
       <c r="AO25" s="10"/>
-      <c r="AP25" s="1"/>
+      <c r="AP25" s="10"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
-    </row>
-    <row r="26" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AU25" s="1"/>
+    </row>
+    <row r="26" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
         <v>97</v>
       </c>
@@ -5702,8 +5713,8 @@
       <c r="Z26" s="38">
         <v>62</v>
       </c>
-      <c r="AA26" s="136"/>
-      <c r="AB26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="136"/>
       <c r="AC26" s="38"/>
       <c r="AD26" s="38"/>
       <c r="AE26" s="38"/>
@@ -5717,8 +5728,9 @@
       <c r="AM26" s="38"/>
       <c r="AN26" s="38"/>
       <c r="AO26" s="38"/>
-    </row>
-    <row r="27" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP26" s="38"/>
+    </row>
+    <row r="27" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>98</v>
       </c>
@@ -5739,7 +5751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="51" t="s">
         <v>99</v>
       </c>
@@ -5759,8 +5771,8 @@
         <f>+Z28</f>
         <v>6</v>
       </c>
-      <c r="P28" s="190"/>
-      <c r="Q28" s="156"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
       <c r="R28" s="55"/>
       <c r="S28" s="55"/>
       <c r="T28" s="55"/>
@@ -5778,16 +5790,17 @@
       <c r="Z28" s="52">
         <v>6</v>
       </c>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="55"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="137"/>
       <c r="AC28" s="55"/>
       <c r="AD28" s="55"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="55"/>
       <c r="AH28" s="55"/>
-    </row>
-    <row r="29" spans="1:46" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI28" s="55"/>
+    </row>
+    <row r="29" spans="1:47" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72" t="s">
         <v>117</v>
       </c>
@@ -5806,45 +5819,46 @@
       <c r="O29" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="157"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="74"/>
       <c r="R29" s="73"/>
       <c r="S29" s="80">
         <f>S3/S25</f>
         <v>1.9407962962962964</v>
       </c>
       <c r="T29" s="80">
-        <f t="shared" ref="T29:Z29" si="59">T3/T25</f>
+        <f t="shared" ref="T29:Z29" si="58">T3/T25</f>
         <v>1.9649655172413794</v>
       </c>
       <c r="U29" s="80"/>
       <c r="V29" s="80">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>2.1649000000000003</v>
       </c>
       <c r="W29" s="80"/>
       <c r="X29" s="80">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1.12309375</v>
       </c>
       <c r="Y29" s="80">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>2.8916567164179106</v>
       </c>
       <c r="Z29" s="80">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>3.0293239436619719</v>
       </c>
-      <c r="AA29" s="138"/>
-      <c r="AB29" s="73"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="138"/>
       <c r="AC29" s="73"/>
       <c r="AD29" s="73"/>
       <c r="AE29" s="73"/>
       <c r="AF29" s="73"/>
       <c r="AG29" s="73"/>
       <c r="AH29" s="73"/>
-    </row>
-    <row r="30" spans="1:46" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI29" s="73"/>
+    </row>
+    <row r="30" spans="1:47" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="67" t="s">
         <v>115</v>
       </c>
@@ -5861,8 +5875,8 @@
       <c r="M30" s="69"/>
       <c r="N30" s="68"/>
       <c r="O30" s="69"/>
-      <c r="P30" s="192"/>
-      <c r="Q30" s="158"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="69"/>
       <c r="R30" s="68"/>
       <c r="S30" s="36">
         <v>12.1</v>
@@ -5876,16 +5890,17 @@
       <c r="X30" s="70"/>
       <c r="Y30" s="70"/>
       <c r="Z30" s="70"/>
-      <c r="AA30" s="139"/>
-      <c r="AB30" s="68"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="139"/>
       <c r="AC30" s="68"/>
       <c r="AD30" s="68"/>
       <c r="AE30" s="68"/>
       <c r="AF30" s="68"/>
       <c r="AG30" s="68"/>
       <c r="AH30" s="68"/>
-    </row>
-    <row r="31" spans="1:46" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI30" s="68"/>
+    </row>
+    <row r="31" spans="1:47" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="76" t="s">
         <v>116</v>
       </c>
@@ -5895,8 +5910,7 @@
       <c r="K31" s="77"/>
       <c r="M31" s="77"/>
       <c r="O31" s="77"/>
-      <c r="P31" s="193"/>
-      <c r="Q31" s="78"/>
+      <c r="Q31" s="77"/>
       <c r="S31" s="79">
         <f>S3/S30</f>
         <v>8.6614049586776858</v>
@@ -5905,9 +5919,9 @@
         <f>T3/T30</f>
         <v>8.6998473282442745</v>
       </c>
-      <c r="AA31" s="78"/>
-    </row>
-    <row r="32" spans="1:46" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB31" s="78"/>
+    </row>
+    <row r="32" spans="1:47" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="76"/>
       <c r="E32" s="77"/>
       <c r="G32" s="77"/>
@@ -5915,16 +5929,15 @@
       <c r="K32" s="77"/>
       <c r="M32" s="77"/>
       <c r="O32" s="77"/>
-      <c r="P32" s="193"/>
-      <c r="Q32" s="78"/>
+      <c r="Q32" s="77"/>
       <c r="S32" s="79"/>
       <c r="T32" s="79"/>
-      <c r="AA32" s="78"/>
-      <c r="AC32" s="75" t="s">
+      <c r="AB32" s="78"/>
+      <c r="AD32" s="75" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="142" t="s">
         <v>145</v>
       </c>
@@ -5934,30 +5947,29 @@
       <c r="K33" s="143"/>
       <c r="M33" s="143"/>
       <c r="O33" s="143"/>
-      <c r="P33" s="194"/>
-      <c r="Q33" s="144"/>
+      <c r="Q33" s="143"/>
       <c r="S33" s="141">
-        <f t="shared" ref="S33:X33" si="60">SUM(S34:S36)</f>
+        <f t="shared" ref="S33:X33" si="59">SUM(S34:S36)</f>
         <v>0</v>
       </c>
       <c r="T33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="U33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="V33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="W33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="X33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>1787</v>
       </c>
       <c r="Y33" s="141">
@@ -5968,9 +5980,9 @@
         <f>SUM(Z34:Z36)</f>
         <v>2787</v>
       </c>
-      <c r="AA33" s="144"/>
-    </row>
-    <row r="34" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB33" s="144"/>
+    </row>
+    <row r="34" spans="1:28" s="145" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="146" t="s">
         <v>146</v>
       </c>
@@ -5980,8 +5992,7 @@
       <c r="K34" s="147"/>
       <c r="M34" s="147"/>
       <c r="O34" s="147"/>
-      <c r="P34" s="195"/>
-      <c r="Q34" s="148"/>
+      <c r="Q34" s="147"/>
       <c r="X34" s="145">
         <v>6</v>
       </c>
@@ -5991,9 +6002,9 @@
       <c r="Z34" s="145">
         <v>7</v>
       </c>
-      <c r="AA34" s="148"/>
-    </row>
-    <row r="35" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB34" s="148"/>
+    </row>
+    <row r="35" spans="1:28" s="145" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="146" t="s">
         <v>147</v>
       </c>
@@ -6003,8 +6014,7 @@
       <c r="K35" s="147"/>
       <c r="M35" s="147"/>
       <c r="O35" s="147"/>
-      <c r="P35" s="195"/>
-      <c r="Q35" s="148"/>
+      <c r="Q35" s="147"/>
       <c r="X35" s="145">
         <v>58</v>
       </c>
@@ -6014,9 +6024,9 @@
       <c r="Z35" s="145">
         <v>112</v>
       </c>
-      <c r="AA35" s="148"/>
-    </row>
-    <row r="36" spans="1:27" s="149" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB35" s="148"/>
+    </row>
+    <row r="36" spans="1:28" s="149" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="146" t="s">
         <v>148</v>
       </c>
@@ -6026,8 +6036,7 @@
       <c r="K36" s="150"/>
       <c r="M36" s="150"/>
       <c r="O36" s="150"/>
-      <c r="P36" s="196"/>
-      <c r="Q36" s="159"/>
+      <c r="Q36" s="150"/>
       <c r="X36" s="149">
         <v>1723</v>
       </c>
@@ -6037,14 +6046,14 @@
       <c r="Z36" s="149">
         <v>2668</v>
       </c>
-      <c r="AA36" s="148"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB36" s="148"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
@@ -6058,7 +6067,7 @@
       <c r="N39" s="27">
         <v>74.733999999999995</v>
       </c>
-      <c r="P39" s="200">
+      <c r="P39" s="14">
         <v>91.209000000000003</v>
       </c>
       <c r="X39" s="14">
@@ -6070,9 +6079,10 @@
       <c r="Z39" s="14">
         <v>78.278999999999996</v>
       </c>
-      <c r="AA39" s="133"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="133"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
@@ -6086,7 +6096,7 @@
       <c r="N40" s="27">
         <v>150.56299999999999</v>
       </c>
-      <c r="P40" s="200">
+      <c r="P40" s="14">
         <v>160.84</v>
       </c>
       <c r="X40" s="14">
@@ -6098,9 +6108,10 @@
       <c r="Z40" s="14">
         <v>150.81100000000001</v>
       </c>
-      <c r="AA40" s="133"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="133"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
@@ -6114,7 +6125,7 @@
       <c r="N41" s="27">
         <v>88.628</v>
       </c>
-      <c r="P41" s="200">
+      <c r="P41" s="14">
         <v>94.15</v>
       </c>
       <c r="X41" s="14">
@@ -6126,9 +6137,10 @@
       <c r="Z41" s="14">
         <v>89.376000000000005</v>
       </c>
-      <c r="AA41" s="133"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="133"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
@@ -6142,7 +6154,7 @@
       <c r="N42" s="27">
         <v>0.29799999999999999</v>
       </c>
-      <c r="P42" s="200">
+      <c r="P42" s="14">
         <v>0.13100000000000001</v>
       </c>
       <c r="X42" s="14">
@@ -6154,9 +6166,10 @@
       <c r="Z42" s="14">
         <v>1.3089999999999999</v>
       </c>
-      <c r="AA42" s="133"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="133"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
@@ -6189,9 +6202,10 @@
         <f>SUM(Z39:Z42)</f>
         <v>319.77500000000003</v>
       </c>
-      <c r="AA43" s="133"/>
-    </row>
-    <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="133"/>
+    </row>
+    <row r="44" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -6210,10 +6224,10 @@
         <v>44.149000000000001</v>
       </c>
       <c r="O44" s="61"/>
-      <c r="P44" s="201">
+      <c r="P44" s="12">
         <v>41.404000000000003</v>
       </c>
-      <c r="Q44" s="153"/>
+      <c r="Q44" s="61"/>
       <c r="X44" s="12">
         <v>29.942</v>
       </c>
@@ -6223,9 +6237,10 @@
       <c r="Z44" s="12">
         <v>52.454999999999998</v>
       </c>
-      <c r="AA44" s="132"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="132"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="1" t="s">
         <v>54</v>
@@ -6240,7 +6255,7 @@
       <c r="N45" s="27">
         <v>5.8979999999999997</v>
       </c>
-      <c r="P45" s="200">
+      <c r="P45" s="14">
         <v>9.2129999999999992</v>
       </c>
       <c r="X45" s="14">
@@ -6252,9 +6267,10 @@
       <c r="Z45" s="14">
         <v>8.1159999999999997</v>
       </c>
-      <c r="AA45" s="133"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="133"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
         <v>55</v>
@@ -6269,7 +6285,7 @@
       <c r="N46" s="27">
         <v>0</v>
       </c>
-      <c r="P46" s="200">
+      <c r="P46" s="14">
         <v>0</v>
       </c>
       <c r="X46" s="14">
@@ -6281,9 +6297,10 @@
       <c r="Z46" s="14">
         <v>0.71499999999999997</v>
       </c>
-      <c r="AA46" s="133"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="133"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="1" t="s">
         <v>56</v>
@@ -6298,7 +6315,7 @@
       <c r="N47" s="27">
         <v>2.6389999999999998</v>
       </c>
-      <c r="P47" s="200">
+      <c r="P47" s="14">
         <v>2.8980000000000001</v>
       </c>
       <c r="X47" s="14">
@@ -6310,9 +6327,10 @@
       <c r="Z47" s="14">
         <v>2.4449999999999998</v>
       </c>
-      <c r="AA47" s="133"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="133"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
@@ -6345,14 +6363,15 @@
         <f>SUM(Z44:Z47)+Z43</f>
         <v>383.50600000000003</v>
       </c>
-      <c r="AA48" s="133"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="133"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="31"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
         <v>58</v>
@@ -6367,7 +6386,7 @@
       <c r="N50" s="1">
         <v>25.984000000000002</v>
       </c>
-      <c r="P50" s="200">
+      <c r="P50" s="14">
         <v>29.574000000000002</v>
       </c>
       <c r="X50" s="14">
@@ -6379,9 +6398,10 @@
       <c r="Z50" s="14">
         <v>29.109000000000002</v>
       </c>
-      <c r="AA50" s="133"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="133"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="1" t="s">
         <v>59</v>
@@ -6396,7 +6416,7 @@
       <c r="N51" s="1">
         <v>11.91</v>
       </c>
-      <c r="P51" s="200">
+      <c r="P51" s="14">
         <v>12.964</v>
       </c>
       <c r="X51" s="14">
@@ -6408,9 +6428,10 @@
       <c r="Z51" s="14">
         <v>12.553000000000001</v>
       </c>
-      <c r="AA51" s="133"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="133"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="1" t="s">
         <v>40</v>
@@ -6425,7 +6446,7 @@
       <c r="N52" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="P52" s="200">
+      <c r="P52" s="14">
         <v>0.79900000000000004</v>
       </c>
       <c r="X52" s="14">
@@ -6437,9 +6458,10 @@
       <c r="Z52" s="14">
         <v>0</v>
       </c>
-      <c r="AA52" s="133"/>
-    </row>
-    <row r="53" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="133"/>
+    </row>
+    <row r="53" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
@@ -6458,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="61"/>
-      <c r="P53" s="201">
+      <c r="P53" s="12">
         <v>0</v>
       </c>
-      <c r="Q53" s="153"/>
+      <c r="Q53" s="61"/>
       <c r="X53" s="12">
         <v>0</v>
       </c>
@@ -6471,9 +6493,10 @@
       <c r="Z53" s="12">
         <v>0</v>
       </c>
-      <c r="AA53" s="132"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="132"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
         <v>61</v>
@@ -6507,9 +6530,10 @@
         <f>SUM(Z50:Z53)</f>
         <v>41.662000000000006</v>
       </c>
-      <c r="AA54" s="133"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="133"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>62</v>
       </c>
@@ -6523,7 +6547,7 @@
       <c r="N55" s="1">
         <v>3.8660000000000001</v>
       </c>
-      <c r="P55" s="200">
+      <c r="P55" s="14">
         <v>6.2370000000000001</v>
       </c>
       <c r="X55" s="14">
@@ -6535,9 +6559,10 @@
       <c r="Z55" s="14">
         <v>5.2080000000000002</v>
       </c>
-      <c r="AA55" s="133"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="133"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>59</v>
       </c>
@@ -6551,7 +6576,7 @@
       <c r="N56" s="1">
         <v>180.39599999999999</v>
       </c>
-      <c r="P56" s="200">
+      <c r="P56" s="14">
         <v>192.09</v>
       </c>
       <c r="X56" s="14">
@@ -6563,9 +6588,10 @@
       <c r="Z56" s="14">
         <v>181.65199999999999</v>
       </c>
-      <c r="AA56" s="133"/>
-    </row>
-    <row r="57" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="133"/>
+    </row>
+    <row r="57" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>60</v>
       </c>
@@ -6584,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="61"/>
-      <c r="P57" s="201">
+      <c r="P57" s="12">
         <v>0</v>
       </c>
-      <c r="Q57" s="153"/>
+      <c r="Q57" s="61"/>
       <c r="X57" s="12">
         <v>0</v>
       </c>
@@ -6597,9 +6623,10 @@
       <c r="Z57" s="12">
         <v>1.96</v>
       </c>
-      <c r="AA57" s="132"/>
-    </row>
-    <row r="58" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="132"/>
+    </row>
+    <row r="58" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="14" t="s">
         <v>52</v>
       </c>
@@ -6618,10 +6645,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="31"/>
-      <c r="P58" s="200">
+      <c r="P58" s="14">
         <v>1.655</v>
       </c>
-      <c r="Q58" s="44"/>
+      <c r="Q58" s="31"/>
       <c r="X58" s="14">
         <v>0</v>
       </c>
@@ -6631,9 +6658,9 @@
       <c r="Z58" s="14">
         <v>0</v>
       </c>
-      <c r="AA58" s="133"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="133"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="1" t="s">
         <v>63</v>
@@ -6648,7 +6675,7 @@
       <c r="N59" s="1">
         <v>5.2969999999999997</v>
       </c>
-      <c r="P59" s="200">
+      <c r="P59" s="14">
         <v>5.6520000000000001</v>
       </c>
       <c r="X59" s="14">
@@ -6660,9 +6687,10 @@
       <c r="Z59" s="14">
         <v>5.0839999999999996</v>
       </c>
-      <c r="AA59" s="133"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="133"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
@@ -6684,23 +6712,24 @@
         <v>248.971</v>
       </c>
       <c r="X60" s="14">
-        <f t="shared" ref="X60:Z60" si="61">X54+X55+X56+X57+X59+X58</f>
+        <f t="shared" ref="X60:Z60" si="60">X54+X55+X56+X57+X59+X58</f>
         <v>196.28199999999998</v>
       </c>
       <c r="Y60" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>224.732</v>
       </c>
       <c r="Z60" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>235.566</v>
       </c>
-      <c r="AA60" s="133"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="133"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H61" s="14"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
@@ -6714,7 +6743,7 @@
       <c r="N62" s="14">
         <v>139.387</v>
       </c>
-      <c r="P62" s="200">
+      <c r="P62" s="14">
         <v>150.874</v>
       </c>
       <c r="X62" s="14">
@@ -6726,9 +6755,10 @@
       <c r="Z62" s="14">
         <v>147.94</v>
       </c>
-      <c r="AA62" s="133"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="133"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>66</v>
       </c>
@@ -6761,9 +6791,10 @@
         <f>Z62+Z60</f>
         <v>383.50599999999997</v>
       </c>
-      <c r="AA63" s="133"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="133"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>131</v>
       </c>
@@ -6785,20 +6816,21 @@
         <v>150.87400000000002</v>
       </c>
       <c r="X65" s="14">
-        <f t="shared" ref="X65:Y65" si="62">X48-X60</f>
+        <f t="shared" ref="X65:Y65" si="61">X48-X60</f>
         <v>104.68700000000007</v>
       </c>
       <c r="Y65" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>138.41999999999999</v>
       </c>
       <c r="Z65" s="14">
-        <f t="shared" ref="Z65" si="63">Z48-Z60</f>
+        <f t="shared" ref="Z65" si="62">Z48-Z60</f>
         <v>147.94000000000003</v>
       </c>
-      <c r="AA65" s="133"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="133"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="1" t="s">
         <v>132</v>
@@ -6820,40 +6852,40 @@
         <v>0.87219211748034853</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" ref="X66:Y66" si="64">X65/X14</f>
+        <f t="shared" ref="X66:Y66" si="63">X65/X14</f>
         <v>0.63597840274765649</v>
       </c>
       <c r="Y66" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>0.80971382354881549</v>
       </c>
       <c r="Z66" s="1">
-        <f t="shared" ref="Z66" si="65">Z65/Z14</f>
+        <f t="shared" ref="Z66" si="64">Z65/Z14</f>
         <v>0.86278472172836618</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H68" s="14">
-        <f t="shared" ref="H68" si="66">H44</f>
+        <f t="shared" ref="H68" si="65">H44</f>
         <v>15.635999999999999</v>
       </c>
       <c r="L68" s="14">
-        <f t="shared" ref="L68:N68" si="67">L44</f>
+        <f t="shared" ref="L68:N68" si="66">L44</f>
         <v>49.576999999999998</v>
       </c>
       <c r="N68" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>44.149000000000001</v>
       </c>
       <c r="P68" s="14">
-        <f t="shared" ref="P68" si="68">P44</f>
+        <f t="shared" ref="P68" si="67">P44</f>
         <v>41.404000000000003</v>
       </c>
       <c r="X68" s="14">
-        <f t="shared" ref="X68" si="69">X44</f>
+        <f t="shared" ref="X68" si="68">X44</f>
         <v>29.942</v>
       </c>
       <c r="Y68" s="14">
@@ -6861,33 +6893,34 @@
         <v>56.066000000000003</v>
       </c>
       <c r="Z68" s="14">
-        <f t="shared" ref="Z68" si="70">Z44</f>
+        <f t="shared" ref="Z68" si="69">Z44</f>
         <v>52.454999999999998</v>
       </c>
-      <c r="AA68" s="133"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="133"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H69" s="14">
-        <f t="shared" ref="H69" si="71">H53+H57</f>
+        <f t="shared" ref="H69" si="70">H53+H57</f>
         <v>30.073</v>
       </c>
       <c r="L69" s="14">
-        <f t="shared" ref="L69:N69" si="72">L53+L57</f>
+        <f t="shared" ref="L69:N69" si="71">L53+L57</f>
         <v>0</v>
       </c>
       <c r="N69" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="P69" s="14">
-        <f t="shared" ref="P69" si="73">P53+P57</f>
+        <f t="shared" ref="P69" si="72">P53+P57</f>
         <v>0</v>
       </c>
       <c r="X69" s="14">
-        <f t="shared" ref="X69" si="74">X53+X57</f>
+        <f t="shared" ref="X69" si="73">X53+X57</f>
         <v>0</v>
       </c>
       <c r="Y69" s="14">
@@ -6895,12 +6928,13 @@
         <v>0</v>
       </c>
       <c r="Z69" s="14">
-        <f t="shared" ref="Z69" si="75">Z53+Z57</f>
+        <f t="shared" ref="Z69" si="74">Z53+Z57</f>
         <v>1.96</v>
       </c>
-      <c r="AA69" s="133"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="133"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
@@ -6929,12 +6963,13 @@
         <v>56.066000000000003</v>
       </c>
       <c r="Z70" s="14">
-        <f t="shared" ref="Z70" si="76">Z68-Z69</f>
+        <f t="shared" ref="Z70" si="75">Z68-Z69</f>
         <v>50.494999999999997</v>
       </c>
-      <c r="AA70" s="133"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="133"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>140</v>
       </c>
@@ -6947,7 +6982,7 @@
       <c r="N72" s="1">
         <v>2.3014000000000001</v>
       </c>
-      <c r="P72" s="189">
+      <c r="P72" s="1">
         <v>3.2949999999999999</v>
       </c>
       <c r="S72" s="1">
@@ -6975,48 +7010,48 @@
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H73" s="27">
-        <f t="shared" ref="H73" si="77">H72*H14</f>
+        <f t="shared" ref="H73" si="76">H72*H14</f>
         <v>222.55491928799998</v>
       </c>
       <c r="L73" s="27">
-        <f t="shared" ref="L73:N73" si="78">L72*L14</f>
+        <f t="shared" ref="L73:N73" si="77">L72*L14</f>
         <v>408.36618902800001</v>
       </c>
       <c r="N73" s="27">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>394.05116001659997</v>
       </c>
       <c r="P73" s="27">
-        <f t="shared" ref="P73" si="79">P72*P14</f>
+        <f t="shared" ref="P73" si="78">P72*P14</f>
         <v>569.977439645</v>
       </c>
       <c r="S73" s="27">
-        <f t="shared" ref="S73:W73" si="80">S72*S14</f>
+        <f t="shared" ref="S73:W73" si="79">S72*S14</f>
         <v>158.09794302899999</v>
       </c>
       <c r="T73" s="27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>247.815</v>
       </c>
       <c r="U73" s="27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>307.69499999999999</v>
       </c>
       <c r="V73" s="27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>327.96</v>
       </c>
       <c r="W73" s="27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>198.01083562119999</v>
       </c>
       <c r="X73" s="27">
-        <f t="shared" ref="X73" si="81">X72*X14</f>
+        <f t="shared" ref="X73" si="80">X72*X14</f>
         <v>394.23565944500001</v>
       </c>
       <c r="Y73" s="27">
@@ -7024,12 +7059,13 @@
         <v>320.358961964</v>
       </c>
       <c r="Z73" s="27">
-        <f t="shared" ref="Z73" si="82">Z72*Z14</f>
+        <f t="shared" ref="Z73" si="81">Z72*Z14</f>
         <v>424.38338414999998</v>
       </c>
-      <c r="AA73" s="134"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="134"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
@@ -7063,12 +7099,13 @@
         <v>264.29296196400003</v>
       </c>
       <c r="Z74" s="27">
-        <f t="shared" ref="Z74" si="83">Z73-Z70</f>
+        <f t="shared" ref="Z74" si="82">Z73-Z70</f>
         <v>373.88838414999998</v>
       </c>
-      <c r="AA74" s="134"/>
-    </row>
-    <row r="76" spans="1:27" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="134"/>
+    </row>
+    <row r="76" spans="1:28" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="92" t="s">
         <v>134</v>
       </c>
@@ -7094,9 +7131,9 @@
         <f>P72/P66</f>
         <v>3.7778373983920348</v>
       </c>
-      <c r="Q76" s="160"/>
+      <c r="Q76" s="93"/>
       <c r="X76" s="92">
-        <f t="shared" ref="X76" si="84">X72/X66</f>
+        <f t="shared" ref="X76" si="83">X72/X66</f>
         <v>3.7658511510025101</v>
       </c>
       <c r="Y76" s="92">
@@ -7104,12 +7141,12 @@
         <v>2.3143979335645142</v>
       </c>
       <c r="Z76" s="92">
-        <f t="shared" ref="Z76" si="85">Z72/Z66</f>
+        <f t="shared" ref="Z76" si="84">Z72/Z66</f>
         <v>2.8686182516560761</v>
       </c>
-      <c r="AA76" s="140"/>
-    </row>
-    <row r="77" spans="1:27" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB76" s="140"/>
+    </row>
+    <row r="77" spans="1:28" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="94"/>
       <c r="B77" s="95" t="s">
         <v>135</v>
@@ -7120,30 +7157,29 @@
       <c r="K77" s="96"/>
       <c r="M77" s="96"/>
       <c r="O77" s="96"/>
-      <c r="P77" s="198"/>
-      <c r="Q77" s="161"/>
+      <c r="Q77" s="96"/>
       <c r="S77" s="92">
-        <f t="shared" ref="S77:W77" si="86">S73/S3</f>
+        <f t="shared" ref="S77:W77" si="85">S73/S3</f>
         <v>1.5085249757068022</v>
       </c>
       <c r="T77" s="92">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>2.174426154710094</v>
       </c>
       <c r="U77" s="92">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>2.552468726150579</v>
       </c>
       <c r="V77" s="92">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>2.5248279366252482</v>
       </c>
       <c r="W77" s="92">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>2.4915485211480628</v>
       </c>
       <c r="X77" s="92">
-        <f t="shared" ref="X77" si="87">X73/X3</f>
+        <f t="shared" ref="X77" si="86">X73/X3</f>
         <v>5.4847889402181478</v>
       </c>
       <c r="Y77" s="92">
@@ -7151,17 +7187,18 @@
         <v>1.6535424198491799</v>
       </c>
       <c r="Z77" s="92">
-        <f t="shared" ref="Z77" si="88">Z73/Z3</f>
+        <f t="shared" ref="Z77" si="87">Z73/Z3</f>
         <v>1.9731236651602644</v>
       </c>
-      <c r="AA77" s="140"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA77" s="92"/>
+      <c r="AB77" s="140"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>141</v>
       </c>
       <c r="X78" s="92">
-        <f t="shared" ref="X78" si="89">X74/X3</f>
+        <f t="shared" ref="X78" si="88">X74/X3</f>
         <v>5.0682219795347674</v>
       </c>
       <c r="Y78" s="92">
@@ -7169,41 +7206,42 @@
         <v>1.3641560741608643</v>
       </c>
       <c r="Z78" s="92">
-        <f t="shared" ref="Z78" si="90">Z74/Z3</f>
+        <f t="shared" ref="Z78" si="89">Z74/Z3</f>
         <v>1.7383527405826615</v>
       </c>
-      <c r="AA78" s="140"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA78" s="92"/>
+      <c r="AB78" s="140"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P79" s="197">
+      <c r="P79" s="92">
         <f>P72/SUM(O13:P13)</f>
         <v>16.624188566150199</v>
       </c>
       <c r="S79" s="92">
-        <f t="shared" ref="S79:W79" si="91">S72/S13</f>
+        <f t="shared" ref="S79:W79" si="90">S72/S13</f>
         <v>133.19119042038895</v>
       </c>
       <c r="T79" s="92">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>13.652214631996477</v>
       </c>
       <c r="U79" s="92">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>16.380696337308347</v>
       </c>
       <c r="V79" s="92">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>14.71662553286964</v>
       </c>
       <c r="W79" s="92">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>142.9681123618769</v>
       </c>
       <c r="X79" s="92">
-        <f t="shared" ref="X79" si="92">X72/X13</f>
+        <f t="shared" ref="X79" si="91">X72/X13</f>
         <v>228.14563625289284</v>
       </c>
       <c r="Y79" s="92">
@@ -7211,17 +7249,18 @@
         <v>8.554082987476967</v>
       </c>
       <c r="Z79" s="92">
-        <f t="shared" ref="Z79" si="93">Z72/Z13</f>
+        <f t="shared" ref="Z79" si="92">Z72/Z13</f>
         <v>12.426675182278707</v>
       </c>
-      <c r="AA79" s="140"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA79" s="92"/>
+      <c r="AB79" s="140"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>142</v>
       </c>
       <c r="X80" s="92">
-        <f t="shared" ref="X80" si="94">X74/X12</f>
+        <f t="shared" ref="X80" si="93">X74/X12</f>
         <v>210.81808995659659</v>
       </c>
       <c r="Y80" s="92">
@@ -7229,10 +7268,11 @@
         <v>7.0570335094924017</v>
       </c>
       <c r="Z80" s="92">
-        <f t="shared" ref="Z80" si="95">Z74/Z12</f>
+        <f t="shared" ref="Z80" si="94">Z74/Z12</f>
         <v>10.948094760036312</v>
       </c>
-      <c r="AA80" s="140"/>
+      <c r="AA80" s="92"/>
+      <c r="AB80" s="140"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
@@ -7255,15 +7295,16 @@
     <hyperlink ref="Y1" r:id="rId6" xr:uid="{D7D97D6D-2030-4F4C-B5FB-6BFE0FD9DC61}"/>
     <hyperlink ref="N1" r:id="rId7" xr:uid="{FC756CF2-3D82-4D5D-9DD4-F7502A0327A9}"/>
     <hyperlink ref="Z1" r:id="rId8" xr:uid="{F32AE00E-F68C-4DC8-A21B-34B62D129557}"/>
+    <hyperlink ref="AA1" r:id="rId9" xr:uid="{B35589E2-4FBF-4BF6-992E-28697F9BA04E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
   <ignoredErrors>
-    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 AA12 AB11:AP11 O5:O11" formula="1"/>
-    <ignoredError sqref="AA6" formulaRange="1"/>
+    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 AB12 AC11:AQ11 O5:O11" formula="1"/>
+    <ignoredError sqref="AB6" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6CF759-8688-4A52-AD7E-4645FAB1B2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A683B-D524-4850-B95C-C77B920B8F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
@@ -24,15 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1256,6 +1247,10 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1265,16 +1260,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,31 +1311,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1511,7 +1502,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1862,27 +1853,27 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
-      <c r="H5" s="156" t="s">
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="H5" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="158"/>
-      <c r="O5" s="156" t="s">
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="160"/>
+      <c r="O5" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="157"/>
-      <c r="R5" s="157"/>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="158"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="160"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1892,12 +1883,12 @@
         <v>3.2050000000000001</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="163" t="s">
+      <c r="H6" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
@@ -1920,12 +1911,12 @@
         <f>$C$28</f>
         <v>H124</v>
       </c>
-      <c r="H7" s="165" t="s">
+      <c r="H7" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>51</v>
@@ -1947,12 +1938,12 @@
         <v>554.40901185500002</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="167" t="s">
+      <c r="H8" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1980,12 +1971,12 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>H124</v>
       </c>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="176" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -2009,12 +2000,12 @@
         <f t="shared" si="0"/>
         <v>H124</v>
       </c>
-      <c r="H10" s="167" t="s">
+      <c r="H10" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -2042,12 +2033,12 @@
         <f t="shared" si="0"/>
         <v>H124</v>
       </c>
-      <c r="H11" s="167" t="s">
+      <c r="H11" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -2068,12 +2059,12 @@
         <v>513.00501185500002</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="168" t="s">
+      <c r="H12" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -2107,41 +2098,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="162"/>
+      <c r="D16" s="166"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="162"/>
-      <c r="H17" s="156" t="s">
+      <c r="D17" s="166"/>
+      <c r="H17" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="158"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="160"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="166"/>
       <c r="H18" s="81" t="s">
         <v>119</v>
       </c>
@@ -2152,8 +2143,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
       <c r="H19" s="85" t="s">
         <v>120</v>
       </c>
@@ -2185,11 +2176,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="157"/>
-      <c r="D22" s="158"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="160"/>
       <c r="H22" s="85" t="s">
         <v>122</v>
       </c>
@@ -2202,10 +2193,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="161" t="s">
+      <c r="C23" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="162"/>
+      <c r="D23" s="166"/>
       <c r="H23" s="86" t="s">
         <v>128</v>
       </c>
@@ -2218,10 +2209,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="161">
+      <c r="C24" s="165">
         <v>2010</v>
       </c>
-      <c r="D24" s="162"/>
+      <c r="D24" s="166"/>
       <c r="H24" s="81"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -2232,11 +2223,11 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="161">
+      <c r="C25" s="165">
         <f>+'Financial Model'!Z25</f>
         <v>71</v>
       </c>
-      <c r="D25" s="162"/>
+      <c r="D25" s="166"/>
       <c r="H25" s="81"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -2250,11 +2241,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="171">
+      <c r="C26" s="169">
         <f>+'Financial Model'!Z33</f>
         <v>2787</v>
       </c>
-      <c r="D26" s="162"/>
+      <c r="D26" s="166"/>
       <c r="H26" s="83"/>
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
@@ -2265,10 +2256,10 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="161">
+      <c r="C27" s="165">
         <v>2016</v>
       </c>
-      <c r="D27" s="162"/>
+      <c r="D27" s="166"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2285,17 +2276,17 @@
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="175"/>
-      <c r="H29" s="156" t="s">
+      <c r="D29" s="162"/>
+      <c r="H29" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="158"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="160"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="81" t="s">
@@ -2316,11 +2307,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="156" t="s">
+      <c r="B32" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="158"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="160"/>
       <c r="H32" s="85" t="s">
         <v>124</v>
       </c>
@@ -2333,11 +2324,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="172">
+      <c r="C33" s="163">
         <f>C6/'Financial Model'!P66</f>
         <v>3.6746491234738916</v>
       </c>
-      <c r="D33" s="173"/>
+      <c r="D33" s="164"/>
       <c r="H33" s="85"/>
       <c r="I33" s="82"/>
       <c r="J33" s="82"/>
@@ -2348,11 +2339,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="172">
+      <c r="C34" s="163">
         <f>+C8/SUM('Financial Model'!O3:P3)</f>
         <v>2.4726448567905202</v>
       </c>
-      <c r="D34" s="173"/>
+      <c r="D34" s="164"/>
       <c r="H34" s="81" t="s">
         <v>121</v>
       </c>
@@ -2365,11 +2356,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="172">
+      <c r="C35" s="163">
         <f>+C12/SUM('Financial Model'!O3:P3)</f>
         <v>2.2879844608348163</v>
       </c>
-      <c r="D35" s="173"/>
+      <c r="D35" s="164"/>
       <c r="H35" s="85" t="s">
         <v>127</v>
       </c>
@@ -2382,11 +2373,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="172">
+      <c r="C36" s="163">
         <f>+C6/SUM('Financial Model'!O13:P13)</f>
         <v>16.170113612901787</v>
       </c>
-      <c r="D36" s="173"/>
+      <c r="D36" s="164"/>
       <c r="H36" s="81"/>
       <c r="I36" s="82"/>
       <c r="J36" s="82"/>
@@ -2397,11 +2388,11 @@
       <c r="B37" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="169">
+      <c r="C37" s="167">
         <f>+C12/SUM('Financial Model'!O12:P12)</f>
         <v>15.009801973638021</v>
       </c>
-      <c r="D37" s="170"/>
+      <c r="D37" s="168"/>
       <c r="H37" s="81"/>
       <c r="I37" s="82"/>
       <c r="J37" s="82"/>
@@ -2417,22 +2408,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2447,6 +2422,22 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2465,10 +2456,10 @@
   <dimension ref="A1:CW85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA22" sqref="AA22"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2653,7 +2644,7 @@
       <c r="P2" s="22">
         <v>45382</v>
       </c>
-      <c r="Q2" s="176"/>
+      <c r="Q2" s="156"/>
       <c r="S2" s="22">
         <v>42643</v>
       </c>
@@ -2772,7 +2763,10 @@
       <c r="P3" s="12">
         <v>119.187</v>
       </c>
-      <c r="Q3" s="30"/>
+      <c r="Q3" s="30">
+        <f>+AA3-P3</f>
+        <v>111.21300000000001</v>
+      </c>
       <c r="S3" s="12">
         <v>104.803</v>
       </c>
@@ -3224,31 +3218,31 @@
         <v>-0.5706</v>
       </c>
       <c r="AC6" s="14">
-        <f>AVERAGE(S6:AB6)</f>
+        <f t="shared" ref="AC6:AI6" si="7">AVERAGE(S6:AB6)</f>
         <v>0.41748888888888885</v>
       </c>
       <c r="AD6" s="14">
-        <f>AVERAGE(T6:AC6)</f>
+        <f t="shared" si="7"/>
         <v>0.30887654320987656</v>
       </c>
       <c r="AE6" s="14">
-        <f>AVERAGE(U6:AD6)</f>
+        <f t="shared" si="7"/>
         <v>0.33430727023319612</v>
       </c>
       <c r="AF6" s="14">
-        <f>AVERAGE(V6:AE6)</f>
+        <f t="shared" si="7"/>
         <v>0.37145252248132904</v>
       </c>
       <c r="AG6" s="14">
-        <f>AVERAGE(W6:AF6)</f>
+        <f t="shared" si="7"/>
         <v>0.41272502497925445</v>
       </c>
       <c r="AH6" s="14">
-        <f>AVERAGE(X6:AG6)</f>
+        <f t="shared" si="7"/>
         <v>0.45858336108806053</v>
       </c>
       <c r="AI6" s="14">
-        <f>AVERAGE(Y6:AH6)</f>
+        <f t="shared" si="7"/>
         <v>0.19687040120895619</v>
       </c>
       <c r="AJ6" s="14">
@@ -3256,31 +3250,31 @@
         <v>0.24121300151119521</v>
       </c>
       <c r="AK6" s="14">
-        <f t="shared" ref="AK6:AQ6" si="7">AVERAGE(AC6:AJ6)</f>
+        <f t="shared" ref="AK6:AQ6" si="8">AVERAGE(AC6:AJ6)</f>
         <v>0.34268962670009467</v>
       </c>
       <c r="AL6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33333971892649533</v>
       </c>
       <c r="AM6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33639761589107264</v>
       </c>
       <c r="AN6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33665890909830726</v>
       </c>
       <c r="AO6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33230970742542953</v>
       </c>
       <c r="AP6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.32225779273120136</v>
       </c>
       <c r="AQ6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.30521709668659402</v>
       </c>
     </row>
@@ -3361,59 +3355,59 @@
         <v>148.7523673314</v>
       </c>
       <c r="AD7" s="27">
-        <f t="shared" ref="AD7:AQ7" si="8">AD5*0.63</f>
+        <f t="shared" ref="AD7:AQ7" si="9">AD5*0.63</f>
         <v>178.50284079767999</v>
       </c>
       <c r="AE7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>214.20340895721597</v>
       </c>
       <c r="AF7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>246.33392030079835</v>
       </c>
       <c r="AG7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>270.9673123308782</v>
       </c>
       <c r="AH7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>298.06404356396604</v>
       </c>
       <c r="AI7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>321.90916704908341</v>
       </c>
       <c r="AJ7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>338.00462540153751</v>
       </c>
       <c r="AK7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>354.90485667161448</v>
       </c>
       <c r="AL7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>362.00295380504673</v>
       </c>
       <c r="AM7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>369.24301288114771</v>
       </c>
       <c r="AN7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>376.62787313877061</v>
       </c>
       <c r="AO7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>384.16043060154607</v>
       </c>
       <c r="AP7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>391.84363921357692</v>
       </c>
       <c r="AQ7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>399.68051199784844</v>
       </c>
     </row>
@@ -3431,137 +3425,137 @@
         <v>11.681000000000012</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" ref="H8:P8" si="9">H5+H6-H7</f>
+        <f t="shared" ref="H8:P8" si="10">H5+H6-H7</f>
         <v>19.176000000000002</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-9.3150000000000031</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.022</v>
       </c>
       <c r="K8" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.602000000000004</v>
       </c>
       <c r="L8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.616</v>
       </c>
       <c r="M8" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17.833000000000013</v>
       </c>
       <c r="N8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.146000000000015</v>
       </c>
       <c r="O8" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.938999999999986</v>
       </c>
       <c r="P8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34.368000000000002</v>
       </c>
       <c r="Q8" s="61"/>
       <c r="S8" s="12">
-        <f t="shared" ref="S8:AB8" si="10">S5+S6-S7</f>
+        <f t="shared" ref="S8:AB8" si="11">S5+S6-S7</f>
         <v>14.377999999999986</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22.200999999999993</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24.891999999999996</v>
       </c>
       <c r="V8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.444000000000003</v>
       </c>
       <c r="W8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.8610000000000042</v>
       </c>
       <c r="X8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.5800000000000054</v>
       </c>
       <c r="Y8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>55.449000000000012</v>
       </c>
       <c r="Z8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>54.084999999999994</v>
       </c>
       <c r="AA8" s="12"/>
       <c r="AB8" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75.635533584000001</v>
       </c>
       <c r="AC8" s="12">
-        <f t="shared" ref="AC8:AQ8" si="11">AC5+AC6-AC7</f>
+        <f t="shared" ref="AC8:AQ8" si="12">AC5+AC6-AC7</f>
         <v>87.779990337488897</v>
       </c>
       <c r="AD8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>105.14387828152985</v>
       </c>
       <c r="AE8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>126.13630935621717</v>
       </c>
       <c r="AF8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>145.0437549213629</v>
       </c>
       <c r="AG8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>159.552257663749</v>
       </c>
       <c r="AH8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>175.51206926373482</v>
       </c>
       <c r="AI8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>189.25463517606744</v>
       </c>
       <c r="AJ8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>198.75186601511257</v>
       </c>
       <c r="AK8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>208.7788752909816</v>
       </c>
       <c r="AL8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>212.93824909649362</v>
       </c>
       <c r="AM8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>217.19340518100955</v>
       </c>
       <c r="AN8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>221.53080662551918</v>
       </c>
       <c r="AO8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>225.9503403781747</v>
       </c>
       <c r="AP8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>230.45264907689545</v>
       </c>
       <c r="AQ8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>235.03821620653417</v>
       </c>
     </row>
@@ -3707,136 +3701,136 @@
         <v>11.20300000000001</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" ref="H10:P10" si="12">H8-H9</f>
+        <f t="shared" ref="H10:P10" si="13">H8-H9</f>
         <v>14.468000000000004</v>
       </c>
       <c r="I10" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-13.272000000000006</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-14.489000000000001</v>
       </c>
       <c r="K10" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14.951000000000004</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33.436999999999998</v>
       </c>
       <c r="M10" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.228000000000014</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.689000000000014</v>
       </c>
       <c r="O10" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.390999999999984</v>
       </c>
       <c r="P10" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29.528000000000002</v>
       </c>
       <c r="S10" s="14">
-        <f t="shared" ref="S10:AB10" si="13">S8-S9</f>
+        <f t="shared" ref="S10:AB10" si="14">S8-S9</f>
         <v>2.5739999999999874</v>
       </c>
       <c r="T10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20.999999999999993</v>
       </c>
       <c r="U10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.933999999999997</v>
       </c>
       <c r="V10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.588000000000001</v>
       </c>
       <c r="W10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1960000000000033</v>
       </c>
       <c r="X10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.46200000000000507</v>
       </c>
       <c r="Y10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.665000000000013</v>
       </c>
       <c r="Z10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.079999999999991</v>
       </c>
       <c r="AA10" s="14"/>
       <c r="AB10" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>84.528533584000002</v>
       </c>
       <c r="AC10" s="14">
-        <f t="shared" ref="AC10:AQ10" si="14">AC8-AC9</f>
+        <f t="shared" ref="AC10:AQ10" si="15">AC8-AC9</f>
         <v>84.879990337488891</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>101.24387828152985</v>
       </c>
       <c r="AE10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>121.23630935621716</v>
       </c>
       <c r="AF10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>139.1437549213629</v>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>152.652257663749</v>
       </c>
       <c r="AH10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>167.61206926373481</v>
       </c>
       <c r="AI10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>180.35463517606743</v>
       </c>
       <c r="AJ10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>188.85186601511256</v>
       </c>
       <c r="AK10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>197.8788752909816</v>
       </c>
       <c r="AL10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>201.03824909649362</v>
       </c>
       <c r="AM10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>204.29340518100955</v>
       </c>
       <c r="AN10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>207.63080662551917</v>
       </c>
       <c r="AO10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>211.0503403781747</v>
       </c>
       <c r="AP10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>214.55264907689545</v>
       </c>
       <c r="AQ10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>218.13821620653417</v>
       </c>
     </row>
@@ -3917,59 +3911,59 @@
         <v>16.975998067497773</v>
       </c>
       <c r="AD11" s="27">
-        <f t="shared" ref="AD11:AQ11" si="15">AD10*(1-(1-AD19))</f>
+        <f t="shared" ref="AD11:AQ11" si="16">AD10*(1-(1-AD19))</f>
         <v>20.248775656305966</v>
       </c>
       <c r="AE11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24.247261871243428</v>
       </c>
       <c r="AF11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27.828750984272574</v>
       </c>
       <c r="AG11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30.530451532749794</v>
       </c>
       <c r="AH11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.522413852746958</v>
       </c>
       <c r="AI11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.070927035213479</v>
       </c>
       <c r="AJ11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.770373203022501</v>
       </c>
       <c r="AK11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39.575775058196314</v>
       </c>
       <c r="AL11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40.207649819298716</v>
       </c>
       <c r="AM11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40.858681036201901</v>
       </c>
       <c r="AN11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>41.526161325103828</v>
       </c>
       <c r="AO11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42.210068075634929</v>
       </c>
       <c r="AP11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42.910529815379078</v>
       </c>
       <c r="AQ11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43.627643241306821</v>
       </c>
     </row>
@@ -3987,73 +3981,73 @@
         <v>8.910000000000009</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" ref="H12:P12" si="16">H10-H11</f>
+        <f t="shared" ref="H12:P12" si="17">H10-H11</f>
         <v>11.520000000000003</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-10.135000000000005</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-11.633000000000001</v>
       </c>
       <c r="K12" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13.361000000000004</v>
       </c>
       <c r="L12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>27.024999999999999</v>
       </c>
       <c r="M12" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.426000000000013</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.920000000000016</v>
       </c>
       <c r="O12" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12.230999999999984</v>
       </c>
       <c r="P12" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.947000000000003</v>
       </c>
-      <c r="Q12" s="177"/>
+      <c r="Q12" s="157"/>
       <c r="R12" s="87"/>
       <c r="S12" s="12">
-        <f t="shared" ref="S12:Z12" si="17">S10-S11</f>
+        <f t="shared" ref="S12:Z12" si="18">S10-S11</f>
         <v>1.1869999999999874</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.151999999999994</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.783999999999999</v>
       </c>
       <c r="V12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.285</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3850000000000033</v>
       </c>
       <c r="X12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7280000000000051</v>
       </c>
       <c r="Y12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.451000000000015</v>
       </c>
       <c r="Z12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34.150999999999989</v>
       </c>
       <c r="AA12" s="12"/>
@@ -4062,295 +4056,295 @@
         <v>67.622826867200004</v>
       </c>
       <c r="AC12" s="12">
-        <f t="shared" ref="AC12:AQ12" si="18">AC10-AC11</f>
+        <f t="shared" ref="AC12:AQ12" si="19">AC10-AC11</f>
         <v>67.903992269991122</v>
       </c>
       <c r="AD12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>80.995102625223879</v>
       </c>
       <c r="AE12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>96.989047484973739</v>
       </c>
       <c r="AF12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>111.31500393709032</v>
       </c>
       <c r="AG12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>122.1218061309992</v>
       </c>
       <c r="AH12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>134.08965541098786</v>
       </c>
       <c r="AI12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>144.28370814085395</v>
       </c>
       <c r="AJ12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>151.08149281209006</v>
       </c>
       <c r="AK12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>158.30310023278528</v>
       </c>
       <c r="AL12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>160.83059927719489</v>
       </c>
       <c r="AM12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>163.43472414480766</v>
       </c>
       <c r="AN12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>166.10464530041534</v>
       </c>
       <c r="AO12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>168.84027230253977</v>
       </c>
       <c r="AP12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>171.64211926151637</v>
       </c>
       <c r="AQ12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>174.51057296522734</v>
       </c>
       <c r="AR12" s="12">
-        <f t="shared" ref="AR12:BW12" si="19">AQ12*(1+$AT$15)</f>
+        <f t="shared" ref="AR12:BW12" si="20">AQ12*(1+$AT$15)</f>
         <v>171.02036150592278</v>
       </c>
       <c r="AS12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>167.59995427580432</v>
       </c>
       <c r="AT12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>164.24795519028822</v>
       </c>
       <c r="AU12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>160.96299608648246</v>
       </c>
       <c r="AV12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>157.74373616475282</v>
       </c>
       <c r="AW12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>154.58886144145777</v>
       </c>
       <c r="AX12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>151.49708421262861</v>
       </c>
       <c r="AY12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>148.46714252837603</v>
       </c>
       <c r="AZ12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>145.4977996778085</v>
       </c>
       <c r="BA12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>142.58784368425233</v>
       </c>
       <c r="BB12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>139.73608681056729</v>
       </c>
       <c r="BC12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>136.94136507435593</v>
       </c>
       <c r="BD12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>134.20253777286879</v>
       </c>
       <c r="BE12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>131.51848701741142</v>
       </c>
       <c r="BF12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>128.88811727706317</v>
       </c>
       <c r="BG12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>126.31035493152191</v>
       </c>
       <c r="BH12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>123.78414783289148</v>
       </c>
       <c r="BI12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>121.30846487623364</v>
       </c>
       <c r="BJ12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>118.88229557870896</v>
       </c>
       <c r="BK12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>116.50464966713479</v>
       </c>
       <c r="BL12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>114.17455667379208</v>
       </c>
       <c r="BM12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>111.89106554031623</v>
       </c>
       <c r="BN12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>109.65324422950991</v>
       </c>
       <c r="BO12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>107.46017934491971</v>
       </c>
       <c r="BP12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>105.31097575802131</v>
       </c>
       <c r="BQ12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>103.20475624286088</v>
       </c>
       <c r="BR12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>101.14066111800366</v>
       </c>
       <c r="BS12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>99.117847895643592</v>
       </c>
       <c r="BT12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>97.135490937730722</v>
       </c>
       <c r="BU12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>95.1927811189761</v>
       </c>
       <c r="BV12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>93.288925496596576</v>
       </c>
       <c r="BW12" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>91.423146986664648</v>
       </c>
       <c r="BX12" s="12">
-        <f t="shared" ref="BX12:CW12" si="20">BW12*(1+$AT$15)</f>
+        <f t="shared" ref="BX12:CW12" si="21">BW12*(1+$AT$15)</f>
         <v>89.594684046931349</v>
       </c>
       <c r="BY12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>87.80279036599272</v>
       </c>
       <c r="BZ12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>86.046734558672867</v>
       </c>
       <c r="CA12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>84.325799867499413</v>
       </c>
       <c r="CB12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>82.639283870149427</v>
       </c>
       <c r="CC12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>80.986498192746438</v>
       </c>
       <c r="CD12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>79.366768228891502</v>
       </c>
       <c r="CE12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>77.779432864313677</v>
       </c>
       <c r="CF12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>76.223844207027398</v>
       </c>
       <c r="CG12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>74.699367322886843</v>
       </c>
       <c r="CH12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>73.2053799764291</v>
       </c>
       <c r="CI12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>71.741272376900511</v>
       </c>
       <c r="CJ12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>70.306446929362494</v>
       </c>
       <c r="CK12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>68.90031799077525</v>
       </c>
       <c r="CL12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>67.522311630959749</v>
       </c>
       <c r="CM12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>66.171865398340557</v>
       </c>
       <c r="CN12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>64.848428090373744</v>
       </c>
       <c r="CO12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>63.551459528566269</v>
       </c>
       <c r="CP12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>62.280430337994943</v>
       </c>
       <c r="CQ12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>61.034821731235041</v>
       </c>
       <c r="CR12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>59.814125296610342</v>
       </c>
       <c r="CS12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>58.617842790678132</v>
       </c>
       <c r="CT12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>57.445485934864571</v>
       </c>
       <c r="CU12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>56.296576216167281</v>
       </c>
       <c r="CV12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>55.170644691843933</v>
       </c>
       <c r="CW12" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>54.06723179800705</v>
       </c>
     </row>
@@ -4360,35 +4354,35 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="26">
-        <f t="shared" ref="F13:M13" si="21">F12/F14</f>
+        <f t="shared" ref="F13:M13" si="22">F12/F14</f>
         <v>8.8853291768992385E-2</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.9400000000000057E-2</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.6442866571663867E-2</v>
       </c>
       <c r="I13" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.6068394484364051E-2</v>
       </c>
       <c r="J13" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-7.3358228129837819E-2</v>
       </c>
       <c r="K13" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.116869753753031E-2</v>
       </c>
       <c r="L13" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.15819934224664817</v>
       </c>
       <c r="M13" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.0988847885565384E-2</v>
       </c>
       <c r="N13" s="26">
@@ -4406,100 +4400,100 @@
       <c r="Q13" s="33"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26">
-        <f t="shared" ref="S13:AQ13" si="22">S12/S14</f>
+        <f t="shared" ref="S13:AQ13" si="23">S12/S14</f>
         <v>1.1214705682000902E-2</v>
       </c>
       <c r="T13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12101333333333329</v>
       </c>
       <c r="U13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12522666666666665</v>
       </c>
       <c r="V13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14856666666666668</v>
       </c>
       <c r="W13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.0285867154261852E-3</v>
       </c>
       <c r="X13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0497680513797826E-2</v>
       </c>
       <c r="Y13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21907666815291649</v>
       </c>
       <c r="Z13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.19916831845170624</v>
       </c>
       <c r="AA13" s="26"/>
       <c r="AB13" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.39437570542856992</v>
       </c>
       <c r="AC13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.39601545947620259</v>
       </c>
       <c r="AD13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.47236269487538352</v>
       </c>
       <c r="AE13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.56563923445330777</v>
       </c>
       <c r="AF13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.64918808095210523</v>
       </c>
       <c r="AG13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.71221325212721109</v>
       </c>
       <c r="AH13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.78200963924849032</v>
       </c>
       <c r="AI13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.84146126117509434</v>
       </c>
       <c r="AJ13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.88110587896569736</v>
       </c>
       <c r="AK13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.9232222271399303</v>
       </c>
       <c r="AL13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.93796257836136909</v>
       </c>
       <c r="AM13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95314981068020921</v>
       </c>
       <c r="AN13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.96872076634654458</v>
       </c>
       <c r="AO13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.98467491790650485</v>
       </c>
       <c r="AP13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0010152636468461</v>
       </c>
       <c r="AQ13" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0177440593109464</v>
       </c>
     </row>
@@ -4580,59 +4574,59 @@
         <v>171.46803399999999</v>
       </c>
       <c r="AD14" s="27">
-        <f t="shared" ref="AD14:AQ14" si="23">AC14</f>
+        <f t="shared" ref="AD14:AQ14" si="24">AC14</f>
         <v>171.46803399999999</v>
       </c>
       <c r="AE14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AF14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AG14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AH14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AI14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AJ14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AK14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AL14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AM14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AN14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AO14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AP14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AQ14" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>171.46803399999999</v>
       </c>
     </row>
@@ -4650,63 +4644,63 @@
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="23">
-        <f t="shared" ref="F16:L16" si="24">F5/F3</f>
+        <f t="shared" ref="F16:L16" si="25">F5/F3</f>
         <v>0.85857590685176888</v>
       </c>
       <c r="G16" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.8558438255118912</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.85590062111801246</v>
       </c>
       <c r="I16" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.84701747534901894</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.88574714847119718</v>
       </c>
       <c r="K16" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.85246968833916514</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.86382558174358359</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" ref="M16:N16" si="25">M5/M3</f>
+        <f t="shared" ref="M16:N16" si="26">M5/M3</f>
         <v>0.83166253419972636</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.82760876676480211</v>
       </c>
       <c r="O16" s="34">
-        <f t="shared" ref="O16:P16" si="26">O5/O3</f>
+        <f t="shared" ref="O16:P16" si="27">O5/O3</f>
         <v>0.43600875940207556</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.64682389857954314</v>
       </c>
       <c r="S16" s="23">
-        <f t="shared" ref="S16:T16" si="27">S5/S3</f>
+        <f t="shared" ref="S16:T16" si="28">S5/S3</f>
         <v>0.85328664255794195</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.86532184472834472</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" ref="U16:V16" si="28">U5/U3</f>
+        <f t="shared" ref="U16:V16" si="29">U5/U3</f>
         <v>0.8610677904237316</v>
       </c>
       <c r="V16" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.85725283692857257</v>
       </c>
       <c r="W16" s="23">
@@ -4718,11 +4712,11 @@
         <v>0.85729986922284984</v>
       </c>
       <c r="Y16" s="23">
-        <f t="shared" ref="Y16:Z16" si="29">Y5/Y3</f>
+        <f t="shared" ref="Y16:Z16" si="30">Y5/Y3</f>
         <v>0.84829230777171583</v>
       </c>
       <c r="Z16" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.6363805432346733</v>
       </c>
       <c r="AA16" s="23"/>
@@ -4731,63 +4725,63 @@
         <v>0.84000000000000008</v>
       </c>
       <c r="AC16" s="23">
-        <f t="shared" ref="AC16:AQ16" si="30">AC5/AC3</f>
+        <f t="shared" ref="AC16:AQ16" si="31">AC5/AC3</f>
         <v>0.86</v>
       </c>
       <c r="AD16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.8600000000000001</v>
       </c>
       <c r="AE16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AF16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AG16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AH16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AI16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AJ16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AK16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AL16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AM16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AN16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AO16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.86</v>
       </c>
       <c r="AP16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AQ16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AS16" s="46" t="s">
@@ -4803,63 +4797,63 @@
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="23">
-        <f t="shared" ref="F17:L17" si="31">F8/F3</f>
+        <f t="shared" ref="F17:L17" si="32">F8/F3</f>
         <v>0.25023137781758459</v>
       </c>
       <c r="G17" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.18569566323286293</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.27698974433049256</v>
       </c>
       <c r="I17" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.90940154251684147</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.96060577015240112</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.31901700707950204</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.37551036706497759</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" ref="M17:N17" si="32">M8/M3</f>
+        <f t="shared" ref="M17:N17" si="33">M8/M3</f>
         <v>0.19058866279069778</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.29209828081270683</v>
       </c>
       <c r="O17" s="34">
-        <f t="shared" ref="O17:P17" si="33">O8/O3</f>
+        <f t="shared" ref="O17:P17" si="34">O8/O3</f>
         <v>0.20888317623536121</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.28835359561025953</v>
       </c>
       <c r="S17" s="23">
-        <f t="shared" ref="S17:T17" si="34">S8/S3</f>
+        <f t="shared" ref="S17:T17" si="35">S8/S3</f>
         <v>0.13719072927301687</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.19480029481959843</v>
       </c>
       <c r="U17" s="23">
-        <f t="shared" ref="U17:V17" si="35">U8/U3</f>
+        <f t="shared" ref="U17:V17" si="36">U8/U3</f>
         <v>0.20649036068619966</v>
       </c>
       <c r="V17" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.2189785517421898</v>
       </c>
       <c r="W17" s="23">
@@ -4871,11 +4865,11 @@
         <v>0.13328139347227252</v>
       </c>
       <c r="Y17" s="23">
-        <f t="shared" ref="Y17:AQ17" si="36">Y8/Y3</f>
+        <f t="shared" ref="Y17:AQ17" si="37">Y8/Y3</f>
         <v>0.28620168162650139</v>
       </c>
       <c r="Z17" s="23">
-        <f t="shared" ref="Z17" si="37">Z8/Z3</f>
+        <f t="shared" ref="Z17" si="38">Z8/Z3</f>
         <v>0.25146223300880594</v>
       </c>
       <c r="AA17" s="23"/>
@@ -4884,63 +4878,63 @@
         <v>0.31680996246057758</v>
       </c>
       <c r="AC17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31972061768197663</v>
       </c>
       <c r="AD17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31913751623426984</v>
       </c>
       <c r="AE17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31904558728497412</v>
       </c>
       <c r="AF17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31901699254586874</v>
       </c>
       <c r="AG17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31902524499582702</v>
       </c>
       <c r="AH17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31903358080386574</v>
       </c>
       <c r="AI17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31853134931929028</v>
       </c>
       <c r="AJ17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31858664915920454</v>
       </c>
       <c r="AK17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31872315215262864</v>
       </c>
       <c r="AL17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31869890051397659</v>
       </c>
       <c r="AM17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31869360508372963</v>
       </c>
       <c r="AN17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31868430243738827</v>
       </c>
       <c r="AO17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31866867242209507</v>
       </c>
       <c r="AP17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31864558404074694</v>
       </c>
       <c r="AQ17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.3186137470254885</v>
       </c>
       <c r="AS17" s="46" t="s">
@@ -4958,63 +4952,63 @@
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="23">
-        <f t="shared" ref="F18:L18" si="38">F12/F3</f>
+        <f t="shared" ref="F18:L18" si="39">F12/F3</f>
         <v>0.19965666517390643</v>
       </c>
       <c r="G18" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.14164441053033205</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.16640184890943235</v>
       </c>
       <c r="I18" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-0.98945621399980577</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.1150196491900701</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.21744649686711701</v>
       </c>
       <c r="L18" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.26978327493436355</v>
       </c>
       <c r="M18" s="34">
-        <f t="shared" ref="M18:N18" si="39">M12/M3</f>
+        <f t="shared" ref="M18:N18" si="40">M12/M3</f>
         <v>0.11142698358413144</v>
       </c>
       <c r="N18" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.1991785701304839</v>
       </c>
       <c r="O18" s="34">
-        <f t="shared" ref="O18:P18" si="40">O12/O3</f>
+        <f t="shared" ref="O18:P18" si="41">O12/O3</f>
         <v>0.1164524421593829</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.18413920981315079</v>
       </c>
       <c r="S18" s="23">
-        <f t="shared" ref="S18:T18" si="41">S12/S3</f>
+        <f t="shared" ref="S18:T18" si="42">S12/S3</f>
         <v>1.1326011659971446E-2</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.15927277832373993</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" ref="U18:V18" si="42">U12/U3</f>
+        <f t="shared" ref="U18:V18" si="43">U12/U3</f>
         <v>0.15582174735375118</v>
       </c>
       <c r="V18" s="23">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.17156296672671562</v>
       </c>
       <c r="W18" s="23">
@@ -5026,76 +5020,76 @@
         <v>2.4040735691032097E-2</v>
       </c>
       <c r="Y18" s="23">
-        <f t="shared" ref="Y18:AB18" si="43">Y12/Y3</f>
+        <f t="shared" ref="Y18:AB18" si="44">Y12/Y3</f>
         <v>0.19330446317506367</v>
       </c>
       <c r="Z18" s="23">
-        <f t="shared" ref="Z18" si="44">Z12/Z3</f>
+        <f t="shared" ref="Z18" si="45">Z12/Z3</f>
         <v>0.15878130201504537</v>
       </c>
       <c r="AA18" s="23"/>
       <c r="AB18" s="42">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.2832476248413448</v>
       </c>
       <c r="AC18" s="23">
-        <f t="shared" ref="AC18:AQ18" si="45">AC12/AC3</f>
+        <f t="shared" ref="AC18:AQ18" si="46">AC12/AC3</f>
         <v>0.24732636980436912</v>
       </c>
       <c r="AD18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24584004605329873</v>
       </c>
       <c r="AE18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24532133350807039</v>
       </c>
       <c r="AF18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24483217357751796</v>
       </c>
       <c r="AG18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24418293849769063</v>
       </c>
       <c r="AH18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.243738810065771</v>
       </c>
       <c r="AI18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24284152510262372</v>
       </c>
       <c r="AJ18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24217406110448467</v>
       </c>
       <c r="AK18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24166651454274929</v>
       </c>
       <c r="AL18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.24071079468404435</v>
       </c>
       <c r="AM18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.23981207620077299</v>
       </c>
       <c r="AN18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.23895070769391963</v>
       </c>
       <c r="AO18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.2381235865189805</v>
       </c>
       <c r="AP18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.23732859464691131</v>
       </c>
       <c r="AQ18" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.23656351909664572</v>
       </c>
       <c r="AS18" s="46" t="s">
@@ -5112,47 +5106,47 @@
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="23">
-        <f t="shared" ref="F19:L19" si="46">F11/F10</f>
+        <f t="shared" ref="F19:L19" si="47">F11/F10</f>
         <v>0.1837046078730547</v>
       </c>
       <c r="G19" s="34">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.20467731857538143</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.20376002211777711</v>
       </c>
       <c r="I19" s="34">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.23636226642555747</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.19711505279867483</v>
       </c>
       <c r="K19" s="34">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.10634740151160453</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.19176361515686216</v>
       </c>
       <c r="M19" s="34">
-        <f t="shared" ref="M19:N19" si="47">M11/M10</f>
+        <f t="shared" ref="M19:N19" si="48">M11/M10</f>
         <v>0.21182340489869955</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.20834988623641146</v>
       </c>
       <c r="O19" s="34">
-        <f t="shared" ref="O19:P19" si="48">O11/O10</f>
+        <f t="shared" ref="O19:P19" si="49">O11/O10</f>
         <v>0.29670519234086623</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.25673936602546737</v>
       </c>
       <c r="S19" s="23">
@@ -5160,31 +5154,31 @@
         <v>0.53885003885004146</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" ref="T19:X19" si="49">T11/T10</f>
+        <f t="shared" ref="T19:X19" si="50">T11/T10</f>
         <v>0.13561904761904767</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.21517506476142731</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.1922212556183848</v>
       </c>
       <c r="W19" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-0.15802675585284237</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-2.7402597402597104</v>
       </c>
       <c r="Y19" s="23">
-        <f t="shared" ref="Y19:Z19" si="50">Y11/Y10</f>
+        <f t="shared" ref="Y19:Z19" si="51">Y11/Y10</f>
         <v>0.19744990892531872</v>
       </c>
       <c r="Z19" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.24243566992014201</v>
       </c>
       <c r="AA19" s="23"/>
@@ -5196,59 +5190,59 @@
         <v>0.2</v>
       </c>
       <c r="AD19" s="23">
-        <f t="shared" ref="AD19:AQ19" si="51">AC19</f>
+        <f t="shared" ref="AD19:AQ19" si="52">AC19</f>
         <v>0.2</v>
       </c>
       <c r="AE19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AF19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AG19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AH19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AI19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AJ19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AK19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AL19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AM19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AN19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AO19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AP19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AQ19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.2</v>
       </c>
       <c r="AS19" s="46" t="s">
@@ -5280,58 +5274,62 @@
         <v>71</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:P21" si="52">H3/F3-1</f>
+        <f t="shared" ref="H21:Q21" si="53">H3/F3-1</f>
         <v>3.3437826541274918E-2</v>
       </c>
       <c r="I21" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-0.8371645682309552</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-0.84929943666040741</v>
       </c>
       <c r="K21" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4.9987308405740531</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8.6015527652640671</v>
       </c>
       <c r="M21" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.5227927414761171</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>9.8619388457967805E-2</v>
       </c>
       <c r="O21" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.12249914500683956</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8.3006215243702997E-2</v>
+      </c>
+      <c r="Q21" s="34">
+        <f t="shared" si="53"/>
+        <v>5.8868894601542543E-2</v>
       </c>
       <c r="S21" s="38" t="s">
         <v>71</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" ref="T21:W21" si="53">T3/S3-1</f>
+        <f t="shared" ref="T21:W21" si="54">T3/S3-1</f>
         <v>8.744978674274595E-2</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>5.7735504703074536E-2</v>
       </c>
       <c r="V21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7.7529282941235067E-2</v>
       </c>
       <c r="W21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-0.38817035428888169</v>
       </c>
       <c r="X21" s="23">
@@ -5339,15 +5337,15 @@
         <v>-9.5567047928227233E-2</v>
       </c>
       <c r="Y21" s="23">
-        <f t="shared" ref="Y21" si="54">Y3/X3-1</f>
+        <f t="shared" ref="Y21" si="55">Y3/X3-1</f>
         <v>1.6954144522663404</v>
       </c>
       <c r="Z21" s="23">
-        <f t="shared" ref="Z21:AA21" si="55">Z3/Y3-1</f>
+        <f t="shared" ref="Z21:AA21" si="56">Z3/Y3-1</f>
         <v>0.11015221352217641</v>
       </c>
       <c r="AA21" s="23">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>7.1219348899489665E-2</v>
       </c>
       <c r="AB21" s="135">
@@ -5416,44 +5414,48 @@
         <v>71</v>
       </c>
       <c r="G22" s="34">
-        <f t="shared" ref="G22" si="56">G3/F3-1</f>
+        <f t="shared" ref="G22" si="57">G3/F3-1</f>
         <v>-6.0994178235557306E-2</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:P22" si="57">H3/G3-1</f>
+        <f t="shared" ref="H22:Q22" si="58">H3/G3-1</f>
         <v>0.10056594175251155</v>
       </c>
       <c r="I22" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-0.85204391159901782</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1.8549253148492095E-2</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4.8894852870698742</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.63028724875905273</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-6.5935930839647328E-2</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.17617134062927486</v>
       </c>
       <c r="O22" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-4.563297350343487E-2</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.1347900599828622</v>
+      </c>
+      <c r="Q22" s="34">
+        <f t="shared" si="58"/>
+        <v>-6.6903269651891528E-2</v>
       </c>
       <c r="S22" s="38" t="s">
         <v>71</v>
@@ -5827,25 +5829,25 @@
         <v>1.9407962962962964</v>
       </c>
       <c r="T29" s="80">
-        <f t="shared" ref="T29:Z29" si="58">T3/T25</f>
+        <f t="shared" ref="T29:Z29" si="59">T3/T25</f>
         <v>1.9649655172413794</v>
       </c>
       <c r="U29" s="80"/>
       <c r="V29" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2.1649000000000003</v>
       </c>
       <c r="W29" s="80"/>
       <c r="X29" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1.12309375</v>
       </c>
       <c r="Y29" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2.8916567164179106</v>
       </c>
       <c r="Z29" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3.0293239436619719</v>
       </c>
       <c r="AA29" s="80"/>
@@ -5949,27 +5951,27 @@
       <c r="O33" s="143"/>
       <c r="Q33" s="143"/>
       <c r="S33" s="141">
-        <f t="shared" ref="S33:X33" si="59">SUM(S34:S36)</f>
+        <f t="shared" ref="S33:X33" si="60">SUM(S34:S36)</f>
         <v>0</v>
       </c>
       <c r="T33" s="141">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="U33" s="141">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="V33" s="141">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W33" s="141">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="X33" s="141">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1787</v>
       </c>
       <c r="Y33" s="141">
@@ -6712,15 +6714,15 @@
         <v>248.971</v>
       </c>
       <c r="X60" s="14">
-        <f t="shared" ref="X60:Z60" si="60">X54+X55+X56+X57+X59+X58</f>
+        <f t="shared" ref="X60:Z60" si="61">X54+X55+X56+X57+X59+X58</f>
         <v>196.28199999999998</v>
       </c>
       <c r="Y60" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>224.732</v>
       </c>
       <c r="Z60" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>235.566</v>
       </c>
       <c r="AA60" s="14"/>
@@ -6816,15 +6818,15 @@
         <v>150.87400000000002</v>
       </c>
       <c r="X65" s="14">
-        <f t="shared" ref="X65:Y65" si="61">X48-X60</f>
+        <f t="shared" ref="X65:Y65" si="62">X48-X60</f>
         <v>104.68700000000007</v>
       </c>
       <c r="Y65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>138.41999999999999</v>
       </c>
       <c r="Z65" s="14">
-        <f t="shared" ref="Z65" si="62">Z48-Z60</f>
+        <f t="shared" ref="Z65" si="63">Z48-Z60</f>
         <v>147.94000000000003</v>
       </c>
       <c r="AA65" s="14"/>
@@ -6852,15 +6854,15 @@
         <v>0.87219211748034853</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" ref="X66:Y66" si="63">X65/X14</f>
+        <f t="shared" ref="X66:Y66" si="64">X65/X14</f>
         <v>0.63597840274765649</v>
       </c>
       <c r="Y66" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.80971382354881549</v>
       </c>
       <c r="Z66" s="1">
-        <f t="shared" ref="Z66" si="64">Z65/Z14</f>
+        <f t="shared" ref="Z66" si="65">Z65/Z14</f>
         <v>0.86278472172836618</v>
       </c>
     </row>
@@ -6869,23 +6871,23 @@
         <v>6</v>
       </c>
       <c r="H68" s="14">
-        <f t="shared" ref="H68" si="65">H44</f>
+        <f t="shared" ref="H68" si="66">H44</f>
         <v>15.635999999999999</v>
       </c>
       <c r="L68" s="14">
-        <f t="shared" ref="L68:N68" si="66">L44</f>
+        <f t="shared" ref="L68:N68" si="67">L44</f>
         <v>49.576999999999998</v>
       </c>
       <c r="N68" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>44.149000000000001</v>
       </c>
       <c r="P68" s="14">
-        <f t="shared" ref="P68" si="67">P44</f>
+        <f t="shared" ref="P68" si="68">P44</f>
         <v>41.404000000000003</v>
       </c>
       <c r="X68" s="14">
-        <f t="shared" ref="X68" si="68">X44</f>
+        <f t="shared" ref="X68" si="69">X44</f>
         <v>29.942</v>
       </c>
       <c r="Y68" s="14">
@@ -6893,7 +6895,7 @@
         <v>56.066000000000003</v>
       </c>
       <c r="Z68" s="14">
-        <f t="shared" ref="Z68" si="69">Z44</f>
+        <f t="shared" ref="Z68" si="70">Z44</f>
         <v>52.454999999999998</v>
       </c>
       <c r="AA68" s="14"/>
@@ -6904,23 +6906,23 @@
         <v>7</v>
       </c>
       <c r="H69" s="14">
-        <f t="shared" ref="H69" si="70">H53+H57</f>
+        <f t="shared" ref="H69" si="71">H53+H57</f>
         <v>30.073</v>
       </c>
       <c r="L69" s="14">
-        <f t="shared" ref="L69:N69" si="71">L53+L57</f>
+        <f t="shared" ref="L69:N69" si="72">L53+L57</f>
         <v>0</v>
       </c>
       <c r="N69" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="P69" s="14">
-        <f t="shared" ref="P69" si="72">P53+P57</f>
+        <f t="shared" ref="P69" si="73">P53+P57</f>
         <v>0</v>
       </c>
       <c r="X69" s="14">
-        <f t="shared" ref="X69" si="73">X53+X57</f>
+        <f t="shared" ref="X69" si="74">X53+X57</f>
         <v>0</v>
       </c>
       <c r="Y69" s="14">
@@ -6928,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="14">
-        <f t="shared" ref="Z69" si="74">Z53+Z57</f>
+        <f t="shared" ref="Z69" si="75">Z53+Z57</f>
         <v>1.96</v>
       </c>
       <c r="AA69" s="14"/>
@@ -6963,7 +6965,7 @@
         <v>56.066000000000003</v>
       </c>
       <c r="Z70" s="14">
-        <f t="shared" ref="Z70" si="75">Z68-Z69</f>
+        <f t="shared" ref="Z70" si="76">Z68-Z69</f>
         <v>50.494999999999997</v>
       </c>
       <c r="AA70" s="14"/>
@@ -7015,43 +7017,43 @@
         <v>5</v>
       </c>
       <c r="H73" s="27">
-        <f t="shared" ref="H73" si="76">H72*H14</f>
+        <f t="shared" ref="H73" si="77">H72*H14</f>
         <v>222.55491928799998</v>
       </c>
       <c r="L73" s="27">
-        <f t="shared" ref="L73:N73" si="77">L72*L14</f>
+        <f t="shared" ref="L73:N73" si="78">L72*L14</f>
         <v>408.36618902800001</v>
       </c>
       <c r="N73" s="27">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>394.05116001659997</v>
       </c>
       <c r="P73" s="27">
-        <f t="shared" ref="P73" si="78">P72*P14</f>
+        <f t="shared" ref="P73" si="79">P72*P14</f>
         <v>569.977439645</v>
       </c>
       <c r="S73" s="27">
-        <f t="shared" ref="S73:W73" si="79">S72*S14</f>
+        <f t="shared" ref="S73:W73" si="80">S72*S14</f>
         <v>158.09794302899999</v>
       </c>
       <c r="T73" s="27">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>247.815</v>
       </c>
       <c r="U73" s="27">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>307.69499999999999</v>
       </c>
       <c r="V73" s="27">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>327.96</v>
       </c>
       <c r="W73" s="27">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>198.01083562119999</v>
       </c>
       <c r="X73" s="27">
-        <f t="shared" ref="X73" si="80">X72*X14</f>
+        <f t="shared" ref="X73" si="81">X72*X14</f>
         <v>394.23565944500001</v>
       </c>
       <c r="Y73" s="27">
@@ -7059,7 +7061,7 @@
         <v>320.358961964</v>
       </c>
       <c r="Z73" s="27">
-        <f t="shared" ref="Z73" si="81">Z72*Z14</f>
+        <f t="shared" ref="Z73" si="82">Z72*Z14</f>
         <v>424.38338414999998</v>
       </c>
       <c r="AA73" s="27"/>
@@ -7099,7 +7101,7 @@
         <v>264.29296196400003</v>
       </c>
       <c r="Z74" s="27">
-        <f t="shared" ref="Z74" si="82">Z73-Z70</f>
+        <f t="shared" ref="Z74" si="83">Z73-Z70</f>
         <v>373.88838414999998</v>
       </c>
       <c r="AA74" s="27"/>
@@ -7133,7 +7135,7 @@
       </c>
       <c r="Q76" s="93"/>
       <c r="X76" s="92">
-        <f t="shared" ref="X76" si="83">X72/X66</f>
+        <f t="shared" ref="X76" si="84">X72/X66</f>
         <v>3.7658511510025101</v>
       </c>
       <c r="Y76" s="92">
@@ -7141,7 +7143,7 @@
         <v>2.3143979335645142</v>
       </c>
       <c r="Z76" s="92">
-        <f t="shared" ref="Z76" si="84">Z72/Z66</f>
+        <f t="shared" ref="Z76" si="85">Z72/Z66</f>
         <v>2.8686182516560761</v>
       </c>
       <c r="AB76" s="140"/>
@@ -7159,27 +7161,27 @@
       <c r="O77" s="96"/>
       <c r="Q77" s="96"/>
       <c r="S77" s="92">
-        <f t="shared" ref="S77:W77" si="85">S73/S3</f>
+        <f t="shared" ref="S77:W77" si="86">S73/S3</f>
         <v>1.5085249757068022</v>
       </c>
       <c r="T77" s="92">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2.174426154710094</v>
       </c>
       <c r="U77" s="92">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2.552468726150579</v>
       </c>
       <c r="V77" s="92">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2.5248279366252482</v>
       </c>
       <c r="W77" s="92">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>2.4915485211480628</v>
       </c>
       <c r="X77" s="92">
-        <f t="shared" ref="X77" si="86">X73/X3</f>
+        <f t="shared" ref="X77" si="87">X73/X3</f>
         <v>5.4847889402181478</v>
       </c>
       <c r="Y77" s="92">
@@ -7187,7 +7189,7 @@
         <v>1.6535424198491799</v>
       </c>
       <c r="Z77" s="92">
-        <f t="shared" ref="Z77" si="87">Z73/Z3</f>
+        <f t="shared" ref="Z77" si="88">Z73/Z3</f>
         <v>1.9731236651602644</v>
       </c>
       <c r="AA77" s="92"/>
@@ -7198,7 +7200,7 @@
         <v>141</v>
       </c>
       <c r="X78" s="92">
-        <f t="shared" ref="X78" si="88">X74/X3</f>
+        <f t="shared" ref="X78" si="89">X74/X3</f>
         <v>5.0682219795347674</v>
       </c>
       <c r="Y78" s="92">
@@ -7206,7 +7208,7 @@
         <v>1.3641560741608643</v>
       </c>
       <c r="Z78" s="92">
-        <f t="shared" ref="Z78" si="89">Z74/Z3</f>
+        <f t="shared" ref="Z78" si="90">Z74/Z3</f>
         <v>1.7383527405826615</v>
       </c>
       <c r="AA78" s="92"/>
@@ -7221,27 +7223,27 @@
         <v>16.624188566150199</v>
       </c>
       <c r="S79" s="92">
-        <f t="shared" ref="S79:W79" si="90">S72/S13</f>
+        <f t="shared" ref="S79:W79" si="91">S72/S13</f>
         <v>133.19119042038895</v>
       </c>
       <c r="T79" s="92">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>13.652214631996477</v>
       </c>
       <c r="U79" s="92">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>16.380696337308347</v>
       </c>
       <c r="V79" s="92">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>14.71662553286964</v>
       </c>
       <c r="W79" s="92">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>142.9681123618769</v>
       </c>
       <c r="X79" s="92">
-        <f t="shared" ref="X79" si="91">X72/X13</f>
+        <f t="shared" ref="X79" si="92">X72/X13</f>
         <v>228.14563625289284</v>
       </c>
       <c r="Y79" s="92">
@@ -7249,7 +7251,7 @@
         <v>8.554082987476967</v>
       </c>
       <c r="Z79" s="92">
-        <f t="shared" ref="Z79" si="92">Z72/Z13</f>
+        <f t="shared" ref="Z79" si="93">Z72/Z13</f>
         <v>12.426675182278707</v>
       </c>
       <c r="AA79" s="92"/>
@@ -7260,7 +7262,7 @@
         <v>142</v>
       </c>
       <c r="X80" s="92">
-        <f t="shared" ref="X80" si="93">X74/X12</f>
+        <f t="shared" ref="X80" si="94">X74/X12</f>
         <v>210.81808995659659</v>
       </c>
       <c r="Y80" s="92">
@@ -7268,7 +7270,7 @@
         <v>7.0570335094924017</v>
       </c>
       <c r="Z80" s="92">
-        <f t="shared" ref="Z80" si="94">Z74/Z12</f>
+        <f t="shared" ref="Z80" si="95">Z74/Z12</f>
         <v>10.948094760036312</v>
       </c>
       <c r="AA80" s="92"/>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A683B-D524-4850-B95C-C77B920B8F42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976FD5A5-42B2-4E06-9D86-39455B239185}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="169">
   <si>
     <t>£BOWL</t>
   </si>
@@ -637,19 +637,50 @@
   </si>
   <si>
     <t>H224</t>
+  </si>
+  <si>
+    <t>Y/Y</t>
+  </si>
+  <si>
+    <t>Cashflow</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF per Share</t>
+  </si>
+  <si>
+    <t>Price - FCF</t>
+  </si>
+  <si>
+    <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Stockopedia</t>
+  </si>
+  <si>
+    <t>Puttstars written down as impairment due to poor performance FY24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="#\x"/>
     <numFmt numFmtId="168" formatCode="0.0\x"/>
     <numFmt numFmtId="169" formatCode="0.000\x"/>
+    <numFmt numFmtId="170" formatCode="0\x"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -994,7 +1025,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1247,10 +1278,6 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1260,37 +1287,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,6 +1315,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1408,8 +1443,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1424,8 +1459,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16681450" y="19050"/>
-          <a:ext cx="0" cy="13620750"/>
+          <a:off x="16998950" y="19050"/>
+          <a:ext cx="0" cy="17697450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1450,16 +1485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1474,8 +1509,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10306050" y="9525"/>
-          <a:ext cx="0" cy="14478000"/>
+          <a:off x="10915650" y="0"/>
+          <a:ext cx="0" cy="17878425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1823,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
-  <dimension ref="B2:U38"/>
+  <dimension ref="B2:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1853,47 +1888,51 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
-      <c r="H5" s="158" t="s">
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
+      <c r="H5" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="160"/>
-      <c r="O5" s="158" t="s">
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="158"/>
+      <c r="O5" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="160"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="158"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>3.2050000000000001</v>
+        <v>3.08</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="172" t="s">
+      <c r="H6" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="6"/>
+      <c r="O6" s="90">
+        <v>45627</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -1904,19 +1943,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <f>+'Financial Model'!P14</f>
-        <v>172.98253099999999</v>
+        <f>+'Financial Model'!AA14</f>
+        <v>171.64789200000001</v>
       </c>
       <c r="D7" s="39" t="str">
         <f>$C$28</f>
-        <v>H124</v>
-      </c>
-      <c r="H7" s="174" t="s">
+        <v>FY24</v>
+      </c>
+      <c r="H7" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>51</v>
@@ -1935,15 +1974,15 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>554.40901185500002</v>
+        <v>528.6755073600001</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="176" t="s">
+      <c r="H8" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
@@ -1964,19 +2003,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="14">
-        <f>+'Financial Model'!P68</f>
-        <v>41.404000000000003</v>
+        <f>+'Financial Model'!AA69</f>
+        <v>28.702000000000002</v>
       </c>
       <c r="D9" s="39" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>H124</v>
-      </c>
-      <c r="H9" s="176" t="s">
+        <v>FY24</v>
+      </c>
+      <c r="H9" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
@@ -1993,19 +2032,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="14">
-        <f>+'Financial Model'!P69</f>
+        <f>+'Financial Model'!AA70</f>
         <v>0</v>
       </c>
       <c r="D10" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>H124</v>
-      </c>
-      <c r="H10" s="176" t="s">
+        <v>FY24</v>
+      </c>
+      <c r="H10" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
@@ -2027,18 +2066,18 @@
       </c>
       <c r="C11" s="14">
         <f>C9-C10</f>
-        <v>41.404000000000003</v>
+        <v>28.702000000000002</v>
       </c>
       <c r="D11" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>H124</v>
-      </c>
-      <c r="H11" s="176" t="s">
+        <v>FY24</v>
+      </c>
+      <c r="H11" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
@@ -2056,15 +2095,15 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>513.00501185500002</v>
+        <v>499.9735073600001</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="177" t="s">
+      <c r="H12" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -2098,41 +2137,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="166"/>
+      <c r="D16" s="162"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="166"/>
-      <c r="H17" s="158" t="s">
+      <c r="D17" s="162"/>
+      <c r="H17" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="160"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="158"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="162"/>
       <c r="H18" s="81" t="s">
         <v>119</v>
       </c>
@@ -2143,8 +2182,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
       <c r="H19" s="85" t="s">
         <v>120</v>
       </c>
@@ -2176,11 +2215,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="160"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="158"/>
       <c r="H22" s="85" t="s">
         <v>122</v>
       </c>
@@ -2193,10 +2232,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="165" t="s">
+      <c r="C23" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="166"/>
+      <c r="D23" s="162"/>
       <c r="H23" s="86" t="s">
         <v>128</v>
       </c>
@@ -2209,10 +2248,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="165">
+      <c r="C24" s="161">
         <v>2010</v>
       </c>
-      <c r="D24" s="166"/>
+      <c r="D24" s="162"/>
       <c r="H24" s="81"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -2223,11 +2262,11 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="165">
-        <f>+'Financial Model'!Z25</f>
-        <v>71</v>
-      </c>
-      <c r="D25" s="166"/>
+      <c r="C25" s="161">
+        <f>+'Financial Model'!AA25</f>
+        <v>85</v>
+      </c>
+      <c r="D25" s="162"/>
       <c r="H25" s="81"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -2242,10 +2281,10 @@
         <v>114</v>
       </c>
       <c r="C26" s="169">
-        <f>+'Financial Model'!Z33</f>
-        <v>2787</v>
-      </c>
-      <c r="D26" s="166"/>
+        <f>+'Financial Model'!AA33</f>
+        <v>2826</v>
+      </c>
+      <c r="D26" s="162"/>
       <c r="H26" s="83"/>
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
@@ -2256,37 +2295,38 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="165">
+      <c r="C27" s="161">
         <v>2016</v>
       </c>
-      <c r="D27" s="166"/>
+      <c r="D27" s="162"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
         <v>139</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="D28" s="97">
-        <v>45446</v>
-      </c>
+        <v>45643</v>
+      </c>
+      <c r="E28" s="174"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="161" t="s">
+      <c r="C29" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="162"/>
-      <c r="H29" s="158" t="s">
+      <c r="D29" s="173"/>
+      <c r="H29" s="156" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="160"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="81" t="s">
@@ -2307,11 +2347,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="158" t="s">
+      <c r="B32" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="159"/>
-      <c r="D32" s="160"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="158"/>
       <c r="H32" s="85" t="s">
         <v>124</v>
       </c>
@@ -2324,11 +2364,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="163">
-        <f>C6/'Financial Model'!P66</f>
-        <v>3.6746491234738916</v>
-      </c>
-      <c r="D33" s="164"/>
+      <c r="C33" s="170">
+        <f>+C6/'Financial Model'!AA67</f>
+        <v>3.4734437591406349</v>
+      </c>
+      <c r="D33" s="171"/>
       <c r="H33" s="85"/>
       <c r="I33" s="82"/>
       <c r="J33" s="82"/>
@@ -2339,11 +2379,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="163">
-        <f>+C8/SUM('Financial Model'!O3:P3)</f>
-        <v>2.4726448567905202</v>
-      </c>
-      <c r="D34" s="164"/>
+      <c r="C34" s="170">
+        <f>+C8/'Financial Model'!AA3</f>
+        <v>2.2946085154883491</v>
+      </c>
+      <c r="D34" s="171"/>
       <c r="H34" s="81" t="s">
         <v>121</v>
       </c>
@@ -2356,11 +2396,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="163">
-        <f>+C12/SUM('Financial Model'!O3:P3)</f>
-        <v>2.2879844608348163</v>
-      </c>
-      <c r="D35" s="164"/>
+      <c r="C35" s="170">
+        <f>+C12/'Financial Model'!AA3</f>
+        <v>2.1700333220196271</v>
+      </c>
+      <c r="D35" s="171"/>
       <c r="H35" s="85" t="s">
         <v>127</v>
       </c>
@@ -2373,11 +2413,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="163">
-        <f>+C6/SUM('Financial Model'!O13:P13)</f>
-        <v>16.170113612901787</v>
-      </c>
-      <c r="D36" s="164"/>
+      <c r="C36" s="170">
+        <f>+C6/'Financial Model'!AA13</f>
+        <v>17.675543542627896</v>
+      </c>
+      <c r="D36" s="171"/>
       <c r="H36" s="81"/>
       <c r="I36" s="82"/>
       <c r="J36" s="82"/>
@@ -2385,14 +2425,14 @@
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="167">
-        <f>+C12/SUM('Financial Model'!O12:P12)</f>
-        <v>15.009801973638021</v>
-      </c>
-      <c r="D37" s="168"/>
+      <c r="C37" s="170">
+        <f>+C12/'Financial Model'!AA12</f>
+        <v>16.715931372785036</v>
+      </c>
+      <c r="D37" s="171"/>
       <c r="H37" s="81"/>
       <c r="I37" s="82"/>
       <c r="J37" s="82"/>
@@ -2400,14 +2440,49 @@
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="170">
+        <f>+C6/'Financial Model'!AA90</f>
+        <v>32.448014936475793</v>
+      </c>
+      <c r="D38" s="171"/>
       <c r="H38" s="83"/>
       <c r="I38" s="84"/>
       <c r="J38" s="84"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9"/>
     </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="182">
+        <v>61</v>
+      </c>
+      <c r="D39" s="183"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2422,22 +2497,6 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
@@ -2453,13 +2512,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
-  <dimension ref="A1:CW85"/>
+  <dimension ref="A1:CW91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomRight" activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2644,7 +2703,10 @@
       <c r="P2" s="22">
         <v>45382</v>
       </c>
-      <c r="Q2" s="156"/>
+      <c r="Q2" s="35">
+        <f>+AA2</f>
+        <v>45565</v>
+      </c>
       <c r="S2" s="22">
         <v>42643</v>
       </c>
@@ -2669,7 +2731,9 @@
       <c r="Z2" s="22">
         <v>45199</v>
       </c>
-      <c r="AA2" s="22"/>
+      <c r="AA2" s="22">
+        <v>45565</v>
+      </c>
       <c r="AB2" s="131" t="s">
         <v>67</v>
       </c>
@@ -2765,7 +2829,7 @@
       </c>
       <c r="Q3" s="30">
         <f>+AA3-P3</f>
-        <v>111.21300000000001</v>
+        <v>111.212</v>
       </c>
       <c r="S3" s="12">
         <v>104.803</v>
@@ -2792,7 +2856,7 @@
         <v>215.08199999999999</v>
       </c>
       <c r="AA3" s="12">
-        <v>230.4</v>
+        <v>230.399</v>
       </c>
       <c r="AB3" s="132">
         <f>Z3*(1+AB21)</f>
@@ -2904,6 +2968,10 @@
         <f>19.825+22.269</f>
         <v>42.093999999999994</v>
       </c>
+      <c r="Q4" s="31">
+        <f>+AA4-P4</f>
+        <v>42.807000000000002</v>
+      </c>
       <c r="S4" s="14">
         <v>15.375999999999999</v>
       </c>
@@ -2929,7 +2997,10 @@
         <f>37.491+40.717</f>
         <v>78.207999999999998</v>
       </c>
-      <c r="AA4" s="14"/>
+      <c r="AA4" s="14">
+        <f>39.178+45.723</f>
+        <v>84.900999999999996</v>
+      </c>
       <c r="AB4" s="133">
         <f>AB3*0.16</f>
         <v>38.198563200000002</v>
@@ -3045,102 +3116,108 @@
         <f t="shared" si="3"/>
         <v>77.093000000000004</v>
       </c>
-      <c r="Q5" s="61"/>
+      <c r="Q5" s="30">
+        <f t="shared" ref="Q5" si="4">Q3-Q4</f>
+        <v>68.405000000000001</v>
+      </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:Z5" si="4">S3-S4</f>
+        <f t="shared" ref="S5:AA5" si="5">S3-S4</f>
         <v>89.426999999999992</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98.619</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.8</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111.352</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.930000000000007</v>
       </c>
       <c r="X5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.621000000000002</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>164.34900000000002</v>
       </c>
       <c r="Z5" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>136.874</v>
       </c>
-      <c r="AA5" s="12"/>
+      <c r="AA5" s="12">
+        <f t="shared" si="5"/>
+        <v>145.49799999999999</v>
+      </c>
       <c r="AB5" s="132">
         <f>AB3-AB4</f>
         <v>200.54245680000002</v>
       </c>
       <c r="AC5" s="12">
-        <f t="shared" ref="AC5:AQ5" si="5">AC3-AC4</f>
+        <f t="shared" ref="AC5:AQ5" si="6">AC3-AC4</f>
         <v>236.11486877999999</v>
       </c>
       <c r="AD5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>283.33784253599998</v>
       </c>
       <c r="AE5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>340.00541104319996</v>
       </c>
       <c r="AF5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>391.00622269967994</v>
       </c>
       <c r="AG5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>430.10684496964797</v>
       </c>
       <c r="AH5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>473.11752946661278</v>
       </c>
       <c r="AI5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>510.96693182394188</v>
       </c>
       <c r="AJ5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>536.51527841513894</v>
       </c>
       <c r="AK5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>563.34104233589596</v>
       </c>
       <c r="AL5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>574.60786318261387</v>
       </c>
       <c r="AM5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>586.10002044626617</v>
       </c>
       <c r="AN5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>597.82202085519145</v>
       </c>
       <c r="AO5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>609.77846127229532</v>
       </c>
       <c r="AP5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>621.97403049774118</v>
       </c>
       <c r="AQ5" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>634.41351110769597</v>
       </c>
     </row>
@@ -3182,12 +3259,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="31">
-        <f t="shared" ref="O6:O11" si="6">Z6-N6</f>
+        <f t="shared" ref="O6:O11" si="7">Z6-N6</f>
         <v>0</v>
       </c>
       <c r="P6" s="14">
         <v>0</v>
       </c>
+      <c r="Q6" s="31">
+        <f>+AA6-P6</f>
+        <v>0.60699999999999998</v>
+      </c>
       <c r="S6" s="14">
         <v>1.395</v>
       </c>
@@ -3212,70 +3293,72 @@
       <c r="Z6" s="14">
         <v>0</v>
       </c>
-      <c r="AA6" s="14"/>
+      <c r="AA6" s="14">
+        <v>0.60699999999999998</v>
+      </c>
       <c r="AB6" s="133">
         <f>-AVERAGE(V6:Z6)</f>
         <v>-0.5706</v>
       </c>
       <c r="AC6" s="14">
-        <f t="shared" ref="AC6:AI6" si="7">AVERAGE(S6:AB6)</f>
-        <v>0.41748888888888885</v>
+        <f t="shared" ref="AC6:AI6" si="8">AVERAGE(S6:AB6)</f>
+        <v>0.43643999999999999</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="7"/>
-        <v>0.30887654320987656</v>
+        <f t="shared" si="8"/>
+        <v>0.34058400000000005</v>
       </c>
       <c r="AE6" s="14">
-        <f t="shared" si="7"/>
-        <v>0.33430727023319612</v>
+        <f t="shared" si="8"/>
+        <v>0.36664240000000003</v>
       </c>
       <c r="AF6" s="14">
-        <f t="shared" si="7"/>
-        <v>0.37145252248132904</v>
+        <f t="shared" si="8"/>
+        <v>0.40330664000000011</v>
       </c>
       <c r="AG6" s="14">
-        <f t="shared" si="7"/>
-        <v>0.41272502497925445</v>
+        <f t="shared" si="8"/>
+        <v>0.44363730400000012</v>
       </c>
       <c r="AH6" s="14">
-        <f t="shared" si="7"/>
-        <v>0.45858336108806053</v>
+        <f t="shared" si="8"/>
+        <v>0.48800103440000014</v>
       </c>
       <c r="AI6" s="14">
-        <f t="shared" si="7"/>
-        <v>0.19687040120895619</v>
+        <f t="shared" si="8"/>
+        <v>0.25540113784000007</v>
       </c>
       <c r="AJ6" s="14">
         <f>AVERAGE(AB6:AI6)</f>
-        <v>0.24121300151119521</v>
+        <v>0.27042656453000002</v>
       </c>
       <c r="AK6" s="14">
-        <f t="shared" ref="AK6:AQ6" si="8">AVERAGE(AC6:AJ6)</f>
-        <v>0.34268962670009467</v>
+        <f t="shared" ref="AK6:AQ6" si="9">AVERAGE(AC6:AJ6)</f>
+        <v>0.37555488509625012</v>
       </c>
       <c r="AL6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.33333971892649533</v>
+        <f t="shared" si="9"/>
+        <v>0.36794424573328138</v>
       </c>
       <c r="AM6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.33639761589107264</v>
+        <f t="shared" si="9"/>
+        <v>0.37136427644994152</v>
       </c>
       <c r="AN6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.33665890909830726</v>
+        <f t="shared" si="9"/>
+        <v>0.37195451100618415</v>
       </c>
       <c r="AO6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.33230970742542953</v>
+        <f t="shared" si="9"/>
+        <v>0.36803549488195719</v>
       </c>
       <c r="AP6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.32225779273120136</v>
+        <f t="shared" si="9"/>
+        <v>0.35858526874220181</v>
       </c>
       <c r="AQ6" s="14">
-        <f t="shared" si="8"/>
-        <v>0.30521709668659402</v>
+        <f t="shared" si="9"/>
+        <v>0.34240829803497702</v>
       </c>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.2">
@@ -3315,12 +3398,16 @@
         <v>58.933999999999997</v>
       </c>
       <c r="O7" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.855000000000004</v>
       </c>
       <c r="P7" s="14">
         <v>42.725000000000001</v>
       </c>
+      <c r="Q7" s="31">
+        <f>+AA7-P7</f>
+        <v>49.874000000000002</v>
+      </c>
       <c r="S7" s="14">
         <v>76.444000000000003</v>
       </c>
@@ -3345,7 +3432,9 @@
       <c r="Z7" s="14">
         <v>82.789000000000001</v>
       </c>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="14">
+        <v>92.599000000000004</v>
+      </c>
       <c r="AB7" s="133">
         <f>AB5*0.62</f>
         <v>124.33632321600001</v>
@@ -3355,59 +3444,59 @@
         <v>148.7523673314</v>
       </c>
       <c r="AD7" s="27">
-        <f t="shared" ref="AD7:AQ7" si="9">AD5*0.63</f>
+        <f t="shared" ref="AD7:AQ7" si="10">AD5*0.63</f>
         <v>178.50284079767999</v>
       </c>
       <c r="AE7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>214.20340895721597</v>
       </c>
       <c r="AF7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>246.33392030079835</v>
       </c>
       <c r="AG7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>270.9673123308782</v>
       </c>
       <c r="AH7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>298.06404356396604</v>
       </c>
       <c r="AI7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>321.90916704908341</v>
       </c>
       <c r="AJ7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>338.00462540153751</v>
       </c>
       <c r="AK7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>354.90485667161448</v>
       </c>
       <c r="AL7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>362.00295380504673</v>
       </c>
       <c r="AM7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>369.24301288114771</v>
       </c>
       <c r="AN7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>376.62787313877061</v>
       </c>
       <c r="AO7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>384.16043060154607</v>
       </c>
       <c r="AP7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>391.84363921357692</v>
       </c>
       <c r="AQ7" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>399.68051199784844</v>
       </c>
     </row>
@@ -3425,138 +3514,144 @@
         <v>11.681000000000012</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" ref="H8:P8" si="10">H5+H6-H7</f>
+        <f t="shared" ref="H8:P8" si="11">H5+H6-H7</f>
         <v>19.176000000000002</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-9.3150000000000031</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-10.022</v>
       </c>
       <c r="K8" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19.602000000000004</v>
       </c>
       <c r="L8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>37.616</v>
       </c>
       <c r="M8" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17.833000000000013</v>
       </c>
       <c r="N8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32.146000000000015</v>
       </c>
       <c r="O8" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21.938999999999986</v>
       </c>
       <c r="P8" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34.368000000000002</v>
       </c>
-      <c r="Q8" s="61"/>
+      <c r="Q8" s="30">
+        <f t="shared" ref="Q8" si="12">Q5+Q6-Q7</f>
+        <v>19.137999999999998</v>
+      </c>
       <c r="S8" s="12">
-        <f t="shared" ref="S8:AB8" si="11">S5+S6-S7</f>
+        <f t="shared" ref="S8:AB8" si="13">S5+S6-S7</f>
         <v>14.377999999999986</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22.200999999999993</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24.891999999999996</v>
       </c>
       <c r="V8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28.444000000000003</v>
       </c>
       <c r="W8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.8610000000000042</v>
       </c>
       <c r="X8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.5800000000000054</v>
       </c>
       <c r="Y8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>55.449000000000012</v>
       </c>
       <c r="Z8" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>54.084999999999994</v>
       </c>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="12">
+        <f t="shared" si="13"/>
+        <v>53.505999999999986</v>
+      </c>
       <c r="AB8" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75.635533584000001</v>
       </c>
       <c r="AC8" s="12">
-        <f t="shared" ref="AC8:AQ8" si="12">AC5+AC6-AC7</f>
-        <v>87.779990337488897</v>
+        <f t="shared" ref="AC8:AQ8" si="14">AC5+AC6-AC7</f>
+        <v>87.798941448600004</v>
       </c>
       <c r="AD8" s="12">
-        <f t="shared" si="12"/>
-        <v>105.14387828152985</v>
+        <f t="shared" si="14"/>
+        <v>105.17558573831997</v>
       </c>
       <c r="AE8" s="12">
-        <f t="shared" si="12"/>
-        <v>126.13630935621717</v>
+        <f t="shared" si="14"/>
+        <v>126.16864448598398</v>
       </c>
       <c r="AF8" s="12">
-        <f t="shared" si="12"/>
-        <v>145.0437549213629</v>
+        <f t="shared" si="14"/>
+        <v>145.07560903888157</v>
       </c>
       <c r="AG8" s="12">
-        <f t="shared" si="12"/>
-        <v>159.552257663749</v>
+        <f t="shared" si="14"/>
+        <v>159.58316994276976</v>
       </c>
       <c r="AH8" s="12">
-        <f t="shared" si="12"/>
-        <v>175.51206926373482</v>
+        <f t="shared" si="14"/>
+        <v>175.54148693704673</v>
       </c>
       <c r="AI8" s="12">
-        <f t="shared" si="12"/>
-        <v>189.25463517606744</v>
+        <f t="shared" si="14"/>
+        <v>189.31316591269848</v>
       </c>
       <c r="AJ8" s="12">
-        <f t="shared" si="12"/>
-        <v>198.75186601511257</v>
+        <f t="shared" si="14"/>
+        <v>198.78107957813143</v>
       </c>
       <c r="AK8" s="12">
-        <f t="shared" si="12"/>
-        <v>208.7788752909816</v>
+        <f t="shared" si="14"/>
+        <v>208.8117405493777</v>
       </c>
       <c r="AL8" s="12">
-        <f t="shared" si="12"/>
-        <v>212.93824909649362</v>
+        <f t="shared" si="14"/>
+        <v>212.97285362330041</v>
       </c>
       <c r="AM8" s="12">
-        <f t="shared" si="12"/>
-        <v>217.19340518100955</v>
+        <f t="shared" si="14"/>
+        <v>217.22837184156845</v>
       </c>
       <c r="AN8" s="12">
-        <f t="shared" si="12"/>
-        <v>221.53080662551918</v>
+        <f t="shared" si="14"/>
+        <v>221.566102227427</v>
       </c>
       <c r="AO8" s="12">
-        <f t="shared" si="12"/>
-        <v>225.9503403781747</v>
+        <f t="shared" si="14"/>
+        <v>225.9860661656312</v>
       </c>
       <c r="AP8" s="12">
-        <f t="shared" si="12"/>
-        <v>230.45264907689545</v>
+        <f t="shared" si="14"/>
+        <v>230.48897655290648</v>
       </c>
       <c r="AQ8" s="12">
-        <f t="shared" si="12"/>
-        <v>235.03821620653417</v>
+        <f t="shared" si="14"/>
+        <v>235.07540740788255</v>
       </c>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.2">
@@ -3598,13 +3693,17 @@
         <v>4.4569999999999999</v>
       </c>
       <c r="O9" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5480000000000009</v>
       </c>
       <c r="P9" s="14">
         <f>-1.029+5.869</f>
         <v>4.84</v>
       </c>
+      <c r="Q9" s="31">
+        <f>+AA9-P9</f>
+        <v>5.9080000000000013</v>
+      </c>
       <c r="S9" s="14">
         <f>-0.022+11.905-0.079</f>
         <v>11.803999999999998</v>
@@ -3636,7 +3735,10 @@
         <f>10.445-1.44</f>
         <v>9.0050000000000008</v>
       </c>
-      <c r="AA9" s="14"/>
+      <c r="AA9" s="14">
+        <f>-1.722+12.47</f>
+        <v>10.748000000000001</v>
+      </c>
       <c r="AB9" s="133">
         <f>-AVERAGE(W9:Z9)</f>
         <v>-8.8930000000000007</v>
@@ -3701,137 +3803,144 @@
         <v>11.20300000000001</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" ref="H10:P10" si="13">H8-H9</f>
+        <f t="shared" ref="H10:P10" si="15">H8-H9</f>
         <v>14.468000000000004</v>
       </c>
       <c r="I10" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-13.272000000000006</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-14.489000000000001</v>
       </c>
       <c r="K10" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14.951000000000004</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33.436999999999998</v>
       </c>
       <c r="M10" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13.228000000000014</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>27.689000000000014</v>
       </c>
       <c r="O10" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17.390999999999984</v>
       </c>
       <c r="P10" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29.528000000000002</v>
       </c>
+      <c r="Q10" s="31">
+        <f t="shared" ref="Q10" si="16">Q8-Q9</f>
+        <v>13.229999999999997</v>
+      </c>
       <c r="S10" s="14">
-        <f t="shared" ref="S10:AB10" si="14">S8-S9</f>
+        <f t="shared" ref="S10:AB10" si="17">S8-S9</f>
         <v>2.5739999999999874</v>
       </c>
       <c r="T10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20.999999999999993</v>
       </c>
       <c r="U10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23.933999999999997</v>
       </c>
       <c r="V10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27.588000000000001</v>
       </c>
       <c r="W10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1960000000000033</v>
       </c>
       <c r="X10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.46200000000000507</v>
       </c>
       <c r="Y10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>46.665000000000013</v>
       </c>
       <c r="Z10" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>45.079999999999991</v>
       </c>
-      <c r="AA10" s="14"/>
+      <c r="AA10" s="14">
+        <f t="shared" si="17"/>
+        <v>42.757999999999981</v>
+      </c>
       <c r="AB10" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>84.528533584000002</v>
       </c>
       <c r="AC10" s="14">
-        <f t="shared" ref="AC10:AQ10" si="15">AC8-AC9</f>
-        <v>84.879990337488891</v>
+        <f t="shared" ref="AC10:AQ10" si="18">AC8-AC9</f>
+        <v>84.898941448599999</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="15"/>
-        <v>101.24387828152985</v>
+        <f t="shared" si="18"/>
+        <v>101.27558573831996</v>
       </c>
       <c r="AE10" s="14">
-        <f t="shared" si="15"/>
-        <v>121.23630935621716</v>
+        <f t="shared" si="18"/>
+        <v>121.26864448598397</v>
       </c>
       <c r="AF10" s="14">
-        <f t="shared" si="15"/>
-        <v>139.1437549213629</v>
+        <f t="shared" si="18"/>
+        <v>139.17560903888156</v>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" si="15"/>
-        <v>152.652257663749</v>
+        <f t="shared" si="18"/>
+        <v>152.68316994276975</v>
       </c>
       <c r="AH10" s="14">
-        <f t="shared" si="15"/>
-        <v>167.61206926373481</v>
+        <f t="shared" si="18"/>
+        <v>167.64148693704672</v>
       </c>
       <c r="AI10" s="14">
-        <f t="shared" si="15"/>
-        <v>180.35463517606743</v>
+        <f t="shared" si="18"/>
+        <v>180.41316591269847</v>
       </c>
       <c r="AJ10" s="14">
-        <f t="shared" si="15"/>
-        <v>188.85186601511256</v>
+        <f t="shared" si="18"/>
+        <v>188.88107957813142</v>
       </c>
       <c r="AK10" s="14">
-        <f t="shared" si="15"/>
-        <v>197.8788752909816</v>
+        <f t="shared" si="18"/>
+        <v>197.9117405493777</v>
       </c>
       <c r="AL10" s="14">
-        <f t="shared" si="15"/>
-        <v>201.03824909649362</v>
+        <f t="shared" si="18"/>
+        <v>201.0728536233004</v>
       </c>
       <c r="AM10" s="14">
-        <f t="shared" si="15"/>
-        <v>204.29340518100955</v>
+        <f t="shared" si="18"/>
+        <v>204.32837184156844</v>
       </c>
       <c r="AN10" s="14">
-        <f t="shared" si="15"/>
-        <v>207.63080662551917</v>
+        <f t="shared" si="18"/>
+        <v>207.66610222742699</v>
       </c>
       <c r="AO10" s="14">
-        <f t="shared" si="15"/>
-        <v>211.0503403781747</v>
+        <f t="shared" si="18"/>
+        <v>211.08606616563119</v>
       </c>
       <c r="AP10" s="14">
-        <f t="shared" si="15"/>
-        <v>214.55264907689545</v>
+        <f t="shared" si="18"/>
+        <v>214.58897655290647</v>
       </c>
       <c r="AQ10" s="14">
-        <f t="shared" si="15"/>
-        <v>218.13821620653417</v>
+        <f t="shared" si="18"/>
+        <v>218.17540740788255</v>
       </c>
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.2">
@@ -3871,12 +3980,16 @@
         <v>5.7690000000000001</v>
       </c>
       <c r="O11" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.16</v>
       </c>
       <c r="P11" s="14">
         <v>7.5810000000000004</v>
       </c>
+      <c r="Q11" s="31">
+        <f>+AA11-P11</f>
+        <v>5.2670000000000003</v>
+      </c>
       <c r="S11" s="14">
         <v>1.387</v>
       </c>
@@ -3901,70 +4014,72 @@
       <c r="Z11" s="14">
         <v>10.929</v>
       </c>
-      <c r="AA11" s="14"/>
+      <c r="AA11" s="14">
+        <v>12.848000000000001</v>
+      </c>
       <c r="AB11" s="133">
         <f>AB10-AB12</f>
         <v>16.905706716799997</v>
       </c>
       <c r="AC11" s="27">
         <f>AC10*(1-(1-AC19))</f>
-        <v>16.975998067497773</v>
+        <v>16.979788289719995</v>
       </c>
       <c r="AD11" s="27">
-        <f t="shared" ref="AD11:AQ11" si="16">AD10*(1-(1-AD19))</f>
-        <v>20.248775656305966</v>
+        <f t="shared" ref="AD11:AQ11" si="19">AD10*(1-(1-AD19))</f>
+        <v>20.255117147663988</v>
       </c>
       <c r="AE11" s="27">
-        <f t="shared" si="16"/>
-        <v>24.247261871243428</v>
+        <f t="shared" si="19"/>
+        <v>24.253728897196787</v>
       </c>
       <c r="AF11" s="27">
-        <f t="shared" si="16"/>
-        <v>27.828750984272574</v>
+        <f t="shared" si="19"/>
+        <v>27.835121807776307</v>
       </c>
       <c r="AG11" s="27">
-        <f t="shared" si="16"/>
-        <v>30.530451532749794</v>
+        <f t="shared" si="19"/>
+        <v>30.536633988553945</v>
       </c>
       <c r="AH11" s="27">
-        <f t="shared" si="16"/>
-        <v>33.522413852746958</v>
+        <f t="shared" si="19"/>
+        <v>33.528297387409339</v>
       </c>
       <c r="AI11" s="27">
-        <f t="shared" si="16"/>
-        <v>36.070927035213479</v>
+        <f t="shared" si="19"/>
+        <v>36.082633182539688</v>
       </c>
       <c r="AJ11" s="27">
-        <f t="shared" si="16"/>
-        <v>37.770373203022501</v>
+        <f t="shared" si="19"/>
+        <v>37.776215915626274</v>
       </c>
       <c r="AK11" s="27">
-        <f t="shared" si="16"/>
-        <v>39.575775058196314</v>
+        <f t="shared" si="19"/>
+        <v>39.582348109875532</v>
       </c>
       <c r="AL11" s="27">
-        <f t="shared" si="16"/>
-        <v>40.207649819298716</v>
+        <f t="shared" si="19"/>
+        <v>40.214570724660071</v>
       </c>
       <c r="AM11" s="27">
-        <f t="shared" si="16"/>
-        <v>40.858681036201901</v>
+        <f t="shared" si="19"/>
+        <v>40.865674368313677</v>
       </c>
       <c r="AN11" s="27">
-        <f t="shared" si="16"/>
-        <v>41.526161325103828</v>
+        <f t="shared" si="19"/>
+        <v>41.533220445485391</v>
       </c>
       <c r="AO11" s="27">
-        <f t="shared" si="16"/>
-        <v>42.210068075634929</v>
+        <f t="shared" si="19"/>
+        <v>42.21721323312623</v>
       </c>
       <c r="AP11" s="27">
-        <f t="shared" si="16"/>
-        <v>42.910529815379078</v>
+        <f t="shared" si="19"/>
+        <v>42.917795310581283</v>
       </c>
       <c r="AQ11" s="27">
-        <f t="shared" si="16"/>
-        <v>43.627643241306821</v>
+        <f t="shared" si="19"/>
+        <v>43.635081481576499</v>
       </c>
     </row>
     <row r="12" spans="1:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3981,371 +4096,377 @@
         <v>8.910000000000009</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" ref="H12:P12" si="17">H10-H11</f>
+        <f t="shared" ref="H12:P12" si="20">H10-H11</f>
         <v>11.520000000000003</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-10.135000000000005</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-11.633000000000001</v>
       </c>
       <c r="K12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>13.361000000000004</v>
       </c>
       <c r="L12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.024999999999999</v>
       </c>
       <c r="M12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10.426000000000013</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.920000000000016</v>
       </c>
       <c r="O12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>12.230999999999984</v>
       </c>
       <c r="P12" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.947000000000003</v>
       </c>
-      <c r="Q12" s="157"/>
+      <c r="Q12" s="30">
+        <f t="shared" ref="Q12" si="21">Q10-Q11</f>
+        <v>7.9629999999999965</v>
+      </c>
       <c r="R12" s="87"/>
       <c r="S12" s="12">
-        <f t="shared" ref="S12:Z12" si="18">S10-S11</f>
+        <f t="shared" ref="S12:AA12" si="22">S10-S11</f>
         <v>1.1869999999999874</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>18.151999999999994</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>18.783999999999999</v>
       </c>
       <c r="V12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>22.285</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.3850000000000033</v>
       </c>
       <c r="X12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.7280000000000051</v>
       </c>
       <c r="Y12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>37.451000000000015</v>
       </c>
       <c r="Z12" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>34.150999999999989</v>
       </c>
-      <c r="AA12" s="12"/>
+      <c r="AA12" s="12">
+        <f t="shared" si="22"/>
+        <v>29.909999999999982</v>
+      </c>
       <c r="AB12" s="132">
         <f>AB10*(1-AB19)</f>
         <v>67.622826867200004</v>
       </c>
       <c r="AC12" s="12">
-        <f t="shared" ref="AC12:AQ12" si="19">AC10-AC11</f>
-        <v>67.903992269991122</v>
+        <f t="shared" ref="AC12:AQ12" si="23">AC10-AC11</f>
+        <v>67.919153158880007</v>
       </c>
       <c r="AD12" s="12">
-        <f t="shared" si="19"/>
-        <v>80.995102625223879</v>
+        <f t="shared" si="23"/>
+        <v>81.02046859065598</v>
       </c>
       <c r="AE12" s="12">
-        <f t="shared" si="19"/>
-        <v>96.989047484973739</v>
+        <f t="shared" si="23"/>
+        <v>97.014915588787176</v>
       </c>
       <c r="AF12" s="12">
-        <f t="shared" si="19"/>
-        <v>111.31500393709032</v>
+        <f t="shared" si="23"/>
+        <v>111.34048723110526</v>
       </c>
       <c r="AG12" s="12">
-        <f t="shared" si="19"/>
-        <v>122.1218061309992</v>
+        <f t="shared" si="23"/>
+        <v>122.14653595421581</v>
       </c>
       <c r="AH12" s="12">
-        <f t="shared" si="19"/>
-        <v>134.08965541098786</v>
+        <f t="shared" si="23"/>
+        <v>134.11318954963738</v>
       </c>
       <c r="AI12" s="12">
-        <f t="shared" si="19"/>
-        <v>144.28370814085395</v>
+        <f t="shared" si="23"/>
+        <v>144.33053273015878</v>
       </c>
       <c r="AJ12" s="12">
-        <f t="shared" si="19"/>
-        <v>151.08149281209006</v>
+        <f t="shared" si="23"/>
+        <v>151.10486366250515</v>
       </c>
       <c r="AK12" s="12">
-        <f t="shared" si="19"/>
-        <v>158.30310023278528</v>
+        <f t="shared" si="23"/>
+        <v>158.32939243950216</v>
       </c>
       <c r="AL12" s="12">
-        <f t="shared" si="19"/>
-        <v>160.83059927719489</v>
+        <f t="shared" si="23"/>
+        <v>160.85828289864034</v>
       </c>
       <c r="AM12" s="12">
-        <f t="shared" si="19"/>
-        <v>163.43472414480766</v>
+        <f t="shared" si="23"/>
+        <v>163.46269747325476</v>
       </c>
       <c r="AN12" s="12">
-        <f t="shared" si="19"/>
-        <v>166.10464530041534</v>
+        <f t="shared" si="23"/>
+        <v>166.13288178194159</v>
       </c>
       <c r="AO12" s="12">
-        <f t="shared" si="19"/>
-        <v>168.84027230253977</v>
+        <f t="shared" si="23"/>
+        <v>168.86885293250498</v>
       </c>
       <c r="AP12" s="12">
-        <f t="shared" si="19"/>
-        <v>171.64211926151637</v>
+        <f t="shared" si="23"/>
+        <v>171.67118124232519</v>
       </c>
       <c r="AQ12" s="12">
-        <f t="shared" si="19"/>
-        <v>174.51057296522734</v>
+        <f t="shared" si="23"/>
+        <v>174.54032592630605</v>
       </c>
       <c r="AR12" s="12">
-        <f t="shared" ref="AR12:BW12" si="20">AQ12*(1+$AT$15)</f>
-        <v>171.02036150592278</v>
+        <f t="shared" ref="AR12:BW12" si="24">AQ12*(1+$AT$15)</f>
+        <v>171.04951940777994</v>
       </c>
       <c r="AS12" s="12">
-        <f t="shared" si="20"/>
-        <v>167.59995427580432</v>
+        <f t="shared" si="24"/>
+        <v>167.62852901962432</v>
       </c>
       <c r="AT12" s="12">
-        <f t="shared" si="20"/>
-        <v>164.24795519028822</v>
+        <f t="shared" si="24"/>
+        <v>164.27595843923183</v>
       </c>
       <c r="AU12" s="12">
-        <f t="shared" si="20"/>
-        <v>160.96299608648246</v>
+        <f t="shared" si="24"/>
+        <v>160.99043927044718</v>
       </c>
       <c r="AV12" s="12">
-        <f t="shared" si="20"/>
-        <v>157.74373616475282</v>
+        <f t="shared" si="24"/>
+        <v>157.77063048503823</v>
       </c>
       <c r="AW12" s="12">
-        <f t="shared" si="20"/>
-        <v>154.58886144145777</v>
+        <f t="shared" si="24"/>
+        <v>154.61521787533746</v>
       </c>
       <c r="AX12" s="12">
-        <f t="shared" si="20"/>
-        <v>151.49708421262861</v>
+        <f t="shared" si="24"/>
+        <v>151.52291351783072</v>
       </c>
       <c r="AY12" s="12">
-        <f t="shared" si="20"/>
-        <v>148.46714252837603</v>
+        <f t="shared" si="24"/>
+        <v>148.49245524747411</v>
       </c>
       <c r="AZ12" s="12">
-        <f t="shared" si="20"/>
-        <v>145.4977996778085</v>
+        <f t="shared" si="24"/>
+        <v>145.52260614252464</v>
       </c>
       <c r="BA12" s="12">
-        <f t="shared" si="20"/>
-        <v>142.58784368425233</v>
+        <f t="shared" si="24"/>
+        <v>142.61215401967414</v>
       </c>
       <c r="BB12" s="12">
-        <f t="shared" si="20"/>
-        <v>139.73608681056729</v>
+        <f t="shared" si="24"/>
+        <v>139.75991093928064</v>
       </c>
       <c r="BC12" s="12">
-        <f t="shared" si="20"/>
-        <v>136.94136507435593</v>
+        <f t="shared" si="24"/>
+        <v>136.96471272049502</v>
       </c>
       <c r="BD12" s="12">
-        <f t="shared" si="20"/>
-        <v>134.20253777286879</v>
+        <f t="shared" si="24"/>
+        <v>134.2254184660851</v>
       </c>
       <c r="BE12" s="12">
-        <f t="shared" si="20"/>
-        <v>131.51848701741142</v>
+        <f t="shared" si="24"/>
+        <v>131.54091009676341</v>
       </c>
       <c r="BF12" s="12">
-        <f t="shared" si="20"/>
-        <v>128.88811727706317</v>
+        <f t="shared" si="24"/>
+        <v>128.91009189482813</v>
       </c>
       <c r="BG12" s="12">
-        <f t="shared" si="20"/>
-        <v>126.31035493152191</v>
+        <f t="shared" si="24"/>
+        <v>126.33189005693156</v>
       </c>
       <c r="BH12" s="12">
-        <f t="shared" si="20"/>
-        <v>123.78414783289148</v>
+        <f t="shared" si="24"/>
+        <v>123.80525225579292</v>
       </c>
       <c r="BI12" s="12">
-        <f t="shared" si="20"/>
-        <v>121.30846487623364</v>
+        <f t="shared" si="24"/>
+        <v>121.32914721067706</v>
       </c>
       <c r="BJ12" s="12">
-        <f t="shared" si="20"/>
-        <v>118.88229557870896</v>
+        <f t="shared" si="24"/>
+        <v>118.90256426646351</v>
       </c>
       <c r="BK12" s="12">
-        <f t="shared" si="20"/>
-        <v>116.50464966713479</v>
+        <f t="shared" si="24"/>
+        <v>116.52451298113424</v>
       </c>
       <c r="BL12" s="12">
-        <f t="shared" si="20"/>
-        <v>114.17455667379208</v>
+        <f t="shared" si="24"/>
+        <v>114.19402272151154</v>
       </c>
       <c r="BM12" s="12">
-        <f t="shared" si="20"/>
-        <v>111.89106554031623</v>
+        <f t="shared" si="24"/>
+        <v>111.91014226708131</v>
       </c>
       <c r="BN12" s="12">
-        <f t="shared" si="20"/>
-        <v>109.65324422950991</v>
+        <f t="shared" si="24"/>
+        <v>109.67193942173968</v>
       </c>
       <c r="BO12" s="12">
-        <f t="shared" si="20"/>
-        <v>107.46017934491971</v>
+        <f t="shared" si="24"/>
+        <v>107.47850063330489</v>
       </c>
       <c r="BP12" s="12">
-        <f t="shared" si="20"/>
-        <v>105.31097575802131</v>
+        <f t="shared" si="24"/>
+        <v>105.32893062063879</v>
       </c>
       <c r="BQ12" s="12">
-        <f t="shared" si="20"/>
-        <v>103.20475624286088</v>
+        <f t="shared" si="24"/>
+        <v>103.22235200822601</v>
       </c>
       <c r="BR12" s="12">
-        <f t="shared" si="20"/>
-        <v>101.14066111800366</v>
+        <f t="shared" si="24"/>
+        <v>101.15790496806149</v>
       </c>
       <c r="BS12" s="12">
-        <f t="shared" si="20"/>
-        <v>99.117847895643592</v>
+        <f t="shared" si="24"/>
+        <v>99.134746868700262</v>
       </c>
       <c r="BT12" s="12">
-        <f t="shared" si="20"/>
-        <v>97.135490937730722</v>
+        <f t="shared" si="24"/>
+        <v>97.152051931326255</v>
       </c>
       <c r="BU12" s="12">
-        <f t="shared" si="20"/>
-        <v>95.1927811189761</v>
+        <f t="shared" si="24"/>
+        <v>95.209010892699723</v>
       </c>
       <c r="BV12" s="12">
-        <f t="shared" si="20"/>
-        <v>93.288925496596576</v>
+        <f t="shared" si="24"/>
+        <v>93.304830674845732</v>
       </c>
       <c r="BW12" s="12">
-        <f t="shared" si="20"/>
-        <v>91.423146986664648</v>
+        <f t="shared" si="24"/>
+        <v>91.438734061348811</v>
       </c>
       <c r="BX12" s="12">
-        <f t="shared" ref="BX12:CW12" si="21">BW12*(1+$AT$15)</f>
-        <v>89.594684046931349</v>
+        <f t="shared" ref="BX12:CW12" si="25">BW12*(1+$AT$15)</f>
+        <v>89.609959380121836</v>
       </c>
       <c r="BY12" s="12">
-        <f t="shared" si="21"/>
-        <v>87.80279036599272</v>
+        <f t="shared" si="25"/>
+        <v>87.817760192519401</v>
       </c>
       <c r="BZ12" s="12">
-        <f t="shared" si="21"/>
-        <v>86.046734558672867</v>
+        <f t="shared" si="25"/>
+        <v>86.061404988669011</v>
       </c>
       <c r="CA12" s="12">
-        <f t="shared" si="21"/>
-        <v>84.325799867499413</v>
+        <f t="shared" si="25"/>
+        <v>84.340176888895627</v>
       </c>
       <c r="CB12" s="12">
-        <f t="shared" si="21"/>
-        <v>82.639283870149427</v>
+        <f t="shared" si="25"/>
+        <v>82.653373351117708</v>
       </c>
       <c r="CC12" s="12">
-        <f t="shared" si="21"/>
-        <v>80.986498192746438</v>
+        <f t="shared" si="25"/>
+        <v>81.000305884095354</v>
       </c>
       <c r="CD12" s="12">
-        <f t="shared" si="21"/>
-        <v>79.366768228891502</v>
+        <f t="shared" si="25"/>
+        <v>79.380299766413444</v>
       </c>
       <c r="CE12" s="12">
-        <f t="shared" si="21"/>
-        <v>77.779432864313677</v>
+        <f t="shared" si="25"/>
+        <v>77.792693771085169</v>
       </c>
       <c r="CF12" s="12">
-        <f t="shared" si="21"/>
-        <v>76.223844207027398</v>
+        <f t="shared" si="25"/>
+        <v>76.236839895663465</v>
       </c>
       <c r="CG12" s="12">
-        <f t="shared" si="21"/>
-        <v>74.699367322886843</v>
+        <f t="shared" si="25"/>
+        <v>74.712103097750187</v>
       </c>
       <c r="CH12" s="12">
-        <f t="shared" si="21"/>
-        <v>73.2053799764291</v>
+        <f t="shared" si="25"/>
+        <v>73.217861035795181</v>
       </c>
       <c r="CI12" s="12">
-        <f t="shared" si="21"/>
-        <v>71.741272376900511</v>
+        <f t="shared" si="25"/>
+        <v>71.75350381507927</v>
       </c>
       <c r="CJ12" s="12">
-        <f t="shared" si="21"/>
-        <v>70.306446929362494</v>
+        <f t="shared" si="25"/>
+        <v>70.318433738777685</v>
       </c>
       <c r="CK12" s="12">
-        <f t="shared" si="21"/>
-        <v>68.90031799077525</v>
+        <f t="shared" si="25"/>
+        <v>68.912065064002135</v>
       </c>
       <c r="CL12" s="12">
-        <f t="shared" si="21"/>
-        <v>67.522311630959749</v>
+        <f t="shared" si="25"/>
+        <v>67.533823762722093</v>
       </c>
       <c r="CM12" s="12">
-        <f t="shared" si="21"/>
-        <v>66.171865398340557</v>
+        <f t="shared" si="25"/>
+        <v>66.183147287467648</v>
       </c>
       <c r="CN12" s="12">
-        <f t="shared" si="21"/>
-        <v>64.848428090373744</v>
+        <f t="shared" si="25"/>
+        <v>64.8594843417183</v>
       </c>
       <c r="CO12" s="12">
-        <f t="shared" si="21"/>
-        <v>63.551459528566269</v>
+        <f t="shared" si="25"/>
+        <v>63.562294654883935</v>
       </c>
       <c r="CP12" s="12">
-        <f t="shared" si="21"/>
-        <v>62.280430337994943</v>
+        <f t="shared" si="25"/>
+        <v>62.291048761786257</v>
       </c>
       <c r="CQ12" s="12">
-        <f t="shared" si="21"/>
-        <v>61.034821731235041</v>
+        <f t="shared" si="25"/>
+        <v>61.045227786550534</v>
       </c>
       <c r="CR12" s="12">
-        <f t="shared" si="21"/>
-        <v>59.814125296610342</v>
+        <f t="shared" si="25"/>
+        <v>59.824323230819523</v>
       </c>
       <c r="CS12" s="12">
-        <f t="shared" si="21"/>
-        <v>58.617842790678132</v>
+        <f t="shared" si="25"/>
+        <v>58.627836766203131</v>
       </c>
       <c r="CT12" s="12">
-        <f t="shared" si="21"/>
-        <v>57.445485934864571</v>
+        <f t="shared" si="25"/>
+        <v>57.455280030879067</v>
       </c>
       <c r="CU12" s="12">
-        <f t="shared" si="21"/>
-        <v>56.296576216167281</v>
+        <f t="shared" si="25"/>
+        <v>56.306174430261485</v>
       </c>
       <c r="CV12" s="12">
-        <f t="shared" si="21"/>
-        <v>55.170644691843933</v>
+        <f t="shared" si="25"/>
+        <v>55.180050941656255</v>
       </c>
       <c r="CW12" s="12">
-        <f t="shared" si="21"/>
-        <v>54.06723179800705</v>
+        <f t="shared" si="25"/>
+        <v>54.07644992282313</v>
       </c>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.2">
@@ -4354,35 +4475,35 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="26">
-        <f t="shared" ref="F13:M13" si="22">F12/F14</f>
+        <f t="shared" ref="F13:M13" si="26">F12/F14</f>
         <v>8.8853291768992385E-2</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5.9400000000000057E-2</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7.6442866571663867E-2</v>
       </c>
       <c r="I13" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-6.6068394484364051E-2</v>
       </c>
       <c r="J13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-7.3358228129837819E-2</v>
       </c>
       <c r="K13" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.116869753753031E-2</v>
       </c>
       <c r="L13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.15819934224664817</v>
       </c>
       <c r="M13" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6.0988847885565384E-2</v>
       </c>
       <c r="N13" s="26">
@@ -4397,104 +4518,110 @@
         <f>P12/P14</f>
         <v>0.12687408302518133</v>
       </c>
-      <c r="Q13" s="33"/>
+      <c r="Q13" s="33">
+        <f>Q12/Q14</f>
+        <v>4.6391481463693103E-2</v>
+      </c>
       <c r="R13" s="26"/>
       <c r="S13" s="26">
-        <f t="shared" ref="S13:AQ13" si="23">S12/S14</f>
+        <f t="shared" ref="S13:AQ13" si="27">S12/S14</f>
         <v>1.1214705682000902E-2</v>
       </c>
       <c r="T13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.12101333333333329</v>
       </c>
       <c r="U13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.12522666666666665</v>
       </c>
       <c r="V13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.14856666666666668</v>
       </c>
       <c r="W13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.0285867154261852E-3</v>
       </c>
       <c r="X13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.0497680513797826E-2</v>
       </c>
       <c r="Y13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.21907666815291649</v>
       </c>
       <c r="Z13" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.19916831845170624</v>
       </c>
-      <c r="AA13" s="26"/>
+      <c r="AA13" s="26">
+        <f t="shared" si="27"/>
+        <v>0.17425206713287211</v>
+      </c>
       <c r="AB13" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.39437570542856992</v>
       </c>
       <c r="AC13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.39601545947620259</v>
+        <f t="shared" si="27"/>
+        <v>0.39610387764100691</v>
       </c>
       <c r="AD13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.47236269487538352</v>
+        <f t="shared" si="27"/>
+        <v>0.4725106289528927</v>
       </c>
       <c r="AE13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.56563923445330777</v>
+        <f t="shared" si="27"/>
+        <v>0.56579009699724658</v>
       </c>
       <c r="AF13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.64918808095210523</v>
+        <f t="shared" si="27"/>
+        <v>0.6493366992888322</v>
       </c>
       <c r="AG13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.71221325212721109</v>
+        <f t="shared" si="27"/>
+        <v>0.71235747622916012</v>
       </c>
       <c r="AH13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.78200963924849032</v>
+        <f t="shared" si="27"/>
+        <v>0.78214689012902194</v>
       </c>
       <c r="AI13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.84146126117509434</v>
+        <f t="shared" si="27"/>
+        <v>0.8417343417500126</v>
       </c>
       <c r="AJ13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.88110587896569736</v>
+        <f t="shared" si="27"/>
+        <v>0.88124217755074485</v>
       </c>
       <c r="AK13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.9232222271399303</v>
+        <f t="shared" si="27"/>
+        <v>0.92337556304810819</v>
       </c>
       <c r="AL13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.93796257836136909</v>
+        <f t="shared" si="27"/>
+        <v>0.93812402898746916</v>
       </c>
       <c r="AM13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.95314981068020921</v>
+        <f t="shared" si="27"/>
+        <v>0.95331295087488299</v>
       </c>
       <c r="AN13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.96872076634654458</v>
+        <f t="shared" si="27"/>
+        <v>0.96888544124755993</v>
       </c>
       <c r="AO13" s="27">
-        <f t="shared" si="23"/>
-        <v>0.98467491790650485</v>
+        <f t="shared" si="27"/>
+        <v>0.98484159987805653</v>
       </c>
       <c r="AP13" s="27">
-        <f t="shared" si="23"/>
-        <v>1.0010152636468461</v>
+        <f t="shared" si="27"/>
+        <v>1.0011847528520983</v>
       </c>
       <c r="AQ13" s="27">
-        <f t="shared" si="23"/>
-        <v>1.0177440593109464</v>
+        <f t="shared" si="27"/>
+        <v>1.0179175783067884</v>
       </c>
     </row>
     <row r="14" spans="1:101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4540,6 +4667,10 @@
       <c r="P14" s="14">
         <v>172.98253099999999</v>
       </c>
+      <c r="Q14" s="32">
+        <f>+AA14</f>
+        <v>171.64789200000001</v>
+      </c>
       <c r="S14" s="27">
         <v>105.84317</v>
       </c>
@@ -4564,7 +4695,9 @@
       <c r="Z14" s="27">
         <v>171.46803399999999</v>
       </c>
-      <c r="AA14" s="27"/>
+      <c r="AA14" s="27">
+        <v>171.64789200000001</v>
+      </c>
       <c r="AB14" s="134">
         <f>+Z14</f>
         <v>171.46803399999999</v>
@@ -4574,59 +4707,59 @@
         <v>171.46803399999999</v>
       </c>
       <c r="AD14" s="27">
-        <f t="shared" ref="AD14:AQ14" si="24">AC14</f>
+        <f t="shared" ref="AD14:AQ14" si="28">AC14</f>
         <v>171.46803399999999</v>
       </c>
       <c r="AE14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AF14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AG14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AH14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AI14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AJ14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AK14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AL14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AM14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AN14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AO14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AP14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
       <c r="AQ14" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>171.46803399999999</v>
       </c>
     </row>
@@ -4644,63 +4777,67 @@
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="23">
-        <f t="shared" ref="F16:L16" si="25">F5/F3</f>
+        <f t="shared" ref="F16:L16" si="29">F5/F3</f>
         <v>0.85857590685176888</v>
       </c>
       <c r="G16" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.8558438255118912</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.85590062111801246</v>
       </c>
       <c r="I16" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.84701747534901894</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.88574714847119718</v>
       </c>
       <c r="K16" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.85246968833916514</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.86382558174358359</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" ref="M16:N16" si="26">M5/M3</f>
+        <f t="shared" ref="M16:N16" si="30">M5/M3</f>
         <v>0.83166253419972636</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.82760876676480211</v>
       </c>
       <c r="O16" s="34">
-        <f t="shared" ref="O16:P16" si="27">O5/O3</f>
+        <f t="shared" ref="O16:P16" si="31">O5/O3</f>
         <v>0.43600875940207556</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.64682389857954314</v>
       </c>
+      <c r="Q16" s="34">
+        <f t="shared" ref="Q16" si="32">Q5/Q3</f>
+        <v>0.61508650145667731</v>
+      </c>
       <c r="S16" s="23">
-        <f t="shared" ref="S16:T16" si="28">S5/S3</f>
+        <f t="shared" ref="S16:T16" si="33">S5/S3</f>
         <v>0.85328664255794195</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.86532184472834472</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" ref="U16:V16" si="29">U5/U3</f>
+        <f t="shared" ref="U16:V16" si="34">U5/U3</f>
         <v>0.8610677904237316</v>
       </c>
       <c r="V16" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.85725283692857257</v>
       </c>
       <c r="W16" s="23">
@@ -4712,76 +4849,79 @@
         <v>0.85729986922284984</v>
       </c>
       <c r="Y16" s="23">
-        <f t="shared" ref="Y16:Z16" si="30">Y5/Y3</f>
+        <f t="shared" ref="Y16:Z16" si="35">Y5/Y3</f>
         <v>0.84829230777171583</v>
       </c>
       <c r="Z16" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.6363805432346733</v>
       </c>
-      <c r="AA16" s="23"/>
+      <c r="AA16" s="23">
+        <f t="shared" ref="AA16" si="36">AA5/AA3</f>
+        <v>0.63150447701595924</v>
+      </c>
       <c r="AB16" s="135">
         <f>AB5/AB3</f>
         <v>0.84000000000000008</v>
       </c>
       <c r="AC16" s="23">
-        <f t="shared" ref="AC16:AQ16" si="31">AC5/AC3</f>
+        <f t="shared" ref="AC16:AQ16" si="37">AC5/AC3</f>
         <v>0.86</v>
       </c>
       <c r="AD16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.8600000000000001</v>
       </c>
       <c r="AE16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.86</v>
       </c>
       <c r="AF16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.86</v>
       </c>
       <c r="AG16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.86</v>
       </c>
       <c r="AH16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.86</v>
       </c>
       <c r="AI16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.86</v>
       </c>
       <c r="AJ16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.86</v>
       </c>
       <c r="AK16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.86</v>
       </c>
       <c r="AL16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.86</v>
       </c>
       <c r="AM16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.86</v>
       </c>
       <c r="AN16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AO16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.86</v>
       </c>
       <c r="AP16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AQ16" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.85999999999999988</v>
       </c>
       <c r="AS16" s="46" t="s">
@@ -4797,63 +4937,67 @@
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="23">
-        <f t="shared" ref="F17:L17" si="32">F8/F3</f>
+        <f t="shared" ref="F17:L17" si="38">F8/F3</f>
         <v>0.25023137781758459</v>
       </c>
       <c r="G17" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.18569566323286293</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.27698974433049256</v>
       </c>
       <c r="I17" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-0.90940154251684147</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-0.96060577015240112</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.31901700707950204</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.37551036706497759</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" ref="M17:N17" si="33">M8/M3</f>
+        <f t="shared" ref="M17:N17" si="39">M8/M3</f>
         <v>0.19058866279069778</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.29209828081270683</v>
       </c>
       <c r="O17" s="34">
-        <f t="shared" ref="O17:P17" si="34">O8/O3</f>
+        <f t="shared" ref="O17:P17" si="40">O8/O3</f>
         <v>0.20888317623536121</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.28835359561025953</v>
       </c>
+      <c r="Q17" s="34">
+        <f t="shared" ref="Q17" si="41">Q8/Q3</f>
+        <v>0.17208574614250258</v>
+      </c>
       <c r="S17" s="23">
-        <f t="shared" ref="S17:T17" si="35">S8/S3</f>
+        <f t="shared" ref="S17:T17" si="42">S8/S3</f>
         <v>0.13719072927301687</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.19480029481959843</v>
       </c>
       <c r="U17" s="23">
-        <f t="shared" ref="U17:V17" si="36">U8/U3</f>
+        <f t="shared" ref="U17:V17" si="43">U8/U3</f>
         <v>0.20649036068619966</v>
       </c>
       <c r="V17" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.2189785517421898</v>
       </c>
       <c r="W17" s="23">
@@ -4865,84 +5009,87 @@
         <v>0.13328139347227252</v>
       </c>
       <c r="Y17" s="23">
-        <f t="shared" ref="Y17:AQ17" si="37">Y8/Y3</f>
+        <f t="shared" ref="Y17:AQ17" si="44">Y8/Y3</f>
         <v>0.28620168162650139</v>
       </c>
       <c r="Z17" s="23">
-        <f t="shared" ref="Z17" si="38">Z8/Z3</f>
+        <f t="shared" ref="Z17:AA17" si="45">Z8/Z3</f>
         <v>0.25146223300880594</v>
       </c>
-      <c r="AA17" s="23"/>
+      <c r="AA17" s="23">
+        <f t="shared" si="45"/>
+        <v>0.23223191072877913</v>
+      </c>
       <c r="AB17" s="135">
         <f>AB8/AB3</f>
         <v>0.31680996246057758</v>
       </c>
       <c r="AC17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31972061768197663</v>
+        <f t="shared" si="44"/>
+        <v>0.31978964321874082</v>
       </c>
       <c r="AD17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31913751623426984</v>
+        <f t="shared" si="44"/>
+        <v>0.31923375615970806</v>
       </c>
       <c r="AE17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31904558728497412</v>
+        <f t="shared" si="44"/>
+        <v>0.3191273748409843</v>
       </c>
       <c r="AF17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31901699254586874</v>
+        <f t="shared" si="44"/>
+        <v>0.31908705419572414</v>
       </c>
       <c r="AG17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31902524499582702</v>
+        <f t="shared" si="44"/>
+        <v>0.31908705419572414</v>
       </c>
       <c r="AH17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31903358080386574</v>
+        <f t="shared" si="44"/>
+        <v>0.31908705419572414</v>
       </c>
       <c r="AI17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31853134931929028</v>
+        <f t="shared" si="44"/>
+        <v>0.3186298614349824</v>
       </c>
       <c r="AJ17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31858664915920454</v>
+        <f t="shared" si="44"/>
+        <v>0.31863347664987812</v>
       </c>
       <c r="AK17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31872315215262864</v>
+        <f t="shared" si="44"/>
+        <v>0.31877332446406442</v>
       </c>
       <c r="AL17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31869890051397659</v>
+        <f t="shared" si="44"/>
+        <v>0.31875069217044472</v>
       </c>
       <c r="AM17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31869360508372963</v>
+        <f t="shared" si="44"/>
+        <v>0.31874491258591631</v>
       </c>
       <c r="AN17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31868430243738827</v>
+        <f t="shared" si="44"/>
+        <v>0.31873507711042109</v>
       </c>
       <c r="AO17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31866867242209507</v>
+        <f t="shared" si="44"/>
+        <v>0.3187190582247495</v>
       </c>
       <c r="AP17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.31864558404074694</v>
+        <f t="shared" si="44"/>
+        <v>0.31869581383787282</v>
       </c>
       <c r="AQ17" s="23">
-        <f t="shared" si="37"/>
-        <v>0.3186137470254885</v>
+        <f t="shared" si="44"/>
+        <v>0.31866416277578319</v>
       </c>
       <c r="AS17" s="46" t="s">
         <v>89</v>
       </c>
       <c r="AT17" s="64">
         <f>NPV(AT16,AC12:CW12)</f>
-        <v>1856.1599751389613</v>
+        <v>1856.5177540447805</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4952,63 +5099,67 @@
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="23">
-        <f t="shared" ref="F18:L18" si="39">F12/F3</f>
+        <f t="shared" ref="F18:L18" si="46">F12/F3</f>
         <v>0.19965666517390643</v>
       </c>
       <c r="G18" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>0.14164441053033205</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>0.16640184890943235</v>
       </c>
       <c r="I18" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>-0.98945621399980577</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>-1.1150196491900701</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>0.21744649686711701</v>
       </c>
       <c r="L18" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>0.26978327493436355</v>
       </c>
       <c r="M18" s="34">
-        <f t="shared" ref="M18:N18" si="40">M12/M3</f>
+        <f t="shared" ref="M18:N18" si="47">M12/M3</f>
         <v>0.11142698358413144</v>
       </c>
       <c r="N18" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0.1991785701304839</v>
       </c>
       <c r="O18" s="34">
-        <f t="shared" ref="O18:P18" si="41">O12/O3</f>
+        <f t="shared" ref="O18:P18" si="48">O12/O3</f>
         <v>0.1164524421593829</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0.18413920981315079</v>
       </c>
+      <c r="Q18" s="34">
+        <f t="shared" ref="Q18" si="49">Q12/Q3</f>
+        <v>7.160198539725926E-2</v>
+      </c>
       <c r="S18" s="23">
-        <f t="shared" ref="S18:T18" si="42">S12/S3</f>
+        <f t="shared" ref="S18:T18" si="50">S12/S3</f>
         <v>1.1326011659971446E-2</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.15927277832373993</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" ref="U18:V18" si="43">U12/U3</f>
+        <f t="shared" ref="U18:V18" si="51">U12/U3</f>
         <v>0.15582174735375118</v>
       </c>
       <c r="V18" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.17156296672671562</v>
       </c>
       <c r="W18" s="23">
@@ -5020,84 +5171,87 @@
         <v>2.4040735691032097E-2</v>
       </c>
       <c r="Y18" s="23">
-        <f t="shared" ref="Y18:AB18" si="44">Y12/Y3</f>
+        <f t="shared" ref="Y18:AB18" si="52">Y12/Y3</f>
         <v>0.19330446317506367</v>
       </c>
       <c r="Z18" s="23">
-        <f t="shared" ref="Z18" si="45">Z12/Z3</f>
+        <f t="shared" ref="Z18:AA18" si="53">Z12/Z3</f>
         <v>0.15878130201504537</v>
       </c>
-      <c r="AA18" s="23"/>
+      <c r="AA18" s="23">
+        <f t="shared" si="53"/>
+        <v>0.12981827178069341</v>
+      </c>
       <c r="AB18" s="42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.2832476248413448</v>
       </c>
       <c r="AC18" s="23">
-        <f t="shared" ref="AC18:AQ18" si="46">AC12/AC3</f>
-        <v>0.24732636980436912</v>
+        <f t="shared" ref="AC18:AQ18" si="54">AC12/AC3</f>
+        <v>0.24738159023378048</v>
       </c>
       <c r="AD18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.24584004605329873</v>
+        <f t="shared" si="54"/>
+        <v>0.24591703799364936</v>
       </c>
       <c r="AE18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.24532133350807039</v>
+        <f t="shared" si="54"/>
+        <v>0.2453867635528785</v>
       </c>
       <c r="AF18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.24483217357751796</v>
+        <f t="shared" si="54"/>
+        <v>0.24488822289740225</v>
       </c>
       <c r="AG18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.24418293849769063</v>
+        <f t="shared" si="54"/>
+        <v>0.24423238585760834</v>
       </c>
       <c r="AH18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.243738810065771</v>
+        <f t="shared" si="54"/>
+        <v>0.24378158877925771</v>
       </c>
       <c r="AI18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.24284152510262372</v>
+        <f t="shared" si="54"/>
+        <v>0.24292033479517741</v>
       </c>
       <c r="AJ18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.24217406110448467</v>
+        <f t="shared" si="54"/>
+        <v>0.24221152309702354</v>
       </c>
       <c r="AK18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.24166651454274929</v>
+        <f t="shared" si="54"/>
+        <v>0.24170665239189792</v>
       </c>
       <c r="AL18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.24071079468404435</v>
+        <f t="shared" si="54"/>
+        <v>0.24075222800921886</v>
       </c>
       <c r="AM18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.23981207620077299</v>
+        <f t="shared" si="54"/>
+        <v>0.23985312220252231</v>
       </c>
       <c r="AN18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.23895070769391963</v>
+        <f t="shared" si="54"/>
+        <v>0.23899132743234586</v>
       </c>
       <c r="AO18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.2381235865189805</v>
+        <f t="shared" si="54"/>
+        <v>0.23816389516110403</v>
       </c>
       <c r="AP18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.23732859464691131</v>
+        <f t="shared" si="54"/>
+        <v>0.23736877848461202</v>
       </c>
       <c r="AQ18" s="23">
-        <f t="shared" si="46"/>
-        <v>0.23656351909664572</v>
+        <f t="shared" si="54"/>
+        <v>0.2366038516968815</v>
       </c>
       <c r="AS18" s="46" t="s">
         <v>8</v>
       </c>
       <c r="AT18" s="64">
         <f>Main!C11</f>
-        <v>41.404000000000003</v>
+        <v>28.702000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5106,82 +5260,89 @@
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="23">
-        <f t="shared" ref="F19:L19" si="47">F11/F10</f>
+        <f t="shared" ref="F19:L19" si="55">F11/F10</f>
         <v>0.1837046078730547</v>
       </c>
       <c r="G19" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.20467731857538143</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.20376002211777711</v>
       </c>
       <c r="I19" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.23636226642555747</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.19711505279867483</v>
       </c>
       <c r="K19" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.10634740151160453</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.19176361515686216</v>
       </c>
       <c r="M19" s="34">
-        <f t="shared" ref="M19:N19" si="48">M11/M10</f>
+        <f t="shared" ref="M19:N19" si="56">M11/M10</f>
         <v>0.21182340489869955</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.20834988623641146</v>
       </c>
       <c r="O19" s="34">
-        <f t="shared" ref="O19:P19" si="49">O11/O10</f>
+        <f t="shared" ref="O19:P19" si="57">O11/O10</f>
         <v>0.29670519234086623</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>0.25673936602546737</v>
+      </c>
+      <c r="Q19" s="34">
+        <f t="shared" ref="Q19" si="58">Q11/Q10</f>
+        <v>0.39811035525321253</v>
       </c>
       <c r="S19" s="23">
         <f>S11/S10</f>
         <v>0.53885003885004146</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" ref="T19:X19" si="50">T11/T10</f>
+        <f t="shared" ref="T19:X19" si="59">T11/T10</f>
         <v>0.13561904761904767</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>0.21517506476142731</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>0.1922212556183848</v>
       </c>
       <c r="W19" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>-0.15802675585284237</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>-2.7402597402597104</v>
       </c>
       <c r="Y19" s="23">
-        <f t="shared" ref="Y19:Z19" si="51">Y11/Y10</f>
+        <f t="shared" ref="Y19:Z19" si="60">Y11/Y10</f>
         <v>0.19744990892531872</v>
       </c>
       <c r="Z19" s="23">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>0.24243566992014201</v>
       </c>
-      <c r="AA19" s="23"/>
+      <c r="AA19" s="23">
+        <f t="shared" ref="AA19" si="61">AA11/AA10</f>
+        <v>0.30048178118714641</v>
+      </c>
       <c r="AB19" s="135">
         <v>0.2</v>
       </c>
@@ -5190,59 +5351,59 @@
         <v>0.2</v>
       </c>
       <c r="AD19" s="23">
-        <f t="shared" ref="AD19:AQ19" si="52">AC19</f>
+        <f t="shared" ref="AD19:AQ19" si="62">AC19</f>
         <v>0.2</v>
       </c>
       <c r="AE19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AF19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AG19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AH19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AI19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AJ19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AK19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AL19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AM19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AN19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AO19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AP19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AQ19" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2</v>
       </c>
       <c r="AS19" s="46" t="s">
@@ -5250,7 +5411,7 @@
       </c>
       <c r="AT19" s="64">
         <f>AT17+AT18</f>
-        <v>1897.5639751389613</v>
+        <v>1885.2197540447805</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5259,7 +5420,7 @@
       </c>
       <c r="AT20" s="65">
         <f>AT19/Main!C7</f>
-        <v>10.969685575585441</v>
+        <v>10.983063829556267</v>
       </c>
     </row>
     <row r="21" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5274,62 +5435,62 @@
         <v>71</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:Q21" si="53">H3/F3-1</f>
+        <f t="shared" ref="H21:Q21" si="63">H3/F3-1</f>
         <v>3.3437826541274918E-2</v>
       </c>
       <c r="I21" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>-0.8371645682309552</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>-0.84929943666040741</v>
       </c>
       <c r="K21" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>4.9987308405740531</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>8.6015527652640671</v>
       </c>
       <c r="M21" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>0.5227927414761171</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>9.8619388457967805E-2</v>
       </c>
       <c r="O21" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>0.12249914500683956</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>8.3006215243702997E-2</v>
       </c>
       <c r="Q21" s="34">
-        <f t="shared" si="53"/>
-        <v>5.8868894601542543E-2</v>
+        <f t="shared" si="63"/>
+        <v>5.8859373512329949E-2</v>
       </c>
       <c r="S21" s="38" t="s">
         <v>71</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" ref="T21:W21" si="54">T3/S3-1</f>
+        <f t="shared" ref="T21:W21" si="64">T3/S3-1</f>
         <v>8.744978674274595E-2</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>5.7735504703074536E-2</v>
       </c>
       <c r="V21" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>7.7529282941235067E-2</v>
       </c>
       <c r="W21" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>-0.38817035428888169</v>
       </c>
       <c r="X21" s="23">
@@ -5337,16 +5498,16 @@
         <v>-9.5567047928227233E-2</v>
       </c>
       <c r="Y21" s="23">
-        <f t="shared" ref="Y21" si="55">Y3/X3-1</f>
+        <f t="shared" ref="Y21" si="65">Y3/X3-1</f>
         <v>1.6954144522663404</v>
       </c>
       <c r="Z21" s="23">
-        <f t="shared" ref="Z21:AA21" si="56">Z3/Y3-1</f>
+        <f t="shared" ref="Z21:AA21" si="66">Z3/Y3-1</f>
         <v>0.11015221352217641</v>
       </c>
       <c r="AA21" s="23">
-        <f t="shared" si="56"/>
-        <v>7.1219348899489665E-2</v>
+        <f t="shared" si="66"/>
+        <v>7.1214699509954293E-2</v>
       </c>
       <c r="AB21" s="135">
         <v>0.11</v>
@@ -5401,7 +5562,7 @@
       </c>
       <c r="AT21" s="66">
         <f>Main!C6</f>
-        <v>3.2050000000000001</v>
+        <v>3.08</v>
       </c>
       <c r="AU21" s="49"/>
     </row>
@@ -5414,48 +5575,48 @@
         <v>71</v>
       </c>
       <c r="G22" s="34">
-        <f t="shared" ref="G22" si="57">G3/F3-1</f>
+        <f t="shared" ref="G22" si="67">G3/F3-1</f>
         <v>-6.0994178235557306E-2</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:Q22" si="58">H3/G3-1</f>
+        <f t="shared" ref="H22:Q22" si="68">H3/G3-1</f>
         <v>0.10056594175251155</v>
       </c>
       <c r="I22" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>-0.85204391159901782</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>1.8549253148492095E-2</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>4.8894852870698742</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0.63028724875905273</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>-6.5935930839647328E-2</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0.17617134062927486</v>
       </c>
       <c r="O22" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>-4.563297350343487E-2</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0.1347900599828622</v>
       </c>
       <c r="Q22" s="34">
-        <f t="shared" si="58"/>
-        <v>-6.6903269651891528E-2</v>
+        <f t="shared" si="68"/>
+        <v>-6.6911659828672532E-2</v>
       </c>
       <c r="S22" s="38" t="s">
         <v>71</v>
@@ -5535,7 +5696,7 @@
       </c>
       <c r="AT22" s="155">
         <f>AT20/AT21-1</f>
-        <v>2.4226788067349267</v>
+        <v>2.5659298147909957</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5575,7 +5736,7 @@
       </c>
       <c r="AT23" s="154">
         <f>+AT20*Main!C7</f>
-        <v>1897.5639751389613</v>
+        <v>1885.2197540447805</v>
       </c>
     </row>
     <row r="24" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5662,7 +5823,10 @@
         <f>SUM(Z26:Z28)</f>
         <v>71</v>
       </c>
-      <c r="AA25" s="10"/>
+      <c r="AA25" s="10">
+        <f>72+13</f>
+        <v>85</v>
+      </c>
       <c r="AB25" s="130"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
@@ -5829,25 +5993,25 @@
         <v>1.9407962962962964</v>
       </c>
       <c r="T29" s="80">
-        <f t="shared" ref="T29:Z29" si="59">T3/T25</f>
+        <f t="shared" ref="T29:Z29" si="69">T3/T25</f>
         <v>1.9649655172413794</v>
       </c>
       <c r="U29" s="80"/>
       <c r="V29" s="80">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>2.1649000000000003</v>
       </c>
       <c r="W29" s="80"/>
       <c r="X29" s="80">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>1.12309375</v>
       </c>
       <c r="Y29" s="80">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>2.8916567164179106</v>
       </c>
       <c r="Z29" s="80">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>3.0293239436619719</v>
       </c>
       <c r="AA29" s="80"/>
@@ -5951,27 +6115,27 @@
       <c r="O33" s="143"/>
       <c r="Q33" s="143"/>
       <c r="S33" s="141">
-        <f t="shared" ref="S33:X33" si="60">SUM(S34:S36)</f>
+        <f t="shared" ref="S33:X33" si="70">SUM(S34:S36)</f>
         <v>0</v>
       </c>
       <c r="T33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="U33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="V33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="W33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="X33" s="141">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>1787</v>
       </c>
       <c r="Y33" s="141">
@@ -5981,6 +6145,10 @@
       <c r="Z33" s="141">
         <f>SUM(Z34:Z36)</f>
         <v>2787</v>
+      </c>
+      <c r="AA33" s="141">
+        <f>SUM(AA34:AA36)</f>
+        <v>2826</v>
       </c>
       <c r="AB33" s="144"/>
     </row>
@@ -6004,6 +6172,9 @@
       <c r="Z34" s="145">
         <v>7</v>
       </c>
+      <c r="AA34" s="145">
+        <v>7</v>
+      </c>
       <c r="AB34" s="148"/>
     </row>
     <row r="35" spans="1:28" s="145" customFormat="1" x14ac:dyDescent="0.2">
@@ -6026,6 +6197,9 @@
       <c r="Z35" s="145">
         <v>112</v>
       </c>
+      <c r="AA35" s="145">
+        <v>118</v>
+      </c>
       <c r="AB35" s="148"/>
     </row>
     <row r="36" spans="1:28" s="149" customFormat="1" x14ac:dyDescent="0.2">
@@ -6048,1244 +6222,1437 @@
       <c r="Z36" s="149">
         <v>2668</v>
       </c>
+      <c r="AA36" s="149">
+        <v>2701</v>
+      </c>
       <c r="AB36" s="148"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B38" s="29" t="s">
+    <row r="37" spans="1:28" s="175" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="176" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="M37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="Q37" s="177"/>
+      <c r="Y37" s="175">
+        <f>+Y33/X33-1</f>
+        <v>0.41578063794068276</v>
+      </c>
+      <c r="Z37" s="175">
+        <f>+Z33/Y33-1</f>
+        <v>0.10158102766798427</v>
+      </c>
+      <c r="AA37" s="175">
+        <f>+AA33/Z33-1</f>
+        <v>1.3993541442411273E-2</v>
+      </c>
+      <c r="AB37" s="178"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B39" s="29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="14">
-        <v>48.180999999999997</v>
-      </c>
-      <c r="L39" s="14">
-        <v>55.976999999999997</v>
-      </c>
-      <c r="M39" s="31"/>
-      <c r="N39" s="27">
-        <v>74.733999999999995</v>
-      </c>
-      <c r="P39" s="14">
-        <v>91.209000000000003</v>
-      </c>
-      <c r="X39" s="14">
-        <v>49.036000000000001</v>
-      </c>
-      <c r="Y39" s="14">
-        <v>68.641000000000005</v>
-      </c>
-      <c r="Z39" s="14">
-        <v>78.278999999999996</v>
-      </c>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="133"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" s="14">
-        <v>147.39099999999999</v>
+        <v>48.180999999999997</v>
       </c>
       <c r="L40" s="14">
-        <v>133.077</v>
+        <v>55.976999999999997</v>
       </c>
       <c r="M40" s="31"/>
       <c r="N40" s="27">
-        <v>150.56299999999999</v>
+        <v>74.733999999999995</v>
       </c>
       <c r="P40" s="14">
-        <v>160.84</v>
+        <v>91.209000000000003</v>
       </c>
       <c r="X40" s="14">
-        <v>132.34200000000001</v>
+        <v>49.036000000000001</v>
       </c>
       <c r="Y40" s="14">
-        <v>147.45500000000001</v>
+        <v>68.641000000000005</v>
       </c>
       <c r="Z40" s="14">
-        <v>150.81100000000001</v>
-      </c>
-      <c r="AA40" s="14"/>
+        <v>78.278999999999996</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>101.93600000000001</v>
+      </c>
       <c r="AB40" s="133"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41" s="14">
-        <v>78.364000000000004</v>
+        <v>147.39099999999999</v>
       </c>
       <c r="L41" s="14">
-        <v>77.807000000000002</v>
+        <v>133.077</v>
       </c>
       <c r="M41" s="31"/>
       <c r="N41" s="27">
-        <v>88.628</v>
+        <v>150.56299999999999</v>
       </c>
       <c r="P41" s="14">
-        <v>94.15</v>
+        <v>160.84</v>
       </c>
       <c r="X41" s="14">
-        <v>77.947999999999993</v>
+        <v>132.34200000000001</v>
       </c>
       <c r="Y41" s="14">
-        <v>81.793999999999997</v>
+        <v>147.45500000000001</v>
       </c>
       <c r="Z41" s="14">
-        <v>89.376000000000005</v>
-      </c>
-      <c r="AA41" s="14"/>
+        <v>150.81100000000001</v>
+      </c>
+      <c r="AA41" s="14">
+        <v>172.767</v>
+      </c>
       <c r="AB41" s="133"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H42" s="14">
-        <v>2.93</v>
+        <v>78.364000000000004</v>
       </c>
       <c r="L42" s="14">
-        <v>4.13</v>
+        <v>77.807000000000002</v>
       </c>
       <c r="M42" s="31"/>
       <c r="N42" s="27">
-        <v>0.29799999999999999</v>
+        <v>88.628</v>
       </c>
       <c r="P42" s="14">
-        <v>0.13100000000000001</v>
+        <v>94.15</v>
       </c>
       <c r="X42" s="14">
-        <v>6.29</v>
+        <v>77.947999999999993</v>
       </c>
       <c r="Y42" s="14">
-        <v>1.647</v>
+        <v>81.793999999999997</v>
       </c>
       <c r="Z42" s="14">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="AA42" s="14"/>
+        <v>89.376000000000005</v>
+      </c>
+      <c r="AA42" s="14">
+        <v>100.32299999999999</v>
+      </c>
       <c r="AB42" s="133"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="14">
-        <f>SUM(H39:H42)</f>
-        <v>276.86600000000004</v>
+        <v>2.93</v>
       </c>
       <c r="L43" s="14">
-        <f>SUM(L39:L42)</f>
-        <v>270.99099999999999</v>
+        <v>4.13</v>
       </c>
       <c r="M43" s="31"/>
       <c r="N43" s="27">
-        <f>SUM(N39:N42)</f>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="P43" s="14">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="X43" s="14">
+        <v>6.29</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>1.647</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="AB43" s="133"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="14">
+        <f>SUM(H40:H43)</f>
+        <v>276.86600000000004</v>
+      </c>
+      <c r="L44" s="14">
+        <f>SUM(L40:L43)</f>
+        <v>270.99099999999999</v>
+      </c>
+      <c r="M44" s="31"/>
+      <c r="N44" s="27">
+        <f>SUM(N40:N43)</f>
         <v>314.22299999999996</v>
       </c>
-      <c r="P43" s="14">
-        <f>SUM(P39:P42)</f>
+      <c r="P44" s="14">
+        <f>SUM(P40:P43)</f>
         <v>346.33</v>
       </c>
-      <c r="X43" s="14">
-        <f>SUM(X39:X42)</f>
+      <c r="X44" s="14">
+        <f>SUM(X40:X43)</f>
         <v>265.61600000000004</v>
       </c>
-      <c r="Y43" s="14">
-        <f>SUM(Y39:Y42)</f>
+      <c r="Y44" s="14">
+        <f>SUM(Y40:Y43)</f>
         <v>299.53699999999998</v>
       </c>
-      <c r="Z43" s="14">
-        <f>SUM(Z39:Z42)</f>
+      <c r="Z44" s="14">
+        <f>SUM(Z40:Z43)</f>
         <v>319.77500000000003</v>
       </c>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="133"/>
-    </row>
-    <row r="44" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
+      <c r="AA44" s="14">
+        <f>SUM(AA40:AA43)</f>
+        <v>375.54399999999993</v>
+      </c>
+      <c r="AB44" s="133"/>
+    </row>
+    <row r="45" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="12">
+      <c r="E45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="12">
         <v>15.635999999999999</v>
       </c>
-      <c r="I44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="12">
+      <c r="I45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="12">
         <v>49.576999999999998</v>
       </c>
-      <c r="M44" s="30"/>
-      <c r="N44" s="36">
+      <c r="M45" s="30"/>
+      <c r="N45" s="36">
         <v>44.149000000000001</v>
       </c>
-      <c r="O44" s="61"/>
-      <c r="P44" s="12">
+      <c r="O45" s="61"/>
+      <c r="P45" s="12">
         <v>41.404000000000003</v>
       </c>
-      <c r="Q44" s="61"/>
-      <c r="X44" s="12">
+      <c r="Q45" s="61"/>
+      <c r="X45" s="12">
         <v>29.942</v>
       </c>
-      <c r="Y44" s="12">
+      <c r="Y45" s="12">
         <v>56.066000000000003</v>
       </c>
-      <c r="Z44" s="12">
+      <c r="Z45" s="12">
         <v>52.454999999999998</v>
       </c>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="132"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" s="14">
-        <v>2.9940000000000002</v>
-      </c>
-      <c r="L45" s="14">
-        <v>10.474</v>
-      </c>
-      <c r="M45" s="31"/>
-      <c r="N45" s="27">
-        <v>5.8979999999999997</v>
-      </c>
-      <c r="P45" s="14">
-        <v>9.2129999999999992</v>
-      </c>
-      <c r="X45" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="Y45" s="14">
-        <v>5.13</v>
-      </c>
-      <c r="Z45" s="14">
-        <v>8.1159999999999997</v>
-      </c>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="133"/>
+      <c r="AA45" s="12">
+        <v>28.702000000000002</v>
+      </c>
+      <c r="AB45" s="132"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H46" s="14">
-        <v>1.3120000000000001</v>
+        <v>2.9940000000000002</v>
       </c>
       <c r="L46" s="14">
-        <v>0</v>
+        <v>10.474</v>
       </c>
       <c r="M46" s="31"/>
       <c r="N46" s="27">
-        <v>0</v>
+        <v>5.8979999999999997</v>
       </c>
       <c r="P46" s="14">
-        <v>0</v>
+        <v>9.2129999999999992</v>
       </c>
       <c r="X46" s="14">
-        <v>0.65</v>
+        <v>3.3</v>
       </c>
       <c r="Y46" s="14">
-        <v>0.27100000000000002</v>
+        <v>5.13</v>
       </c>
       <c r="Z46" s="14">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="AA46" s="14"/>
+        <v>8.1159999999999997</v>
+      </c>
+      <c r="AA46" s="14">
+        <v>9.42</v>
+      </c>
       <c r="AB46" s="133"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H47" s="14">
-        <v>1.4830000000000001</v>
+        <v>1.3120000000000001</v>
       </c>
       <c r="L47" s="14">
-        <v>1.7390000000000001</v>
+        <v>0</v>
       </c>
       <c r="M47" s="31"/>
       <c r="N47" s="27">
-        <v>2.6389999999999998</v>
+        <v>0</v>
       </c>
       <c r="P47" s="14">
-        <v>2.8980000000000001</v>
+        <v>0</v>
       </c>
       <c r="X47" s="14">
-        <v>1.4610000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="Y47" s="14">
-        <v>2.1480000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="Z47" s="14">
-        <v>2.4449999999999998</v>
-      </c>
-      <c r="AA47" s="14"/>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="AA47" s="14">
+        <v>1.268</v>
+      </c>
       <c r="AB47" s="133"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H48" s="14">
-        <f>H43+H44+H45+H46+H47</f>
-        <v>298.29100000000011</v>
+        <v>1.4830000000000001</v>
       </c>
       <c r="L48" s="14">
-        <f>L43+L44+L45+L46+L47</f>
-        <v>332.78099999999995</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="M48" s="31"/>
       <c r="N48" s="27">
-        <f>N43+N44+N45+N46+N47</f>
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="P48" s="14">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="X48" s="14">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="Y48" s="14">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="Z48" s="14">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="AA48" s="14">
+        <v>2.8969999999999998</v>
+      </c>
+      <c r="AB48" s="133"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="14">
+        <f>H44+H45+H46+H47+H48</f>
+        <v>298.29100000000011</v>
+      </c>
+      <c r="L49" s="14">
+        <f>L44+L45+L46+L47+L48</f>
+        <v>332.78099999999995</v>
+      </c>
+      <c r="M49" s="31"/>
+      <c r="N49" s="27">
+        <f>N44+N45+N46+N47+N48</f>
         <v>366.90899999999999</v>
       </c>
-      <c r="P48" s="14">
-        <f>P43+P44+P45+P46+P47</f>
+      <c r="P49" s="14">
+        <f>P44+P45+P46+P47+P48</f>
         <v>399.84500000000003</v>
       </c>
-      <c r="X48" s="14">
-        <f>SUM(X44:X47)+X43</f>
+      <c r="X49" s="14">
+        <f>SUM(X45:X48)+X44</f>
         <v>300.96900000000005</v>
       </c>
-      <c r="Y48" s="14">
-        <f>SUM(Y44:Y47)+Y43</f>
+      <c r="Y49" s="14">
+        <f>SUM(Y45:Y48)+Y44</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="Z48" s="14">
-        <f>SUM(Z44:Z47)+Z43</f>
+      <c r="Z49" s="14">
+        <f>SUM(Z45:Z48)+Z44</f>
         <v>383.50600000000003</v>
       </c>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="133"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="H49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="31"/>
+      <c r="AA49" s="14">
+        <f>SUM(AA45:AA48)+AA44</f>
+        <v>417.8309999999999</v>
+      </c>
+      <c r="AB49" s="133"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="14">
-        <v>11.737</v>
-      </c>
-      <c r="L50" s="14">
-        <v>21.773</v>
-      </c>
+      <c r="H50" s="14"/>
+      <c r="L50" s="14"/>
       <c r="M50" s="31"/>
-      <c r="N50" s="1">
-        <v>25.984000000000002</v>
-      </c>
-      <c r="P50" s="14">
-        <v>29.574000000000002</v>
-      </c>
-      <c r="X50" s="14">
-        <v>18.141999999999999</v>
-      </c>
-      <c r="Y50" s="14">
-        <v>28.681000000000001</v>
-      </c>
-      <c r="Z50" s="14">
-        <v>29.109000000000002</v>
-      </c>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="133"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H51" s="14">
-        <v>11.831</v>
+        <v>11.737</v>
       </c>
       <c r="L51" s="14">
-        <v>11.615</v>
+        <v>21.773</v>
       </c>
       <c r="M51" s="31"/>
       <c r="N51" s="1">
-        <v>11.91</v>
+        <v>25.984000000000002</v>
       </c>
       <c r="P51" s="14">
-        <v>12.964</v>
+        <v>29.574000000000002</v>
       </c>
       <c r="X51" s="14">
-        <v>13.811</v>
+        <v>18.141999999999999</v>
       </c>
       <c r="Y51" s="14">
-        <v>11.557</v>
+        <v>28.681000000000001</v>
       </c>
       <c r="Z51" s="14">
-        <v>12.553000000000001</v>
-      </c>
-      <c r="AA51" s="14"/>
+        <v>29.109000000000002</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>30.427</v>
+      </c>
       <c r="AB51" s="133"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H52" s="14">
-        <v>0</v>
+        <v>11.831</v>
       </c>
       <c r="L52" s="14">
-        <v>2.0670000000000002</v>
+        <v>11.615</v>
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="P52" s="14">
+        <v>12.964</v>
+      </c>
+      <c r="X52" s="14">
+        <v>13.811</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>11.557</v>
+      </c>
+      <c r="Z52" s="14">
+        <v>12.553000000000001</v>
+      </c>
+      <c r="AA52" s="14">
+        <v>14.231</v>
+      </c>
+      <c r="AB52" s="133"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="M53" s="31"/>
+      <c r="N53" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P53" s="14">
         <v>0.79900000000000004</v>
       </c>
-      <c r="X52" s="14">
+      <c r="X53" s="14">
         <v>0</v>
       </c>
-      <c r="Y52" s="14">
+      <c r="Y53" s="14">
         <v>0</v>
       </c>
-      <c r="Z52" s="14">
+      <c r="Z53" s="14">
         <v>0</v>
       </c>
-      <c r="AA52" s="14"/>
-      <c r="AB52" s="133"/>
-    </row>
-    <row r="53" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
+      <c r="AA53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="133"/>
+    </row>
+    <row r="54" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="12">
+      <c r="E54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="12">
         <v>5.38</v>
       </c>
-      <c r="I53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="12">
+      <c r="I54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="12">
         <v>0</v>
       </c>
-      <c r="M53" s="30"/>
-      <c r="N53" s="3">
+      <c r="M54" s="30"/>
+      <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="61"/>
-      <c r="P53" s="12">
+      <c r="O54" s="61"/>
+      <c r="P54" s="12">
         <v>0</v>
       </c>
-      <c r="Q53" s="61"/>
-      <c r="X53" s="12">
+      <c r="Q54" s="61"/>
+      <c r="X54" s="12">
         <v>0</v>
       </c>
-      <c r="Y53" s="12">
+      <c r="Y54" s="12">
         <v>0</v>
       </c>
-      <c r="Z53" s="12">
+      <c r="Z54" s="12">
         <v>0</v>
       </c>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="132"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="1" t="s">
+      <c r="AA54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="132"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="14">
-        <f>SUM(H50:H53)</f>
+      <c r="H55" s="14">
+        <f>SUM(H51:H54)</f>
         <v>28.947999999999997</v>
       </c>
-      <c r="L54" s="14">
-        <f>SUM(L50:L53)</f>
+      <c r="L55" s="14">
+        <f>SUM(L51:L54)</f>
         <v>35.454999999999998</v>
       </c>
-      <c r="M54" s="31"/>
-      <c r="N54" s="14">
-        <f>SUM(N50:N53)</f>
+      <c r="M55" s="31"/>
+      <c r="N55" s="14">
+        <f>SUM(N51:N54)</f>
         <v>37.99</v>
       </c>
-      <c r="P54" s="14">
-        <f>SUM(P50:P53)</f>
+      <c r="P55" s="14">
+        <f>SUM(P51:P54)</f>
         <v>43.337000000000003</v>
       </c>
-      <c r="X54" s="14">
-        <f>SUM(X50:X53)</f>
+      <c r="X55" s="14">
+        <f>SUM(X51:X54)</f>
         <v>31.952999999999999</v>
       </c>
-      <c r="Y54" s="14">
-        <f>SUM(Y50:Y53)</f>
+      <c r="Y55" s="14">
+        <f>SUM(Y51:Y54)</f>
         <v>40.238</v>
       </c>
-      <c r="Z54" s="14">
-        <f>SUM(Z50:Z53)</f>
+      <c r="Z55" s="14">
+        <f>SUM(Z51:Z54)</f>
         <v>41.662000000000006</v>
       </c>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="133"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" s="14">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="L55" s="14">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="M55" s="31"/>
-      <c r="N55" s="1">
-        <v>3.8660000000000001</v>
-      </c>
-      <c r="P55" s="14">
-        <v>6.2370000000000001</v>
-      </c>
-      <c r="X55" s="14">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="Y55" s="14">
-        <v>3</v>
-      </c>
-      <c r="Z55" s="14">
-        <v>5.2080000000000002</v>
-      </c>
-      <c r="AA55" s="14"/>
+      <c r="AA55" s="14">
+        <f>SUM(AA51:AA54)</f>
+        <v>44.658000000000001</v>
+      </c>
       <c r="AB55" s="133"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H56" s="14">
-        <v>164.32900000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="L56" s="14">
-        <v>160.916</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="M56" s="31"/>
       <c r="N56" s="1">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="P56" s="14">
+        <v>6.2370000000000001</v>
+      </c>
+      <c r="X56" s="14">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="AB56" s="133"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="14">
+        <v>164.32900000000001</v>
+      </c>
+      <c r="L57" s="14">
+        <v>160.916</v>
+      </c>
+      <c r="M57" s="31"/>
+      <c r="N57" s="1">
         <v>180.39599999999999</v>
       </c>
-      <c r="P56" s="14">
+      <c r="P57" s="14">
         <v>192.09</v>
       </c>
-      <c r="X56" s="14">
+      <c r="X57" s="14">
         <v>160.12899999999999</v>
       </c>
-      <c r="Y56" s="14">
+      <c r="Y57" s="14">
         <v>176.81200000000001</v>
       </c>
-      <c r="Z56" s="14">
+      <c r="Z57" s="14">
         <v>181.65199999999999</v>
       </c>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="133"/>
-    </row>
-    <row r="57" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
+      <c r="AA57" s="14">
+        <v>204.011</v>
+      </c>
+      <c r="AB57" s="133"/>
+    </row>
+    <row r="58" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="12">
+      <c r="E58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="12">
         <v>24.693000000000001</v>
       </c>
-      <c r="I57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="12">
+      <c r="I58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="12">
         <v>0</v>
       </c>
-      <c r="M57" s="30"/>
-      <c r="N57" s="3">
+      <c r="M58" s="30"/>
+      <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="61"/>
-      <c r="P57" s="12">
+      <c r="O58" s="61"/>
+      <c r="P58" s="12">
         <v>0</v>
       </c>
-      <c r="Q57" s="61"/>
-      <c r="X57" s="12">
+      <c r="Q58" s="61"/>
+      <c r="X58" s="12">
         <v>0</v>
       </c>
-      <c r="Y57" s="12">
+      <c r="Y58" s="12">
         <v>0</v>
       </c>
-      <c r="Z57" s="12">
+      <c r="Z58" s="12">
         <v>1.96</v>
       </c>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="132"/>
-    </row>
-    <row r="58" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="14" t="s">
+      <c r="AA58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="132"/>
+    </row>
+    <row r="59" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="14">
+      <c r="E59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="14">
         <v>0</v>
       </c>
-      <c r="I58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="14">
+      <c r="I59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="14">
         <v>0</v>
       </c>
-      <c r="M58" s="31"/>
-      <c r="N58" s="14">
+      <c r="M59" s="31"/>
+      <c r="N59" s="14">
         <v>0</v>
       </c>
-      <c r="O58" s="31"/>
-      <c r="P58" s="14">
+      <c r="O59" s="31"/>
+      <c r="P59" s="14">
         <v>1.655</v>
       </c>
-      <c r="Q58" s="31"/>
-      <c r="X58" s="14">
+      <c r="Q59" s="31"/>
+      <c r="X59" s="14">
         <v>0</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="Y59" s="14">
         <v>0</v>
       </c>
-      <c r="Z58" s="14">
+      <c r="Z59" s="14">
         <v>0</v>
       </c>
-      <c r="AB58" s="133"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="1" t="s">
+      <c r="AA59" s="14">
+        <v>3.9929999999999999</v>
+      </c>
+      <c r="AB59" s="133"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="14">
         <v>3.8029999999999999</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L60" s="14">
         <v>3.7690000000000001</v>
       </c>
-      <c r="M59" s="31"/>
-      <c r="N59" s="1">
+      <c r="M60" s="31"/>
+      <c r="N60" s="1">
         <v>5.2969999999999997</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P60" s="14">
         <v>5.6520000000000001</v>
       </c>
-      <c r="X59" s="14">
+      <c r="X60" s="14">
         <v>3.6349999999999998</v>
       </c>
-      <c r="Y59" s="14">
+      <c r="Y60" s="14">
         <v>4.6820000000000004</v>
       </c>
-      <c r="Z59" s="14">
+      <c r="Z60" s="14">
         <v>5.0839999999999996</v>
       </c>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="133"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="AA60" s="14">
+        <v>5.8479999999999999</v>
+      </c>
+      <c r="AB60" s="133"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H60" s="14">
-        <f>H54+H55+H56+H57+H59+H58</f>
+      <c r="H61" s="14">
+        <f>H55+H56+H57+H58+H60+H59</f>
         <v>222.46</v>
       </c>
-      <c r="L60" s="14">
-        <f>L54+L55+L56+L57+L59+L58</f>
+      <c r="L61" s="14">
+        <f>L55+L56+L57+L58+L60+L59</f>
         <v>200.65600000000001</v>
       </c>
-      <c r="M60" s="31"/>
-      <c r="N60" s="14">
-        <f>N54+N55+N56+N57+N59+N58</f>
+      <c r="M61" s="31"/>
+      <c r="N61" s="14">
+        <f>N55+N56+N57+N58+N60+N59</f>
         <v>227.54899999999998</v>
       </c>
-      <c r="P60" s="14">
-        <f>P54+P55+P56+P57+P59+P58</f>
+      <c r="P61" s="14">
+        <f>P55+P56+P57+P58+P60+P59</f>
         <v>248.971</v>
       </c>
-      <c r="X60" s="14">
-        <f t="shared" ref="X60:Z60" si="61">X54+X55+X56+X57+X59+X58</f>
+      <c r="X61" s="14">
+        <f t="shared" ref="X61:AA61" si="71">X55+X56+X57+X58+X60+X59</f>
         <v>196.28199999999998</v>
       </c>
-      <c r="Y60" s="14">
-        <f t="shared" si="61"/>
+      <c r="Y61" s="14">
+        <f t="shared" si="71"/>
         <v>224.732</v>
       </c>
-      <c r="Z60" s="14">
-        <f t="shared" si="61"/>
+      <c r="Z61" s="14">
+        <f t="shared" si="71"/>
         <v>235.566</v>
       </c>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="133"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="H61" s="14"/>
+      <c r="AA61" s="14">
+        <f t="shared" si="71"/>
+        <v>265.62599999999998</v>
+      </c>
+      <c r="AB61" s="133"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H62" s="14">
-        <v>75.83</v>
-      </c>
-      <c r="L62" s="14">
-        <v>132.125</v>
-      </c>
-      <c r="M62" s="31"/>
-      <c r="N62" s="14">
-        <v>139.387</v>
-      </c>
-      <c r="P62" s="14">
-        <v>150.874</v>
-      </c>
-      <c r="X62" s="14">
-        <v>104.687</v>
-      </c>
-      <c r="Y62" s="14">
-        <v>138.41999999999999</v>
-      </c>
-      <c r="Z62" s="14">
-        <v>147.94</v>
-      </c>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="133"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H63" s="14">
-        <f>H60+H62</f>
-        <v>298.29000000000002</v>
+        <v>75.83</v>
       </c>
       <c r="L63" s="14">
-        <f>L60+L62</f>
-        <v>332.78100000000001</v>
+        <v>132.125</v>
       </c>
       <c r="M63" s="31"/>
       <c r="N63" s="14">
-        <f>N60+N62</f>
+        <v>139.387</v>
+      </c>
+      <c r="P63" s="14">
+        <v>150.874</v>
+      </c>
+      <c r="X63" s="14">
+        <v>104.687</v>
+      </c>
+      <c r="Y63" s="14">
+        <v>138.41999999999999</v>
+      </c>
+      <c r="Z63" s="14">
+        <v>147.94</v>
+      </c>
+      <c r="AA63" s="14">
+        <v>152.20500000000001</v>
+      </c>
+      <c r="AB63" s="133"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="14">
+        <f>H61+H63</f>
+        <v>298.29000000000002</v>
+      </c>
+      <c r="L64" s="14">
+        <f>L61+L63</f>
+        <v>332.78100000000001</v>
+      </c>
+      <c r="M64" s="31"/>
+      <c r="N64" s="14">
+        <f>N61+N63</f>
         <v>366.93599999999998</v>
       </c>
-      <c r="P63" s="14">
-        <f>P60+P62</f>
+      <c r="P64" s="14">
+        <f>P61+P63</f>
         <v>399.84500000000003</v>
       </c>
-      <c r="X63" s="14">
-        <f>X62+X60</f>
+      <c r="X64" s="14">
+        <f>X63+X61</f>
         <v>300.96899999999999</v>
       </c>
-      <c r="Y63" s="14">
-        <f>Y62+Y60</f>
+      <c r="Y64" s="14">
+        <f>Y63+Y61</f>
         <v>363.15199999999999</v>
       </c>
-      <c r="Z63" s="14">
-        <f>Z62+Z60</f>
+      <c r="Z64" s="14">
+        <f>Z63+Z61</f>
         <v>383.50599999999997</v>
       </c>
-      <c r="AA63" s="14"/>
-      <c r="AB63" s="133"/>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+      <c r="AA64" s="14">
+        <f>AA63+AA61</f>
+        <v>417.83100000000002</v>
+      </c>
+      <c r="AB64" s="133"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H65" s="14">
-        <f>H48-H60</f>
+      <c r="H66" s="14">
+        <f>H49-H61</f>
         <v>75.831000000000103</v>
       </c>
-      <c r="L65" s="14">
-        <f>L48-L60</f>
+      <c r="L66" s="14">
+        <f>L49-L61</f>
         <v>132.12499999999994</v>
       </c>
-      <c r="M65" s="31"/>
-      <c r="N65" s="14">
-        <f>N48-N60</f>
+      <c r="M66" s="31"/>
+      <c r="N66" s="14">
+        <f>N49-N61</f>
         <v>139.36000000000001</v>
       </c>
-      <c r="P65" s="14">
-        <f>P48-P60</f>
+      <c r="P66" s="14">
+        <f>P49-P61</f>
         <v>150.87400000000002</v>
       </c>
-      <c r="X65" s="14">
-        <f t="shared" ref="X65:Y65" si="62">X48-X60</f>
+      <c r="X66" s="14">
+        <f t="shared" ref="X66:Y66" si="72">X49-X61</f>
         <v>104.68700000000007</v>
       </c>
-      <c r="Y65" s="14">
-        <f t="shared" si="62"/>
+      <c r="Y66" s="14">
+        <f t="shared" si="72"/>
         <v>138.41999999999999</v>
       </c>
-      <c r="Z65" s="14">
-        <f t="shared" ref="Z65" si="63">Z48-Z60</f>
+      <c r="Z66" s="14">
+        <f t="shared" ref="Z66:AA66" si="73">Z49-Z61</f>
         <v>147.94000000000003</v>
       </c>
-      <c r="AA65" s="14"/>
-      <c r="AB65" s="133"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="1" t="s">
+      <c r="AA66" s="14">
+        <f t="shared" si="73"/>
+        <v>152.20499999999993</v>
+      </c>
+      <c r="AB66" s="133"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H66" s="1">
-        <f>H65/H14</f>
+      <c r="H67" s="1">
+        <f>H66/H14</f>
         <v>0.50318915060727853</v>
       </c>
-      <c r="L66" s="1">
-        <f>L65/L14</f>
+      <c r="L67" s="1">
+        <f>L66/L14</f>
         <v>0.77343526713555533</v>
       </c>
-      <c r="N66" s="1">
-        <f>N65/N14</f>
+      <c r="N67" s="1">
+        <f>N66/N14</f>
         <v>0.81391234576365445</v>
       </c>
-      <c r="P66" s="1">
-        <f>P65/P14</f>
+      <c r="P67" s="1">
+        <f>P66/P14</f>
         <v>0.87219211748034853</v>
       </c>
-      <c r="X66" s="1">
-        <f t="shared" ref="X66:Y66" si="64">X65/X14</f>
+      <c r="X67" s="1">
+        <f t="shared" ref="X67:Y67" si="74">X66/X14</f>
         <v>0.63597840274765649</v>
       </c>
-      <c r="Y66" s="1">
-        <f t="shared" si="64"/>
+      <c r="Y67" s="1">
+        <f t="shared" si="74"/>
         <v>0.80971382354881549</v>
       </c>
-      <c r="Z66" s="1">
-        <f t="shared" ref="Z66" si="65">Z65/Z14</f>
+      <c r="Z67" s="1">
+        <f t="shared" ref="Z67:AA67" si="75">Z66/Z14</f>
         <v>0.86278472172836618</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="14">
-        <f t="shared" ref="H68" si="66">H44</f>
-        <v>15.635999999999999</v>
-      </c>
-      <c r="L68" s="14">
-        <f t="shared" ref="L68:N68" si="67">L44</f>
-        <v>49.576999999999998</v>
-      </c>
-      <c r="N68" s="14">
-        <f t="shared" si="67"/>
-        <v>44.149000000000001</v>
-      </c>
-      <c r="P68" s="14">
-        <f t="shared" ref="P68" si="68">P44</f>
-        <v>41.404000000000003</v>
-      </c>
-      <c r="X68" s="14">
-        <f t="shared" ref="X68" si="69">X44</f>
-        <v>29.942</v>
-      </c>
-      <c r="Y68" s="14">
-        <f>Y44</f>
-        <v>56.066000000000003</v>
-      </c>
-      <c r="Z68" s="14">
-        <f t="shared" ref="Z68" si="70">Z44</f>
-        <v>52.454999999999998</v>
-      </c>
-      <c r="AA68" s="14"/>
-      <c r="AB68" s="133"/>
+      <c r="AA67" s="1">
+        <f t="shared" si="75"/>
+        <v>0.8867280467388432</v>
+      </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H69" s="14">
-        <f t="shared" ref="H69" si="71">H53+H57</f>
-        <v>30.073</v>
+        <f t="shared" ref="H69" si="76">H45</f>
+        <v>15.635999999999999</v>
       </c>
       <c r="L69" s="14">
-        <f t="shared" ref="L69:N69" si="72">L53+L57</f>
-        <v>0</v>
+        <f t="shared" ref="L69:N69" si="77">L45</f>
+        <v>49.576999999999998</v>
       </c>
       <c r="N69" s="14">
-        <f t="shared" si="72"/>
-        <v>0</v>
+        <f t="shared" si="77"/>
+        <v>44.149000000000001</v>
       </c>
       <c r="P69" s="14">
-        <f t="shared" ref="P69" si="73">P53+P57</f>
-        <v>0</v>
+        <f t="shared" ref="P69" si="78">P45</f>
+        <v>41.404000000000003</v>
       </c>
       <c r="X69" s="14">
-        <f t="shared" ref="X69" si="74">X53+X57</f>
-        <v>0</v>
+        <f t="shared" ref="X69" si="79">X45</f>
+        <v>29.942</v>
       </c>
       <c r="Y69" s="14">
-        <f>Y53+Y57</f>
-        <v>0</v>
+        <f>Y45</f>
+        <v>56.066000000000003</v>
       </c>
       <c r="Z69" s="14">
-        <f t="shared" ref="Z69" si="75">Z53+Z57</f>
-        <v>1.96</v>
-      </c>
-      <c r="AA69" s="14"/>
+        <f t="shared" ref="Z69:AA69" si="80">Z45</f>
+        <v>52.454999999999998</v>
+      </c>
+      <c r="AA69" s="14">
+        <f t="shared" si="80"/>
+        <v>28.702000000000002</v>
+      </c>
       <c r="AB69" s="133"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="14">
+        <f t="shared" ref="H70" si="81">H54+H58</f>
+        <v>30.073</v>
+      </c>
+      <c r="L70" s="14">
+        <f t="shared" ref="L70:N70" si="82">L54+L58</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="14">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="14">
+        <f t="shared" ref="P70" si="83">P54+P58</f>
+        <v>0</v>
+      </c>
+      <c r="X70" s="14">
+        <f t="shared" ref="X70" si="84">X54+X58</f>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="14">
+        <f>Y54+Y58</f>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="14">
+        <f t="shared" ref="Z70:AA70" si="85">Z54+Z58</f>
+        <v>1.96</v>
+      </c>
+      <c r="AA70" s="14">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="133"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="14">
-        <f>H68-H69</f>
+      <c r="H71" s="14">
+        <f>H69-H70</f>
         <v>-14.437000000000001</v>
       </c>
-      <c r="L70" s="14">
-        <f>L68-L69</f>
+      <c r="L71" s="14">
+        <f>L69-L70</f>
         <v>49.576999999999998</v>
       </c>
-      <c r="N70" s="14">
-        <f>N68-N69</f>
+      <c r="N71" s="14">
+        <f>N69-N70</f>
         <v>44.149000000000001</v>
       </c>
-      <c r="P70" s="14">
-        <f>P68-P69</f>
+      <c r="P71" s="14">
+        <f>P69-P70</f>
         <v>41.404000000000003</v>
       </c>
-      <c r="X70" s="14">
-        <f>X68-X69</f>
+      <c r="X71" s="14">
+        <f>X69-X70</f>
         <v>29.942</v>
       </c>
-      <c r="Y70" s="14">
-        <f>Y68-Y69</f>
+      <c r="Y71" s="14">
+        <f>Y69-Y70</f>
         <v>56.066000000000003</v>
       </c>
-      <c r="Z70" s="14">
-        <f t="shared" ref="Z70" si="76">Z68-Z69</f>
+      <c r="Z71" s="14">
+        <f t="shared" ref="Z71:AA71" si="86">Z69-Z70</f>
         <v>50.494999999999997</v>
       </c>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="133"/>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1.4767999999999999</v>
-      </c>
-      <c r="L72" s="1">
-        <v>2.3904999999999998</v>
-      </c>
-      <c r="N72" s="1">
-        <v>2.3014000000000001</v>
-      </c>
-      <c r="P72" s="1">
-        <v>3.2949999999999999</v>
-      </c>
-      <c r="S72" s="1">
-        <v>1.4937</v>
-      </c>
-      <c r="T72" s="1">
-        <v>1.6520999999999999</v>
-      </c>
-      <c r="U72" s="1">
-        <v>2.0512999999999999</v>
-      </c>
-      <c r="V72" s="1">
-        <v>2.1863999999999999</v>
-      </c>
-      <c r="W72" s="1">
-        <v>1.2907999999999999</v>
-      </c>
-      <c r="X72" s="1">
-        <v>2.395</v>
-      </c>
-      <c r="Y72" s="1">
-        <v>1.8740000000000001</v>
-      </c>
-      <c r="Z72" s="1">
-        <v>2.4750000000000001</v>
-      </c>
+      <c r="AA71" s="14">
+        <f t="shared" si="86"/>
+        <v>28.702000000000002</v>
+      </c>
+      <c r="AB71" s="133"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="27">
-        <f t="shared" ref="H73" si="77">H72*H14</f>
-        <v>222.55491928799998</v>
-      </c>
-      <c r="L73" s="27">
-        <f t="shared" ref="L73:N73" si="78">L72*L14</f>
-        <v>408.36618902800001</v>
-      </c>
-      <c r="N73" s="27">
-        <f t="shared" si="78"/>
-        <v>394.05116001659997</v>
-      </c>
-      <c r="P73" s="27">
-        <f t="shared" ref="P73" si="79">P72*P14</f>
-        <v>569.977439645</v>
-      </c>
-      <c r="S73" s="27">
-        <f t="shared" ref="S73:W73" si="80">S72*S14</f>
-        <v>158.09794302899999</v>
-      </c>
-      <c r="T73" s="27">
-        <f t="shared" si="80"/>
-        <v>247.815</v>
-      </c>
-      <c r="U73" s="27">
-        <f t="shared" si="80"/>
-        <v>307.69499999999999</v>
-      </c>
-      <c r="V73" s="27">
-        <f t="shared" si="80"/>
-        <v>327.96</v>
-      </c>
-      <c r="W73" s="27">
-        <f t="shared" si="80"/>
-        <v>198.01083562119999</v>
-      </c>
-      <c r="X73" s="27">
-        <f t="shared" ref="X73" si="81">X72*X14</f>
-        <v>394.23565944500001</v>
-      </c>
-      <c r="Y73" s="27">
-        <f>Y72*Y14</f>
-        <v>320.358961964</v>
-      </c>
-      <c r="Z73" s="27">
-        <f t="shared" ref="Z73" si="82">Z72*Z14</f>
-        <v>424.38338414999998</v>
-      </c>
-      <c r="AA73" s="27"/>
-      <c r="AB73" s="134"/>
+        <v>140</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1.4767999999999999</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2.3904999999999998</v>
+      </c>
+      <c r="N73" s="1">
+        <v>2.3014000000000001</v>
+      </c>
+      <c r="P73" s="1">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="S73" s="1">
+        <v>1.4937</v>
+      </c>
+      <c r="T73" s="1">
+        <v>1.6520999999999999</v>
+      </c>
+      <c r="U73" s="1">
+        <v>2.0512999999999999</v>
+      </c>
+      <c r="V73" s="1">
+        <v>2.1863999999999999</v>
+      </c>
+      <c r="W73" s="1">
+        <v>1.2907999999999999</v>
+      </c>
+      <c r="X73" s="1">
+        <v>2.395</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>1.8740000000000001</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="27">
+        <f t="shared" ref="H74" si="87">H73*H14</f>
+        <v>222.55491928799998</v>
+      </c>
+      <c r="L74" s="27">
+        <f t="shared" ref="L74:N74" si="88">L73*L14</f>
+        <v>408.36618902800001</v>
+      </c>
+      <c r="N74" s="27">
+        <f t="shared" si="88"/>
+        <v>394.05116001659997</v>
+      </c>
+      <c r="P74" s="27">
+        <f t="shared" ref="P74" si="89">P73*P14</f>
+        <v>569.977439645</v>
+      </c>
+      <c r="S74" s="27">
+        <f t="shared" ref="S74:W74" si="90">S73*S14</f>
+        <v>158.09794302899999</v>
+      </c>
+      <c r="T74" s="27">
+        <f t="shared" si="90"/>
+        <v>247.815</v>
+      </c>
+      <c r="U74" s="27">
+        <f t="shared" si="90"/>
+        <v>307.69499999999999</v>
+      </c>
+      <c r="V74" s="27">
+        <f t="shared" si="90"/>
+        <v>327.96</v>
+      </c>
+      <c r="W74" s="27">
+        <f t="shared" si="90"/>
+        <v>198.01083562119999</v>
+      </c>
+      <c r="X74" s="27">
+        <f t="shared" ref="X74" si="91">X73*X14</f>
+        <v>394.23565944500001</v>
+      </c>
+      <c r="Y74" s="27">
+        <f>Y73*Y14</f>
+        <v>320.358961964</v>
+      </c>
+      <c r="Z74" s="27">
+        <f t="shared" ref="Z74:AA74" si="92">Z73*Z14</f>
+        <v>424.38338414999998</v>
+      </c>
+      <c r="AA74" s="27">
+        <f t="shared" si="92"/>
+        <v>532.10846520000007</v>
+      </c>
+      <c r="AB74" s="134"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="27">
-        <f>H73-H70</f>
+      <c r="H75" s="27">
+        <f>H74-H71</f>
         <v>236.99191928799999</v>
       </c>
-      <c r="L74" s="27">
-        <f>L73-L70</f>
+      <c r="L75" s="27">
+        <f>L74-L71</f>
         <v>358.78918902800001</v>
       </c>
-      <c r="N74" s="27">
-        <f>N73-N70</f>
+      <c r="N75" s="27">
+        <f>N74-N71</f>
         <v>349.90216001659996</v>
       </c>
-      <c r="P74" s="27">
-        <f>P73-P70</f>
+      <c r="P75" s="27">
+        <f>P74-P71</f>
         <v>528.57343964500001</v>
       </c>
-      <c r="S74" s="27"/>
-      <c r="T74" s="27"/>
-      <c r="U74" s="27"/>
-      <c r="V74" s="27"/>
-      <c r="W74" s="27"/>
-      <c r="X74" s="27">
-        <f>X73-X70</f>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27">
+        <f>X74-X71</f>
         <v>364.293659445</v>
       </c>
-      <c r="Y74" s="27">
-        <f>Y73-Y70</f>
+      <c r="Y75" s="27">
+        <f>Y74-Y71</f>
         <v>264.29296196400003</v>
       </c>
-      <c r="Z74" s="27">
-        <f t="shared" ref="Z74" si="83">Z73-Z70</f>
+      <c r="Z75" s="27">
+        <f t="shared" ref="Z75:AA75" si="93">Z74-Z71</f>
         <v>373.88838414999998</v>
       </c>
-      <c r="AA74" s="27"/>
-      <c r="AB74" s="134"/>
-    </row>
-    <row r="76" spans="1:28" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="92" t="s">
+      <c r="AA75" s="27">
+        <f t="shared" si="93"/>
+        <v>503.40646520000007</v>
+      </c>
+      <c r="AB75" s="134"/>
+    </row>
+    <row r="77" spans="1:28" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="E76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="92">
-        <f>H72/H66</f>
+      <c r="E77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="92">
+        <f>H73/H67</f>
         <v>2.9348804484709379</v>
       </c>
-      <c r="I76" s="93"/>
-      <c r="K76" s="93"/>
-      <c r="L76" s="92">
-        <f>L72/L66</f>
+      <c r="I77" s="93"/>
+      <c r="K77" s="93"/>
+      <c r="L77" s="92">
+        <f>L73/L67</f>
         <v>3.0907563975629149</v>
       </c>
-      <c r="M76" s="93"/>
-      <c r="N76" s="92">
-        <f>N72/N66</f>
+      <c r="M77" s="93"/>
+      <c r="N77" s="92">
+        <f>N73/N67</f>
         <v>2.827577210222445</v>
       </c>
-      <c r="O76" s="93"/>
-      <c r="P76" s="92">
-        <f>P72/P66</f>
+      <c r="O77" s="93"/>
+      <c r="P77" s="92">
+        <f>P73/P67</f>
         <v>3.7778373983920348</v>
       </c>
-      <c r="Q76" s="93"/>
-      <c r="X76" s="92">
-        <f t="shared" ref="X76" si="84">X72/X66</f>
+      <c r="Q77" s="93"/>
+      <c r="X77" s="92">
+        <f t="shared" ref="X77" si="94">X73/X67</f>
         <v>3.7658511510025101</v>
       </c>
-      <c r="Y76" s="92">
-        <f>Y72/Y66</f>
+      <c r="Y77" s="92">
+        <f>Y73/Y67</f>
         <v>2.3143979335645142</v>
       </c>
-      <c r="Z76" s="92">
-        <f t="shared" ref="Z76" si="85">Z72/Z66</f>
+      <c r="Z77" s="92">
+        <f t="shared" ref="Z77:AA77" si="95">Z73/Z67</f>
         <v>2.8686182516560761</v>
       </c>
-      <c r="AB76" s="140"/>
-    </row>
-    <row r="77" spans="1:28" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="94"/>
-      <c r="B77" s="95" t="s">
+      <c r="AA77" s="92">
+        <f t="shared" si="95"/>
+        <v>3.4959985887454441</v>
+      </c>
+      <c r="AB77" s="140"/>
+    </row>
+    <row r="78" spans="1:28" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="94"/>
+      <c r="B78" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="E77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="Q77" s="96"/>
-      <c r="S77" s="92">
-        <f t="shared" ref="S77:W77" si="86">S73/S3</f>
+      <c r="E78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="I78" s="96"/>
+      <c r="K78" s="96"/>
+      <c r="M78" s="96"/>
+      <c r="O78" s="96"/>
+      <c r="Q78" s="96"/>
+      <c r="S78" s="92">
+        <f t="shared" ref="S78:W78" si="96">S74/S3</f>
         <v>1.5085249757068022</v>
       </c>
-      <c r="T77" s="92">
-        <f t="shared" si="86"/>
+      <c r="T78" s="92">
+        <f t="shared" si="96"/>
         <v>2.174426154710094</v>
       </c>
-      <c r="U77" s="92">
-        <f t="shared" si="86"/>
+      <c r="U78" s="92">
+        <f t="shared" si="96"/>
         <v>2.552468726150579</v>
       </c>
-      <c r="V77" s="92">
-        <f t="shared" si="86"/>
+      <c r="V78" s="92">
+        <f t="shared" si="96"/>
         <v>2.5248279366252482</v>
       </c>
-      <c r="W77" s="92">
-        <f t="shared" si="86"/>
+      <c r="W78" s="92">
+        <f t="shared" si="96"/>
         <v>2.4915485211480628</v>
       </c>
-      <c r="X77" s="92">
-        <f t="shared" ref="X77" si="87">X73/X3</f>
+      <c r="X78" s="92">
+        <f t="shared" ref="X78" si="97">X74/X3</f>
         <v>5.4847889402181478</v>
-      </c>
-      <c r="Y77" s="92">
-        <f>Y73/Y3</f>
-        <v>1.6535424198491799</v>
-      </c>
-      <c r="Z77" s="92">
-        <f t="shared" ref="Z77" si="88">Z73/Z3</f>
-        <v>1.9731236651602644</v>
-      </c>
-      <c r="AA77" s="92"/>
-      <c r="AB77" s="140"/>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="X78" s="92">
-        <f t="shared" ref="X78" si="89">X74/X3</f>
-        <v>5.0682219795347674</v>
       </c>
       <c r="Y78" s="92">
         <f>Y74/Y3</f>
-        <v>1.3641560741608643</v>
+        <v>1.6535424198491799</v>
       </c>
       <c r="Z78" s="92">
-        <f t="shared" ref="Z78" si="90">Z74/Z3</f>
-        <v>1.7383527405826615</v>
-      </c>
-      <c r="AA78" s="92"/>
+        <f t="shared" ref="Z78:AA78" si="98">Z74/Z3</f>
+        <v>1.9731236651602644</v>
+      </c>
+      <c r="AA78" s="92">
+        <f t="shared" si="98"/>
+        <v>2.3095085707837275</v>
+      </c>
       <c r="AB78" s="140"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P79" s="92">
-        <f>P72/SUM(O13:P13)</f>
-        <v>16.624188566150199</v>
-      </c>
-      <c r="S79" s="92">
-        <f t="shared" ref="S79:W79" si="91">S72/S13</f>
-        <v>133.19119042038895</v>
-      </c>
-      <c r="T79" s="92">
-        <f t="shared" si="91"/>
-        <v>13.652214631996477</v>
-      </c>
-      <c r="U79" s="92">
-        <f t="shared" si="91"/>
-        <v>16.380696337308347</v>
-      </c>
-      <c r="V79" s="92">
-        <f t="shared" si="91"/>
-        <v>14.71662553286964</v>
-      </c>
-      <c r="W79" s="92">
-        <f t="shared" si="91"/>
-        <v>142.9681123618769</v>
+        <v>141</v>
       </c>
       <c r="X79" s="92">
-        <f t="shared" ref="X79" si="92">X72/X13</f>
-        <v>228.14563625289284</v>
+        <f t="shared" ref="X79" si="99">X75/X3</f>
+        <v>5.0682219795347674</v>
       </c>
       <c r="Y79" s="92">
-        <f>Y72/Y13</f>
-        <v>8.554082987476967</v>
+        <f>Y75/Y3</f>
+        <v>1.3641560741608643</v>
       </c>
       <c r="Z79" s="92">
-        <f t="shared" ref="Z79" si="93">Z72/Z13</f>
-        <v>12.426675182278707</v>
-      </c>
-      <c r="AA79" s="92"/>
+        <f t="shared" ref="Z79:AA79" si="100">Z75/Z3</f>
+        <v>1.7383527405826615</v>
+      </c>
+      <c r="AA79" s="92">
+        <f t="shared" si="100"/>
+        <v>2.1849333773150059</v>
+      </c>
       <c r="AB79" s="140"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P80" s="92">
+        <f>P73/SUM(O13:P13)</f>
+        <v>16.624188566150199</v>
+      </c>
+      <c r="S80" s="92">
+        <f t="shared" ref="S80:W80" si="101">S73/S13</f>
+        <v>133.19119042038895</v>
+      </c>
+      <c r="T80" s="92">
+        <f t="shared" si="101"/>
+        <v>13.652214631996477</v>
+      </c>
+      <c r="U80" s="92">
+        <f t="shared" si="101"/>
+        <v>16.380696337308347</v>
+      </c>
+      <c r="V80" s="92">
+        <f t="shared" si="101"/>
+        <v>14.71662553286964</v>
+      </c>
+      <c r="W80" s="92">
+        <f t="shared" si="101"/>
+        <v>142.9681123618769</v>
+      </c>
+      <c r="X80" s="92">
+        <f t="shared" ref="X80" si="102">X73/X13</f>
+        <v>228.14563625289284</v>
+      </c>
+      <c r="Y80" s="92">
+        <f>Y73/Y13</f>
+        <v>8.554082987476967</v>
+      </c>
+      <c r="Z80" s="92">
+        <f t="shared" ref="Z80:AA80" si="103">Z73/Z13</f>
+        <v>12.426675182278707</v>
+      </c>
+      <c r="AA80" s="92">
+        <f t="shared" si="103"/>
+        <v>17.790319799398205</v>
+      </c>
+      <c r="AB80" s="140"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="X80" s="92">
-        <f t="shared" ref="X80" si="94">X74/X12</f>
+      <c r="X81" s="92">
+        <f t="shared" ref="X81" si="104">X75/X12</f>
         <v>210.81808995659659</v>
       </c>
-      <c r="Y80" s="92">
-        <f>Y74/Y12</f>
+      <c r="Y81" s="92">
+        <f>Y75/Y12</f>
         <v>7.0570335094924017</v>
       </c>
-      <c r="Z80" s="92">
-        <f t="shared" ref="Z80" si="95">Z74/Z12</f>
+      <c r="Z81" s="92">
+        <f t="shared" ref="Z81:AA81" si="105">Z75/Z12</f>
         <v>10.948094760036312</v>
       </c>
-      <c r="AA80" s="92"/>
-      <c r="AB80" s="140"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+      <c r="AA81" s="92">
+        <f t="shared" si="105"/>
+        <v>16.830707629555345</v>
+      </c>
+      <c r="AB81" s="140"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
+      <c r="B85" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>63.473999999999997</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>68.028999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z87" s="1">
+        <f>21.801+7.716</f>
+        <v>29.516999999999999</v>
+      </c>
+      <c r="AA87" s="1">
+        <f>37.979+13.757</f>
+        <v>51.735999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z88" s="1">
+        <f>+Z86-Z87</f>
+        <v>33.956999999999994</v>
+      </c>
+      <c r="AA88" s="1">
+        <f>+AA86-AA87</f>
+        <v>16.292999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z90" s="1">
+        <f>+Z88/Z14</f>
+        <v>0.19803691223286549</v>
+      </c>
+      <c r="AA90" s="1">
+        <f>+AA88/AA14</f>
+        <v>9.4921060842390062E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" s="179" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="179" t="s">
+        <v>165</v>
+      </c>
+      <c r="E91" s="180"/>
+      <c r="G91" s="180"/>
+      <c r="I91" s="180"/>
+      <c r="K91" s="180"/>
+      <c r="M91" s="180"/>
+      <c r="O91" s="180"/>
+      <c r="Q91" s="180"/>
+      <c r="Z91" s="179">
+        <f>+Z73/Z90</f>
+        <v>12.497670116618078</v>
+      </c>
+      <c r="AA91" s="179">
+        <f>+AA73/AA90</f>
+        <v>32.658716332167195</v>
+      </c>
+      <c r="AB91" s="181"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7302,7 +7669,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
   <ignoredErrors>
-    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 AB12 AC11:AQ11 O5:O11" formula="1"/>
+    <ignoredError sqref="K5 K8 K10:K11 I10:I11 I8 I5 G12 G10 G8 G5 M5:M13 AB12 AC11:AQ11 O5:O11 Q5:Q14" formula="1"/>
     <ignoredError sqref="AB6" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId11"/>

--- a/£BOWL.xlsx
+++ b/£BOWL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976FD5A5-42B2-4E06-9D86-39455B239185}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48018AA7-79DE-4B4F-A7CF-6311F758D78B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4835F308-E20A-4B7A-9F17-94D4123EA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{3A373CEE-C2EA-4293-ACE0-4FDA99EC17ED}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{3A373CEE-C2EA-4293-ACE0-4FDA99EC17ED}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
+    <comment ref="W26" authorId="0" shapeId="0" xr:uid="{5616BD4F-B890-4AFE-A4FB-FC8F593A5B53}">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
+    <comment ref="W28" authorId="0" shapeId="0" xr:uid="{AE676B7E-3B85-4E78-BE19-CF820BAD4676}">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="171">
   <si>
     <t>£BOWL</t>
   </si>
@@ -667,6 +667,12 @@
   </si>
   <si>
     <t>Puttstars written down as impairment due to poor performance FY24</t>
+  </si>
+  <si>
+    <t>BOWL announce buyback programme up to 17mil shares</t>
+  </si>
+  <si>
+    <t>H125</t>
   </si>
 </sst>
 </file>
@@ -1278,6 +1284,14 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1326,24 +1340,16 @@
     <xf numFmtId="168" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1435,13 +1441,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1860,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F6BE4A-2205-4DA7-9D70-0F9D2DEA55C5}">
   <dimension ref="B2:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1888,27 +1894,27 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
-      <c r="H5" s="156" t="s">
+      <c r="C5" s="165"/>
+      <c r="D5" s="166"/>
+      <c r="H5" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="158"/>
-      <c r="O5" s="156" t="s">
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="166"/>
+      <c r="O5" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="157"/>
-      <c r="R5" s="157"/>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="158"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="166"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1918,21 +1924,18 @@
         <v>3.08</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="H6" s="163" t="s">
+      <c r="H6" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
       <c r="L6" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="90">
-        <v>45627</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>168</v>
-      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -1943,25 +1946,29 @@
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <f>+'Financial Model'!AA14</f>
+        <f>+'Financial Model'!AB14</f>
         <v>171.64789200000001</v>
       </c>
       <c r="D7" s="39" t="str">
         <f>$C$28</f>
         <v>FY24</v>
       </c>
-      <c r="H7" s="165" t="s">
+      <c r="H7" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
       <c r="L7" s="59">
         <f>[1]Main!$C$25</f>
         <v>51</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="6"/>
+      <c r="O7" s="90">
+        <v>45689</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1977,21 +1984,17 @@
         <v>528.6755073600001</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="H8" s="167" t="s">
+      <c r="H8" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
       <c r="L8" s="59">
         <v>11</v>
       </c>
-      <c r="O8" s="90">
-        <v>45200</v>
-      </c>
-      <c r="P8" s="153" t="s">
-        <v>153</v>
-      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -2003,25 +2006,28 @@
         <v>6</v>
       </c>
       <c r="C9" s="14">
-        <f>+'Financial Model'!AA69</f>
+        <f>+'Financial Model'!AB69</f>
         <v>28.702000000000002</v>
       </c>
       <c r="D9" s="39" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>FY24</v>
       </c>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="59">
         <v>6</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="O9" s="90">
+        <v>45627</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -2032,28 +2038,24 @@
         <v>7</v>
       </c>
       <c r="C10" s="14">
-        <f>+'Financial Model'!AA70</f>
+        <f>+'Financial Model'!AB70</f>
         <v>0</v>
       </c>
       <c r="D10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>FY24</v>
       </c>
-      <c r="H10" s="167" t="s">
+      <c r="H10" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="59">
         <v>7</v>
       </c>
-      <c r="O10" s="90">
-        <v>44866</v>
-      </c>
-      <c r="P10" s="91" t="s">
-        <v>138</v>
-      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -2072,17 +2074,21 @@
         <f t="shared" si="0"/>
         <v>FY24</v>
       </c>
-      <c r="H11" s="167" t="s">
+      <c r="H11" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="59">
         <v>6</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="6"/>
+      <c r="O11" s="90">
+        <v>45200</v>
+      </c>
+      <c r="P11" s="153" t="s">
+        <v>153</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -2098,12 +2104,12 @@
         <v>499.9735073600001</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="H12" s="168" t="s">
+      <c r="H12" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
       <c r="L12" s="60">
         <v>174</v>
       </c>
@@ -2119,8 +2125,12 @@
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="6"/>
+      <c r="O13" s="90">
+        <v>44866</v>
+      </c>
+      <c r="P13" s="91" t="s">
+        <v>138</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -2137,41 +2147,41 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="169" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="162"/>
+      <c r="D16" s="170"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="162"/>
-      <c r="H17" s="156" t="s">
+      <c r="D17" s="170"/>
+      <c r="H17" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="158"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="166"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="170"/>
       <c r="H18" s="81" t="s">
         <v>119</v>
       </c>
@@ -2182,8 +2192,8 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="168"/>
       <c r="H19" s="85" t="s">
         <v>120</v>
       </c>
@@ -2215,11 +2225,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="157"/>
-      <c r="D22" s="158"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="166"/>
       <c r="H22" s="85" t="s">
         <v>122</v>
       </c>
@@ -2232,10 +2242,10 @@
       <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="161" t="s">
+      <c r="C23" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="162"/>
+      <c r="D23" s="170"/>
       <c r="H23" s="86" t="s">
         <v>128</v>
       </c>
@@ -2248,10 +2258,10 @@
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="161">
+      <c r="C24" s="169">
         <v>2010</v>
       </c>
-      <c r="D24" s="162"/>
+      <c r="D24" s="170"/>
       <c r="H24" s="81"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
@@ -2262,11 +2272,11 @@
       <c r="B25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="161">
-        <f>+'Financial Model'!AA25</f>
+      <c r="C25" s="169">
+        <f>+'Financial Model'!AB25</f>
         <v>85</v>
       </c>
-      <c r="D25" s="162"/>
+      <c r="D25" s="170"/>
       <c r="H25" s="81"/>
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
@@ -2280,11 +2290,11 @@
       <c r="B26" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="169">
-        <f>+'Financial Model'!AA33</f>
+      <c r="C26" s="177">
+        <f>+'Financial Model'!AB33</f>
         <v>2826</v>
       </c>
-      <c r="D26" s="162"/>
+      <c r="D26" s="170"/>
       <c r="H26" s="83"/>
       <c r="I26" s="84"/>
       <c r="J26" s="84"/>
@@ -2295,10 +2305,10 @@
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="161">
+      <c r="C27" s="169">
         <v>2016</v>
       </c>
-      <c r="D27" s="162"/>
+      <c r="D27" s="170"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2310,23 +2320,23 @@
       <c r="D28" s="97">
         <v>45643</v>
       </c>
-      <c r="E28" s="174"/>
+      <c r="E28" s="156"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="172" t="s">
+      <c r="C29" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="173"/>
-      <c r="H29" s="156" t="s">
+      <c r="D29" s="183"/>
+      <c r="H29" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="158"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="166"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H30" s="81" t="s">
@@ -2347,11 +2357,11 @@
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="156" t="s">
+      <c r="B32" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="158"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="166"/>
       <c r="H32" s="85" t="s">
         <v>124</v>
       </c>
@@ -2364,11 +2374,11 @@
       <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="170">
-        <f>+C6/'Financial Model'!AA67</f>
+      <c r="C33" s="178">
+        <f>+C6/'Financial Model'!AB67</f>
         <v>3.4734437591406349</v>
       </c>
-      <c r="D33" s="171"/>
+      <c r="D33" s="179"/>
       <c r="H33" s="85"/>
       <c r="I33" s="82"/>
       <c r="J33" s="82"/>
@@ -2379,11 +2389,11 @@
       <c r="B34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="170">
-        <f>+C8/'Financial Model'!AA3</f>
+      <c r="C34" s="178">
+        <f>+C8/'Financial Model'!AB3</f>
         <v>2.2946085154883491</v>
       </c>
-      <c r="D34" s="171"/>
+      <c r="D34" s="179"/>
       <c r="H34" s="81" t="s">
         <v>121</v>
       </c>
@@ -2396,11 +2406,11 @@
       <c r="B35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="170">
-        <f>+C12/'Financial Model'!AA3</f>
+      <c r="C35" s="178">
+        <f>+C12/'Financial Model'!AB3</f>
         <v>2.1700333220196271</v>
       </c>
-      <c r="D35" s="171"/>
+      <c r="D35" s="179"/>
       <c r="H35" s="85" t="s">
         <v>127</v>
       </c>
@@ -2413,11 +2423,11 @@
       <c r="B36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="170">
-        <f>+C6/'Financial Model'!AA13</f>
+      <c r="C36" s="178">
+        <f>+C6/'Financial Model'!AB13</f>
         <v>17.675543542627896</v>
       </c>
-      <c r="D36" s="171"/>
+      <c r="D36" s="179"/>
       <c r="H36" s="81"/>
       <c r="I36" s="82"/>
       <c r="J36" s="82"/>
@@ -2428,11 +2438,11 @@
       <c r="B37" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="170">
-        <f>+C12/'Financial Model'!AA12</f>
+      <c r="C37" s="178">
+        <f>+C12/'Financial Model'!AB12</f>
         <v>16.715931372785036</v>
       </c>
-      <c r="D37" s="171"/>
+      <c r="D37" s="179"/>
       <c r="H37" s="81"/>
       <c r="I37" s="82"/>
       <c r="J37" s="82"/>
@@ -2443,11 +2453,11 @@
       <c r="B38" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="170">
-        <f>+C6/'Financial Model'!AA90</f>
+      <c r="C38" s="178">
+        <f>+C6/'Financial Model'!AB90</f>
         <v>32.448014936475793</v>
       </c>
-      <c r="D38" s="171"/>
+      <c r="D38" s="179"/>
       <c r="H38" s="83"/>
       <c r="I38" s="84"/>
       <c r="J38" s="84"/>
@@ -2458,31 +2468,29 @@
       <c r="B39" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="182">
+      <c r="C39" s="180">
         <v>61</v>
       </c>
-      <c r="D39" s="183"/>
+      <c r="D39" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="O5:U5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
@@ -2497,12 +2505,14 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{A84D86FA-48B5-44CA-921D-0808FAD93C29}"/>
     <hyperlink ref="H7:K7" r:id="rId2" display="Ten Entertainment Group" xr:uid="{3ECDA33B-F500-4B53-BFC3-C26A5E9CD34E}"/>
-    <hyperlink ref="P10" r:id="rId3" xr:uid="{D95A0780-5F95-45A9-AA92-44BF55CFDC51}"/>
-    <hyperlink ref="P8" r:id="rId4" xr:uid="{66193291-EDC1-402D-BD22-8E08782733F4}"/>
+    <hyperlink ref="P13" r:id="rId3" xr:uid="{D95A0780-5F95-45A9-AA92-44BF55CFDC51}"/>
+    <hyperlink ref="P11" r:id="rId4" xr:uid="{66193291-EDC1-402D-BD22-8E08782733F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
@@ -2512,13 +2522,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA8208-8B07-4316-8637-70611CF2B90F}">
-  <dimension ref="A1:CW91"/>
+  <dimension ref="A1:CX91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA26" sqref="AA26"/>
+      <selection pane="bottomRight" activeCell="AU17" sqref="AU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2539,14 +2549,14 @@
     <col min="15" max="15" width="9.140625" style="25"/>
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="17" width="9.140625" style="25"/>
-    <col min="18" max="27" width="9.140625" style="1"/>
-    <col min="28" max="28" width="9.140625" style="78"/>
-    <col min="29" max="44" width="9.140625" style="1"/>
-    <col min="45" max="45" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="9.140625" style="78"/>
+    <col min="30" max="45" width="9.140625" style="1"/>
+    <col min="46" max="46" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:102" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="10" t="s">
         <v>113</v>
       </c>
@@ -2589,83 +2599,86 @@
       <c r="Q1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="R1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="130" t="s">
+      <c r="AC1" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:101" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:102" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="19"/>
       <c r="E2" s="35"/>
@@ -2697,47 +2710,44 @@
         <v>45016</v>
       </c>
       <c r="O2" s="35">
-        <f>Z2</f>
+        <f>AA2</f>
         <v>45199</v>
       </c>
       <c r="P2" s="22">
         <v>45382</v>
       </c>
       <c r="Q2" s="35">
-        <f>+AA2</f>
+        <f>+AB2</f>
         <v>45565</v>
       </c>
-      <c r="S2" s="22">
+      <c r="T2" s="22">
         <v>42643</v>
       </c>
-      <c r="T2" s="22">
+      <c r="U2" s="22">
         <v>43008</v>
       </c>
-      <c r="U2" s="22">
+      <c r="V2" s="22">
         <v>43373</v>
       </c>
-      <c r="V2" s="22">
+      <c r="W2" s="22">
         <v>43738</v>
       </c>
-      <c r="W2" s="22">
+      <c r="X2" s="22">
         <v>44104</v>
       </c>
-      <c r="X2" s="22">
+      <c r="Y2" s="22">
         <v>44469</v>
       </c>
-      <c r="Y2" s="22">
+      <c r="Z2" s="22">
         <v>44834</v>
       </c>
-      <c r="Z2" s="22">
+      <c r="AA2" s="22">
         <v>45199</v>
       </c>
-      <c r="AA2" s="22">
+      <c r="AB2" s="22">
         <v>45565</v>
       </c>
-      <c r="AB2" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="131" t="s">
         <v>67</v>
       </c>
       <c r="AD2" s="21" t="s">
@@ -2782,8 +2792,11 @@
       <c r="AQ2" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR2" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2793,137 +2806,141 @@
         <v>66.989999999999995</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G12" si="0">V3-F3</f>
+        <f t="shared" ref="G3:G12" si="0">W3-F3</f>
         <v>62.904000000000011</v>
       </c>
       <c r="H3" s="36">
         <v>69.23</v>
       </c>
       <c r="I3" s="30">
-        <f>W3-H3</f>
+        <f>X3-H3</f>
         <v>10.242999999999995</v>
       </c>
       <c r="J3" s="12">
         <v>10.433</v>
       </c>
       <c r="K3" s="30">
-        <f>X3-J3</f>
+        <f>Y3-J3</f>
         <v>61.445</v>
       </c>
       <c r="L3" s="12">
         <v>100.173</v>
       </c>
       <c r="M3" s="30">
-        <f>Y3-L3</f>
+        <f>Z3-L3</f>
         <v>93.568000000000012</v>
       </c>
       <c r="N3" s="12">
         <v>110.05200000000001</v>
       </c>
       <c r="O3" s="30">
-        <f>Z3-N3</f>
+        <f>AA3-N3</f>
         <v>105.02999999999999</v>
       </c>
       <c r="P3" s="12">
         <v>119.187</v>
       </c>
       <c r="Q3" s="30">
-        <f>+AA3-P3</f>
+        <f>+AB3-P3</f>
         <v>111.212</v>
       </c>
-      <c r="S3" s="12">
+      <c r="R3" s="36">
+        <f>+P3*(1+R21)</f>
+        <v>129.91383000000002</v>
+      </c>
+      <c r="T3" s="12">
         <v>104.803</v>
       </c>
-      <c r="T3" s="12">
+      <c r="U3" s="12">
         <v>113.968</v>
       </c>
-      <c r="U3" s="12">
+      <c r="V3" s="12">
         <v>120.548</v>
       </c>
-      <c r="V3" s="12">
+      <c r="W3" s="12">
         <v>129.89400000000001</v>
       </c>
-      <c r="W3" s="12">
+      <c r="X3" s="12">
         <v>79.472999999999999</v>
       </c>
-      <c r="X3" s="12">
+      <c r="Y3" s="12">
         <v>71.878</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Z3" s="12">
         <v>193.74100000000001</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="AA3" s="12">
         <v>215.08199999999999</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AB3" s="12">
         <v>230.399</v>
       </c>
-      <c r="AB3" s="132">
-        <f>Z3*(1+AB21)</f>
+      <c r="AC3" s="132">
+        <f>AA3*(1+AC21)</f>
         <v>238.74102000000002</v>
       </c>
-      <c r="AC3" s="36">
-        <f>AB3*(1+AC21)</f>
+      <c r="AD3" s="36">
+        <f>AC3*(1+AD21)</f>
         <v>274.55217299999998</v>
       </c>
-      <c r="AD3" s="36">
-        <f t="shared" ref="AD3:AQ3" si="1">AC3*(1+AD21)</f>
+      <c r="AE3" s="36">
+        <f t="shared" ref="AE3:AR3" si="1">AD3*(1+AE21)</f>
         <v>329.46260759999996</v>
       </c>
-      <c r="AE3" s="36">
+      <c r="AF3" s="36">
         <f t="shared" si="1"/>
         <v>395.35512911999996</v>
       </c>
-      <c r="AF3" s="36">
+      <c r="AG3" s="36">
         <f t="shared" si="1"/>
         <v>454.65839848799993</v>
       </c>
-      <c r="AG3" s="36">
+      <c r="AH3" s="36">
         <f t="shared" si="1"/>
         <v>500.12423833679998</v>
       </c>
-      <c r="AH3" s="36">
+      <c r="AI3" s="36">
         <f t="shared" si="1"/>
         <v>550.13666217048001</v>
       </c>
-      <c r="AI3" s="36">
+      <c r="AJ3" s="36">
         <f t="shared" si="1"/>
         <v>594.14759514411844</v>
       </c>
-      <c r="AJ3" s="36">
+      <c r="AK3" s="36">
         <f t="shared" si="1"/>
         <v>623.85497490132434</v>
       </c>
-      <c r="AK3" s="36">
+      <c r="AL3" s="36">
         <f t="shared" si="1"/>
         <v>655.04772364639064</v>
       </c>
-      <c r="AL3" s="36">
+      <c r="AM3" s="36">
         <f t="shared" si="1"/>
         <v>668.14867811931845</v>
       </c>
-      <c r="AM3" s="36">
+      <c r="AN3" s="36">
         <f t="shared" si="1"/>
         <v>681.51165168170485</v>
       </c>
-      <c r="AN3" s="36">
+      <c r="AO3" s="36">
         <f t="shared" si="1"/>
         <v>695.14188471533896</v>
       </c>
-      <c r="AO3" s="36">
+      <c r="AP3" s="36">
         <f t="shared" si="1"/>
         <v>709.04472240964571</v>
       </c>
-      <c r="AP3" s="36">
+      <c r="AQ3" s="36">
         <f t="shared" si="1"/>
         <v>723.22561685783865</v>
       </c>
-      <c r="AQ3" s="36">
+      <c r="AR3" s="36">
         <f t="shared" si="1"/>
         <v>737.69012919499539</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>33</v>
@@ -2940,28 +2957,28 @@
         <v>9.9760000000000009</v>
       </c>
       <c r="I4" s="31">
-        <f>W4-H4</f>
+        <f>X4-H4</f>
         <v>1.5669999999999984</v>
       </c>
       <c r="J4" s="14">
         <v>1.1919999999999999</v>
       </c>
       <c r="K4" s="31">
-        <f>X4-J4</f>
+        <f>Y4-J4</f>
         <v>9.0649999999999995</v>
       </c>
       <c r="L4" s="14">
         <v>13.641</v>
       </c>
       <c r="M4" s="31">
-        <f>Y4-L4</f>
+        <f>Z4-L4</f>
         <v>15.750999999999999</v>
       </c>
       <c r="N4" s="14">
         <v>18.972000000000001</v>
       </c>
       <c r="O4" s="31">
-        <f>Z4-N4</f>
+        <f>AA4-N4</f>
         <v>59.235999999999997</v>
       </c>
       <c r="P4" s="14">
@@ -2969,104 +2986,104 @@
         <v>42.093999999999994</v>
       </c>
       <c r="Q4" s="31">
-        <f>+AA4-P4</f>
+        <f>+AB4-P4</f>
         <v>42.807000000000002</v>
       </c>
-      <c r="S4" s="14">
+      <c r="T4" s="14">
         <v>15.375999999999999</v>
       </c>
-      <c r="T4" s="14">
+      <c r="U4" s="14">
         <v>15.349</v>
       </c>
-      <c r="U4" s="14">
+      <c r="V4" s="14">
         <v>16.748000000000001</v>
       </c>
-      <c r="V4" s="14">
+      <c r="W4" s="14">
         <v>18.542000000000002</v>
       </c>
-      <c r="W4" s="14">
+      <c r="X4" s="14">
         <v>11.542999999999999</v>
       </c>
-      <c r="X4" s="14">
+      <c r="Y4" s="14">
         <v>10.257</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Z4" s="14">
         <v>29.391999999999999</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="AA4" s="14">
         <f>37.491+40.717</f>
         <v>78.207999999999998</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AB4" s="14">
         <f>39.178+45.723</f>
         <v>84.900999999999996</v>
       </c>
-      <c r="AB4" s="133">
-        <f>AB3*0.16</f>
+      <c r="AC4" s="133">
+        <f>AC3*0.16</f>
         <v>38.198563200000002</v>
       </c>
-      <c r="AC4" s="27">
-        <f t="shared" ref="AC4:AQ4" si="2">AC3*0.14</f>
-        <v>38.437304220000001</v>
-      </c>
       <c r="AD4" s="27">
-        <f t="shared" si="2"/>
-        <v>46.124765063999995</v>
+        <f>AD3*0.38</f>
+        <v>104.32982573999999</v>
       </c>
       <c r="AE4" s="27">
-        <f t="shared" si="2"/>
-        <v>55.349718076800002</v>
+        <f t="shared" ref="AE4:AR4" si="2">AE3*0.38</f>
+        <v>125.19579088799999</v>
       </c>
       <c r="AF4" s="27">
         <f t="shared" si="2"/>
-        <v>63.652175788319994</v>
+        <v>150.23494906559998</v>
       </c>
       <c r="AG4" s="27">
         <f t="shared" si="2"/>
-        <v>70.01739336715201</v>
+        <v>172.77019142543998</v>
       </c>
       <c r="AH4" s="27">
         <f t="shared" si="2"/>
-        <v>77.019132703867214</v>
+        <v>190.047210567984</v>
       </c>
       <c r="AI4" s="27">
         <f t="shared" si="2"/>
-        <v>83.180663320176592</v>
+        <v>209.05193162478241</v>
       </c>
       <c r="AJ4" s="27">
         <f t="shared" si="2"/>
-        <v>87.339696486185417</v>
+        <v>225.77608615476501</v>
       </c>
       <c r="AK4" s="27">
         <f t="shared" si="2"/>
-        <v>91.706681310494702</v>
+        <v>237.06489046250326</v>
       </c>
       <c r="AL4" s="27">
         <f t="shared" si="2"/>
-        <v>93.540814936704592</v>
+        <v>248.91813498562846</v>
       </c>
       <c r="AM4" s="27">
         <f t="shared" si="2"/>
-        <v>95.411631235438691</v>
+        <v>253.89649768534102</v>
       </c>
       <c r="AN4" s="27">
         <f t="shared" si="2"/>
-        <v>97.319863860147464</v>
+        <v>258.97442763904786</v>
       </c>
       <c r="AO4" s="27">
         <f t="shared" si="2"/>
-        <v>99.266261137350412</v>
+        <v>264.15391619182878</v>
       </c>
       <c r="AP4" s="27">
         <f t="shared" si="2"/>
-        <v>101.25158636009742</v>
+        <v>269.43699451566539</v>
       </c>
       <c r="AQ4" s="27">
         <f t="shared" si="2"/>
-        <v>103.27661808729937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>274.82573440597866</v>
+      </c>
+      <c r="AR4" s="27">
+        <f t="shared" si="2"/>
+        <v>280.32224909409825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>34</v>
@@ -3120,108 +3137,108 @@
         <f t="shared" ref="Q5" si="4">Q3-Q4</f>
         <v>68.405000000000001</v>
       </c>
-      <c r="S5" s="12">
-        <f t="shared" ref="S5:AA5" si="5">S3-S4</f>
+      <c r="T5" s="12">
+        <f t="shared" ref="T5:AB5" si="5">T3-T4</f>
         <v>89.426999999999992</v>
       </c>
-      <c r="T5" s="12">
+      <c r="U5" s="12">
         <f t="shared" si="5"/>
         <v>98.619</v>
       </c>
-      <c r="U5" s="12">
+      <c r="V5" s="12">
         <f t="shared" si="5"/>
         <v>103.8</v>
       </c>
-      <c r="V5" s="12">
+      <c r="W5" s="12">
         <f t="shared" si="5"/>
         <v>111.352</v>
       </c>
-      <c r="W5" s="12">
+      <c r="X5" s="12">
         <f t="shared" si="5"/>
         <v>67.930000000000007</v>
       </c>
-      <c r="X5" s="12">
+      <c r="Y5" s="12">
         <f t="shared" si="5"/>
         <v>61.621000000000002</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Z5" s="12">
         <f t="shared" si="5"/>
         <v>164.34900000000002</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="AA5" s="12">
         <f t="shared" si="5"/>
         <v>136.874</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AB5" s="12">
         <f t="shared" si="5"/>
         <v>145.49799999999999</v>
       </c>
-      <c r="AB5" s="132">
-        <f>AB3-AB4</f>
+      <c r="AC5" s="132">
+        <f>AC3-AC4</f>
         <v>200.54245680000002</v>
       </c>
-      <c r="AC5" s="12">
-        <f t="shared" ref="AC5:AQ5" si="6">AC3-AC4</f>
-        <v>236.11486877999999</v>
-      </c>
       <c r="AD5" s="12">
-        <f t="shared" si="6"/>
-        <v>283.33784253599998</v>
+        <f t="shared" ref="AD5:AR5" si="6">AD3-AD4</f>
+        <v>170.22234725999999</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="6"/>
-        <v>340.00541104319996</v>
+        <v>204.26681671199998</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="6"/>
-        <v>391.00622269967994</v>
+        <v>245.12018005439998</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="6"/>
-        <v>430.10684496964797</v>
+        <v>281.88820706255996</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="6"/>
-        <v>473.11752946661278</v>
+        <v>310.07702776881598</v>
       </c>
       <c r="AI5" s="12">
         <f t="shared" si="6"/>
-        <v>510.96693182394188</v>
+        <v>341.0847305456976</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="6"/>
-        <v>536.51527841513894</v>
+        <v>368.3715089893534</v>
       </c>
       <c r="AK5" s="12">
         <f t="shared" si="6"/>
-        <v>563.34104233589596</v>
+        <v>386.79008443882105</v>
       </c>
       <c r="AL5" s="12">
         <f t="shared" si="6"/>
-        <v>574.60786318261387</v>
+        <v>406.12958866076218</v>
       </c>
       <c r="AM5" s="12">
         <f t="shared" si="6"/>
-        <v>586.10002044626617</v>
+        <v>414.2521804339774</v>
       </c>
       <c r="AN5" s="12">
         <f t="shared" si="6"/>
-        <v>597.82202085519145</v>
+        <v>422.53722404265699</v>
       </c>
       <c r="AO5" s="12">
         <f t="shared" si="6"/>
-        <v>609.77846127229532</v>
+        <v>430.98796852351018</v>
       </c>
       <c r="AP5" s="12">
         <f t="shared" si="6"/>
-        <v>621.97403049774118</v>
+        <v>439.60772789398033</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="6"/>
-        <v>634.41351110769597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
+        <v>448.39988245185998</v>
+      </c>
+      <c r="AR5" s="12">
+        <f t="shared" si="6"/>
+        <v>457.36788010089714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -3238,45 +3255,42 @@
         <v>0</v>
       </c>
       <c r="I6" s="31">
-        <f>W6-H6</f>
+        <f>X6-H6</f>
         <v>0</v>
       </c>
       <c r="J6" s="14">
         <v>1.5940000000000001</v>
       </c>
       <c r="K6" s="31">
-        <f>X6-J6</f>
+        <f>Y6-J6</f>
         <v>1.22</v>
       </c>
       <c r="L6" s="14">
         <v>0</v>
       </c>
       <c r="M6" s="31">
-        <f>Y6-L6</f>
+        <f>Z6-L6</f>
         <v>3.9E-2</v>
       </c>
       <c r="N6" s="14">
         <v>0</v>
       </c>
       <c r="O6" s="31">
-        <f t="shared" ref="O6:O11" si="7">Z6-N6</f>
+        <f t="shared" ref="O6:O11" si="7">AA6-N6</f>
         <v>0</v>
       </c>
       <c r="P6" s="14">
         <v>0</v>
       </c>
       <c r="Q6" s="31">
-        <f>+AA6-P6</f>
+        <f>+AB6-P6</f>
         <v>0.60699999999999998</v>
       </c>
-      <c r="S6" s="14">
+      <c r="T6" s="14">
         <v>1.395</v>
       </c>
-      <c r="T6" s="14">
+      <c r="U6" s="14">
         <v>0.08</v>
-      </c>
-      <c r="U6" s="14">
-        <v>0</v>
       </c>
       <c r="V6" s="14">
         <v>0</v>
@@ -3285,83 +3299,86 @@
         <v>0</v>
       </c>
       <c r="X6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
         <v>2.8140000000000001</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Z6" s="14">
         <v>3.9E-2</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="AA6" s="14">
         <v>0</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AB6" s="14">
         <v>0.60699999999999998</v>
       </c>
-      <c r="AB6" s="133">
-        <f>-AVERAGE(V6:Z6)</f>
+      <c r="AC6" s="133">
+        <f>-AVERAGE(W6:AA6)</f>
         <v>-0.5706</v>
       </c>
-      <c r="AC6" s="14">
-        <f t="shared" ref="AC6:AI6" si="8">AVERAGE(S6:AB6)</f>
+      <c r="AD6" s="14">
+        <f t="shared" ref="AD6:AJ6" si="8">AVERAGE(T6:AC6)</f>
         <v>0.43643999999999999</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AE6" s="14">
         <f t="shared" si="8"/>
         <v>0.34058400000000005</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AF6" s="14">
         <f t="shared" si="8"/>
         <v>0.36664240000000003</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AG6" s="14">
         <f t="shared" si="8"/>
         <v>0.40330664000000011</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AH6" s="14">
         <f t="shared" si="8"/>
         <v>0.44363730400000012</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AI6" s="14">
         <f t="shared" si="8"/>
         <v>0.48800103440000014</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AJ6" s="14">
         <f t="shared" si="8"/>
         <v>0.25540113784000007</v>
       </c>
-      <c r="AJ6" s="14">
-        <f>AVERAGE(AB6:AI6)</f>
+      <c r="AK6" s="14">
+        <f>AVERAGE(AC6:AJ6)</f>
         <v>0.27042656453000002</v>
       </c>
-      <c r="AK6" s="14">
-        <f t="shared" ref="AK6:AQ6" si="9">AVERAGE(AC6:AJ6)</f>
+      <c r="AL6" s="14">
+        <f t="shared" ref="AL6:AR6" si="9">AVERAGE(AD6:AK6)</f>
         <v>0.37555488509625012</v>
       </c>
-      <c r="AL6" s="14">
+      <c r="AM6" s="14">
         <f t="shared" si="9"/>
         <v>0.36794424573328138</v>
       </c>
-      <c r="AM6" s="14">
+      <c r="AN6" s="14">
         <f t="shared" si="9"/>
         <v>0.37136427644994152</v>
       </c>
-      <c r="AN6" s="14">
+      <c r="AO6" s="14">
         <f t="shared" si="9"/>
         <v>0.37195451100618415</v>
       </c>
-      <c r="AO6" s="14">
+      <c r="AP6" s="14">
         <f t="shared" si="9"/>
         <v>0.36803549488195719</v>
       </c>
-      <c r="AP6" s="14">
+      <c r="AQ6" s="14">
         <f t="shared" si="9"/>
         <v>0.35858526874220181</v>
       </c>
-      <c r="AQ6" s="14">
+      <c r="AR6" s="14">
         <f t="shared" si="9"/>
         <v>0.34240829803497702</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -3377,21 +3394,21 @@
         <v>40.078000000000003</v>
       </c>
       <c r="I7" s="31">
-        <f>W7-H7</f>
+        <f>X7-H7</f>
         <v>17.991</v>
       </c>
       <c r="J7" s="14">
         <v>20.856999999999999</v>
       </c>
       <c r="K7" s="31">
-        <f>X7-J7</f>
+        <f>Y7-J7</f>
         <v>33.997999999999998</v>
       </c>
       <c r="L7" s="14">
         <v>48.915999999999997</v>
       </c>
       <c r="M7" s="31">
-        <f>Y7-L7</f>
+        <f>Z7-L7</f>
         <v>60.022999999999996</v>
       </c>
       <c r="N7" s="14">
@@ -3405,102 +3422,102 @@
         <v>42.725000000000001</v>
       </c>
       <c r="Q7" s="31">
-        <f>+AA7-P7</f>
+        <f>+AB7-P7</f>
         <v>49.874000000000002</v>
       </c>
-      <c r="S7" s="14">
+      <c r="T7" s="14">
         <v>76.444000000000003</v>
       </c>
-      <c r="T7" s="14">
+      <c r="U7" s="14">
         <v>76.498000000000005</v>
       </c>
-      <c r="U7" s="14">
+      <c r="V7" s="14">
         <v>78.908000000000001</v>
       </c>
-      <c r="V7" s="14">
+      <c r="W7" s="14">
         <v>82.908000000000001</v>
       </c>
-      <c r="W7" s="14">
+      <c r="X7" s="14">
         <v>58.069000000000003</v>
       </c>
-      <c r="X7" s="14">
+      <c r="Y7" s="14">
         <v>54.854999999999997</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Z7" s="14">
         <v>108.93899999999999</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="AA7" s="14">
         <v>82.789000000000001</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AB7" s="14">
         <v>92.599000000000004</v>
       </c>
-      <c r="AB7" s="133">
-        <f>AB5*0.62</f>
+      <c r="AC7" s="133">
+        <f>AC5*0.62</f>
         <v>124.33632321600001</v>
       </c>
-      <c r="AC7" s="27">
-        <f>AC5*0.63</f>
-        <v>148.7523673314</v>
-      </c>
       <c r="AD7" s="27">
-        <f t="shared" ref="AD7:AQ7" si="10">AD5*0.63</f>
-        <v>178.50284079767999</v>
+        <f>AD5*0.63</f>
+        <v>107.24007877379999</v>
       </c>
       <c r="AE7" s="27">
-        <f t="shared" si="10"/>
-        <v>214.20340895721597</v>
+        <f t="shared" ref="AE7:AR7" si="10">AE5*0.63</f>
+        <v>128.68809452855999</v>
       </c>
       <c r="AF7" s="27">
         <f t="shared" si="10"/>
-        <v>246.33392030079835</v>
+        <v>154.42571343427198</v>
       </c>
       <c r="AG7" s="27">
         <f t="shared" si="10"/>
-        <v>270.9673123308782</v>
+        <v>177.58957044941278</v>
       </c>
       <c r="AH7" s="27">
         <f t="shared" si="10"/>
-        <v>298.06404356396604</v>
+        <v>195.34852749435407</v>
       </c>
       <c r="AI7" s="27">
         <f t="shared" si="10"/>
-        <v>321.90916704908341</v>
+        <v>214.88338024378947</v>
       </c>
       <c r="AJ7" s="27">
         <f t="shared" si="10"/>
-        <v>338.00462540153751</v>
+        <v>232.07405066329264</v>
       </c>
       <c r="AK7" s="27">
         <f t="shared" si="10"/>
-        <v>354.90485667161448</v>
+        <v>243.67775319645727</v>
       </c>
       <c r="AL7" s="27">
         <f t="shared" si="10"/>
-        <v>362.00295380504673</v>
+        <v>255.86164085628019</v>
       </c>
       <c r="AM7" s="27">
         <f t="shared" si="10"/>
-        <v>369.24301288114771</v>
+        <v>260.97887367340576</v>
       </c>
       <c r="AN7" s="27">
         <f t="shared" si="10"/>
-        <v>376.62787313877061</v>
+        <v>266.19845114687388</v>
       </c>
       <c r="AO7" s="27">
         <f t="shared" si="10"/>
-        <v>384.16043060154607</v>
+        <v>271.52242016981143</v>
       </c>
       <c r="AP7" s="27">
         <f t="shared" si="10"/>
-        <v>391.84363921357692</v>
+        <v>276.95286857320758</v>
       </c>
       <c r="AQ7" s="27">
         <f t="shared" si="10"/>
-        <v>399.68051199784844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>282.49192594467178</v>
+      </c>
+      <c r="AR7" s="27">
+        <f t="shared" si="10"/>
+        <v>288.14176446356521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:102" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
@@ -3553,108 +3570,108 @@
         <f t="shared" ref="Q8" si="12">Q5+Q6-Q7</f>
         <v>19.137999999999998</v>
       </c>
-      <c r="S8" s="12">
-        <f t="shared" ref="S8:AB8" si="13">S5+S6-S7</f>
+      <c r="T8" s="12">
+        <f t="shared" ref="T8:AC8" si="13">T5+T6-T7</f>
         <v>14.377999999999986</v>
       </c>
-      <c r="T8" s="12">
+      <c r="U8" s="12">
         <f t="shared" si="13"/>
         <v>22.200999999999993</v>
       </c>
-      <c r="U8" s="12">
+      <c r="V8" s="12">
         <f t="shared" si="13"/>
         <v>24.891999999999996</v>
       </c>
-      <c r="V8" s="12">
+      <c r="W8" s="12">
         <f t="shared" si="13"/>
         <v>28.444000000000003</v>
       </c